--- a/CraZZZy Crash Challenge/CCC-Daten.xlsx
+++ b/CraZZZy Crash Challenge/CCC-Daten.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FIXC2I2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\info\KaroStuff\CraZZZy Crash Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,8 +14,10 @@
   <sheets>
     <sheet name="Teilnehmer" sheetId="1" r:id="rId1"/>
     <sheet name="Strecken" sheetId="2" r:id="rId2"/>
+    <sheet name="Rennanzahl" sheetId="4" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="158">
   <si>
     <t>Teilnehmer</t>
   </si>
@@ -345,9 +347,6 @@
     <t>193 Promilletomate</t>
   </si>
   <si>
-    <t>max=5</t>
-  </si>
-  <si>
     <t>194 Lutter-Rundkurs</t>
   </si>
   <si>
@@ -363,9 +362,6 @@
     <t>max=7</t>
   </si>
   <si>
-    <t>0-1</t>
-  </si>
-  <si>
     <t>198 Bitriangularis</t>
   </si>
   <si>
@@ -375,12 +371,6 @@
     <t>von quabla</t>
   </si>
   <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>8-15</t>
-  </si>
-  <si>
     <t>199 Labyrinth</t>
   </si>
   <si>
@@ -408,15 +398,9 @@
     <t>204 Karo Circles</t>
   </si>
   <si>
-    <t>5-10</t>
-  </si>
-  <si>
     <t>205 KaroMan</t>
   </si>
   <si>
-    <t>max=8</t>
-  </si>
-  <si>
     <t>206 LariFari Safari</t>
   </si>
   <si>
@@ -426,24 +410,12 @@
     <t>Kandidat</t>
   </si>
   <si>
-    <t>3-6</t>
-  </si>
-  <si>
-    <t>3-5</t>
-  </si>
-  <si>
     <t>208 kili laesst das Licht heraus</t>
   </si>
   <si>
-    <t>&gt;8</t>
-  </si>
-  <si>
     <t>209 KaroField Nose</t>
   </si>
   <si>
-    <t>7-9</t>
-  </si>
-  <si>
     <t>215 Dead Parrot</t>
   </si>
   <si>
@@ -462,36 +434,18 @@
     <t>221 Zierschleife</t>
   </si>
   <si>
-    <t>7-10</t>
-  </si>
-  <si>
     <t>222 Qropapier</t>
   </si>
   <si>
     <t>223 Paket</t>
   </si>
   <si>
-    <t>max=13</t>
-  </si>
-  <si>
     <t>225 Papierboot</t>
   </si>
   <si>
-    <t>226/227 Roundrobin</t>
-  </si>
-  <si>
-    <t>3-10</t>
-  </si>
-  <si>
-    <t>max=14</t>
-  </si>
-  <si>
     <t>228 Fahrrad</t>
   </si>
   <si>
-    <t>max=6</t>
-  </si>
-  <si>
     <t>185 Auge</t>
   </si>
   <si>
@@ -529,13 +483,34 @@
   </si>
   <si>
     <t>Kommentar</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Züge p.S.</t>
+  </si>
+  <si>
+    <t>Züge Gesamt</t>
+  </si>
+  <si>
+    <t>227 Roundrobin</t>
+  </si>
+  <si>
+    <t>Spieler \ Rennen pSpC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;ca. &quot;\ 0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,40 +532,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -604,25 +568,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -630,53 +581,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;ca. &quot;\ 0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -749,34 +687,42 @@
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Teilnehmer"/>
-    <tableColumn id="2" name="CCC1" dataDxfId="11"/>
-    <tableColumn id="3" name="CCC2" dataDxfId="10"/>
-    <tableColumn id="4" name="CCC3" dataDxfId="9"/>
+    <tableColumn id="2" name="CCC1" dataDxfId="14"/>
+    <tableColumn id="3" name="CCC2" dataDxfId="13"/>
+    <tableColumn id="4" name="CCC3" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:I70" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:I70"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:L69" totalsRowShown="0" dataDxfId="11">
+  <autoFilter ref="A1:L69"/>
+  <sortState ref="A2:J70">
+    <sortCondition ref="A37"/>
+  </sortState>
+  <tableColumns count="12">
     <tableColumn id="1" name="CCC"/>
-    <tableColumn id="2" name="Spieltag" dataDxfId="7"/>
-    <tableColumn id="3" name="Spielerzahl" dataDxfId="6"/>
-    <tableColumn id="4" name="Strecke" dataDxfId="5" dataCellStyle="Link"/>
-    <tableColumn id="5" name="ZZZ" dataDxfId="4"/>
-    <tableColumn id="6" name="CPs" dataDxfId="3"/>
-    <tableColumn id="7" name="Richtungsmodus" dataDxfId="2"/>
-    <tableColumn id="8" name="Anzahl Rennen" dataDxfId="1"/>
-    <tableColumn id="9" name="Kommentar" dataDxfId="0"/>
+    <tableColumn id="2" name="Spieltag" dataDxfId="10"/>
+    <tableColumn id="3" name="Spielerzahl" dataDxfId="9"/>
+    <tableColumn id="4" name="Strecke" dataDxfId="8" dataCellStyle="Link"/>
+    <tableColumn id="5" name="ZZZ" dataDxfId="7"/>
+    <tableColumn id="6" name="CPs" dataDxfId="6"/>
+    <tableColumn id="7" name="Richtungsmodus" dataDxfId="5"/>
+    <tableColumn id="8" name="Anzahl Rennen" dataDxfId="4"/>
+    <tableColumn id="9" name="Kommentar" dataDxfId="3"/>
+    <tableColumn id="10" name="Rating" dataDxfId="2"/>
+    <tableColumn id="11" name="Züge p.S." dataDxfId="1"/>
+    <tableColumn id="12" name="Züge Gesamt" dataDxfId="0">
+      <calculatedColumnFormula>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -851,6 +797,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -886,6 +849,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1674,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,9 +1668,10 @@
     <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1716,1737 +1697,2255 @@
         <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="J1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="F2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="3">
         <v>42</v>
       </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
         <v>5</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="F3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="3">
         <v>42</v>
       </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
         <v>5</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="3">
         <v>42</v>
       </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="6">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
         <v>5</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="5">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="3">
         <v>42</v>
       </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="3">
         <v>42</v>
       </c>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>6</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>7</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="3">
         <v>30</v>
       </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>7</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>14</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="F8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="3">
         <v>30</v>
       </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>8</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>7</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>6</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="F9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="3">
         <v>30</v>
       </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>9</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>7</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="5">
-        <v>4</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="E10" s="3">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="3">
         <v>30</v>
       </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>10</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>7</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>8</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="F11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="3">
         <v>30</v>
       </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>11</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>10</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>57</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="5">
+      <c r="F12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="3">
         <v>21</v>
       </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>12</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>10</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>123</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="F13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="3">
         <v>21</v>
       </c>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>13</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>10</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>5</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="5">
+      <c r="G14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="3">
         <v>21</v>
       </c>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>14</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>10</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="5">
-        <v>3</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="G15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="3">
         <v>21</v>
       </c>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>15</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>10</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <v>7</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="5">
+      <c r="F16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="3">
         <v>21</v>
       </c>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" s="11">
-        <v>3</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <v>5</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="5">
+      <c r="F17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="3">
         <v>60</v>
       </c>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="8">
+        <v>67</v>
+      </c>
+      <c r="L17" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" s="6">
-        <v>2</v>
-      </c>
-      <c r="C18" s="11">
-        <v>3</v>
-      </c>
-      <c r="D18" s="13" t="s">
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="3">
         <v>8</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="5">
+      <c r="F18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="3">
         <v>60</v>
       </c>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="8">
+        <v>75</v>
+      </c>
+      <c r="L18" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
-      <c r="B19" s="6">
-        <v>3</v>
-      </c>
-      <c r="C19" s="11">
-        <v>3</v>
-      </c>
-      <c r="D19" s="13" t="s">
+      <c r="B19" s="4">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>5</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="5">
+      <c r="F19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="3">
         <v>60</v>
       </c>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="8">
+        <v>103</v>
+      </c>
+      <c r="L19" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
-      <c r="B20" s="6">
-        <v>4</v>
-      </c>
-      <c r="C20" s="11">
-        <v>3</v>
-      </c>
-      <c r="D20" s="13" t="s">
+      <c r="B20" s="4">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>9</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="5">
+      <c r="F20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="3">
         <v>60</v>
       </c>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="8">
+        <v>120</v>
+      </c>
+      <c r="L20" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <v>5</v>
       </c>
-      <c r="C21" s="11">
-        <v>4</v>
-      </c>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="5">
+        <v>4</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="3">
         <v>8</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="5">
-        <v>45</v>
-      </c>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="3">
+        <v>45</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="8">
+        <v>55</v>
+      </c>
+      <c r="L21" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>6</v>
       </c>
-      <c r="C22" s="11">
-        <v>4</v>
-      </c>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="5">
+        <v>4</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="3">
         <v>11</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="5">
-        <v>45</v>
-      </c>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="3">
+        <v>45</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="8">
+        <v>77</v>
+      </c>
+      <c r="L22" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="4">
         <v>7</v>
       </c>
-      <c r="C23" s="11">
-        <v>4</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="5">
+        <v>4</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="5">
-        <v>4</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="5">
-        <v>45</v>
-      </c>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E23" s="3">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="3">
+        <v>45</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="8">
+        <v>61</v>
+      </c>
+      <c r="L23" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="4">
         <v>8</v>
       </c>
-      <c r="C24" s="11">
-        <v>4</v>
-      </c>
-      <c r="D24" s="13" t="s">
+      <c r="C24" s="5">
+        <v>4</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5" t="s">
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="5">
-        <v>45</v>
-      </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="3">
+        <v>45</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="8">
+        <v>63</v>
+      </c>
+      <c r="L24" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <v>9</v>
       </c>
-      <c r="C25" s="11">
-        <v>4</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="5">
+        <v>4</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="3">
         <v>7</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="5">
-        <v>45</v>
-      </c>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="3">
+        <v>45</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="8">
+        <v>65</v>
+      </c>
+      <c r="L25" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <v>10</v>
       </c>
-      <c r="C26" s="11">
-        <v>4</v>
-      </c>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="5">
+        <v>4</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="5">
-        <v>1</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" s="5">
-        <v>45</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="3">
+        <v>45</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="8">
+        <v>80</v>
+      </c>
+      <c r="L26" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="4">
         <v>11</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="5">
         <v>5</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="5">
-        <v>2</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="5">
+      <c r="E27" s="3">
+        <v>2</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="3">
         <v>36</v>
       </c>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="8">
+        <v>30</v>
+      </c>
+      <c r="L27" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="4">
         <v>12</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="5">
         <v>5</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="5">
-        <v>3</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="5">
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="3">
         <v>36</v>
       </c>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="8">
+        <v>37</v>
+      </c>
+      <c r="L28" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="4">
         <v>13</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="5">
         <v>5</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="3">
         <v>6</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" s="5">
+      <c r="F29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="3">
         <v>36</v>
       </c>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="8">
+        <v>39</v>
+      </c>
+      <c r="L29" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="4">
         <v>14</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="5">
         <v>5</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="3">
         <v>11</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" s="5">
+      <c r="F30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="3">
         <v>36</v>
       </c>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="8">
+        <v>40</v>
+      </c>
+      <c r="L30" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="4">
         <v>15</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="5">
         <v>5</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="5">
-        <v>4</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" s="5">
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="3">
         <v>36</v>
       </c>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="8">
+        <v>42</v>
+      </c>
+      <c r="L31" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="4">
         <v>16</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="5">
         <v>5</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="3">
         <v>15</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32" s="5">
+      <c r="F32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="3">
         <v>36</v>
       </c>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="8">
+        <v>43</v>
+      </c>
+      <c r="L32" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="4">
         <v>17</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="5">
         <v>5</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="5">
-        <v>3</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="5">
+      <c r="E33" s="3">
+        <v>3</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="3">
         <v>36</v>
       </c>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="8">
+        <v>45</v>
+      </c>
+      <c r="L33" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="4">
         <v>18</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="5">
         <v>5</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="3">
         <v>10</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H34" s="5">
+      <c r="F34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" s="3">
         <v>36</v>
       </c>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="8">
+        <v>45</v>
+      </c>
+      <c r="L34" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="4">
         <v>19</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="5">
         <v>5</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="5">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="5">
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="3">
         <v>36</v>
       </c>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="8">
+        <v>55</v>
+      </c>
+      <c r="L35" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36">
         <v>20</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36">
         <v>5</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="5">
-        <v>0</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="5">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36">
         <v>36</v>
       </c>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="7" t="s">
+      <c r="K36" s="8">
+        <v>65</v>
+      </c>
+      <c r="L36">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" t="s">
+        <v>62</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+      <c r="K37" s="8">
+        <v>120</v>
+      </c>
+      <c r="L37">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" s="7">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" t="s">
+        <v>62</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38" s="8">
+        <v>120</v>
+      </c>
+      <c r="L38" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" t="s">
+        <v>62</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+      <c r="K39" s="8">
+        <v>75</v>
+      </c>
+      <c r="L39">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" s="7">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" t="s">
+        <v>62</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40" s="8">
+        <v>70</v>
+      </c>
+      <c r="L40">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" t="s">
+        <v>62</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+      <c r="K41" s="8">
+        <v>70</v>
+      </c>
+      <c r="L41">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" s="7">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+      <c r="K42" s="8">
+        <v>90</v>
+      </c>
+      <c r="L42">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" t="s">
+        <v>62</v>
+      </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+      <c r="K43" s="8">
+        <v>52</v>
+      </c>
+      <c r="L43">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" s="7">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" t="s">
+        <v>62</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44" s="8">
+        <v>50</v>
+      </c>
+      <c r="L44">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" t="s">
+        <v>62</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45" s="8">
+        <v>60</v>
+      </c>
+      <c r="L45">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" s="7">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" t="s">
+        <v>62</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46" s="8">
+        <v>45</v>
+      </c>
+      <c r="L46">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" t="s">
+        <v>62</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+      <c r="K47" s="8">
+        <v>45</v>
+      </c>
+      <c r="L47">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" s="7">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" t="s">
+        <v>62</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+      <c r="K48" s="8">
+        <v>45</v>
+      </c>
+      <c r="L48">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" t="s">
+        <v>62</v>
+      </c>
+      <c r="J49">
+        <v>5</v>
+      </c>
+      <c r="K49" s="8">
+        <v>35</v>
+      </c>
+      <c r="L49">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" s="7">
+        <v>14</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" t="s">
+        <v>62</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+      <c r="K50" s="8">
+        <v>35</v>
+      </c>
+      <c r="L50">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>61</v>
+      </c>
+      <c r="G51" t="s">
+        <v>62</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="K51" s="8">
+        <v>35</v>
+      </c>
+      <c r="L51">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" s="7">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" t="s">
+        <v>62</v>
+      </c>
+      <c r="J52">
+        <v>4</v>
+      </c>
+      <c r="K52" s="8">
+        <v>40</v>
+      </c>
+      <c r="L52">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>17</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" t="s">
+        <v>62</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53" s="8">
+        <v>30</v>
+      </c>
+      <c r="L53">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" s="7">
+        <v>18</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" t="s">
+        <v>62</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+      <c r="K54" s="8">
+        <v>25</v>
+      </c>
+      <c r="L54">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>19</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" t="s">
+        <v>62</v>
+      </c>
+      <c r="J55">
+        <v>5</v>
+      </c>
+      <c r="K55" s="8">
+        <v>25</v>
+      </c>
+      <c r="L55">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" s="7">
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56">
+        <v>6</v>
+      </c>
+      <c r="F56" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" t="s">
+        <v>62</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="K56" s="8">
+        <v>30</v>
+      </c>
+      <c r="L56">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" t="s">
+        <v>144</v>
+      </c>
+      <c r="F57" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" t="s">
+        <v>62</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57" s="8"/>
+      <c r="L57" s="3" t="e">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58" t="s">
+        <v>148</v>
+      </c>
+      <c r="F58" t="s">
+        <v>61</v>
+      </c>
+      <c r="G58" t="s">
+        <v>62</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="K58" s="8"/>
+      <c r="L58" s="3" t="e">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" t="s">
+        <v>62</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59" s="8"/>
+      <c r="L59" s="3" t="e">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" t="s">
+        <v>141</v>
+      </c>
+      <c r="F60" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" t="s">
+        <v>62</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60" s="8"/>
+      <c r="L60" s="3" t="e">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" t="s">
+        <v>152</v>
+      </c>
+      <c r="F61" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" t="s">
+        <v>62</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61" s="8"/>
+      <c r="L61" s="3" t="e">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" t="s">
+        <v>112</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" t="s">
+        <v>62</v>
+      </c>
+      <c r="I62" t="s">
+        <v>113</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+      <c r="K62" s="8"/>
+      <c r="L62" s="3" t="e">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63">
+        <v>100</v>
+      </c>
+      <c r="F63" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" t="s">
+        <v>62</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63" s="8"/>
+      <c r="L63" s="3" t="e">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64">
+        <v>100</v>
+      </c>
+      <c r="F64" t="s">
+        <v>61</v>
+      </c>
+      <c r="G64" t="s">
+        <v>62</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="K64" s="8"/>
+      <c r="L64" s="3" t="e">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="8"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E38" s="17">
-        <v>2</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="8"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="16">
-        <v>1</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="10" t="s">
+      <c r="E65" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" t="s">
+        <v>61</v>
+      </c>
+      <c r="G65" t="s">
+        <v>62</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65" s="8"/>
+      <c r="L65" s="3" t="e">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66" t="s">
+        <v>62</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" s="8"/>
+      <c r="L66" s="3" t="e">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" t="s">
+        <v>144</v>
+      </c>
+      <c r="F67" t="s">
+        <v>61</v>
+      </c>
+      <c r="G67" t="s">
+        <v>62</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" s="8"/>
+      <c r="L67" s="3" t="e">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="16">
-        <v>1</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="10"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" s="17">
-        <v>5</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="8"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="17" t="s">
+      <c r="E68" t="s">
+        <v>117</v>
+      </c>
+      <c r="F68" t="s">
+        <v>61</v>
+      </c>
+      <c r="G68" t="s">
+        <v>62</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68" s="8"/>
+      <c r="L68" s="3" t="e">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" t="s">
         <v>116</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" s="17">
+      <c r="D69" t="s">
+        <v>139</v>
+      </c>
+      <c r="E69">
         <v>6</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="8"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="10"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E45" s="16">
-        <v>5</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="10"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H46" s="7"/>
-      <c r="I46" s="8"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H47" s="9"/>
-      <c r="I47" s="10"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H48" s="9"/>
-      <c r="I48" s="10"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="9"/>
-      <c r="I49" s="10"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E50" s="17">
-        <v>1</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H50" s="7"/>
-      <c r="I50" s="8"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E51" s="17">
-        <v>100</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H51" s="7"/>
-      <c r="I51" s="8"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E52" s="16">
-        <v>4</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="10"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H53" s="7"/>
-      <c r="I53" s="8"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H54" s="9"/>
-      <c r="I54" s="10"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="10"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" s="7"/>
-      <c r="I56" s="8"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E57" s="16">
-        <v>100</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H57" s="9"/>
-      <c r="I57" s="10"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H58" s="7"/>
-      <c r="I58" s="8"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H59" s="7"/>
-      <c r="I59" s="8"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H60" s="9"/>
-      <c r="I60" s="10"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="8"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H62" s="9"/>
-      <c r="I62" s="10"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E63" s="17">
-        <v>5</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H63" s="7"/>
-      <c r="I63" s="8"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="E64" s="17">
-        <v>6</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H64" s="7"/>
-      <c r="I64" s="8"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H65" s="9"/>
-      <c r="I65" s="10"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H66" s="9"/>
-      <c r="I66" s="10"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="7"/>
-      <c r="I67" s="8"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H68" s="9"/>
-      <c r="I68" s="10"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="E69" s="16">
+      <c r="F69" t="s">
+        <v>61</v>
+      </c>
+      <c r="G69" t="s">
+        <v>62</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" s="8"/>
+      <c r="L69" s="3" t="e">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <f>COUNTIF($C$37:$C$56,3)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <f>COUNTIF($C$37:$C$56,4)</f>
         <v>7</v>
       </c>
-      <c r="F69" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H69" s="9"/>
-      <c r="I69" s="10"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H70" s="7"/>
-      <c r="I70" s="8"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <f>COUNTIF($C$37:$C$56,5)</f>
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3492,4 +3991,3747 @@
     <tablePart r:id="rId37"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S26" sqref="S26:U26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="3" max="5" width="3.85546875" customWidth="1"/>
+    <col min="7" max="9" width="3.85546875" customWidth="1"/>
+    <col min="11" max="13" width="3.85546875" customWidth="1"/>
+    <col min="15" max="17" width="3.85546875" customWidth="1"/>
+    <col min="19" max="21" width="3.85546875" customWidth="1"/>
+    <col min="23" max="25" width="3.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>4</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="K1">
+        <v>3</v>
+      </c>
+      <c r="L1">
+        <v>4</v>
+      </c>
+      <c r="M1">
+        <v>5</v>
+      </c>
+      <c r="O1">
+        <v>3</v>
+      </c>
+      <c r="P1">
+        <v>4</v>
+      </c>
+      <c r="Q1">
+        <v>5</v>
+      </c>
+      <c r="S1">
+        <v>3</v>
+      </c>
+      <c r="T1">
+        <v>4</v>
+      </c>
+      <c r="U1">
+        <v>5</v>
+      </c>
+      <c r="W1">
+        <v>3</v>
+      </c>
+      <c r="X1">
+        <v>4</v>
+      </c>
+      <c r="Y1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9">
+        <v>2</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9">
+        <v>3</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9">
+        <v>4</v>
+      </c>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9">
+        <v>5</v>
+      </c>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9">
+        <v>6</v>
+      </c>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>$A3*B$2</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>MOD($B3,C$1)</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:E18" si="0">MOD($B3,D$1)</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:V18" si="1">$A3*F$2</f>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>MOD($F3,G$1)</f>
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:I18" si="2">MOD($F3,H$1)</f>
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <f>MOD($J3,K$1)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:M18" si="3">MOD($J3,L$1)</f>
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <f>MOD($N3,O$1)</f>
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:Q18" si="4">MOD($N3,P$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <f>MOD($R3,S$1)</f>
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:U18" si="5">MOD($R3,T$1)</f>
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="W3">
+        <f>MOD($V3,W$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:Y18" si="6">MOD($V3,X$1)</f>
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:V32" si="7">$A4*B$2</f>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:E32" si="8">MOD($B4,C$1)</f>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:I32" si="9">MOD($F4,G$1)</f>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:M32" si="10">MOD($J4,K$1)</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:Q32" si="11">MOD($N4,O$1)</f>
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:U32" si="12">MOD($R4,S$1)</f>
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:Y32" si="13">MOD($V4,W$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="7"/>
+        <v>102</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="7"/>
+        <v>108</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="7"/>
+        <v>57</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="7"/>
+        <v>95</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="7"/>
+        <v>114</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="7"/>
+        <v>105</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="7"/>
+        <v>126</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="7"/>
+        <v>88</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="7"/>
+        <v>132</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="7"/>
+        <v>69</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="7"/>
+        <v>92</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="7"/>
+        <v>115</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="7"/>
+        <v>138</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="7"/>
+        <v>144</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="7"/>
+        <v>125</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="7"/>
+        <v>104</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="7"/>
+        <v>130</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="7"/>
+        <v>156</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="7"/>
+        <v>108</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="7"/>
+        <v>135</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="7"/>
+        <v>162</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="7"/>
+        <v>112</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="7"/>
+        <v>168</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="7"/>
+        <v>116</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="7"/>
+        <v>145</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="7"/>
+        <v>174</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C3:E32">
+    <cfRule type="iconSet" priority="6">
+      <iconSet reverse="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:I32">
+    <cfRule type="iconSet" priority="5">
+      <iconSet reverse="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:M32">
+    <cfRule type="iconSet" priority="4">
+      <iconSet reverse="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:Q32">
+    <cfRule type="iconSet" priority="3">
+      <iconSet reverse="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:U32">
+    <cfRule type="iconSet" priority="2">
+      <iconSet reverse="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W3:Y32">
+    <cfRule type="iconSet" priority="1">
+      <iconSet reverse="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>120</v>
+      </c>
+      <c r="J1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>120</v>
+      </c>
+      <c r="J2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>75</v>
+      </c>
+      <c r="J3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>70</v>
+      </c>
+      <c r="J4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>70</v>
+      </c>
+      <c r="J5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>90</v>
+      </c>
+      <c r="J6">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>52</v>
+      </c>
+      <c r="J7">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>50</v>
+      </c>
+      <c r="J8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>60</v>
+      </c>
+      <c r="J9">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>45</v>
+      </c>
+      <c r="J10">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>45</v>
+      </c>
+      <c r="J11">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>45</v>
+      </c>
+      <c r="J12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>35</v>
+      </c>
+      <c r="J13">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>35</v>
+      </c>
+      <c r="J14">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>35</v>
+      </c>
+      <c r="J15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>40</v>
+      </c>
+      <c r="J16">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>30</v>
+      </c>
+      <c r="J17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>25</v>
+      </c>
+      <c r="J18">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>25</v>
+      </c>
+      <c r="J19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>30</v>
+      </c>
+      <c r="J20">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:J20">
+    <sortCondition descending="1" ref="J1:J20"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CraZZZy Crash Challenge/CCC-Daten.xlsx
+++ b/CraZZZy Crash Challenge/CCC-Daten.xlsx
@@ -15,7 +15,8 @@
     <sheet name="Teilnehmer" sheetId="1" r:id="rId1"/>
     <sheet name="Strecken" sheetId="2" r:id="rId2"/>
     <sheet name="Rennanzahl" sheetId="4" r:id="rId3"/>
-    <sheet name="Tabelle1" sheetId="5" r:id="rId4"/>
+    <sheet name="CCC3-Planung" sheetId="6" r:id="rId4"/>
+    <sheet name="tmp" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="161">
   <si>
     <t>Teilnehmer</t>
   </si>
@@ -350,18 +351,12 @@
     <t>194 Lutter-Rundkurs</t>
   </si>
   <si>
-    <t>max=4</t>
-  </si>
-  <si>
     <t>195 Freundschaftsbaendchen</t>
   </si>
   <si>
     <t>197 Le Mans</t>
   </si>
   <si>
-    <t>max=7</t>
-  </si>
-  <si>
     <t>198 Bitriangularis</t>
   </si>
   <si>
@@ -374,24 +369,12 @@
     <t>199 Labyrinth</t>
   </si>
   <si>
-    <t>1006 Demo: Irrkartengenerator</t>
-  </si>
-  <si>
-    <t>max=11</t>
-  </si>
-  <si>
-    <t>5-15</t>
-  </si>
-  <si>
     <t>201 Sandbowl</t>
   </si>
   <si>
     <t>202 KaroWave</t>
   </si>
   <si>
-    <t>max=9</t>
-  </si>
-  <si>
     <t>203 Karo Colorarena</t>
   </si>
   <si>
@@ -422,9 +405,6 @@
     <t>217 Adventskarolender</t>
   </si>
   <si>
-    <t>max=3</t>
-  </si>
-  <si>
     <t>220 Weihnachtsbaum</t>
   </si>
   <si>
@@ -455,9 +435,6 @@
     <t>15-25</t>
   </si>
   <si>
-    <t>max=12</t>
-  </si>
-  <si>
     <t>173 Schneeflocke</t>
   </si>
   <si>
@@ -501,16 +478,50 @@
   </si>
   <si>
     <t>Spieler \ Rennen pSpC</t>
+  </si>
+  <si>
+    <t>Max Spieler</t>
+  </si>
+  <si>
+    <t>Variante 1</t>
+  </si>
+  <si>
+    <t>Rennen p.S.p.C.</t>
+  </si>
+  <si>
+    <t>Challenges</t>
+  </si>
+  <si>
+    <t>Lose</t>
+  </si>
+  <si>
+    <t>Rennen p.C.</t>
+  </si>
+  <si>
+    <t>Anzahl C.</t>
+  </si>
+  <si>
+    <t>Rennen Ges.</t>
+  </si>
+  <si>
+    <t>Summe</t>
+  </si>
+  <si>
+    <t>Rennen p.S.</t>
+  </si>
+  <si>
+    <t>Variante 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;ca. &quot;\ 0"/>
+    <numFmt numFmtId="165" formatCode="0&quot;er&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,6 +545,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -573,7 +593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -598,6 +618,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -696,15 +718,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:L69" totalsRowShown="0" dataDxfId="11">
-  <autoFilter ref="A1:L69"/>
-  <sortState ref="A2:J70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:M68" totalsRowShown="0" dataDxfId="11">
+  <autoFilter ref="A1:M68"/>
+  <sortState ref="A2:K69">
     <sortCondition ref="A37"/>
   </sortState>
-  <tableColumns count="12">
+  <tableColumns count="13">
     <tableColumn id="1" name="CCC"/>
     <tableColumn id="2" name="Spieltag" dataDxfId="10"/>
     <tableColumn id="3" name="Spielerzahl" dataDxfId="9"/>
+    <tableColumn id="13" name="Max Spieler"/>
     <tableColumn id="4" name="Strecke" dataDxfId="8" dataCellStyle="Link"/>
     <tableColumn id="5" name="ZZZ" dataDxfId="7"/>
     <tableColumn id="6" name="CPs" dataDxfId="6"/>
@@ -1654,24 +1677,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1681,35 +1705,38 @@
       <c r="C1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>65</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
-        <v>151</v>
-      </c>
       <c r="J1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="L1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="M1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1719,30 +1746,31 @@
       <c r="C2" s="3">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="H2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="3">
         <v>42</v>
       </c>
-      <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="3">
+      <c r="K2" s="3"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1752,30 +1780,31 @@
       <c r="C3" s="3">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="H3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="3">
         <v>42</v>
       </c>
-      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="3">
+      <c r="K3" s="3"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1785,30 +1814,31 @@
       <c r="C4" s="3">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="H4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="3">
         <v>42</v>
       </c>
-      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="3">
+      <c r="K4" s="3"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1818,30 +1848,31 @@
       <c r="C5" s="3">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="H5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="3">
         <v>42</v>
       </c>
-      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="3">
+      <c r="K5" s="3"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1851,30 +1882,31 @@
       <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="H6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="3">
         <v>42</v>
       </c>
-      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="3">
+      <c r="K6" s="3"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1884,30 +1916,31 @@
       <c r="C7" s="3">
         <v>7</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="H7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="3">
         <v>30</v>
       </c>
-      <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="3">
+      <c r="K7" s="3"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1917,30 +1950,31 @@
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="3">
         <v>30</v>
       </c>
-      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="3">
+      <c r="K8" s="3"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1950,30 +1984,31 @@
       <c r="C9" s="3">
         <v>7</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="3">
         <v>30</v>
       </c>
-      <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="3">
+      <c r="K9" s="3"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1983,30 +2018,31 @@
       <c r="C10" s="3">
         <v>7</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="3">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="3">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="3">
         <v>30</v>
       </c>
-      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="3">
+      <c r="K10" s="3"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2016,30 +2052,31 @@
       <c r="C11" s="3">
         <v>7</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>8</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="H11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="3">
         <v>30</v>
       </c>
-      <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="3">
+      <c r="K11" s="3"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2049,30 +2086,31 @@
       <c r="C12" s="3">
         <v>10</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>57</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="3">
         <v>21</v>
       </c>
-      <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="3">
+      <c r="K12" s="3"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2082,30 +2120,31 @@
       <c r="C13" s="3">
         <v>10</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>123</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="H13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="3">
         <v>21</v>
       </c>
-      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="3">
+      <c r="K13" s="3"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2115,30 +2154,31 @@
       <c r="C14" s="3">
         <v>10</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="3">
         <v>21</v>
       </c>
-      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="3">
+      <c r="K14" s="3"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2148,30 +2188,31 @@
       <c r="C15" s="3">
         <v>10</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="3">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="3">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="3">
         <v>21</v>
       </c>
-      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="3">
+      <c r="K15" s="3"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2181,30 +2222,31 @@
       <c r="C16" s="3">
         <v>10</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>7</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="3">
+      <c r="H16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="3">
         <v>21</v>
       </c>
-      <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="3">
+      <c r="K16" s="3"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2214,32 +2256,33 @@
       <c r="C17" s="5">
         <v>3</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="H17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="3">
         <v>60</v>
       </c>
-      <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="8">
+      <c r="K17" s="3"/>
+      <c r="L17" s="8">
         <v>67</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2249,32 +2292,33 @@
       <c r="C18" s="5">
         <v>3</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="3">
         <v>60</v>
       </c>
-      <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="8">
+      <c r="K18" s="3"/>
+      <c r="L18" s="8">
         <v>75</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2284,32 +2328,33 @@
       <c r="C19" s="5">
         <v>3</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>5</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="3">
+      <c r="H19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="3">
         <v>60</v>
       </c>
-      <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="8">
+      <c r="K19" s="3"/>
+      <c r="L19" s="8">
         <v>103</v>
       </c>
-      <c r="L19" s="3">
+      <c r="M19" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2319,32 +2364,33 @@
       <c r="C20" s="5">
         <v>3</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>9</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="3">
         <v>60</v>
       </c>
-      <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="8">
+      <c r="K20" s="3"/>
+      <c r="L20" s="8">
         <v>120</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2354,32 +2400,33 @@
       <c r="C21" s="5">
         <v>4</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="3">
-        <v>45</v>
-      </c>
-      <c r="I21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="3">
+        <v>45</v>
+      </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="8">
+      <c r="K21" s="3"/>
+      <c r="L21" s="8">
         <v>55</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2389,32 +2436,33 @@
       <c r="C22" s="5">
         <v>4</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>11</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="3">
-        <v>45</v>
-      </c>
-      <c r="I22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="3">
+        <v>45</v>
+      </c>
       <c r="J22" s="3"/>
-      <c r="K22" s="8">
+      <c r="K22" s="3"/>
+      <c r="L22" s="8">
         <v>77</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2424,32 +2472,33 @@
       <c r="C23" s="5">
         <v>4</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="3">
-        <v>4</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="3">
+        <v>4</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="3">
-        <v>45</v>
-      </c>
-      <c r="I23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="3">
+        <v>45</v>
+      </c>
       <c r="J23" s="3"/>
-      <c r="K23" s="8">
+      <c r="K23" s="3"/>
+      <c r="L23" s="8">
         <v>61</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>244</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2459,32 +2508,33 @@
       <c r="C24" s="5">
         <v>4</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="3">
-        <v>45</v>
-      </c>
-      <c r="I24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="3">
+        <v>45</v>
+      </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="8">
+      <c r="K24" s="3"/>
+      <c r="L24" s="8">
         <v>63</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2494,32 +2544,33 @@
       <c r="C25" s="5">
         <v>4</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>7</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="3">
-        <v>45</v>
-      </c>
-      <c r="I25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="3">
+        <v>45</v>
+      </c>
       <c r="J25" s="3"/>
-      <c r="K25" s="8">
+      <c r="K25" s="3"/>
+      <c r="L25" s="8">
         <v>65</v>
       </c>
-      <c r="L25" s="3">
+      <c r="M25" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2529,32 +2580,33 @@
       <c r="C26" s="5">
         <v>4</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" s="3">
-        <v>45</v>
-      </c>
-      <c r="I26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="3">
+        <v>45</v>
+      </c>
       <c r="J26" s="3"/>
-      <c r="K26" s="8">
+      <c r="K26" s="3"/>
+      <c r="L26" s="8">
         <v>80</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2564,32 +2616,33 @@
       <c r="C27" s="5">
         <v>5</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="3">
-        <v>2</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="H27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="3">
         <v>36</v>
       </c>
-      <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="8">
+      <c r="K27" s="3"/>
+      <c r="L27" s="8">
         <v>30</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2599,32 +2652,33 @@
       <c r="C28" s="5">
         <v>5</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5"/>
+      <c r="E28" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="3">
-        <v>3</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="3">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="3">
+      <c r="H28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="3">
         <v>36</v>
       </c>
-      <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="8">
+      <c r="K28" s="3"/>
+      <c r="L28" s="8">
         <v>37</v>
       </c>
-      <c r="L28" s="3">
+      <c r="M28" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2634,32 +2688,33 @@
       <c r="C29" s="5">
         <v>5</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>6</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="3">
         <v>36</v>
       </c>
-      <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="8">
+      <c r="K29" s="3"/>
+      <c r="L29" s="8">
         <v>39</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2669,32 +2724,33 @@
       <c r="C30" s="5">
         <v>5</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5"/>
+      <c r="E30" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F30" s="3">
         <v>11</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" s="3">
+      <c r="H30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="3">
         <v>36</v>
       </c>
-      <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="8">
+      <c r="K30" s="3"/>
+      <c r="L30" s="8">
         <v>40</v>
       </c>
-      <c r="L30" s="3">
+      <c r="M30" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -2704,32 +2760,33 @@
       <c r="C31" s="5">
         <v>5</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5"/>
+      <c r="E31" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="3">
-        <v>4</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="3">
+        <v>4</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" s="3">
+      <c r="H31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="3">
         <v>36</v>
       </c>
-      <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="8">
+      <c r="K31" s="3"/>
+      <c r="L31" s="8">
         <v>42</v>
       </c>
-      <c r="L31" s="3">
+      <c r="M31" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -2739,32 +2796,33 @@
       <c r="C32" s="5">
         <v>5</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5"/>
+      <c r="E32" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>15</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="3">
         <v>36</v>
       </c>
-      <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="8">
+      <c r="K32" s="3"/>
+      <c r="L32" s="8">
         <v>43</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2774,32 +2832,33 @@
       <c r="C33" s="5">
         <v>5</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5"/>
+      <c r="E33" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="3">
-        <v>3</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="3">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="H33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="3">
         <v>36</v>
       </c>
-      <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="8">
-        <v>45</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="K33" s="3"/>
+      <c r="L33" s="8">
+        <v>45</v>
+      </c>
+      <c r="M33" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -2809,32 +2868,33 @@
       <c r="C34" s="5">
         <v>5</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5"/>
+      <c r="E34" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="3">
+      <c r="F34" s="3">
         <v>10</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H34" s="3">
+      <c r="H34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34" s="3">
         <v>36</v>
       </c>
-      <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="8">
-        <v>45</v>
-      </c>
-      <c r="L34" s="3">
+      <c r="K34" s="3"/>
+      <c r="L34" s="8">
+        <v>45</v>
+      </c>
+      <c r="M34" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -2844,32 +2904,33 @@
       <c r="C35" s="5">
         <v>5</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5"/>
+      <c r="E35" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="H35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I35" s="3">
         <v>36</v>
       </c>
-      <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="8">
+      <c r="K35" s="3"/>
+      <c r="L35" s="8">
         <v>55</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -2879,30 +2940,30 @@
       <c r="C36">
         <v>5</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>87</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
         <v>61</v>
       </c>
-      <c r="G36" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36">
+      <c r="H36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36">
         <v>36</v>
       </c>
-      <c r="K36" s="8">
+      <c r="L36" s="8">
         <v>65</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>325</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2910,263 +2971,287 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" t="s">
+        <v>62</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37" s="8">
+        <v>90</v>
+      </c>
+      <c r="M37">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" s="7">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" t="s">
+        <v>62</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
+      </c>
+      <c r="L38" s="8">
+        <v>75</v>
+      </c>
+      <c r="M38" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" t="s">
+        <v>62</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+      <c r="L39" s="8">
+        <v>70</v>
+      </c>
+      <c r="M39">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" s="7">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" t="s">
+        <v>62</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40" s="8">
+        <v>70</v>
+      </c>
+      <c r="M40">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
         <v>63</v>
       </c>
-      <c r="G37" t="s">
-        <v>62</v>
-      </c>
-      <c r="J37">
-        <v>3</v>
-      </c>
-      <c r="K37" s="8">
+      <c r="H41" t="s">
+        <v>62</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41" s="8">
         <v>120</v>
       </c>
-      <c r="L37">
+      <c r="M41">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>360</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>3</v>
-      </c>
-      <c r="B38" s="7">
-        <v>2</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38" t="s">
-        <v>123</v>
-      </c>
-      <c r="E38">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" s="7">
         <v>6</v>
       </c>
-      <c r="F38" t="s">
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
         <v>61</v>
       </c>
-      <c r="G38" t="s">
-        <v>62</v>
-      </c>
-      <c r="J38">
-        <v>3</v>
-      </c>
-      <c r="K38" s="8">
+      <c r="H42" t="s">
+        <v>62</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42" s="8">
         <v>120</v>
       </c>
-      <c r="L38" s="3">
+      <c r="M42">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>3</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" t="s">
+        <v>62</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+      <c r="L43" s="8">
+        <v>45</v>
+      </c>
+      <c r="M43">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" s="7">
+        <v>8</v>
+      </c>
+      <c r="C44">
         <v>6</v>
       </c>
-      <c r="F39" t="s">
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44" t="s">
         <v>61</v>
       </c>
-      <c r="G39" t="s">
-        <v>62</v>
-      </c>
-      <c r="J39">
-        <v>5</v>
-      </c>
-      <c r="K39" s="8">
-        <v>75</v>
-      </c>
-      <c r="L39">
+      <c r="H44" t="s">
+        <v>62</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="L44" s="8">
+        <v>50</v>
+      </c>
+      <c r="M44">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>3</v>
-      </c>
-      <c r="B40" s="7">
-        <v>4</v>
-      </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-      <c r="D40" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40">
-        <v>8</v>
-      </c>
-      <c r="F40" t="s">
-        <v>61</v>
-      </c>
-      <c r="G40" t="s">
-        <v>62</v>
-      </c>
-      <c r="J40">
-        <v>4</v>
-      </c>
-      <c r="K40" s="8">
-        <v>70</v>
-      </c>
-      <c r="L40">
-        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>3</v>
-      </c>
-      <c r="B41">
-        <v>5</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
-        <v>136</v>
-      </c>
-      <c r="E41">
-        <v>7</v>
-      </c>
-      <c r="F41" t="s">
-        <v>61</v>
-      </c>
-      <c r="G41" t="s">
-        <v>62</v>
-      </c>
-      <c r="J41">
-        <v>3</v>
-      </c>
-      <c r="K41" s="8">
-        <v>70</v>
-      </c>
-      <c r="L41">
-        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>3</v>
-      </c>
-      <c r="B42" s="7">
-        <v>6</v>
-      </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
-      <c r="D42" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
-        <v>61</v>
-      </c>
-      <c r="G42" t="s">
-        <v>62</v>
-      </c>
-      <c r="J42">
-        <v>3</v>
-      </c>
-      <c r="K42" s="8">
-        <v>90</v>
-      </c>
-      <c r="L42">
-        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>3</v>
-      </c>
-      <c r="B43">
-        <v>7</v>
-      </c>
-      <c r="C43">
-        <v>5</v>
-      </c>
-      <c r="D43" t="s">
-        <v>129</v>
-      </c>
-      <c r="E43">
-        <v>4</v>
-      </c>
-      <c r="F43" t="s">
-        <v>61</v>
-      </c>
-      <c r="G43" t="s">
-        <v>62</v>
-      </c>
-      <c r="J43">
-        <v>5</v>
-      </c>
-      <c r="K43" s="8">
-        <v>52</v>
-      </c>
-      <c r="L43">
-        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>3</v>
-      </c>
-      <c r="B44" s="7">
-        <v>8</v>
-      </c>
-      <c r="C44">
-        <v>5</v>
-      </c>
-      <c r="D44" t="s">
-        <v>124</v>
-      </c>
-      <c r="E44">
-        <v>4</v>
-      </c>
-      <c r="F44" t="s">
-        <v>61</v>
-      </c>
-      <c r="G44" t="s">
-        <v>62</v>
-      </c>
-      <c r="J44">
-        <v>3</v>
-      </c>
-      <c r="K44" s="8">
-        <v>50</v>
-      </c>
-      <c r="L44">
-        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -3174,197 +3259,215 @@
         <v>9</v>
       </c>
       <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45" t="s">
-        <v>146</v>
-      </c>
-      <c r="E45">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>148</v>
+      </c>
+      <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="G45" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" t="s">
+        <v>62</v>
+      </c>
+      <c r="K45">
+        <v>5</v>
+      </c>
+      <c r="L45" s="8">
+        <v>35</v>
+      </c>
+      <c r="M45">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" s="7">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" t="s">
+        <v>62</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+      <c r="L46" s="8">
+        <v>35</v>
+      </c>
+      <c r="M46">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+      <c r="G47" t="s">
+        <v>61</v>
+      </c>
+      <c r="H47" t="s">
+        <v>62</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47" s="8">
+        <v>35</v>
+      </c>
+      <c r="M47">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" s="7">
         <v>12</v>
       </c>
-      <c r="F45" t="s">
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
         <v>61</v>
       </c>
-      <c r="G45" t="s">
-        <v>62</v>
-      </c>
-      <c r="J45">
-        <v>3</v>
-      </c>
-      <c r="K45" s="8">
+      <c r="H48" t="s">
+        <v>62</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48" s="8">
         <v>60</v>
       </c>
-      <c r="L45">
+      <c r="M48">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>3</v>
-      </c>
-      <c r="B46" s="7">
-        <v>10</v>
-      </c>
-      <c r="C46">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
         <v>5</v>
       </c>
-      <c r="D46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E46">
+      <c r="E49" t="s">
+        <v>116</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
+        <v>61</v>
+      </c>
+      <c r="H49" t="s">
+        <v>62</v>
+      </c>
+      <c r="K49">
         <v>5</v>
       </c>
-      <c r="F46" t="s">
-        <v>61</v>
-      </c>
-      <c r="G46" t="s">
-        <v>62</v>
-      </c>
-      <c r="J46">
-        <v>3</v>
-      </c>
-      <c r="K46" s="8">
-        <v>45</v>
-      </c>
-      <c r="L46">
-        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>3</v>
-      </c>
-      <c r="B47">
-        <v>11</v>
-      </c>
-      <c r="C47">
-        <v>5</v>
-      </c>
-      <c r="D47" t="s">
-        <v>125</v>
-      </c>
-      <c r="E47">
-        <v>3</v>
-      </c>
-      <c r="F47" t="s">
-        <v>61</v>
-      </c>
-      <c r="G47" t="s">
-        <v>62</v>
-      </c>
-      <c r="J47">
-        <v>4</v>
-      </c>
-      <c r="K47" s="8">
-        <v>45</v>
-      </c>
-      <c r="L47">
-        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>3</v>
-      </c>
-      <c r="B48" s="7">
-        <v>12</v>
-      </c>
-      <c r="C48">
-        <v>4</v>
-      </c>
-      <c r="D48" t="s">
-        <v>122</v>
-      </c>
-      <c r="E48">
-        <v>4</v>
-      </c>
-      <c r="F48" t="s">
-        <v>61</v>
-      </c>
-      <c r="G48" t="s">
-        <v>62</v>
-      </c>
-      <c r="J48">
-        <v>5</v>
-      </c>
-      <c r="K48" s="8">
-        <v>45</v>
-      </c>
-      <c r="L48">
+      <c r="L49" s="8">
+        <v>45</v>
+      </c>
+      <c r="M49">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>3</v>
-      </c>
-      <c r="B49">
-        <v>13</v>
-      </c>
-      <c r="C49">
-        <v>5</v>
-      </c>
-      <c r="D49" t="s">
-        <v>156</v>
-      </c>
-      <c r="E49">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" s="7">
+        <v>14</v>
+      </c>
+      <c r="C50">
         <v>7</v>
       </c>
-      <c r="F49" t="s">
+      <c r="D50">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50">
+        <v>8</v>
+      </c>
+      <c r="G50" t="s">
         <v>61</v>
       </c>
-      <c r="G49" t="s">
-        <v>62</v>
-      </c>
-      <c r="J49">
-        <v>5</v>
-      </c>
-      <c r="K49" s="8">
-        <v>35</v>
-      </c>
-      <c r="L49">
+      <c r="H50" t="s">
+        <v>62</v>
+      </c>
+      <c r="K50">
+        <v>4</v>
+      </c>
+      <c r="L50" s="8">
+        <v>25</v>
+      </c>
+      <c r="M50">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>3</v>
-      </c>
-      <c r="B50" s="7">
-        <v>14</v>
-      </c>
-      <c r="C50">
-        <v>5</v>
-      </c>
-      <c r="D50" t="s">
-        <v>127</v>
-      </c>
-      <c r="E50">
-        <v>9</v>
-      </c>
-      <c r="F50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G50" t="s">
-        <v>62</v>
-      </c>
-      <c r="J50">
-        <v>4</v>
-      </c>
-      <c r="K50" s="8">
-        <v>35</v>
-      </c>
-      <c r="L50">
-        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -3372,32 +3475,35 @@
         <v>15</v>
       </c>
       <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
         <v>5</v>
       </c>
-      <c r="D51" t="s">
-        <v>137</v>
-      </c>
-      <c r="E51">
-        <v>7</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="E51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
         <v>61</v>
       </c>
-      <c r="G51" t="s">
-        <v>62</v>
-      </c>
-      <c r="J51">
-        <v>3</v>
-      </c>
-      <c r="K51" s="8">
-        <v>35</v>
-      </c>
-      <c r="L51">
+      <c r="H51" t="s">
+        <v>62</v>
+      </c>
+      <c r="K51">
+        <v>4</v>
+      </c>
+      <c r="L51" s="8">
+        <v>40</v>
+      </c>
+      <c r="M51">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3405,32 +3511,35 @@
         <v>16</v>
       </c>
       <c r="C52">
-        <v>4</v>
-      </c>
-      <c r="D52" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52">
-        <v>6</v>
-      </c>
-      <c r="F52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
         <v>61</v>
       </c>
-      <c r="G52" t="s">
-        <v>62</v>
-      </c>
-      <c r="J52">
-        <v>4</v>
-      </c>
-      <c r="K52" s="8">
-        <v>40</v>
-      </c>
-      <c r="L52">
+      <c r="H52" t="s">
+        <v>62</v>
+      </c>
+      <c r="K52">
+        <v>5</v>
+      </c>
+      <c r="L52" s="8">
+        <v>52</v>
+      </c>
+      <c r="M52">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -3438,32 +3547,35 @@
         <v>17</v>
       </c>
       <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53">
         <v>5</v>
       </c>
-      <c r="D53" t="s">
-        <v>108</v>
-      </c>
-      <c r="E53">
-        <v>3</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>61</v>
       </c>
-      <c r="G53" t="s">
-        <v>62</v>
-      </c>
-      <c r="J53">
-        <v>5</v>
-      </c>
-      <c r="K53" s="8">
-        <v>30</v>
-      </c>
-      <c r="L53">
+      <c r="H53" t="s">
+        <v>62</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="L53" s="8">
+        <v>45</v>
+      </c>
+      <c r="M53">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -3471,32 +3583,35 @@
         <v>18</v>
       </c>
       <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
         <v>5</v>
       </c>
-      <c r="D54" t="s">
-        <v>128</v>
-      </c>
-      <c r="E54">
-        <v>8</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="E54" t="s">
+        <v>107</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54" t="s">
         <v>61</v>
       </c>
-      <c r="G54" t="s">
-        <v>62</v>
-      </c>
-      <c r="J54">
-        <v>4</v>
-      </c>
-      <c r="K54" s="8">
-        <v>25</v>
-      </c>
-      <c r="L54">
+      <c r="H54" t="s">
+        <v>62</v>
+      </c>
+      <c r="K54">
+        <v>5</v>
+      </c>
+      <c r="L54" s="8">
+        <v>30</v>
+      </c>
+      <c r="M54">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -3506,30 +3621,33 @@
       <c r="C55">
         <v>4</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
         <v>105</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>5</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>61</v>
       </c>
-      <c r="G55" t="s">
-        <v>62</v>
-      </c>
-      <c r="J55">
+      <c r="H55" t="s">
+        <v>62</v>
+      </c>
+      <c r="K55">
         <v>5</v>
       </c>
-      <c r="K55" s="8">
+      <c r="L55" s="8">
         <v>25</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -3539,451 +3657,453 @@
       <c r="C56">
         <v>3</v>
       </c>
-      <c r="D56" t="s">
-        <v>130</v>
-      </c>
-      <c r="E56">
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56">
         <v>6</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>61</v>
       </c>
-      <c r="G56" t="s">
-        <v>62</v>
-      </c>
-      <c r="J56">
+      <c r="H56" t="s">
+        <v>62</v>
+      </c>
+      <c r="K56">
         <v>5</v>
       </c>
-      <c r="K56" s="8">
+      <c r="L56" s="8">
         <v>30</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>137</v>
+      </c>
+      <c r="F57" t="s">
+        <v>136</v>
+      </c>
+      <c r="G57" t="s">
+        <v>61</v>
+      </c>
+      <c r="H57" t="s">
+        <v>62</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57" s="8"/>
+      <c r="M57" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>139</v>
+      </c>
+      <c r="F58" t="s">
+        <v>140</v>
+      </c>
+      <c r="G58" t="s">
+        <v>61</v>
+      </c>
+      <c r="H58" t="s">
+        <v>62</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58" s="8"/>
+      <c r="M58" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>141</v>
+      </c>
+      <c r="F59" t="s">
+        <v>142</v>
+      </c>
+      <c r="G59" t="s">
+        <v>61</v>
+      </c>
+      <c r="H59" t="s">
+        <v>62</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59" s="8"/>
+      <c r="M59" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>133</v>
+      </c>
+      <c r="F60" t="s">
+        <v>134</v>
+      </c>
+      <c r="G60" t="s">
+        <v>61</v>
+      </c>
+      <c r="H60" t="s">
+        <v>62</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60" s="8"/>
+      <c r="M60" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" t="s">
+        <v>144</v>
+      </c>
+      <c r="G61" t="s">
+        <v>61</v>
+      </c>
+      <c r="H61" t="s">
+        <v>62</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61" s="8"/>
+      <c r="M61" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>61</v>
+      </c>
+      <c r="H62" t="s">
+        <v>62</v>
+      </c>
+      <c r="J62" t="s">
+        <v>111</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62" s="8"/>
+      <c r="M62" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>113</v>
+      </c>
+      <c r="F63">
+        <v>100</v>
+      </c>
+      <c r="G63" t="s">
+        <v>61</v>
+      </c>
+      <c r="H63" t="s">
+        <v>62</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63" s="8"/>
+      <c r="M63" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>114</v>
+      </c>
+      <c r="F64">
+        <v>100</v>
+      </c>
+      <c r="G64" t="s">
+        <v>61</v>
+      </c>
+      <c r="H64" t="s">
+        <v>62</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64" s="8"/>
+      <c r="M64" s="3">
+        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>125</v>
+      </c>
+      <c r="F65" t="s">
         <v>126</v>
       </c>
-      <c r="C57" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57" t="s">
-        <v>145</v>
-      </c>
-      <c r="E57" t="s">
-        <v>144</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="G65" t="s">
         <v>61</v>
       </c>
-      <c r="G57" t="s">
-        <v>62</v>
-      </c>
-      <c r="J57">
-        <v>2</v>
-      </c>
-      <c r="K57" s="8"/>
-      <c r="L57" s="3" t="e">
+      <c r="H65" t="s">
+        <v>62</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65" s="8"/>
+      <c r="M65" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>126</v>
-      </c>
-      <c r="C58" t="s">
-        <v>116</v>
-      </c>
-      <c r="D58" t="s">
-        <v>147</v>
-      </c>
-      <c r="E58" t="s">
-        <v>148</v>
-      </c>
-      <c r="F58" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>120</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66" t="s">
+        <v>106</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
         <v>61</v>
       </c>
-      <c r="G58" t="s">
-        <v>62</v>
-      </c>
-      <c r="J58">
-        <v>2</v>
-      </c>
-      <c r="K58" s="8"/>
-      <c r="L58" s="3" t="e">
+      <c r="H66" t="s">
+        <v>62</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66" s="8"/>
+      <c r="M66" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" t="s">
-        <v>116</v>
-      </c>
-      <c r="D59" t="s">
-        <v>149</v>
-      </c>
-      <c r="E59" t="s">
-        <v>150</v>
-      </c>
-      <c r="F59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>135</v>
+      </c>
+      <c r="F67" t="s">
+        <v>136</v>
+      </c>
+      <c r="G67" t="s">
         <v>61</v>
       </c>
-      <c r="G59" t="s">
-        <v>62</v>
-      </c>
-      <c r="J59">
-        <v>2</v>
-      </c>
-      <c r="K59" s="8"/>
-      <c r="L59" s="3" t="e">
+      <c r="H67" t="s">
+        <v>62</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67" s="8"/>
+      <c r="M67" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" t="s">
-        <v>142</v>
-      </c>
-      <c r="D60" t="s">
-        <v>140</v>
-      </c>
-      <c r="E60" t="s">
-        <v>141</v>
-      </c>
-      <c r="F60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>120</v>
+      </c>
+      <c r="D68">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68">
+        <v>6</v>
+      </c>
+      <c r="G68" t="s">
         <v>61</v>
       </c>
-      <c r="G60" t="s">
-        <v>62</v>
-      </c>
-      <c r="J60">
-        <v>2</v>
-      </c>
-      <c r="K60" s="8"/>
-      <c r="L60" s="3" t="e">
+      <c r="H68" t="s">
+        <v>62</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68" s="8"/>
+      <c r="M68" s="3">
         <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61" t="s">
-        <v>131</v>
-      </c>
-      <c r="D61" t="s">
-        <v>135</v>
-      </c>
-      <c r="E61" t="s">
-        <v>152</v>
-      </c>
-      <c r="F61" t="s">
-        <v>61</v>
-      </c>
-      <c r="G61" t="s">
-        <v>62</v>
-      </c>
-      <c r="J61">
-        <v>2</v>
-      </c>
-      <c r="K61" s="8"/>
-      <c r="L61" s="3" t="e">
-        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" t="s">
-        <v>107</v>
-      </c>
-      <c r="D62" t="s">
-        <v>112</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62" t="s">
-        <v>61</v>
-      </c>
-      <c r="G62" t="s">
-        <v>62</v>
-      </c>
-      <c r="I62" t="s">
-        <v>113</v>
-      </c>
-      <c r="J62">
-        <v>2</v>
-      </c>
-      <c r="K62" s="8"/>
-      <c r="L62" s="3" t="e">
-        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" t="s">
-        <v>110</v>
-      </c>
-      <c r="D63" t="s">
-        <v>118</v>
-      </c>
-      <c r="E63">
-        <v>100</v>
-      </c>
-      <c r="F63" t="s">
-        <v>61</v>
-      </c>
-      <c r="G63" t="s">
-        <v>62</v>
-      </c>
-      <c r="J63">
-        <v>2</v>
-      </c>
-      <c r="K63" s="8"/>
-      <c r="L63" s="3" t="e">
-        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" t="s">
-        <v>120</v>
-      </c>
-      <c r="D64" t="s">
-        <v>119</v>
-      </c>
-      <c r="E64">
-        <v>100</v>
-      </c>
-      <c r="F64" t="s">
-        <v>61</v>
-      </c>
-      <c r="G64" t="s">
-        <v>62</v>
-      </c>
-      <c r="J64">
-        <v>2</v>
-      </c>
-      <c r="K64" s="8"/>
-      <c r="L64" s="3" t="e">
-        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" t="s">
-        <v>120</v>
-      </c>
-      <c r="D65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E65" t="s">
-        <v>133</v>
-      </c>
-      <c r="F65" t="s">
-        <v>61</v>
-      </c>
-      <c r="G65" t="s">
-        <v>62</v>
-      </c>
-      <c r="J65">
-        <v>2</v>
-      </c>
-      <c r="K65" s="8"/>
-      <c r="L65" s="3" t="e">
-        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" t="s">
-        <v>107</v>
-      </c>
-      <c r="D66" t="s">
-        <v>106</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66" t="s">
-        <v>61</v>
-      </c>
-      <c r="G66" t="s">
-        <v>62</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66" s="8"/>
-      <c r="L66" s="3" t="e">
-        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>126</v>
-      </c>
-      <c r="C67" t="s">
-        <v>120</v>
-      </c>
-      <c r="D67" t="s">
-        <v>143</v>
-      </c>
-      <c r="E67" t="s">
-        <v>144</v>
-      </c>
-      <c r="F67" t="s">
-        <v>61</v>
-      </c>
-      <c r="G67" t="s">
-        <v>62</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67" s="8"/>
-      <c r="L67" s="3" t="e">
-        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>126</v>
-      </c>
-      <c r="C68" t="s">
-        <v>116</v>
-      </c>
-      <c r="D68" t="s">
-        <v>115</v>
-      </c>
-      <c r="E68" t="s">
-        <v>117</v>
-      </c>
-      <c r="F68" t="s">
-        <v>61</v>
-      </c>
-      <c r="G68" t="s">
-        <v>62</v>
-      </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
-      <c r="K68" s="8"/>
-      <c r="L68" s="3" t="e">
-        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>126</v>
-      </c>
-      <c r="C69" t="s">
-        <v>116</v>
-      </c>
-      <c r="D69" t="s">
-        <v>139</v>
-      </c>
-      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="11">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <f>COUNTIF($C$37:$C$56,B70)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="11">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ref="C71:C74" si="0">COUNTIF($C$37:$C$56,B71)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B72" s="11">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="11">
         <v>6</v>
       </c>
-      <c r="F69" t="s">
-        <v>61</v>
-      </c>
-      <c r="G69" t="s">
-        <v>62</v>
-      </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-      <c r="K69" s="8"/>
-      <c r="L69" s="3" t="e">
-        <f>Tabelle3[[#This Row],[Spielerzahl]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C71">
-        <f>COUNTIF($C$37:$C$56,3)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C72">
-        <f>COUNTIF($C$37:$C$56,4)</f>
+      <c r="C73">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C73">
-        <f>COUNTIF($C$37:$C$56,5)</f>
-        <v>9</v>
+      <c r="C74">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=92"/>
-    <hyperlink ref="D3" r:id="rId2" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=109"/>
-    <hyperlink ref="D4" r:id="rId3" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=128"/>
-    <hyperlink ref="D5" r:id="rId4" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=157"/>
-    <hyperlink ref="D6" r:id="rId5" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=171"/>
-    <hyperlink ref="D7" r:id="rId6" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=38"/>
-    <hyperlink ref="D8" r:id="rId7" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=102"/>
-    <hyperlink ref="D9" r:id="rId8" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=143"/>
-    <hyperlink ref="D10" r:id="rId9" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=155"/>
-    <hyperlink ref="D11" r:id="rId10" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=169"/>
-    <hyperlink ref="D12" r:id="rId11" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=17"/>
-    <hyperlink ref="D13" r:id="rId12" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=34"/>
-    <hyperlink ref="D14" r:id="rId13" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=45"/>
-    <hyperlink ref="D15" r:id="rId14" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=52"/>
-    <hyperlink ref="D16" r:id="rId15" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=124"/>
-    <hyperlink ref="D17" r:id="rId16" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=114"/>
-    <hyperlink ref="D18" r:id="rId17" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=135"/>
-    <hyperlink ref="D19" r:id="rId18" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=187"/>
-    <hyperlink ref="D20" r:id="rId19" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=108"/>
-    <hyperlink ref="D21" r:id="rId20" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=116"/>
-    <hyperlink ref="D22" r:id="rId21" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=188"/>
-    <hyperlink ref="D23" r:id="rId22" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=164"/>
-    <hyperlink ref="D24" r:id="rId23" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=33"/>
-    <hyperlink ref="D25" r:id="rId24" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=174"/>
-    <hyperlink ref="D26" r:id="rId25" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=111"/>
-    <hyperlink ref="D27" r:id="rId26" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=190"/>
-    <hyperlink ref="D28" r:id="rId27" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=83"/>
-    <hyperlink ref="D29" r:id="rId28" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=181"/>
-    <hyperlink ref="D30" r:id="rId29" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=191"/>
-    <hyperlink ref="D31" r:id="rId30" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=127"/>
-    <hyperlink ref="D32" r:id="rId31" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=154"/>
-    <hyperlink ref="D33" r:id="rId32" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=123"/>
-    <hyperlink ref="D34" r:id="rId33" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=138"/>
-    <hyperlink ref="D35" r:id="rId34" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=94"/>
-    <hyperlink ref="D36" r:id="rId35" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=182"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=92"/>
+    <hyperlink ref="E3" r:id="rId2" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=109"/>
+    <hyperlink ref="E4" r:id="rId3" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=128"/>
+    <hyperlink ref="E5" r:id="rId4" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=157"/>
+    <hyperlink ref="E6" r:id="rId5" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=171"/>
+    <hyperlink ref="E7" r:id="rId6" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=38"/>
+    <hyperlink ref="E8" r:id="rId7" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=102"/>
+    <hyperlink ref="E9" r:id="rId8" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=143"/>
+    <hyperlink ref="E10" r:id="rId9" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=155"/>
+    <hyperlink ref="E11" r:id="rId10" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=169"/>
+    <hyperlink ref="E12" r:id="rId11" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=17"/>
+    <hyperlink ref="E13" r:id="rId12" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=34"/>
+    <hyperlink ref="E14" r:id="rId13" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=45"/>
+    <hyperlink ref="E15" r:id="rId14" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=52"/>
+    <hyperlink ref="E16" r:id="rId15" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=124"/>
+    <hyperlink ref="E17" r:id="rId16" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=114"/>
+    <hyperlink ref="E18" r:id="rId17" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=135"/>
+    <hyperlink ref="E19" r:id="rId18" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=187"/>
+    <hyperlink ref="E20" r:id="rId19" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=108"/>
+    <hyperlink ref="E21" r:id="rId20" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=116"/>
+    <hyperlink ref="E22" r:id="rId21" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=188"/>
+    <hyperlink ref="E23" r:id="rId22" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=164"/>
+    <hyperlink ref="E24" r:id="rId23" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=33"/>
+    <hyperlink ref="E25" r:id="rId24" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=174"/>
+    <hyperlink ref="E26" r:id="rId25" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=111"/>
+    <hyperlink ref="E27" r:id="rId26" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=190"/>
+    <hyperlink ref="E28" r:id="rId27" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=83"/>
+    <hyperlink ref="E29" r:id="rId28" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=181"/>
+    <hyperlink ref="E30" r:id="rId29" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=191"/>
+    <hyperlink ref="E31" r:id="rId30" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=127"/>
+    <hyperlink ref="E32" r:id="rId31" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=154"/>
+    <hyperlink ref="E33" r:id="rId32" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=123"/>
+    <hyperlink ref="E34" r:id="rId33" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=138"/>
+    <hyperlink ref="E35" r:id="rId34" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=94"/>
+    <hyperlink ref="E36" r:id="rId35" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=182"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId36"/>
@@ -3997,7 +4117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="S26" sqref="S26:U26"/>
     </sheetView>
   </sheetViews>
@@ -4070,7 +4190,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B2" s="9">
         <v>1</v>
@@ -7200,537 +7320,837 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I20"/>
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="11">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <f>B$5/D4</f>
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <f>E4*F4</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5">
+        <f>$B$1*B4</f>
+        <v>140</v>
+      </c>
+      <c r="D5" s="11">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <f>B$5/D5</f>
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <f>E5*F5</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6">
+        <f>B4*SUM(F4:F6)</f>
+        <v>100</v>
+      </c>
+      <c r="D6" s="11">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <f>B$5/D6</f>
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <f>E6*F6</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="11"/>
+      <c r="E7" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="9">
+        <f>SUM(F4:F6)</f>
+        <v>20</v>
+      </c>
+      <c r="G7" s="9">
+        <f>SUM(G4:G6)</f>
+        <v>584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="D10" s="11">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <f>B$11/D10</f>
+        <v>56</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <f>E10*F10</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11">
+        <f>$B$1*B10</f>
+        <v>168</v>
+      </c>
+      <c r="D11" s="11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <f>B$11/D11</f>
+        <v>42</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <f>E11*F11</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12">
+        <f>B10*SUM(F10:F13)</f>
+        <v>120</v>
+      </c>
+      <c r="D12" s="11">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <f>B$11/D12</f>
+        <v>28</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <f>E12*F12</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="11">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <f>B$11/D13</f>
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <f>E13*F13</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" s="9">
+        <f>SUM(F10:F13)</f>
+        <v>20</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUM(G10:G13)</f>
+        <v>750</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1">
+        <v>3</v>
+      </c>
+      <c r="J1">
+        <v>90</v>
+      </c>
+      <c r="K1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>75</v>
+      </c>
+      <c r="K2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>70</v>
+      </c>
+      <c r="K3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>70</v>
+      </c>
+      <c r="K4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1">
-        <v>3</v>
-      </c>
-      <c r="I1">
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
         <v>120</v>
       </c>
-      <c r="J1">
+      <c r="K5">
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>120</v>
+      </c>
+      <c r="K6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>45</v>
+      </c>
+      <c r="K7">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>35</v>
+      </c>
+      <c r="K9">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>35</v>
+      </c>
+      <c r="K10">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>35</v>
+      </c>
+      <c r="K11">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>60</v>
+      </c>
+      <c r="K12">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>45</v>
+      </c>
+      <c r="K13">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>40</v>
+      </c>
+      <c r="K15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
         <v>123</v>
       </c>
-      <c r="C2">
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>52</v>
+      </c>
+      <c r="K16">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>45</v>
+      </c>
+      <c r="K17">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>30</v>
+      </c>
+      <c r="K18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E20" t="s">
         <v>61</v>
       </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>120</v>
-      </c>
-      <c r="J2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3">
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20">
         <v>5</v>
       </c>
-      <c r="I3">
-        <v>75</v>
-      </c>
-      <c r="J3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>70</v>
-      </c>
-      <c r="J4">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>70</v>
-      </c>
-      <c r="J5">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
+      <c r="J20">
+        <v>30</v>
+      </c>
+      <c r="K20">
         <v>90</v>
       </c>
-      <c r="J6">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>52</v>
-      </c>
-      <c r="J7">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>50</v>
-      </c>
-      <c r="J8">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>60</v>
-      </c>
-      <c r="J9">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>45</v>
-      </c>
-      <c r="J10">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11">
-        <v>45</v>
-      </c>
-      <c r="J11">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="I12">
-        <v>45</v>
-      </c>
-      <c r="J12">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-      <c r="I13">
-        <v>35</v>
-      </c>
-      <c r="J13">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14">
-        <v>4</v>
-      </c>
-      <c r="I14">
-        <v>35</v>
-      </c>
-      <c r="J14">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="I15">
-        <v>35</v>
-      </c>
-      <c r="J15">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16">
-        <v>4</v>
-      </c>
-      <c r="I16">
-        <v>40</v>
-      </c>
-      <c r="J16">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="I17">
-        <v>30</v>
-      </c>
-      <c r="J17">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18">
-        <v>4</v>
-      </c>
-      <c r="I18">
-        <v>25</v>
-      </c>
-      <c r="J18">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19">
-        <v>5</v>
-      </c>
-      <c r="I19">
-        <v>25</v>
-      </c>
-      <c r="J19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-      <c r="I20">
-        <v>30</v>
-      </c>
-      <c r="J20">
-        <v>90</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A1:J20">
-    <sortCondition descending="1" ref="J1:J20"/>
+  <sortState ref="A1:K20">
+    <sortCondition descending="1" ref="K1:K20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CraZZZy Crash Challenge/CCC-Daten.xlsx
+++ b/CraZZZy Crash Challenge/CCC-Daten.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Eigene Dateien\Privat\KaroStuff\CraZZZy Crash Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\info\KaroStuff\CraZZZy Crash Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633E380A-268B-42A7-8D65-BE0C8DF4A16E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="690" yWindow="690" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teilnehmer" sheetId="1" r:id="rId1"/>
@@ -17,17 +18,22 @@
     <sheet name="Rennanzahl" sheetId="4" r:id="rId3"/>
     <sheet name="Tabelle1" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="249">
   <si>
     <t>Teilnehmer</t>
   </si>
@@ -747,16 +753,43 @@
   </si>
   <si>
     <t>Ergebnis</t>
+  </si>
+  <si>
+    <t>Cpxy</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Graf_Zahl</t>
+  </si>
+  <si>
+    <t>(x)</t>
+  </si>
+  <si>
+    <t>Kabotte</t>
+  </si>
+  <si>
+    <t>andreu73</t>
+  </si>
+  <si>
+    <t>FinalD</t>
+  </si>
+  <si>
+    <t>Didi</t>
+  </si>
+  <si>
+    <t>Teilnahmen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;ca. &quot;\ 0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -798,6 +831,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -908,11 +947,27 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Überschrift 2" xfId="2" builtinId="17"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -937,16 +992,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -959,6 +1004,16 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -984,15 +1039,6 @@
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1007,44 +1053,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:F63" totalsRowCount="1">
-  <autoFilter ref="A1:F62"/>
-  <sortState ref="A2:D48">
-    <sortCondition ref="A1:A48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:G66" totalsRowCount="1">
+  <autoFilter ref="A1:G65" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:E51">
+    <sortCondition ref="A1:A51"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Teilnehmer" totalsRowLabel="Ergebnis"/>
-    <tableColumn id="2" name="CCC1" totalsRowFunction="count" dataDxfId="21" totalsRowDxfId="4"/>
-    <tableColumn id="3" name="CCC2" totalsRowFunction="count" dataDxfId="20" totalsRowDxfId="3"/>
-    <tableColumn id="4" name="CCC3" totalsRowFunction="count" dataDxfId="19" totalsRowDxfId="2"/>
-    <tableColumn id="5" name="CCC4" totalsRowFunction="count" dataDxfId="6" totalsRowDxfId="1"/>
-    <tableColumn id="6" name="CCC5" totalsRowFunction="count" dataDxfId="5" totalsRowDxfId="0"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Teilnehmer" totalsRowLabel="Ergebnis"/>
+    <tableColumn id="7" xr3:uid="{92058238-585F-4C96-B2A3-0F26469434C9}" name="Teilnahmen" dataDxfId="6" totalsRowDxfId="5">
+      <calculatedColumnFormula>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CCC1" totalsRowFunction="count" dataDxfId="7" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CCC2" totalsRowFunction="count" dataDxfId="11" totalsRowDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CCC3" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CCC4" totalsRowFunction="count" dataDxfId="9" totalsRowDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CCC5" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:L152" totalsRowShown="0" dataDxfId="18">
-  <autoFilter ref="A1:L152"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:L152" totalsRowShown="0" dataDxfId="23">
+  <autoFilter ref="A1:L152" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState ref="A2:J70">
     <sortCondition ref="A37"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="CCC"/>
-    <tableColumn id="2" name="Spieltag" dataDxfId="17"/>
-    <tableColumn id="3" name="Spieler" dataDxfId="16"/>
-    <tableColumn id="4" name="Strecke" dataDxfId="11" dataCellStyle="Link"/>
-    <tableColumn id="5" name="ZZZ" dataDxfId="9"/>
-    <tableColumn id="6" name="CPs" dataDxfId="10"/>
-    <tableColumn id="7" name="Richtung" dataDxfId="15"/>
-    <tableColumn id="8" name="Rennen" dataDxfId="14"/>
-    <tableColumn id="11" name="Züge p.S." dataDxfId="13"/>
-    <tableColumn id="12" name="Züge Ges." dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CCC"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spieltag" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Spieler" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Strecke" dataDxfId="20" dataCellStyle="Link"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="14">
       <calculatedColumnFormula>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Rating" dataDxfId="7"/>
-    <tableColumn id="9" name="Kommentar" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1346,45 +1395,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>176</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>45</v>
+      <c r="B2" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>45</v>
@@ -1398,13 +1452,17 @@
       <c r="F2" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>45</v>
+      <c r="B3" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>45</v>
@@ -1412,15 +1470,19 @@
       <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>45</v>
+      <c r="B4" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>45</v>
@@ -1434,49 +1496,65 @@
       <c r="F4" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="1"/>
+      <c r="B5" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="1"/>
+      <c r="B6" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>45</v>
+      <c r="B8" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>45</v>
@@ -1490,25 +1568,33 @@
       <c r="F8" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>232</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>1</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>45</v>
+      <c r="B10" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>45</v>
@@ -1516,84 +1602,112 @@
       <c r="D10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>237</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>240</v>
+      </c>
+      <c r="B11" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>1</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>2</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>230</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>234</v>
-      </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>3</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
@@ -1602,319 +1716,415 @@
       <c r="F16" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="B17" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>2</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>231</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>3</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>238</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="B21" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>242</v>
+      </c>
+      <c r="B22" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>2</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B23" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>1</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="B24" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>1</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B25" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>1</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B26" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>4</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="B27" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>1</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>236</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>45</v>
+      <c r="B31" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>4</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="B32" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>2</v>
+      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B33" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B34" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="B35" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="B37" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B38" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>2</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
+      </c>
+      <c r="B39" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>45</v>
@@ -1922,25 +2132,39 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>233</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="B40" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>3</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="B41" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>45</v>
@@ -1948,237 +2172,313 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>22</v>
+      </c>
+      <c r="B42" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>233</v>
+      </c>
+      <c r="B43" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>1</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>2</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>2</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>45</v>
+      <c r="B46" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B47" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>5</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="B48" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>4</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
+      </c>
+      <c r="B49" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B50" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="B51" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>2</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D51" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="B52" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>2</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
+      </c>
+      <c r="B54" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>3</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B55" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>1</v>
+      </c>
+      <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="B56" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>5</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B57" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
+      </c>
+      <c r="B58" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>45</v>
@@ -2186,123 +2486,224 @@
       <c r="D58" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="B59" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>235</v>
-      </c>
-      <c r="B60" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="B60" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>1</v>
+      </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>5</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>235</v>
+      </c>
+      <c r="B63" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>2</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>41</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B64" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>3</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B65" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>4</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>239</v>
       </c>
-      <c r="B63" s="1">
+      <c r="C66" s="1">
         <f>SUBTOTAL(103,Tabelle1[CCC1])</f>
         <v>42</v>
       </c>
-      <c r="C63" s="1">
+      <c r="D66" s="1">
         <f>SUBTOTAL(103,Tabelle1[CCC2])</f>
         <v>30</v>
       </c>
-      <c r="D63" s="1">
+      <c r="E66" s="1">
         <f>SUBTOTAL(103,Tabelle1[CCC3])</f>
         <v>28</v>
       </c>
-      <c r="E63" s="1">
+      <c r="F66" s="1">
         <f>SUBTOTAL(103,Tabelle1[CCC4])</f>
-        <v>18</v>
-      </c>
-      <c r="F63" s="1">
+        <v>25</v>
+      </c>
+      <c r="G66" s="1">
         <f>SUBTOTAL(103,Tabelle1[CCC5])</f>
-        <v>18</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3623,7 +4024,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="18.75" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
         <v>3</v>
       </c>
@@ -3659,7 +4060,7 @@
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -3697,7 +4098,7 @@
       </c>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -3735,7 +4136,7 @@
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -3773,7 +4174,7 @@
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -3811,7 +4212,7 @@
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -3849,7 +4250,7 @@
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -3887,7 +4288,7 @@
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -3925,7 +4326,7 @@
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -3963,7 +4364,7 @@
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -4001,7 +4402,7 @@
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -4039,7 +4440,7 @@
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -4077,7 +4478,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -4115,7 +4516,7 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -4153,7 +4554,7 @@
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -4191,7 +4592,7 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -4229,7 +4630,7 @@
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -4267,7 +4668,7 @@
       </c>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -4305,7 +4706,7 @@
       </c>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -4343,7 +4744,7 @@
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -4381,7 +4782,7 @@
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -4419,7 +4820,7 @@
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="15" t="s">
         <v>176</v>
       </c>
@@ -6996,41 +7397,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=92"/>
-    <hyperlink ref="D4" r:id="rId2" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=109"/>
-    <hyperlink ref="D5" r:id="rId3" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=128"/>
-    <hyperlink ref="D6" r:id="rId4" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=157"/>
-    <hyperlink ref="D7" r:id="rId5" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=171"/>
-    <hyperlink ref="D8" r:id="rId6" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=38"/>
-    <hyperlink ref="D9" r:id="rId7" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=102"/>
-    <hyperlink ref="D10" r:id="rId8" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=143"/>
-    <hyperlink ref="D11" r:id="rId9" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=155"/>
-    <hyperlink ref="D12" r:id="rId10" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=169"/>
-    <hyperlink ref="D13" r:id="rId11" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=17"/>
-    <hyperlink ref="D14" r:id="rId12" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=34"/>
-    <hyperlink ref="D15" r:id="rId13" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=45"/>
-    <hyperlink ref="D16" r:id="rId14" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=52"/>
-    <hyperlink ref="D17" r:id="rId15" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=124"/>
-    <hyperlink ref="D19" r:id="rId16" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=114"/>
-    <hyperlink ref="D20" r:id="rId17" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=135"/>
-    <hyperlink ref="D21" r:id="rId18" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=187"/>
-    <hyperlink ref="D22" r:id="rId19" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=108"/>
-    <hyperlink ref="D23" r:id="rId20" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=116"/>
-    <hyperlink ref="D24" r:id="rId21" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=188"/>
-    <hyperlink ref="D25" r:id="rId22" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=164"/>
-    <hyperlink ref="D26" r:id="rId23" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=33"/>
-    <hyperlink ref="D27" r:id="rId24" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=174"/>
-    <hyperlink ref="D28" r:id="rId25" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=111"/>
-    <hyperlink ref="D29" r:id="rId26" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=190"/>
-    <hyperlink ref="D30" r:id="rId27" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=83"/>
-    <hyperlink ref="D31" r:id="rId28" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=181"/>
-    <hyperlink ref="D32" r:id="rId29" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=191"/>
-    <hyperlink ref="D33" r:id="rId30" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=127"/>
-    <hyperlink ref="D34" r:id="rId31" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=154"/>
-    <hyperlink ref="D35" r:id="rId32" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=123"/>
-    <hyperlink ref="D36" r:id="rId33" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=138"/>
-    <hyperlink ref="D37" r:id="rId34" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=94"/>
-    <hyperlink ref="D38" r:id="rId35" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=182"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=92" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=109" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=128" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=157" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId5" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=171" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D8" r:id="rId6" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=38" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D9" r:id="rId7" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=102" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D10" r:id="rId8" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=143" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D11" r:id="rId9" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=155" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D12" r:id="rId10" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=169" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D13" r:id="rId11" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=17" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D14" r:id="rId12" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=34" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D15" r:id="rId13" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=45" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D16" r:id="rId14" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=52" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D17" r:id="rId15" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=124" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D19" r:id="rId16" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=114" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D20" r:id="rId17" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=135" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="D21" r:id="rId18" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=187" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="D22" r:id="rId19" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=108" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="D23" r:id="rId20" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=116" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="D24" r:id="rId21" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=188" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="D25" r:id="rId22" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=164" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="D26" r:id="rId23" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=33" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="D27" r:id="rId24" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=174" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="D28" r:id="rId25" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=111" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="D29" r:id="rId26" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=190" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="D30" r:id="rId27" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=83" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="D31" r:id="rId28" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=181" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="D32" r:id="rId29" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=191" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="D33" r:id="rId30" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=127" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="D34" r:id="rId31" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=154" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="D35" r:id="rId32" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=123" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="D36" r:id="rId33" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=138" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="D37" r:id="rId34" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=94" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="D38" r:id="rId35" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=182" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId36"/>
@@ -7041,11 +7442,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AK32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AF23" sqref="AF23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11779,7 +12180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/CraZZZy Crash Challenge/CCC-Daten.xlsx
+++ b/CraZZZy Crash Challenge/CCC-Daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\info\KaroStuff\CraZZZy Crash Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633E380A-268B-42A7-8D65-BE0C8DF4A16E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93360C9-32BE-44F4-BBBA-25300CF12904}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="690" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teilnehmer" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="251">
   <si>
     <t>Teilnehmer</t>
   </si>
@@ -758,9 +758,6 @@
     <t>Cpxy</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Graf_Zahl</t>
   </si>
   <si>
@@ -780,6 +777,15 @@
   </si>
   <si>
     <t>Teilnahmen</t>
+  </si>
+  <si>
+    <t>tbd</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>entfernt</t>
   </si>
 </sst>
 </file>
@@ -882,7 +888,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -941,13 +947,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Überschrift 2" xfId="2" builtinId="17"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="19">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -968,21 +980,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1053,47 +1050,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:G66" totalsRowCount="1">
-  <autoFilter ref="A1:G65" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:E51">
-    <sortCondition ref="A1:A51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:G69" totalsRowCount="1">
+  <autoFilter ref="A1:G68" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:E54">
+    <sortCondition ref="A1:A54"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Teilnehmer" totalsRowLabel="Ergebnis"/>
-    <tableColumn id="7" xr3:uid="{92058238-585F-4C96-B2A3-0F26469434C9}" name="Teilnahmen" dataDxfId="6" totalsRowDxfId="5">
+    <tableColumn id="7" xr3:uid="{92058238-585F-4C96-B2A3-0F26469434C9}" name="Teilnahmen" totalsRowLabel="x" dataDxfId="6" totalsRowDxfId="5">
       <calculatedColumnFormula>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CCC1" totalsRowFunction="count" dataDxfId="7" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CCC2" totalsRowFunction="count" dataDxfId="11" totalsRowDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CCC3" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CCC4" totalsRowFunction="count" dataDxfId="9" totalsRowDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CCC5" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CCC1" totalsRowFunction="custom" dataDxfId="4">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC1],$B69)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CCC2" totalsRowFunction="custom" dataDxfId="3">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC2],$B69)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CCC3" totalsRowFunction="custom" dataDxfId="2">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC3],$B69)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CCC4" totalsRowFunction="custom" dataDxfId="1">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC4],$B69)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CCC5" totalsRowFunction="custom" dataDxfId="0">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC5],$B69)</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:L152" totalsRowShown="0" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:L152" totalsRowShown="0" dataDxfId="18">
   <autoFilter ref="A1:L152" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState ref="A2:J70">
     <sortCondition ref="A37"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CCC"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spieltag" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Spieler" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Strecke" dataDxfId="20" dataCellStyle="Link"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="14">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spieltag" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Spieler" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Strecke" dataDxfId="15" dataCellStyle="Link"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="9">
       <calculatedColumnFormula>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1396,17 +1403,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1414,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1478,47 +1487,49 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="1">
+        <v>244</v>
+      </c>
+      <c r="B4" s="22">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>45</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -1534,7 +1545,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -1550,58 +1561,54 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>1</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="B10" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>45</v>
       </c>
@@ -1610,29 +1617,31 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>240</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>1</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>241</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B12" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1641,36 +1650,36 @@
         <v>45</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>45</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>237</v>
       </c>
       <c r="B13" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
         <v>45</v>
@@ -1680,7 +1689,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -1694,39 +1703,41 @@
         <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>3</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>234</v>
-      </c>
-      <c r="B17" s="1">
+        <v>246</v>
+      </c>
+      <c r="B17" s="22">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1734,41 +1745,39 @@
       <c r="F17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="B18" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B19" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
         <v>45</v>
       </c>
@@ -1778,7 +1787,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -1787,40 +1796,44 @@
       <c r="C20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>238</v>
-      </c>
-      <c r="B21" s="1">
+        <v>245</v>
+      </c>
+      <c r="B21" s="22">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="G21" s="1" t="s">
-        <v>45</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B22" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F22" s="1" t="s">
         <v>45</v>
       </c>
@@ -1830,250 +1843,246 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B23" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>1</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="B24" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
         <v>1</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
       <c r="B25" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
         <v>1</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="C27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>244</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>243</v>
-      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B31" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>4</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
         <v>2</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>243</v>
       </c>
       <c r="B33" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B34" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>236</v>
       </c>
       <c r="B35" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
         <v>2</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B36" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>5</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
         <v>45</v>
       </c>
@@ -2086,23 +2095,25 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B37" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -2120,115 +2131,121 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B39" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B40" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>243</v>
-      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B41" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B42" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="B43" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>1</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B45" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -2246,29 +2263,27 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>233</v>
       </c>
       <c r="B46" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B47" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>45</v>
@@ -2276,41 +2291,31 @@
       <c r="D47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B48" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B49" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -2328,41 +2333,53 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B50" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B51" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B52" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -2380,13 +2397,15 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B53" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>0</v>
-      </c>
-      <c r="C53" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2394,141 +2413,143 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B54" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>3</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B55" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>1</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>243</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B56" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>5</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>1</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B59" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="B60" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
         <v>1</v>
       </c>
-      <c r="C60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D60" s="1"/>
-      <c r="E60" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B61" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>45</v>
@@ -2536,65 +2557,49 @@
       <c r="D61" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B62" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>235</v>
+        <v>52</v>
       </c>
       <c r="B63" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B64" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>45</v>
@@ -2605,16 +2610,20 @@
       <c r="E64" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B65" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>45</v>
@@ -2622,7 +2631,9 @@
       <c r="D65" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F65" s="1" t="s">
         <v>45</v>
       </c>
@@ -2632,57 +2643,129 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>235</v>
+      </c>
+      <c r="B66" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>2</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>3</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>3</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>239</v>
       </c>
-      <c r="C66" s="1">
-        <f>SUBTOTAL(103,Tabelle1[CCC1])</f>
+      <c r="B69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69">
+        <f>COUNTIF(Tabelle1[CCC1],$B69)</f>
         <v>42</v>
       </c>
-      <c r="D66" s="1">
-        <f>SUBTOTAL(103,Tabelle1[CCC2])</f>
+      <c r="D69">
+        <f>COUNTIF(Tabelle1[CCC2],$B69)</f>
         <v>30</v>
       </c>
-      <c r="E66" s="1">
-        <f>SUBTOTAL(103,Tabelle1[CCC3])</f>
+      <c r="E69">
+        <f>COUNTIF(Tabelle1[CCC3],$B69)</f>
         <v>28</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F69">
+        <f>COUNTIF(Tabelle1[CCC4],$B69)</f>
+        <v>22</v>
+      </c>
+      <c r="G69">
+        <f>COUNTIF(Tabelle1[CCC5],$B69)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="F70">
+        <f>COUNTIF(Tabelle1[CCC4],$B70)</f>
+        <v>5</v>
+      </c>
+      <c r="G70">
+        <f>COUNTIF(Tabelle1[CCC5],$B70)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F71">
+        <f>COUNTIF(Tabelle1[CCC4],$B71)</f>
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <f>COUNTIF(Tabelle1[CCC5],$B71)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="F72">
         <f>SUBTOTAL(103,Tabelle1[CCC4])</f>
-        <v>25</v>
-      </c>
-      <c r="G66" s="1">
+        <v>30</v>
+      </c>
+      <c r="G72">
         <f>SUBTOTAL(103,Tabelle1[CCC5])</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/CraZZZy Crash Challenge/CCC-Daten.xlsx
+++ b/CraZZZy Crash Challenge/CCC-Daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\info\KaroStuff\CraZZZy Crash Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93360C9-32BE-44F4-BBBA-25300CF12904}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949D852C-2FA4-4B0B-9F0F-66D5E75B9461}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teilnehmer" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,29 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author xml:space="preserve">Julian Verkin </author>
+  </authors>
+  <commentList>
+    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{F3187DBD-D874-45CA-A593-5633EF410881}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>ersetzt durch MM</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="251">
   <si>
@@ -785,7 +808,7 @@
     <t>Gesamt</t>
   </si>
   <si>
-    <t>entfernt</t>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -795,7 +818,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;ca. &quot;\ 0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -844,6 +867,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -964,25 +993,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1036,6 +1046,25 @@
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1057,22 +1086,22 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Teilnehmer" totalsRowLabel="Ergebnis"/>
-    <tableColumn id="7" xr3:uid="{92058238-585F-4C96-B2A3-0F26469434C9}" name="Teilnahmen" totalsRowLabel="x" dataDxfId="6" totalsRowDxfId="5">
+    <tableColumn id="7" xr3:uid="{92058238-585F-4C96-B2A3-0F26469434C9}" name="Teilnahmen" totalsRowLabel="x" dataDxfId="18" totalsRowDxfId="0">
       <calculatedColumnFormula>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CCC1" totalsRowFunction="custom" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CCC1" totalsRowFunction="custom" dataDxfId="17">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC1],$B69)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CCC2" totalsRowFunction="custom" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CCC2" totalsRowFunction="custom" dataDxfId="16">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC2],$B69)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CCC3" totalsRowFunction="custom" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CCC3" totalsRowFunction="custom" dataDxfId="15">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC3],$B69)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CCC4" totalsRowFunction="custom" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CCC4" totalsRowFunction="custom" dataDxfId="14">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC4],$B69)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CCC5" totalsRowFunction="custom" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CCC5" totalsRowFunction="custom" dataDxfId="13">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC5],$B69)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1081,26 +1110,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:L152" totalsRowShown="0" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:L152" totalsRowShown="0" dataDxfId="12">
   <autoFilter ref="A1:L152" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState ref="A2:J70">
     <sortCondition ref="A37"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CCC"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spieltag" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Spieler" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Strecke" dataDxfId="15" dataCellStyle="Link"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="9">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spieltag" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Spieler" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Strecke" dataDxfId="9" dataCellStyle="Link"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="3">
       <calculatedColumnFormula>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1402,11 +1431,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2685,7 +2714,7 @@
       </c>
       <c r="B68" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>45</v>
@@ -2695,7 +2724,7 @@
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>45</v>
@@ -2722,7 +2751,7 @@
       </c>
       <c r="F69">
         <f>COUNTIF(Tabelle1[CCC4],$B69)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G69">
         <f>COUNTIF(Tabelle1[CCC5],$B69)</f>
@@ -2748,7 +2777,7 @@
       </c>
       <c r="F71">
         <f>COUNTIF(Tabelle1[CCC4],$B71)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G71">
         <f>COUNTIF(Tabelle1[CCC5],$B71)</f>
@@ -2772,8 +2801,9 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/CraZZZy Crash Challenge/CCC-Daten.xlsx
+++ b/CraZZZy Crash Challenge/CCC-Daten.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\info\KaroStuff\CraZZZy Crash Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Eigene Dateien\Privat\KaroStuff\CraZZZy Crash Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949D852C-2FA4-4B0B-9F0F-66D5E75B9461}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="13320"/>
   </bookViews>
   <sheets>
     <sheet name="Teilnehmer" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Rennanzahl" sheetId="4" r:id="rId3"/>
     <sheet name="Tabelle1" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author xml:space="preserve">Julian Verkin </author>
   </authors>
   <commentList>
-    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{F3187DBD-D874-45CA-A593-5633EF410881}">
+    <comment ref="E56" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="252">
   <si>
     <t>Teilnehmer</t>
   </si>
@@ -809,12 +808,15 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>yeahpopdoll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;ca. &quot;\ 0"/>
   </numFmts>
@@ -1079,30 +1081,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:G69" totalsRowCount="1">
-  <autoFilter ref="A1:G68" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:G70" totalsRowCount="1">
+  <autoFilter ref="A1:G69"/>
   <sortState ref="A2:E54">
     <sortCondition ref="A1:A54"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Teilnehmer" totalsRowLabel="Ergebnis"/>
-    <tableColumn id="7" xr3:uid="{92058238-585F-4C96-B2A3-0F26469434C9}" name="Teilnahmen" totalsRowLabel="x" dataDxfId="18" totalsRowDxfId="0">
+    <tableColumn id="1" name="Teilnehmer" totalsRowLabel="Ergebnis"/>
+    <tableColumn id="7" name="Teilnahmen" totalsRowLabel="x" dataDxfId="18" totalsRowDxfId="0">
       <calculatedColumnFormula>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CCC1" totalsRowFunction="custom" dataDxfId="17">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC1],$B69)</totalsRowFormula>
+    <tableColumn id="2" name="CCC1" totalsRowFunction="custom" dataDxfId="17">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC1],$B70)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CCC2" totalsRowFunction="custom" dataDxfId="16">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC2],$B69)</totalsRowFormula>
+    <tableColumn id="3" name="CCC2" totalsRowFunction="custom" dataDxfId="16">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC2],$B70)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CCC3" totalsRowFunction="custom" dataDxfId="15">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC3],$B69)</totalsRowFormula>
+    <tableColumn id="4" name="CCC3" totalsRowFunction="custom" dataDxfId="15">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC3],$B70)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CCC4" totalsRowFunction="custom" dataDxfId="14">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC4],$B69)</totalsRowFormula>
+    <tableColumn id="5" name="CCC4" totalsRowFunction="custom" dataDxfId="14">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC4],$B70)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CCC5" totalsRowFunction="custom" dataDxfId="13">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC5],$B69)</totalsRowFormula>
+    <tableColumn id="6" name="CCC5" totalsRowFunction="custom" dataDxfId="13">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC5],$B70)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1110,26 +1112,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:L152" totalsRowShown="0" dataDxfId="12">
-  <autoFilter ref="A1:L152" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:L152" totalsRowShown="0" dataDxfId="12">
+  <autoFilter ref="A1:L152"/>
   <sortState ref="A2:J70">
     <sortCondition ref="A37"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CCC"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spieltag" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Spieler" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Strecke" dataDxfId="9" dataCellStyle="Link"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="3">
+    <tableColumn id="1" name="CCC"/>
+    <tableColumn id="2" name="Spieltag" dataDxfId="11"/>
+    <tableColumn id="3" name="Spieler" dataDxfId="10"/>
+    <tableColumn id="4" name="Strecke" dataDxfId="9" dataCellStyle="Link"/>
+    <tableColumn id="5" name="ZZZ" dataDxfId="8"/>
+    <tableColumn id="6" name="CPs" dataDxfId="7"/>
+    <tableColumn id="7" name="Richtung" dataDxfId="6"/>
+    <tableColumn id="8" name="Rennen" dataDxfId="5"/>
+    <tableColumn id="11" name="Züge p.S." dataDxfId="4"/>
+    <tableColumn id="12" name="Züge Ges." dataDxfId="3">
       <calculatedColumnFormula>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="1"/>
+    <tableColumn id="10" name="Rating" dataDxfId="2"/>
+    <tableColumn id="9" name="Kommentar" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1431,11 +1433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I71" sqref="I71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,9 +1527,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>248</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
         <v>248</v>
       </c>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="B16" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>45</v>
@@ -1754,10 +1754,10 @@
         <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1774,7 +1774,9 @@
       <c r="F17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1843,9 +1845,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>248</v>
-      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
         <v>248</v>
       </c>
@@ -2050,16 +2050,16 @@
       </c>
       <c r="B33" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="B58" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2526,10 +2526,10 @@
         <v>45</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2732,48 +2732,53 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>251</v>
+      </c>
+      <c r="B69" s="22">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>1</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>239</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C69">
-        <f>COUNTIF(Tabelle1[CCC1],$B69)</f>
+      <c r="B70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70">
+        <f>COUNTIF(Tabelle1[CCC1],$B70)</f>
         <v>42</v>
       </c>
-      <c r="D69">
-        <f>COUNTIF(Tabelle1[CCC2],$B69)</f>
+      <c r="D70">
+        <f>COUNTIF(Tabelle1[CCC2],$B70)</f>
         <v>30</v>
       </c>
-      <c r="E69">
-        <f>COUNTIF(Tabelle1[CCC3],$B69)</f>
+      <c r="E70">
+        <f>COUNTIF(Tabelle1[CCC3],$B70)</f>
         <v>28</v>
-      </c>
-      <c r="F69">
-        <f>COUNTIF(Tabelle1[CCC4],$B69)</f>
-        <v>23</v>
-      </c>
-      <c r="G69">
-        <f>COUNTIF(Tabelle1[CCC5],$B69)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="23" t="s">
-        <v>242</v>
       </c>
       <c r="F70">
         <f>COUNTIF(Tabelle1[CCC4],$B70)</f>
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G70">
         <f>COUNTIF(Tabelle1[CCC5],$B70)</f>
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" s="23" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F71">
         <f>COUNTIF(Tabelle1[CCC4],$B71)</f>
@@ -2781,20 +2786,33 @@
       </c>
       <c r="G71">
         <f>COUNTIF(Tabelle1[CCC5],$B71)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F72">
+        <f>COUNTIF(Tabelle1[CCC4],$B72)</f>
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <f>COUNTIF(Tabelle1[CCC5],$B72)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="F72">
+      <c r="F73">
         <f>SUBTOTAL(103,Tabelle1[CCC4])</f>
-        <v>30</v>
-      </c>
-      <c r="G72">
+        <v>29</v>
+      </c>
+      <c r="G73">
         <f>SUBTOTAL(103,Tabelle1[CCC5])</f>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2809,14 +2827,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -7510,41 +7528,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=92" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=109" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D5" r:id="rId3" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=128" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D6" r:id="rId4" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=157" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D7" r:id="rId5" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=171" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="D8" r:id="rId6" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=38" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D9" r:id="rId7" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=102" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="D10" r:id="rId8" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=143" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D11" r:id="rId9" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=155" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D12" r:id="rId10" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=169" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D13" r:id="rId11" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=17" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="D14" r:id="rId12" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=34" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="D15" r:id="rId13" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=45" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="D16" r:id="rId14" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=52" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="D17" r:id="rId15" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=124" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="D19" r:id="rId16" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=114" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="D20" r:id="rId17" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=135" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="D21" r:id="rId18" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=187" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="D22" r:id="rId19" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=108" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="D23" r:id="rId20" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=116" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="D24" r:id="rId21" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=188" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="D25" r:id="rId22" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=164" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="D26" r:id="rId23" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=33" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="D27" r:id="rId24" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=174" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="D28" r:id="rId25" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=111" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="D29" r:id="rId26" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=190" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="D30" r:id="rId27" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=83" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="D31" r:id="rId28" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=181" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="D32" r:id="rId29" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=191" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="D33" r:id="rId30" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=127" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="D34" r:id="rId31" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=154" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="D35" r:id="rId32" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=123" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="D36" r:id="rId33" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=138" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="D37" r:id="rId34" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=94" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="D38" r:id="rId35" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=182" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=92"/>
+    <hyperlink ref="D4" r:id="rId2" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=109"/>
+    <hyperlink ref="D5" r:id="rId3" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=128"/>
+    <hyperlink ref="D6" r:id="rId4" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=157"/>
+    <hyperlink ref="D7" r:id="rId5" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=171"/>
+    <hyperlink ref="D8" r:id="rId6" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=38"/>
+    <hyperlink ref="D9" r:id="rId7" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=102"/>
+    <hyperlink ref="D10" r:id="rId8" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=143"/>
+    <hyperlink ref="D11" r:id="rId9" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=155"/>
+    <hyperlink ref="D12" r:id="rId10" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=169"/>
+    <hyperlink ref="D13" r:id="rId11" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=17"/>
+    <hyperlink ref="D14" r:id="rId12" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=34"/>
+    <hyperlink ref="D15" r:id="rId13" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=45"/>
+    <hyperlink ref="D16" r:id="rId14" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=52"/>
+    <hyperlink ref="D17" r:id="rId15" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=124"/>
+    <hyperlink ref="D19" r:id="rId16" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=114"/>
+    <hyperlink ref="D20" r:id="rId17" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=135"/>
+    <hyperlink ref="D21" r:id="rId18" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=187"/>
+    <hyperlink ref="D22" r:id="rId19" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=108"/>
+    <hyperlink ref="D23" r:id="rId20" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=116"/>
+    <hyperlink ref="D24" r:id="rId21" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=188"/>
+    <hyperlink ref="D25" r:id="rId22" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=164"/>
+    <hyperlink ref="D26" r:id="rId23" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=33"/>
+    <hyperlink ref="D27" r:id="rId24" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=174"/>
+    <hyperlink ref="D28" r:id="rId25" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=111"/>
+    <hyperlink ref="D29" r:id="rId26" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=190"/>
+    <hyperlink ref="D30" r:id="rId27" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=83"/>
+    <hyperlink ref="D31" r:id="rId28" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=181"/>
+    <hyperlink ref="D32" r:id="rId29" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=191"/>
+    <hyperlink ref="D33" r:id="rId30" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=127"/>
+    <hyperlink ref="D34" r:id="rId31" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=154"/>
+    <hyperlink ref="D35" r:id="rId32" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=123"/>
+    <hyperlink ref="D36" r:id="rId33" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=138"/>
+    <hyperlink ref="D37" r:id="rId34" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=94"/>
+    <hyperlink ref="D38" r:id="rId35" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=182"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId36"/>
@@ -7555,11 +7573,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AF23" sqref="AF23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AJ30" sqref="AJ30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12293,7 +12311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/CraZZZy Crash Challenge/CCC-Daten.xlsx
+++ b/CraZZZy Crash Challenge/CCC-Daten.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Eigene Dateien\Privat\KaroStuff\CraZZZy Crash Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\info\KaroStuff\CraZZZy Crash Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AF5F6A-9CAA-4858-BCAB-56F8AE416102}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="13320"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teilnehmer" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Rennanzahl" sheetId="4" r:id="rId3"/>
     <sheet name="Tabelle1" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author xml:space="preserve">Julian Verkin </author>
   </authors>
   <commentList>
-    <comment ref="E56" authorId="0" shapeId="0">
+    <comment ref="E57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="253">
   <si>
     <t>Teilnehmer</t>
   </si>
@@ -811,12 +812,15 @@
   </si>
   <si>
     <t>yeahpopdoll</t>
+  </si>
+  <si>
+    <t>MasterLex515</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;ca. &quot;\ 0"/>
   </numFmts>
@@ -1081,30 +1085,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:G70" totalsRowCount="1">
-  <autoFilter ref="A1:G69"/>
-  <sortState ref="A2:E54">
-    <sortCondition ref="A1:A54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:G71" totalsRowCount="1">
+  <autoFilter ref="A1:G70" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:E55">
+    <sortCondition ref="A1:A55"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Teilnehmer" totalsRowLabel="Ergebnis"/>
-    <tableColumn id="7" name="Teilnahmen" totalsRowLabel="x" dataDxfId="18" totalsRowDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Teilnehmer" totalsRowLabel="Ergebnis"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Teilnahmen" totalsRowLabel="x" dataDxfId="18" totalsRowDxfId="0">
       <calculatedColumnFormula>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="CCC1" totalsRowFunction="custom" dataDxfId="17">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC1],$B70)</totalsRowFormula>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CCC1" totalsRowFunction="custom" dataDxfId="17">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC1],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="CCC2" totalsRowFunction="custom" dataDxfId="16">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC2],$B70)</totalsRowFormula>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CCC2" totalsRowFunction="custom" dataDxfId="16">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC2],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="CCC3" totalsRowFunction="custom" dataDxfId="15">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC3],$B70)</totalsRowFormula>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CCC3" totalsRowFunction="custom" dataDxfId="15">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC3],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="CCC4" totalsRowFunction="custom" dataDxfId="14">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC4],$B70)</totalsRowFormula>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CCC4" totalsRowFunction="custom" dataDxfId="14">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC4],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="CCC5" totalsRowFunction="custom" dataDxfId="13">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC5],$B70)</totalsRowFormula>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CCC5" totalsRowFunction="custom" dataDxfId="13">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC5],$B71)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1112,26 +1116,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:L152" totalsRowShown="0" dataDxfId="12">
-  <autoFilter ref="A1:L152"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:L152" totalsRowShown="0" dataDxfId="12">
+  <autoFilter ref="A1:L152" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState ref="A2:J70">
     <sortCondition ref="A37"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="CCC"/>
-    <tableColumn id="2" name="Spieltag" dataDxfId="11"/>
-    <tableColumn id="3" name="Spieler" dataDxfId="10"/>
-    <tableColumn id="4" name="Strecke" dataDxfId="9" dataCellStyle="Link"/>
-    <tableColumn id="5" name="ZZZ" dataDxfId="8"/>
-    <tableColumn id="6" name="CPs" dataDxfId="7"/>
-    <tableColumn id="7" name="Richtung" dataDxfId="6"/>
-    <tableColumn id="8" name="Rennen" dataDxfId="5"/>
-    <tableColumn id="11" name="Züge p.S." dataDxfId="4"/>
-    <tableColumn id="12" name="Züge Ges." dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CCC"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spieltag" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Spieler" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Strecke" dataDxfId="9" dataCellStyle="Link"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="3">
       <calculatedColumnFormula>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Rating" dataDxfId="2"/>
-    <tableColumn id="9" name="Kommentar" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1433,11 +1437,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2234,99 +2238,97 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="1">
+        <v>252</v>
+      </c>
+      <c r="B43" s="22">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>3</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>242</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B44" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="B46" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>1</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="B47" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E47" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -2344,7 +2346,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B49" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -2362,11 +2364,11 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B50" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>45</v>
@@ -2374,28 +2376,24 @@
       <c r="D50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B51" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E51" s="1" t="s">
         <v>45</v>
       </c>
@@ -2408,59 +2406,63 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B52" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B53" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B54" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B55" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -2478,43 +2480,41 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B56" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>0</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1" t="s">
-        <v>250</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B57" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -2534,18 +2534,14 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>5</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
         <v>45</v>
       </c>
@@ -2558,97 +2554,97 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B60" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B61" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B62" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B63" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
         <v>1</v>
       </c>
-      <c r="C63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D63" s="1"/>
-      <c r="E63" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B64" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>5</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B65" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -2672,15 +2668,21 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>235</v>
+        <v>4</v>
       </c>
       <c r="B66" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F66" s="1" t="s">
         <v>45</v>
       </c>
@@ -2690,31 +2692,29 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="B67" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>3</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B68" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>45</v>
@@ -2722,97 +2722,117 @@
       <c r="D68" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>251</v>
-      </c>
-      <c r="B69" s="22">
+        <v>27</v>
+      </c>
+      <c r="B69" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>1</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>248</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>251</v>
+      </c>
+      <c r="B70" s="22">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
+        <v>1</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>239</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C70">
-        <f>COUNTIF(Tabelle1[CCC1],$B70)</f>
+      <c r="B71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71">
+        <f>COUNTIF(Tabelle1[CCC1],$B71)</f>
         <v>42</v>
       </c>
-      <c r="D70">
-        <f>COUNTIF(Tabelle1[CCC2],$B70)</f>
+      <c r="D71">
+        <f>COUNTIF(Tabelle1[CCC2],$B71)</f>
         <v>30</v>
       </c>
-      <c r="E70">
-        <f>COUNTIF(Tabelle1[CCC3],$B70)</f>
+      <c r="E71">
+        <f>COUNTIF(Tabelle1[CCC3],$B71)</f>
         <v>28</v>
-      </c>
-      <c r="F70">
-        <f>COUNTIF(Tabelle1[CCC4],$B70)</f>
-        <v>27</v>
-      </c>
-      <c r="G70">
-        <f>COUNTIF(Tabelle1[CCC5],$B70)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="23" t="s">
-        <v>242</v>
       </c>
       <c r="F71">
         <f>COUNTIF(Tabelle1[CCC4],$B71)</f>
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G71">
         <f>COUNTIF(Tabelle1[CCC5],$B71)</f>
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" s="23" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F72">
         <f>COUNTIF(Tabelle1[CCC4],$B72)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G72">
         <f>COUNTIF(Tabelle1[CCC5],$B72)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B73" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F73">
+        <f>COUNTIF(Tabelle1[CCC4],$B73)</f>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <f>COUNTIF(Tabelle1[CCC5],$B73)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="F73">
+      <c r="F74">
         <f>SUBTOTAL(103,Tabelle1[CCC4])</f>
         <v>29</v>
       </c>
-      <c r="G73">
+      <c r="G74">
         <f>SUBTOTAL(103,Tabelle1[CCC5])</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2827,7 +2847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -7528,41 +7548,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=92"/>
-    <hyperlink ref="D4" r:id="rId2" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=109"/>
-    <hyperlink ref="D5" r:id="rId3" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=128"/>
-    <hyperlink ref="D6" r:id="rId4" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=157"/>
-    <hyperlink ref="D7" r:id="rId5" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=171"/>
-    <hyperlink ref="D8" r:id="rId6" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=38"/>
-    <hyperlink ref="D9" r:id="rId7" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=102"/>
-    <hyperlink ref="D10" r:id="rId8" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=143"/>
-    <hyperlink ref="D11" r:id="rId9" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=155"/>
-    <hyperlink ref="D12" r:id="rId10" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=169"/>
-    <hyperlink ref="D13" r:id="rId11" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=17"/>
-    <hyperlink ref="D14" r:id="rId12" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=34"/>
-    <hyperlink ref="D15" r:id="rId13" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=45"/>
-    <hyperlink ref="D16" r:id="rId14" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=52"/>
-    <hyperlink ref="D17" r:id="rId15" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=124"/>
-    <hyperlink ref="D19" r:id="rId16" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=114"/>
-    <hyperlink ref="D20" r:id="rId17" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=135"/>
-    <hyperlink ref="D21" r:id="rId18" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=187"/>
-    <hyperlink ref="D22" r:id="rId19" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=108"/>
-    <hyperlink ref="D23" r:id="rId20" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=116"/>
-    <hyperlink ref="D24" r:id="rId21" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=188"/>
-    <hyperlink ref="D25" r:id="rId22" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=164"/>
-    <hyperlink ref="D26" r:id="rId23" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=33"/>
-    <hyperlink ref="D27" r:id="rId24" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=174"/>
-    <hyperlink ref="D28" r:id="rId25" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=111"/>
-    <hyperlink ref="D29" r:id="rId26" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=190"/>
-    <hyperlink ref="D30" r:id="rId27" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=83"/>
-    <hyperlink ref="D31" r:id="rId28" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=181"/>
-    <hyperlink ref="D32" r:id="rId29" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=191"/>
-    <hyperlink ref="D33" r:id="rId30" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=127"/>
-    <hyperlink ref="D34" r:id="rId31" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=154"/>
-    <hyperlink ref="D35" r:id="rId32" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=123"/>
-    <hyperlink ref="D36" r:id="rId33" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=138"/>
-    <hyperlink ref="D37" r:id="rId34" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=94"/>
-    <hyperlink ref="D38" r:id="rId35" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=182"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=92" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=109" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=128" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=157" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId5" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=171" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D8" r:id="rId6" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=38" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D9" r:id="rId7" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=102" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D10" r:id="rId8" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=143" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D11" r:id="rId9" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=155" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D12" r:id="rId10" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=169" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D13" r:id="rId11" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=17" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D14" r:id="rId12" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=34" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D15" r:id="rId13" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=45" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D16" r:id="rId14" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=52" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D17" r:id="rId15" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=124" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D19" r:id="rId16" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=114" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D20" r:id="rId17" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=135" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="D21" r:id="rId18" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=187" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="D22" r:id="rId19" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=108" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="D23" r:id="rId20" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=116" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="D24" r:id="rId21" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=188" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="D25" r:id="rId22" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=164" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="D26" r:id="rId23" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=33" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="D27" r:id="rId24" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=174" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="D28" r:id="rId25" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=111" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="D29" r:id="rId26" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=190" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="D30" r:id="rId27" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=83" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="D31" r:id="rId28" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=181" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="D32" r:id="rId29" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=191" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="D33" r:id="rId30" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=127" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="D34" r:id="rId31" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=154" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="D35" r:id="rId32" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=123" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="D36" r:id="rId33" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=138" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="D37" r:id="rId34" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=94" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="D38" r:id="rId35" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=182" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId36"/>
@@ -7573,7 +7593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AK32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12311,7 +12331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/CraZZZy Crash Challenge/CCC-Daten.xlsx
+++ b/CraZZZy Crash Challenge/CCC-Daten.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\info\KaroStuff\CraZZZy Crash Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Eigene Dateien\Privat\KaroStuff\CraZZZy Crash Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AF5F6A-9CAA-4858-BCAB-56F8AE416102}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Teilnehmer" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Rennanzahl" sheetId="4" r:id="rId3"/>
     <sheet name="Tabelle1" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author xml:space="preserve">Julian Verkin </author>
   </authors>
   <commentList>
-    <comment ref="E57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="252">
   <si>
     <t>Teilnehmer</t>
   </si>
@@ -575,9 +574,6 @@
   </si>
   <si>
     <t>78 Special Cup - Ghost Valley 3</t>
-  </si>
-  <si>
-    <t>7-10</t>
   </si>
   <si>
     <t>75 Star Cup - Mario Curcuit 4</t>
@@ -820,7 +816,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;ca. &quot;\ 0"/>
   </numFmts>
@@ -1085,29 +1081,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:G71" totalsRowCount="1">
-  <autoFilter ref="A1:G70" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:E55">
-    <sortCondition ref="A1:A55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:G71" totalsRowCount="1">
+  <autoFilter ref="A1:G70">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:G70">
+    <sortCondition ref="A1:A70"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Teilnehmer" totalsRowLabel="Ergebnis"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Teilnahmen" totalsRowLabel="x" dataDxfId="18" totalsRowDxfId="0">
+    <tableColumn id="1" name="Teilnehmer" totalsRowLabel="Ergebnis"/>
+    <tableColumn id="7" name="Teilnahmen" totalsRowLabel="x" dataDxfId="18" totalsRowDxfId="0">
       <calculatedColumnFormula>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CCC1" totalsRowFunction="custom" dataDxfId="17">
+    <tableColumn id="2" name="CCC1" totalsRowFunction="custom" dataDxfId="17">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC1],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CCC2" totalsRowFunction="custom" dataDxfId="16">
+    <tableColumn id="3" name="CCC2" totalsRowFunction="custom" dataDxfId="16">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC2],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CCC3" totalsRowFunction="custom" dataDxfId="15">
+    <tableColumn id="4" name="CCC3" totalsRowFunction="custom" dataDxfId="15">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC3],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CCC4" totalsRowFunction="custom" dataDxfId="14">
+    <tableColumn id="5" name="CCC4" totalsRowFunction="custom" dataDxfId="14">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC4],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CCC5" totalsRowFunction="custom" dataDxfId="13">
+    <tableColumn id="6" name="CCC5" totalsRowFunction="custom" dataDxfId="13">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC5],$B71)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1116,26 +1118,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:L152" totalsRowShown="0" dataDxfId="12">
-  <autoFilter ref="A1:L152" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:L152" totalsRowShown="0" dataDxfId="12">
+  <autoFilter ref="A1:L152"/>
   <sortState ref="A2:J70">
     <sortCondition ref="A37"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CCC"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spieltag" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Spieler" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Strecke" dataDxfId="9" dataCellStyle="Link"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="3">
+    <tableColumn id="1" name="CCC"/>
+    <tableColumn id="2" name="Spieltag" dataDxfId="11"/>
+    <tableColumn id="3" name="Spieler" dataDxfId="10"/>
+    <tableColumn id="4" name="Strecke" dataDxfId="9" dataCellStyle="Link"/>
+    <tableColumn id="5" name="ZZZ" dataDxfId="8"/>
+    <tableColumn id="6" name="CPs" dataDxfId="7"/>
+    <tableColumn id="7" name="Richtung" dataDxfId="6"/>
+    <tableColumn id="8" name="Rennen" dataDxfId="5"/>
+    <tableColumn id="11" name="Züge p.S." dataDxfId="4"/>
+    <tableColumn id="12" name="Züge Ges." dataDxfId="3">
       <calculatedColumnFormula>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="1"/>
+    <tableColumn id="10" name="Rating" dataDxfId="2"/>
+    <tableColumn id="9" name="Kommentar" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1437,11 +1439,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1470,10 +1472,10 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1500,7 +1502,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1520,9 +1522,9 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B4" s="22">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -1533,7 +1535,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1560,7 +1562,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1576,7 +1578,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1592,7 +1594,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1632,9 +1634,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -1650,49 +1652,49 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="B11" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>240</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>1</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>248</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B13" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1701,10 +1703,10 @@
         <v>45</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -1720,7 +1722,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1735,11 +1737,9 @@
       <c r="E15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>242</v>
-      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1766,7 +1766,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B17" s="22">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -1779,12 +1779,12 @@
         <v>45</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B18" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B19" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -1820,7 +1820,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1838,9 +1838,9 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B21" s="22">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -1851,12 +1851,12 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B22" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -1874,7 +1874,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1892,9 +1892,9 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B24" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B25" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -1926,7 +1926,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1942,7 +1942,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1958,7 +1958,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -2012,7 +2012,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -2030,7 +2030,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B33" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -2068,19 +2068,15 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>235</v>
       </c>
       <c r="B34" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
         <v>45</v>
       </c>
@@ -2090,15 +2086,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>236</v>
+        <v>50</v>
       </c>
       <c r="B35" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F35" s="1" t="s">
         <v>45</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -2144,7 +2144,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -2202,7 +2202,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2220,7 +2220,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -2236,9 +2236,9 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B43" s="22">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="B44" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>45</v>
@@ -2270,13 +2270,13 @@
         <v>45</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2292,7 +2292,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -2310,9 +2310,9 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B47" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -2326,7 +2326,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2344,7 +2344,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -2444,7 +2444,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2478,7 +2478,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -2496,7 +2496,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -2507,21 +2507,25 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B58" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>3</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E58" s="1" t="s">
         <v>45</v>
       </c>
@@ -2534,7 +2538,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -2554,18 +2558,14 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B60" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>5</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
         <v>45</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -2592,7 +2592,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2610,7 +2610,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -2626,7 +2626,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>52</v>
       </c>
@@ -2692,7 +2692,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B67" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -2708,7 +2708,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B70" s="22">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -2765,12 +2765,12 @@
         <v>45</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>45</v>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="F71">
         <f>COUNTIF(Tabelle1[CCC4],$B71)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G71">
         <f>COUNTIF(Tabelle1[CCC5],$B71)</f>
@@ -2798,11 +2798,11 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F72">
         <f>COUNTIF(Tabelle1[CCC4],$B72)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G72">
         <f>COUNTIF(Tabelle1[CCC5],$B72)</f>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B73" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F73">
         <f>COUNTIF(Tabelle1[CCC4],$B73)</f>
@@ -2824,15 +2824,15 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B74" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F74">
         <f>SUBTOTAL(103,Tabelle1[CCC4])</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G74">
         <f>SUBTOTAL(103,Tabelle1[CCC5])</f>
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2847,14 +2847,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2880,7 +2880,7 @@
         <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>85</v>
@@ -2892,16 +2892,16 @@
         <v>59</v>
       </c>
       <c r="G1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I1" t="s">
         <v>150</v>
       </c>
       <c r="J1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K1" t="s">
         <v>149</v>
@@ -4973,7 +4973,7 @@
     </row>
     <row r="60" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B60" s="15">
         <v>20</v>
@@ -5021,7 +5021,7 @@
         <v>153</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F61" t="s">
         <v>60</v>
@@ -5057,7 +5057,7 @@
         <v>154</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F62" t="s">
         <v>60</v>
@@ -5093,7 +5093,7 @@
         <v>155</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F63" t="s">
         <v>60</v>
@@ -5165,7 +5165,7 @@
         <v>157</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F65" t="s">
         <v>60</v>
@@ -5201,7 +5201,7 @@
         <v>158</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F66" t="s">
         <v>60</v>
@@ -5237,7 +5237,7 @@
         <v>159</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F67" t="s">
         <v>60</v>
@@ -5273,7 +5273,7 @@
         <v>160</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F68" t="s">
         <v>60</v>
@@ -5345,7 +5345,7 @@
         <v>162</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F70" t="s">
         <v>60</v>
@@ -5381,7 +5381,7 @@
         <v>163</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F71" t="s">
         <v>60</v>
@@ -5417,7 +5417,7 @@
         <v>164</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F72" t="s">
         <v>60</v>
@@ -5453,7 +5453,7 @@
         <v>165</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F73" t="s">
         <v>60</v>
@@ -5489,7 +5489,7 @@
         <v>166</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F74" t="s">
         <v>60</v>
@@ -5522,10 +5522,10 @@
         <v>3</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F75" t="s">
         <v>60</v>
@@ -5561,7 +5561,7 @@
         <v>167</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F76" t="s">
         <v>60</v>
@@ -5597,7 +5597,7 @@
         <v>168</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F77" t="s">
         <v>60</v>
@@ -5633,7 +5633,7 @@
         <v>172</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F78" t="s">
         <v>60</v>
@@ -5669,7 +5669,7 @@
         <v>169</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F79" t="s">
         <v>60</v>
@@ -5705,7 +5705,7 @@
         <v>170</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F80" t="s">
         <v>60</v>
@@ -5729,7 +5729,7 @@
     </row>
     <row r="81" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B81" s="15">
         <v>30</v>
@@ -6768,7 +6768,7 @@
         <v>103</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E125" s="12"/>
       <c r="F125" t="s">
@@ -6793,10 +6793,10 @@
         <v>122</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E126" s="12"/>
       <c r="F126" t="s">
@@ -6821,10 +6821,10 @@
         <v>122</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E127" s="12"/>
       <c r="F127" t="s">
@@ -6849,10 +6849,10 @@
         <v>122</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" t="s">
@@ -6877,10 +6877,10 @@
         <v>122</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" t="s">
@@ -6905,10 +6905,10 @@
         <v>122</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E130" s="12"/>
       <c r="F130" t="s">
@@ -6933,10 +6933,10 @@
         <v>122</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E131" s="12"/>
       <c r="F131" t="s">
@@ -6961,13 +6961,13 @@
         <v>122</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F132" t="s">
         <v>60</v>
@@ -6991,10 +6991,10 @@
         <v>122</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E133" s="12"/>
       <c r="F133" t="s">
@@ -7019,10 +7019,10 @@
         <v>122</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E134" s="12"/>
       <c r="F134" t="s">
@@ -7047,10 +7047,10 @@
         <v>122</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E135" s="12"/>
       <c r="F135" t="s">
@@ -7075,10 +7075,10 @@
         <v>122</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E136" s="12"/>
       <c r="F136" t="s">
@@ -7103,10 +7103,10 @@
         <v>122</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E137" s="12"/>
       <c r="F137" t="s">
@@ -7131,10 +7131,10 @@
         <v>122</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E138" s="12"/>
       <c r="F138" t="s">
@@ -7162,7 +7162,7 @@
         <v>103</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E139" s="12"/>
       <c r="F139" t="s">
@@ -7187,10 +7187,10 @@
         <v>122</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E140" s="12"/>
       <c r="F140" t="s">
@@ -7215,10 +7215,10 @@
         <v>122</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E141" s="12"/>
       <c r="F141" t="s">
@@ -7243,10 +7243,10 @@
         <v>122</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E142" s="12"/>
       <c r="F142" t="s">
@@ -7274,7 +7274,7 @@
         <v>103</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E143" s="12"/>
       <c r="F143" t="s">
@@ -7299,10 +7299,10 @@
         <v>122</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E144" s="12"/>
       <c r="F144" t="s">
@@ -7330,7 +7330,7 @@
         <v>106</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E145" s="12"/>
       <c r="F145" t="s">
@@ -7358,7 +7358,7 @@
         <v>116</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E146" s="12"/>
       <c r="F146" t="s">
@@ -7386,7 +7386,7 @@
         <v>103</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E147" s="12"/>
       <c r="F147" t="s">
@@ -7414,7 +7414,7 @@
         <v>103</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E148" s="12"/>
       <c r="F148" t="s">
@@ -7439,10 +7439,10 @@
         <v>122</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E149" s="12"/>
       <c r="F149" t="s">
@@ -7467,10 +7467,10 @@
         <v>122</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E150" s="12"/>
       <c r="F150" t="s">
@@ -7498,7 +7498,7 @@
         <v>138</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E151" s="12"/>
       <c r="F151" t="s">
@@ -7523,10 +7523,10 @@
         <v>122</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E152" s="12"/>
       <c r="F152" t="s">
@@ -7548,41 +7548,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=92" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=109" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D5" r:id="rId3" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=128" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D6" r:id="rId4" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=157" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D7" r:id="rId5" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=171" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="D8" r:id="rId6" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=38" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D9" r:id="rId7" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=102" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="D10" r:id="rId8" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=143" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D11" r:id="rId9" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=155" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D12" r:id="rId10" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=169" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D13" r:id="rId11" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=17" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="D14" r:id="rId12" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=34" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="D15" r:id="rId13" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=45" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="D16" r:id="rId14" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=52" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="D17" r:id="rId15" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=124" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="D19" r:id="rId16" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=114" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="D20" r:id="rId17" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=135" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="D21" r:id="rId18" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=187" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="D22" r:id="rId19" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=108" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="D23" r:id="rId20" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=116" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="D24" r:id="rId21" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=188" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="D25" r:id="rId22" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=164" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="D26" r:id="rId23" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=33" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="D27" r:id="rId24" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=174" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="D28" r:id="rId25" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=111" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="D29" r:id="rId26" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=190" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="D30" r:id="rId27" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=83" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="D31" r:id="rId28" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=181" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="D32" r:id="rId29" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=191" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="D33" r:id="rId30" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=127" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="D34" r:id="rId31" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=154" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="D35" r:id="rId32" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=123" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="D36" r:id="rId33" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=138" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="D37" r:id="rId34" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=94" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="D38" r:id="rId35" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=182" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=92"/>
+    <hyperlink ref="D4" r:id="rId2" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=109"/>
+    <hyperlink ref="D5" r:id="rId3" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=128"/>
+    <hyperlink ref="D6" r:id="rId4" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=157"/>
+    <hyperlink ref="D7" r:id="rId5" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=171"/>
+    <hyperlink ref="D8" r:id="rId6" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=38"/>
+    <hyperlink ref="D9" r:id="rId7" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=102"/>
+    <hyperlink ref="D10" r:id="rId8" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=143"/>
+    <hyperlink ref="D11" r:id="rId9" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=155"/>
+    <hyperlink ref="D12" r:id="rId10" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=169"/>
+    <hyperlink ref="D13" r:id="rId11" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=17"/>
+    <hyperlink ref="D14" r:id="rId12" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=34"/>
+    <hyperlink ref="D15" r:id="rId13" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=45"/>
+    <hyperlink ref="D16" r:id="rId14" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=52"/>
+    <hyperlink ref="D17" r:id="rId15" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=124"/>
+    <hyperlink ref="D19" r:id="rId16" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=114"/>
+    <hyperlink ref="D20" r:id="rId17" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=135"/>
+    <hyperlink ref="D21" r:id="rId18" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=187"/>
+    <hyperlink ref="D22" r:id="rId19" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=108"/>
+    <hyperlink ref="D23" r:id="rId20" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=116"/>
+    <hyperlink ref="D24" r:id="rId21" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=188"/>
+    <hyperlink ref="D25" r:id="rId22" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=164"/>
+    <hyperlink ref="D26" r:id="rId23" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=33"/>
+    <hyperlink ref="D27" r:id="rId24" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=174"/>
+    <hyperlink ref="D28" r:id="rId25" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=111"/>
+    <hyperlink ref="D29" r:id="rId26" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=190"/>
+    <hyperlink ref="D30" r:id="rId27" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=83"/>
+    <hyperlink ref="D31" r:id="rId28" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=181"/>
+    <hyperlink ref="D32" r:id="rId29" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=191"/>
+    <hyperlink ref="D33" r:id="rId30" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=127"/>
+    <hyperlink ref="D34" r:id="rId31" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=154"/>
+    <hyperlink ref="D35" r:id="rId32" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=123"/>
+    <hyperlink ref="D36" r:id="rId33" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=138"/>
+    <hyperlink ref="D37" r:id="rId34" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=94"/>
+    <hyperlink ref="D38" r:id="rId35" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=182"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId36"/>
@@ -7593,7 +7593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12331,7 +12331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/CraZZZy Crash Challenge/CCC-Daten.xlsx
+++ b/CraZZZy Crash Challenge/CCC-Daten.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Eigene Dateien\Privat\KaroStuff\CraZZZy Crash Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\info\KaroStuff\CraZZZy Crash Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0C6799-C8F3-41C9-9C98-D44D5097D53A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="7500" windowHeight="6000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teilnehmer" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Rennanzahl" sheetId="4" r:id="rId3"/>
     <sheet name="Tabelle1" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author xml:space="preserve">Julian Verkin </author>
   </authors>
   <commentList>
-    <comment ref="E57" authorId="0" shapeId="0">
+    <comment ref="E57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="200">
   <si>
     <t>Teilnehmer</t>
   </si>
@@ -363,21 +364,12 @@
     <t>193 Promilletomate</t>
   </si>
   <si>
-    <t>194 Lutter-Rundkurs</t>
-  </si>
-  <si>
-    <t>max=4</t>
-  </si>
-  <si>
     <t>195 Freundschaftsbaendchen</t>
   </si>
   <si>
     <t>197 Le Mans</t>
   </si>
   <si>
-    <t>max=7</t>
-  </si>
-  <si>
     <t>198 Bitriangularis</t>
   </si>
   <si>
@@ -390,24 +382,6 @@
     <t>199 Labyrinth</t>
   </si>
   <si>
-    <t>1006 Demo: Irrkartengenerator</t>
-  </si>
-  <si>
-    <t>max=11</t>
-  </si>
-  <si>
-    <t>5-15</t>
-  </si>
-  <si>
-    <t>201 Sandbowl</t>
-  </si>
-  <si>
-    <t>202 KaroWave</t>
-  </si>
-  <si>
-    <t>max=9</t>
-  </si>
-  <si>
     <t>203 Karo Colorarena</t>
   </si>
   <si>
@@ -423,9 +397,6 @@
     <t>207 Ari die Meerjungfrau</t>
   </si>
   <si>
-    <t>Kandidat</t>
-  </si>
-  <si>
     <t>208 kili laesst das Licht heraus</t>
   </si>
   <si>
@@ -438,21 +409,9 @@
     <t>217 Adventskarolender</t>
   </si>
   <si>
-    <t>max=3</t>
-  </si>
-  <si>
-    <t>220 Weihnachtsbaum</t>
-  </si>
-  <si>
-    <t>4-6</t>
-  </si>
-  <si>
     <t>221 Zierschleife</t>
   </si>
   <si>
-    <t>222 Qropapier</t>
-  </si>
-  <si>
     <t>223 Paket</t>
   </si>
   <si>
@@ -462,24 +421,12 @@
     <t>228 Fahrrad</t>
   </si>
   <si>
-    <t>185 Auge</t>
-  </si>
-  <si>
     <t>175 Bananenmann</t>
   </si>
   <si>
-    <t>15-25</t>
-  </si>
-  <si>
-    <t>max=12</t>
-  </si>
-  <si>
     <t>173 Schneeflocke</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>166 Blume</t>
   </si>
   <si>
@@ -489,21 +436,12 @@
     <t>125 Luis Rojo</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>96 Wheel</t>
   </si>
   <si>
-    <t>10-15</t>
-  </si>
-  <si>
     <t>Kommentar</t>
   </si>
   <si>
-    <t>2-10</t>
-  </si>
-  <si>
     <t>Rating</t>
   </si>
   <si>
@@ -570,18 +508,12 @@
     <t>80 Special Cup - Rainbow Road</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>78 Special Cup - Ghost Valley 3</t>
   </si>
   <si>
     <t>75 Star Cup - Mario Curcuit 4</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>CCC4</t>
   </si>
   <si>
@@ -597,48 +529,6 @@
     <t>Züge Ges.</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
     <t>CCC5</t>
   </si>
   <si>
@@ -651,18 +541,9 @@
     <t>231 Jack Skellington</t>
   </si>
   <si>
-    <t>232 Super Sonic Race</t>
-  </si>
-  <si>
-    <t>233 Slyway</t>
-  </si>
-  <si>
     <t>234 Slyway</t>
   </si>
   <si>
-    <t>235 Kerope</t>
-  </si>
-  <si>
     <t>236 Kart Buckmore Park</t>
   </si>
   <si>
@@ -672,9 +553,6 @@
     <t>238 Cornered</t>
   </si>
   <si>
-    <t>239 Biest</t>
-  </si>
-  <si>
     <t>240 Tetrominos</t>
   </si>
   <si>
@@ -684,66 +562,24 @@
     <t>242 Kart Zuera</t>
   </si>
   <si>
-    <t>10000 Handy</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>10001 Sly</t>
   </si>
   <si>
-    <t>10003 Bierglas</t>
-  </si>
-  <si>
-    <t>10004 Regenbogen Boulevard Test</t>
-  </si>
-  <si>
-    <t>10005 Teilchenbeschleuniger</t>
-  </si>
-  <si>
     <t>10006 Simons Cat</t>
   </si>
   <si>
-    <t>10006 Sly them All</t>
-  </si>
-  <si>
     <t>10008 9-Way</t>
   </si>
   <si>
     <t>10009 Hurz</t>
   </si>
   <si>
-    <t>10010 Furz</t>
-  </si>
-  <si>
-    <t>10011 Brille? Ente!</t>
-  </si>
-  <si>
-    <t>10013 CraZZZy Crash Challenge</t>
-  </si>
-  <si>
     <t>10014 CraZZZy Crash Challenge</t>
   </si>
   <si>
     <t>10015 Circles</t>
   </si>
   <si>
-    <t>max=10</t>
-  </si>
-  <si>
-    <t>max=8</t>
-  </si>
-  <si>
-    <t>max=5</t>
-  </si>
-  <si>
-    <t>max=6</t>
-  </si>
-  <si>
-    <t>max=32</t>
-  </si>
-  <si>
     <t>eisbaer04</t>
   </si>
   <si>
@@ -811,16 +647,25 @@
   </si>
   <si>
     <t>MasterLex515</t>
+  </si>
+  <si>
+    <t>188 KaroWave</t>
+  </si>
+  <si>
+    <t>10016 Teach.gif</t>
+  </si>
+  <si>
+    <t>random</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;ca. &quot;\ 0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -876,13 +721,28 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -919,7 +779,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -945,9 +805,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -984,6 +841,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1081,9 +948,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:G71" totalsRowCount="1">
-  <autoFilter ref="A1:G70">
-    <filterColumn colId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:G71" totalsRowCount="1">
+  <autoFilter ref="A1:G70" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
@@ -1093,23 +960,23 @@
     <sortCondition ref="A1:A70"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Teilnehmer" totalsRowLabel="Ergebnis"/>
-    <tableColumn id="7" name="Teilnahmen" totalsRowLabel="x" dataDxfId="18" totalsRowDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Teilnehmer" totalsRowLabel="Ergebnis"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Teilnahmen" totalsRowLabel="x" dataDxfId="18" totalsRowDxfId="0">
       <calculatedColumnFormula>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="CCC1" totalsRowFunction="custom" dataDxfId="17">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CCC1" totalsRowFunction="custom" dataDxfId="17">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC1],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="CCC2" totalsRowFunction="custom" dataDxfId="16">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CCC2" totalsRowFunction="custom" dataDxfId="16">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC2],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="CCC3" totalsRowFunction="custom" dataDxfId="15">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CCC3" totalsRowFunction="custom" dataDxfId="15">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC3],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="CCC4" totalsRowFunction="custom" dataDxfId="14">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CCC4" totalsRowFunction="custom" dataDxfId="14">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC4],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="CCC5" totalsRowFunction="custom" dataDxfId="13">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CCC5" totalsRowFunction="custom" dataDxfId="13">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC5],$B71)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1118,26 +985,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:L152" totalsRowShown="0" dataDxfId="12">
-  <autoFilter ref="A1:L152"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:L106" totalsRowShown="0" dataDxfId="12">
+  <autoFilter ref="A1:L106" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState ref="A2:J70">
     <sortCondition ref="A37"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="CCC"/>
-    <tableColumn id="2" name="Spieltag" dataDxfId="11"/>
-    <tableColumn id="3" name="Spieler" dataDxfId="10"/>
-    <tableColumn id="4" name="Strecke" dataDxfId="9" dataCellStyle="Link"/>
-    <tableColumn id="5" name="ZZZ" dataDxfId="8"/>
-    <tableColumn id="6" name="CPs" dataDxfId="7"/>
-    <tableColumn id="7" name="Richtung" dataDxfId="6"/>
-    <tableColumn id="8" name="Rennen" dataDxfId="5"/>
-    <tableColumn id="11" name="Züge p.S." dataDxfId="4"/>
-    <tableColumn id="12" name="Züge Ges." dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CCC"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spieltag" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Spieler" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Strecke" dataDxfId="9" dataCellStyle="Link"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="3">
       <calculatedColumnFormula>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Rating" dataDxfId="2"/>
-    <tableColumn id="9" name="Kommentar" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1439,14 +1306,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -1455,12 +1322,12 @@
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1472,13 +1339,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1502,7 +1369,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1522,23 +1389,23 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B4" s="22">
+        <v>188</v>
+      </c>
+      <c r="B4" s="21">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1562,7 +1429,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1578,7 +1445,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1594,7 +1461,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1610,7 +1477,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1634,9 +1501,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="B10" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -1650,9 +1517,9 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="B11" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -1668,7 +1535,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1688,9 +1555,9 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="B13" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -1703,10 +1570,10 @@
         <v>45</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -1722,7 +1589,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1739,10 +1606,10 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1764,11 +1631,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B17" s="22">
+        <v>190</v>
+      </c>
+      <c r="B17" s="21">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
         <v>1</v>
       </c>
@@ -1779,12 +1646,12 @@
         <v>45</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="B18" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -1802,9 +1669,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="B19" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -1820,7 +1687,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1838,11 +1705,11 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>244</v>
-      </c>
-      <c r="B21" s="22">
+        <v>189</v>
+      </c>
+      <c r="B21" s="21">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
         <v>0</v>
       </c>
@@ -1851,12 +1718,12 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="B22" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -1874,7 +1741,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1892,9 +1759,9 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="B24" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -1908,9 +1775,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="B25" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -1926,7 +1793,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1942,7 +1809,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1958,7 +1825,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1974,7 +1841,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -1996,7 +1863,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -2012,7 +1879,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -2030,7 +1897,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -2048,9 +1915,9 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="B33" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -2066,9 +1933,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="B34" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -2084,7 +1951,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -2106,7 +1973,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -2126,7 +1993,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -2144,7 +2011,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -2162,7 +2029,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -2186,7 +2053,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -2202,7 +2069,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2220,7 +2087,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -2236,11 +2103,11 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>251</v>
-      </c>
-      <c r="B43" s="22">
+        <v>196</v>
+      </c>
+      <c r="B43" s="21">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
         <v>1</v>
       </c>
@@ -2252,7 +2119,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -2273,10 +2140,10 @@
         <v>45</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2292,7 +2159,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -2310,9 +2177,9 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1">
       <c r="A47" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="B47" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -2326,7 +2193,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2344,7 +2211,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -2362,7 +2229,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -2380,7 +2247,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -2404,7 +2271,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2426,7 +2293,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -2444,7 +2311,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -2460,7 +2327,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2478,7 +2345,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -2496,7 +2363,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -2507,12 +2374,12 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -2536,7 +2403,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -2556,7 +2423,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -2576,7 +2443,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -2592,7 +2459,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2610,7 +2477,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -2626,7 +2493,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1">
       <c r="A64" t="s">
         <v>52</v>
       </c>
@@ -2642,7 +2509,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>40</v>
       </c>
@@ -2666,7 +2533,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -2690,9 +2557,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="B67" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
@@ -2708,7 +2575,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -2728,7 +2595,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>27</v>
       </c>
@@ -2750,11 +2617,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>250</v>
-      </c>
-      <c r="B70" s="22">
+        <v>195</v>
+      </c>
+      <c r="B70" s="21">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
         <v>1</v>
       </c>
@@ -2765,12 +2632,12 @@
         <v>45</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>45</v>
@@ -2793,12 +2660,12 @@
       </c>
       <c r="G71">
         <f>COUNTIF(Tabelle1[CCC5],$B71)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="23" t="s">
-        <v>241</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="B72" s="22" t="s">
+        <v>186</v>
       </c>
       <c r="F72">
         <f>COUNTIF(Tabelle1[CCC4],$B72)</f>
@@ -2809,9 +2676,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="23" t="s">
-        <v>247</v>
+    <row r="73" spans="1:7">
+      <c r="B73" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="F73">
         <f>COUNTIF(Tabelle1[CCC4],$B73)</f>
@@ -2819,12 +2686,12 @@
       </c>
       <c r="G73">
         <f>COUNTIF(Tabelle1[CCC5],$B73)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="23" t="s">
-        <v>248</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="B74" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="F74">
         <f>SUBTOTAL(103,Tabelle1[CCC4])</f>
@@ -2832,7 +2699,7 @@
       </c>
       <c r="G74">
         <f>SUBTOTAL(103,Tabelle1[CCC5])</f>
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2847,17 +2714,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L152"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -2872,7 +2739,7 @@
     <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -2880,7 +2747,7 @@
         <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>85</v>
@@ -2892,35 +2759,35 @@
         <v>59</v>
       </c>
       <c r="G1" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="H1" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="J1" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="K1" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="L1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="18" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" collapsed="1" thickBot="1">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
         <v>15</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>42</v>
       </c>
-      <c r="D2" s="17" t="str">
+      <c r="D2" s="16" t="str">
         <f ca="1">COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"3") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"4") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"5") &amp; " / "
@@ -2931,22 +2798,22 @@
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"10")</f>
         <v>0 / 0 / 5 / 0 / 5 / 0 / 0 / 5</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16">
+      <c r="E2" s="17"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15">
         <f>SUM(H3:H17)</f>
         <v>465</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20">
+      <c r="I2" s="18"/>
+      <c r="J2" s="19">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>0</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2959,7 +2826,7 @@
       <c r="D3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -2979,7 +2846,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2992,7 +2859,7 @@
       <c r="D4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -3012,7 +2879,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3025,7 +2892,7 @@
       <c r="D5" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -3045,7 +2912,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3058,7 +2925,7 @@
       <c r="D6" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -3078,7 +2945,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3091,7 +2958,7 @@
       <c r="D7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -3111,7 +2978,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3124,7 +2991,7 @@
       <c r="D8" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -3144,7 +3011,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3157,7 +3024,7 @@
       <c r="D9" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -3177,7 +3044,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3190,7 +3057,7 @@
       <c r="D10" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -3210,7 +3077,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3223,7 +3090,7 @@
       <c r="D11" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -3243,7 +3110,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3256,7 +3123,7 @@
       <c r="D12" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -3276,7 +3143,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3289,7 +3156,7 @@
       <c r="D13" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>57</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -3309,7 +3176,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3322,7 +3189,7 @@
       <c r="D14" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>123</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -3342,7 +3209,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3355,7 +3222,7 @@
       <c r="D15" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>5</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -3375,7 +3242,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3388,7 +3255,7 @@
       <c r="D16" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>3</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -3408,7 +3275,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3421,7 +3288,7 @@
       <c r="D17" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>7</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -3441,17 +3308,17 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" ht="18.75" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="16">
+    <row r="18" spans="1:12" ht="18.75" collapsed="1" thickTop="1" thickBot="1">
+      <c r="A18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="15">
         <v>20</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="15">
         <v>30</v>
       </c>
-      <c r="D18" s="17" t="str">
+      <c r="D18" s="16" t="str">
         <f ca="1">COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"3") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"4") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"5") &amp; " / "
@@ -3462,22 +3329,22 @@
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"10")</f>
         <v>4 / 6 / 10 / 0 / 0 / 0 / 0 / 0</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16">
+      <c r="E18" s="17"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15">
         <f>SUM(H19:H38)</f>
         <v>870</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20">
+      <c r="I18" s="18"/>
+      <c r="J18" s="19">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>0</v>
       </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3490,7 +3357,7 @@
       <c r="D19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>5</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -3512,7 +3379,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3525,7 +3392,7 @@
       <c r="D20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>8</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -3547,7 +3414,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3560,7 +3427,7 @@
       <c r="D21" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <v>5</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -3582,7 +3449,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A22">
         <v>2</v>
       </c>
@@ -3595,7 +3462,7 @@
       <c r="D22" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <v>9</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -3617,7 +3484,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3630,7 +3497,7 @@
       <c r="D23" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -3652,7 +3519,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3665,7 +3532,7 @@
       <c r="D24" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="11">
         <v>11</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -3687,7 +3554,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A25">
         <v>2</v>
       </c>
@@ -3700,7 +3567,7 @@
       <c r="D25" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="11">
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -3722,7 +3589,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A26">
         <v>2</v>
       </c>
@@ -3735,7 +3602,7 @@
       <c r="D26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="11">
         <v>0</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -3757,7 +3624,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A27">
         <v>2</v>
       </c>
@@ -3770,7 +3637,7 @@
       <c r="D27" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="11">
         <v>7</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -3792,7 +3659,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A28">
         <v>2</v>
       </c>
@@ -3805,7 +3672,7 @@
       <c r="D28" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="11">
         <v>1</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -3827,7 +3694,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A29">
         <v>2</v>
       </c>
@@ -3840,7 +3707,7 @@
       <c r="D29" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="11">
         <v>2</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -3862,7 +3729,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3875,7 +3742,7 @@
       <c r="D30" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="11">
         <v>3</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -3897,7 +3764,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A31">
         <v>2</v>
       </c>
@@ -3910,7 +3777,7 @@
       <c r="D31" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="11">
         <v>6</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -3932,7 +3799,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A32">
         <v>2</v>
       </c>
@@ -3945,7 +3812,7 @@
       <c r="D32" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="11">
         <v>11</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -3967,7 +3834,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A33">
         <v>2</v>
       </c>
@@ -3980,7 +3847,7 @@
       <c r="D33" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="11">
         <v>4</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -4002,7 +3869,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A34">
         <v>2</v>
       </c>
@@ -4015,7 +3882,7 @@
       <c r="D34" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="11">
         <v>15</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -4037,7 +3904,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A35">
         <v>2</v>
       </c>
@@ -4050,7 +3917,7 @@
       <c r="D35" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="11">
         <v>3</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -4072,7 +3939,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A36">
         <v>2</v>
       </c>
@@ -4085,7 +3952,7 @@
       <c r="D36" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="11">
         <v>10</v>
       </c>
       <c r="F36" s="3" t="s">
@@ -4107,7 +3974,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A37">
         <v>2</v>
       </c>
@@ -4120,7 +3987,7 @@
       <c r="D37" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="11">
         <v>0</v>
       </c>
       <c r="F37" s="3" t="s">
@@ -4142,7 +4009,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A38">
         <v>2</v>
       </c>
@@ -4155,7 +4022,7 @@
       <c r="D38" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="12">
         <v>0</v>
       </c>
       <c r="F38" t="s">
@@ -4175,17 +4042,17 @@
         <v>325</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="18.75" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="16">
+    <row r="39" spans="1:12" ht="18.75" collapsed="1" thickTop="1" thickBot="1">
+      <c r="A39" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="15">
         <v>20</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="15">
         <v>28</v>
       </c>
-      <c r="D39" s="17" t="str">
+      <c r="D39" s="16" t="str">
         <f ca="1">COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"3") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"4") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"5") &amp; " / "
@@ -4196,35 +4063,35 @@
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"10")</f>
         <v>5 / 5 / 0 / 5 / 5 / 0 / 0 / 0</v>
       </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16">
+      <c r="E39" s="17"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15">
         <f>SUM(H40:H59)</f>
         <v>750</v>
       </c>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20">
+      <c r="I39" s="18"/>
+      <c r="J39" s="19">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>0</v>
       </c>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-    </row>
-    <row r="40" spans="1:12" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
       <c r="A40">
         <v>3</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="13">
         <v>1</v>
       </c>
       <c r="C40" s="3">
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="13">
+        <v>103</v>
+      </c>
+      <c r="E40" s="12">
         <v>1</v>
       </c>
       <c r="F40" t="s">
@@ -4249,20 +4116,20 @@
       </c>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A41">
         <v>3</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="13">
         <v>2</v>
       </c>
       <c r="C41">
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" s="13">
+        <v>120</v>
+      </c>
+      <c r="E41" s="12">
         <v>6</v>
       </c>
       <c r="F41" t="s">
@@ -4287,20 +4154,20 @@
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A42">
         <v>3</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="13">
         <v>3</v>
       </c>
       <c r="C42">
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
-      </c>
-      <c r="E42" s="13">
+        <v>117</v>
+      </c>
+      <c r="E42" s="12">
         <v>8</v>
       </c>
       <c r="F42" t="s">
@@ -4325,20 +4192,20 @@
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A43">
         <v>3</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="13">
         <v>4</v>
       </c>
       <c r="C43">
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
-      </c>
-      <c r="E43" s="13">
+        <v>118</v>
+      </c>
+      <c r="E43" s="12">
         <v>7</v>
       </c>
       <c r="F43" t="s">
@@ -4363,20 +4230,20 @@
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A44">
         <v>3</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="13">
         <v>5</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="13">
+        <v>107</v>
+      </c>
+      <c r="E44" s="12">
         <v>1</v>
       </c>
       <c r="F44" t="s">
@@ -4401,20 +4268,20 @@
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A45">
         <v>3</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45" s="13">
         <v>6</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>119</v>
-      </c>
-      <c r="E45" s="13">
+        <v>110</v>
+      </c>
+      <c r="E45" s="12">
         <v>6</v>
       </c>
       <c r="F45" t="s">
@@ -4439,20 +4306,20 @@
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A46">
         <v>3</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46" s="13">
         <v>7</v>
       </c>
       <c r="C46">
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E46" s="13">
+        <v>112</v>
+      </c>
+      <c r="E46" s="12">
         <v>3</v>
       </c>
       <c r="F46" t="s">
@@ -4477,20 +4344,20 @@
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A47">
         <v>3</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="13">
         <v>8</v>
       </c>
       <c r="C47">
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>120</v>
-      </c>
-      <c r="E47" s="13">
+        <v>111</v>
+      </c>
+      <c r="E47" s="12">
         <v>4</v>
       </c>
       <c r="F47" t="s">
@@ -4515,20 +4382,20 @@
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A48">
         <v>3</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="13">
         <v>9</v>
       </c>
       <c r="C48">
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>151</v>
-      </c>
-      <c r="E48" s="13">
+        <v>130</v>
+      </c>
+      <c r="E48" s="12">
         <v>7</v>
       </c>
       <c r="F48" t="s">
@@ -4553,20 +4420,20 @@
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A49">
         <v>3</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="13">
         <v>10</v>
       </c>
       <c r="C49">
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>123</v>
-      </c>
-      <c r="E49" s="13">
+        <v>113</v>
+      </c>
+      <c r="E49" s="12">
         <v>9</v>
       </c>
       <c r="F49" t="s">
@@ -4591,20 +4458,20 @@
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A50">
         <v>3</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="13">
         <v>11</v>
       </c>
       <c r="C50">
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>133</v>
-      </c>
-      <c r="E50" s="13">
+        <v>119</v>
+      </c>
+      <c r="E50" s="12">
         <v>7</v>
       </c>
       <c r="F50" t="s">
@@ -4629,20 +4496,20 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A51">
         <v>3</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="13">
         <v>12</v>
       </c>
       <c r="C51">
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>142</v>
-      </c>
-      <c r="E51" s="13">
+        <v>124</v>
+      </c>
+      <c r="E51" s="12">
         <v>12</v>
       </c>
       <c r="F51" t="s">
@@ -4667,20 +4534,20 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A52">
         <v>3</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="13">
         <v>13</v>
       </c>
       <c r="C52">
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>118</v>
-      </c>
-      <c r="E52" s="13">
+        <v>109</v>
+      </c>
+      <c r="E52" s="12">
         <v>4</v>
       </c>
       <c r="F52" t="s">
@@ -4705,20 +4572,20 @@
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A53">
         <v>3</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53" s="13">
         <v>14</v>
       </c>
       <c r="C53">
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>124</v>
-      </c>
-      <c r="E53" s="13">
+        <v>114</v>
+      </c>
+      <c r="E53" s="12">
         <v>8</v>
       </c>
       <c r="F53" t="s">
@@ -4743,20 +4610,20 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A54">
         <v>3</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B54" s="13">
         <v>15</v>
       </c>
       <c r="C54">
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
-      </c>
-      <c r="E54" s="13">
+        <v>104</v>
+      </c>
+      <c r="E54" s="12">
         <v>6</v>
       </c>
       <c r="F54" t="s">
@@ -4781,20 +4648,20 @@
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A55">
         <v>3</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="13">
         <v>16</v>
       </c>
       <c r="C55">
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>125</v>
-      </c>
-      <c r="E55" s="13">
+        <v>115</v>
+      </c>
+      <c r="E55" s="12">
         <v>4</v>
       </c>
       <c r="F55" t="s">
@@ -4819,20 +4686,20 @@
       </c>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A56">
         <v>3</v>
       </c>
-      <c r="B56" s="14">
+      <c r="B56" s="13">
         <v>17</v>
       </c>
       <c r="C56">
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>117</v>
-      </c>
-      <c r="E56" s="13">
+        <v>108</v>
+      </c>
+      <c r="E56" s="12">
         <v>5</v>
       </c>
       <c r="F56" t="s">
@@ -4857,7 +4724,7 @@
       </c>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A57">
         <v>3</v>
       </c>
@@ -4868,9 +4735,9 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" s="13">
+        <v>102</v>
+      </c>
+      <c r="E57" s="12">
         <v>3</v>
       </c>
       <c r="F57" t="s">
@@ -4895,7 +4762,7 @@
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A58">
         <v>3</v>
       </c>
@@ -4908,7 +4775,7 @@
       <c r="D58" t="s">
         <v>101</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="12">
         <v>5</v>
       </c>
       <c r="F58" t="s">
@@ -4933,7 +4800,7 @@
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A59">
         <v>3</v>
       </c>
@@ -4944,9 +4811,9 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>126</v>
-      </c>
-      <c r="E59" s="13">
+        <v>116</v>
+      </c>
+      <c r="E59" s="12">
         <v>6</v>
       </c>
       <c r="F59" t="s">
@@ -4971,17 +4838,17 @@
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="B60" s="15">
+    <row r="60" spans="1:12" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A60" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" s="14">
         <v>20</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="14">
         <v>28</v>
       </c>
-      <c r="D60" s="15" t="str">
+      <c r="D60" s="14" t="str">
         <f ca="1">COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"3") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"4") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"5") &amp; " / "
@@ -4992,22 +4859,22 @@
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"10")</f>
         <v>3 / 6 / 0 / 6 / 5 / 0 / 0 / 0</v>
       </c>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15">
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14">
         <f>SUM(H61:H80)</f>
         <v>708</v>
       </c>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15">
+      <c r="I60" s="14"/>
+      <c r="J60" s="14">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>0</v>
       </c>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-    </row>
-    <row r="61" spans="1:12" ht="15.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" outlineLevel="1" thickTop="1">
       <c r="A61">
         <v>4</v>
       </c>
@@ -5018,10 +4885,10 @@
         <v>7</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>180</v>
+        <v>132</v>
+      </c>
+      <c r="E61" s="23">
+        <v>9</v>
       </c>
       <c r="F61" t="s">
         <v>60</v>
@@ -5043,7 +4910,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" outlineLevel="1">
       <c r="A62">
         <v>4</v>
       </c>
@@ -5054,10 +4921,10 @@
         <v>7</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>181</v>
+        <v>133</v>
+      </c>
+      <c r="E62" s="24">
+        <v>20</v>
       </c>
       <c r="F62" t="s">
         <v>60</v>
@@ -5079,7 +4946,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" outlineLevel="1">
       <c r="A63">
         <v>4</v>
       </c>
@@ -5090,10 +4957,10 @@
         <v>7</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>174</v>
+        <v>134</v>
+      </c>
+      <c r="E63" s="24">
+        <v>100</v>
       </c>
       <c r="F63" t="s">
         <v>60</v>
@@ -5115,7 +4982,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" outlineLevel="1">
       <c r="A64">
         <v>4</v>
       </c>
@@ -5126,10 +4993,10 @@
         <v>6</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>171</v>
+        <v>135</v>
+      </c>
+      <c r="E64" s="24">
+        <v>0</v>
       </c>
       <c r="F64" t="s">
         <v>60</v>
@@ -5151,7 +5018,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" outlineLevel="1">
       <c r="A65">
         <v>4</v>
       </c>
@@ -5162,10 +5029,10 @@
         <v>6</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>183</v>
+        <v>136</v>
+      </c>
+      <c r="E65" s="24">
+        <v>3</v>
       </c>
       <c r="F65" t="s">
         <v>60</v>
@@ -5187,7 +5054,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" outlineLevel="1">
       <c r="A66">
         <v>4</v>
       </c>
@@ -5198,10 +5065,10 @@
         <v>6</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>184</v>
+        <v>137</v>
+      </c>
+      <c r="E66" s="25">
+        <v>0</v>
       </c>
       <c r="F66" t="s">
         <v>60</v>
@@ -5223,7 +5090,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" outlineLevel="1">
       <c r="A67">
         <v>4</v>
       </c>
@@ -5234,10 +5101,10 @@
         <v>6</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>190</v>
+        <v>138</v>
+      </c>
+      <c r="E67" s="25">
+        <v>1</v>
       </c>
       <c r="F67" t="s">
         <v>60</v>
@@ -5259,7 +5126,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" outlineLevel="1">
       <c r="A68">
         <v>4</v>
       </c>
@@ -5270,10 +5137,10 @@
         <v>4</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>185</v>
+        <v>139</v>
+      </c>
+      <c r="E68" s="24">
+        <v>16</v>
       </c>
       <c r="F68" t="s">
         <v>60</v>
@@ -5295,7 +5162,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" outlineLevel="1">
       <c r="A69">
         <v>4</v>
       </c>
@@ -5306,10 +5173,10 @@
         <v>4</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>171</v>
+        <v>140</v>
+      </c>
+      <c r="E69" s="24">
+        <v>0</v>
       </c>
       <c r="F69" t="s">
         <v>60</v>
@@ -5331,7 +5198,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" outlineLevel="1">
       <c r="A70">
         <v>4</v>
       </c>
@@ -5342,10 +5209,10 @@
         <v>4</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>186</v>
+        <v>141</v>
+      </c>
+      <c r="E70" s="25">
+        <v>2</v>
       </c>
       <c r="F70" t="s">
         <v>60</v>
@@ -5367,7 +5234,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" outlineLevel="1">
       <c r="A71">
         <v>4</v>
       </c>
@@ -5378,10 +5245,10 @@
         <v>7</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>187</v>
+        <v>142</v>
+      </c>
+      <c r="E71" s="25">
+        <v>1</v>
       </c>
       <c r="F71" t="s">
         <v>60</v>
@@ -5403,7 +5270,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" outlineLevel="1">
       <c r="A72">
         <v>4</v>
       </c>
@@ -5414,10 +5281,10 @@
         <v>6</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>188</v>
+        <v>143</v>
+      </c>
+      <c r="E72" s="25">
+        <v>1</v>
       </c>
       <c r="F72" t="s">
         <v>60</v>
@@ -5439,7 +5306,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" outlineLevel="1">
       <c r="A73">
         <v>4</v>
       </c>
@@ -5450,10 +5317,10 @@
         <v>4</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>189</v>
+        <v>144</v>
+      </c>
+      <c r="E73" s="24">
+        <v>2</v>
       </c>
       <c r="F73" t="s">
         <v>60</v>
@@ -5475,7 +5342,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" outlineLevel="1">
       <c r="A74">
         <v>4</v>
       </c>
@@ -5486,10 +5353,10 @@
         <v>7</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>191</v>
+        <v>145</v>
+      </c>
+      <c r="E74" s="24">
+        <v>6</v>
       </c>
       <c r="F74" t="s">
         <v>60</v>
@@ -5511,7 +5378,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" outlineLevel="1">
       <c r="A75">
         <v>4</v>
       </c>
@@ -5522,10 +5389,10 @@
         <v>3</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>192</v>
+        <v>151</v>
+      </c>
+      <c r="E75" s="24">
+        <v>4</v>
       </c>
       <c r="F75" t="s">
         <v>60</v>
@@ -5547,7 +5414,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" outlineLevel="1">
       <c r="A76">
         <v>4</v>
       </c>
@@ -5558,10 +5425,10 @@
         <v>3</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>185</v>
+        <v>146</v>
+      </c>
+      <c r="E76" s="25">
+        <v>0</v>
       </c>
       <c r="F76" t="s">
         <v>60</v>
@@ -5583,7 +5450,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" outlineLevel="1">
       <c r="A77">
         <v>4</v>
       </c>
@@ -5594,10 +5461,10 @@
         <v>6</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>180</v>
+        <v>147</v>
+      </c>
+      <c r="E77" s="24">
+        <v>9</v>
       </c>
       <c r="F77" t="s">
         <v>60</v>
@@ -5619,7 +5486,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" outlineLevel="1">
       <c r="A78">
         <v>4</v>
       </c>
@@ -5630,10 +5497,10 @@
         <v>4</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>193</v>
+        <v>150</v>
+      </c>
+      <c r="E78" s="25">
+        <v>0</v>
       </c>
       <c r="F78" t="s">
         <v>60</v>
@@ -5655,7 +5522,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" outlineLevel="1">
       <c r="A79">
         <v>4</v>
       </c>
@@ -5666,10 +5533,10 @@
         <v>4</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>186</v>
+        <v>148</v>
+      </c>
+      <c r="E79" s="24">
+        <v>7</v>
       </c>
       <c r="F79" t="s">
         <v>60</v>
@@ -5691,7 +5558,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" outlineLevel="1">
       <c r="A80">
         <v>4</v>
       </c>
@@ -5702,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>182</v>
+        <v>149</v>
+      </c>
+      <c r="E80" s="25">
+        <v>1</v>
       </c>
       <c r="F80" t="s">
         <v>60</v>
@@ -5727,17 +5594,17 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B81" s="15">
+    <row r="81" spans="1:12" ht="18" thickBot="1">
+      <c r="A81" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" s="14">
         <v>30</v>
       </c>
-      <c r="C81" s="15">
+      <c r="C81" s="14">
         <v>28</v>
       </c>
-      <c r="D81" s="15" t="str">
+      <c r="D81" s="14" t="str">
         <f ca="1">COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"3") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"4") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"5") &amp; " / "
@@ -5746,1843 +5613,1012 @@
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"8") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"9") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"10")</f>
-        <v>0 / 0 / 0 / 0 / 0 / 0 / 0 / 0</v>
-      </c>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15">
+        <v>3 / 5 / 4 / 11 / 2 / 0 / 0 / 0</v>
+      </c>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14">
         <f>SUM(H82:H101)</f>
-        <v>0</v>
-      </c>
-      <c r="I81" s="15"/>
-      <c r="J81" s="15">
+        <v>658.4</v>
+      </c>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>0</v>
       </c>
-      <c r="K81" s="15"/>
-      <c r="L81" s="15"/>
-    </row>
-    <row r="82" spans="1:12" ht="15.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+    </row>
+    <row r="82" spans="1:12" ht="15.75" outlineLevel="1" thickTop="1">
       <c r="A82">
         <v>5</v>
       </c>
-      <c r="B82" s="21">
-        <v>1</v>
-      </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="11">
+      <c r="B82" s="20">
+        <v>1</v>
+      </c>
+      <c r="C82" s="26">
+        <v>6</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E82" s="26">
+        <v>13</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G82" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H82" s="3">
+        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>28</v>
+      </c>
+      <c r="I82" s="8">
+        <v>120</v>
+      </c>
+      <c r="J82" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+      <c r="K82" s="26">
+        <v>3</v>
+      </c>
+      <c r="L82" s="26"/>
+    </row>
+    <row r="83" spans="1:12" outlineLevel="1">
       <c r="A83">
         <v>5</v>
       </c>
-      <c r="B83" s="21">
-        <v>2</v>
-      </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="11">
+      <c r="B83" s="20">
+        <v>2</v>
+      </c>
+      <c r="C83" s="26">
+        <v>5</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E83" s="26">
+        <v>1</v>
+      </c>
+      <c r="F83" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G83" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H83" s="3">
+        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>33.6</v>
+      </c>
+      <c r="I83" s="8">
+        <v>140</v>
+      </c>
+      <c r="J83" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+      <c r="K83" s="26">
+        <v>4</v>
+      </c>
+      <c r="L83" s="26"/>
+    </row>
+    <row r="84" spans="1:12" outlineLevel="1">
       <c r="A84">
         <v>5</v>
       </c>
-      <c r="B84" s="21">
-        <v>3</v>
-      </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="11">
+      <c r="B84" s="20">
+        <v>3</v>
+      </c>
+      <c r="C84" s="26">
+        <v>7</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E84" s="26">
+        <v>0</v>
+      </c>
+      <c r="F84" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G84" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H84" s="3">
+        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>24</v>
+      </c>
+      <c r="I84" s="8">
+        <v>100</v>
+      </c>
+      <c r="J84" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+      <c r="K84" s="26">
+        <v>3</v>
+      </c>
+      <c r="L84" s="26"/>
+    </row>
+    <row r="85" spans="1:12" outlineLevel="1">
       <c r="A85">
         <v>5</v>
       </c>
-      <c r="B85" s="21">
-        <v>4</v>
-      </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="11">
+      <c r="B85" s="20">
+        <v>4</v>
+      </c>
+      <c r="C85" s="26">
+        <v>6</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="E85" s="26">
+        <v>11</v>
+      </c>
+      <c r="F85" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G85" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H85" s="3">
+        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>28</v>
+      </c>
+      <c r="I85" s="8">
+        <v>110</v>
+      </c>
+      <c r="J85" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+      <c r="K85" s="26">
+        <v>2</v>
+      </c>
+      <c r="L85" s="26"/>
+    </row>
+    <row r="86" spans="1:12" outlineLevel="1">
       <c r="A86">
         <v>5</v>
       </c>
-      <c r="B86" s="21">
-        <v>5</v>
-      </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="11">
+      <c r="B86" s="20">
+        <v>5</v>
+      </c>
+      <c r="C86" s="26">
+        <v>7</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E86" s="26">
+        <v>17</v>
+      </c>
+      <c r="F86" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G86" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H86" s="3">
+        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>24</v>
+      </c>
+      <c r="I86" s="8">
+        <v>90</v>
+      </c>
+      <c r="J86" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+      <c r="K86" s="26">
+        <v>2</v>
+      </c>
+      <c r="L86" s="26"/>
+    </row>
+    <row r="87" spans="1:12" outlineLevel="1">
       <c r="A87">
         <v>5</v>
       </c>
-      <c r="B87" s="21">
+      <c r="B87" s="20">
         <v>6</v>
       </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="11">
+      <c r="C87" s="26">
+        <v>6</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E87" s="26">
+        <v>15</v>
+      </c>
+      <c r="F87" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G87" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H87" s="3">
+        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>28</v>
+      </c>
+      <c r="I87" s="8">
+        <v>100</v>
+      </c>
+      <c r="J87" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+      <c r="K87" s="26">
+        <v>3</v>
+      </c>
+      <c r="L87" s="26"/>
+    </row>
+    <row r="88" spans="1:12" outlineLevel="1">
       <c r="A88">
         <v>5</v>
       </c>
-      <c r="B88" s="21">
+      <c r="B88" s="20">
         <v>7</v>
       </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="11">
+      <c r="C88" s="26">
+        <v>5</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E88" s="26">
+        <v>27</v>
+      </c>
+      <c r="F88" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G88" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H88" s="3">
+        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>33.6</v>
+      </c>
+      <c r="I88" s="8">
+        <v>120</v>
+      </c>
+      <c r="J88" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+      <c r="K88" s="26">
+        <v>5</v>
+      </c>
+      <c r="L88" s="26"/>
+    </row>
+    <row r="89" spans="1:12" outlineLevel="1">
       <c r="A89">
         <v>5</v>
       </c>
-      <c r="B89" s="21">
+      <c r="B89" s="20">
         <v>8</v>
       </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="11">
+      <c r="C89" s="26">
+        <v>6</v>
+      </c>
+      <c r="D89" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E89" s="26">
+        <v>1</v>
+      </c>
+      <c r="F89" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G89" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H89" s="3">
+        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>28</v>
+      </c>
+      <c r="I89" s="8">
+        <v>100</v>
+      </c>
+      <c r="J89" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+      <c r="K89" s="26">
+        <v>3</v>
+      </c>
+      <c r="L89" s="26"/>
+    </row>
+    <row r="90" spans="1:12" outlineLevel="1">
       <c r="A90">
         <v>5</v>
       </c>
-      <c r="B90" s="21">
+      <c r="B90" s="20">
         <v>9</v>
       </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="11">
+      <c r="C90" s="26">
+        <v>4</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E90" s="26">
+        <v>42</v>
+      </c>
+      <c r="F90" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G90" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H90" s="3">
+        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>42</v>
+      </c>
+      <c r="I90" s="8">
+        <v>140</v>
+      </c>
+      <c r="J90" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+      <c r="K90" s="26">
+        <v>4</v>
+      </c>
+      <c r="L90" s="26"/>
+    </row>
+    <row r="91" spans="1:12" outlineLevel="1">
       <c r="A91">
         <v>5</v>
       </c>
-      <c r="B91" s="21">
+      <c r="B91" s="20">
         <v>10</v>
       </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="11">
+      <c r="C91" s="26">
+        <v>4</v>
+      </c>
+      <c r="D91" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="E91" s="26">
+        <v>4</v>
+      </c>
+      <c r="F91" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G91" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H91" s="3">
+        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>42</v>
+      </c>
+      <c r="I91" s="8">
+        <v>135</v>
+      </c>
+      <c r="J91" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+      <c r="K91" s="26">
+        <v>5</v>
+      </c>
+      <c r="L91" s="26"/>
+    </row>
+    <row r="92" spans="1:12" outlineLevel="1">
       <c r="A92">
         <v>5</v>
       </c>
-      <c r="B92" s="21">
+      <c r="B92" s="20">
         <v>11</v>
       </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="11">
+      <c r="C92" s="26">
+        <v>6</v>
+      </c>
+      <c r="D92" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E92" s="26">
+        <v>11</v>
+      </c>
+      <c r="F92" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G92" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H92" s="3">
+        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>28</v>
+      </c>
+      <c r="I92" s="8">
+        <v>90</v>
+      </c>
+      <c r="J92" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+      <c r="K92" s="26">
+        <v>3</v>
+      </c>
+      <c r="L92" s="26"/>
+    </row>
+    <row r="93" spans="1:12" outlineLevel="1">
       <c r="A93">
         <v>5</v>
       </c>
-      <c r="B93" s="21">
+      <c r="B93" s="20">
         <v>12</v>
       </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="11">
+      <c r="C93" s="26">
+        <v>4</v>
+      </c>
+      <c r="D93" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E93" s="26">
+        <v>1</v>
+      </c>
+      <c r="F93" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G93" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H93" s="3">
+        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>42</v>
+      </c>
+      <c r="I93" s="8">
+        <v>115</v>
+      </c>
+      <c r="J93" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="K93" s="26">
+        <v>3</v>
+      </c>
+      <c r="L93" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" outlineLevel="1">
       <c r="A94">
         <v>5</v>
       </c>
-      <c r="B94" s="21">
+      <c r="B94" s="20">
         <v>13</v>
       </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="11">
+      <c r="C94" s="26">
+        <v>6</v>
+      </c>
+      <c r="D94" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="E94" s="26">
+        <v>10</v>
+      </c>
+      <c r="F94" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G94" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H94" s="3">
+        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>28</v>
+      </c>
+      <c r="I94" s="8">
+        <v>70</v>
+      </c>
+      <c r="J94" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+      <c r="K94" s="26">
+        <v>2</v>
+      </c>
+      <c r="L94" s="26"/>
+    </row>
+    <row r="95" spans="1:12" outlineLevel="1">
       <c r="A95">
         <v>5</v>
       </c>
-      <c r="B95" s="21">
+      <c r="B95" s="20">
         <v>14</v>
       </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="11">
+      <c r="C95" s="26">
+        <v>6</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E95" s="26">
+        <v>5</v>
+      </c>
+      <c r="F95" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G95" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H95" s="3">
+        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>28</v>
+      </c>
+      <c r="I95" s="8">
+        <v>60</v>
+      </c>
+      <c r="J95" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="K95" s="26">
+        <v>1</v>
+      </c>
+      <c r="L95" s="26"/>
+    </row>
+    <row r="96" spans="1:12" outlineLevel="1">
       <c r="A96">
         <v>5</v>
       </c>
-      <c r="B96" s="21">
+      <c r="B96" s="20">
         <v>15</v>
       </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="11">
+      <c r="C96" s="26">
+        <v>4</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E96" s="26">
+        <v>13</v>
+      </c>
+      <c r="F96" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G96" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H96" s="3">
+        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>42</v>
+      </c>
+      <c r="I96" s="8">
+        <v>90</v>
+      </c>
+      <c r="J96" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="K96" s="26">
+        <v>4</v>
+      </c>
+      <c r="L96" s="26"/>
+    </row>
+    <row r="97" spans="1:12" outlineLevel="1">
       <c r="A97">
         <v>5</v>
       </c>
-      <c r="B97" s="21">
+      <c r="B97" s="20">
         <v>16</v>
       </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="11">
+      <c r="C97" s="26">
+        <v>6</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E97" s="26">
+        <v>7</v>
+      </c>
+      <c r="F97" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G97" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H97" s="3">
+        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>28</v>
+      </c>
+      <c r="I97" s="8">
+        <v>50</v>
+      </c>
+      <c r="J97" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="K97" s="26">
+        <v>4</v>
+      </c>
+      <c r="L97" s="26"/>
+    </row>
+    <row r="98" spans="1:12" outlineLevel="1">
       <c r="A98">
         <v>5</v>
       </c>
-      <c r="B98" s="21">
+      <c r="B98" s="20">
         <v>17</v>
       </c>
-      <c r="C98" s="3"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="11">
+      <c r="C98" s="26">
+        <v>5</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="E98" s="26">
+        <v>9</v>
+      </c>
+      <c r="F98" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G98" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H98" s="3">
+        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>33.6</v>
+      </c>
+      <c r="I98" s="8">
+        <v>55</v>
+      </c>
+      <c r="J98" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="K98" s="26">
+        <v>5</v>
+      </c>
+      <c r="L98" s="26"/>
+    </row>
+    <row r="99" spans="1:12" outlineLevel="1">
       <c r="A99">
         <v>5</v>
       </c>
-      <c r="B99" s="21">
+      <c r="B99" s="20">
         <v>18</v>
       </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="11">
+      <c r="C99" s="26">
+        <v>6</v>
+      </c>
+      <c r="D99" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E99" s="26">
+        <v>6</v>
+      </c>
+      <c r="F99" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G99" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H99" s="3">
+        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>28</v>
+      </c>
+      <c r="I99" s="8">
+        <v>45</v>
+      </c>
+      <c r="J99" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="K99" s="26">
+        <v>2</v>
+      </c>
+      <c r="L99" s="26"/>
+    </row>
+    <row r="100" spans="1:12" outlineLevel="1">
       <c r="A100">
         <v>5</v>
       </c>
-      <c r="B100" s="21">
+      <c r="B100" s="20">
         <v>19</v>
       </c>
-      <c r="C100" s="3"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="11">
+      <c r="C100" s="26">
+        <v>5</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E100" s="26">
+        <v>1</v>
+      </c>
+      <c r="F100" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G100" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H100" s="3">
+        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>33.6</v>
+      </c>
+      <c r="I100" s="8">
+        <v>50</v>
+      </c>
+      <c r="J100" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="K100" s="26">
+        <v>3</v>
+      </c>
+      <c r="L100" s="26"/>
+    </row>
+    <row r="101" spans="1:12" outlineLevel="1">
       <c r="A101">
         <v>5</v>
       </c>
-      <c r="B101" s="21">
+      <c r="B101" s="20">
         <v>20</v>
       </c>
-      <c r="C101" s="3"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="11">
+      <c r="C101" s="26">
+        <v>3</v>
+      </c>
+      <c r="D101" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E101" s="26">
+        <v>5</v>
+      </c>
+      <c r="F101" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G101" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H101" s="3">
+        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>56</v>
+      </c>
+      <c r="I101" s="8">
+        <v>75</v>
+      </c>
+      <c r="J101" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="K101" s="26">
+        <v>4</v>
+      </c>
+      <c r="L101" s="26"/>
+    </row>
+    <row r="102" spans="1:12" outlineLevel="1">
       <c r="A102">
         <v>5</v>
       </c>
-      <c r="B102" s="21">
+      <c r="B102" s="20">
         <v>21</v>
       </c>
-      <c r="C102" s="3"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="11">
+      <c r="C102" s="26">
+        <v>6</v>
+      </c>
+      <c r="D102" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E102" s="26">
+        <v>2</v>
+      </c>
+      <c r="F102" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G102" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H102" s="3">
+        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>28</v>
+      </c>
+      <c r="I102" s="8">
+        <v>35</v>
+      </c>
+      <c r="J102" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-    </row>
-    <row r="103" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="K102" s="26">
+        <v>4</v>
+      </c>
+      <c r="L102" s="26"/>
+    </row>
+    <row r="103" spans="1:12" outlineLevel="1">
       <c r="A103">
         <v>5</v>
       </c>
-      <c r="B103" s="21">
+      <c r="B103" s="20">
         <v>22</v>
       </c>
-      <c r="C103" s="3"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="11">
+      <c r="C103" s="26">
+        <v>3</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E103" s="26">
+        <v>6</v>
+      </c>
+      <c r="F103" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G103" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H103" s="3">
+        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>56</v>
+      </c>
+      <c r="I103" s="8">
+        <v>50</v>
+      </c>
+      <c r="J103" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-    </row>
-    <row r="104" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="K103" s="26">
+        <v>5</v>
+      </c>
+      <c r="L103" s="26"/>
+    </row>
+    <row r="104" spans="1:12" outlineLevel="1">
       <c r="A104">
         <v>5</v>
       </c>
-      <c r="B104" s="21">
+      <c r="B104" s="20">
         <v>23</v>
       </c>
-      <c r="C104" s="3"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="11">
+      <c r="C104" s="26">
+        <v>4</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E104" s="26">
+        <v>6</v>
+      </c>
+      <c r="F104" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G104" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H104" s="3">
+        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>42</v>
+      </c>
+      <c r="I104" s="8">
+        <v>30</v>
+      </c>
+      <c r="J104" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
-    </row>
-    <row r="105" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="K104" s="26">
+        <v>3</v>
+      </c>
+      <c r="L104" s="26"/>
+    </row>
+    <row r="105" spans="1:12" outlineLevel="1">
       <c r="A105">
         <v>5</v>
       </c>
-      <c r="B105" s="21">
+      <c r="B105" s="20">
         <v>24</v>
       </c>
-      <c r="C105" s="3"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="11">
+      <c r="C105" s="26">
+        <v>3</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="E105" s="26">
+        <v>7</v>
+      </c>
+      <c r="F105" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G105" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H105" s="3">
+        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>56</v>
+      </c>
+      <c r="I105" s="8">
+        <v>35</v>
+      </c>
+      <c r="J105" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
-    </row>
-    <row r="106" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="K105" s="26">
+        <v>2</v>
+      </c>
+      <c r="L105" s="26"/>
+    </row>
+    <row r="106" spans="1:12" outlineLevel="1">
       <c r="A106">
         <v>5</v>
       </c>
-      <c r="B106" s="21">
+      <c r="B106" s="20">
         <v>25</v>
       </c>
-      <c r="C106" s="3"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="11">
+      <c r="C106" s="26">
+        <v>6</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E106" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="F106" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G106" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H106" s="3">
+        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>28</v>
+      </c>
+      <c r="I106" s="8">
+        <v>30</v>
+      </c>
+      <c r="J106" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-    </row>
-    <row r="107" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>5</v>
-      </c>
-      <c r="B107" s="21">
-        <v>26</v>
-      </c>
-      <c r="C107" s="3"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="8"/>
-      <c r="J107" s="11">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
-    </row>
-    <row r="108" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>5</v>
-      </c>
-      <c r="B108" s="21">
-        <v>27</v>
-      </c>
-      <c r="C108" s="3"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="8"/>
-      <c r="J108" s="11">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-    </row>
-    <row r="109" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>5</v>
-      </c>
-      <c r="B109" s="21">
-        <v>28</v>
-      </c>
-      <c r="C109" s="3"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="11">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
-    </row>
-    <row r="110" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>5</v>
-      </c>
-      <c r="B110" s="21">
-        <v>29</v>
-      </c>
-      <c r="C110" s="3"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="11">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-    </row>
-    <row r="111" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>5</v>
-      </c>
-      <c r="B111" s="21">
-        <v>30</v>
-      </c>
-      <c r="C111" s="3"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="11">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>122</v>
-      </c>
-      <c r="C112" t="s">
-        <v>112</v>
-      </c>
-      <c r="D112" t="s">
-        <v>141</v>
-      </c>
-      <c r="E112" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F112" t="s">
-        <v>60</v>
-      </c>
-      <c r="G112" t="s">
-        <v>61</v>
-      </c>
-      <c r="I112" s="8"/>
-      <c r="J112" s="3" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>122</v>
-      </c>
-      <c r="C113" t="s">
-        <v>112</v>
-      </c>
-      <c r="D113" t="s">
-        <v>143</v>
-      </c>
-      <c r="E113" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="F113" t="s">
-        <v>60</v>
-      </c>
-      <c r="G113" t="s">
-        <v>61</v>
-      </c>
-      <c r="I113" s="8"/>
-      <c r="J113" s="3" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>122</v>
-      </c>
-      <c r="C114" t="s">
-        <v>112</v>
-      </c>
-      <c r="D114" t="s">
-        <v>145</v>
-      </c>
-      <c r="E114" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F114" t="s">
-        <v>60</v>
-      </c>
-      <c r="G114" t="s">
-        <v>61</v>
-      </c>
-      <c r="I114" s="8"/>
-      <c r="J114" s="3" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>122</v>
-      </c>
-      <c r="C115" t="s">
-        <v>138</v>
-      </c>
-      <c r="D115" t="s">
-        <v>136</v>
-      </c>
-      <c r="E115" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F115" t="s">
-        <v>60</v>
-      </c>
-      <c r="G115" t="s">
-        <v>61</v>
-      </c>
-      <c r="I115" s="8"/>
-      <c r="J115" s="3" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>122</v>
-      </c>
-      <c r="C116" t="s">
-        <v>127</v>
-      </c>
-      <c r="D116" t="s">
-        <v>131</v>
-      </c>
-      <c r="E116" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="F116" t="s">
-        <v>60</v>
-      </c>
-      <c r="G116" t="s">
-        <v>61</v>
-      </c>
-      <c r="I116" s="8"/>
-      <c r="J116" s="3" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>122</v>
-      </c>
-      <c r="C117" t="s">
-        <v>103</v>
-      </c>
-      <c r="D117" t="s">
-        <v>108</v>
-      </c>
-      <c r="E117" s="13">
-        <v>1</v>
-      </c>
-      <c r="F117" t="s">
-        <v>60</v>
-      </c>
-      <c r="G117" t="s">
-        <v>61</v>
-      </c>
-      <c r="I117" s="8"/>
-      <c r="J117" s="3" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K117">
-        <v>2</v>
-      </c>
-      <c r="L117" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>122</v>
-      </c>
-      <c r="C118" t="s">
-        <v>106</v>
-      </c>
-      <c r="D118" t="s">
-        <v>114</v>
-      </c>
-      <c r="E118" s="13">
-        <v>100</v>
-      </c>
-      <c r="F118" t="s">
-        <v>60</v>
-      </c>
-      <c r="G118" t="s">
-        <v>61</v>
-      </c>
-      <c r="I118" s="8"/>
-      <c r="J118" s="3" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>122</v>
-      </c>
-      <c r="C119" t="s">
-        <v>116</v>
-      </c>
-      <c r="D119" t="s">
-        <v>115</v>
-      </c>
-      <c r="E119" s="13">
-        <v>100</v>
-      </c>
-      <c r="F119" t="s">
-        <v>60</v>
-      </c>
-      <c r="G119" t="s">
-        <v>61</v>
-      </c>
-      <c r="I119" s="8"/>
-      <c r="J119" s="3" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>122</v>
-      </c>
-      <c r="C120" t="s">
-        <v>116</v>
-      </c>
-      <c r="D120" t="s">
-        <v>128</v>
-      </c>
-      <c r="E120" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F120" t="s">
-        <v>60</v>
-      </c>
-      <c r="G120" t="s">
-        <v>61</v>
-      </c>
-      <c r="I120" s="8"/>
-      <c r="J120" s="3" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>122</v>
-      </c>
-      <c r="C121" t="s">
-        <v>103</v>
-      </c>
-      <c r="D121" t="s">
-        <v>102</v>
-      </c>
-      <c r="E121" s="13">
-        <v>1</v>
-      </c>
-      <c r="F121" t="s">
-        <v>60</v>
-      </c>
-      <c r="G121" t="s">
-        <v>61</v>
-      </c>
-      <c r="I121" s="8"/>
-      <c r="J121" s="3" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>122</v>
-      </c>
-      <c r="C122" t="s">
-        <v>116</v>
-      </c>
-      <c r="D122" t="s">
-        <v>139</v>
-      </c>
-      <c r="E122" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F122" t="s">
-        <v>60</v>
-      </c>
-      <c r="G122" t="s">
-        <v>61</v>
-      </c>
-      <c r="I122" s="8"/>
-      <c r="J122" s="3" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>122</v>
-      </c>
-      <c r="C123" t="s">
-        <v>112</v>
-      </c>
-      <c r="D123" t="s">
-        <v>111</v>
-      </c>
-      <c r="E123" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F123" t="s">
-        <v>60</v>
-      </c>
-      <c r="G123" t="s">
-        <v>61</v>
-      </c>
-      <c r="I123" s="8"/>
-      <c r="J123" s="3" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
-        <v>122</v>
-      </c>
-      <c r="C124" t="s">
-        <v>112</v>
-      </c>
-      <c r="D124" t="s">
-        <v>135</v>
-      </c>
-      <c r="E124" s="13">
-        <v>6</v>
-      </c>
-      <c r="F124" t="s">
-        <v>60</v>
-      </c>
-      <c r="G124" t="s">
-        <v>61</v>
-      </c>
-      <c r="I124" s="8"/>
-      <c r="J124" s="3" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>122</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E125" s="12"/>
-      <c r="F125" t="s">
-        <v>60</v>
-      </c>
-      <c r="G125" t="s">
-        <v>61</v>
-      </c>
-      <c r="H125" s="3"/>
-      <c r="I125" s="8"/>
-      <c r="J125" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K125" s="3">
-        <v>4</v>
-      </c>
-      <c r="L125" s="3"/>
-    </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>122</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E126" s="12"/>
-      <c r="F126" t="s">
-        <v>60</v>
-      </c>
-      <c r="G126" t="s">
-        <v>61</v>
-      </c>
-      <c r="H126" s="3"/>
-      <c r="I126" s="8"/>
-      <c r="J126" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K126" s="3">
-        <v>2</v>
-      </c>
-      <c r="L126" s="3"/>
-    </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>122</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E127" s="12"/>
-      <c r="F127" t="s">
-        <v>60</v>
-      </c>
-      <c r="G127" t="s">
-        <v>61</v>
-      </c>
-      <c r="H127" s="3"/>
-      <c r="I127" s="8"/>
-      <c r="J127" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K127" s="3">
-        <v>5</v>
-      </c>
-      <c r="L127" s="3"/>
-    </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>122</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E128" s="12"/>
-      <c r="F128" t="s">
-        <v>60</v>
-      </c>
-      <c r="G128" t="s">
-        <v>61</v>
-      </c>
-      <c r="H128" s="3"/>
-      <c r="I128" s="8"/>
-      <c r="J128" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K128" s="3">
-        <v>1</v>
-      </c>
-      <c r="L128" s="3"/>
-    </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>122</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E129" s="12"/>
-      <c r="F129" t="s">
-        <v>60</v>
-      </c>
-      <c r="G129" t="s">
-        <v>61</v>
-      </c>
-      <c r="H129" s="3"/>
-      <c r="I129" s="8"/>
-      <c r="J129" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K129" s="3">
-        <v>5</v>
-      </c>
-      <c r="L129" s="3"/>
-    </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>122</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="E130" s="12"/>
-      <c r="F130" t="s">
-        <v>60</v>
-      </c>
-      <c r="G130" t="s">
-        <v>61</v>
-      </c>
-      <c r="H130" s="3"/>
-      <c r="I130" s="8"/>
-      <c r="J130" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K130" s="3">
-        <v>5</v>
-      </c>
-      <c r="L130" s="3"/>
-    </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>122</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E131" s="12"/>
-      <c r="F131" t="s">
-        <v>60</v>
-      </c>
-      <c r="G131" t="s">
-        <v>61</v>
-      </c>
-      <c r="H131" s="3"/>
-      <c r="I131" s="8"/>
-      <c r="J131" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K131" s="3">
-        <v>4</v>
-      </c>
-      <c r="L131" s="3"/>
-    </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>122</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E132" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="F132" t="s">
-        <v>60</v>
-      </c>
-      <c r="G132" t="s">
-        <v>61</v>
-      </c>
-      <c r="H132" s="3"/>
-      <c r="I132" s="8"/>
-      <c r="J132" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K132" s="3">
-        <v>4</v>
-      </c>
-      <c r="L132" s="3"/>
-    </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>122</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E133" s="12"/>
-      <c r="F133" t="s">
-        <v>60</v>
-      </c>
-      <c r="G133" t="s">
-        <v>61</v>
-      </c>
-      <c r="H133" s="3"/>
-      <c r="I133" s="8"/>
-      <c r="J133" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K133" s="3">
-        <v>4</v>
-      </c>
-      <c r="L133" s="3"/>
-    </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>122</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E134" s="12"/>
-      <c r="F134" t="s">
-        <v>60</v>
-      </c>
-      <c r="G134" t="s">
-        <v>61</v>
-      </c>
-      <c r="H134" s="3"/>
-      <c r="I134" s="8"/>
-      <c r="J134" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K134" s="3">
-        <v>3</v>
-      </c>
-      <c r="L134" s="3"/>
-    </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>122</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E135" s="12"/>
-      <c r="F135" t="s">
-        <v>60</v>
-      </c>
-      <c r="G135" t="s">
-        <v>61</v>
-      </c>
-      <c r="H135" s="3"/>
-      <c r="I135" s="8"/>
-      <c r="J135" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K135" s="3">
-        <v>1</v>
-      </c>
-      <c r="L135" s="3"/>
-    </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>122</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E136" s="12"/>
-      <c r="F136" t="s">
-        <v>60</v>
-      </c>
-      <c r="G136" t="s">
-        <v>61</v>
-      </c>
-      <c r="H136" s="3"/>
-      <c r="I136" s="8"/>
-      <c r="J136" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K136" s="3">
-        <v>4</v>
-      </c>
-      <c r="L136" s="3"/>
-    </row>
-    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
-        <v>122</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E137" s="12"/>
-      <c r="F137" t="s">
-        <v>60</v>
-      </c>
-      <c r="G137" t="s">
-        <v>61</v>
-      </c>
-      <c r="H137" s="3"/>
-      <c r="I137" s="8"/>
-      <c r="J137" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K137" s="3">
-        <v>2</v>
-      </c>
-      <c r="L137" s="3"/>
-    </row>
-    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>122</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E138" s="12"/>
-      <c r="F138" t="s">
-        <v>60</v>
-      </c>
-      <c r="G138" t="s">
-        <v>61</v>
-      </c>
-      <c r="H138" s="3"/>
-      <c r="I138" s="8"/>
-      <c r="J138" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K138" s="3">
-        <v>1</v>
-      </c>
-      <c r="L138" s="3"/>
-    </row>
-    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>122</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E139" s="12"/>
-      <c r="F139" t="s">
-        <v>60</v>
-      </c>
-      <c r="G139" t="s">
-        <v>61</v>
-      </c>
-      <c r="H139" s="3"/>
-      <c r="I139" s="8"/>
-      <c r="J139" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K139" s="3">
-        <v>5</v>
-      </c>
-      <c r="L139" s="3"/>
-    </row>
-    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>122</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E140" s="12"/>
-      <c r="F140" t="s">
-        <v>60</v>
-      </c>
-      <c r="G140" t="s">
-        <v>61</v>
-      </c>
-      <c r="H140" s="3"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K140" s="3">
-        <v>3</v>
-      </c>
-      <c r="L140" s="3"/>
-    </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>122</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E141" s="12"/>
-      <c r="F141" t="s">
-        <v>60</v>
-      </c>
-      <c r="G141" t="s">
-        <v>61</v>
-      </c>
-      <c r="H141" s="3"/>
-      <c r="I141" s="8"/>
-      <c r="J141" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K141" s="3">
-        <v>1</v>
-      </c>
-      <c r="L141" s="3"/>
-    </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>122</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E142" s="12"/>
-      <c r="F142" t="s">
-        <v>60</v>
-      </c>
-      <c r="G142" t="s">
-        <v>61</v>
-      </c>
-      <c r="H142" s="3"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K142" s="3">
-        <v>2</v>
-      </c>
-      <c r="L142" s="3"/>
-    </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
-        <v>122</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E143" s="12"/>
-      <c r="F143" t="s">
-        <v>60</v>
-      </c>
-      <c r="G143" t="s">
-        <v>61</v>
-      </c>
-      <c r="H143" s="3"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K143" s="3">
-        <v>3</v>
-      </c>
-      <c r="L143" s="3"/>
-    </row>
-    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>122</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D144" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E144" s="12"/>
-      <c r="F144" t="s">
-        <v>60</v>
-      </c>
-      <c r="G144" t="s">
-        <v>61</v>
-      </c>
-      <c r="H144" s="3"/>
-      <c r="I144" s="8"/>
-      <c r="J144" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K144" s="3">
-        <v>3</v>
-      </c>
-      <c r="L144" s="3"/>
-    </row>
-    <row r="145" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
-        <v>122</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E145" s="12"/>
-      <c r="F145" t="s">
-        <v>60</v>
-      </c>
-      <c r="G145" t="s">
-        <v>61</v>
-      </c>
-      <c r="H145" s="3"/>
-      <c r="I145" s="8"/>
-      <c r="J145" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K145" s="3">
-        <v>1</v>
-      </c>
-      <c r="L145" s="3"/>
-    </row>
-    <row r="146" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>122</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E146" s="12"/>
-      <c r="F146" t="s">
-        <v>60</v>
-      </c>
-      <c r="G146" t="s">
-        <v>61</v>
-      </c>
-      <c r="H146" s="3"/>
-      <c r="I146" s="8"/>
-      <c r="J146" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K146" s="3">
-        <v>3</v>
-      </c>
-      <c r="L146" s="3"/>
-    </row>
-    <row r="147" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
-        <v>122</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E147" s="12"/>
-      <c r="F147" t="s">
-        <v>60</v>
-      </c>
-      <c r="G147" t="s">
-        <v>61</v>
-      </c>
-      <c r="H147" s="3"/>
-      <c r="I147" s="8"/>
-      <c r="J147" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K147" s="3">
-        <v>4</v>
-      </c>
-      <c r="L147" s="3"/>
-    </row>
-    <row r="148" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
-        <v>122</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E148" s="12"/>
-      <c r="F148" t="s">
-        <v>60</v>
-      </c>
-      <c r="G148" t="s">
-        <v>61</v>
-      </c>
-      <c r="H148" s="3"/>
-      <c r="I148" s="8"/>
-      <c r="J148" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K148" s="3">
-        <v>4</v>
-      </c>
-      <c r="L148" s="3"/>
-    </row>
-    <row r="149" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
-        <v>122</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="E149" s="12"/>
-      <c r="F149" t="s">
-        <v>60</v>
-      </c>
-      <c r="G149" t="s">
-        <v>61</v>
-      </c>
-      <c r="H149" s="3"/>
-      <c r="I149" s="8"/>
-      <c r="J149" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K149" s="3">
-        <v>2</v>
-      </c>
-      <c r="L149" s="3"/>
-    </row>
-    <row r="150" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>122</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D150" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E150" s="12"/>
-      <c r="F150" t="s">
-        <v>60</v>
-      </c>
-      <c r="G150" t="s">
-        <v>61</v>
-      </c>
-      <c r="H150" s="3"/>
-      <c r="I150" s="8"/>
-      <c r="J150" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K150" s="3">
-        <v>5</v>
-      </c>
-      <c r="L150" s="3"/>
-    </row>
-    <row r="151" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>122</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E151" s="12"/>
-      <c r="F151" t="s">
-        <v>60</v>
-      </c>
-      <c r="G151" t="s">
-        <v>61</v>
-      </c>
-      <c r="H151" s="3"/>
-      <c r="I151" s="8"/>
-      <c r="J151" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K151" s="3">
-        <v>5</v>
-      </c>
-      <c r="L151" s="3"/>
-    </row>
-    <row r="152" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
-        <v>122</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E152" s="12"/>
-      <c r="F152" t="s">
-        <v>60</v>
-      </c>
-      <c r="G152" t="s">
-        <v>61</v>
-      </c>
-      <c r="H152" s="3"/>
-      <c r="I152" s="8"/>
-      <c r="J152" s="11" t="e">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K152" s="3">
-        <v>4</v>
-      </c>
-      <c r="L152" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="K106" s="26">
+        <v>4</v>
+      </c>
+      <c r="L106" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=92"/>
-    <hyperlink ref="D4" r:id="rId2" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=109"/>
-    <hyperlink ref="D5" r:id="rId3" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=128"/>
-    <hyperlink ref="D6" r:id="rId4" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=157"/>
-    <hyperlink ref="D7" r:id="rId5" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=171"/>
-    <hyperlink ref="D8" r:id="rId6" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=38"/>
-    <hyperlink ref="D9" r:id="rId7" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=102"/>
-    <hyperlink ref="D10" r:id="rId8" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=143"/>
-    <hyperlink ref="D11" r:id="rId9" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=155"/>
-    <hyperlink ref="D12" r:id="rId10" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=169"/>
-    <hyperlink ref="D13" r:id="rId11" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=17"/>
-    <hyperlink ref="D14" r:id="rId12" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=34"/>
-    <hyperlink ref="D15" r:id="rId13" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=45"/>
-    <hyperlink ref="D16" r:id="rId14" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=52"/>
-    <hyperlink ref="D17" r:id="rId15" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=124"/>
-    <hyperlink ref="D19" r:id="rId16" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=114"/>
-    <hyperlink ref="D20" r:id="rId17" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=135"/>
-    <hyperlink ref="D21" r:id="rId18" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=187"/>
-    <hyperlink ref="D22" r:id="rId19" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=108"/>
-    <hyperlink ref="D23" r:id="rId20" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=116"/>
-    <hyperlink ref="D24" r:id="rId21" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=188"/>
-    <hyperlink ref="D25" r:id="rId22" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=164"/>
-    <hyperlink ref="D26" r:id="rId23" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=33"/>
-    <hyperlink ref="D27" r:id="rId24" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=174"/>
-    <hyperlink ref="D28" r:id="rId25" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=111"/>
-    <hyperlink ref="D29" r:id="rId26" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=190"/>
-    <hyperlink ref="D30" r:id="rId27" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=83"/>
-    <hyperlink ref="D31" r:id="rId28" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=181"/>
-    <hyperlink ref="D32" r:id="rId29" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=191"/>
-    <hyperlink ref="D33" r:id="rId30" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=127"/>
-    <hyperlink ref="D34" r:id="rId31" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=154"/>
-    <hyperlink ref="D35" r:id="rId32" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=123"/>
-    <hyperlink ref="D36" r:id="rId33" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=138"/>
-    <hyperlink ref="D37" r:id="rId34" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=94"/>
-    <hyperlink ref="D38" r:id="rId35" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=182"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=92" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=109" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=128" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=157" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId5" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=171" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D8" r:id="rId6" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=38" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D9" r:id="rId7" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=102" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D10" r:id="rId8" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=143" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D11" r:id="rId9" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=155" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D12" r:id="rId10" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=169" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D13" r:id="rId11" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=17" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D14" r:id="rId12" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=34" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D15" r:id="rId13" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=45" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D16" r:id="rId14" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=52" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D17" r:id="rId15" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=124" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D19" r:id="rId16" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=114" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D20" r:id="rId17" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=135" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="D21" r:id="rId18" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=187" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="D22" r:id="rId19" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=108" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="D23" r:id="rId20" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=116" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="D24" r:id="rId21" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=188" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="D25" r:id="rId22" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=164" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="D26" r:id="rId23" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=33" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="D27" r:id="rId24" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=174" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="D28" r:id="rId25" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=111" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="D29" r:id="rId26" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=190" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="D30" r:id="rId27" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=83" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="D31" r:id="rId28" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=181" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="D32" r:id="rId29" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=191" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="D33" r:id="rId30" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=127" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="D34" r:id="rId31" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=154" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="D35" r:id="rId32" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=123" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="D36" r:id="rId33" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=138" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="D37" r:id="rId34" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=94" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="D38" r:id="rId35" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=182" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId36"/>
@@ -7593,14 +6629,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AK32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AJ30" sqref="AJ30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="3" max="7" width="3.85546875" customWidth="1"/>
@@ -7611,7 +6647,7 @@
     <col min="33" max="37" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37">
       <c r="C1">
         <v>3</v>
       </c>
@@ -7703,9 +6739,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B2" s="9">
         <v>1</v>
@@ -7756,7 +6792,7 @@
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -7905,7 +6941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -8054,7 +7090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -8203,7 +7239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -8352,7 +7388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -8501,7 +7537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -8650,7 +7686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -8799,7 +7835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -8948,7 +7984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -9097,7 +8133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -9246,7 +8282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -9395,7 +8431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -9544,7 +8580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -9693,7 +8729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -9842,7 +8878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -9991,7 +9027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -10140,7 +9176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -10289,7 +9325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -10438,7 +9474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -10587,7 +9623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37">
       <c r="A22" s="9">
         <v>20</v>
       </c>
@@ -10736,7 +9772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37">
       <c r="A23" s="9">
         <v>21</v>
       </c>
@@ -10885,7 +9921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37">
       <c r="A24" s="9">
         <v>22</v>
       </c>
@@ -11034,7 +10070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37">
       <c r="A25" s="9">
         <v>23</v>
       </c>
@@ -11183,7 +10219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37">
       <c r="A26" s="9">
         <v>24</v>
       </c>
@@ -11332,7 +10368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37">
       <c r="A27" s="9">
         <v>25</v>
       </c>
@@ -11481,7 +10517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37">
       <c r="A28" s="9">
         <v>26</v>
       </c>
@@ -11630,7 +10666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37">
       <c r="A29" s="9">
         <v>27</v>
       </c>
@@ -11779,7 +10815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37">
       <c r="A30" s="9">
         <v>28</v>
       </c>
@@ -11928,7 +10964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37">
       <c r="A31" s="9">
         <v>29</v>
       </c>
@@ -12077,7 +11113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37">
       <c r="A32" s="9">
         <v>30</v>
       </c>
@@ -12331,21 +11367,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -12366,12 +11402,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -12392,12 +11428,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -12418,12 +11454,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -12444,12 +11480,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -12470,12 +11506,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -12496,12 +11532,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -12522,12 +11558,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -12548,12 +11584,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -12574,12 +11610,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -12600,12 +11636,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -12626,12 +11662,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -12652,12 +11688,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -12678,12 +11714,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -12704,12 +11740,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -12730,12 +11766,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -12756,12 +11792,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -12782,12 +11818,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -12808,7 +11844,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>4</v>
       </c>
@@ -12834,12 +11870,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C20">
         <v>6</v>

--- a/CraZZZy Crash Challenge/CCC-Daten.xlsx
+++ b/CraZZZy Crash Challenge/CCC-Daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\info\KaroStuff\CraZZZy Crash Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0C6799-C8F3-41C9-9C98-D44D5097D53A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891AD0C3-6873-4B17-8A3A-AF2A9765C135}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="7500" windowHeight="6000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teilnehmer" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="201">
   <si>
     <t>Teilnehmer</t>
   </si>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t>random</t>
+  </si>
+  <si>
+    <t>Spieler pro Rennen</t>
   </si>
 </sst>
 </file>
@@ -1309,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1645,9 +1648,7 @@
       <c r="F17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -2623,7 +2624,7 @@
       </c>
       <c r="B70" s="21">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2632,7 +2633,7 @@
         <v>45</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>192</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2660,7 +2661,7 @@
       </c>
       <c r="G71">
         <f>COUNTIF(Tabelle1[CCC5],$B71)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2686,7 +2687,7 @@
       </c>
       <c r="G73">
         <f>COUNTIF(Tabelle1[CCC5],$B73)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2699,7 +2700,7 @@
       </c>
       <c r="G74">
         <f>SUBTOTAL(103,Tabelle1[CCC5])</f>
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2720,8 +2721,8 @@
   </sheetPr>
   <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -5599,10 +5600,10 @@
         <v>157</v>
       </c>
       <c r="B81" s="14">
+        <v>25</v>
+      </c>
+      <c r="C81" s="14">
         <v>30</v>
-      </c>
-      <c r="C81" s="14">
-        <v>28</v>
       </c>
       <c r="D81" s="14" t="str">
         <f ca="1">COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"3") &amp; " / "
@@ -5620,7 +5621,7 @@
       <c r="G81" s="14"/>
       <c r="H81" s="14">
         <f>SUM(H82:H101)</f>
-        <v>658.4</v>
+        <v>705.42857142857144</v>
       </c>
       <c r="I81" s="14"/>
       <c r="J81" s="14">
@@ -5654,7 +5655,7 @@
       </c>
       <c r="H82" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I82" s="8">
         <v>120</v>
@@ -5692,7 +5693,7 @@
       </c>
       <c r="H83" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>33.6</v>
+        <v>36</v>
       </c>
       <c r="I83" s="8">
         <v>140</v>
@@ -5730,7 +5731,7 @@
       </c>
       <c r="H84" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>24</v>
+        <v>25.714285714285715</v>
       </c>
       <c r="I84" s="8">
         <v>100</v>
@@ -5768,7 +5769,7 @@
       </c>
       <c r="H85" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I85" s="8">
         <v>110</v>
@@ -5806,7 +5807,7 @@
       </c>
       <c r="H86" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>24</v>
+        <v>25.714285714285715</v>
       </c>
       <c r="I86" s="8">
         <v>90</v>
@@ -5844,7 +5845,7 @@
       </c>
       <c r="H87" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I87" s="8">
         <v>100</v>
@@ -5882,7 +5883,7 @@
       </c>
       <c r="H88" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>33.6</v>
+        <v>36</v>
       </c>
       <c r="I88" s="8">
         <v>120</v>
@@ -5920,7 +5921,7 @@
       </c>
       <c r="H89" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I89" s="8">
         <v>100</v>
@@ -5958,7 +5959,7 @@
       </c>
       <c r="H90" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I90" s="8">
         <v>140</v>
@@ -5996,7 +5997,7 @@
       </c>
       <c r="H91" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I91" s="8">
         <v>135</v>
@@ -6034,7 +6035,7 @@
       </c>
       <c r="H92" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I92" s="8">
         <v>90</v>
@@ -6072,7 +6073,7 @@
       </c>
       <c r="H93" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I93" s="8">
         <v>115</v>
@@ -6112,7 +6113,7 @@
       </c>
       <c r="H94" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I94" s="8">
         <v>70</v>
@@ -6150,7 +6151,7 @@
       </c>
       <c r="H95" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I95" s="8">
         <v>60</v>
@@ -6188,7 +6189,7 @@
       </c>
       <c r="H96" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I96" s="8">
         <v>90</v>
@@ -6226,7 +6227,7 @@
       </c>
       <c r="H97" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I97" s="8">
         <v>50</v>
@@ -6264,7 +6265,7 @@
       </c>
       <c r="H98" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>33.6</v>
+        <v>36</v>
       </c>
       <c r="I98" s="8">
         <v>55</v>
@@ -6302,7 +6303,7 @@
       </c>
       <c r="H99" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I99" s="8">
         <v>45</v>
@@ -6340,7 +6341,7 @@
       </c>
       <c r="H100" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>33.6</v>
+        <v>36</v>
       </c>
       <c r="I100" s="8">
         <v>50</v>
@@ -6378,7 +6379,7 @@
       </c>
       <c r="H101" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I101" s="8">
         <v>75</v>
@@ -6416,7 +6417,7 @@
       </c>
       <c r="H102" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I102" s="8">
         <v>35</v>
@@ -6454,7 +6455,7 @@
       </c>
       <c r="H103" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I103" s="8">
         <v>50</v>
@@ -6492,7 +6493,7 @@
       </c>
       <c r="H104" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I104" s="8">
         <v>30</v>
@@ -6530,7 +6531,7 @@
       </c>
       <c r="H105" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I105" s="8">
         <v>35</v>
@@ -6568,7 +6569,7 @@
       </c>
       <c r="H106" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I106" s="8">
         <v>30</v>
@@ -6630,10 +6631,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AK32"/>
+  <dimension ref="A1:AK44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AJ30" sqref="AJ30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AI37" sqref="AI37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6648,6 +6649,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
+      <c r="A1" t="s">
+        <v>200</v>
+      </c>
       <c r="C1">
         <v>3</v>
       </c>
@@ -6946,11 +6950,11 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:AF32" si="7">$A4*B$2</f>
+        <f t="shared" ref="B4:AF33" si="7">$A4*B$2</f>
         <v>2</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:G32" si="8">MOD($B4,C$1)</f>
+        <f t="shared" ref="C4:G33" si="8">MOD($B4,C$1)</f>
         <v>2</v>
       </c>
       <c r="D4">
@@ -6974,7 +6978,7 @@
         <v>4</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:M32" si="9">MOD($H4,I$1)</f>
+        <f t="shared" ref="I4:M33" si="9">MOD($H4,I$1)</f>
         <v>1</v>
       </c>
       <c r="J4">
@@ -6998,7 +7002,7 @@
         <v>6</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:S32" si="10">MOD($N4,O$1)</f>
+        <f t="shared" ref="O4:S33" si="10">MOD($N4,O$1)</f>
         <v>0</v>
       </c>
       <c r="P4">
@@ -7022,7 +7026,7 @@
         <v>8</v>
       </c>
       <c r="U4">
-        <f t="shared" ref="U4:Y32" si="11">MOD($T4,U$1)</f>
+        <f t="shared" ref="U4:Y33" si="11">MOD($T4,U$1)</f>
         <v>2</v>
       </c>
       <c r="V4">
@@ -7046,7 +7050,7 @@
         <v>10</v>
       </c>
       <c r="AA4">
-        <f t="shared" ref="AA4:AE32" si="12">MOD($Z4,AA$1)</f>
+        <f t="shared" ref="AA4:AE33" si="12">MOD($Z4,AA$1)</f>
         <v>1</v>
       </c>
       <c r="AB4">
@@ -7070,7 +7074,7 @@
         <v>12</v>
       </c>
       <c r="AG4">
-        <f t="shared" ref="AG4:AK32" si="13">MOD($AF4,AG$1)</f>
+        <f t="shared" ref="AG4:AK33" si="13">MOD($AF4,AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH4">
@@ -11262,8 +11266,1796 @@
         <v>5</v>
       </c>
     </row>
+    <row r="33" spans="1:37">
+      <c r="A33" s="9">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="7"/>
+        <v>93</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="7"/>
+        <v>124</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="7"/>
+        <v>155</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="7"/>
+        <v>186</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37">
+      <c r="A34" s="9">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:N44" si="14">$A34*B$2</f>
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:G44" si="15">MOD($B34,C$1)</f>
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="14"/>
+        <v>64</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34:M44" si="16">MOD($H34,I$1)</f>
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="14"/>
+        <v>96</v>
+      </c>
+      <c r="O34">
+        <f t="shared" ref="O34:S44" si="17">MOD($N34,O$1)</f>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="T34">
+        <f t="shared" ref="T34:AF44" si="18">$A34*T$2</f>
+        <v>128</v>
+      </c>
+      <c r="U34">
+        <f t="shared" ref="U34:Y44" si="19">MOD($T34,U$1)</f>
+        <v>2</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="18"/>
+        <v>160</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" ref="AA34:AE44" si="20">MOD($Z34,AA$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="18"/>
+        <v>192</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" ref="AG34:AK44" si="21">MOD($AF34,AG$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37">
+      <c r="A35" s="9">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="14"/>
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="14"/>
+        <v>66</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="14"/>
+        <v>99</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="18"/>
+        <v>132</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="18"/>
+        <v>165</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="18"/>
+        <v>198</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37">
+      <c r="A36" s="9">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="14"/>
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="14"/>
+        <v>68</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="14"/>
+        <v>102</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="18"/>
+        <v>136</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="18"/>
+        <v>170</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="18"/>
+        <v>204</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="AJ36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37">
+      <c r="A37" s="9">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="18"/>
+        <v>140</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="18"/>
+        <v>175</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="18"/>
+        <v>210</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37">
+      <c r="A38" s="9">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="14"/>
+        <v>72</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="14"/>
+        <v>108</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="18"/>
+        <v>144</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="18"/>
+        <v>180</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="18"/>
+        <v>216</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AJ38">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37">
+      <c r="A39" s="9">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="14"/>
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="14"/>
+        <v>74</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="14"/>
+        <v>111</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="18"/>
+        <v>148</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="18"/>
+        <v>185</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="18"/>
+        <v>222</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="AI39">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="AJ39">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37">
+      <c r="A40" s="9">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="14"/>
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="14"/>
+        <v>114</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="18"/>
+        <v>152</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="18"/>
+        <v>190</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="18"/>
+        <v>228</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="AJ40">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37">
+      <c r="A41" s="9">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="14"/>
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="14"/>
+        <v>78</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="14"/>
+        <v>117</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="18"/>
+        <v>156</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="18"/>
+        <v>195</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="18"/>
+        <v>234</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="AI41">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="AJ41">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37">
+      <c r="A42" s="9">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="14"/>
+        <v>80</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="14"/>
+        <v>120</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="18"/>
+        <v>160</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="AF42">
+        <f t="shared" si="18"/>
+        <v>240</v>
+      </c>
+      <c r="AG42">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37">
+      <c r="A43" s="9">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="14"/>
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="14"/>
+        <v>82</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="14"/>
+        <v>123</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="18"/>
+        <v>164</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="18"/>
+        <v>205</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AF43">
+        <f t="shared" si="18"/>
+        <v>246</v>
+      </c>
+      <c r="AG43">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="AI43">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AJ43">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37">
+      <c r="A44" s="9">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="14"/>
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="14"/>
+        <v>84</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="14"/>
+        <v>126</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="18"/>
+        <v>168</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="18"/>
+        <v>210</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="18"/>
+        <v>252</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="AJ44">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:G32">
+  <conditionalFormatting sqref="C3:G44">
     <cfRule type="iconSet" priority="11">
       <iconSet reverse="1">
         <cfvo type="percent" val="0"/>
@@ -11272,7 +13064,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:K32">
+  <conditionalFormatting sqref="I3:K44">
     <cfRule type="iconSet" priority="10">
       <iconSet reverse="1">
         <cfvo type="percent" val="0"/>
@@ -11281,7 +13073,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:Q32">
+  <conditionalFormatting sqref="O3:Q44">
     <cfRule type="iconSet" priority="9">
       <iconSet reverse="1">
         <cfvo type="percent" val="0"/>
@@ -11290,7 +13082,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:W32">
+  <conditionalFormatting sqref="U3:W44">
     <cfRule type="iconSet" priority="8">
       <iconSet reverse="1">
         <cfvo type="percent" val="0"/>
@@ -11299,7 +13091,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AC32">
+  <conditionalFormatting sqref="AA3:AC44">
     <cfRule type="iconSet" priority="7">
       <iconSet reverse="1">
         <cfvo type="percent" val="0"/>
@@ -11308,7 +13100,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AI32">
+  <conditionalFormatting sqref="AG3:AI44">
     <cfRule type="iconSet" priority="6">
       <iconSet reverse="1">
         <cfvo type="percent" val="0"/>
@@ -11317,7 +13109,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:M32">
+  <conditionalFormatting sqref="L3:M44">
     <cfRule type="iconSet" priority="5">
       <iconSet reverse="1">
         <cfvo type="percent" val="0"/>
@@ -11326,7 +13118,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:S32">
+  <conditionalFormatting sqref="R3:S44">
     <cfRule type="iconSet" priority="4">
       <iconSet reverse="1">
         <cfvo type="percent" val="0"/>
@@ -11335,7 +13127,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3:Y32">
+  <conditionalFormatting sqref="X3:Y44">
     <cfRule type="iconSet" priority="3">
       <iconSet reverse="1">
         <cfvo type="percent" val="0"/>
@@ -11344,7 +13136,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD3:AE32">
+  <conditionalFormatting sqref="AD3:AE44">
     <cfRule type="iconSet" priority="2">
       <iconSet reverse="1">
         <cfvo type="percent" val="0"/>
@@ -11353,7 +13145,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ3:AK32">
+  <conditionalFormatting sqref="AJ3:AK44">
     <cfRule type="iconSet" priority="1">
       <iconSet reverse="1">
         <cfvo type="percent" val="0"/>

--- a/CraZZZy Crash Challenge/CCC-Daten.xlsx
+++ b/CraZZZy Crash Challenge/CCC-Daten.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\info\KaroStuff\CraZZZy Crash Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fixc2i2\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891AD0C3-6873-4B17-8A3A-AF2A9765C135}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Teilnehmer" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Rennanzahl" sheetId="4" r:id="rId3"/>
     <sheet name="Tabelle1" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author xml:space="preserve">Julian Verkin </author>
   </authors>
   <commentList>
-    <comment ref="E57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="201">
   <si>
     <t>Teilnehmer</t>
   </si>
@@ -664,11 +663,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;ca. &quot;\ 0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,6 +732,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -782,7 +786,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -854,6 +858,13 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -951,8 +962,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:G71" totalsRowCount="1">
-  <autoFilter ref="A1:G70" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:G71" totalsRowCount="1">
+  <autoFilter ref="A1:G70">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -963,23 +974,23 @@
     <sortCondition ref="A1:A70"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Teilnehmer" totalsRowLabel="Ergebnis"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Teilnahmen" totalsRowLabel="x" dataDxfId="18" totalsRowDxfId="0">
+    <tableColumn id="1" name="Teilnehmer" totalsRowLabel="Ergebnis"/>
+    <tableColumn id="7" name="Teilnahmen" totalsRowLabel="x" dataDxfId="18" totalsRowDxfId="0">
       <calculatedColumnFormula>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CCC1" totalsRowFunction="custom" dataDxfId="17">
+    <tableColumn id="2" name="CCC1" totalsRowFunction="custom" dataDxfId="17">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC1],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CCC2" totalsRowFunction="custom" dataDxfId="16">
+    <tableColumn id="3" name="CCC2" totalsRowFunction="custom" dataDxfId="16">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC2],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CCC3" totalsRowFunction="custom" dataDxfId="15">
+    <tableColumn id="4" name="CCC3" totalsRowFunction="custom" dataDxfId="15">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC3],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CCC4" totalsRowFunction="custom" dataDxfId="14">
+    <tableColumn id="5" name="CCC4" totalsRowFunction="custom" dataDxfId="14">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC4],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CCC5" totalsRowFunction="custom" dataDxfId="13">
+    <tableColumn id="6" name="CCC5" totalsRowFunction="custom" dataDxfId="13">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC5],$B71)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -988,26 +999,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:L106" totalsRowShown="0" dataDxfId="12">
-  <autoFilter ref="A1:L106" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:L106" totalsRowShown="0" dataDxfId="12">
+  <autoFilter ref="A1:L106"/>
   <sortState ref="A2:J70">
     <sortCondition ref="A37"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CCC"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spieltag" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Spieler" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Strecke" dataDxfId="9" dataCellStyle="Link"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="3">
+    <tableColumn id="1" name="CCC"/>
+    <tableColumn id="2" name="Spieltag" dataDxfId="11"/>
+    <tableColumn id="3" name="Spieler" dataDxfId="10"/>
+    <tableColumn id="4" name="Strecke" dataDxfId="9" dataCellStyle="Link"/>
+    <tableColumn id="5" name="ZZZ" dataDxfId="8"/>
+    <tableColumn id="6" name="CPs" dataDxfId="7"/>
+    <tableColumn id="7" name="Richtung" dataDxfId="6"/>
+    <tableColumn id="8" name="Rennen" dataDxfId="5"/>
+    <tableColumn id="11" name="Züge p.S." dataDxfId="4"/>
+    <tableColumn id="12" name="Züge Ges." dataDxfId="3">
       <calculatedColumnFormula>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="1"/>
+    <tableColumn id="10" name="Rating" dataDxfId="2"/>
+    <tableColumn id="9" name="Kommentar" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1309,11 +1320,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1564,7 +1575,7 @@
       </c>
       <c r="B13" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1573,7 +1584,7 @@
         <v>45</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>192</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7" hidden="1">
@@ -1592,7 +1603,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" hidden="1">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1608,9 +1619,7 @@
         <v>45</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -1634,7 +1643,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" hidden="1">
       <c r="A17" t="s">
         <v>190</v>
       </c>
@@ -1706,7 +1715,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" hidden="1">
       <c r="A21" t="s">
         <v>189</v>
       </c>
@@ -1718,9 +1727,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
@@ -2126,7 +2133,7 @@
       </c>
       <c r="B44" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>45</v>
@@ -2141,7 +2148,7 @@
         <v>45</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:7" hidden="1">
@@ -2661,7 +2668,7 @@
       </c>
       <c r="G71">
         <f>COUNTIF(Tabelle1[CCC5],$B71)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2674,7 +2681,7 @@
       </c>
       <c r="G72">
         <f>COUNTIF(Tabelle1[CCC5],$B72)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2687,7 +2694,7 @@
       </c>
       <c r="G73">
         <f>COUNTIF(Tabelle1[CCC5],$B73)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2696,11 +2703,11 @@
       </c>
       <c r="F74">
         <f>SUBTOTAL(103,Tabelle1[CCC4])</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G74">
         <f>SUBTOTAL(103,Tabelle1[CCC5])</f>
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2715,24 +2722,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
     <col min="8" max="8" width="10.140625" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
@@ -4839,7 +4847,7 @@
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="1:12" ht="18.75" thickTop="1" thickBot="1">
+    <row r="60" spans="1:12" ht="18.75" collapsed="1" thickTop="1" thickBot="1">
       <c r="A60" s="14" t="s">
         <v>152</v>
       </c>
@@ -4875,7 +4883,7 @@
       <c r="K60" s="14"/>
       <c r="L60" s="14"/>
     </row>
-    <row r="61" spans="1:12" ht="15.75" outlineLevel="1" thickTop="1">
+    <row r="61" spans="1:12" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
       <c r="A61">
         <v>4</v>
       </c>
@@ -4911,7 +4919,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="1:12" outlineLevel="1">
+    <row r="62" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A62">
         <v>4</v>
       </c>
@@ -4947,7 +4955,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="1:12" outlineLevel="1">
+    <row r="63" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A63">
         <v>4</v>
       </c>
@@ -4983,7 +4991,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="1:12" outlineLevel="1">
+    <row r="64" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A64">
         <v>4</v>
       </c>
@@ -5019,7 +5027,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" outlineLevel="1">
+    <row r="65" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A65">
         <v>4</v>
       </c>
@@ -5055,7 +5063,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" outlineLevel="1">
+    <row r="66" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A66">
         <v>4</v>
       </c>
@@ -5091,7 +5099,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" outlineLevel="1">
+    <row r="67" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A67">
         <v>4</v>
       </c>
@@ -5127,7 +5135,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" outlineLevel="1">
+    <row r="68" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A68">
         <v>4</v>
       </c>
@@ -5163,7 +5171,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" outlineLevel="1">
+    <row r="69" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A69">
         <v>4</v>
       </c>
@@ -5199,7 +5207,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" outlineLevel="1">
+    <row r="70" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A70">
         <v>4</v>
       </c>
@@ -5235,7 +5243,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" outlineLevel="1">
+    <row r="71" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A71">
         <v>4</v>
       </c>
@@ -5271,7 +5279,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" outlineLevel="1">
+    <row r="72" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A72">
         <v>4</v>
       </c>
@@ -5307,7 +5315,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" outlineLevel="1">
+    <row r="73" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A73">
         <v>4</v>
       </c>
@@ -5343,7 +5351,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" outlineLevel="1">
+    <row r="74" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A74">
         <v>4</v>
       </c>
@@ -5379,7 +5387,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" outlineLevel="1">
+    <row r="75" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A75">
         <v>4</v>
       </c>
@@ -5415,7 +5423,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" outlineLevel="1">
+    <row r="76" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A76">
         <v>4</v>
       </c>
@@ -5451,7 +5459,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" outlineLevel="1">
+    <row r="77" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A77">
         <v>4</v>
       </c>
@@ -5487,7 +5495,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" outlineLevel="1">
+    <row r="78" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A78">
         <v>4</v>
       </c>
@@ -5523,7 +5531,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" outlineLevel="1">
+    <row r="79" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A79">
         <v>4</v>
       </c>
@@ -5559,7 +5567,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" outlineLevel="1">
+    <row r="80" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A80">
         <v>4</v>
       </c>
@@ -5595,7 +5603,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="18" thickBot="1">
+    <row r="81" spans="1:12" ht="18.75" thickTop="1" thickBot="1">
       <c r="A81" s="14" t="s">
         <v>157</v>
       </c>
@@ -5614,14 +5622,14 @@
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"8") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"9") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"10")</f>
-        <v>3 / 5 / 4 / 11 / 2 / 0 / 0 / 0</v>
+        <v>3 / 7 / 9 / 6 / 0 / 0 / 0 / 0</v>
       </c>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
       <c r="H81" s="14">
-        <f>SUM(H82:H101)</f>
-        <v>705.42857142857144</v>
+        <f>SUM(H82:H106)</f>
+        <v>999</v>
       </c>
       <c r="I81" s="14"/>
       <c r="J81" s="14">
@@ -5639,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D82" s="26" t="s">
         <v>126</v>
@@ -5655,14 +5663,14 @@
       </c>
       <c r="H82" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I82" s="8">
         <v>120</v>
       </c>
       <c r="J82" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="K82" s="26">
         <v>3</v>
@@ -5715,13 +5723,13 @@
         <v>3</v>
       </c>
       <c r="C84" s="26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E84" s="26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F84" s="26" t="s">
         <v>60</v>
@@ -5731,14 +5739,14 @@
       </c>
       <c r="H84" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>25.714285714285715</v>
+        <v>36</v>
       </c>
       <c r="I84" s="8">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="J84" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="K84" s="26">
         <v>3</v>
@@ -5752,31 +5760,31 @@
       <c r="B85" s="20">
         <v>4</v>
       </c>
-      <c r="C85" s="26">
+      <c r="C85" s="29">
         <v>6</v>
       </c>
-      <c r="D85" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="E85" s="26">
-        <v>11</v>
-      </c>
-      <c r="F85" s="26" t="s">
+      <c r="D85" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="E85" s="29">
+        <v>0</v>
+      </c>
+      <c r="F85" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="G85" s="26" t="s">
+      <c r="G85" s="29" t="s">
         <v>61</v>
       </c>
       <c r="H85" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
-      <c r="I85" s="8">
-        <v>110</v>
+      <c r="I85" s="28">
+        <v>100</v>
       </c>
       <c r="J85" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="K85" s="26">
         <v>2</v>
@@ -5791,13 +5799,13 @@
         <v>5</v>
       </c>
       <c r="C86" s="26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E86" s="26">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F86" s="26" t="s">
         <v>60</v>
@@ -5807,14 +5815,14 @@
       </c>
       <c r="H86" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>25.714285714285715</v>
+        <v>30</v>
       </c>
       <c r="I86" s="8">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J86" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="K86" s="26">
         <v>2</v>
@@ -5829,13 +5837,13 @@
         <v>6</v>
       </c>
       <c r="C87" s="26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="E87" s="26">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F87" s="26" t="s">
         <v>60</v>
@@ -5845,10 +5853,10 @@
       </c>
       <c r="H87" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I87" s="8">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="J87" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
@@ -5870,10 +5878,10 @@
         <v>5</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E88" s="26">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F88" s="26" t="s">
         <v>60</v>
@@ -5886,11 +5894,11 @@
         <v>36</v>
       </c>
       <c r="I88" s="8">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="J88" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K88" s="26">
         <v>5</v>
@@ -5905,13 +5913,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E89" s="26">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="F89" s="26" t="s">
         <v>60</v>
@@ -5921,14 +5929,14 @@
       </c>
       <c r="H89" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I89" s="8">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="J89" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K89" s="26">
         <v>3</v>
@@ -5942,31 +5950,31 @@
       <c r="B90" s="20">
         <v>9</v>
       </c>
-      <c r="C90" s="26">
-        <v>4</v>
-      </c>
-      <c r="D90" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="E90" s="26">
-        <v>42</v>
-      </c>
-      <c r="F90" s="26" t="s">
+      <c r="C90" s="29">
+        <v>6</v>
+      </c>
+      <c r="D90" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E90" s="29">
+        <v>17</v>
+      </c>
+      <c r="F90" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="G90" s="26" t="s">
+      <c r="G90" s="29" t="s">
         <v>61</v>
       </c>
       <c r="H90" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>45</v>
-      </c>
-      <c r="I90" s="8">
-        <v>140</v>
+        <v>30</v>
+      </c>
+      <c r="I90" s="28">
+        <v>90</v>
       </c>
       <c r="J90" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="K90" s="26">
         <v>4</v>
@@ -6019,7 +6027,7 @@
         <v>11</v>
       </c>
       <c r="C92" s="26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D92" s="26" t="s">
         <v>169</v>
@@ -6035,14 +6043,14 @@
       </c>
       <c r="H92" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I92" s="8">
         <v>90</v>
       </c>
       <c r="J92" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="K92" s="26">
         <v>3</v>
@@ -6097,7 +6105,7 @@
         <v>13</v>
       </c>
       <c r="C94" s="26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D94" s="26" t="s">
         <v>197</v>
@@ -6113,14 +6121,14 @@
       </c>
       <c r="H94" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I94" s="8">
         <v>70</v>
       </c>
       <c r="J94" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="K94" s="26">
         <v>2</v>
@@ -6401,7 +6409,7 @@
         <v>21</v>
       </c>
       <c r="C102" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D102" s="26" t="s">
         <v>165</v>
@@ -6417,14 +6425,14 @@
       </c>
       <c r="H102" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I102" s="8">
         <v>35</v>
       </c>
       <c r="J102" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="K102" s="26">
         <v>4</v>
@@ -6553,7 +6561,7 @@
         <v>25</v>
       </c>
       <c r="C106" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D106" s="26" t="s">
         <v>172</v>
@@ -6569,57 +6577,67 @@
       </c>
       <c r="H106" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I106" s="8">
         <v>30</v>
       </c>
       <c r="J106" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K106" s="26">
         <v>4</v>
       </c>
       <c r="L106" s="26"/>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="28"/>
+      <c r="J109" s="28"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=92" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=109" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D5" r:id="rId3" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=128" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D6" r:id="rId4" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=157" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D7" r:id="rId5" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=171" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="D8" r:id="rId6" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=38" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D9" r:id="rId7" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=102" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="D10" r:id="rId8" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=143" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D11" r:id="rId9" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=155" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D12" r:id="rId10" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=169" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D13" r:id="rId11" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=17" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="D14" r:id="rId12" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=34" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="D15" r:id="rId13" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=45" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="D16" r:id="rId14" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=52" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="D17" r:id="rId15" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=124" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="D19" r:id="rId16" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=114" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="D20" r:id="rId17" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=135" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="D21" r:id="rId18" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=187" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="D22" r:id="rId19" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=108" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="D23" r:id="rId20" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=116" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="D24" r:id="rId21" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=188" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="D25" r:id="rId22" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=164" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="D26" r:id="rId23" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=33" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="D27" r:id="rId24" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=174" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="D28" r:id="rId25" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=111" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="D29" r:id="rId26" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=190" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="D30" r:id="rId27" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=83" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="D31" r:id="rId28" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=181" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="D32" r:id="rId29" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=191" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="D33" r:id="rId30" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=127" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="D34" r:id="rId31" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=154" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="D35" r:id="rId32" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=123" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="D36" r:id="rId33" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=138" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="D37" r:id="rId34" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=94" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="D38" r:id="rId35" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=182" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=92"/>
+    <hyperlink ref="D4" r:id="rId2" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=109"/>
+    <hyperlink ref="D5" r:id="rId3" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=128"/>
+    <hyperlink ref="D6" r:id="rId4" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=157"/>
+    <hyperlink ref="D7" r:id="rId5" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=171"/>
+    <hyperlink ref="D8" r:id="rId6" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=38"/>
+    <hyperlink ref="D9" r:id="rId7" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=102"/>
+    <hyperlink ref="D10" r:id="rId8" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=143"/>
+    <hyperlink ref="D11" r:id="rId9" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=155"/>
+    <hyperlink ref="D12" r:id="rId10" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=169"/>
+    <hyperlink ref="D13" r:id="rId11" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=17"/>
+    <hyperlink ref="D14" r:id="rId12" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=34"/>
+    <hyperlink ref="D15" r:id="rId13" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=45"/>
+    <hyperlink ref="D16" r:id="rId14" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=52"/>
+    <hyperlink ref="D17" r:id="rId15" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=124"/>
+    <hyperlink ref="D19" r:id="rId16" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=114"/>
+    <hyperlink ref="D20" r:id="rId17" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=135"/>
+    <hyperlink ref="D21" r:id="rId18" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=187"/>
+    <hyperlink ref="D22" r:id="rId19" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=108"/>
+    <hyperlink ref="D23" r:id="rId20" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=116"/>
+    <hyperlink ref="D24" r:id="rId21" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=188"/>
+    <hyperlink ref="D25" r:id="rId22" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=164"/>
+    <hyperlink ref="D26" r:id="rId23" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=33"/>
+    <hyperlink ref="D27" r:id="rId24" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=174"/>
+    <hyperlink ref="D28" r:id="rId25" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=111"/>
+    <hyperlink ref="D29" r:id="rId26" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=190"/>
+    <hyperlink ref="D30" r:id="rId27" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=83"/>
+    <hyperlink ref="D31" r:id="rId28" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=181"/>
+    <hyperlink ref="D32" r:id="rId29" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=191"/>
+    <hyperlink ref="D33" r:id="rId30" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=127"/>
+    <hyperlink ref="D34" r:id="rId31" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=154"/>
+    <hyperlink ref="D35" r:id="rId32" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=123"/>
+    <hyperlink ref="D36" r:id="rId33" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=138"/>
+    <hyperlink ref="D37" r:id="rId34" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=94"/>
+    <hyperlink ref="D38" r:id="rId35" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=182"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId36"/>
@@ -6630,7 +6648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK44"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -13159,7 +13177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/CraZZZy Crash Challenge/CCC-Daten.xlsx
+++ b/CraZZZy Crash Challenge/CCC-Daten.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fixc2i2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Private\JVerkin\projects\KaroToolsCollection\CraZZZy Crash Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD25047F-6B93-49A2-9580-B4A45A0E9C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teilnehmer" sheetId="1" r:id="rId1"/>
     <sheet name="Strecken" sheetId="2" r:id="rId2"/>
     <sheet name="Rennanzahl" sheetId="4" r:id="rId3"/>
     <sheet name="Tabelle1" sheetId="5" r:id="rId4"/>
+    <sheet name="Clustering" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,6 +27,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,12 +38,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author xml:space="preserve">Julian Verkin </author>
   </authors>
   <commentList>
-    <comment ref="E57" authorId="0" shapeId="0">
+    <comment ref="E57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="228">
   <si>
     <t>Teilnehmer</t>
   </si>
@@ -658,16 +664,97 @@
   </si>
   <si>
     <t>Spieler pro Rennen</t>
+  </si>
+  <si>
+    <t>CCCWT</t>
+  </si>
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>Punkte für die Züge</t>
+  </si>
+  <si>
+    <t>Punkte für die Crashs</t>
+  </si>
+  <si>
+    <t>Züge</t>
+  </si>
+  <si>
+    <t>Crashs</t>
+  </si>
+  <si>
+    <t>Spieler 10</t>
+  </si>
+  <si>
+    <t>Spieler 11</t>
+  </si>
+  <si>
+    <t>Spieler 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Klassisch (Z)</t>
+  </si>
+  <si>
+    <t>Geclustert (Z)</t>
+  </si>
+  <si>
+    <t>Geclustert (CR)</t>
+  </si>
+  <si>
+    <t>Klassisch (CR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Gesamt Geclustert</t>
+  </si>
+  <si>
+    <t>Gesamt Klassisch</t>
+  </si>
+  <si>
+    <t>Spieler 01</t>
+  </si>
+  <si>
+    <t>Spieler 02</t>
+  </si>
+  <si>
+    <t>Spieler 03</t>
+  </si>
+  <si>
+    <t>Spieler 04</t>
+  </si>
+  <si>
+    <t>Spieler 05</t>
+  </si>
+  <si>
+    <t>Spieler 09</t>
+  </si>
+  <si>
+    <t>Spieler 08</t>
+  </si>
+  <si>
+    <t>Spieler 07</t>
+  </si>
+  <si>
+    <t>Spieler 06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;ca. &quot;\ 0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,8 +824,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,8 +846,38 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -780,13 +905,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -858,20 +1027,101 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Überschrift 2" xfId="2" builtinId="17"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="32">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -962,35 +1212,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:G71" totalsRowCount="1">
-  <autoFilter ref="A1:G70">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A2:G70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:G71" totalsRowCount="1">
+  <autoFilter ref="A1:G70" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G70">
     <sortCondition ref="A1:A70"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Teilnehmer" totalsRowLabel="Ergebnis"/>
-    <tableColumn id="7" name="Teilnahmen" totalsRowLabel="x" dataDxfId="18" totalsRowDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Teilnehmer" totalsRowLabel="Ergebnis"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Teilnahmen" totalsRowLabel="x" dataDxfId="31" totalsRowDxfId="13">
       <calculatedColumnFormula>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="CCC1" totalsRowFunction="custom" dataDxfId="17">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CCC1" totalsRowFunction="custom" dataDxfId="30">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC1],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="CCC2" totalsRowFunction="custom" dataDxfId="16">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CCC2" totalsRowFunction="custom" dataDxfId="29">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC2],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="CCC3" totalsRowFunction="custom" dataDxfId="15">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CCC3" totalsRowFunction="custom" dataDxfId="28">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC3],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="CCC4" totalsRowFunction="custom" dataDxfId="14">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CCC4" totalsRowFunction="custom" dataDxfId="27">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC4],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="CCC5" totalsRowFunction="custom" dataDxfId="13">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CCC5" totalsRowFunction="custom" dataDxfId="26">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC5],$B71)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -999,28 +1243,56 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:L106" totalsRowShown="0" dataDxfId="12">
-  <autoFilter ref="A1:L106"/>
-  <sortState ref="A2:J70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:L132" totalsRowShown="0" dataDxfId="25">
+  <autoFilter ref="A1:L132" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J70">
     <sortCondition ref="A37"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="CCC"/>
-    <tableColumn id="2" name="Spieltag" dataDxfId="11"/>
-    <tableColumn id="3" name="Spieler" dataDxfId="10"/>
-    <tableColumn id="4" name="Strecke" dataDxfId="9" dataCellStyle="Link"/>
-    <tableColumn id="5" name="ZZZ" dataDxfId="8"/>
-    <tableColumn id="6" name="CPs" dataDxfId="7"/>
-    <tableColumn id="7" name="Richtung" dataDxfId="6"/>
-    <tableColumn id="8" name="Rennen" dataDxfId="5"/>
-    <tableColumn id="11" name="Züge p.S." dataDxfId="4"/>
-    <tableColumn id="12" name="Züge Ges." dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CCC"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spieltag" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Spieler" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Strecke" dataDxfId="22" dataCellStyle="Link"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="16">
       <calculatedColumnFormula>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Rating" dataDxfId="2"/>
-    <tableColumn id="9" name="Kommentar" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD48A89C-AF8A-4D74-BEE3-973381D8E39E}" name="Tabelle2" displayName="Tabelle2" ref="A2:L14" totalsRowShown="0" dataDxfId="2">
+  <autoFilter ref="A2:L14" xr:uid="{FD48A89C-AF8A-4D74-BEE3-973381D8E39E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L14">
+    <sortCondition descending="1" ref="L2:L14"/>
+  </sortState>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{06B18662-5B32-42F6-85CF-17D8C9DC7BDF}" name="Spieler" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{183E08E8-D5AA-4DF3-942F-C23480690953}" name=" " dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{37A147A2-6A27-443D-8799-F71527EF7750}" name="Züge" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{31696DC1-5E37-430E-8871-0BCFCD170B2E}" name="Klassisch (Z)" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{BC263A88-D39F-446D-BF5C-F85521658DA8}" name="Geclustert (Z)" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{093A8095-9008-4D88-88F6-250A19675DD8}" name="  " dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{879335B0-290D-43FA-A6FE-E6B6F53D9440}" name="Crashs" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{78D21676-2217-4EF4-A197-F19C7A84C471}" name="Klassisch (CR)" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{BB0FE7C7-52D6-4A76-8688-1B73AD062B37}" name="Geclustert (CR)" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{2E578574-BF4A-4EFE-BF15-F379C953D82E}" name="   " dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{D08C11A1-CC23-4F54-8A65-A4D420BAED58}" name="Gesamt Klassisch" dataDxfId="1">
+      <calculatedColumnFormula>Tabelle2[[#This Row],[Klassisch (Z)]]*Tabelle2[[#This Row],[Klassisch (CR)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{C8F6816D-C153-497A-A2CC-4183AA81D2EF}" name="Gesamt Geclustert" dataDxfId="0">
+      <calculatedColumnFormula>Tabelle2[[#This Row],[Geclustert (Z)]]*Tabelle2[[#This Row],[Geclustert (CR)]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1320,11 +1592,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1383,7 +1655,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1443,7 +1715,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1459,7 +1731,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" hidden="1">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1475,7 +1747,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" hidden="1">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1515,7 +1787,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>176</v>
       </c>
@@ -1549,7 +1821,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1587,7 +1859,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -1603,7 +1875,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" hidden="1">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1643,7 +1915,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>190</v>
       </c>
@@ -1697,7 +1969,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1715,7 +1987,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" hidden="1">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>189</v>
       </c>
@@ -1749,7 +2021,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1801,7 +2073,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1817,7 +2089,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" hidden="1">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1833,7 +2105,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" hidden="1">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1871,7 +2143,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1887,7 +2159,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" hidden="1">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1905,7 +2177,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" hidden="1">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -2001,7 +2273,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -2019,7 +2291,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" hidden="1">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -2061,7 +2333,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -2077,7 +2349,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" hidden="1">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2095,7 +2367,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" hidden="1">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -2151,7 +2423,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2167,7 +2439,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" hidden="1">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -2185,7 +2457,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" hidden="1">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>177</v>
       </c>
@@ -2201,7 +2473,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" hidden="1">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2219,7 +2491,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" hidden="1">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -2237,7 +2509,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" hidden="1">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -2301,7 +2573,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -2319,7 +2591,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" hidden="1">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -2335,7 +2607,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" hidden="1">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2353,7 +2625,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" hidden="1">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -2371,7 +2643,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" hidden="1">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -2451,7 +2723,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -2467,7 +2739,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" hidden="1">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2485,7 +2757,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" hidden="1">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -2501,7 +2773,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" hidden="1">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>52</v>
       </c>
@@ -2583,7 +2855,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -2701,9 +2973,21 @@
       <c r="B74" s="22" t="s">
         <v>193</v>
       </c>
+      <c r="C74">
+        <f>SUBTOTAL(103,Tabelle1[CCC1])</f>
+        <v>42</v>
+      </c>
+      <c r="D74">
+        <f>SUBTOTAL(103,Tabelle1[CCC2])</f>
+        <v>30</v>
+      </c>
+      <c r="E74">
+        <f>SUBTOTAL(103,Tabelle1[CCC3])</f>
+        <v>29</v>
+      </c>
       <c r="F74">
         <f>SUBTOTAL(103,Tabelle1[CCC4])</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G74">
         <f>SUBTOTAL(103,Tabelle1[CCC5])</f>
@@ -2722,26 +3006,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L109"/>
+  <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" customWidth="1"/>
@@ -5603,7 +5887,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="18.75" thickTop="1" thickBot="1">
+    <row r="81" spans="1:12" ht="18.75" collapsed="1" thickTop="1" thickBot="1">
       <c r="A81" s="14" t="s">
         <v>157</v>
       </c>
@@ -5639,7 +5923,7 @@
       <c r="K81" s="14"/>
       <c r="L81" s="14"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" outlineLevel="1" thickTop="1">
+    <row r="82" spans="1:12" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
       <c r="A82">
         <v>5</v>
       </c>
@@ -5677,7 +5961,7 @@
       </c>
       <c r="L82" s="26"/>
     </row>
-    <row r="83" spans="1:12" outlineLevel="1">
+    <row r="83" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A83">
         <v>5</v>
       </c>
@@ -5715,7 +5999,7 @@
       </c>
       <c r="L83" s="26"/>
     </row>
-    <row r="84" spans="1:12" outlineLevel="1">
+    <row r="84" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A84">
         <v>5</v>
       </c>
@@ -5753,33 +6037,33 @@
       </c>
       <c r="L84" s="26"/>
     </row>
-    <row r="85" spans="1:12" outlineLevel="1">
+    <row r="85" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A85">
         <v>5</v>
       </c>
       <c r="B85" s="20">
         <v>4</v>
       </c>
-      <c r="C85" s="29">
+      <c r="C85" s="28">
         <v>6</v>
       </c>
-      <c r="D85" s="29" t="s">
+      <c r="D85" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="E85" s="29">
-        <v>0</v>
-      </c>
-      <c r="F85" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G85" s="29" t="s">
+      <c r="E85" s="28">
+        <v>0</v>
+      </c>
+      <c r="F85" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G85" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H85" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
-      <c r="I85" s="28">
+      <c r="I85" s="27">
         <v>100</v>
       </c>
       <c r="J85" s="8">
@@ -5791,7 +6075,7 @@
       </c>
       <c r="L85" s="26"/>
     </row>
-    <row r="86" spans="1:12" outlineLevel="1">
+    <row r="86" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A86">
         <v>5</v>
       </c>
@@ -5829,7 +6113,7 @@
       </c>
       <c r="L86" s="26"/>
     </row>
-    <row r="87" spans="1:12" outlineLevel="1">
+    <row r="87" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A87">
         <v>5</v>
       </c>
@@ -5867,7 +6151,7 @@
       </c>
       <c r="L87" s="26"/>
     </row>
-    <row r="88" spans="1:12" outlineLevel="1">
+    <row r="88" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A88">
         <v>5</v>
       </c>
@@ -5905,7 +6189,7 @@
       </c>
       <c r="L88" s="26"/>
     </row>
-    <row r="89" spans="1:12" outlineLevel="1">
+    <row r="89" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A89">
         <v>5</v>
       </c>
@@ -5943,33 +6227,33 @@
       </c>
       <c r="L89" s="26"/>
     </row>
-    <row r="90" spans="1:12" outlineLevel="1">
+    <row r="90" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A90">
         <v>5</v>
       </c>
       <c r="B90" s="20">
         <v>9</v>
       </c>
-      <c r="C90" s="29">
+      <c r="C90" s="28">
         <v>6</v>
       </c>
-      <c r="D90" s="29" t="s">
+      <c r="D90" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="E90" s="29">
+      <c r="E90" s="28">
         <v>17</v>
       </c>
-      <c r="F90" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G90" s="29" t="s">
+      <c r="F90" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G90" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H90" s="3">
         <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
-      <c r="I90" s="28">
+      <c r="I90" s="27">
         <v>90</v>
       </c>
       <c r="J90" s="8">
@@ -5981,7 +6265,7 @@
       </c>
       <c r="L90" s="26"/>
     </row>
-    <row r="91" spans="1:12" outlineLevel="1">
+    <row r="91" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A91">
         <v>5</v>
       </c>
@@ -6019,7 +6303,7 @@
       </c>
       <c r="L91" s="26"/>
     </row>
-    <row r="92" spans="1:12" outlineLevel="1">
+    <row r="92" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A92">
         <v>5</v>
       </c>
@@ -6057,7 +6341,7 @@
       </c>
       <c r="L92" s="26"/>
     </row>
-    <row r="93" spans="1:12" outlineLevel="1">
+    <row r="93" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A93">
         <v>5</v>
       </c>
@@ -6097,7 +6381,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:12" outlineLevel="1">
+    <row r="94" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A94">
         <v>5</v>
       </c>
@@ -6135,7 +6419,7 @@
       </c>
       <c r="L94" s="26"/>
     </row>
-    <row r="95" spans="1:12" outlineLevel="1">
+    <row r="95" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A95">
         <v>5</v>
       </c>
@@ -6173,7 +6457,7 @@
       </c>
       <c r="L95" s="26"/>
     </row>
-    <row r="96" spans="1:12" outlineLevel="1">
+    <row r="96" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A96">
         <v>5</v>
       </c>
@@ -6211,7 +6495,7 @@
       </c>
       <c r="L96" s="26"/>
     </row>
-    <row r="97" spans="1:12" outlineLevel="1">
+    <row r="97" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A97">
         <v>5</v>
       </c>
@@ -6249,7 +6533,7 @@
       </c>
       <c r="L97" s="26"/>
     </row>
-    <row r="98" spans="1:12" outlineLevel="1">
+    <row r="98" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A98">
         <v>5</v>
       </c>
@@ -6287,7 +6571,7 @@
       </c>
       <c r="L98" s="26"/>
     </row>
-    <row r="99" spans="1:12" outlineLevel="1">
+    <row r="99" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A99">
         <v>5</v>
       </c>
@@ -6325,7 +6609,7 @@
       </c>
       <c r="L99" s="26"/>
     </row>
-    <row r="100" spans="1:12" outlineLevel="1">
+    <row r="100" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A100">
         <v>5</v>
       </c>
@@ -6363,7 +6647,7 @@
       </c>
       <c r="L100" s="26"/>
     </row>
-    <row r="101" spans="1:12" outlineLevel="1">
+    <row r="101" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A101">
         <v>5</v>
       </c>
@@ -6401,7 +6685,7 @@
       </c>
       <c r="L101" s="26"/>
     </row>
-    <row r="102" spans="1:12" outlineLevel="1">
+    <row r="102" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A102">
         <v>5</v>
       </c>
@@ -6439,7 +6723,7 @@
       </c>
       <c r="L102" s="26"/>
     </row>
-    <row r="103" spans="1:12" outlineLevel="1">
+    <row r="103" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A103">
         <v>5</v>
       </c>
@@ -6477,7 +6761,7 @@
       </c>
       <c r="L103" s="26"/>
     </row>
-    <row r="104" spans="1:12" outlineLevel="1">
+    <row r="104" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A104">
         <v>5</v>
       </c>
@@ -6515,7 +6799,7 @@
       </c>
       <c r="L104" s="26"/>
     </row>
-    <row r="105" spans="1:12" outlineLevel="1">
+    <row r="105" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A105">
         <v>5</v>
       </c>
@@ -6553,7 +6837,7 @@
       </c>
       <c r="L105" s="26"/>
     </row>
-    <row r="106" spans="1:12" outlineLevel="1">
+    <row r="106" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A106">
         <v>5</v>
       </c>
@@ -6591,53 +6875,1031 @@
       </c>
       <c r="L106" s="26"/>
     </row>
-    <row r="109" spans="1:12">
-      <c r="C109" s="29"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="28"/>
-      <c r="J109" s="28"/>
+    <row r="107" spans="1:12" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A107" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B107" s="14">
+        <v>25</v>
+      </c>
+      <c r="C107" s="15">
+        <v>30</v>
+      </c>
+      <c r="D107" s="14" t="str">
+        <f ca="1">COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"3") &amp; " / "
+&amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"4") &amp; " / "
+&amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"5") &amp; " / "
+&amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"6") &amp; " / "
+&amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"7") &amp; " / "
+&amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"8") &amp; " / "
+&amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"9") &amp; " / "
+&amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"10")</f>
+        <v>3 / 7 / 9 / 6 / 0 / 0 / 0 / 0</v>
+      </c>
+      <c r="E107" s="17"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15">
+        <f>SUM(H108:H132)</f>
+        <v>999</v>
+      </c>
+      <c r="I107" s="18"/>
+      <c r="J107" s="19">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>0</v>
+      </c>
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
+    </row>
+    <row r="108" spans="1:12" ht="15.75" outlineLevel="1" thickTop="1">
+      <c r="A108" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B108" s="10">
+        <v>1</v>
+      </c>
+      <c r="C108" s="29">
+        <v>5</v>
+      </c>
+      <c r="D108" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E108" s="31">
+        <v>13</v>
+      </c>
+      <c r="F108" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G108" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H108" s="3">
+        <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>36</v>
+      </c>
+      <c r="I108" s="8">
+        <v>120</v>
+      </c>
+      <c r="J108" s="33">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>600</v>
+      </c>
+      <c r="K108" s="29">
+        <v>3</v>
+      </c>
+      <c r="L108" s="29"/>
+    </row>
+    <row r="109" spans="1:12" outlineLevel="1">
+      <c r="A109" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B109" s="10">
+        <v>2</v>
+      </c>
+      <c r="C109" s="29">
+        <v>5</v>
+      </c>
+      <c r="D109" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E109" s="31">
+        <v>1</v>
+      </c>
+      <c r="F109" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G109" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H109" s="3">
+        <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>36</v>
+      </c>
+      <c r="I109" s="8">
+        <v>140</v>
+      </c>
+      <c r="J109" s="33">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>700</v>
+      </c>
+      <c r="K109" s="29">
+        <v>4</v>
+      </c>
+      <c r="L109" s="29"/>
+    </row>
+    <row r="110" spans="1:12" outlineLevel="1">
+      <c r="A110" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B110" s="10">
+        <v>3</v>
+      </c>
+      <c r="C110" s="29">
+        <v>5</v>
+      </c>
+      <c r="D110" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E110" s="31">
+        <v>11</v>
+      </c>
+      <c r="F110" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G110" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H110" s="3">
+        <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>36</v>
+      </c>
+      <c r="I110" s="8">
+        <v>110</v>
+      </c>
+      <c r="J110" s="33">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>550</v>
+      </c>
+      <c r="K110" s="29">
+        <v>3</v>
+      </c>
+      <c r="L110" s="29"/>
+    </row>
+    <row r="111" spans="1:12" outlineLevel="1">
+      <c r="A111" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B111" s="10">
+        <v>4</v>
+      </c>
+      <c r="C111" s="30">
+        <v>6</v>
+      </c>
+      <c r="D111" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E111" s="32">
+        <v>0</v>
+      </c>
+      <c r="F111" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G111" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H111" s="3">
+        <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>30</v>
+      </c>
+      <c r="I111" s="27">
+        <v>100</v>
+      </c>
+      <c r="J111" s="33">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>600</v>
+      </c>
+      <c r="K111" s="29">
+        <v>2</v>
+      </c>
+      <c r="L111" s="29"/>
+    </row>
+    <row r="112" spans="1:12" outlineLevel="1">
+      <c r="A112" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B112" s="10">
+        <v>5</v>
+      </c>
+      <c r="C112" s="29">
+        <v>6</v>
+      </c>
+      <c r="D112" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E112" s="31">
+        <v>15</v>
+      </c>
+      <c r="F112" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G112" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H112" s="3">
+        <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>30</v>
+      </c>
+      <c r="I112" s="8">
+        <v>100</v>
+      </c>
+      <c r="J112" s="33">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>600</v>
+      </c>
+      <c r="K112" s="29">
+        <v>2</v>
+      </c>
+      <c r="L112" s="29"/>
+    </row>
+    <row r="113" spans="1:12" outlineLevel="1">
+      <c r="A113" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B113" s="10">
+        <v>6</v>
+      </c>
+      <c r="C113" s="29">
+        <v>5</v>
+      </c>
+      <c r="D113" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E113" s="31">
+        <v>27</v>
+      </c>
+      <c r="F113" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G113" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H113" s="3">
+        <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>36</v>
+      </c>
+      <c r="I113" s="8">
+        <v>120</v>
+      </c>
+      <c r="J113" s="33">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>600</v>
+      </c>
+      <c r="K113" s="29">
+        <v>3</v>
+      </c>
+      <c r="L113" s="29"/>
+    </row>
+    <row r="114" spans="1:12" outlineLevel="1">
+      <c r="A114" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B114" s="10">
+        <v>7</v>
+      </c>
+      <c r="C114" s="29">
+        <v>5</v>
+      </c>
+      <c r="D114" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E114" s="31">
+        <v>1</v>
+      </c>
+      <c r="F114" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G114" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H114" s="3">
+        <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>36</v>
+      </c>
+      <c r="I114" s="8">
+        <v>100</v>
+      </c>
+      <c r="J114" s="33">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>500</v>
+      </c>
+      <c r="K114" s="29">
+        <v>5</v>
+      </c>
+      <c r="L114" s="29"/>
+    </row>
+    <row r="115" spans="1:12" outlineLevel="1">
+      <c r="A115" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B115" s="10">
+        <v>8</v>
+      </c>
+      <c r="C115" s="29">
+        <v>4</v>
+      </c>
+      <c r="D115" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E115" s="31">
+        <v>42</v>
+      </c>
+      <c r="F115" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G115" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H115" s="3">
+        <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>45</v>
+      </c>
+      <c r="I115" s="8">
+        <v>140</v>
+      </c>
+      <c r="J115" s="33">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>560</v>
+      </c>
+      <c r="K115" s="29">
+        <v>3</v>
+      </c>
+      <c r="L115" s="29"/>
+    </row>
+    <row r="116" spans="1:12" outlineLevel="1">
+      <c r="A116" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B116" s="10">
+        <v>9</v>
+      </c>
+      <c r="C116" s="30">
+        <v>6</v>
+      </c>
+      <c r="D116" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E116" s="32">
+        <v>17</v>
+      </c>
+      <c r="F116" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G116" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H116" s="3">
+        <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>30</v>
+      </c>
+      <c r="I116" s="27">
+        <v>90</v>
+      </c>
+      <c r="J116" s="33">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>540</v>
+      </c>
+      <c r="K116" s="29">
+        <v>4</v>
+      </c>
+      <c r="L116" s="29"/>
+    </row>
+    <row r="117" spans="1:12" outlineLevel="1">
+      <c r="A117" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B117" s="10">
+        <v>10</v>
+      </c>
+      <c r="C117" s="29">
+        <v>4</v>
+      </c>
+      <c r="D117" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E117" s="31">
+        <v>4</v>
+      </c>
+      <c r="F117" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G117" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H117" s="3">
+        <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>45</v>
+      </c>
+      <c r="I117" s="8">
+        <v>135</v>
+      </c>
+      <c r="J117" s="33">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>540</v>
+      </c>
+      <c r="K117" s="29">
+        <v>5</v>
+      </c>
+      <c r="L117" s="29"/>
+    </row>
+    <row r="118" spans="1:12" outlineLevel="1">
+      <c r="A118" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B118" s="10">
+        <v>11</v>
+      </c>
+      <c r="C118" s="29">
+        <v>5</v>
+      </c>
+      <c r="D118" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E118" s="31">
+        <v>11</v>
+      </c>
+      <c r="F118" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G118" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H118" s="3">
+        <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>36</v>
+      </c>
+      <c r="I118" s="8">
+        <v>90</v>
+      </c>
+      <c r="J118" s="33">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>450</v>
+      </c>
+      <c r="K118" s="29">
+        <v>3</v>
+      </c>
+      <c r="L118" s="29"/>
+    </row>
+    <row r="119" spans="1:12" outlineLevel="1">
+      <c r="A119" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B119" s="10">
+        <v>12</v>
+      </c>
+      <c r="C119" s="29">
+        <v>4</v>
+      </c>
+      <c r="D119" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E119" s="31">
+        <v>1</v>
+      </c>
+      <c r="F119" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G119" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H119" s="3">
+        <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>45</v>
+      </c>
+      <c r="I119" s="8">
+        <v>115</v>
+      </c>
+      <c r="J119" s="33">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>460</v>
+      </c>
+      <c r="K119" s="29">
+        <v>3</v>
+      </c>
+      <c r="L119" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" outlineLevel="1">
+      <c r="A120" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B120" s="10">
+        <v>13</v>
+      </c>
+      <c r="C120" s="29">
+        <v>5</v>
+      </c>
+      <c r="D120" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E120" s="31">
+        <v>10</v>
+      </c>
+      <c r="F120" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G120" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H120" s="3">
+        <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>36</v>
+      </c>
+      <c r="I120" s="8">
+        <v>70</v>
+      </c>
+      <c r="J120" s="33">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>350</v>
+      </c>
+      <c r="K120" s="29">
+        <v>2</v>
+      </c>
+      <c r="L120" s="29"/>
+    </row>
+    <row r="121" spans="1:12" outlineLevel="1">
+      <c r="A121" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B121" s="10">
+        <v>14</v>
+      </c>
+      <c r="C121" s="29">
+        <v>6</v>
+      </c>
+      <c r="D121" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E121" s="31">
+        <v>5</v>
+      </c>
+      <c r="F121" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G121" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H121" s="3">
+        <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>30</v>
+      </c>
+      <c r="I121" s="8">
+        <v>60</v>
+      </c>
+      <c r="J121" s="33">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>360</v>
+      </c>
+      <c r="K121" s="29">
+        <v>1</v>
+      </c>
+      <c r="L121" s="29"/>
+    </row>
+    <row r="122" spans="1:12" outlineLevel="1">
+      <c r="A122" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B122" s="10">
+        <v>15</v>
+      </c>
+      <c r="C122" s="29">
+        <v>4</v>
+      </c>
+      <c r="D122" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E122" s="31">
+        <v>13</v>
+      </c>
+      <c r="F122" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G122" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H122" s="3">
+        <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>45</v>
+      </c>
+      <c r="I122" s="8">
+        <v>90</v>
+      </c>
+      <c r="J122" s="33">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>360</v>
+      </c>
+      <c r="K122" s="29">
+        <v>4</v>
+      </c>
+      <c r="L122" s="29"/>
+    </row>
+    <row r="123" spans="1:12" outlineLevel="1">
+      <c r="A123" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B123" s="10">
+        <v>16</v>
+      </c>
+      <c r="C123" s="29">
+        <v>6</v>
+      </c>
+      <c r="D123" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E123" s="31">
+        <v>7</v>
+      </c>
+      <c r="F123" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G123" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H123" s="3">
+        <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>30</v>
+      </c>
+      <c r="I123" s="8">
+        <v>50</v>
+      </c>
+      <c r="J123" s="33">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>300</v>
+      </c>
+      <c r="K123" s="29">
+        <v>4</v>
+      </c>
+      <c r="L123" s="29"/>
+    </row>
+    <row r="124" spans="1:12" outlineLevel="1">
+      <c r="A124" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B124" s="10">
+        <v>17</v>
+      </c>
+      <c r="C124" s="29">
+        <v>5</v>
+      </c>
+      <c r="D124" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E124" s="31">
+        <v>9</v>
+      </c>
+      <c r="F124" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G124" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H124" s="3">
+        <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>36</v>
+      </c>
+      <c r="I124" s="8">
+        <v>55</v>
+      </c>
+      <c r="J124" s="33">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>275</v>
+      </c>
+      <c r="K124" s="29">
+        <v>5</v>
+      </c>
+      <c r="L124" s="29"/>
+    </row>
+    <row r="125" spans="1:12" outlineLevel="1">
+      <c r="A125" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B125" s="10">
+        <v>18</v>
+      </c>
+      <c r="C125" s="29">
+        <v>6</v>
+      </c>
+      <c r="D125" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E125" s="31">
+        <v>6</v>
+      </c>
+      <c r="F125" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G125" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H125" s="3">
+        <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>30</v>
+      </c>
+      <c r="I125" s="8">
+        <v>45</v>
+      </c>
+      <c r="J125" s="33">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>270</v>
+      </c>
+      <c r="K125" s="29">
+        <v>2</v>
+      </c>
+      <c r="L125" s="29"/>
+    </row>
+    <row r="126" spans="1:12" outlineLevel="1">
+      <c r="A126" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B126" s="10">
+        <v>19</v>
+      </c>
+      <c r="C126" s="29">
+        <v>5</v>
+      </c>
+      <c r="D126" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E126" s="31">
+        <v>1</v>
+      </c>
+      <c r="F126" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G126" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H126" s="3">
+        <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>36</v>
+      </c>
+      <c r="I126" s="8">
+        <v>50</v>
+      </c>
+      <c r="J126" s="33">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>250</v>
+      </c>
+      <c r="K126" s="29">
+        <v>3</v>
+      </c>
+      <c r="L126" s="29"/>
+    </row>
+    <row r="127" spans="1:12" outlineLevel="1">
+      <c r="A127" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B127" s="10">
+        <v>20</v>
+      </c>
+      <c r="C127" s="29">
+        <v>3</v>
+      </c>
+      <c r="D127" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E127" s="31">
+        <v>5</v>
+      </c>
+      <c r="F127" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G127" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H127" s="3">
+        <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>60</v>
+      </c>
+      <c r="I127" s="8">
+        <v>75</v>
+      </c>
+      <c r="J127" s="33">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>225</v>
+      </c>
+      <c r="K127" s="29">
+        <v>4</v>
+      </c>
+      <c r="L127" s="29"/>
+    </row>
+    <row r="128" spans="1:12" outlineLevel="1">
+      <c r="A128" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B128" s="10">
+        <v>21</v>
+      </c>
+      <c r="C128" s="29">
+        <v>4</v>
+      </c>
+      <c r="D128" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E128" s="31">
+        <v>2</v>
+      </c>
+      <c r="F128" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G128" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H128" s="3">
+        <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>45</v>
+      </c>
+      <c r="I128" s="8">
+        <v>35</v>
+      </c>
+      <c r="J128" s="33">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>140</v>
+      </c>
+      <c r="K128" s="29">
+        <v>4</v>
+      </c>
+      <c r="L128" s="29"/>
+    </row>
+    <row r="129" spans="1:12" outlineLevel="1">
+      <c r="A129" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B129" s="10">
+        <v>22</v>
+      </c>
+      <c r="C129" s="29">
+        <v>3</v>
+      </c>
+      <c r="D129" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E129" s="31">
+        <v>6</v>
+      </c>
+      <c r="F129" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G129" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H129" s="3">
+        <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>60</v>
+      </c>
+      <c r="I129" s="8">
+        <v>50</v>
+      </c>
+      <c r="J129" s="33">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>150</v>
+      </c>
+      <c r="K129" s="29">
+        <v>5</v>
+      </c>
+      <c r="L129" s="29"/>
+    </row>
+    <row r="130" spans="1:12" outlineLevel="1">
+      <c r="A130" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B130" s="10">
+        <v>23</v>
+      </c>
+      <c r="C130" s="29">
+        <v>4</v>
+      </c>
+      <c r="D130" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E130" s="31">
+        <v>6</v>
+      </c>
+      <c r="F130" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G130" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H130" s="3">
+        <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>45</v>
+      </c>
+      <c r="I130" s="8">
+        <v>30</v>
+      </c>
+      <c r="J130" s="33">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>120</v>
+      </c>
+      <c r="K130" s="29">
+        <v>3</v>
+      </c>
+      <c r="L130" s="29"/>
+    </row>
+    <row r="131" spans="1:12" outlineLevel="1">
+      <c r="A131" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B131" s="10">
+        <v>24</v>
+      </c>
+      <c r="C131" s="29">
+        <v>3</v>
+      </c>
+      <c r="D131" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E131" s="31">
+        <v>7</v>
+      </c>
+      <c r="F131" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G131" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H131" s="3">
+        <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>60</v>
+      </c>
+      <c r="I131" s="8">
+        <v>35</v>
+      </c>
+      <c r="J131" s="33">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>105</v>
+      </c>
+      <c r="K131" s="29">
+        <v>2</v>
+      </c>
+      <c r="L131" s="29"/>
+    </row>
+    <row r="132" spans="1:12" outlineLevel="1">
+      <c r="A132" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B132" s="10">
+        <v>25</v>
+      </c>
+      <c r="C132" s="29">
+        <v>4</v>
+      </c>
+      <c r="D132" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E132" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="F132" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G132" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H132" s="3">
+        <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>45</v>
+      </c>
+      <c r="I132" s="8">
+        <v>30</v>
+      </c>
+      <c r="J132" s="33">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
+        <v>120</v>
+      </c>
+      <c r="K132" s="29">
+        <v>4</v>
+      </c>
+      <c r="L132" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=92"/>
-    <hyperlink ref="D4" r:id="rId2" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=109"/>
-    <hyperlink ref="D5" r:id="rId3" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=128"/>
-    <hyperlink ref="D6" r:id="rId4" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=157"/>
-    <hyperlink ref="D7" r:id="rId5" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=171"/>
-    <hyperlink ref="D8" r:id="rId6" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=38"/>
-    <hyperlink ref="D9" r:id="rId7" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=102"/>
-    <hyperlink ref="D10" r:id="rId8" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=143"/>
-    <hyperlink ref="D11" r:id="rId9" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=155"/>
-    <hyperlink ref="D12" r:id="rId10" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=169"/>
-    <hyperlink ref="D13" r:id="rId11" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=17"/>
-    <hyperlink ref="D14" r:id="rId12" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=34"/>
-    <hyperlink ref="D15" r:id="rId13" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=45"/>
-    <hyperlink ref="D16" r:id="rId14" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=52"/>
-    <hyperlink ref="D17" r:id="rId15" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=124"/>
-    <hyperlink ref="D19" r:id="rId16" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=114"/>
-    <hyperlink ref="D20" r:id="rId17" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=135"/>
-    <hyperlink ref="D21" r:id="rId18" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=187"/>
-    <hyperlink ref="D22" r:id="rId19" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=108"/>
-    <hyperlink ref="D23" r:id="rId20" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=116"/>
-    <hyperlink ref="D24" r:id="rId21" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=188"/>
-    <hyperlink ref="D25" r:id="rId22" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=164"/>
-    <hyperlink ref="D26" r:id="rId23" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=33"/>
-    <hyperlink ref="D27" r:id="rId24" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=174"/>
-    <hyperlink ref="D28" r:id="rId25" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=111"/>
-    <hyperlink ref="D29" r:id="rId26" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=190"/>
-    <hyperlink ref="D30" r:id="rId27" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=83"/>
-    <hyperlink ref="D31" r:id="rId28" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=181"/>
-    <hyperlink ref="D32" r:id="rId29" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=191"/>
-    <hyperlink ref="D33" r:id="rId30" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=127"/>
-    <hyperlink ref="D34" r:id="rId31" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=154"/>
-    <hyperlink ref="D35" r:id="rId32" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=123"/>
-    <hyperlink ref="D36" r:id="rId33" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=138"/>
-    <hyperlink ref="D37" r:id="rId34" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=94"/>
-    <hyperlink ref="D38" r:id="rId35" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=182"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=92" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=109" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=128" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=157" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId5" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=171" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D8" r:id="rId6" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=38" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D9" r:id="rId7" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=102" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D10" r:id="rId8" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=143" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D11" r:id="rId9" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=155" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D12" r:id="rId10" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=169" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D13" r:id="rId11" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=17" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D14" r:id="rId12" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=34" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D15" r:id="rId13" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=45" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D16" r:id="rId14" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=52" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D17" r:id="rId15" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=124" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D19" r:id="rId16" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=114" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D20" r:id="rId17" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=135" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="D21" r:id="rId18" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=187" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="D22" r:id="rId19" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=108" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="D23" r:id="rId20" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=116" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="D24" r:id="rId21" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=188" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="D25" r:id="rId22" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=164" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="D26" r:id="rId23" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=33" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="D27" r:id="rId24" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=174" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="D28" r:id="rId25" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=111" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="D29" r:id="rId26" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=190" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="D30" r:id="rId27" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=83" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="D31" r:id="rId28" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=181" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="D32" r:id="rId29" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=191" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="D33" r:id="rId30" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=127" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="D34" r:id="rId31" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=154" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="D35" r:id="rId32" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=123" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="D36" r:id="rId33" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=138" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="D37" r:id="rId34" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=94" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="D38" r:id="rId35" display="http://www.karopapier.de/mappreview.php?pixel=8&amp;karoborder=1&amp;MID=182" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId36"/>
@@ -6648,10 +7910,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AK44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AI37" sqref="AI37"/>
     </sheetView>
   </sheetViews>
@@ -13177,11 +14439,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13707,9 +14969,523 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:J20">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:J20">
     <sortCondition descending="1" ref="J1:J20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB68659-7C54-475B-A61E-BCAA5571C1D3}">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="L1" s="38"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1">
+      <c r="A2" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="J2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="39">
+        <v>151</v>
+      </c>
+      <c r="D3" s="39">
+        <v>10</v>
+      </c>
+      <c r="E3" s="39">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="39">
+        <v>10</v>
+      </c>
+      <c r="H3" s="39">
+        <v>8</v>
+      </c>
+      <c r="I3" s="39">
+        <v>4</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
+        <f>Tabelle2[[#This Row],[Klassisch (Z)]]*Tabelle2[[#This Row],[Klassisch (CR)]]</f>
+        <v>80</v>
+      </c>
+      <c r="L3" s="3">
+        <f>Tabelle2[[#This Row],[Geclustert (Z)]]*Tabelle2[[#This Row],[Geclustert (CR)]]</f>
+        <v>16</v>
+      </c>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="39">
+        <v>150</v>
+      </c>
+      <c r="D4" s="39">
+        <v>12</v>
+      </c>
+      <c r="E4" s="39">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="40">
+        <v>8</v>
+      </c>
+      <c r="H4" s="40">
+        <v>7</v>
+      </c>
+      <c r="I4" s="40">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
+        <f>Tabelle2[[#This Row],[Klassisch (Z)]]*Tabelle2[[#This Row],[Klassisch (CR)]]</f>
+        <v>84</v>
+      </c>
+      <c r="L4" s="3">
+        <f>Tabelle2[[#This Row],[Geclustert (Z)]]*Tabelle2[[#This Row],[Geclustert (CR)]]</f>
+        <v>12</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="40">
+        <v>153</v>
+      </c>
+      <c r="D5" s="40">
+        <v>8</v>
+      </c>
+      <c r="E5" s="40">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="40">
+        <v>8</v>
+      </c>
+      <c r="H5" s="40">
+        <v>11</v>
+      </c>
+      <c r="I5" s="40">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3">
+        <f>Tabelle2[[#This Row],[Klassisch (Z)]]*Tabelle2[[#This Row],[Klassisch (CR)]]</f>
+        <v>88</v>
+      </c>
+      <c r="L5" s="3">
+        <f>Tabelle2[[#This Row],[Geclustert (Z)]]*Tabelle2[[#This Row],[Geclustert (CR)]]</f>
+        <v>9</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="40">
+        <v>155</v>
+      </c>
+      <c r="D6" s="40">
+        <v>6</v>
+      </c>
+      <c r="E6" s="40">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="40">
+        <v>9</v>
+      </c>
+      <c r="H6" s="40">
+        <v>10</v>
+      </c>
+      <c r="I6" s="40">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
+        <f>Tabelle2[[#This Row],[Klassisch (Z)]]*Tabelle2[[#This Row],[Klassisch (CR)]]</f>
+        <v>60</v>
+      </c>
+      <c r="L6" s="3">
+        <f>Tabelle2[[#This Row],[Geclustert (Z)]]*Tabelle2[[#This Row],[Geclustert (CR)]]</f>
+        <v>9</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="39">
+        <v>151</v>
+      </c>
+      <c r="D7" s="39">
+        <v>9</v>
+      </c>
+      <c r="E7" s="39">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="41">
+        <v>7</v>
+      </c>
+      <c r="H7" s="41">
+        <v>9</v>
+      </c>
+      <c r="I7" s="41">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
+        <f>Tabelle2[[#This Row],[Klassisch (Z)]]*Tabelle2[[#This Row],[Klassisch (CR)]]</f>
+        <v>81</v>
+      </c>
+      <c r="L7" s="3">
+        <f>Tabelle2[[#This Row],[Geclustert (Z)]]*Tabelle2[[#This Row],[Geclustert (CR)]]</f>
+        <v>8</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="41">
+        <v>156</v>
+      </c>
+      <c r="D8" s="41">
+        <v>4</v>
+      </c>
+      <c r="E8" s="41">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="39">
+        <v>15</v>
+      </c>
+      <c r="H8" s="39">
+        <v>12</v>
+      </c>
+      <c r="I8" s="39">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
+        <f>Tabelle2[[#This Row],[Klassisch (Z)]]*Tabelle2[[#This Row],[Klassisch (CR)]]</f>
+        <v>48</v>
+      </c>
+      <c r="L8" s="3">
+        <f>Tabelle2[[#This Row],[Geclustert (Z)]]*Tabelle2[[#This Row],[Geclustert (CR)]]</f>
+        <v>8</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="41">
+        <v>159</v>
+      </c>
+      <c r="D9" s="41">
+        <v>2</v>
+      </c>
+      <c r="E9" s="41">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="39">
+        <v>10</v>
+      </c>
+      <c r="H9" s="39">
+        <v>9</v>
+      </c>
+      <c r="I9" s="39">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <f>Tabelle2[[#This Row],[Klassisch (Z)]]*Tabelle2[[#This Row],[Klassisch (CR)]]</f>
+        <v>18</v>
+      </c>
+      <c r="L9" s="3">
+        <f>Tabelle2[[#This Row],[Geclustert (Z)]]*Tabelle2[[#This Row],[Geclustert (CR)]]</f>
+        <v>8</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="41">
+        <v>156</v>
+      </c>
+      <c r="D10" s="41">
+        <v>3</v>
+      </c>
+      <c r="E10" s="41">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="41">
+        <v>6</v>
+      </c>
+      <c r="H10" s="41">
+        <v>6</v>
+      </c>
+      <c r="I10" s="41">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
+        <f>Tabelle2[[#This Row],[Klassisch (Z)]]*Tabelle2[[#This Row],[Klassisch (CR)]]</f>
+        <v>18</v>
+      </c>
+      <c r="L10" s="3">
+        <f>Tabelle2[[#This Row],[Geclustert (Z)]]*Tabelle2[[#This Row],[Geclustert (CR)]]</f>
+        <v>4</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="40">
+        <v>155</v>
+      </c>
+      <c r="D11" s="40">
+        <v>5</v>
+      </c>
+      <c r="E11" s="40">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="42">
+        <v>5</v>
+      </c>
+      <c r="H11" s="42">
+        <v>5</v>
+      </c>
+      <c r="I11" s="42">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3">
+        <f>Tabelle2[[#This Row],[Klassisch (Z)]]*Tabelle2[[#This Row],[Klassisch (CR)]]</f>
+        <v>25</v>
+      </c>
+      <c r="L11" s="3">
+        <f>Tabelle2[[#This Row],[Geclustert (Z)]]*Tabelle2[[#This Row],[Geclustert (CR)]]</f>
+        <v>3</v>
+      </c>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="42">
+        <v>164</v>
+      </c>
+      <c r="D12" s="42">
+        <v>0</v>
+      </c>
+      <c r="E12" s="42">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="41">
+        <v>7</v>
+      </c>
+      <c r="H12" s="41">
+        <v>7</v>
+      </c>
+      <c r="I12" s="41">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3">
+        <f>Tabelle2[[#This Row],[Klassisch (Z)]]*Tabelle2[[#This Row],[Klassisch (CR)]]</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <f>Tabelle2[[#This Row],[Geclustert (Z)]]*Tabelle2[[#This Row],[Geclustert (CR)]]</f>
+        <v>2</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="42">
+        <v>161</v>
+      </c>
+      <c r="D13" s="42">
+        <v>1</v>
+      </c>
+      <c r="E13" s="42">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="42">
+        <v>3</v>
+      </c>
+      <c r="H13" s="42">
+        <v>3</v>
+      </c>
+      <c r="I13" s="42">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3">
+        <f>Tabelle2[[#This Row],[Klassisch (Z)]]*Tabelle2[[#This Row],[Klassisch (CR)]]</f>
+        <v>3</v>
+      </c>
+      <c r="L13" s="3">
+        <f>Tabelle2[[#This Row],[Geclustert (Z)]]*Tabelle2[[#This Row],[Geclustert (CR)]]</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="42">
+        <v>163</v>
+      </c>
+      <c r="D14" s="42">
+        <v>0</v>
+      </c>
+      <c r="E14" s="42">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="42">
+        <v>5</v>
+      </c>
+      <c r="H14" s="42">
+        <v>5</v>
+      </c>
+      <c r="I14" s="42">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3">
+        <f>Tabelle2[[#This Row],[Klassisch (Z)]]*Tabelle2[[#This Row],[Klassisch (CR)]]</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <f>Tabelle2[[#This Row],[Geclustert (Z)]]*Tabelle2[[#This Row],[Geclustert (CR)]]</f>
+        <v>1</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/CraZZZy Crash Challenge/CCC-Daten.xlsx
+++ b/CraZZZy Crash Challenge/CCC-Daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Private\JVerkin\projects\KaroToolsCollection\CraZZZy Crash Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD25047F-6B93-49A2-9580-B4A45A0E9C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40512202-9BDE-4108-A5C1-6E359A08FC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-10170" windowWidth="21840" windowHeight="38040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teilnehmer" sheetId="1" r:id="rId1"/>
@@ -60,8 +60,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="228">
   <si>
     <t>Teilnehmer</t>
   </si>
@@ -955,7 +977,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1005,9 +1027,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1050,15 +1069,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1074,6 +1084,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1081,50 +1100,6 @@
     <cellStyle name="Überschrift 2" xfId="2" builtinId="17"/>
   </cellStyles>
   <dxfs count="32">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1180,6 +1155,50 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1219,22 +1238,22 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Teilnehmer" totalsRowLabel="Ergebnis"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Teilnahmen" totalsRowLabel="x" dataDxfId="31" totalsRowDxfId="13">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Teilnahmen" totalsRowLabel="x" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CCC1" totalsRowFunction="custom" dataDxfId="30">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CCC1" totalsRowFunction="custom" dataDxfId="29">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC1],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CCC2" totalsRowFunction="custom" dataDxfId="29">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CCC2" totalsRowFunction="custom" dataDxfId="28">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC2],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CCC3" totalsRowFunction="custom" dataDxfId="28">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CCC3" totalsRowFunction="custom" dataDxfId="27">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC3],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CCC4" totalsRowFunction="custom" dataDxfId="27">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CCC4" totalsRowFunction="custom" dataDxfId="26">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC4],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CCC5" totalsRowFunction="custom" dataDxfId="26">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CCC5" totalsRowFunction="custom" dataDxfId="25">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC5],$B71)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1243,52 +1262,52 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:L132" totalsRowShown="0" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:L132" totalsRowShown="0" dataDxfId="11">
   <autoFilter ref="A1:L132" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J70">
     <sortCondition ref="A37"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CCC"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spieltag" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Spieler" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Strecke" dataDxfId="22" dataCellStyle="Link"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="16">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spieltag" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Spieler" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Strecke" dataDxfId="8" dataCellStyle="Link"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="2">
       <calculatedColumnFormula>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD48A89C-AF8A-4D74-BEE3-973381D8E39E}" name="Tabelle2" displayName="Tabelle2" ref="A2:L14" totalsRowShown="0" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD48A89C-AF8A-4D74-BEE3-973381D8E39E}" name="Tabelle2" displayName="Tabelle2" ref="A2:L14" totalsRowShown="0" dataDxfId="24">
   <autoFilter ref="A2:L14" xr:uid="{FD48A89C-AF8A-4D74-BEE3-973381D8E39E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L14">
     <sortCondition descending="1" ref="L2:L14"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{06B18662-5B32-42F6-85CF-17D8C9DC7BDF}" name="Spieler" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{183E08E8-D5AA-4DF3-942F-C23480690953}" name=" " dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{37A147A2-6A27-443D-8799-F71527EF7750}" name="Züge" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{31696DC1-5E37-430E-8871-0BCFCD170B2E}" name="Klassisch (Z)" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{BC263A88-D39F-446D-BF5C-F85521658DA8}" name="Geclustert (Z)" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{093A8095-9008-4D88-88F6-250A19675DD8}" name="  " dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{879335B0-290D-43FA-A6FE-E6B6F53D9440}" name="Crashs" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{78D21676-2217-4EF4-A197-F19C7A84C471}" name="Klassisch (CR)" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{BB0FE7C7-52D6-4A76-8688-1B73AD062B37}" name="Geclustert (CR)" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{2E578574-BF4A-4EFE-BF15-F379C953D82E}" name="   " dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{D08C11A1-CC23-4F54-8A65-A4D420BAED58}" name="Gesamt Klassisch" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{06B18662-5B32-42F6-85CF-17D8C9DC7BDF}" name="Spieler" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{183E08E8-D5AA-4DF3-942F-C23480690953}" name=" " dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{37A147A2-6A27-443D-8799-F71527EF7750}" name="Züge" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{31696DC1-5E37-430E-8871-0BCFCD170B2E}" name="Klassisch (Z)" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{BC263A88-D39F-446D-BF5C-F85521658DA8}" name="Geclustert (Z)" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{093A8095-9008-4D88-88F6-250A19675DD8}" name="  " dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{879335B0-290D-43FA-A6FE-E6B6F53D9440}" name="Crashs" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{78D21676-2217-4EF4-A197-F19C7A84C471}" name="Klassisch (CR)" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{BB0FE7C7-52D6-4A76-8688-1B73AD062B37}" name="Geclustert (CR)" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{2E578574-BF4A-4EFE-BF15-F379C953D82E}" name="   " dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{D08C11A1-CC23-4F54-8A65-A4D420BAED58}" name="Gesamt Klassisch" dataDxfId="13">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Klassisch (Z)]]*Tabelle2[[#This Row],[Klassisch (CR)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C8F6816D-C153-497A-A2CC-4183AA81D2EF}" name="Gesamt Geclustert" dataDxfId="0">
+    <tableColumn id="12" xr3:uid="{C8F6816D-C153-497A-A2CC-4183AA81D2EF}" name="Gesamt Geclustert" dataDxfId="12">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Geclustert (Z)]]*Tabelle2[[#This Row],[Geclustert (CR)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1679,7 +1698,7 @@
       <c r="A4" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
         <v>1</v>
       </c>
@@ -1919,7 +1938,7 @@
       <c r="A17" t="s">
         <v>190</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
         <v>1</v>
       </c>
@@ -1991,7 +2010,7 @@
       <c r="A21" t="s">
         <v>189</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
         <v>0</v>
       </c>
@@ -2387,7 +2406,7 @@
       <c r="A43" t="s">
         <v>196</v>
       </c>
-      <c r="B43" s="21">
+      <c r="B43" s="20">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
         <v>1</v>
       </c>
@@ -2901,7 +2920,7 @@
       <c r="A70" t="s">
         <v>195</v>
       </c>
-      <c r="B70" s="21">
+      <c r="B70" s="20">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</f>
         <v>2</v>
       </c>
@@ -2944,7 +2963,7 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F72">
@@ -2957,7 +2976,7 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="21" t="s">
         <v>192</v>
       </c>
       <c r="F73">
@@ -2970,7 +2989,7 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="21" t="s">
         <v>193</v>
       </c>
       <c r="C74">
@@ -3012,8 +3031,8 @@
   </sheetPr>
   <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J132" sqref="J132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -3026,8 +3045,8 @@
     <col min="6" max="6" width="6.5703125" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" customWidth="1"/>
     <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -3093,15 +3112,20 @@
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="G2" s="15">
+        <v>5</v>
+      </c>
       <c r="H2" s="15">
         <f>SUM(H3:H17)</f>
         <v>465</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19">
+      <c r="I2" s="18" cm="1">
+        <f t="array" ref="I2">SUM(I3:I17*$G$2)</f>
+        <v>7250</v>
+      </c>
+      <c r="J2" s="18">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
+        <v>304500</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
@@ -3129,12 +3153,15 @@
         <v>61</v>
       </c>
       <c r="H3" s="3">
+        <f>$C$2*$G$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="3">
+      <c r="I3" s="8">
+        <v>110</v>
+      </c>
+      <c r="J3" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -3162,12 +3189,15 @@
         <v>61</v>
       </c>
       <c r="H4" s="3">
+        <f>$C$2*$G$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="3">
+      <c r="I4" s="8">
+        <v>55</v>
+      </c>
+      <c r="J4" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -3195,12 +3225,15 @@
         <v>61</v>
       </c>
       <c r="H5" s="3">
+        <f>$C$2*$G$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="3">
+      <c r="I5" s="8">
+        <v>130</v>
+      </c>
+      <c r="J5" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -3228,12 +3261,15 @@
         <v>61</v>
       </c>
       <c r="H6" s="3">
+        <f>$C$2*$G$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="3">
+      <c r="I6" s="8">
+        <v>120</v>
+      </c>
+      <c r="J6" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -3261,12 +3297,15 @@
         <v>61</v>
       </c>
       <c r="H7" s="3">
+        <f>$C$2*$G$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="3">
+      <c r="I7" s="8">
+        <v>160</v>
+      </c>
+      <c r="J7" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -3294,12 +3333,15 @@
         <v>61</v>
       </c>
       <c r="H8" s="3">
+        <f>$C$2*$G$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="3">
+      <c r="I8" s="8">
+        <v>120</v>
+      </c>
+      <c r="J8" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -3327,12 +3369,15 @@
         <v>61</v>
       </c>
       <c r="H9" s="3">
+        <f>$C$2*$G$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="3">
+      <c r="I9" s="8">
+        <v>70</v>
+      </c>
+      <c r="J9" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -3360,12 +3405,15 @@
         <v>61</v>
       </c>
       <c r="H10" s="3">
+        <f>$C$2*$G$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="3">
+      <c r="I10" s="8">
+        <v>130</v>
+      </c>
+      <c r="J10" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
+        <v>910</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -3393,12 +3441,15 @@
         <v>61</v>
       </c>
       <c r="H11" s="3">
+        <f>$C$2*$G$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="3">
+      <c r="I11" s="8">
+        <v>80</v>
+      </c>
+      <c r="J11" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -3426,12 +3477,15 @@
         <v>61</v>
       </c>
       <c r="H12" s="3">
+        <f>$C$2*$G$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="3">
+      <c r="I12" s="8">
+        <v>70</v>
+      </c>
+      <c r="J12" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -3459,12 +3513,15 @@
         <v>61</v>
       </c>
       <c r="H13" s="3">
+        <f>$C$2*$G$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>21</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="3">
+      <c r="I13" s="8">
+        <v>75</v>
+      </c>
+      <c r="J13" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -3492,12 +3549,15 @@
         <v>61</v>
       </c>
       <c r="H14" s="3">
+        <f>$C$2*$G$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>21</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="3">
+      <c r="I14" s="8">
+        <v>80</v>
+      </c>
+      <c r="J14" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -3525,12 +3585,15 @@
         <v>61</v>
       </c>
       <c r="H15" s="3">
+        <f>$C$2*$G$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>21</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="3">
+      <c r="I15" s="8">
+        <v>145</v>
+      </c>
+      <c r="J15" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -3558,12 +3621,15 @@
         <v>61</v>
       </c>
       <c r="H16" s="3">
+        <f>$C$2*$G$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>21</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="3">
+      <c r="I16" s="8">
+        <v>50</v>
+      </c>
+      <c r="J16" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -3591,12 +3657,15 @@
         <v>61</v>
       </c>
       <c r="H17" s="3">
+        <f>$C$2*$G$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>21</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="3">
+      <c r="I17" s="8">
+        <v>55</v>
+      </c>
+      <c r="J17" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -3624,15 +3693,20 @@
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="G18" s="15">
+        <v>6</v>
+      </c>
       <c r="H18" s="15">
         <f>SUM(H19:H38)</f>
         <v>870</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19">
+      <c r="I18" s="18" cm="1">
+        <f t="array" ref="I18">SUM(I19:I38*$G$18)</f>
+        <v>7242</v>
+      </c>
+      <c r="J18" s="18">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
+        <v>217260</v>
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
@@ -3660,6 +3734,7 @@
         <v>61</v>
       </c>
       <c r="H19" s="3">
+        <f>$C$18*$G$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>60</v>
       </c>
       <c r="I19" s="8">
@@ -3695,6 +3770,7 @@
         <v>61</v>
       </c>
       <c r="H20" s="3">
+        <f>$C$18*$G$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>60</v>
       </c>
       <c r="I20" s="8">
@@ -3730,6 +3806,7 @@
         <v>61</v>
       </c>
       <c r="H21" s="3">
+        <f>$C$18*$G$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>60</v>
       </c>
       <c r="I21" s="8">
@@ -3765,6 +3842,7 @@
         <v>61</v>
       </c>
       <c r="H22" s="3">
+        <f>$C$18*$G$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>60</v>
       </c>
       <c r="I22" s="8">
@@ -3800,6 +3878,7 @@
         <v>61</v>
       </c>
       <c r="H23" s="3">
+        <f>$C$18*$G$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>45</v>
       </c>
       <c r="I23" s="8">
@@ -3835,6 +3914,7 @@
         <v>61</v>
       </c>
       <c r="H24" s="3">
+        <f>$C$18*$G$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>45</v>
       </c>
       <c r="I24" s="8">
@@ -3870,6 +3950,7 @@
         <v>61</v>
       </c>
       <c r="H25" s="3">
+        <f>$C$18*$G$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>45</v>
       </c>
       <c r="I25" s="8">
@@ -3905,6 +3986,7 @@
         <v>61</v>
       </c>
       <c r="H26" s="3">
+        <f>$C$18*$G$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>45</v>
       </c>
       <c r="I26" s="8">
@@ -3940,6 +4022,7 @@
         <v>61</v>
       </c>
       <c r="H27" s="3">
+        <f>$C$18*$G$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>45</v>
       </c>
       <c r="I27" s="8">
@@ -3975,6 +4058,7 @@
         <v>61</v>
       </c>
       <c r="H28" s="3">
+        <f>$C$18*$G$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>45</v>
       </c>
       <c r="I28" s="8">
@@ -4010,6 +4094,7 @@
         <v>61</v>
       </c>
       <c r="H29" s="3">
+        <f>$C$18*$G$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
       <c r="I29" s="8">
@@ -4045,6 +4130,7 @@
         <v>61</v>
       </c>
       <c r="H30" s="3">
+        <f>$C$18*$G$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
       <c r="I30" s="8">
@@ -4080,6 +4166,7 @@
         <v>61</v>
       </c>
       <c r="H31" s="3">
+        <f>$C$18*$G$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
       <c r="I31" s="8">
@@ -4115,6 +4202,7 @@
         <v>61</v>
       </c>
       <c r="H32" s="3">
+        <f>$C$18*$G$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
       <c r="I32" s="8">
@@ -4150,6 +4238,7 @@
         <v>61</v>
       </c>
       <c r="H33" s="3">
+        <f>$C$18*$G$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
       <c r="I33" s="8">
@@ -4185,6 +4274,7 @@
         <v>61</v>
       </c>
       <c r="H34" s="3">
+        <f>$C$18*$G$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
       <c r="I34" s="8">
@@ -4220,6 +4310,7 @@
         <v>61</v>
       </c>
       <c r="H35" s="3">
+        <f>$C$18*$G$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
       <c r="I35" s="8">
@@ -4255,6 +4346,7 @@
         <v>61</v>
       </c>
       <c r="H36" s="3">
+        <f>$C$18*$G$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
       <c r="I36" s="8">
@@ -4290,6 +4382,7 @@
         <v>61</v>
       </c>
       <c r="H37" s="3">
+        <f>$C$18*$G$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
       <c r="I37" s="8">
@@ -4324,7 +4417,8 @@
       <c r="G38" t="s">
         <v>61</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="3">
+        <f>$C$18*$G$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
       <c r="I38" s="8">
@@ -4358,15 +4452,20 @@
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
+      <c r="G39" s="15">
+        <v>6</v>
+      </c>
       <c r="H39" s="15">
         <f>SUM(H40:H59)</f>
         <v>750</v>
       </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="19">
+      <c r="I39" s="18" cm="1">
+        <f t="array" ref="I39">SUM(I40:I59*$G$39)</f>
+        <v>6582</v>
+      </c>
+      <c r="J39" s="18">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
+        <v>184296</v>
       </c>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
@@ -4394,7 +4493,7 @@
         <v>61</v>
       </c>
       <c r="H40">
-        <f>$C$39*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$39*$G$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>28</v>
       </c>
       <c r="I40" s="8">
@@ -4432,7 +4531,7 @@
         <v>61</v>
       </c>
       <c r="H41">
-        <f>$C$39*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$39*$G$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>28</v>
       </c>
       <c r="I41" s="8">
@@ -4470,7 +4569,7 @@
         <v>61</v>
       </c>
       <c r="H42">
-        <f>$C$39*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$39*$G$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>28</v>
       </c>
       <c r="I42" s="8">
@@ -4508,7 +4607,7 @@
         <v>61</v>
       </c>
       <c r="H43">
-        <f>$C$39*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$39*$G$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>28</v>
       </c>
       <c r="I43" s="8">
@@ -4546,7 +4645,7 @@
         <v>61</v>
       </c>
       <c r="H44">
-        <f>$C$39*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$39*$G$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>56</v>
       </c>
       <c r="I44" s="8">
@@ -4584,7 +4683,7 @@
         <v>61</v>
       </c>
       <c r="H45">
-        <f>$C$39*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$39*$G$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>56</v>
       </c>
       <c r="I45" s="8">
@@ -4622,7 +4721,7 @@
         <v>61</v>
       </c>
       <c r="H46">
-        <f>$C$39*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$39*$G$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>24</v>
       </c>
       <c r="I46" s="8">
@@ -4660,7 +4759,7 @@
         <v>61</v>
       </c>
       <c r="H47">
-        <f>$C$39*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$39*$G$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>28</v>
       </c>
       <c r="I47" s="8">
@@ -4698,7 +4797,7 @@
         <v>61</v>
       </c>
       <c r="H48">
-        <f>$C$39*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$39*$G$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>24</v>
       </c>
       <c r="I48" s="8">
@@ -4736,7 +4835,7 @@
         <v>61</v>
       </c>
       <c r="H49">
-        <f>$C$39*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$39*$G$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>24</v>
       </c>
       <c r="I49" s="8">
@@ -4774,7 +4873,7 @@
         <v>61</v>
       </c>
       <c r="H50">
-        <f>$C$39*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$39*$G$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>24</v>
       </c>
       <c r="I50" s="8">
@@ -4812,7 +4911,7 @@
         <v>61</v>
       </c>
       <c r="H51">
-        <f>$C$39*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$39*$G$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
       <c r="I51" s="8">
@@ -4850,7 +4949,7 @@
         <v>61</v>
       </c>
       <c r="H52">
-        <f>$C$39*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$39*$G$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
       <c r="I52" s="8">
@@ -4888,7 +4987,7 @@
         <v>61</v>
       </c>
       <c r="H53">
-        <f>$C$39*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$39*$G$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>24</v>
       </c>
       <c r="I53" s="8">
@@ -4926,7 +5025,7 @@
         <v>61</v>
       </c>
       <c r="H54">
-        <f>$C$39*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$39*$G$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
       <c r="I54" s="8">
@@ -4964,7 +5063,7 @@
         <v>61</v>
       </c>
       <c r="H55">
-        <f>$C$39*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$39*$G$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>56</v>
       </c>
       <c r="I55" s="8">
@@ -5002,7 +5101,7 @@
         <v>61</v>
       </c>
       <c r="H56">
-        <f>$C$39*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$39*$G$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>56</v>
       </c>
       <c r="I56" s="8">
@@ -5040,7 +5139,7 @@
         <v>61</v>
       </c>
       <c r="H57">
-        <f>$C$39*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$39*$G$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
       <c r="I57" s="8">
@@ -5078,7 +5177,7 @@
         <v>61</v>
       </c>
       <c r="H58">
-        <f>$C$39*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$39*$G$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
       <c r="I58" s="8">
@@ -5116,7 +5215,7 @@
         <v>61</v>
       </c>
       <c r="H59">
-        <f>$C$39*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$39*$G$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>56</v>
       </c>
       <c r="I59" s="8">
@@ -5154,15 +5253,20 @@
       </c>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
+      <c r="G60" s="14">
+        <v>6</v>
+      </c>
       <c r="H60" s="14">
         <f>SUM(H61:H80)</f>
         <v>708</v>
       </c>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14">
+      <c r="I60" s="18" cm="1">
+        <f t="array" ref="I60">SUM(I61:I80*$G$60)</f>
+        <v>6390</v>
+      </c>
+      <c r="J60" s="18">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
+        <v>178920</v>
       </c>
       <c r="K60" s="14"/>
       <c r="L60" s="14"/>
@@ -5180,7 +5284,7 @@
       <c r="D61" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="22">
         <v>9</v>
       </c>
       <c r="F61" t="s">
@@ -5190,7 +5294,7 @@
         <v>61</v>
       </c>
       <c r="H61" s="3">
-        <f>$C$60*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$60*$G$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>24</v>
       </c>
       <c r="I61" s="8">
@@ -5216,7 +5320,7 @@
       <c r="D62" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E62" s="24">
+      <c r="E62" s="23">
         <v>20</v>
       </c>
       <c r="F62" t="s">
@@ -5226,7 +5330,7 @@
         <v>61</v>
       </c>
       <c r="H62" s="3">
-        <f>$C$60*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$60*$G$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>24</v>
       </c>
       <c r="I62" s="8">
@@ -5252,7 +5356,7 @@
       <c r="D63" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E63" s="24">
+      <c r="E63" s="23">
         <v>100</v>
       </c>
       <c r="F63" t="s">
@@ -5262,7 +5366,7 @@
         <v>61</v>
       </c>
       <c r="H63" s="3">
-        <f>$C$60*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$60*$G$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>24</v>
       </c>
       <c r="I63" s="8">
@@ -5288,7 +5392,7 @@
       <c r="D64" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E64" s="24">
+      <c r="E64" s="23">
         <v>0</v>
       </c>
       <c r="F64" t="s">
@@ -5298,7 +5402,7 @@
         <v>61</v>
       </c>
       <c r="H64" s="3">
-        <f>$C$60*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$60*$G$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>28</v>
       </c>
       <c r="I64" s="8">
@@ -5324,7 +5428,7 @@
       <c r="D65" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E65" s="24">
+      <c r="E65" s="23">
         <v>3</v>
       </c>
       <c r="F65" t="s">
@@ -5334,7 +5438,7 @@
         <v>61</v>
       </c>
       <c r="H65" s="3">
-        <f>$C$60*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$60*$G$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>28</v>
       </c>
       <c r="I65" s="8">
@@ -5360,7 +5464,7 @@
       <c r="D66" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E66" s="25">
+      <c r="E66" s="24">
         <v>0</v>
       </c>
       <c r="F66" t="s">
@@ -5370,7 +5474,7 @@
         <v>61</v>
       </c>
       <c r="H66" s="3">
-        <f>$C$60*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$60*$G$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>28</v>
       </c>
       <c r="I66" s="8">
@@ -5396,7 +5500,7 @@
       <c r="D67" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E67" s="25">
+      <c r="E67" s="24">
         <v>1</v>
       </c>
       <c r="F67" t="s">
@@ -5406,7 +5510,7 @@
         <v>61</v>
       </c>
       <c r="H67" s="3">
-        <f>$C$60*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$60*$G$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>28</v>
       </c>
       <c r="I67" s="8">
@@ -5432,7 +5536,7 @@
       <c r="D68" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E68" s="24">
+      <c r="E68" s="23">
         <v>16</v>
       </c>
       <c r="F68" t="s">
@@ -5442,7 +5546,7 @@
         <v>61</v>
       </c>
       <c r="H68" s="3">
-        <f>$C$60*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$60*$G$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
       <c r="I68" s="8">
@@ -5468,7 +5572,7 @@
       <c r="D69" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E69" s="24">
+      <c r="E69" s="23">
         <v>0</v>
       </c>
       <c r="F69" t="s">
@@ -5478,7 +5582,7 @@
         <v>61</v>
       </c>
       <c r="H69" s="3">
-        <f>$C$60*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$60*$G$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
       <c r="I69" s="8">
@@ -5504,7 +5608,7 @@
       <c r="D70" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E70" s="25">
+      <c r="E70" s="24">
         <v>2</v>
       </c>
       <c r="F70" t="s">
@@ -5514,7 +5618,7 @@
         <v>61</v>
       </c>
       <c r="H70" s="3">
-        <f>$C$60*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$60*$G$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
       <c r="I70" s="8">
@@ -5540,7 +5644,7 @@
       <c r="D71" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E71" s="25">
+      <c r="E71" s="24">
         <v>1</v>
       </c>
       <c r="F71" t="s">
@@ -5550,7 +5654,7 @@
         <v>61</v>
       </c>
       <c r="H71" s="3">
-        <f>$C$60*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$60*$G$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>24</v>
       </c>
       <c r="I71" s="8">
@@ -5576,7 +5680,7 @@
       <c r="D72" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E72" s="25">
+      <c r="E72" s="24">
         <v>1</v>
       </c>
       <c r="F72" t="s">
@@ -5586,7 +5690,7 @@
         <v>61</v>
       </c>
       <c r="H72" s="3">
-        <f>$C$60*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$60*$G$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>28</v>
       </c>
       <c r="I72" s="8">
@@ -5612,7 +5716,7 @@
       <c r="D73" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E73" s="24">
+      <c r="E73" s="23">
         <v>2</v>
       </c>
       <c r="F73" t="s">
@@ -5622,7 +5726,7 @@
         <v>61</v>
       </c>
       <c r="H73" s="3">
-        <f>$C$60*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$60*$G$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
       <c r="I73" s="8">
@@ -5648,7 +5752,7 @@
       <c r="D74" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E74" s="24">
+      <c r="E74" s="23">
         <v>6</v>
       </c>
       <c r="F74" t="s">
@@ -5658,7 +5762,7 @@
         <v>61</v>
       </c>
       <c r="H74" s="3">
-        <f>$C$60*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$60*$G$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>24</v>
       </c>
       <c r="I74" s="8">
@@ -5684,7 +5788,7 @@
       <c r="D75" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E75" s="24">
+      <c r="E75" s="23">
         <v>4</v>
       </c>
       <c r="F75" t="s">
@@ -5694,7 +5798,7 @@
         <v>61</v>
       </c>
       <c r="H75" s="3">
-        <f>$C$60*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$60*$G$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>56</v>
       </c>
       <c r="I75" s="8">
@@ -5720,7 +5824,7 @@
       <c r="D76" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E76" s="25">
+      <c r="E76" s="24">
         <v>0</v>
       </c>
       <c r="F76" t="s">
@@ -5730,7 +5834,7 @@
         <v>61</v>
       </c>
       <c r="H76" s="3">
-        <f>$C$60*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$60*$G$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>56</v>
       </c>
       <c r="I76" s="8">
@@ -5756,7 +5860,7 @@
       <c r="D77" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E77" s="24">
+      <c r="E77" s="23">
         <v>9</v>
       </c>
       <c r="F77" t="s">
@@ -5766,7 +5870,7 @@
         <v>61</v>
       </c>
       <c r="H77" s="3">
-        <f>$C$60*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$60*$G$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>28</v>
       </c>
       <c r="I77" s="8">
@@ -5792,7 +5896,7 @@
       <c r="D78" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E78" s="25">
+      <c r="E78" s="24">
         <v>0</v>
       </c>
       <c r="F78" t="s">
@@ -5802,7 +5906,7 @@
         <v>61</v>
       </c>
       <c r="H78" s="3">
-        <f>$C$60*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$60*$G$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
       <c r="I78" s="8">
@@ -5828,7 +5932,7 @@
       <c r="D79" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E79" s="24">
+      <c r="E79" s="23">
         <v>7</v>
       </c>
       <c r="F79" t="s">
@@ -5838,7 +5942,7 @@
         <v>61</v>
       </c>
       <c r="H79" s="3">
-        <f>$C$60*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$60*$G$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
       <c r="I79" s="8">
@@ -5864,7 +5968,7 @@
       <c r="D80" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E80" s="25">
+      <c r="E80" s="24">
         <v>1</v>
       </c>
       <c r="F80" t="s">
@@ -5874,7 +5978,7 @@
         <v>61</v>
       </c>
       <c r="H80" s="3">
-        <f>$C$60*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$60*$G$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>56</v>
       </c>
       <c r="I80" s="8">
@@ -5910,15 +6014,20 @@
       </c>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
+      <c r="G81" s="14">
+        <v>6</v>
+      </c>
       <c r="H81" s="14">
         <f>SUM(H82:H106)</f>
         <v>999</v>
       </c>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14">
+      <c r="I81" s="18" cm="1">
+        <f t="array" ref="I81">SUM(I82:I106*$G$81)</f>
+        <v>12210</v>
+      </c>
+      <c r="J81" s="18">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
+        <v>366300</v>
       </c>
       <c r="K81" s="14"/>
       <c r="L81" s="14"/>
@@ -5927,26 +6036,26 @@
       <c r="A82">
         <v>5</v>
       </c>
-      <c r="B82" s="20">
-        <v>1</v>
-      </c>
-      <c r="C82" s="26">
-        <v>5</v>
-      </c>
-      <c r="D82" s="26" t="s">
+      <c r="B82" s="19">
+        <v>1</v>
+      </c>
+      <c r="C82" s="25">
+        <v>5</v>
+      </c>
+      <c r="D82" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="E82" s="26">
+      <c r="E82" s="25">
         <v>13</v>
       </c>
-      <c r="F82" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G82" s="26" t="s">
+      <c r="F82" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G82" s="25" t="s">
         <v>61</v>
       </c>
       <c r="H82" s="3">
-        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$81*$G$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
       <c r="I82" s="8">
@@ -5956,35 +6065,35 @@
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>600</v>
       </c>
-      <c r="K82" s="26">
-        <v>3</v>
-      </c>
-      <c r="L82" s="26"/>
+      <c r="K82" s="25">
+        <v>3</v>
+      </c>
+      <c r="L82" s="25"/>
     </row>
     <row r="83" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A83">
         <v>5</v>
       </c>
-      <c r="B83" s="20">
-        <v>2</v>
-      </c>
-      <c r="C83" s="26">
-        <v>5</v>
-      </c>
-      <c r="D83" s="26" t="s">
+      <c r="B83" s="19">
+        <v>2</v>
+      </c>
+      <c r="C83" s="25">
+        <v>5</v>
+      </c>
+      <c r="D83" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="E83" s="26">
-        <v>1</v>
-      </c>
-      <c r="F83" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G83" s="26" t="s">
+      <c r="E83" s="25">
+        <v>1</v>
+      </c>
+      <c r="F83" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G83" s="25" t="s">
         <v>61</v>
       </c>
       <c r="H83" s="3">
-        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$81*$G$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
       <c r="I83" s="8">
@@ -5994,35 +6103,35 @@
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>700</v>
       </c>
-      <c r="K83" s="26">
-        <v>4</v>
-      </c>
-      <c r="L83" s="26"/>
+      <c r="K83" s="25">
+        <v>4</v>
+      </c>
+      <c r="L83" s="25"/>
     </row>
     <row r="84" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A84">
         <v>5</v>
       </c>
-      <c r="B84" s="20">
-        <v>3</v>
-      </c>
-      <c r="C84" s="26">
-        <v>5</v>
-      </c>
-      <c r="D84" s="26" t="s">
+      <c r="B84" s="19">
+        <v>3</v>
+      </c>
+      <c r="C84" s="25">
+        <v>5</v>
+      </c>
+      <c r="D84" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="E84" s="26">
+      <c r="E84" s="25">
         <v>11</v>
       </c>
-      <c r="F84" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G84" s="26" t="s">
+      <c r="F84" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G84" s="25" t="s">
         <v>61</v>
       </c>
       <c r="H84" s="3">
-        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$81*$G$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
       <c r="I84" s="8">
@@ -6032,73 +6141,73 @@
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>550</v>
       </c>
-      <c r="K84" s="26">
-        <v>3</v>
-      </c>
-      <c r="L84" s="26"/>
+      <c r="K84" s="25">
+        <v>3</v>
+      </c>
+      <c r="L84" s="25"/>
     </row>
     <row r="85" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A85">
         <v>5</v>
       </c>
-      <c r="B85" s="20">
-        <v>4</v>
-      </c>
-      <c r="C85" s="28">
+      <c r="B85" s="19">
+        <v>4</v>
+      </c>
+      <c r="C85" s="27">
         <v>6</v>
       </c>
-      <c r="D85" s="28" t="s">
+      <c r="D85" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E85" s="28">
-        <v>0</v>
-      </c>
-      <c r="F85" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G85" s="28" t="s">
+      <c r="E85" s="27">
+        <v>0</v>
+      </c>
+      <c r="F85" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G85" s="27" t="s">
         <v>61</v>
       </c>
       <c r="H85" s="3">
-        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$81*$G$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
-      <c r="I85" s="27">
+      <c r="I85" s="26">
         <v>100</v>
       </c>
       <c r="J85" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>600</v>
       </c>
-      <c r="K85" s="26">
-        <v>2</v>
-      </c>
-      <c r="L85" s="26"/>
+      <c r="K85" s="25">
+        <v>2</v>
+      </c>
+      <c r="L85" s="25"/>
     </row>
     <row r="86" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A86">
         <v>5</v>
       </c>
-      <c r="B86" s="20">
-        <v>5</v>
-      </c>
-      <c r="C86" s="26">
+      <c r="B86" s="19">
+        <v>5</v>
+      </c>
+      <c r="C86" s="25">
         <v>6</v>
       </c>
-      <c r="D86" s="26" t="s">
+      <c r="D86" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="E86" s="26">
+      <c r="E86" s="25">
         <v>15</v>
       </c>
-      <c r="F86" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G86" s="26" t="s">
+      <c r="F86" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G86" s="25" t="s">
         <v>61</v>
       </c>
       <c r="H86" s="3">
-        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$81*$G$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
       <c r="I86" s="8">
@@ -6108,35 +6217,35 @@
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>600</v>
       </c>
-      <c r="K86" s="26">
-        <v>2</v>
-      </c>
-      <c r="L86" s="26"/>
+      <c r="K86" s="25">
+        <v>2</v>
+      </c>
+      <c r="L86" s="25"/>
     </row>
     <row r="87" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A87">
         <v>5</v>
       </c>
-      <c r="B87" s="20">
+      <c r="B87" s="19">
         <v>6</v>
       </c>
-      <c r="C87" s="26">
-        <v>5</v>
-      </c>
-      <c r="D87" s="26" t="s">
+      <c r="C87" s="25">
+        <v>5</v>
+      </c>
+      <c r="D87" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="E87" s="26">
+      <c r="E87" s="25">
         <v>27</v>
       </c>
-      <c r="F87" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G87" s="26" t="s">
+      <c r="F87" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G87" s="25" t="s">
         <v>61</v>
       </c>
       <c r="H87" s="3">
-        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$81*$G$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
       <c r="I87" s="8">
@@ -6146,35 +6255,35 @@
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>600</v>
       </c>
-      <c r="K87" s="26">
-        <v>3</v>
-      </c>
-      <c r="L87" s="26"/>
+      <c r="K87" s="25">
+        <v>3</v>
+      </c>
+      <c r="L87" s="25"/>
     </row>
     <row r="88" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A88">
         <v>5</v>
       </c>
-      <c r="B88" s="20">
+      <c r="B88" s="19">
         <v>7</v>
       </c>
-      <c r="C88" s="26">
-        <v>5</v>
-      </c>
-      <c r="D88" s="26" t="s">
+      <c r="C88" s="25">
+        <v>5</v>
+      </c>
+      <c r="D88" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="E88" s="26">
-        <v>1</v>
-      </c>
-      <c r="F88" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G88" s="26" t="s">
+      <c r="E88" s="25">
+        <v>1</v>
+      </c>
+      <c r="F88" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G88" s="25" t="s">
         <v>61</v>
       </c>
       <c r="H88" s="3">
-        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$81*$G$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
       <c r="I88" s="8">
@@ -6184,35 +6293,35 @@
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>500</v>
       </c>
-      <c r="K88" s="26">
-        <v>5</v>
-      </c>
-      <c r="L88" s="26"/>
+      <c r="K88" s="25">
+        <v>5</v>
+      </c>
+      <c r="L88" s="25"/>
     </row>
     <row r="89" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A89">
         <v>5</v>
       </c>
-      <c r="B89" s="20">
+      <c r="B89" s="19">
         <v>8</v>
       </c>
-      <c r="C89" s="26">
-        <v>4</v>
-      </c>
-      <c r="D89" s="26" t="s">
+      <c r="C89" s="25">
+        <v>4</v>
+      </c>
+      <c r="D89" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="E89" s="26">
+      <c r="E89" s="25">
         <v>42</v>
       </c>
-      <c r="F89" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G89" s="26" t="s">
+      <c r="F89" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G89" s="25" t="s">
         <v>61</v>
       </c>
       <c r="H89" s="3">
-        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$81*$G$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>45</v>
       </c>
       <c r="I89" s="8">
@@ -6222,73 +6331,73 @@
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>560</v>
       </c>
-      <c r="K89" s="26">
-        <v>3</v>
-      </c>
-      <c r="L89" s="26"/>
+      <c r="K89" s="25">
+        <v>3</v>
+      </c>
+      <c r="L89" s="25"/>
     </row>
     <row r="90" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A90">
         <v>5</v>
       </c>
-      <c r="B90" s="20">
+      <c r="B90" s="19">
         <v>9</v>
       </c>
-      <c r="C90" s="28">
+      <c r="C90" s="27">
         <v>6</v>
       </c>
-      <c r="D90" s="28" t="s">
+      <c r="D90" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="E90" s="28">
+      <c r="E90" s="27">
         <v>17</v>
       </c>
-      <c r="F90" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G90" s="28" t="s">
+      <c r="F90" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G90" s="27" t="s">
         <v>61</v>
       </c>
       <c r="H90" s="3">
-        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$81*$G$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
-      <c r="I90" s="27">
+      <c r="I90" s="26">
         <v>90</v>
       </c>
       <c r="J90" s="8">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>540</v>
       </c>
-      <c r="K90" s="26">
-        <v>4</v>
-      </c>
-      <c r="L90" s="26"/>
+      <c r="K90" s="25">
+        <v>4</v>
+      </c>
+      <c r="L90" s="25"/>
     </row>
     <row r="91" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A91">
         <v>5</v>
       </c>
-      <c r="B91" s="20">
+      <c r="B91" s="19">
         <v>10</v>
       </c>
-      <c r="C91" s="26">
-        <v>4</v>
-      </c>
-      <c r="D91" s="26" t="s">
+      <c r="C91" s="25">
+        <v>4</v>
+      </c>
+      <c r="D91" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="E91" s="26">
-        <v>4</v>
-      </c>
-      <c r="F91" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G91" s="26" t="s">
+      <c r="E91" s="25">
+        <v>4</v>
+      </c>
+      <c r="F91" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G91" s="25" t="s">
         <v>61</v>
       </c>
       <c r="H91" s="3">
-        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$81*$G$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>45</v>
       </c>
       <c r="I91" s="8">
@@ -6298,35 +6407,35 @@
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>540</v>
       </c>
-      <c r="K91" s="26">
-        <v>5</v>
-      </c>
-      <c r="L91" s="26"/>
+      <c r="K91" s="25">
+        <v>5</v>
+      </c>
+      <c r="L91" s="25"/>
     </row>
     <row r="92" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A92">
         <v>5</v>
       </c>
-      <c r="B92" s="20">
+      <c r="B92" s="19">
         <v>11</v>
       </c>
-      <c r="C92" s="26">
-        <v>5</v>
-      </c>
-      <c r="D92" s="26" t="s">
+      <c r="C92" s="25">
+        <v>5</v>
+      </c>
+      <c r="D92" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="E92" s="26">
+      <c r="E92" s="25">
         <v>11</v>
       </c>
-      <c r="F92" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G92" s="26" t="s">
+      <c r="F92" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G92" s="25" t="s">
         <v>61</v>
       </c>
       <c r="H92" s="3">
-        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$81*$G$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
       <c r="I92" s="8">
@@ -6336,35 +6445,35 @@
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>450</v>
       </c>
-      <c r="K92" s="26">
-        <v>3</v>
-      </c>
-      <c r="L92" s="26"/>
+      <c r="K92" s="25">
+        <v>3</v>
+      </c>
+      <c r="L92" s="25"/>
     </row>
     <row r="93" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A93">
         <v>5</v>
       </c>
-      <c r="B93" s="20">
+      <c r="B93" s="19">
         <v>12</v>
       </c>
-      <c r="C93" s="26">
-        <v>4</v>
-      </c>
-      <c r="D93" s="26" t="s">
+      <c r="C93" s="25">
+        <v>4</v>
+      </c>
+      <c r="D93" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="E93" s="26">
-        <v>1</v>
-      </c>
-      <c r="F93" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G93" s="26" t="s">
+      <c r="E93" s="25">
+        <v>1</v>
+      </c>
+      <c r="F93" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G93" s="25" t="s">
         <v>61</v>
       </c>
       <c r="H93" s="3">
-        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$81*$G$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>45</v>
       </c>
       <c r="I93" s="8">
@@ -6374,10 +6483,10 @@
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>460</v>
       </c>
-      <c r="K93" s="26">
-        <v>3</v>
-      </c>
-      <c r="L93" s="26" t="s">
+      <c r="K93" s="25">
+        <v>3</v>
+      </c>
+      <c r="L93" s="25" t="s">
         <v>106</v>
       </c>
     </row>
@@ -6385,26 +6494,26 @@
       <c r="A94">
         <v>5</v>
       </c>
-      <c r="B94" s="20">
+      <c r="B94" s="19">
         <v>13</v>
       </c>
-      <c r="C94" s="26">
-        <v>5</v>
-      </c>
-      <c r="D94" s="26" t="s">
+      <c r="C94" s="25">
+        <v>5</v>
+      </c>
+      <c r="D94" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="E94" s="26">
+      <c r="E94" s="25">
         <v>10</v>
       </c>
-      <c r="F94" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G94" s="26" t="s">
+      <c r="F94" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G94" s="25" t="s">
         <v>61</v>
       </c>
       <c r="H94" s="3">
-        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$81*$G$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
       <c r="I94" s="8">
@@ -6414,35 +6523,35 @@
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>350</v>
       </c>
-      <c r="K94" s="26">
-        <v>2</v>
-      </c>
-      <c r="L94" s="26"/>
+      <c r="K94" s="25">
+        <v>2</v>
+      </c>
+      <c r="L94" s="25"/>
     </row>
     <row r="95" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A95">
         <v>5</v>
       </c>
-      <c r="B95" s="20">
+      <c r="B95" s="19">
         <v>14</v>
       </c>
-      <c r="C95" s="26">
+      <c r="C95" s="25">
         <v>6</v>
       </c>
-      <c r="D95" s="26" t="s">
+      <c r="D95" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="E95" s="26">
-        <v>5</v>
-      </c>
-      <c r="F95" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G95" s="26" t="s">
+      <c r="E95" s="25">
+        <v>5</v>
+      </c>
+      <c r="F95" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G95" s="25" t="s">
         <v>61</v>
       </c>
       <c r="H95" s="3">
-        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$81*$G$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
       <c r="I95" s="8">
@@ -6452,35 +6561,35 @@
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>360</v>
       </c>
-      <c r="K95" s="26">
-        <v>1</v>
-      </c>
-      <c r="L95" s="26"/>
+      <c r="K95" s="25">
+        <v>1</v>
+      </c>
+      <c r="L95" s="25"/>
     </row>
     <row r="96" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A96">
         <v>5</v>
       </c>
-      <c r="B96" s="20">
+      <c r="B96" s="19">
         <v>15</v>
       </c>
-      <c r="C96" s="26">
-        <v>4</v>
-      </c>
-      <c r="D96" s="26" t="s">
+      <c r="C96" s="25">
+        <v>4</v>
+      </c>
+      <c r="D96" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="E96" s="26">
+      <c r="E96" s="25">
         <v>13</v>
       </c>
-      <c r="F96" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G96" s="26" t="s">
+      <c r="F96" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G96" s="25" t="s">
         <v>61</v>
       </c>
       <c r="H96" s="3">
-        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$81*$G$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>45</v>
       </c>
       <c r="I96" s="8">
@@ -6490,35 +6599,35 @@
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>360</v>
       </c>
-      <c r="K96" s="26">
-        <v>4</v>
-      </c>
-      <c r="L96" s="26"/>
+      <c r="K96" s="25">
+        <v>4</v>
+      </c>
+      <c r="L96" s="25"/>
     </row>
     <row r="97" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A97">
         <v>5</v>
       </c>
-      <c r="B97" s="20">
+      <c r="B97" s="19">
         <v>16</v>
       </c>
-      <c r="C97" s="26">
+      <c r="C97" s="25">
         <v>6</v>
       </c>
-      <c r="D97" s="26" t="s">
+      <c r="D97" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="E97" s="26">
+      <c r="E97" s="25">
         <v>7</v>
       </c>
-      <c r="F97" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G97" s="26" t="s">
+      <c r="F97" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G97" s="25" t="s">
         <v>61</v>
       </c>
       <c r="H97" s="3">
-        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$81*$G$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
       <c r="I97" s="8">
@@ -6528,35 +6637,35 @@
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>300</v>
       </c>
-      <c r="K97" s="26">
-        <v>4</v>
-      </c>
-      <c r="L97" s="26"/>
+      <c r="K97" s="25">
+        <v>4</v>
+      </c>
+      <c r="L97" s="25"/>
     </row>
     <row r="98" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A98">
         <v>5</v>
       </c>
-      <c r="B98" s="20">
+      <c r="B98" s="19">
         <v>17</v>
       </c>
-      <c r="C98" s="26">
-        <v>5</v>
-      </c>
-      <c r="D98" s="26" t="s">
+      <c r="C98" s="25">
+        <v>5</v>
+      </c>
+      <c r="D98" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="E98" s="26">
+      <c r="E98" s="25">
         <v>9</v>
       </c>
-      <c r="F98" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G98" s="26" t="s">
+      <c r="F98" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G98" s="25" t="s">
         <v>61</v>
       </c>
       <c r="H98" s="3">
-        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$81*$G$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
       <c r="I98" s="8">
@@ -6566,35 +6675,35 @@
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>275</v>
       </c>
-      <c r="K98" s="26">
-        <v>5</v>
-      </c>
-      <c r="L98" s="26"/>
+      <c r="K98" s="25">
+        <v>5</v>
+      </c>
+      <c r="L98" s="25"/>
     </row>
     <row r="99" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A99">
         <v>5</v>
       </c>
-      <c r="B99" s="20">
+      <c r="B99" s="19">
         <v>18</v>
       </c>
-      <c r="C99" s="26">
+      <c r="C99" s="25">
         <v>6</v>
       </c>
-      <c r="D99" s="26" t="s">
+      <c r="D99" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E99" s="26">
+      <c r="E99" s="25">
         <v>6</v>
       </c>
-      <c r="F99" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G99" s="26" t="s">
+      <c r="F99" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G99" s="25" t="s">
         <v>61</v>
       </c>
       <c r="H99" s="3">
-        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$81*$G$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
       <c r="I99" s="8">
@@ -6604,35 +6713,35 @@
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>270</v>
       </c>
-      <c r="K99" s="26">
-        <v>2</v>
-      </c>
-      <c r="L99" s="26"/>
+      <c r="K99" s="25">
+        <v>2</v>
+      </c>
+      <c r="L99" s="25"/>
     </row>
     <row r="100" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A100">
         <v>5</v>
       </c>
-      <c r="B100" s="20">
+      <c r="B100" s="19">
         <v>19</v>
       </c>
-      <c r="C100" s="26">
-        <v>5</v>
-      </c>
-      <c r="D100" s="26" t="s">
+      <c r="C100" s="25">
+        <v>5</v>
+      </c>
+      <c r="D100" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="E100" s="26">
-        <v>1</v>
-      </c>
-      <c r="F100" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G100" s="26" t="s">
+      <c r="E100" s="25">
+        <v>1</v>
+      </c>
+      <c r="F100" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G100" s="25" t="s">
         <v>61</v>
       </c>
       <c r="H100" s="3">
-        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$81*$G$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
       <c r="I100" s="8">
@@ -6642,35 +6751,35 @@
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>250</v>
       </c>
-      <c r="K100" s="26">
-        <v>3</v>
-      </c>
-      <c r="L100" s="26"/>
+      <c r="K100" s="25">
+        <v>3</v>
+      </c>
+      <c r="L100" s="25"/>
     </row>
     <row r="101" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A101">
         <v>5</v>
       </c>
-      <c r="B101" s="20">
+      <c r="B101" s="19">
         <v>20</v>
       </c>
-      <c r="C101" s="26">
-        <v>3</v>
-      </c>
-      <c r="D101" s="26" t="s">
+      <c r="C101" s="25">
+        <v>3</v>
+      </c>
+      <c r="D101" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="E101" s="26">
-        <v>5</v>
-      </c>
-      <c r="F101" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G101" s="26" t="s">
+      <c r="E101" s="25">
+        <v>5</v>
+      </c>
+      <c r="F101" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G101" s="25" t="s">
         <v>61</v>
       </c>
       <c r="H101" s="3">
-        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$81*$G$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>60</v>
       </c>
       <c r="I101" s="8">
@@ -6680,35 +6789,35 @@
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>225</v>
       </c>
-      <c r="K101" s="26">
-        <v>4</v>
-      </c>
-      <c r="L101" s="26"/>
+      <c r="K101" s="25">
+        <v>4</v>
+      </c>
+      <c r="L101" s="25"/>
     </row>
     <row r="102" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A102">
         <v>5</v>
       </c>
-      <c r="B102" s="20">
+      <c r="B102" s="19">
         <v>21</v>
       </c>
-      <c r="C102" s="26">
-        <v>4</v>
-      </c>
-      <c r="D102" s="26" t="s">
+      <c r="C102" s="25">
+        <v>4</v>
+      </c>
+      <c r="D102" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="E102" s="26">
-        <v>2</v>
-      </c>
-      <c r="F102" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G102" s="26" t="s">
+      <c r="E102" s="25">
+        <v>2</v>
+      </c>
+      <c r="F102" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G102" s="25" t="s">
         <v>61</v>
       </c>
       <c r="H102" s="3">
-        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$81*$G$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>45</v>
       </c>
       <c r="I102" s="8">
@@ -6718,35 +6827,35 @@
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>140</v>
       </c>
-      <c r="K102" s="26">
-        <v>4</v>
-      </c>
-      <c r="L102" s="26"/>
+      <c r="K102" s="25">
+        <v>4</v>
+      </c>
+      <c r="L102" s="25"/>
     </row>
     <row r="103" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A103">
         <v>5</v>
       </c>
-      <c r="B103" s="20">
+      <c r="B103" s="19">
         <v>22</v>
       </c>
-      <c r="C103" s="26">
-        <v>3</v>
-      </c>
-      <c r="D103" s="26" t="s">
+      <c r="C103" s="25">
+        <v>3</v>
+      </c>
+      <c r="D103" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="E103" s="26">
+      <c r="E103" s="25">
         <v>6</v>
       </c>
-      <c r="F103" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G103" s="26" t="s">
+      <c r="F103" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G103" s="25" t="s">
         <v>61</v>
       </c>
       <c r="H103" s="3">
-        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$81*$G$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>60</v>
       </c>
       <c r="I103" s="8">
@@ -6756,35 +6865,35 @@
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>150</v>
       </c>
-      <c r="K103" s="26">
-        <v>5</v>
-      </c>
-      <c r="L103" s="26"/>
+      <c r="K103" s="25">
+        <v>5</v>
+      </c>
+      <c r="L103" s="25"/>
     </row>
     <row r="104" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A104">
         <v>5</v>
       </c>
-      <c r="B104" s="20">
+      <c r="B104" s="19">
         <v>23</v>
       </c>
-      <c r="C104" s="26">
-        <v>4</v>
-      </c>
-      <c r="D104" s="26" t="s">
+      <c r="C104" s="25">
+        <v>4</v>
+      </c>
+      <c r="D104" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E104" s="26">
+      <c r="E104" s="25">
         <v>6</v>
       </c>
-      <c r="F104" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G104" s="26" t="s">
+      <c r="F104" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G104" s="25" t="s">
         <v>61</v>
       </c>
       <c r="H104" s="3">
-        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$81*$G$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>45</v>
       </c>
       <c r="I104" s="8">
@@ -6794,35 +6903,35 @@
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>120</v>
       </c>
-      <c r="K104" s="26">
-        <v>3</v>
-      </c>
-      <c r="L104" s="26"/>
+      <c r="K104" s="25">
+        <v>3</v>
+      </c>
+      <c r="L104" s="25"/>
     </row>
     <row r="105" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A105">
         <v>5</v>
       </c>
-      <c r="B105" s="20">
+      <c r="B105" s="19">
         <v>24</v>
       </c>
-      <c r="C105" s="26">
-        <v>3</v>
-      </c>
-      <c r="D105" s="26" t="s">
+      <c r="C105" s="25">
+        <v>3</v>
+      </c>
+      <c r="D105" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="E105" s="26">
+      <c r="E105" s="25">
         <v>7</v>
       </c>
-      <c r="F105" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G105" s="26" t="s">
+      <c r="F105" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G105" s="25" t="s">
         <v>61</v>
       </c>
       <c r="H105" s="3">
-        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$81*$G$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>60</v>
       </c>
       <c r="I105" s="8">
@@ -6832,35 +6941,35 @@
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>105</v>
       </c>
-      <c r="K105" s="26">
-        <v>2</v>
-      </c>
-      <c r="L105" s="26"/>
+      <c r="K105" s="25">
+        <v>2</v>
+      </c>
+      <c r="L105" s="25"/>
     </row>
     <row r="106" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A106">
         <v>5</v>
       </c>
-      <c r="B106" s="20">
+      <c r="B106" s="19">
         <v>25</v>
       </c>
-      <c r="C106" s="26">
-        <v>4</v>
-      </c>
-      <c r="D106" s="26" t="s">
+      <c r="C106" s="25">
+        <v>4</v>
+      </c>
+      <c r="D106" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="E106" s="26" t="s">
+      <c r="E106" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="F106" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G106" s="26" t="s">
+      <c r="F106" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G106" s="25" t="s">
         <v>61</v>
       </c>
       <c r="H106" s="3">
-        <f>$C$81*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <f>$C$81*$G$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>45</v>
       </c>
       <c r="I106" s="8">
@@ -6870,10 +6979,10 @@
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>120</v>
       </c>
-      <c r="K106" s="26">
-        <v>4</v>
-      </c>
-      <c r="L106" s="26"/>
+      <c r="K106" s="25">
+        <v>4</v>
+      </c>
+      <c r="L106" s="25"/>
     </row>
     <row r="107" spans="1:12" ht="18.75" thickTop="1" thickBot="1">
       <c r="A107" s="14" t="s">
@@ -6898,39 +7007,44 @@
       </c>
       <c r="E107" s="17"/>
       <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
+      <c r="G107" s="15">
+        <v>6</v>
+      </c>
       <c r="H107" s="15">
         <f>SUM(H108:H132)</f>
         <v>999</v>
       </c>
-      <c r="I107" s="18"/>
-      <c r="J107" s="19">
+      <c r="I107" s="18" cm="1">
+        <f t="array" ref="I107">SUM(I108:I132*6)</f>
+        <v>12210</v>
+      </c>
+      <c r="J107" s="18">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
+        <v>366300</v>
       </c>
       <c r="K107" s="15"/>
       <c r="L107" s="15"/>
     </row>
     <row r="108" spans="1:12" ht="15.75" outlineLevel="1" thickTop="1">
-      <c r="A108" s="23" t="s">
+      <c r="A108" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B108" s="10">
         <v>1</v>
       </c>
-      <c r="C108" s="29">
-        <v>5</v>
-      </c>
-      <c r="D108" s="34" t="s">
+      <c r="C108" s="28">
+        <v>5</v>
+      </c>
+      <c r="D108" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E108" s="31">
+      <c r="E108" s="30">
         <v>13</v>
       </c>
-      <c r="F108" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G108" s="29" t="s">
+      <c r="F108" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G108" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H108" s="3">
@@ -6940,35 +7054,35 @@
       <c r="I108" s="8">
         <v>120</v>
       </c>
-      <c r="J108" s="33">
+      <c r="J108" s="32">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>600</v>
       </c>
-      <c r="K108" s="29">
-        <v>3</v>
-      </c>
-      <c r="L108" s="29"/>
+      <c r="K108" s="28">
+        <v>3</v>
+      </c>
+      <c r="L108" s="28"/>
     </row>
     <row r="109" spans="1:12" outlineLevel="1">
-      <c r="A109" s="23" t="s">
+      <c r="A109" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B109" s="10">
         <v>2</v>
       </c>
-      <c r="C109" s="29">
-        <v>5</v>
-      </c>
-      <c r="D109" s="34" t="s">
+      <c r="C109" s="28">
+        <v>5</v>
+      </c>
+      <c r="D109" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E109" s="31">
-        <v>1</v>
-      </c>
-      <c r="F109" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G109" s="29" t="s">
+      <c r="E109" s="30">
+        <v>1</v>
+      </c>
+      <c r="F109" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G109" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H109" s="3">
@@ -6978,35 +7092,35 @@
       <c r="I109" s="8">
         <v>140</v>
       </c>
-      <c r="J109" s="33">
+      <c r="J109" s="32">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>700</v>
       </c>
-      <c r="K109" s="29">
-        <v>4</v>
-      </c>
-      <c r="L109" s="29"/>
+      <c r="K109" s="28">
+        <v>4</v>
+      </c>
+      <c r="L109" s="28"/>
     </row>
     <row r="110" spans="1:12" outlineLevel="1">
-      <c r="A110" s="23" t="s">
+      <c r="A110" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B110" s="10">
         <v>3</v>
       </c>
-      <c r="C110" s="29">
-        <v>5</v>
-      </c>
-      <c r="D110" s="34" t="s">
+      <c r="C110" s="28">
+        <v>5</v>
+      </c>
+      <c r="D110" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E110" s="31">
+      <c r="E110" s="30">
         <v>11</v>
       </c>
-      <c r="F110" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G110" s="29" t="s">
+      <c r="F110" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G110" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H110" s="3">
@@ -7016,73 +7130,73 @@
       <c r="I110" s="8">
         <v>110</v>
       </c>
-      <c r="J110" s="33">
+      <c r="J110" s="32">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>550</v>
       </c>
-      <c r="K110" s="29">
-        <v>3</v>
-      </c>
-      <c r="L110" s="29"/>
+      <c r="K110" s="28">
+        <v>3</v>
+      </c>
+      <c r="L110" s="28"/>
     </row>
     <row r="111" spans="1:12" outlineLevel="1">
-      <c r="A111" s="23" t="s">
+      <c r="A111" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B111" s="10">
         <v>4</v>
       </c>
-      <c r="C111" s="30">
+      <c r="C111" s="29">
         <v>6</v>
       </c>
-      <c r="D111" s="34" t="s">
+      <c r="D111" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E111" s="32">
-        <v>0</v>
-      </c>
-      <c r="F111" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="G111" s="30" t="s">
+      <c r="E111" s="31">
+        <v>0</v>
+      </c>
+      <c r="F111" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G111" s="29" t="s">
         <v>61</v>
       </c>
       <c r="H111" s="3">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
-      <c r="I111" s="27">
+      <c r="I111" s="26">
         <v>100</v>
       </c>
-      <c r="J111" s="33">
+      <c r="J111" s="32">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>600</v>
       </c>
-      <c r="K111" s="29">
-        <v>2</v>
-      </c>
-      <c r="L111" s="29"/>
+      <c r="K111" s="28">
+        <v>2</v>
+      </c>
+      <c r="L111" s="28"/>
     </row>
     <row r="112" spans="1:12" outlineLevel="1">
-      <c r="A112" s="23" t="s">
+      <c r="A112" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B112" s="10">
         <v>5</v>
       </c>
-      <c r="C112" s="29">
+      <c r="C112" s="28">
         <v>6</v>
       </c>
-      <c r="D112" s="34" t="s">
+      <c r="D112" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E112" s="31">
+      <c r="E112" s="30">
         <v>15</v>
       </c>
-      <c r="F112" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G112" s="29" t="s">
+      <c r="F112" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G112" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H112" s="3">
@@ -7092,35 +7206,35 @@
       <c r="I112" s="8">
         <v>100</v>
       </c>
-      <c r="J112" s="33">
+      <c r="J112" s="32">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>600</v>
       </c>
-      <c r="K112" s="29">
-        <v>2</v>
-      </c>
-      <c r="L112" s="29"/>
+      <c r="K112" s="28">
+        <v>2</v>
+      </c>
+      <c r="L112" s="28"/>
     </row>
     <row r="113" spans="1:12" outlineLevel="1">
-      <c r="A113" s="23" t="s">
+      <c r="A113" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B113" s="10">
         <v>6</v>
       </c>
-      <c r="C113" s="29">
-        <v>5</v>
-      </c>
-      <c r="D113" s="34" t="s">
+      <c r="C113" s="28">
+        <v>5</v>
+      </c>
+      <c r="D113" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E113" s="31">
+      <c r="E113" s="30">
         <v>27</v>
       </c>
-      <c r="F113" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G113" s="29" t="s">
+      <c r="F113" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G113" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H113" s="3">
@@ -7130,35 +7244,35 @@
       <c r="I113" s="8">
         <v>120</v>
       </c>
-      <c r="J113" s="33">
+      <c r="J113" s="32">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>600</v>
       </c>
-      <c r="K113" s="29">
-        <v>3</v>
-      </c>
-      <c r="L113" s="29"/>
+      <c r="K113" s="28">
+        <v>3</v>
+      </c>
+      <c r="L113" s="28"/>
     </row>
     <row r="114" spans="1:12" outlineLevel="1">
-      <c r="A114" s="23" t="s">
+      <c r="A114" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B114" s="10">
         <v>7</v>
       </c>
-      <c r="C114" s="29">
-        <v>5</v>
-      </c>
-      <c r="D114" s="34" t="s">
+      <c r="C114" s="28">
+        <v>5</v>
+      </c>
+      <c r="D114" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E114" s="31">
-        <v>1</v>
-      </c>
-      <c r="F114" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G114" s="29" t="s">
+      <c r="E114" s="30">
+        <v>1</v>
+      </c>
+      <c r="F114" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G114" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H114" s="3">
@@ -7168,35 +7282,35 @@
       <c r="I114" s="8">
         <v>100</v>
       </c>
-      <c r="J114" s="33">
+      <c r="J114" s="32">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>500</v>
       </c>
-      <c r="K114" s="29">
-        <v>5</v>
-      </c>
-      <c r="L114" s="29"/>
+      <c r="K114" s="28">
+        <v>5</v>
+      </c>
+      <c r="L114" s="28"/>
     </row>
     <row r="115" spans="1:12" outlineLevel="1">
-      <c r="A115" s="23" t="s">
+      <c r="A115" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B115" s="10">
         <v>8</v>
       </c>
-      <c r="C115" s="29">
-        <v>4</v>
-      </c>
-      <c r="D115" s="34" t="s">
+      <c r="C115" s="28">
+        <v>4</v>
+      </c>
+      <c r="D115" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E115" s="31">
+      <c r="E115" s="30">
         <v>42</v>
       </c>
-      <c r="F115" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G115" s="29" t="s">
+      <c r="F115" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G115" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H115" s="3">
@@ -7206,73 +7320,73 @@
       <c r="I115" s="8">
         <v>140</v>
       </c>
-      <c r="J115" s="33">
+      <c r="J115" s="32">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>560</v>
       </c>
-      <c r="K115" s="29">
-        <v>3</v>
-      </c>
-      <c r="L115" s="29"/>
+      <c r="K115" s="28">
+        <v>3</v>
+      </c>
+      <c r="L115" s="28"/>
     </row>
     <row r="116" spans="1:12" outlineLevel="1">
-      <c r="A116" s="23" t="s">
+      <c r="A116" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B116" s="10">
         <v>9</v>
       </c>
-      <c r="C116" s="30">
+      <c r="C116" s="29">
         <v>6</v>
       </c>
-      <c r="D116" s="34" t="s">
+      <c r="D116" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E116" s="32">
+      <c r="E116" s="31">
         <v>17</v>
       </c>
-      <c r="F116" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="G116" s="30" t="s">
+      <c r="F116" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G116" s="29" t="s">
         <v>61</v>
       </c>
       <c r="H116" s="3">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
-      <c r="I116" s="27">
+      <c r="I116" s="26">
         <v>90</v>
       </c>
-      <c r="J116" s="33">
+      <c r="J116" s="32">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>540</v>
       </c>
-      <c r="K116" s="29">
-        <v>4</v>
-      </c>
-      <c r="L116" s="29"/>
+      <c r="K116" s="28">
+        <v>4</v>
+      </c>
+      <c r="L116" s="28"/>
     </row>
     <row r="117" spans="1:12" outlineLevel="1">
-      <c r="A117" s="23" t="s">
+      <c r="A117" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B117" s="10">
         <v>10</v>
       </c>
-      <c r="C117" s="29">
-        <v>4</v>
-      </c>
-      <c r="D117" s="34" t="s">
+      <c r="C117" s="28">
+        <v>4</v>
+      </c>
+      <c r="D117" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E117" s="31">
-        <v>4</v>
-      </c>
-      <c r="F117" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G117" s="29" t="s">
+      <c r="E117" s="30">
+        <v>4</v>
+      </c>
+      <c r="F117" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G117" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H117" s="3">
@@ -7282,35 +7396,35 @@
       <c r="I117" s="8">
         <v>135</v>
       </c>
-      <c r="J117" s="33">
+      <c r="J117" s="32">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>540</v>
       </c>
-      <c r="K117" s="29">
-        <v>5</v>
-      </c>
-      <c r="L117" s="29"/>
+      <c r="K117" s="28">
+        <v>5</v>
+      </c>
+      <c r="L117" s="28"/>
     </row>
     <row r="118" spans="1:12" outlineLevel="1">
-      <c r="A118" s="23" t="s">
+      <c r="A118" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B118" s="10">
         <v>11</v>
       </c>
-      <c r="C118" s="29">
-        <v>5</v>
-      </c>
-      <c r="D118" s="34" t="s">
+      <c r="C118" s="28">
+        <v>5</v>
+      </c>
+      <c r="D118" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E118" s="31">
+      <c r="E118" s="30">
         <v>11</v>
       </c>
-      <c r="F118" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G118" s="29" t="s">
+      <c r="F118" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G118" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H118" s="3">
@@ -7320,35 +7434,35 @@
       <c r="I118" s="8">
         <v>90</v>
       </c>
-      <c r="J118" s="33">
+      <c r="J118" s="32">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>450</v>
       </c>
-      <c r="K118" s="29">
-        <v>3</v>
-      </c>
-      <c r="L118" s="29"/>
+      <c r="K118" s="28">
+        <v>3</v>
+      </c>
+      <c r="L118" s="28"/>
     </row>
     <row r="119" spans="1:12" outlineLevel="1">
-      <c r="A119" s="23" t="s">
+      <c r="A119" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B119" s="10">
         <v>12</v>
       </c>
-      <c r="C119" s="29">
-        <v>4</v>
-      </c>
-      <c r="D119" s="34" t="s">
+      <c r="C119" s="28">
+        <v>4</v>
+      </c>
+      <c r="D119" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E119" s="31">
-        <v>1</v>
-      </c>
-      <c r="F119" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G119" s="29" t="s">
+      <c r="E119" s="30">
+        <v>1</v>
+      </c>
+      <c r="F119" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G119" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H119" s="3">
@@ -7358,37 +7472,35 @@
       <c r="I119" s="8">
         <v>115</v>
       </c>
-      <c r="J119" s="33">
+      <c r="J119" s="32">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>460</v>
       </c>
-      <c r="K119" s="29">
-        <v>3</v>
-      </c>
-      <c r="L119" s="29" t="s">
-        <v>106</v>
-      </c>
+      <c r="K119" s="28">
+        <v>3</v>
+      </c>
+      <c r="L119" s="28"/>
     </row>
     <row r="120" spans="1:12" outlineLevel="1">
-      <c r="A120" s="23" t="s">
+      <c r="A120" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B120" s="10">
         <v>13</v>
       </c>
-      <c r="C120" s="29">
-        <v>5</v>
-      </c>
-      <c r="D120" s="34" t="s">
+      <c r="C120" s="28">
+        <v>5</v>
+      </c>
+      <c r="D120" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E120" s="31">
+      <c r="E120" s="30">
         <v>10</v>
       </c>
-      <c r="F120" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G120" s="29" t="s">
+      <c r="F120" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G120" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H120" s="3">
@@ -7398,35 +7510,35 @@
       <c r="I120" s="8">
         <v>70</v>
       </c>
-      <c r="J120" s="33">
+      <c r="J120" s="32">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>350</v>
       </c>
-      <c r="K120" s="29">
-        <v>2</v>
-      </c>
-      <c r="L120" s="29"/>
+      <c r="K120" s="28">
+        <v>2</v>
+      </c>
+      <c r="L120" s="28"/>
     </row>
     <row r="121" spans="1:12" outlineLevel="1">
-      <c r="A121" s="23" t="s">
+      <c r="A121" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B121" s="10">
         <v>14</v>
       </c>
-      <c r="C121" s="29">
+      <c r="C121" s="28">
         <v>6</v>
       </c>
-      <c r="D121" s="34" t="s">
+      <c r="D121" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E121" s="31">
-        <v>5</v>
-      </c>
-      <c r="F121" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G121" s="29" t="s">
+      <c r="E121" s="30">
+        <v>5</v>
+      </c>
+      <c r="F121" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G121" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H121" s="3">
@@ -7436,35 +7548,35 @@
       <c r="I121" s="8">
         <v>60</v>
       </c>
-      <c r="J121" s="33">
+      <c r="J121" s="32">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>360</v>
       </c>
-      <c r="K121" s="29">
-        <v>1</v>
-      </c>
-      <c r="L121" s="29"/>
+      <c r="K121" s="28">
+        <v>1</v>
+      </c>
+      <c r="L121" s="28"/>
     </row>
     <row r="122" spans="1:12" outlineLevel="1">
-      <c r="A122" s="23" t="s">
+      <c r="A122" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B122" s="10">
         <v>15</v>
       </c>
-      <c r="C122" s="29">
-        <v>4</v>
-      </c>
-      <c r="D122" s="34" t="s">
+      <c r="C122" s="28">
+        <v>4</v>
+      </c>
+      <c r="D122" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E122" s="31">
+      <c r="E122" s="30">
         <v>13</v>
       </c>
-      <c r="F122" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G122" s="29" t="s">
+      <c r="F122" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G122" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H122" s="3">
@@ -7474,35 +7586,35 @@
       <c r="I122" s="8">
         <v>90</v>
       </c>
-      <c r="J122" s="33">
+      <c r="J122" s="32">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>360</v>
       </c>
-      <c r="K122" s="29">
-        <v>4</v>
-      </c>
-      <c r="L122" s="29"/>
+      <c r="K122" s="28">
+        <v>4</v>
+      </c>
+      <c r="L122" s="28"/>
     </row>
     <row r="123" spans="1:12" outlineLevel="1">
-      <c r="A123" s="23" t="s">
+      <c r="A123" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B123" s="10">
         <v>16</v>
       </c>
-      <c r="C123" s="29">
+      <c r="C123" s="28">
         <v>6</v>
       </c>
-      <c r="D123" s="34" t="s">
+      <c r="D123" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E123" s="31">
+      <c r="E123" s="30">
         <v>7</v>
       </c>
-      <c r="F123" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G123" s="29" t="s">
+      <c r="F123" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G123" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H123" s="3">
@@ -7512,35 +7624,35 @@
       <c r="I123" s="8">
         <v>50</v>
       </c>
-      <c r="J123" s="33">
+      <c r="J123" s="32">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>300</v>
       </c>
-      <c r="K123" s="29">
-        <v>4</v>
-      </c>
-      <c r="L123" s="29"/>
+      <c r="K123" s="28">
+        <v>4</v>
+      </c>
+      <c r="L123" s="28"/>
     </row>
     <row r="124" spans="1:12" outlineLevel="1">
-      <c r="A124" s="23" t="s">
+      <c r="A124" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B124" s="10">
         <v>17</v>
       </c>
-      <c r="C124" s="29">
-        <v>5</v>
-      </c>
-      <c r="D124" s="34" t="s">
+      <c r="C124" s="28">
+        <v>5</v>
+      </c>
+      <c r="D124" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E124" s="31">
+      <c r="E124" s="30">
         <v>9</v>
       </c>
-      <c r="F124" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G124" s="29" t="s">
+      <c r="F124" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G124" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H124" s="3">
@@ -7550,35 +7662,35 @@
       <c r="I124" s="8">
         <v>55</v>
       </c>
-      <c r="J124" s="33">
+      <c r="J124" s="32">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>275</v>
       </c>
-      <c r="K124" s="29">
-        <v>5</v>
-      </c>
-      <c r="L124" s="29"/>
+      <c r="K124" s="28">
+        <v>5</v>
+      </c>
+      <c r="L124" s="28"/>
     </row>
     <row r="125" spans="1:12" outlineLevel="1">
-      <c r="A125" s="23" t="s">
+      <c r="A125" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B125" s="10">
         <v>18</v>
       </c>
-      <c r="C125" s="29">
+      <c r="C125" s="28">
         <v>6</v>
       </c>
-      <c r="D125" s="34" t="s">
+      <c r="D125" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E125" s="31">
+      <c r="E125" s="30">
         <v>6</v>
       </c>
-      <c r="F125" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G125" s="29" t="s">
+      <c r="F125" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G125" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H125" s="3">
@@ -7588,35 +7700,35 @@
       <c r="I125" s="8">
         <v>45</v>
       </c>
-      <c r="J125" s="33">
+      <c r="J125" s="32">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>270</v>
       </c>
-      <c r="K125" s="29">
-        <v>2</v>
-      </c>
-      <c r="L125" s="29"/>
+      <c r="K125" s="28">
+        <v>2</v>
+      </c>
+      <c r="L125" s="28"/>
     </row>
     <row r="126" spans="1:12" outlineLevel="1">
-      <c r="A126" s="23" t="s">
+      <c r="A126" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B126" s="10">
         <v>19</v>
       </c>
-      <c r="C126" s="29">
-        <v>5</v>
-      </c>
-      <c r="D126" s="34" t="s">
+      <c r="C126" s="28">
+        <v>5</v>
+      </c>
+      <c r="D126" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E126" s="31">
-        <v>1</v>
-      </c>
-      <c r="F126" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G126" s="29" t="s">
+      <c r="E126" s="30">
+        <v>1</v>
+      </c>
+      <c r="F126" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G126" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H126" s="3">
@@ -7626,35 +7738,35 @@
       <c r="I126" s="8">
         <v>50</v>
       </c>
-      <c r="J126" s="33">
+      <c r="J126" s="32">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>250</v>
       </c>
-      <c r="K126" s="29">
-        <v>3</v>
-      </c>
-      <c r="L126" s="29"/>
+      <c r="K126" s="28">
+        <v>3</v>
+      </c>
+      <c r="L126" s="28"/>
     </row>
     <row r="127" spans="1:12" outlineLevel="1">
-      <c r="A127" s="23" t="s">
+      <c r="A127" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B127" s="10">
         <v>20</v>
       </c>
-      <c r="C127" s="29">
-        <v>3</v>
-      </c>
-      <c r="D127" s="34" t="s">
+      <c r="C127" s="28">
+        <v>3</v>
+      </c>
+      <c r="D127" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E127" s="31">
-        <v>5</v>
-      </c>
-      <c r="F127" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G127" s="29" t="s">
+      <c r="E127" s="30">
+        <v>5</v>
+      </c>
+      <c r="F127" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G127" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H127" s="3">
@@ -7664,35 +7776,35 @@
       <c r="I127" s="8">
         <v>75</v>
       </c>
-      <c r="J127" s="33">
+      <c r="J127" s="32">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>225</v>
       </c>
-      <c r="K127" s="29">
-        <v>4</v>
-      </c>
-      <c r="L127" s="29"/>
+      <c r="K127" s="28">
+        <v>4</v>
+      </c>
+      <c r="L127" s="28"/>
     </row>
     <row r="128" spans="1:12" outlineLevel="1">
-      <c r="A128" s="23" t="s">
+      <c r="A128" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B128" s="10">
         <v>21</v>
       </c>
-      <c r="C128" s="29">
-        <v>4</v>
-      </c>
-      <c r="D128" s="34" t="s">
+      <c r="C128" s="28">
+        <v>4</v>
+      </c>
+      <c r="D128" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E128" s="31">
-        <v>2</v>
-      </c>
-      <c r="F128" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G128" s="29" t="s">
+      <c r="E128" s="30">
+        <v>2</v>
+      </c>
+      <c r="F128" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G128" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H128" s="3">
@@ -7702,35 +7814,35 @@
       <c r="I128" s="8">
         <v>35</v>
       </c>
-      <c r="J128" s="33">
+      <c r="J128" s="32">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>140</v>
       </c>
-      <c r="K128" s="29">
-        <v>4</v>
-      </c>
-      <c r="L128" s="29"/>
+      <c r="K128" s="28">
+        <v>4</v>
+      </c>
+      <c r="L128" s="28"/>
     </row>
     <row r="129" spans="1:12" outlineLevel="1">
-      <c r="A129" s="23" t="s">
+      <c r="A129" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B129" s="10">
         <v>22</v>
       </c>
-      <c r="C129" s="29">
-        <v>3</v>
-      </c>
-      <c r="D129" s="34" t="s">
+      <c r="C129" s="28">
+        <v>3</v>
+      </c>
+      <c r="D129" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E129" s="31">
+      <c r="E129" s="30">
         <v>6</v>
       </c>
-      <c r="F129" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G129" s="29" t="s">
+      <c r="F129" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G129" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H129" s="3">
@@ -7740,35 +7852,35 @@
       <c r="I129" s="8">
         <v>50</v>
       </c>
-      <c r="J129" s="33">
+      <c r="J129" s="32">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>150</v>
       </c>
-      <c r="K129" s="29">
-        <v>5</v>
-      </c>
-      <c r="L129" s="29"/>
+      <c r="K129" s="28">
+        <v>5</v>
+      </c>
+      <c r="L129" s="28"/>
     </row>
     <row r="130" spans="1:12" outlineLevel="1">
-      <c r="A130" s="23" t="s">
+      <c r="A130" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B130" s="10">
         <v>23</v>
       </c>
-      <c r="C130" s="29">
-        <v>4</v>
-      </c>
-      <c r="D130" s="34" t="s">
+      <c r="C130" s="28">
+        <v>4</v>
+      </c>
+      <c r="D130" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E130" s="31">
+      <c r="E130" s="30">
         <v>6</v>
       </c>
-      <c r="F130" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G130" s="29" t="s">
+      <c r="F130" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G130" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H130" s="3">
@@ -7778,35 +7890,35 @@
       <c r="I130" s="8">
         <v>30</v>
       </c>
-      <c r="J130" s="33">
+      <c r="J130" s="32">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>120</v>
       </c>
-      <c r="K130" s="29">
-        <v>3</v>
-      </c>
-      <c r="L130" s="29"/>
+      <c r="K130" s="28">
+        <v>3</v>
+      </c>
+      <c r="L130" s="28"/>
     </row>
     <row r="131" spans="1:12" outlineLevel="1">
-      <c r="A131" s="23" t="s">
+      <c r="A131" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B131" s="10">
         <v>24</v>
       </c>
-      <c r="C131" s="29">
-        <v>3</v>
-      </c>
-      <c r="D131" s="34" t="s">
+      <c r="C131" s="28">
+        <v>3</v>
+      </c>
+      <c r="D131" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E131" s="31">
+      <c r="E131" s="30">
         <v>7</v>
       </c>
-      <c r="F131" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G131" s="29" t="s">
+      <c r="F131" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G131" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H131" s="3">
@@ -7816,35 +7928,35 @@
       <c r="I131" s="8">
         <v>35</v>
       </c>
-      <c r="J131" s="33">
+      <c r="J131" s="32">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>105</v>
       </c>
-      <c r="K131" s="29">
-        <v>2</v>
-      </c>
-      <c r="L131" s="29"/>
+      <c r="K131" s="28">
+        <v>2</v>
+      </c>
+      <c r="L131" s="28"/>
     </row>
     <row r="132" spans="1:12" outlineLevel="1">
-      <c r="A132" s="23" t="s">
+      <c r="A132" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B132" s="10">
         <v>25</v>
       </c>
-      <c r="C132" s="29">
-        <v>4</v>
-      </c>
-      <c r="D132" s="34" t="s">
+      <c r="C132" s="28">
+        <v>4</v>
+      </c>
+      <c r="D132" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E132" s="31" t="s">
+      <c r="E132" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="F132" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G132" s="29" t="s">
+      <c r="F132" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G132" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H132" s="3">
@@ -7854,14 +7966,14 @@
       <c r="I132" s="8">
         <v>30</v>
       </c>
-      <c r="J132" s="33">
+      <c r="J132" s="32">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
         <v>120</v>
       </c>
-      <c r="K132" s="29">
-        <v>4</v>
-      </c>
-      <c r="L132" s="29"/>
+      <c r="K132" s="28">
+        <v>4</v>
+      </c>
+      <c r="L132" s="28"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -14980,7 +15092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB68659-7C54-475B-A61E-BCAA5571C1D3}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -15002,49 +15114,49 @@
     <row r="1" spans="1:13" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="36" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="36" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="L1" s="38"/>
+      <c r="L1" s="42"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>154</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="34" t="s">
         <v>213</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="34" t="s">
         <v>214</v>
       </c>
       <c r="J2" t="s">
@@ -15062,23 +15174,23 @@
         <v>220</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="39">
+      <c r="C3" s="35">
         <v>151</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="35">
         <v>10</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="35">
         <v>4</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="39">
+      <c r="G3" s="35">
         <v>10</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="35">
         <v>8</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="35">
         <v>4</v>
       </c>
       <c r="J3" s="3"/>
@@ -15097,23 +15209,23 @@
         <v>219</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="39">
+      <c r="C4" s="35">
         <v>150</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="35">
         <v>12</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="35">
         <v>4</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="40">
+      <c r="G4" s="36">
         <v>8</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="36">
         <v>7</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="36">
         <v>3</v>
       </c>
       <c r="J4" s="3"/>
@@ -15132,23 +15244,23 @@
         <v>222</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="40">
+      <c r="C5" s="36">
         <v>153</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="36">
         <v>8</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="36">
         <v>3</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="40">
+      <c r="G5" s="36">
         <v>8</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="36">
         <v>11</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="36">
         <v>3</v>
       </c>
       <c r="J5" s="3"/>
@@ -15167,23 +15279,23 @@
         <v>223</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="40">
+      <c r="C6" s="36">
         <v>155</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="36">
         <v>6</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="36">
         <v>3</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="40">
+      <c r="G6" s="36">
         <v>9</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="36">
         <v>10</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="36">
         <v>3</v>
       </c>
       <c r="J6" s="3"/>
@@ -15202,23 +15314,23 @@
         <v>221</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="39">
+      <c r="C7" s="35">
         <v>151</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="35">
         <v>9</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="35">
         <v>4</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="41">
+      <c r="G7" s="37">
         <v>7</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="37">
         <v>9</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="37">
         <v>2</v>
       </c>
       <c r="J7" s="3"/>
@@ -15237,23 +15349,23 @@
         <v>226</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="41">
+      <c r="C8" s="37">
         <v>156</v>
       </c>
-      <c r="D8" s="41">
-        <v>4</v>
-      </c>
-      <c r="E8" s="41">
+      <c r="D8" s="37">
+        <v>4</v>
+      </c>
+      <c r="E8" s="37">
         <v>2</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="39">
+      <c r="G8" s="35">
         <v>15</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="35">
         <v>12</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="35">
         <v>4</v>
       </c>
       <c r="J8" s="3"/>
@@ -15272,23 +15384,23 @@
         <v>224</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="41">
+      <c r="C9" s="37">
         <v>159</v>
       </c>
-      <c r="D9" s="41">
-        <v>2</v>
-      </c>
-      <c r="E9" s="41">
+      <c r="D9" s="37">
+        <v>2</v>
+      </c>
+      <c r="E9" s="37">
         <v>2</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="39">
+      <c r="G9" s="35">
         <v>10</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="35">
         <v>9</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="35">
         <v>4</v>
       </c>
       <c r="J9" s="3"/>
@@ -15307,23 +15419,23 @@
         <v>225</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="41">
+      <c r="C10" s="37">
         <v>156</v>
       </c>
-      <c r="D10" s="41">
-        <v>3</v>
-      </c>
-      <c r="E10" s="41">
+      <c r="D10" s="37">
+        <v>3</v>
+      </c>
+      <c r="E10" s="37">
         <v>2</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="41">
+      <c r="G10" s="37">
         <v>6</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="37">
         <v>6</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="37">
         <v>2</v>
       </c>
       <c r="J10" s="3"/>
@@ -15342,23 +15454,23 @@
         <v>227</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="40">
+      <c r="C11" s="36">
         <v>155</v>
       </c>
-      <c r="D11" s="40">
-        <v>5</v>
-      </c>
-      <c r="E11" s="40">
+      <c r="D11" s="36">
+        <v>5</v>
+      </c>
+      <c r="E11" s="36">
         <v>3</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="42">
-        <v>5</v>
-      </c>
-      <c r="H11" s="42">
-        <v>5</v>
-      </c>
-      <c r="I11" s="42">
+      <c r="G11" s="38">
+        <v>5</v>
+      </c>
+      <c r="H11" s="38">
+        <v>5</v>
+      </c>
+      <c r="I11" s="38">
         <v>1</v>
       </c>
       <c r="J11" s="3"/>
@@ -15377,23 +15489,23 @@
         <v>209</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="42">
+      <c r="C12" s="38">
         <v>164</v>
       </c>
-      <c r="D12" s="42">
-        <v>0</v>
-      </c>
-      <c r="E12" s="42">
+      <c r="D12" s="38">
+        <v>0</v>
+      </c>
+      <c r="E12" s="38">
         <v>1</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="41">
+      <c r="G12" s="37">
         <v>7</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="37">
         <v>7</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="37">
         <v>2</v>
       </c>
       <c r="J12" s="3"/>
@@ -15412,23 +15524,23 @@
         <v>207</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="42">
+      <c r="C13" s="38">
         <v>161</v>
       </c>
-      <c r="D13" s="42">
-        <v>1</v>
-      </c>
-      <c r="E13" s="42">
+      <c r="D13" s="38">
+        <v>1</v>
+      </c>
+      <c r="E13" s="38">
         <v>1</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="42">
-        <v>3</v>
-      </c>
-      <c r="H13" s="42">
-        <v>3</v>
-      </c>
-      <c r="I13" s="42">
+      <c r="G13" s="38">
+        <v>3</v>
+      </c>
+      <c r="H13" s="38">
+        <v>3</v>
+      </c>
+      <c r="I13" s="38">
         <v>1</v>
       </c>
       <c r="J13" s="3"/>
@@ -15447,23 +15559,23 @@
         <v>208</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="42">
+      <c r="C14" s="38">
         <v>163</v>
       </c>
-      <c r="D14" s="42">
-        <v>0</v>
-      </c>
-      <c r="E14" s="42">
+      <c r="D14" s="38">
+        <v>0</v>
+      </c>
+      <c r="E14" s="38">
         <v>1</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="42">
-        <v>5</v>
-      </c>
-      <c r="H14" s="42">
-        <v>5</v>
-      </c>
-      <c r="I14" s="42">
+      <c r="G14" s="38">
+        <v>5</v>
+      </c>
+      <c r="H14" s="38">
+        <v>5</v>
+      </c>
+      <c r="I14" s="38">
         <v>1</v>
       </c>
       <c r="J14" s="3"/>

--- a/CraZZZy Crash Challenge/CCC-Daten.xlsx
+++ b/CraZZZy Crash Challenge/CCC-Daten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Private\JVerkin\projects\KaroToolsCollection\CraZZZy Crash Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6D568A-19C8-47BB-90EB-30D976A7FDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15C615B-A4F7-4E39-A874-51FA16061A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-10170" windowWidth="21840" windowHeight="38040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="528">
   <si>
     <t>Teilnehmer</t>
   </si>
@@ -1637,6 +1637,36 @@
   </si>
   <si>
     <t>Kandidat mit ZZZ</t>
+  </si>
+  <si>
+    <t>Mit CPs in den Schlaufen</t>
+  </si>
+  <si>
+    <t>Mit CPs in den Verzweigungen</t>
+  </si>
+  <si>
+    <t>Mit gelben CPs als Schattierung</t>
+  </si>
+  <si>
+    <t>Mit CPs und anderem Ziel</t>
+  </si>
+  <si>
+    <t>Mit CPs in den Spitzen + farbige Flächen</t>
+  </si>
+  <si>
+    <t>Mit umgekehrten Pfeilen</t>
+  </si>
+  <si>
+    <t>Mit 8 statt 2 CPs und Verbindungen</t>
+  </si>
+  <si>
+    <t>Mit Durchgang und CPs</t>
+  </si>
+  <si>
+    <t>Mit CP-Durchgang oben in der Mitte?</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -1645,7 +1675,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;ca. &quot;\ 0"/>
-    <numFmt numFmtId="169" formatCode="&quot;max. &quot;\ #"/>
+    <numFmt numFmtId="165" formatCode="&quot;max. &quot;\ #"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1967,6 +1997,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1976,28 +2021,13 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Überschrift 2" xfId="2" builtinId="17"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="35">
     <dxf>
       <font>
         <b/>
@@ -2025,64 +2055,6 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2156,6 +2128,24 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2222,22 +2212,22 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Teilnehmer" totalsRowLabel="Ergebnis"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Teilnahmen" totalsRowLabel="x" dataDxfId="38" totalsRowDxfId="37">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Teilnahmen" totalsRowLabel="x" dataDxfId="34" totalsRowDxfId="33">
       <calculatedColumnFormula>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CCC1" totalsRowFunction="custom" dataDxfId="36">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CCC1" totalsRowFunction="custom" dataDxfId="32">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC1],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CCC2" totalsRowFunction="custom" dataDxfId="35">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CCC2" totalsRowFunction="custom" dataDxfId="31">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC2],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CCC3" totalsRowFunction="custom" dataDxfId="34">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CCC3" totalsRowFunction="custom" dataDxfId="30">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC3],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CCC4" totalsRowFunction="custom" dataDxfId="33">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CCC4" totalsRowFunction="custom" dataDxfId="29">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC4],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CCC5" totalsRowFunction="custom" dataDxfId="32">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CCC5" totalsRowFunction="custom" dataDxfId="28">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC5],$B71)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2246,53 +2236,53 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:M132" totalsRowShown="0" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:M132" totalsRowShown="0" dataDxfId="27">
   <autoFilter ref="A1:M132" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K70">
     <sortCondition ref="A37"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CCC"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spieltag" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Spieler" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{46DD40C5-F863-41A3-82F9-4E621D4A2334}" name="Map ID" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Map Name" dataDxfId="28" dataCellStyle="Link"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="22">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spieltag" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Spieler" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{46DD40C5-F863-41A3-82F9-4E621D4A2334}" name="Map ID" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Map Name" dataDxfId="23" dataCellStyle="Link"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="17">
       <calculatedColumnFormula>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD48A89C-AF8A-4D74-BEE3-973381D8E39E}" name="Tabelle2" displayName="Tabelle2" ref="A2:L14" totalsRowShown="0" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD48A89C-AF8A-4D74-BEE3-973381D8E39E}" name="Tabelle2" displayName="Tabelle2" ref="A2:L14" totalsRowShown="0" dataDxfId="14">
   <autoFilter ref="A2:L14" xr:uid="{FD48A89C-AF8A-4D74-BEE3-973381D8E39E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L14">
     <sortCondition descending="1" ref="L2:L14"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{06B18662-5B32-42F6-85CF-17D8C9DC7BDF}" name="Spieler" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{183E08E8-D5AA-4DF3-942F-C23480690953}" name=" " dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{37A147A2-6A27-443D-8799-F71527EF7750}" name="Züge" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{31696DC1-5E37-430E-8871-0BCFCD170B2E}" name="Klassisch (Z)" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{BC263A88-D39F-446D-BF5C-F85521658DA8}" name="Geclustert (Z)" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{093A8095-9008-4D88-88F6-250A19675DD8}" name="  " dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{879335B0-290D-43FA-A6FE-E6B6F53D9440}" name="Crashs" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{78D21676-2217-4EF4-A197-F19C7A84C471}" name="Klassisch (CR)" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{BB0FE7C7-52D6-4A76-8688-1B73AD062B37}" name="Geclustert (CR)" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{2E578574-BF4A-4EFE-BF15-F379C953D82E}" name="   " dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{D08C11A1-CC23-4F54-8A65-A4D420BAED58}" name="Gesamt Klassisch" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{06B18662-5B32-42F6-85CF-17D8C9DC7BDF}" name="Spieler" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{183E08E8-D5AA-4DF3-942F-C23480690953}" name=" " dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{37A147A2-6A27-443D-8799-F71527EF7750}" name="Züge" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{31696DC1-5E37-430E-8871-0BCFCD170B2E}" name="Klassisch (Z)" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{BC263A88-D39F-446D-BF5C-F85521658DA8}" name="Geclustert (Z)" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{093A8095-9008-4D88-88F6-250A19675DD8}" name="  " dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{879335B0-290D-43FA-A6FE-E6B6F53D9440}" name="Crashs" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{78D21676-2217-4EF4-A197-F19C7A84C471}" name="Klassisch (CR)" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{BB0FE7C7-52D6-4A76-8688-1B73AD062B37}" name="Geclustert (CR)" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{2E578574-BF4A-4EFE-BF15-F379C953D82E}" name="   " dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{D08C11A1-CC23-4F54-8A65-A4D420BAED58}" name="Gesamt Klassisch" dataDxfId="3">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Klassisch (Z)]]*Tabelle2[[#This Row],[Klassisch (CR)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C8F6816D-C153-497A-A2CC-4183AA81D2EF}" name="Gesamt Geclustert" dataDxfId="7">
+    <tableColumn id="12" xr3:uid="{C8F6816D-C153-497A-A2CC-4183AA81D2EF}" name="Gesamt Geclustert" dataDxfId="2">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Geclustert (Z)]]*Tabelle2[[#This Row],[Geclustert (CR)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2301,7 +2291,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{897B7B9F-55FE-4CEE-88A6-F9425764BC23}" name="Tabelle4" displayName="Tabelle4" ref="A1:L283" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{897B7B9F-55FE-4CEE-88A6-F9425764BC23}" name="Tabelle4" displayName="Tabelle4" ref="A1:L284" totalsRowCount="1" headerRowDxfId="0">
   <autoFilter ref="A1:L283" xr:uid="{897B7B9F-55FE-4CEE-88A6-F9425764BC23}">
     <filterColumn colId="10">
       <filters>
@@ -2310,7 +2300,7 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{3A8A351D-A597-4224-93C7-E12FA0C39B9B}" name="Copy-Paste HTML here"/>
+    <tableColumn id="1" xr3:uid="{3A8A351D-A597-4224-93C7-E12FA0C39B9B}" name="Copy-Paste HTML here" totalsRowLabel="Ergebnis"/>
     <tableColumn id="2" xr3:uid="{E64A2A26-C77C-4F2D-87B5-FC05840D49D7}" name="=">
       <calculatedColumnFormula>FIND(B$1,$A2)</calculatedColumnFormula>
     </tableColumn>
@@ -2336,10 +2326,10 @@
     <tableColumn id="10" xr3:uid="{3F139DA0-52EA-4848-9C94-104C11AFDF7C}" name="Spieler">
       <calculatedColumnFormula>LEFT(RIGHT($A2,LEN($A2) - E2 - 1),F2-E2-2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{3DFC605D-42C4-4277-8FCE-E63EFB61D7AC}" name="Verwendet?">
+    <tableColumn id="11" xr3:uid="{3DFC605D-42C4-4277-8FCE-E63EFB61D7AC}" name="Verwendet?" totalsRowFunction="sum">
       <calculatedColumnFormula>COUNTIF(Strecken!D:D,H2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{6E8D214A-CC9B-4A13-ABB1-6A6DD9B94F36}" name="Kandidat mit ZZZ"/>
+    <tableColumn id="12" xr3:uid="{6E8D214A-CC9B-4A13-ABB1-6A6DD9B94F36}" name="Kandidat mit ZZZ" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4061,7 +4051,7 @@
   </sheetPr>
   <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
@@ -4178,7 +4168,7 @@
       <c r="D3" s="3">
         <v>92</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="39" t="s">
         <v>129</v>
       </c>
       <c r="F3" s="10">
@@ -4217,7 +4207,7 @@
       <c r="D4" s="3">
         <v>109</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="39" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="10">
@@ -4256,7 +4246,7 @@
       <c r="D5" s="3">
         <v>128</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="39" t="s">
         <v>131</v>
       </c>
       <c r="F5" s="10">
@@ -4295,7 +4285,7 @@
       <c r="D6" s="3">
         <v>157</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="39" t="s">
         <v>132</v>
       </c>
       <c r="F6" s="10">
@@ -4334,7 +4324,7 @@
       <c r="D7" s="3">
         <v>171</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F7" s="10">
@@ -4373,7 +4363,7 @@
       <c r="D8" s="3">
         <v>38</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="39" t="s">
         <v>134</v>
       </c>
       <c r="F8" s="10">
@@ -4412,7 +4402,7 @@
       <c r="D9" s="3">
         <v>102</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="39" t="s">
         <v>135</v>
       </c>
       <c r="F9" s="10">
@@ -4451,7 +4441,7 @@
       <c r="D10" s="3">
         <v>143</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="39" t="s">
         <v>136</v>
       </c>
       <c r="F10" s="10">
@@ -4490,7 +4480,7 @@
       <c r="D11" s="3">
         <v>155</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="39" t="s">
         <v>137</v>
       </c>
       <c r="F11" s="10">
@@ -4529,7 +4519,7 @@
       <c r="D12" s="3">
         <v>169</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="39" t="s">
         <v>138</v>
       </c>
       <c r="F12" s="10">
@@ -4568,7 +4558,7 @@
       <c r="D13" s="3">
         <v>17</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="39" t="s">
         <v>139</v>
       </c>
       <c r="F13" s="10">
@@ -4607,7 +4597,7 @@
       <c r="D14" s="3">
         <v>34</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F14" s="10">
@@ -4646,7 +4636,7 @@
       <c r="D15" s="3">
         <v>45</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="39" t="s">
         <v>141</v>
       </c>
       <c r="F15" s="10">
@@ -4685,7 +4675,7 @@
       <c r="D16" s="3">
         <v>52</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="39" t="s">
         <v>142</v>
       </c>
       <c r="F16" s="10">
@@ -4724,7 +4714,7 @@
       <c r="D17" s="3">
         <v>124</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="39" t="s">
         <v>143</v>
       </c>
       <c r="F17" s="10">
@@ -4805,7 +4795,7 @@
       <c r="D19" s="5">
         <v>114</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="39" t="s">
         <v>144</v>
       </c>
       <c r="F19" s="10">
@@ -4844,7 +4834,7 @@
       <c r="D20" s="5">
         <v>135</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="39" t="s">
         <v>145</v>
       </c>
       <c r="F20" s="10">
@@ -8471,7 +8461,7 @@
       <c r="B111" s="9">
         <v>4</v>
       </c>
-      <c r="C111" s="45"/>
+      <c r="C111" s="42"/>
       <c r="D111" s="27"/>
       <c r="E111" s="32"/>
       <c r="F111" s="30"/>
@@ -8504,7 +8494,7 @@
       <c r="B112" s="9">
         <v>5</v>
       </c>
-      <c r="C112" s="45"/>
+      <c r="C112" s="42"/>
       <c r="D112" s="27"/>
       <c r="E112" s="32"/>
       <c r="F112" s="29"/>
@@ -8537,7 +8527,7 @@
       <c r="B113" s="9">
         <v>6</v>
       </c>
-      <c r="C113" s="45"/>
+      <c r="C113" s="42"/>
       <c r="D113" s="27"/>
       <c r="E113" s="32"/>
       <c r="F113" s="29"/>
@@ -8570,7 +8560,7 @@
       <c r="B114" s="9">
         <v>7</v>
       </c>
-      <c r="C114" s="46"/>
+      <c r="C114" s="43"/>
       <c r="D114" s="27"/>
       <c r="E114" s="32"/>
       <c r="F114" s="29"/>
@@ -8603,7 +8593,7 @@
       <c r="B115" s="9">
         <v>8</v>
       </c>
-      <c r="C115" s="45"/>
+      <c r="C115" s="42"/>
       <c r="D115" s="27"/>
       <c r="E115" s="32"/>
       <c r="F115" s="29"/>
@@ -8636,7 +8626,7 @@
       <c r="B116" s="9">
         <v>9</v>
       </c>
-      <c r="C116" s="45"/>
+      <c r="C116" s="42"/>
       <c r="D116" s="27"/>
       <c r="E116" s="32"/>
       <c r="F116" s="30"/>
@@ -8669,7 +8659,7 @@
       <c r="B117" s="9">
         <v>10</v>
       </c>
-      <c r="C117" s="45"/>
+      <c r="C117" s="42"/>
       <c r="D117" s="27"/>
       <c r="E117" s="32"/>
       <c r="F117" s="29"/>
@@ -8702,7 +8692,7 @@
       <c r="B118" s="9">
         <v>11</v>
       </c>
-      <c r="C118" s="45"/>
+      <c r="C118" s="42"/>
       <c r="D118" s="27"/>
       <c r="E118" s="32"/>
       <c r="F118" s="29"/>
@@ -8735,7 +8725,7 @@
       <c r="B119" s="9">
         <v>12</v>
       </c>
-      <c r="C119" s="46"/>
+      <c r="C119" s="43"/>
       <c r="D119" s="27"/>
       <c r="E119" s="32"/>
       <c r="F119" s="29"/>
@@ -8768,7 +8758,7 @@
       <c r="B120" s="9">
         <v>13</v>
       </c>
-      <c r="C120" s="45"/>
+      <c r="C120" s="42"/>
       <c r="D120" s="27"/>
       <c r="E120" s="32"/>
       <c r="F120" s="29"/>
@@ -8801,7 +8791,7 @@
       <c r="B121" s="9">
         <v>14</v>
       </c>
-      <c r="C121" s="45"/>
+      <c r="C121" s="42"/>
       <c r="D121" s="27"/>
       <c r="E121" s="32"/>
       <c r="F121" s="29"/>
@@ -8834,7 +8824,7 @@
       <c r="B122" s="9">
         <v>15</v>
       </c>
-      <c r="C122" s="45"/>
+      <c r="C122" s="42"/>
       <c r="D122" s="27"/>
       <c r="E122" s="32"/>
       <c r="F122" s="29"/>
@@ -8966,8 +8956,8 @@
       <c r="B126" s="9">
         <v>19</v>
       </c>
-      <c r="C126" s="45"/>
-      <c r="D126" s="43"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="40"/>
       <c r="E126" s="32"/>
       <c r="F126" s="29"/>
       <c r="G126" s="27" t="s">
@@ -8999,8 +8989,8 @@
       <c r="B127" s="9">
         <v>20</v>
       </c>
-      <c r="C127" s="44"/>
-      <c r="D127" s="43"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="40"/>
       <c r="E127" s="32"/>
       <c r="F127" s="29"/>
       <c r="G127" s="27" t="s">
@@ -9032,8 +9022,8 @@
       <c r="B128" s="9">
         <v>21</v>
       </c>
-      <c r="C128" s="44"/>
-      <c r="D128" s="43"/>
+      <c r="C128" s="41"/>
+      <c r="D128" s="40"/>
       <c r="E128" s="32"/>
       <c r="F128" s="29"/>
       <c r="G128" s="27" t="s">
@@ -9065,8 +9055,8 @@
       <c r="B129" s="9">
         <v>22</v>
       </c>
-      <c r="C129" s="44"/>
-      <c r="D129" s="43"/>
+      <c r="C129" s="41"/>
+      <c r="D129" s="40"/>
       <c r="E129" s="32"/>
       <c r="F129" s="29"/>
       <c r="G129" s="27" t="s">
@@ -15754,22 +15744,22 @@
     <row r="1" spans="1:13" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="38"/>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
       <c r="J1" s="38"/>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="41"/>
+      <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1">
       <c r="A2" s="33" t="s">
@@ -16244,17 +16234,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L283"/>
+  <dimension ref="A1:L284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="4" width="4.140625" style="48" customWidth="1"/>
-    <col min="5" max="6" width="4.28515625" style="48" customWidth="1"/>
+    <col min="2" max="4" width="4.140625" style="45" customWidth="1"/>
+    <col min="5" max="6" width="4.28515625" style="45" customWidth="1"/>
     <col min="7" max="7" width="3.7109375" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="43.5703125" bestFit="1" customWidth="1"/>
@@ -16267,19 +16257,19 @@
       <c r="A1" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="44" t="s">
         <v>508</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="44" t="s">
         <v>509</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="44" t="s">
         <v>510</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="44" t="s">
         <v>511</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="44" t="s">
         <v>512</v>
       </c>
       <c r="G1" s="8" t="s">
@@ -16305,23 +16295,23 @@
       <c r="A2" t="s">
         <v>507</v>
       </c>
-      <c r="B2" s="48">
+      <c r="B2" s="45">
         <f>FIND(B$1,$A2)</f>
         <v>14</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="45">
         <f t="shared" ref="C2:F17" si="0">FIND(C$1,$A2)</f>
         <v>16</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="45">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="45">
         <f>FIND(E$1,$A2,D2+2)</f>
         <v>35</v>
       </c>
-      <c r="F2" s="48">
+      <c r="F2" s="45">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -16337,7 +16327,7 @@
         <f>LEFT(RIGHT($A2,LEN($A2) - E2 - 1),F2-E2-2)</f>
         <v>5</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="21">
         <f>COUNTIF(Strecken!D:D,H2)</f>
         <v>0</v>
       </c>
@@ -16346,23 +16336,23 @@
       <c r="A3" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="45">
         <f t="shared" ref="B3:F34" si="1">FIND(B$1,$A3)</f>
         <v>14</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="45">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="45">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="45">
         <f t="shared" ref="E3:E66" si="2">FIND(E$1,$A3,D3+2)</f>
         <v>36</v>
       </c>
-      <c r="F3" s="48">
+      <c r="F3" s="45">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -16378,7 +16368,7 @@
         <f t="shared" ref="J3:J33" si="5">LEFT(RIGHT($A3,LEN($A3) - E3 - 1),F3-E3-2)</f>
         <v>5</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="21">
         <f>COUNTIF(Strecken!D:D,H3)</f>
         <v>0</v>
       </c>
@@ -16387,23 +16377,23 @@
       <c r="A4" t="s">
         <v>227</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="45">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="45">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="45">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="45">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -16419,7 +16409,7 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="21">
         <f>COUNTIF(Strecken!D:D,H4)</f>
         <v>0</v>
       </c>
@@ -16428,23 +16418,23 @@
       <c r="A5" t="s">
         <v>228</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="45">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="45">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="45">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="45">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -16460,7 +16450,7 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="21">
         <f>COUNTIF(Strecken!D:D,H5)</f>
         <v>0</v>
       </c>
@@ -16469,23 +16459,23 @@
       <c r="A6" t="s">
         <v>229</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="45">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="45">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="45">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="45">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -16501,32 +16491,35 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="21">
         <f>COUNTIF(Strecken!D:D,H6)</f>
         <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>230</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="45">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="45">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="45">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="45">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -16542,7 +16535,7 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="21">
         <f>COUNTIF(Strecken!D:D,H7)</f>
         <v>0</v>
       </c>
@@ -16551,23 +16544,23 @@
       <c r="A8" t="s">
         <v>231</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="45">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="45">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="45">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="45">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -16583,7 +16576,7 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="21">
         <f>COUNTIF(Strecken!D:D,H8)</f>
         <v>0</v>
       </c>
@@ -16592,23 +16585,23 @@
       <c r="A9" t="s">
         <v>232</v>
       </c>
-      <c r="B9" s="48">
+      <c r="B9" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="45">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="45">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="45">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="45">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -16624,7 +16617,7 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="21">
         <f>COUNTIF(Strecken!D:D,H9)</f>
         <v>0</v>
       </c>
@@ -16633,23 +16626,23 @@
       <c r="A10" t="s">
         <v>233</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="45">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="45">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="45">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="45">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -16665,32 +16658,35 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="21">
         <f>COUNTIF(Strecken!D:D,H10)</f>
         <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>234</v>
       </c>
-      <c r="B11" s="48">
+      <c r="B11" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="45">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="45">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="45">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="45">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
@@ -16706,7 +16702,7 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="21">
         <f>COUNTIF(Strecken!D:D,H11)</f>
         <v>0</v>
       </c>
@@ -16715,23 +16711,23 @@
       <c r="A12" t="s">
         <v>235</v>
       </c>
-      <c r="B12" s="48">
+      <c r="B12" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="45">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="45">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="45">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="45">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -16747,7 +16743,7 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="21">
         <f>COUNTIF(Strecken!D:D,H12)</f>
         <v>0</v>
       </c>
@@ -16756,23 +16752,23 @@
       <c r="A13" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B13" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="45">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="45">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="45">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="45">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -16788,32 +16784,35 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="21">
         <f>COUNTIF(Strecken!D:D,H13)</f>
         <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>237</v>
       </c>
-      <c r="B14" s="48">
+      <c r="B14" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="45">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="45">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="45">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="45">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -16829,32 +16828,35 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="21">
         <f>COUNTIF(Strecken!D:D,H14)</f>
         <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>238</v>
       </c>
-      <c r="B15" s="48">
+      <c r="B15" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="45">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="45">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="45">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="45">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -16870,7 +16872,7 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="21">
         <f>COUNTIF(Strecken!D:D,H15)</f>
         <v>0</v>
       </c>
@@ -16879,23 +16881,23 @@
       <c r="A16" t="s">
         <v>239</v>
       </c>
-      <c r="B16" s="48">
+      <c r="B16" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="45">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="45">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="45">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="45">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
@@ -16911,32 +16913,32 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="21">
         <f>COUNTIF(Strecken!D:D,H16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>240</v>
       </c>
-      <c r="B17" s="48">
+      <c r="B17" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="45">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="45">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="45">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="45">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -16952,12 +16954,12 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="21">
         <f>COUNTIF(Strecken!D:D,H17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1">
+    <row r="18" spans="1:12" hidden="1">
       <c r="A18" t="s">
         <v>241</v>
       </c>
@@ -16998,27 +17000,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>242</v>
       </c>
-      <c r="B19" s="48">
+      <c r="B19" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="45">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="45">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="45">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="45">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
@@ -17034,32 +17036,35 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="21">
         <f>COUNTIF(Strecken!D:D,H19)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>243</v>
       </c>
-      <c r="B20" s="48">
+      <c r="B20" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="45">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="45">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="45">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="45">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
@@ -17075,32 +17080,32 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="21">
         <f>COUNTIF(Strecken!D:D,H20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>244</v>
       </c>
-      <c r="B21" s="48">
+      <c r="B21" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="45">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="45">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="45">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="F21" s="48">
+      <c r="F21" s="45">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
@@ -17116,32 +17121,32 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="21">
         <f>COUNTIF(Strecken!D:D,H21)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>245</v>
       </c>
-      <c r="B22" s="48">
+      <c r="B22" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="45">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="45">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="45">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="45">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
@@ -17157,32 +17162,32 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="21">
         <f>COUNTIF(Strecken!D:D,H22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>246</v>
       </c>
-      <c r="B23" s="48">
+      <c r="B23" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C23" s="48">
+      <c r="C23" s="45">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="45">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="45">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="F23" s="48">
+      <c r="F23" s="45">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
@@ -17198,32 +17203,35 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="21">
         <f>COUNTIF(Strecken!D:D,H23)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>247</v>
       </c>
-      <c r="B24" s="48">
+      <c r="B24" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="45">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="45">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="45">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="F24" s="48">
+      <c r="F24" s="45">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
@@ -17239,32 +17247,32 @@
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="21">
         <f>COUNTIF(Strecken!D:D,H24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>248</v>
       </c>
-      <c r="B25" s="48">
+      <c r="B25" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="45">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D25" s="45">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="45">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="F25" s="48">
+      <c r="F25" s="45">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
@@ -17280,32 +17288,32 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="21">
         <f>COUNTIF(Strecken!D:D,H25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>249</v>
       </c>
-      <c r="B26" s="48">
+      <c r="B26" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="45">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="45">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="45">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="45">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
@@ -17321,32 +17329,35 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="21">
         <f>COUNTIF(Strecken!D:D,H26)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>250</v>
       </c>
-      <c r="B27" s="48">
+      <c r="B27" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C27" s="48">
+      <c r="C27" s="45">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="45">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="45">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="F27" s="48">
+      <c r="F27" s="45">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
@@ -17362,32 +17373,35 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="21">
         <f>COUNTIF(Strecken!D:D,H27)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>251</v>
       </c>
-      <c r="B28" s="48">
+      <c r="B28" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="45">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="45">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="E28" s="48">
+      <c r="E28" s="45">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="F28" s="48">
+      <c r="F28" s="45">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
@@ -17403,32 +17417,35 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="21">
         <f>COUNTIF(Strecken!D:D,H28)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>252</v>
       </c>
-      <c r="B29" s="48">
+      <c r="B29" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="45">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D29" s="48">
+      <c r="D29" s="45">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="45">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="F29" s="48">
+      <c r="F29" s="45">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
@@ -17444,12 +17461,15 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="21">
         <f>COUNTIF(Strecken!D:D,H29)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" hidden="1">
+      <c r="L29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" hidden="1">
       <c r="A30" t="s">
         <v>253</v>
       </c>
@@ -17490,7 +17510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1">
+    <row r="31" spans="1:12" hidden="1">
       <c r="A31" t="s">
         <v>254</v>
       </c>
@@ -17531,27 +17551,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>255</v>
       </c>
-      <c r="B32" s="48">
+      <c r="B32" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="45">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D32" s="45">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="E32" s="48">
+      <c r="E32" s="45">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="F32" s="48">
+      <c r="F32" s="45">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
@@ -17567,32 +17587,35 @@
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="21">
         <f>COUNTIF(Strecken!D:D,H32)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>256</v>
       </c>
-      <c r="B33" s="48">
+      <c r="B33" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C33" s="48">
+      <c r="C33" s="45">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D33" s="48">
+      <c r="D33" s="45">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="E33" s="48">
+      <c r="E33" s="45">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="F33" s="48">
+      <c r="F33" s="45">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
@@ -17608,32 +17631,35 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="21">
         <f>COUNTIF(Strecken!D:D,H33)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>257</v>
       </c>
-      <c r="B34" s="48">
+      <c r="B34" s="45">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C34" s="48">
+      <c r="C34" s="45">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D34" s="48">
+      <c r="D34" s="45">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="E34" s="48">
+      <c r="E34" s="45">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="F34" s="48">
+      <c r="F34" s="45">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
@@ -17649,12 +17675,15 @@
         <f t="shared" ref="J34:J97" si="8">LEFT(RIGHT($A34,LEN($A34) - E34 - 1),F34-E34-2)</f>
         <v>10</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="21">
         <f>COUNTIF(Strecken!D:D,H34)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1">
+      <c r="L34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" hidden="1">
       <c r="A35" t="s">
         <v>258</v>
       </c>
@@ -17695,27 +17724,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>259</v>
       </c>
-      <c r="B36" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C36" s="48">
+      <c r="B36" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C36" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D36" s="48">
+      <c r="D36" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E36" s="48">
+      <c r="E36" s="45">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="F36" s="48">
+      <c r="F36" s="45">
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
@@ -17731,32 +17760,32 @@
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="21">
         <f>COUNTIF(Strecken!D:D,H36)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>260</v>
       </c>
-      <c r="B37" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C37" s="48">
+      <c r="B37" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C37" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D37" s="48">
+      <c r="D37" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E37" s="48">
+      <c r="E37" s="45">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="F37" s="48">
+      <c r="F37" s="45">
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
@@ -17772,32 +17801,35 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="21">
         <f>COUNTIF(Strecken!D:D,H37)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>261</v>
       </c>
-      <c r="B38" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C38" s="48">
+      <c r="B38" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C38" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D38" s="48">
+      <c r="D38" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E38" s="48">
+      <c r="E38" s="45">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="F38" s="48">
+      <c r="F38" s="45">
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
@@ -17813,32 +17845,32 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="21">
         <f>COUNTIF(Strecken!D:D,H38)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>262</v>
       </c>
-      <c r="B39" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C39" s="48">
+      <c r="B39" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C39" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D39" s="48">
+      <c r="D39" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E39" s="48">
+      <c r="E39" s="45">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="F39" s="48">
+      <c r="F39" s="45">
         <f t="shared" si="9"/>
         <v>38</v>
       </c>
@@ -17854,32 +17886,32 @@
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="21">
         <f>COUNTIF(Strecken!D:D,H39)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>263</v>
       </c>
-      <c r="B40" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C40" s="48">
+      <c r="B40" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C40" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D40" s="48">
+      <c r="D40" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E40" s="48">
+      <c r="E40" s="45">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="F40" s="48">
+      <c r="F40" s="45">
         <f t="shared" si="9"/>
         <v>35</v>
       </c>
@@ -17895,12 +17927,15 @@
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="21">
         <f>COUNTIF(Strecken!D:D,H40)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" hidden="1">
+      <c r="L40" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" hidden="1">
       <c r="A41" t="s">
         <v>264</v>
       </c>
@@ -17941,27 +17976,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>265</v>
       </c>
-      <c r="B42" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C42" s="48">
+      <c r="B42" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C42" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D42" s="48">
+      <c r="D42" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E42" s="48">
+      <c r="E42" s="45">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="F42" s="48">
+      <c r="F42" s="45">
         <f t="shared" si="9"/>
         <v>51</v>
       </c>
@@ -17977,32 +18012,32 @@
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="21">
         <f>COUNTIF(Strecken!D:D,H42)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>266</v>
       </c>
-      <c r="B43" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C43" s="48">
+      <c r="B43" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C43" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D43" s="48">
+      <c r="D43" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E43" s="48">
+      <c r="E43" s="45">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="F43" s="48">
+      <c r="F43" s="45">
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
@@ -18018,32 +18053,32 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="21">
         <f>COUNTIF(Strecken!D:D,H43)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>267</v>
       </c>
-      <c r="B44" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C44" s="48">
+      <c r="B44" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C44" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D44" s="48">
+      <c r="D44" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E44" s="48">
+      <c r="E44" s="45">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="F44" s="48">
+      <c r="F44" s="45">
         <f t="shared" si="9"/>
         <v>42</v>
       </c>
@@ -18059,32 +18094,35 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="21">
         <f>COUNTIF(Strecken!D:D,H44)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>268</v>
       </c>
-      <c r="B45" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C45" s="48">
+      <c r="B45" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C45" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D45" s="48">
+      <c r="D45" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E45" s="48">
+      <c r="E45" s="45">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="F45" s="48">
+      <c r="F45" s="45">
         <f t="shared" si="9"/>
         <v>46</v>
       </c>
@@ -18100,32 +18138,35 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="21">
         <f>COUNTIF(Strecken!D:D,H45)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>269</v>
       </c>
-      <c r="B46" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C46" s="48">
+      <c r="B46" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C46" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D46" s="48">
+      <c r="D46" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E46" s="48">
+      <c r="E46" s="45">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="F46" s="48">
+      <c r="F46" s="45">
         <f t="shared" si="9"/>
         <v>45</v>
       </c>
@@ -18141,32 +18182,32 @@
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="21">
         <f>COUNTIF(Strecken!D:D,H46)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>270</v>
       </c>
-      <c r="B47" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C47" s="48">
+      <c r="B47" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C47" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D47" s="48">
+      <c r="D47" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E47" s="48">
+      <c r="E47" s="45">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="F47" s="48">
+      <c r="F47" s="45">
         <f t="shared" si="9"/>
         <v>49</v>
       </c>
@@ -18182,32 +18223,32 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="21">
         <f>COUNTIF(Strecken!D:D,H47)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>271</v>
       </c>
-      <c r="B48" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C48" s="48">
+      <c r="B48" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C48" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D48" s="48">
+      <c r="D48" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E48" s="48">
+      <c r="E48" s="45">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="F48" s="48">
+      <c r="F48" s="45">
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
@@ -18223,7 +18264,7 @@
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="21">
         <f>COUNTIF(Strecken!D:D,H48)</f>
         <v>0</v>
       </c>
@@ -18232,23 +18273,23 @@
       <c r="A49" t="s">
         <v>272</v>
       </c>
-      <c r="B49" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C49" s="48">
+      <c r="B49" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C49" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D49" s="48">
+      <c r="D49" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E49" s="48">
+      <c r="E49" s="45">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="F49" s="48">
+      <c r="F49" s="45">
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
@@ -18264,7 +18305,7 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="21">
         <f>COUNTIF(Strecken!D:D,H49)</f>
         <v>0</v>
       </c>
@@ -18273,23 +18314,23 @@
       <c r="A50" t="s">
         <v>273</v>
       </c>
-      <c r="B50" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C50" s="48">
+      <c r="B50" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C50" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D50" s="48">
+      <c r="D50" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E50" s="48">
+      <c r="E50" s="45">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="F50" s="48">
+      <c r="F50" s="45">
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
@@ -18305,7 +18346,7 @@
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="21">
         <f>COUNTIF(Strecken!D:D,H50)</f>
         <v>0</v>
       </c>
@@ -18314,23 +18355,23 @@
       <c r="A51" t="s">
         <v>274</v>
       </c>
-      <c r="B51" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C51" s="48">
+      <c r="B51" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C51" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D51" s="48">
+      <c r="D51" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E51" s="48">
+      <c r="E51" s="45">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="F51" s="48">
+      <c r="F51" s="45">
         <f t="shared" si="9"/>
         <v>46</v>
       </c>
@@ -18346,7 +18387,7 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="21">
         <f>COUNTIF(Strecken!D:D,H51)</f>
         <v>0</v>
       </c>
@@ -18884,7 +18925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1">
+    <row r="65" spans="1:12" hidden="1">
       <c r="A65" t="s">
         <v>288</v>
       </c>
@@ -18925,7 +18966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1">
+    <row r="66" spans="1:12" hidden="1">
       <c r="A66" t="s">
         <v>289</v>
       </c>
@@ -18966,7 +19007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1">
+    <row r="67" spans="1:12" hidden="1">
       <c r="A67" t="s">
         <v>290</v>
       </c>
@@ -19007,7 +19048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1">
+    <row r="68" spans="1:12" hidden="1">
       <c r="A68" t="s">
         <v>291</v>
       </c>
@@ -19048,7 +19089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1">
+    <row r="69" spans="1:12" hidden="1">
       <c r="A69" t="s">
         <v>292</v>
       </c>
@@ -19089,7 +19130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1">
+    <row r="70" spans="1:12" hidden="1">
       <c r="A70" t="s">
         <v>293</v>
       </c>
@@ -19130,7 +19171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1">
+    <row r="71" spans="1:12" hidden="1">
       <c r="A71" t="s">
         <v>294</v>
       </c>
@@ -19171,27 +19212,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>295</v>
       </c>
-      <c r="B72" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C72" s="48">
+      <c r="B72" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C72" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D72" s="48">
+      <c r="D72" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E72" s="48">
+      <c r="E72" s="45">
         <f t="shared" si="10"/>
         <v>49</v>
       </c>
-      <c r="F72" s="48">
+      <c r="F72" s="45">
         <f t="shared" si="9"/>
         <v>52</v>
       </c>
@@ -19207,12 +19248,12 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="21">
         <f>COUNTIF(Strecken!D:D,H72)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1">
+    <row r="73" spans="1:12" hidden="1">
       <c r="A73" t="s">
         <v>296</v>
       </c>
@@ -19253,27 +19294,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
         <v>297</v>
       </c>
-      <c r="B74" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C74" s="48">
+      <c r="B74" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C74" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D74" s="48">
+      <c r="D74" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E74" s="48">
+      <c r="E74" s="45">
         <f t="shared" si="10"/>
         <v>41</v>
       </c>
-      <c r="F74" s="48">
+      <c r="F74" s="45">
         <f t="shared" si="9"/>
         <v>44</v>
       </c>
@@ -19289,32 +19330,32 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="21">
         <f>COUNTIF(Strecken!D:D,H74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
         <v>298</v>
       </c>
-      <c r="B75" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C75" s="48">
+      <c r="B75" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C75" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D75" s="48">
+      <c r="D75" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E75" s="48">
+      <c r="E75" s="45">
         <f t="shared" si="10"/>
         <v>47</v>
       </c>
-      <c r="F75" s="48">
+      <c r="F75" s="45">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
@@ -19330,32 +19371,32 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="21">
         <f>COUNTIF(Strecken!D:D,H75)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
         <v>299</v>
       </c>
-      <c r="B76" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C76" s="48">
+      <c r="B76" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C76" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D76" s="48">
+      <c r="D76" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E76" s="48">
+      <c r="E76" s="45">
         <f t="shared" si="10"/>
         <v>38</v>
       </c>
-      <c r="F76" s="48">
+      <c r="F76" s="45">
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
@@ -19371,32 +19412,32 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="21">
         <f>COUNTIF(Strecken!D:D,H76)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
         <v>300</v>
       </c>
-      <c r="B77" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C77" s="48">
+      <c r="B77" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C77" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D77" s="48">
+      <c r="D77" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E77" s="48">
+      <c r="E77" s="45">
         <f t="shared" si="10"/>
         <v>33</v>
       </c>
-      <c r="F77" s="48">
+      <c r="F77" s="45">
         <f t="shared" si="9"/>
         <v>36</v>
       </c>
@@ -19412,32 +19453,35 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="21">
         <f>COUNTIF(Strecken!D:D,H77)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="L77" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
         <v>301</v>
       </c>
-      <c r="B78" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C78" s="48">
+      <c r="B78" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C78" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D78" s="48">
+      <c r="D78" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E78" s="48">
+      <c r="E78" s="45">
         <f t="shared" si="10"/>
         <v>39</v>
       </c>
-      <c r="F78" s="48">
+      <c r="F78" s="45">
         <f t="shared" si="9"/>
         <v>42</v>
       </c>
@@ -19453,32 +19497,35 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="21">
         <f>COUNTIF(Strecken!D:D,H78)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="L78" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
         <v>302</v>
       </c>
-      <c r="B79" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C79" s="48">
+      <c r="B79" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C79" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D79" s="48">
+      <c r="D79" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E79" s="48">
+      <c r="E79" s="45">
         <f t="shared" si="10"/>
         <v>39</v>
       </c>
-      <c r="F79" s="48">
+      <c r="F79" s="45">
         <f t="shared" si="9"/>
         <v>42</v>
       </c>
@@ -19494,32 +19541,32 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="21">
         <f>COUNTIF(Strecken!D:D,H79)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
         <v>303</v>
       </c>
-      <c r="B80" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C80" s="48">
+      <c r="B80" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C80" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D80" s="48">
+      <c r="D80" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E80" s="48">
+      <c r="E80" s="45">
         <f t="shared" si="10"/>
         <v>54</v>
       </c>
-      <c r="F80" s="48">
+      <c r="F80" s="45">
         <f t="shared" si="9"/>
         <v>57</v>
       </c>
@@ -19535,32 +19582,35 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="21">
         <f>COUNTIF(Strecken!D:D,H80)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="L80" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
         <v>304</v>
       </c>
-      <c r="B81" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C81" s="48">
+      <c r="B81" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C81" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D81" s="48">
+      <c r="D81" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E81" s="48">
+      <c r="E81" s="45">
         <f t="shared" si="10"/>
         <v>43</v>
       </c>
-      <c r="F81" s="48">
+      <c r="F81" s="45">
         <f t="shared" si="9"/>
         <v>46</v>
       </c>
@@ -19576,12 +19626,12 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="21">
         <f>COUNTIF(Strecken!D:D,H81)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1">
+    <row r="82" spans="1:12" hidden="1">
       <c r="A82" t="s">
         <v>305</v>
       </c>
@@ -19622,27 +19672,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:12">
       <c r="A83" t="s">
         <v>306</v>
       </c>
-      <c r="B83" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C83" s="48">
+      <c r="B83" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C83" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D83" s="48">
+      <c r="D83" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E83" s="48">
+      <c r="E83" s="45">
         <f t="shared" si="10"/>
         <v>32</v>
       </c>
-      <c r="F83" s="48">
+      <c r="F83" s="45">
         <f t="shared" si="9"/>
         <v>35</v>
       </c>
@@ -19658,12 +19708,15 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="21">
         <f>COUNTIF(Strecken!D:D,H83)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" hidden="1">
+      <c r="L83" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" hidden="1">
       <c r="A84" t="s">
         <v>307</v>
       </c>
@@ -19704,27 +19757,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:12">
       <c r="A85" t="s">
         <v>308</v>
       </c>
-      <c r="B85" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C85" s="48">
+      <c r="B85" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C85" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D85" s="48">
+      <c r="D85" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E85" s="48">
+      <c r="E85" s="45">
         <f t="shared" si="10"/>
         <v>35</v>
       </c>
-      <c r="F85" s="48">
+      <c r="F85" s="45">
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
@@ -19740,12 +19793,12 @@
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="21">
         <f>COUNTIF(Strecken!D:D,H85)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1">
+    <row r="86" spans="1:12" hidden="1">
       <c r="A86" t="s">
         <v>309</v>
       </c>
@@ -19786,27 +19839,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:12">
       <c r="A87" t="s">
         <v>310</v>
       </c>
-      <c r="B87" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C87" s="48">
+      <c r="B87" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C87" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D87" s="48">
+      <c r="D87" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E87" s="48">
+      <c r="E87" s="45">
         <f t="shared" si="10"/>
         <v>38</v>
       </c>
-      <c r="F87" s="48">
+      <c r="F87" s="45">
         <f t="shared" si="9"/>
         <v>42</v>
       </c>
@@ -19822,32 +19875,32 @@
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="21">
         <f>COUNTIF(Strecken!D:D,H87)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:12">
       <c r="A88" t="s">
         <v>311</v>
       </c>
-      <c r="B88" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C88" s="48">
+      <c r="B88" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C88" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D88" s="48">
+      <c r="D88" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E88" s="48">
+      <c r="E88" s="45">
         <f t="shared" si="10"/>
         <v>51</v>
       </c>
-      <c r="F88" s="48">
+      <c r="F88" s="45">
         <f t="shared" si="9"/>
         <v>54</v>
       </c>
@@ -19863,32 +19916,32 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="21">
         <f>COUNTIF(Strecken!D:D,H88)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:12">
       <c r="A89" t="s">
         <v>312</v>
       </c>
-      <c r="B89" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C89" s="48">
+      <c r="B89" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C89" s="45">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D89" s="48">
+      <c r="D89" s="45">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="E89" s="48">
+      <c r="E89" s="45">
         <f t="shared" si="10"/>
         <v>42</v>
       </c>
-      <c r="F89" s="48">
+      <c r="F89" s="45">
         <f t="shared" si="9"/>
         <v>45</v>
       </c>
@@ -19904,32 +19957,35 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="21">
         <f>COUNTIF(Strecken!D:D,H89)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="L89" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" t="s">
         <v>313</v>
       </c>
-      <c r="B90" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C90" s="48">
+      <c r="B90" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C90" s="45">
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="D90" s="48">
+      <c r="D90" s="45">
         <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="E90" s="48">
+      <c r="E90" s="45">
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="F90" s="48">
+      <c r="F90" s="45">
         <f t="shared" si="9"/>
         <v>43</v>
       </c>
@@ -19945,12 +20001,12 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="21">
         <f>COUNTIF(Strecken!D:D,H90)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1">
+    <row r="91" spans="1:12" hidden="1">
       <c r="A91" t="s">
         <v>314</v>
       </c>
@@ -19991,27 +20047,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:12">
       <c r="A92" t="s">
         <v>315</v>
       </c>
-      <c r="B92" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C92" s="48">
+      <c r="B92" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C92" s="45">
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="D92" s="48">
+      <c r="D92" s="45">
         <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="E92" s="48">
+      <c r="E92" s="45">
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="F92" s="48">
+      <c r="F92" s="45">
         <f t="shared" si="9"/>
         <v>43</v>
       </c>
@@ -20027,32 +20083,32 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="21">
         <f>COUNTIF(Strecken!D:D,H92)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:12">
       <c r="A93" t="s">
         <v>316</v>
       </c>
-      <c r="B93" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C93" s="48">
+      <c r="B93" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C93" s="45">
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="D93" s="48">
+      <c r="D93" s="45">
         <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="E93" s="48">
+      <c r="E93" s="45">
         <f t="shared" si="10"/>
         <v>38</v>
       </c>
-      <c r="F93" s="48">
+      <c r="F93" s="45">
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
@@ -20068,32 +20124,32 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="21">
         <f>COUNTIF(Strecken!D:D,H93)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:12">
       <c r="A94" t="s">
         <v>317</v>
       </c>
-      <c r="B94" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C94" s="48">
+      <c r="B94" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C94" s="45">
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="D94" s="48">
+      <c r="D94" s="45">
         <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="E94" s="48">
+      <c r="E94" s="45">
         <f t="shared" si="10"/>
         <v>37</v>
       </c>
-      <c r="F94" s="48">
+      <c r="F94" s="45">
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
@@ -20109,32 +20165,32 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="21">
         <f>COUNTIF(Strecken!D:D,H94)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:12">
       <c r="A95" t="s">
         <v>318</v>
       </c>
-      <c r="B95" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C95" s="48">
+      <c r="B95" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C95" s="45">
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="D95" s="48">
+      <c r="D95" s="45">
         <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="E95" s="48">
+      <c r="E95" s="45">
         <f t="shared" si="10"/>
         <v>37</v>
       </c>
-      <c r="F95" s="48">
+      <c r="F95" s="45">
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
@@ -20150,12 +20206,12 @@
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="21">
         <f>COUNTIF(Strecken!D:D,H95)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1">
+    <row r="96" spans="1:12" hidden="1">
       <c r="A96" t="s">
         <v>319</v>
       </c>
@@ -20196,7 +20252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1">
+    <row r="97" spans="1:12" hidden="1">
       <c r="A97" t="s">
         <v>320</v>
       </c>
@@ -20237,27 +20293,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:12">
       <c r="A98" t="s">
         <v>321</v>
       </c>
-      <c r="B98" s="48">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="C98" s="48">
+      <c r="B98" s="45">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C98" s="45">
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="D98" s="48">
+      <c r="D98" s="45">
         <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="E98" s="48">
+      <c r="E98" s="45">
         <f t="shared" si="10"/>
         <v>39</v>
       </c>
-      <c r="F98" s="48">
+      <c r="F98" s="45">
         <f t="shared" ref="B98:F161" si="11">FIND(F$1,$A98)</f>
         <v>42</v>
       </c>
@@ -20273,12 +20329,12 @@
         <f t="shared" ref="J98:J161" si="14">LEFT(RIGHT($A98,LEN($A98) - E98 - 1),F98-E98-2)</f>
         <v>3</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="21">
         <f>COUNTIF(Strecken!D:D,H98)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1">
+    <row r="99" spans="1:12" hidden="1">
       <c r="A99" t="s">
         <v>322</v>
       </c>
@@ -20319,27 +20375,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:12">
       <c r="A100" t="s">
         <v>323</v>
       </c>
-      <c r="B100" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C100" s="48">
+      <c r="B100" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C100" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D100" s="48">
+      <c r="D100" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E100" s="48">
+      <c r="E100" s="45">
         <f t="shared" si="10"/>
         <v>41</v>
       </c>
-      <c r="F100" s="48">
+      <c r="F100" s="45">
         <f t="shared" si="11"/>
         <v>45</v>
       </c>
@@ -20355,12 +20411,12 @@
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="21">
         <f>COUNTIF(Strecken!D:D,H100)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1">
+    <row r="101" spans="1:12" hidden="1">
       <c r="A101" t="s">
         <v>324</v>
       </c>
@@ -20401,7 +20457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1">
+    <row r="102" spans="1:12" hidden="1">
       <c r="A102" t="s">
         <v>325</v>
       </c>
@@ -20442,27 +20498,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:12">
       <c r="A103" t="s">
         <v>326</v>
       </c>
-      <c r="B103" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C103" s="48">
+      <c r="B103" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C103" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D103" s="48">
+      <c r="D103" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E103" s="48">
+      <c r="E103" s="45">
         <f t="shared" si="10"/>
         <v>39</v>
       </c>
-      <c r="F103" s="48">
+      <c r="F103" s="45">
         <f t="shared" si="11"/>
         <v>43</v>
       </c>
@@ -20478,32 +20534,35 @@
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="21">
         <f>COUNTIF(Strecken!D:D,H103)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="L103" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" t="s">
         <v>327</v>
       </c>
-      <c r="B104" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C104" s="48">
+      <c r="B104" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C104" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D104" s="48">
+      <c r="D104" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E104" s="48">
+      <c r="E104" s="45">
         <f t="shared" si="10"/>
         <v>33</v>
       </c>
-      <c r="F104" s="48">
+      <c r="F104" s="45">
         <f t="shared" si="11"/>
         <v>36</v>
       </c>
@@ -20519,32 +20578,35 @@
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="21">
         <f>COUNTIF(Strecken!D:D,H104)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="L104" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" t="s">
         <v>328</v>
       </c>
-      <c r="B105" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C105" s="48">
+      <c r="B105" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C105" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D105" s="48">
+      <c r="D105" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E105" s="48">
+      <c r="E105" s="45">
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="F105" s="48">
+      <c r="F105" s="45">
         <f t="shared" si="11"/>
         <v>39</v>
       </c>
@@ -20560,32 +20622,32 @@
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="21">
         <f>COUNTIF(Strecken!D:D,H105)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:12">
       <c r="A106" t="s">
         <v>329</v>
       </c>
-      <c r="B106" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C106" s="48">
+      <c r="B106" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C106" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D106" s="48">
+      <c r="D106" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E106" s="48">
+      <c r="E106" s="45">
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="F106" s="48">
+      <c r="F106" s="45">
         <f t="shared" si="11"/>
         <v>43</v>
       </c>
@@ -20601,32 +20663,35 @@
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="21">
         <f>COUNTIF(Strecken!D:D,H106)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="L106" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" t="s">
         <v>330</v>
       </c>
-      <c r="B107" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C107" s="48">
+      <c r="B107" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C107" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D107" s="48">
+      <c r="D107" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E107" s="48">
+      <c r="E107" s="45">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="F107" s="48">
+      <c r="F107" s="45">
         <f t="shared" si="11"/>
         <v>51</v>
       </c>
@@ -20642,12 +20707,15 @@
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="K107">
+      <c r="K107" s="21">
         <f>COUNTIF(Strecken!D:D,H107)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" hidden="1">
+      <c r="L107" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" hidden="1">
       <c r="A108" t="s">
         <v>331</v>
       </c>
@@ -20688,7 +20756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1">
+    <row r="109" spans="1:12" hidden="1">
       <c r="A109" t="s">
         <v>332</v>
       </c>
@@ -20729,7 +20797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1">
+    <row r="110" spans="1:12" hidden="1">
       <c r="A110" t="s">
         <v>333</v>
       </c>
@@ -20770,7 +20838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1">
+    <row r="111" spans="1:12" hidden="1">
       <c r="A111" t="s">
         <v>334</v>
       </c>
@@ -20811,27 +20879,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:12">
       <c r="A112" t="s">
         <v>335</v>
       </c>
-      <c r="B112" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C112" s="48">
+      <c r="B112" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C112" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D112" s="48">
+      <c r="D112" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E112" s="48">
+      <c r="E112" s="45">
         <f t="shared" si="10"/>
         <v>34</v>
       </c>
-      <c r="F112" s="48">
+      <c r="F112" s="45">
         <f t="shared" si="11"/>
         <v>38</v>
       </c>
@@ -20847,12 +20915,15 @@
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="K112">
+      <c r="K112" s="21">
         <f>COUNTIF(Strecken!D:D,H112)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" hidden="1">
+      <c r="L112" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" hidden="1">
       <c r="A113" t="s">
         <v>336</v>
       </c>
@@ -20893,7 +20964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1">
+    <row r="114" spans="1:12" hidden="1">
       <c r="A114" t="s">
         <v>337</v>
       </c>
@@ -20934,27 +21005,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:12">
       <c r="A115" t="s">
         <v>338</v>
       </c>
-      <c r="B115" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C115" s="48">
+      <c r="B115" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C115" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D115" s="48">
+      <c r="D115" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E115" s="48">
+      <c r="E115" s="45">
         <f t="shared" si="10"/>
         <v>35</v>
       </c>
-      <c r="F115" s="48">
+      <c r="F115" s="45">
         <f t="shared" si="11"/>
         <v>38</v>
       </c>
@@ -20970,32 +21041,32 @@
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="K115">
+      <c r="K115" s="21">
         <f>COUNTIF(Strecken!D:D,H115)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:12">
       <c r="A116" t="s">
         <v>339</v>
       </c>
-      <c r="B116" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C116" s="48">
+      <c r="B116" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C116" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D116" s="48">
+      <c r="D116" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E116" s="48">
+      <c r="E116" s="45">
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="F116" s="48">
+      <c r="F116" s="45">
         <f t="shared" si="11"/>
         <v>39</v>
       </c>
@@ -21011,32 +21082,32 @@
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="K116">
+      <c r="K116" s="21">
         <f>COUNTIF(Strecken!D:D,H116)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:12">
       <c r="A117" t="s">
         <v>340</v>
       </c>
-      <c r="B117" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C117" s="48">
+      <c r="B117" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C117" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D117" s="48">
+      <c r="D117" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E117" s="48">
+      <c r="E117" s="45">
         <f t="shared" si="10"/>
         <v>49</v>
       </c>
-      <c r="F117" s="48">
+      <c r="F117" s="45">
         <f t="shared" si="11"/>
         <v>52</v>
       </c>
@@ -21052,32 +21123,32 @@
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="K117">
+      <c r="K117" s="21">
         <f>COUNTIF(Strecken!D:D,H117)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:12">
       <c r="A118" t="s">
         <v>341</v>
       </c>
-      <c r="B118" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C118" s="48">
+      <c r="B118" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C118" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D118" s="48">
+      <c r="D118" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E118" s="48">
+      <c r="E118" s="45">
         <f t="shared" si="10"/>
         <v>33</v>
       </c>
-      <c r="F118" s="48">
+      <c r="F118" s="45">
         <f t="shared" si="11"/>
         <v>37</v>
       </c>
@@ -21093,32 +21164,32 @@
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
-      <c r="K118">
+      <c r="K118" s="21">
         <f>COUNTIF(Strecken!D:D,H118)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:12">
       <c r="A119" t="s">
         <v>342</v>
       </c>
-      <c r="B119" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C119" s="48">
+      <c r="B119" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C119" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D119" s="48">
+      <c r="D119" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E119" s="48">
+      <c r="E119" s="45">
         <f t="shared" si="10"/>
         <v>34</v>
       </c>
-      <c r="F119" s="48">
+      <c r="F119" s="45">
         <f t="shared" si="11"/>
         <v>38</v>
       </c>
@@ -21134,32 +21205,32 @@
         <f t="shared" si="14"/>
         <v>13</v>
       </c>
-      <c r="K119">
+      <c r="K119" s="21">
         <f>COUNTIF(Strecken!D:D,H119)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:12">
       <c r="A120" t="s">
         <v>343</v>
       </c>
-      <c r="B120" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C120" s="48">
+      <c r="B120" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C120" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D120" s="48">
+      <c r="D120" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E120" s="48">
+      <c r="E120" s="45">
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="F120" s="48">
+      <c r="F120" s="45">
         <f t="shared" si="11"/>
         <v>43</v>
       </c>
@@ -21175,12 +21246,15 @@
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="K120">
+      <c r="K120" s="21">
         <f>COUNTIF(Strecken!D:D,H120)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" hidden="1">
+      <c r="L120" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" hidden="1">
       <c r="A121" t="s">
         <v>344</v>
       </c>
@@ -21221,27 +21295,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:12">
       <c r="A122" t="s">
         <v>345</v>
       </c>
-      <c r="B122" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C122" s="48">
+      <c r="B122" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C122" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D122" s="48">
+      <c r="D122" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E122" s="48">
+      <c r="E122" s="45">
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="F122" s="48">
+      <c r="F122" s="45">
         <f t="shared" si="11"/>
         <v>43</v>
       </c>
@@ -21257,32 +21331,32 @@
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="K122">
+      <c r="K122" s="21">
         <f>COUNTIF(Strecken!D:D,H122)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:12">
       <c r="A123" t="s">
         <v>346</v>
       </c>
-      <c r="B123" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C123" s="48">
+      <c r="B123" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C123" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D123" s="48">
+      <c r="D123" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E123" s="48">
+      <c r="E123" s="45">
         <f t="shared" si="10"/>
         <v>39</v>
       </c>
-      <c r="F123" s="48">
+      <c r="F123" s="45">
         <f t="shared" si="11"/>
         <v>42</v>
       </c>
@@ -21298,12 +21372,12 @@
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="K123">
+      <c r="K123" s="21">
         <f>COUNTIF(Strecken!D:D,H123)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1">
+    <row r="124" spans="1:12" hidden="1">
       <c r="A124" t="s">
         <v>347</v>
       </c>
@@ -21344,27 +21418,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:12">
       <c r="A125" t="s">
         <v>348</v>
       </c>
-      <c r="B125" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C125" s="48">
+      <c r="B125" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C125" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D125" s="48">
+      <c r="D125" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E125" s="48">
+      <c r="E125" s="45">
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="F125" s="48">
+      <c r="F125" s="45">
         <f t="shared" si="11"/>
         <v>40</v>
       </c>
@@ -21380,32 +21454,32 @@
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="K125">
+      <c r="K125" s="21">
         <f>COUNTIF(Strecken!D:D,H125)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:12">
       <c r="A126" t="s">
         <v>349</v>
       </c>
-      <c r="B126" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C126" s="48">
+      <c r="B126" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C126" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D126" s="48">
+      <c r="D126" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E126" s="48">
+      <c r="E126" s="45">
         <f t="shared" si="10"/>
         <v>44</v>
       </c>
-      <c r="F126" s="48">
+      <c r="F126" s="45">
         <f t="shared" si="11"/>
         <v>47</v>
       </c>
@@ -21421,32 +21495,32 @@
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="K126">
+      <c r="K126" s="21">
         <f>COUNTIF(Strecken!D:D,H126)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:12">
       <c r="A127" t="s">
         <v>350</v>
       </c>
-      <c r="B127" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C127" s="48">
+      <c r="B127" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C127" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D127" s="48">
+      <c r="D127" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E127" s="48">
+      <c r="E127" s="45">
         <f t="shared" si="10"/>
         <v>41</v>
       </c>
-      <c r="F127" s="48">
+      <c r="F127" s="45">
         <f t="shared" si="11"/>
         <v>44</v>
       </c>
@@ -21462,32 +21536,32 @@
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="K127">
+      <c r="K127" s="21">
         <f>COUNTIF(Strecken!D:D,H127)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:12">
       <c r="A128" t="s">
         <v>351</v>
       </c>
-      <c r="B128" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C128" s="48">
+      <c r="B128" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C128" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D128" s="48">
+      <c r="D128" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E128" s="48">
+      <c r="E128" s="45">
         <f t="shared" si="10"/>
         <v>37</v>
       </c>
-      <c r="F128" s="48">
+      <c r="F128" s="45">
         <f t="shared" si="11"/>
         <v>41</v>
       </c>
@@ -21503,12 +21577,12 @@
         <f t="shared" si="14"/>
         <v>26</v>
       </c>
-      <c r="K128">
+      <c r="K128" s="21">
         <f>COUNTIF(Strecken!D:D,H128)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1">
+    <row r="129" spans="1:12" hidden="1">
       <c r="A129" t="s">
         <v>352</v>
       </c>
@@ -21549,27 +21623,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:12">
       <c r="A130" t="s">
         <v>353</v>
       </c>
-      <c r="B130" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C130" s="48">
+      <c r="B130" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C130" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D130" s="48">
+      <c r="D130" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E130" s="48">
+      <c r="E130" s="45">
         <f t="shared" si="10"/>
         <v>63</v>
       </c>
-      <c r="F130" s="48">
+      <c r="F130" s="45">
         <f t="shared" si="11"/>
         <v>68</v>
       </c>
@@ -21585,32 +21659,32 @@
         <f t="shared" si="14"/>
         <v>175</v>
       </c>
-      <c r="K130">
+      <c r="K130" s="21">
         <f>COUNTIF(Strecken!D:D,H130)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:12">
       <c r="A131" t="s">
         <v>354</v>
       </c>
-      <c r="B131" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C131" s="48">
+      <c r="B131" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C131" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D131" s="48">
+      <c r="D131" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E131" s="48">
+      <c r="E131" s="45">
         <f t="shared" ref="E131:E194" si="15">FIND(E$1,$A131,D131+2)</f>
         <v>40</v>
       </c>
-      <c r="F131" s="48">
+      <c r="F131" s="45">
         <f t="shared" si="11"/>
         <v>44</v>
       </c>
@@ -21626,32 +21700,35 @@
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="K131">
+      <c r="K131" s="21">
         <f>COUNTIF(Strecken!D:D,H131)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="L131" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" t="s">
         <v>355</v>
       </c>
-      <c r="B132" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C132" s="48">
+      <c r="B132" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C132" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D132" s="48">
+      <c r="D132" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E132" s="48">
+      <c r="E132" s="45">
         <f t="shared" si="15"/>
         <v>41</v>
       </c>
-      <c r="F132" s="48">
+      <c r="F132" s="45">
         <f t="shared" si="11"/>
         <v>44</v>
       </c>
@@ -21667,12 +21744,12 @@
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="K132">
+      <c r="K132" s="21">
         <f>COUNTIF(Strecken!D:D,H132)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1">
+    <row r="133" spans="1:12" hidden="1">
       <c r="A133" t="s">
         <v>356</v>
       </c>
@@ -21713,27 +21790,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:12">
       <c r="A134" t="s">
         <v>357</v>
       </c>
-      <c r="B134" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C134" s="48">
+      <c r="B134" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C134" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D134" s="48">
+      <c r="D134" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E134" s="48">
+      <c r="E134" s="45">
         <f t="shared" si="15"/>
         <v>42</v>
       </c>
-      <c r="F134" s="48">
+      <c r="F134" s="45">
         <f t="shared" si="11"/>
         <v>46</v>
       </c>
@@ -21749,32 +21826,32 @@
         <f t="shared" si="14"/>
         <v>14</v>
       </c>
-      <c r="K134">
+      <c r="K134" s="21">
         <f>COUNTIF(Strecken!D:D,H134)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:12">
       <c r="A135" t="s">
         <v>358</v>
       </c>
-      <c r="B135" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C135" s="48">
+      <c r="B135" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C135" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D135" s="48">
+      <c r="D135" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E135" s="48">
+      <c r="E135" s="45">
         <f t="shared" si="15"/>
         <v>39</v>
       </c>
-      <c r="F135" s="48">
+      <c r="F135" s="45">
         <f t="shared" si="11"/>
         <v>42</v>
       </c>
@@ -21790,32 +21867,32 @@
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="K135">
+      <c r="K135" s="21">
         <f>COUNTIF(Strecken!D:D,H135)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:12">
       <c r="A136" t="s">
         <v>359</v>
       </c>
-      <c r="B136" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C136" s="48">
+      <c r="B136" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C136" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D136" s="48">
+      <c r="D136" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E136" s="48">
+      <c r="E136" s="45">
         <f t="shared" si="15"/>
         <v>37</v>
       </c>
-      <c r="F136" s="48">
+      <c r="F136" s="45">
         <f t="shared" si="11"/>
         <v>41</v>
       </c>
@@ -21831,32 +21908,32 @@
         <f t="shared" si="14"/>
         <v>20</v>
       </c>
-      <c r="K136">
+      <c r="K136" s="21">
         <f>COUNTIF(Strecken!D:D,H136)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:12">
       <c r="A137" t="s">
         <v>360</v>
       </c>
-      <c r="B137" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C137" s="48">
+      <c r="B137" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C137" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D137" s="48">
+      <c r="D137" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E137" s="48">
+      <c r="E137" s="45">
         <f t="shared" si="15"/>
         <v>34</v>
       </c>
-      <c r="F137" s="48">
+      <c r="F137" s="45">
         <f t="shared" si="11"/>
         <v>38</v>
       </c>
@@ -21872,32 +21949,32 @@
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="K137">
+      <c r="K137" s="21">
         <f>COUNTIF(Strecken!D:D,H137)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:12">
       <c r="A138" t="s">
         <v>361</v>
       </c>
-      <c r="B138" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C138" s="48">
+      <c r="B138" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C138" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D138" s="48">
+      <c r="D138" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E138" s="48">
+      <c r="E138" s="45">
         <f t="shared" si="15"/>
         <v>43</v>
       </c>
-      <c r="F138" s="48">
+      <c r="F138" s="45">
         <f t="shared" si="11"/>
         <v>47</v>
       </c>
@@ -21913,12 +21990,12 @@
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="K138">
+      <c r="K138" s="21">
         <f>COUNTIF(Strecken!D:D,H138)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1">
+    <row r="139" spans="1:12" hidden="1">
       <c r="A139" t="s">
         <v>362</v>
       </c>
@@ -21959,7 +22036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1">
+    <row r="140" spans="1:12" hidden="1">
       <c r="A140" t="s">
         <v>363</v>
       </c>
@@ -22000,27 +22077,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:12">
       <c r="A141" t="s">
         <v>364</v>
       </c>
-      <c r="B141" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C141" s="48">
+      <c r="B141" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C141" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D141" s="48">
+      <c r="D141" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E141" s="48">
+      <c r="E141" s="45">
         <f t="shared" si="15"/>
         <v>51</v>
       </c>
-      <c r="F141" s="48">
+      <c r="F141" s="45">
         <f t="shared" si="11"/>
         <v>54</v>
       </c>
@@ -22036,12 +22113,15 @@
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="K141">
+      <c r="K141" s="21">
         <f>COUNTIF(Strecken!D:D,H141)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" hidden="1">
+      <c r="L141" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" hidden="1">
       <c r="A142" t="s">
         <v>365</v>
       </c>
@@ -22082,27 +22162,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:12">
       <c r="A143" t="s">
         <v>366</v>
       </c>
-      <c r="B143" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C143" s="48">
+      <c r="B143" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C143" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D143" s="48">
+      <c r="D143" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E143" s="48">
+      <c r="E143" s="45">
         <f t="shared" si="15"/>
         <v>41</v>
       </c>
-      <c r="F143" s="48">
+      <c r="F143" s="45">
         <f t="shared" si="11"/>
         <v>45</v>
       </c>
@@ -22118,32 +22198,35 @@
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="K143">
+      <c r="K143" s="21">
         <f>COUNTIF(Strecken!D:D,H143)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:11">
+      <c r="L143" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144" t="s">
         <v>367</v>
       </c>
-      <c r="B144" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C144" s="48">
+      <c r="B144" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C144" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D144" s="48">
+      <c r="D144" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E144" s="48">
+      <c r="E144" s="45">
         <f t="shared" si="15"/>
         <v>43</v>
       </c>
-      <c r="F144" s="48">
+      <c r="F144" s="45">
         <f t="shared" si="11"/>
         <v>46</v>
       </c>
@@ -22159,7 +22242,7 @@
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="K144">
+      <c r="K144" s="21">
         <f>COUNTIF(Strecken!D:D,H144)</f>
         <v>0</v>
       </c>
@@ -22168,23 +22251,23 @@
       <c r="A145" t="s">
         <v>368</v>
       </c>
-      <c r="B145" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C145" s="48">
+      <c r="B145" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C145" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D145" s="48">
+      <c r="D145" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E145" s="48">
+      <c r="E145" s="45">
         <f t="shared" si="15"/>
         <v>33</v>
       </c>
-      <c r="F145" s="48">
+      <c r="F145" s="45">
         <f t="shared" si="11"/>
         <v>37</v>
       </c>
@@ -22200,7 +22283,7 @@
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="K145">
+      <c r="K145" s="21">
         <f>COUNTIF(Strecken!D:D,H145)</f>
         <v>0</v>
       </c>
@@ -22209,23 +22292,23 @@
       <c r="A146" t="s">
         <v>369</v>
       </c>
-      <c r="B146" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C146" s="48">
+      <c r="B146" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C146" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D146" s="48">
+      <c r="D146" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E146" s="48">
+      <c r="E146" s="45">
         <f t="shared" si="15"/>
         <v>34</v>
       </c>
-      <c r="F146" s="48">
+      <c r="F146" s="45">
         <f t="shared" si="11"/>
         <v>37</v>
       </c>
@@ -22241,7 +22324,7 @@
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="K146">
+      <c r="K146" s="21">
         <f>COUNTIF(Strecken!D:D,H146)</f>
         <v>0</v>
       </c>
@@ -22250,23 +22333,23 @@
       <c r="A147" t="s">
         <v>370</v>
       </c>
-      <c r="B147" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C147" s="48">
+      <c r="B147" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C147" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D147" s="48">
+      <c r="D147" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E147" s="48">
+      <c r="E147" s="45">
         <f t="shared" si="15"/>
         <v>34</v>
       </c>
-      <c r="F147" s="48">
+      <c r="F147" s="45">
         <f t="shared" si="11"/>
         <v>37</v>
       </c>
@@ -22282,7 +22365,7 @@
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="K147">
+      <c r="K147" s="21">
         <f>COUNTIF(Strecken!D:D,H147)</f>
         <v>0</v>
       </c>
@@ -22291,23 +22374,23 @@
       <c r="A148" t="s">
         <v>371</v>
       </c>
-      <c r="B148" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C148" s="48">
+      <c r="B148" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C148" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D148" s="48">
+      <c r="D148" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E148" s="48">
+      <c r="E148" s="45">
         <f t="shared" si="15"/>
         <v>43</v>
       </c>
-      <c r="F148" s="48">
+      <c r="F148" s="45">
         <f t="shared" si="11"/>
         <v>47</v>
       </c>
@@ -22323,7 +22406,7 @@
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
-      <c r="K148">
+      <c r="K148" s="21">
         <f>COUNTIF(Strecken!D:D,H148)</f>
         <v>0</v>
       </c>
@@ -22373,23 +22456,23 @@
       <c r="A150" t="s">
         <v>373</v>
       </c>
-      <c r="B150" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C150" s="48">
+      <c r="B150" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C150" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D150" s="48">
+      <c r="D150" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E150" s="48">
+      <c r="E150" s="45">
         <f t="shared" si="15"/>
         <v>37</v>
       </c>
-      <c r="F150" s="48">
+      <c r="F150" s="45">
         <f t="shared" si="11"/>
         <v>40</v>
       </c>
@@ -22405,7 +22488,7 @@
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="K150">
+      <c r="K150" s="21">
         <f>COUNTIF(Strecken!D:D,H150)</f>
         <v>0</v>
       </c>
@@ -22455,23 +22538,23 @@
       <c r="A152" t="s">
         <v>375</v>
       </c>
-      <c r="B152" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C152" s="48">
+      <c r="B152" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C152" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D152" s="48">
+      <c r="D152" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E152" s="48">
+      <c r="E152" s="45">
         <f t="shared" si="15"/>
         <v>37</v>
       </c>
-      <c r="F152" s="48">
+      <c r="F152" s="45">
         <f t="shared" si="11"/>
         <v>40</v>
       </c>
@@ -22487,7 +22570,7 @@
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="K152">
+      <c r="K152" s="21">
         <f>COUNTIF(Strecken!D:D,H152)</f>
         <v>0</v>
       </c>
@@ -22496,23 +22579,23 @@
       <c r="A153" t="s">
         <v>376</v>
       </c>
-      <c r="B153" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C153" s="48">
+      <c r="B153" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C153" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D153" s="48">
+      <c r="D153" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E153" s="48">
+      <c r="E153" s="45">
         <f t="shared" si="15"/>
         <v>39</v>
       </c>
-      <c r="F153" s="48">
+      <c r="F153" s="45">
         <f t="shared" si="11"/>
         <v>42</v>
       </c>
@@ -22528,7 +22611,7 @@
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="K153">
+      <c r="K153" s="21">
         <f>COUNTIF(Strecken!D:D,H153)</f>
         <v>0</v>
       </c>
@@ -22578,23 +22661,23 @@
       <c r="A155" t="s">
         <v>378</v>
       </c>
-      <c r="B155" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C155" s="48">
+      <c r="B155" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C155" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D155" s="48">
+      <c r="D155" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E155" s="48">
+      <c r="E155" s="45">
         <f t="shared" si="15"/>
         <v>53</v>
       </c>
-      <c r="F155" s="48">
+      <c r="F155" s="45">
         <f t="shared" si="11"/>
         <v>56</v>
       </c>
@@ -22610,7 +22693,7 @@
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="K155">
+      <c r="K155" s="21">
         <f>COUNTIF(Strecken!D:D,H155)</f>
         <v>0</v>
       </c>
@@ -22660,23 +22743,23 @@
       <c r="A157" t="s">
         <v>380</v>
       </c>
-      <c r="B157" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C157" s="48">
+      <c r="B157" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C157" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D157" s="48">
+      <c r="D157" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E157" s="48">
+      <c r="E157" s="45">
         <f t="shared" si="15"/>
         <v>45</v>
       </c>
-      <c r="F157" s="48">
+      <c r="F157" s="45">
         <f t="shared" si="11"/>
         <v>48</v>
       </c>
@@ -22692,7 +22775,7 @@
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="K157">
+      <c r="K157" s="21">
         <f>COUNTIF(Strecken!D:D,H157)</f>
         <v>0</v>
       </c>
@@ -22820,27 +22903,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:12">
       <c r="A161" t="s">
         <v>384</v>
       </c>
-      <c r="B161" s="48">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="C161" s="48">
+      <c r="B161" s="45">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="C161" s="45">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="D161" s="48">
+      <c r="D161" s="45">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="E161" s="48">
+      <c r="E161" s="45">
         <f t="shared" si="15"/>
         <v>38</v>
       </c>
-      <c r="F161" s="48">
+      <c r="F161" s="45">
         <f t="shared" si="11"/>
         <v>41</v>
       </c>
@@ -22856,32 +22939,35 @@
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="K161">
+      <c r="K161" s="21">
         <f>COUNTIF(Strecken!D:D,H161)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:11">
+      <c r="L161" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162" t="s">
         <v>385</v>
       </c>
-      <c r="B162" s="48">
+      <c r="B162" s="45">
         <f t="shared" ref="B162:F225" si="16">FIND(B$1,$A162)</f>
         <v>14</v>
       </c>
-      <c r="C162" s="48">
+      <c r="C162" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D162" s="48">
+      <c r="D162" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E162" s="48">
+      <c r="E162" s="45">
         <f t="shared" si="15"/>
         <v>38</v>
       </c>
-      <c r="F162" s="48">
+      <c r="F162" s="45">
         <f t="shared" si="16"/>
         <v>41</v>
       </c>
@@ -22897,32 +22983,32 @@
         <f t="shared" ref="J162:J225" si="19">LEFT(RIGHT($A162,LEN($A162) - E162 - 1),F162-E162-2)</f>
         <v>6</v>
       </c>
-      <c r="K162">
+      <c r="K162" s="21">
         <f>COUNTIF(Strecken!D:D,H162)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:12">
       <c r="A163" t="s">
         <v>386</v>
       </c>
-      <c r="B163" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C163" s="48">
+      <c r="B163" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C163" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D163" s="48">
+      <c r="D163" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E163" s="48">
+      <c r="E163" s="45">
         <f t="shared" si="15"/>
         <v>43</v>
       </c>
-      <c r="F163" s="48">
+      <c r="F163" s="45">
         <f t="shared" si="16"/>
         <v>46</v>
       </c>
@@ -22938,32 +23024,32 @@
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="K163">
+      <c r="K163" s="21">
         <f>COUNTIF(Strecken!D:D,H163)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:12">
       <c r="A164" t="s">
         <v>387</v>
       </c>
-      <c r="B164" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C164" s="48">
+      <c r="B164" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C164" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D164" s="48">
+      <c r="D164" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E164" s="48">
+      <c r="E164" s="45">
         <f t="shared" si="15"/>
         <v>41</v>
       </c>
-      <c r="F164" s="48">
+      <c r="F164" s="45">
         <f t="shared" si="16"/>
         <v>44</v>
       </c>
@@ -22979,12 +23065,15 @@
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="K164">
+      <c r="K164" s="21">
         <f>COUNTIF(Strecken!D:D,H164)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" hidden="1">
+      <c r="L164" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" hidden="1">
       <c r="A165" t="s">
         <v>388</v>
       </c>
@@ -23025,7 +23114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1">
+    <row r="166" spans="1:12" hidden="1">
       <c r="A166" t="s">
         <v>389</v>
       </c>
@@ -23066,27 +23155,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:12">
       <c r="A167" t="s">
         <v>390</v>
       </c>
-      <c r="B167" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C167" s="48">
+      <c r="B167" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C167" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D167" s="48">
+      <c r="D167" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E167" s="48">
+      <c r="E167" s="45">
         <f t="shared" si="15"/>
         <v>42</v>
       </c>
-      <c r="F167" s="48">
+      <c r="F167" s="45">
         <f t="shared" si="16"/>
         <v>45</v>
       </c>
@@ -23102,32 +23191,32 @@
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="K167">
+      <c r="K167" s="21">
         <f>COUNTIF(Strecken!D:D,H167)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:12">
       <c r="A168" t="s">
         <v>391</v>
       </c>
-      <c r="B168" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C168" s="48">
+      <c r="B168" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C168" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D168" s="48">
+      <c r="D168" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E168" s="48">
+      <c r="E168" s="45">
         <f t="shared" si="15"/>
         <v>43</v>
       </c>
-      <c r="F168" s="48">
+      <c r="F168" s="45">
         <f t="shared" si="16"/>
         <v>47</v>
       </c>
@@ -23143,32 +23232,32 @@
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
-      <c r="K168">
+      <c r="K168" s="21">
         <f>COUNTIF(Strecken!D:D,H168)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:12">
       <c r="A169" t="s">
         <v>392</v>
       </c>
-      <c r="B169" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C169" s="48">
+      <c r="B169" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C169" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D169" s="48">
+      <c r="D169" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E169" s="48">
+      <c r="E169" s="45">
         <f t="shared" si="15"/>
         <v>34</v>
       </c>
-      <c r="F169" s="48">
+      <c r="F169" s="45">
         <f t="shared" si="16"/>
         <v>38</v>
       </c>
@@ -23184,12 +23273,12 @@
         <f t="shared" si="19"/>
         <v>12</v>
       </c>
-      <c r="K169">
+      <c r="K169" s="21">
         <f>COUNTIF(Strecken!D:D,H169)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1">
+    <row r="170" spans="1:12" hidden="1">
       <c r="A170" t="s">
         <v>393</v>
       </c>
@@ -23230,7 +23319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1">
+    <row r="171" spans="1:12" hidden="1">
       <c r="A171" t="s">
         <v>394</v>
       </c>
@@ -23271,27 +23360,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:12">
       <c r="A172" t="s">
         <v>395</v>
       </c>
-      <c r="B172" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C172" s="48">
+      <c r="B172" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C172" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D172" s="48">
+      <c r="D172" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E172" s="48">
+      <c r="E172" s="45">
         <f t="shared" si="15"/>
         <v>35</v>
       </c>
-      <c r="F172" s="48">
+      <c r="F172" s="45">
         <f t="shared" si="16"/>
         <v>38</v>
       </c>
@@ -23307,12 +23396,12 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="K172">
+      <c r="K172" s="21">
         <f>COUNTIF(Strecken!D:D,H172)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1">
+    <row r="173" spans="1:12" hidden="1">
       <c r="A173" t="s">
         <v>396</v>
       </c>
@@ -23353,7 +23442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1">
+    <row r="174" spans="1:12" hidden="1">
       <c r="A174" t="s">
         <v>397</v>
       </c>
@@ -23394,27 +23483,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:12">
       <c r="A175" t="s">
         <v>398</v>
       </c>
-      <c r="B175" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C175" s="48">
+      <c r="B175" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C175" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D175" s="48">
+      <c r="D175" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E175" s="48">
+      <c r="E175" s="45">
         <f t="shared" si="15"/>
         <v>53</v>
       </c>
-      <c r="F175" s="48">
+      <c r="F175" s="45">
         <f t="shared" si="16"/>
         <v>56</v>
       </c>
@@ -23430,12 +23519,12 @@
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="K175">
+      <c r="K175" s="21">
         <f>COUNTIF(Strecken!D:D,H175)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1">
+    <row r="176" spans="1:12" hidden="1">
       <c r="A176" t="s">
         <v>399</v>
       </c>
@@ -23476,27 +23565,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:12">
       <c r="A177" t="s">
         <v>400</v>
       </c>
-      <c r="B177" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C177" s="48">
+      <c r="B177" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C177" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D177" s="48">
+      <c r="D177" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E177" s="48">
+      <c r="E177" s="45">
         <f t="shared" si="15"/>
         <v>45</v>
       </c>
-      <c r="F177" s="48">
+      <c r="F177" s="45">
         <f t="shared" si="16"/>
         <v>48</v>
       </c>
@@ -23512,12 +23601,12 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="K177">
+      <c r="K177" s="21">
         <f>COUNTIF(Strecken!D:D,H177)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1">
+    <row r="178" spans="1:12" hidden="1">
       <c r="A178" t="s">
         <v>401</v>
       </c>
@@ -23558,27 +23647,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:12">
       <c r="A179" t="s">
         <v>402</v>
       </c>
-      <c r="B179" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C179" s="48">
+      <c r="B179" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C179" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D179" s="48">
+      <c r="D179" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E179" s="48">
+      <c r="E179" s="45">
         <f t="shared" si="15"/>
         <v>40</v>
       </c>
-      <c r="F179" s="48">
+      <c r="F179" s="45">
         <f t="shared" si="16"/>
         <v>43</v>
       </c>
@@ -23594,12 +23683,12 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="K179">
+      <c r="K179" s="21">
         <f>COUNTIF(Strecken!D:D,H179)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1">
+    <row r="180" spans="1:12" hidden="1">
       <c r="A180" t="s">
         <v>403</v>
       </c>
@@ -23640,7 +23729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1">
+    <row r="181" spans="1:12" hidden="1">
       <c r="A181" t="s">
         <v>404</v>
       </c>
@@ -23681,7 +23770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1">
+    <row r="182" spans="1:12" hidden="1">
       <c r="A182" t="s">
         <v>405</v>
       </c>
@@ -23722,27 +23811,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:12">
       <c r="A183" t="s">
         <v>406</v>
       </c>
-      <c r="B183" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C183" s="48">
+      <c r="B183" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C183" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D183" s="48">
+      <c r="D183" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E183" s="48">
+      <c r="E183" s="45">
         <f t="shared" si="15"/>
         <v>48</v>
       </c>
-      <c r="F183" s="48">
+      <c r="F183" s="45">
         <f t="shared" si="16"/>
         <v>51</v>
       </c>
@@ -23758,32 +23847,35 @@
         <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="K183">
+      <c r="K183" s="21">
         <f>COUNTIF(Strecken!D:D,H183)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:11">
+      <c r="L183" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
       <c r="A184" t="s">
         <v>407</v>
       </c>
-      <c r="B184" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C184" s="48">
+      <c r="B184" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C184" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D184" s="48">
+      <c r="D184" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E184" s="48">
+      <c r="E184" s="45">
         <f t="shared" si="15"/>
         <v>38</v>
       </c>
-      <c r="F184" s="48">
+      <c r="F184" s="45">
         <f t="shared" si="16"/>
         <v>41</v>
       </c>
@@ -23799,32 +23891,32 @@
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="K184">
+      <c r="K184" s="21">
         <f>COUNTIF(Strecken!D:D,H184)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:12">
       <c r="A185" t="s">
         <v>408</v>
       </c>
-      <c r="B185" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C185" s="48">
+      <c r="B185" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C185" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D185" s="48">
+      <c r="D185" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E185" s="48">
+      <c r="E185" s="45">
         <f t="shared" si="15"/>
         <v>39</v>
       </c>
-      <c r="F185" s="48">
+      <c r="F185" s="45">
         <f t="shared" si="16"/>
         <v>43</v>
       </c>
@@ -23840,12 +23932,11 @@
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
-      <c r="K185">
-        <f>COUNTIF(Strecken!D:D,H185)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" hidden="1">
+      <c r="K185" s="21" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" hidden="1">
       <c r="A186" t="s">
         <v>409</v>
       </c>
@@ -23886,7 +23977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1">
+    <row r="187" spans="1:12" hidden="1">
       <c r="A187" t="s">
         <v>410</v>
       </c>
@@ -23927,7 +24018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1">
+    <row r="188" spans="1:12" hidden="1">
       <c r="A188" t="s">
         <v>411</v>
       </c>
@@ -23968,7 +24059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1">
+    <row r="189" spans="1:12" hidden="1">
       <c r="A189" t="s">
         <v>412</v>
       </c>
@@ -24009,7 +24100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1">
+    <row r="190" spans="1:12" hidden="1">
       <c r="A190" t="s">
         <v>413</v>
       </c>
@@ -24050,7 +24141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1">
+    <row r="191" spans="1:12" hidden="1">
       <c r="A191" t="s">
         <v>414</v>
       </c>
@@ -24091,7 +24182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1">
+    <row r="192" spans="1:12" hidden="1">
       <c r="A192" t="s">
         <v>415</v>
       </c>
@@ -24132,27 +24223,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:12">
       <c r="A193" t="s">
         <v>416</v>
       </c>
-      <c r="B193" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C193" s="48">
+      <c r="B193" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C193" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D193" s="48">
+      <c r="D193" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E193" s="48">
+      <c r="E193" s="45">
         <f t="shared" si="15"/>
         <v>45</v>
       </c>
-      <c r="F193" s="48">
+      <c r="F193" s="45">
         <f t="shared" si="16"/>
         <v>48</v>
       </c>
@@ -24168,32 +24259,32 @@
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="K193">
+      <c r="K193" s="21">
         <f>COUNTIF(Strecken!D:D,H193)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:12">
       <c r="A194" t="s">
         <v>417</v>
       </c>
-      <c r="B194" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C194" s="48">
+      <c r="B194" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C194" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D194" s="48">
+      <c r="D194" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E194" s="48">
+      <c r="E194" s="45">
         <f t="shared" si="15"/>
         <v>40</v>
       </c>
-      <c r="F194" s="48">
+      <c r="F194" s="45">
         <f t="shared" si="16"/>
         <v>43</v>
       </c>
@@ -24209,32 +24300,35 @@
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="K194">
+      <c r="K194" s="21">
         <f>COUNTIF(Strecken!D:D,H194)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:11">
+      <c r="L194" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
       <c r="A195" t="s">
         <v>418</v>
       </c>
-      <c r="B195" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C195" s="48">
+      <c r="B195" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C195" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D195" s="48">
+      <c r="D195" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E195" s="48">
+      <c r="E195" s="45">
         <f t="shared" ref="E195:E258" si="20">FIND(E$1,$A195,D195+2)</f>
         <v>35</v>
       </c>
-      <c r="F195" s="48">
+      <c r="F195" s="45">
         <f t="shared" si="16"/>
         <v>38</v>
       </c>
@@ -24250,32 +24344,32 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="K195">
+      <c r="K195" s="21">
         <f>COUNTIF(Strecken!D:D,H195)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:12">
       <c r="A196" t="s">
         <v>419</v>
       </c>
-      <c r="B196" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C196" s="48">
+      <c r="B196" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C196" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D196" s="48">
+      <c r="D196" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E196" s="48">
+      <c r="E196" s="45">
         <f t="shared" si="20"/>
         <v>38</v>
       </c>
-      <c r="F196" s="48">
+      <c r="F196" s="45">
         <f t="shared" si="16"/>
         <v>41</v>
       </c>
@@ -24291,32 +24385,32 @@
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="K196">
+      <c r="K196" s="21">
         <f>COUNTIF(Strecken!D:D,H196)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:12">
       <c r="A197" t="s">
         <v>420</v>
       </c>
-      <c r="B197" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C197" s="48">
+      <c r="B197" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C197" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D197" s="48">
+      <c r="D197" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E197" s="48">
+      <c r="E197" s="45">
         <f t="shared" si="20"/>
         <v>35</v>
       </c>
-      <c r="F197" s="48">
+      <c r="F197" s="45">
         <f t="shared" si="16"/>
         <v>38</v>
       </c>
@@ -24332,12 +24426,12 @@
         <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="K197">
+      <c r="K197" s="21">
         <f>COUNTIF(Strecken!D:D,H197)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1">
+    <row r="198" spans="1:12" hidden="1">
       <c r="A198" t="s">
         <v>421</v>
       </c>
@@ -24378,27 +24472,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:12">
       <c r="A199" t="s">
         <v>422</v>
       </c>
-      <c r="B199" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C199" s="48">
+      <c r="B199" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C199" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D199" s="48">
+      <c r="D199" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E199" s="48">
+      <c r="E199" s="45">
         <f t="shared" si="20"/>
         <v>38</v>
       </c>
-      <c r="F199" s="48">
+      <c r="F199" s="45">
         <f t="shared" si="16"/>
         <v>41</v>
       </c>
@@ -24414,12 +24508,12 @@
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="K199">
+      <c r="K199" s="21">
         <f>COUNTIF(Strecken!D:D,H199)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1">
+    <row r="200" spans="1:12" hidden="1">
       <c r="A200" t="s">
         <v>423</v>
       </c>
@@ -24460,27 +24554,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:12">
       <c r="A201" t="s">
         <v>424</v>
       </c>
-      <c r="B201" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C201" s="48">
+      <c r="B201" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C201" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D201" s="48">
+      <c r="D201" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E201" s="48">
+      <c r="E201" s="45">
         <f t="shared" si="20"/>
         <v>45</v>
       </c>
-      <c r="F201" s="48">
+      <c r="F201" s="45">
         <f t="shared" si="16"/>
         <v>48</v>
       </c>
@@ -24496,32 +24590,35 @@
         <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="K201">
+      <c r="K201" s="21">
         <f>COUNTIF(Strecken!D:D,H201)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:11">
+      <c r="L201" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
       <c r="A202" t="s">
         <v>425</v>
       </c>
-      <c r="B202" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C202" s="48">
+      <c r="B202" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C202" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D202" s="48">
+      <c r="D202" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E202" s="48">
+      <c r="E202" s="45">
         <f t="shared" si="20"/>
         <v>35</v>
       </c>
-      <c r="F202" s="48">
+      <c r="F202" s="45">
         <f t="shared" si="16"/>
         <v>39</v>
       </c>
@@ -24537,32 +24634,31 @@
         <f t="shared" si="19"/>
         <v>16</v>
       </c>
-      <c r="K202">
-        <f>COUNTIF(Strecken!D:D,H202)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11">
+      <c r="K202" s="21" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
       <c r="A203" t="s">
         <v>426</v>
       </c>
-      <c r="B203" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C203" s="48">
+      <c r="B203" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C203" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D203" s="48">
+      <c r="D203" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E203" s="48">
+      <c r="E203" s="45">
         <f t="shared" si="20"/>
         <v>44</v>
       </c>
-      <c r="F203" s="48">
+      <c r="F203" s="45">
         <f t="shared" si="16"/>
         <v>48</v>
       </c>
@@ -24578,12 +24674,12 @@
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
-      <c r="K203">
+      <c r="K203" s="21">
         <f>COUNTIF(Strecken!D:D,H203)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1">
+    <row r="204" spans="1:12" hidden="1">
       <c r="A204" t="s">
         <v>427</v>
       </c>
@@ -24624,27 +24720,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:12">
       <c r="A205" t="s">
         <v>428</v>
       </c>
-      <c r="B205" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C205" s="48">
+      <c r="B205" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C205" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D205" s="48">
+      <c r="D205" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E205" s="48">
+      <c r="E205" s="45">
         <f t="shared" si="20"/>
         <v>39</v>
       </c>
-      <c r="F205" s="48">
+      <c r="F205" s="45">
         <f t="shared" si="16"/>
         <v>42</v>
       </c>
@@ -24660,12 +24756,12 @@
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="K205">
+      <c r="K205" s="21">
         <f>COUNTIF(Strecken!D:D,H205)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1">
+    <row r="206" spans="1:12" hidden="1">
       <c r="A206" t="s">
         <v>429</v>
       </c>
@@ -24706,27 +24802,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:12">
       <c r="A207" t="s">
         <v>430</v>
       </c>
-      <c r="B207" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C207" s="48">
+      <c r="B207" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C207" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D207" s="48">
+      <c r="D207" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E207" s="48">
+      <c r="E207" s="45">
         <f t="shared" si="20"/>
         <v>35</v>
       </c>
-      <c r="F207" s="48">
+      <c r="F207" s="45">
         <f t="shared" si="16"/>
         <v>38</v>
       </c>
@@ -24742,12 +24838,12 @@
         <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="K207">
+      <c r="K207" s="21">
         <f>COUNTIF(Strecken!D:D,H207)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1">
+    <row r="208" spans="1:12" hidden="1">
       <c r="A208" t="s">
         <v>431</v>
       </c>
@@ -24792,23 +24888,23 @@
       <c r="A209" t="s">
         <v>432</v>
       </c>
-      <c r="B209" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C209" s="48">
+      <c r="B209" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C209" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D209" s="48">
+      <c r="D209" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E209" s="48">
+      <c r="E209" s="45">
         <f t="shared" si="20"/>
         <v>40</v>
       </c>
-      <c r="F209" s="48">
+      <c r="F209" s="45">
         <f t="shared" si="16"/>
         <v>44</v>
       </c>
@@ -24824,9 +24920,8 @@
         <f t="shared" si="19"/>
         <v>15</v>
       </c>
-      <c r="K209">
-        <f>COUNTIF(Strecken!D:D,H209)</f>
-        <v>0</v>
+      <c r="K209" s="21" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="210" spans="1:11" hidden="1">
@@ -25038,23 +25133,23 @@
       <c r="A215" t="s">
         <v>438</v>
       </c>
-      <c r="B215" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C215" s="48">
+      <c r="B215" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C215" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D215" s="48">
+      <c r="D215" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E215" s="48">
+      <c r="E215" s="45">
         <f t="shared" si="20"/>
         <v>46</v>
       </c>
-      <c r="F215" s="48">
+      <c r="F215" s="45">
         <f t="shared" si="16"/>
         <v>49</v>
       </c>
@@ -25070,7 +25165,7 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="K215">
+      <c r="K215" s="21">
         <f>COUNTIF(Strecken!D:D,H215)</f>
         <v>0</v>
       </c>
@@ -25079,23 +25174,23 @@
       <c r="A216" t="s">
         <v>439</v>
       </c>
-      <c r="B216" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C216" s="48">
+      <c r="B216" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C216" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D216" s="48">
+      <c r="D216" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E216" s="48">
+      <c r="E216" s="45">
         <f t="shared" si="20"/>
         <v>36</v>
       </c>
-      <c r="F216" s="48">
+      <c r="F216" s="45">
         <f t="shared" si="16"/>
         <v>39</v>
       </c>
@@ -25111,9 +25206,8 @@
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="K216">
-        <f>COUNTIF(Strecken!D:D,H216)</f>
-        <v>0</v>
+      <c r="K216" s="21" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="217" spans="1:11" hidden="1">
@@ -25161,23 +25255,23 @@
       <c r="A218" t="s">
         <v>441</v>
       </c>
-      <c r="B218" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C218" s="48">
+      <c r="B218" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C218" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D218" s="48">
+      <c r="D218" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E218" s="48">
+      <c r="E218" s="45">
         <f t="shared" si="20"/>
         <v>36</v>
       </c>
-      <c r="F218" s="48">
+      <c r="F218" s="45">
         <f t="shared" si="16"/>
         <v>40</v>
       </c>
@@ -25193,7 +25287,7 @@
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
-      <c r="K218">
+      <c r="K218" s="21">
         <f>COUNTIF(Strecken!D:D,H218)</f>
         <v>0</v>
       </c>
@@ -25325,23 +25419,23 @@
       <c r="A222" t="s">
         <v>445</v>
       </c>
-      <c r="B222" s="48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C222" s="48">
+      <c r="B222" s="45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C222" s="45">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="D222" s="48">
+      <c r="D222" s="45">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="E222" s="48">
+      <c r="E222" s="45">
         <f t="shared" si="20"/>
         <v>35</v>
       </c>
-      <c r="F222" s="48">
+      <c r="F222" s="45">
         <f t="shared" si="16"/>
         <v>38</v>
       </c>
@@ -25357,7 +25451,7 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="K222">
+      <c r="K222" s="21">
         <f>COUNTIF(Strecken!D:D,H222)</f>
         <v>0</v>
       </c>
@@ -25444,7 +25538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1">
+    <row r="225" spans="1:12" hidden="1">
       <c r="A225" t="s">
         <v>448</v>
       </c>
@@ -25485,27 +25579,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:12">
       <c r="A226" t="s">
         <v>449</v>
       </c>
-      <c r="B226" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C226" s="48">
+      <c r="B226" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C226" s="45">
         <f t="shared" si="21"/>
         <v>18</v>
       </c>
-      <c r="D226" s="48">
+      <c r="D226" s="45">
         <f t="shared" si="21"/>
         <v>28</v>
       </c>
-      <c r="E226" s="48">
+      <c r="E226" s="45">
         <f t="shared" si="20"/>
         <v>42</v>
       </c>
-      <c r="F226" s="48">
+      <c r="F226" s="45">
         <f t="shared" si="21"/>
         <v>46</v>
       </c>
@@ -25521,32 +25615,35 @@
         <f t="shared" ref="J226:J283" si="24">LEFT(RIGHT($A226,LEN($A226) - E226 - 1),F226-E226-2)</f>
         <v>11</v>
       </c>
-      <c r="K226">
+      <c r="K226" s="21">
         <f>COUNTIF(Strecken!D:D,H226)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:11">
+      <c r="L226" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
       <c r="A227" t="s">
         <v>450</v>
       </c>
-      <c r="B227" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C227" s="48">
+      <c r="B227" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C227" s="45">
         <f t="shared" si="21"/>
         <v>18</v>
       </c>
-      <c r="D227" s="48">
+      <c r="D227" s="45">
         <f t="shared" si="21"/>
         <v>28</v>
       </c>
-      <c r="E227" s="48">
+      <c r="E227" s="45">
         <f t="shared" si="20"/>
         <v>39</v>
       </c>
-      <c r="F227" s="48">
+      <c r="F227" s="45">
         <f t="shared" si="21"/>
         <v>42</v>
       </c>
@@ -25562,32 +25659,31 @@
         <f t="shared" si="24"/>
         <v>6</v>
       </c>
-      <c r="K227">
-        <f>COUNTIF(Strecken!D:D,H227)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11">
+      <c r="K227" s="21" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
       <c r="A228" t="s">
         <v>451</v>
       </c>
-      <c r="B228" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C228" s="48">
+      <c r="B228" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C228" s="45">
         <f t="shared" si="21"/>
         <v>19</v>
       </c>
-      <c r="D228" s="48">
+      <c r="D228" s="45">
         <f t="shared" si="21"/>
         <v>30</v>
       </c>
-      <c r="E228" s="48">
+      <c r="E228" s="45">
         <f t="shared" si="20"/>
         <v>43</v>
       </c>
-      <c r="F228" s="48">
+      <c r="F228" s="45">
         <f t="shared" si="21"/>
         <v>46</v>
       </c>
@@ -25603,32 +25699,31 @@
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
-      <c r="K228">
-        <f>COUNTIF(Strecken!D:D,H228)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11">
+      <c r="K228" s="21" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
       <c r="A229" t="s">
         <v>452</v>
       </c>
-      <c r="B229" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C229" s="48">
+      <c r="B229" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C229" s="45">
         <f t="shared" si="21"/>
         <v>19</v>
       </c>
-      <c r="D229" s="48">
+      <c r="D229" s="45">
         <f t="shared" si="21"/>
         <v>30</v>
       </c>
-      <c r="E229" s="48">
+      <c r="E229" s="45">
         <f t="shared" si="20"/>
         <v>43</v>
       </c>
-      <c r="F229" s="48">
+      <c r="F229" s="45">
         <f t="shared" si="21"/>
         <v>46</v>
       </c>
@@ -25644,32 +25739,31 @@
         <f t="shared" si="24"/>
         <v>4</v>
       </c>
-      <c r="K229">
-        <f>COUNTIF(Strecken!D:D,H229)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11">
+      <c r="K229" s="21" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12">
       <c r="A230" t="s">
         <v>453</v>
       </c>
-      <c r="B230" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C230" s="48">
+      <c r="B230" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C230" s="45">
         <f t="shared" si="21"/>
         <v>19</v>
       </c>
-      <c r="D230" s="48">
+      <c r="D230" s="45">
         <f t="shared" si="21"/>
         <v>30</v>
       </c>
-      <c r="E230" s="48">
+      <c r="E230" s="45">
         <f t="shared" si="20"/>
         <v>51</v>
       </c>
-      <c r="F230" s="48">
+      <c r="F230" s="45">
         <f t="shared" si="21"/>
         <v>54</v>
       </c>
@@ -25685,32 +25779,31 @@
         <f t="shared" si="24"/>
         <v>4</v>
       </c>
-      <c r="K230">
-        <f>COUNTIF(Strecken!D:D,H230)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11">
+      <c r="K230" s="21" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
       <c r="A231" t="s">
         <v>454</v>
       </c>
-      <c r="B231" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C231" s="48">
+      <c r="B231" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C231" s="45">
         <f t="shared" si="21"/>
         <v>19</v>
       </c>
-      <c r="D231" s="48">
+      <c r="D231" s="45">
         <f t="shared" si="21"/>
         <v>30</v>
       </c>
-      <c r="E231" s="48">
+      <c r="E231" s="45">
         <f t="shared" si="20"/>
         <v>46</v>
       </c>
-      <c r="F231" s="48">
+      <c r="F231" s="45">
         <f t="shared" si="21"/>
         <v>49</v>
       </c>
@@ -25726,32 +25819,31 @@
         <f t="shared" si="24"/>
         <v>6</v>
       </c>
-      <c r="K231">
-        <f>COUNTIF(Strecken!D:D,H231)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11">
+      <c r="K231" s="21" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12">
       <c r="A232" t="s">
         <v>455</v>
       </c>
-      <c r="B232" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C232" s="48">
+      <c r="B232" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C232" s="45">
         <f t="shared" si="21"/>
         <v>19</v>
       </c>
-      <c r="D232" s="48">
+      <c r="D232" s="45">
         <f t="shared" si="21"/>
         <v>30</v>
       </c>
-      <c r="E232" s="48">
+      <c r="E232" s="45">
         <f t="shared" si="20"/>
         <v>40</v>
       </c>
-      <c r="F232" s="48">
+      <c r="F232" s="45">
         <f t="shared" si="21"/>
         <v>44</v>
       </c>
@@ -25767,32 +25859,31 @@
         <f t="shared" si="24"/>
         <v>14</v>
       </c>
-      <c r="K232">
-        <f>COUNTIF(Strecken!D:D,H232)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11">
+      <c r="K232" s="21" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12">
       <c r="A233" t="s">
         <v>456</v>
       </c>
-      <c r="B233" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C233" s="48">
+      <c r="B233" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C233" s="45">
         <f t="shared" si="21"/>
         <v>19</v>
       </c>
-      <c r="D233" s="48">
+      <c r="D233" s="45">
         <f t="shared" si="21"/>
         <v>30</v>
       </c>
-      <c r="E233" s="48">
+      <c r="E233" s="45">
         <f t="shared" si="20"/>
         <v>48</v>
       </c>
-      <c r="F233" s="48">
+      <c r="F233" s="45">
         <f t="shared" si="21"/>
         <v>51</v>
       </c>
@@ -25808,32 +25899,31 @@
         <f t="shared" si="24"/>
         <v>7</v>
       </c>
-      <c r="K233">
-        <f>COUNTIF(Strecken!D:D,H233)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11">
+      <c r="K233" s="21" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
       <c r="A234" t="s">
         <v>457</v>
       </c>
-      <c r="B234" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C234" s="48">
+      <c r="B234" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C234" s="45">
         <f t="shared" si="21"/>
         <v>19</v>
       </c>
-      <c r="D234" s="48">
+      <c r="D234" s="45">
         <f t="shared" si="21"/>
         <v>30</v>
       </c>
-      <c r="E234" s="48">
+      <c r="E234" s="45">
         <f t="shared" si="20"/>
         <v>56</v>
       </c>
-      <c r="F234" s="48">
+      <c r="F234" s="45">
         <f t="shared" si="21"/>
         <v>60</v>
       </c>
@@ -25849,32 +25939,31 @@
         <f t="shared" si="24"/>
         <v>12</v>
       </c>
-      <c r="K234">
-        <f>COUNTIF(Strecken!D:D,H234)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11">
+      <c r="K234" s="21" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12">
       <c r="A235" t="s">
         <v>458</v>
       </c>
-      <c r="B235" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C235" s="48">
+      <c r="B235" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C235" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D235" s="48">
+      <c r="D235" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E235" s="48">
+      <c r="E235" s="45">
         <f t="shared" si="20"/>
         <v>39</v>
       </c>
-      <c r="F235" s="48">
+      <c r="F235" s="45">
         <f t="shared" si="21"/>
         <v>42</v>
       </c>
@@ -25890,12 +25979,15 @@
         <f t="shared" si="24"/>
         <v>4</v>
       </c>
-      <c r="K235">
+      <c r="K235" s="21">
         <f>COUNTIF(Strecken!D:D,H235)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" hidden="1">
+      <c r="L235" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" hidden="1">
       <c r="A236" t="s">
         <v>459</v>
       </c>
@@ -25936,27 +26028,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:12">
       <c r="A237" t="s">
         <v>460</v>
       </c>
-      <c r="B237" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C237" s="48">
+      <c r="B237" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C237" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D237" s="48">
+      <c r="D237" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E237" s="48">
+      <c r="E237" s="45">
         <f t="shared" si="20"/>
         <v>41</v>
       </c>
-      <c r="F237" s="48">
+      <c r="F237" s="45">
         <f t="shared" si="21"/>
         <v>44</v>
       </c>
@@ -25972,32 +26064,31 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="K237">
-        <f>COUNTIF(Strecken!D:D,H237)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11">
+      <c r="K237" s="21" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
       <c r="A238" t="s">
         <v>461</v>
       </c>
-      <c r="B238" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C238" s="48">
+      <c r="B238" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C238" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D238" s="48">
+      <c r="D238" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E238" s="48">
+      <c r="E238" s="45">
         <f t="shared" si="20"/>
         <v>42</v>
       </c>
-      <c r="F238" s="48">
+      <c r="F238" s="45">
         <f t="shared" si="21"/>
         <v>45</v>
       </c>
@@ -26013,32 +26104,32 @@
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
-      <c r="K238">
+      <c r="K238" s="21">
         <f>COUNTIF(Strecken!D:D,H238)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:12">
       <c r="A239" t="s">
         <v>462</v>
       </c>
-      <c r="B239" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C239" s="48">
+      <c r="B239" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C239" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D239" s="48">
+      <c r="D239" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E239" s="48">
+      <c r="E239" s="45">
         <f t="shared" si="20"/>
         <v>80</v>
       </c>
-      <c r="F239" s="48">
+      <c r="F239" s="45">
         <f t="shared" si="21"/>
         <v>83</v>
       </c>
@@ -26054,32 +26145,32 @@
         <f t="shared" si="24"/>
         <v>8</v>
       </c>
-      <c r="K239">
+      <c r="K239" s="21">
         <f>COUNTIF(Strecken!D:D,H239)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:12">
       <c r="A240" t="s">
         <v>463</v>
       </c>
-      <c r="B240" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C240" s="48">
+      <c r="B240" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C240" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D240" s="48">
+      <c r="D240" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E240" s="48">
+      <c r="E240" s="45">
         <f t="shared" si="20"/>
         <v>55</v>
       </c>
-      <c r="F240" s="48">
+      <c r="F240" s="45">
         <f t="shared" si="21"/>
         <v>58</v>
       </c>
@@ -26095,9 +26186,12 @@
         <f t="shared" si="24"/>
         <v>4</v>
       </c>
-      <c r="K240">
+      <c r="K240" s="21">
         <f>COUNTIF(Strecken!D:D,H240)</f>
         <v>0</v>
+      </c>
+      <c r="L240" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="241" spans="1:12" hidden="1">
@@ -26145,23 +26239,23 @@
       <c r="A242" t="s">
         <v>465</v>
       </c>
-      <c r="B242" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C242" s="48">
+      <c r="B242" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C242" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D242" s="48">
+      <c r="D242" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E242" s="48">
+      <c r="E242" s="45">
         <f t="shared" si="20"/>
         <v>46</v>
       </c>
-      <c r="F242" s="48">
+      <c r="F242" s="45">
         <f t="shared" si="21"/>
         <v>49</v>
       </c>
@@ -26177,7 +26271,7 @@
         <f t="shared" si="24"/>
         <v>7</v>
       </c>
-      <c r="K242">
+      <c r="K242" s="21">
         <f>COUNTIF(Strecken!D:D,H242)</f>
         <v>0</v>
       </c>
@@ -26268,23 +26362,23 @@
       <c r="A245" t="s">
         <v>468</v>
       </c>
-      <c r="B245" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C245" s="48">
+      <c r="B245" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C245" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D245" s="48">
+      <c r="D245" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E245" s="48">
+      <c r="E245" s="45">
         <f t="shared" si="20"/>
         <v>38</v>
       </c>
-      <c r="F245" s="48">
+      <c r="F245" s="45">
         <f t="shared" si="21"/>
         <v>41</v>
       </c>
@@ -26300,32 +26394,35 @@
         <f t="shared" si="24"/>
         <v>4</v>
       </c>
-      <c r="K245">
+      <c r="K245" s="21">
         <f>COUNTIF(Strecken!D:D,H245)</f>
         <v>0</v>
+      </c>
+      <c r="L245" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="246" spans="1:12">
       <c r="A246" t="s">
         <v>469</v>
       </c>
-      <c r="B246" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C246" s="48">
+      <c r="B246" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C246" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D246" s="48">
+      <c r="D246" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E246" s="48">
+      <c r="E246" s="45">
         <f t="shared" si="20"/>
         <v>47</v>
       </c>
-      <c r="F246" s="48">
+      <c r="F246" s="45">
         <f t="shared" si="21"/>
         <v>51</v>
       </c>
@@ -26341,7 +26438,7 @@
         <f t="shared" si="24"/>
         <v>10</v>
       </c>
-      <c r="K246">
+      <c r="K246" s="21">
         <f>COUNTIF(Strecken!D:D,H246)</f>
         <v>0</v>
       </c>
@@ -26350,23 +26447,23 @@
       <c r="A247" t="s">
         <v>470</v>
       </c>
-      <c r="B247" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C247" s="48">
+      <c r="B247" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C247" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D247" s="48">
+      <c r="D247" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E247" s="48">
+      <c r="E247" s="45">
         <f t="shared" si="20"/>
         <v>50</v>
       </c>
-      <c r="F247" s="48">
+      <c r="F247" s="45">
         <f t="shared" si="21"/>
         <v>54</v>
       </c>
@@ -26382,7 +26479,7 @@
         <f t="shared" si="24"/>
         <v>12</v>
       </c>
-      <c r="K247">
+      <c r="K247" s="21">
         <f>COUNTIF(Strecken!D:D,H247)</f>
         <v>0</v>
       </c>
@@ -26391,23 +26488,23 @@
       <c r="A248" t="s">
         <v>471</v>
       </c>
-      <c r="B248" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C248" s="48">
+      <c r="B248" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C248" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D248" s="48">
+      <c r="D248" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E248" s="48">
+      <c r="E248" s="45">
         <f t="shared" si="20"/>
         <v>73</v>
       </c>
-      <c r="F248" s="48">
+      <c r="F248" s="45">
         <f t="shared" si="21"/>
         <v>76</v>
       </c>
@@ -26423,9 +26520,8 @@
         <f t="shared" si="24"/>
         <v>8</v>
       </c>
-      <c r="K248">
-        <f>COUNTIF(Strecken!D:D,H248)</f>
-        <v>0</v>
+      <c r="K248" s="21" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="249" spans="1:12" hidden="1">
@@ -26555,23 +26651,23 @@
       <c r="A252" t="s">
         <v>475</v>
       </c>
-      <c r="B252" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C252" s="48">
+      <c r="B252" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C252" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D252" s="48">
+      <c r="D252" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E252" s="48">
+      <c r="E252" s="45">
         <f t="shared" si="20"/>
         <v>50</v>
       </c>
-      <c r="F252" s="48">
+      <c r="F252" s="45">
         <f t="shared" si="21"/>
         <v>53</v>
       </c>
@@ -26587,7 +26683,7 @@
         <f t="shared" si="24"/>
         <v>6</v>
       </c>
-      <c r="K252">
+      <c r="K252" s="21">
         <f>COUNTIF(Strecken!D:D,H252)</f>
         <v>0</v>
       </c>
@@ -26599,23 +26695,23 @@
       <c r="A253" t="s">
         <v>476</v>
       </c>
-      <c r="B253" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C253" s="48">
+      <c r="B253" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C253" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D253" s="48">
+      <c r="D253" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E253" s="48">
+      <c r="E253" s="45">
         <f t="shared" si="20"/>
         <v>51</v>
       </c>
-      <c r="F253" s="48">
+      <c r="F253" s="45">
         <f t="shared" si="21"/>
         <v>54</v>
       </c>
@@ -26631,7 +26727,7 @@
         <f t="shared" si="24"/>
         <v>6</v>
       </c>
-      <c r="K253">
+      <c r="K253" s="21">
         <f>COUNTIF(Strecken!D:D,H253)</f>
         <v>0</v>
       </c>
@@ -26643,23 +26739,23 @@
       <c r="A254" t="s">
         <v>477</v>
       </c>
-      <c r="B254" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C254" s="48">
+      <c r="B254" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C254" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D254" s="48">
+      <c r="D254" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E254" s="48">
+      <c r="E254" s="45">
         <f t="shared" si="20"/>
         <v>46</v>
       </c>
-      <c r="F254" s="48">
+      <c r="F254" s="45">
         <f t="shared" si="21"/>
         <v>49</v>
       </c>
@@ -26675,7 +26771,7 @@
         <f t="shared" si="24"/>
         <v>8</v>
       </c>
-      <c r="K254">
+      <c r="K254" s="21">
         <f>COUNTIF(Strecken!D:D,H254)</f>
         <v>0</v>
       </c>
@@ -26687,23 +26783,23 @@
       <c r="A255" t="s">
         <v>478</v>
       </c>
-      <c r="B255" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C255" s="48">
+      <c r="B255" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C255" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D255" s="48">
+      <c r="D255" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E255" s="48">
+      <c r="E255" s="45">
         <f t="shared" si="20"/>
         <v>43</v>
       </c>
-      <c r="F255" s="48">
+      <c r="F255" s="45">
         <f t="shared" si="21"/>
         <v>46</v>
       </c>
@@ -26719,7 +26815,7 @@
         <f t="shared" si="24"/>
         <v>6</v>
       </c>
-      <c r="K255">
+      <c r="K255" s="21">
         <f>COUNTIF(Strecken!D:D,H255)</f>
         <v>0</v>
       </c>
@@ -26731,23 +26827,23 @@
       <c r="A256" t="s">
         <v>479</v>
       </c>
-      <c r="B256" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C256" s="48">
+      <c r="B256" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C256" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D256" s="48">
+      <c r="D256" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E256" s="48">
+      <c r="E256" s="45">
         <f t="shared" si="20"/>
         <v>47</v>
       </c>
-      <c r="F256" s="48">
+      <c r="F256" s="45">
         <f t="shared" si="21"/>
         <v>50</v>
       </c>
@@ -26763,7 +26859,7 @@
         <f t="shared" si="24"/>
         <v>8</v>
       </c>
-      <c r="K256">
+      <c r="K256" s="21">
         <f>COUNTIF(Strecken!D:D,H256)</f>
         <v>0</v>
       </c>
@@ -26775,23 +26871,23 @@
       <c r="A257" t="s">
         <v>480</v>
       </c>
-      <c r="B257" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C257" s="48">
+      <c r="B257" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C257" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D257" s="48">
+      <c r="D257" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E257" s="48">
+      <c r="E257" s="45">
         <f t="shared" si="20"/>
         <v>46</v>
       </c>
-      <c r="F257" s="48">
+      <c r="F257" s="45">
         <f t="shared" si="21"/>
         <v>49</v>
       </c>
@@ -26807,7 +26903,7 @@
         <f t="shared" si="24"/>
         <v>7</v>
       </c>
-      <c r="K257">
+      <c r="K257" s="21">
         <f>COUNTIF(Strecken!D:D,H257)</f>
         <v>0</v>
       </c>
@@ -26819,23 +26915,23 @@
       <c r="A258" t="s">
         <v>481</v>
       </c>
-      <c r="B258" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C258" s="48">
+      <c r="B258" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C258" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D258" s="48">
+      <c r="D258" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E258" s="48">
+      <c r="E258" s="45">
         <f t="shared" si="20"/>
         <v>45</v>
       </c>
-      <c r="F258" s="48">
+      <c r="F258" s="45">
         <f t="shared" si="21"/>
         <v>48</v>
       </c>
@@ -26851,7 +26947,7 @@
         <f t="shared" si="24"/>
         <v>6</v>
       </c>
-      <c r="K258">
+      <c r="K258" s="21">
         <f>COUNTIF(Strecken!D:D,H258)</f>
         <v>0</v>
       </c>
@@ -26863,23 +26959,23 @@
       <c r="A259" t="s">
         <v>482</v>
       </c>
-      <c r="B259" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C259" s="48">
+      <c r="B259" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C259" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D259" s="48">
+      <c r="D259" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E259" s="48">
+      <c r="E259" s="45">
         <f t="shared" ref="E259:E283" si="25">FIND(E$1,$A259,D259+2)</f>
         <v>42</v>
       </c>
-      <c r="F259" s="48">
+      <c r="F259" s="45">
         <f t="shared" si="21"/>
         <v>45</v>
       </c>
@@ -26895,7 +26991,7 @@
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
-      <c r="K259">
+      <c r="K259" s="21">
         <f>COUNTIF(Strecken!D:D,H259)</f>
         <v>0</v>
       </c>
@@ -26907,23 +27003,23 @@
       <c r="A260" t="s">
         <v>483</v>
       </c>
-      <c r="B260" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C260" s="48">
+      <c r="B260" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C260" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D260" s="48">
+      <c r="D260" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E260" s="48">
+      <c r="E260" s="45">
         <f t="shared" si="25"/>
         <v>49</v>
       </c>
-      <c r="F260" s="48">
+      <c r="F260" s="45">
         <f t="shared" si="21"/>
         <v>52</v>
       </c>
@@ -26939,7 +27035,7 @@
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
-      <c r="K260">
+      <c r="K260" s="21">
         <f>COUNTIF(Strecken!D:D,H260)</f>
         <v>0</v>
       </c>
@@ -26951,23 +27047,23 @@
       <c r="A261" t="s">
         <v>484</v>
       </c>
-      <c r="B261" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C261" s="48">
+      <c r="B261" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C261" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D261" s="48">
+      <c r="D261" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E261" s="48">
+      <c r="E261" s="45">
         <f t="shared" si="25"/>
         <v>50</v>
       </c>
-      <c r="F261" s="48">
+      <c r="F261" s="45">
         <f t="shared" si="21"/>
         <v>53</v>
       </c>
@@ -26983,7 +27079,7 @@
         <f t="shared" si="24"/>
         <v>6</v>
       </c>
-      <c r="K261">
+      <c r="K261" s="21">
         <f>COUNTIF(Strecken!D:D,H261)</f>
         <v>0</v>
       </c>
@@ -26995,23 +27091,23 @@
       <c r="A262" t="s">
         <v>485</v>
       </c>
-      <c r="B262" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C262" s="48">
+      <c r="B262" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C262" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D262" s="48">
+      <c r="D262" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E262" s="48">
+      <c r="E262" s="45">
         <f t="shared" si="25"/>
         <v>46</v>
       </c>
-      <c r="F262" s="48">
+      <c r="F262" s="45">
         <f t="shared" si="21"/>
         <v>49</v>
       </c>
@@ -27027,7 +27123,7 @@
         <f t="shared" si="24"/>
         <v>4</v>
       </c>
-      <c r="K262">
+      <c r="K262" s="21">
         <f>COUNTIF(Strecken!D:D,H262)</f>
         <v>0</v>
       </c>
@@ -27036,23 +27132,23 @@
       <c r="A263" t="s">
         <v>486</v>
       </c>
-      <c r="B263" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C263" s="48">
+      <c r="B263" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C263" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D263" s="48">
+      <c r="D263" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E263" s="48">
+      <c r="E263" s="45">
         <f t="shared" si="25"/>
         <v>45</v>
       </c>
-      <c r="F263" s="48">
+      <c r="F263" s="45">
         <f t="shared" si="21"/>
         <v>48</v>
       </c>
@@ -27068,7 +27164,7 @@
         <f t="shared" si="24"/>
         <v>6</v>
       </c>
-      <c r="K263">
+      <c r="K263" s="21">
         <f>COUNTIF(Strecken!D:D,H263)</f>
         <v>0</v>
       </c>
@@ -27080,23 +27176,23 @@
       <c r="A264" t="s">
         <v>487</v>
       </c>
-      <c r="B264" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C264" s="48">
+      <c r="B264" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C264" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D264" s="48">
+      <c r="D264" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E264" s="48">
+      <c r="E264" s="45">
         <f t="shared" si="25"/>
         <v>61</v>
       </c>
-      <c r="F264" s="48">
+      <c r="F264" s="45">
         <f t="shared" si="21"/>
         <v>64</v>
       </c>
@@ -27112,7 +27208,7 @@
         <f t="shared" si="24"/>
         <v>9</v>
       </c>
-      <c r="K264">
+      <c r="K264" s="21">
         <f>COUNTIF(Strecken!D:D,H264)</f>
         <v>0</v>
       </c>
@@ -27121,23 +27217,23 @@
       <c r="A265" t="s">
         <v>488</v>
       </c>
-      <c r="B265" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C265" s="48">
+      <c r="B265" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C265" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D265" s="48">
+      <c r="D265" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E265" s="48">
+      <c r="E265" s="45">
         <f t="shared" si="25"/>
         <v>59</v>
       </c>
-      <c r="F265" s="48">
+      <c r="F265" s="45">
         <f t="shared" si="21"/>
         <v>62</v>
       </c>
@@ -27153,7 +27249,7 @@
         <f t="shared" si="24"/>
         <v>7</v>
       </c>
-      <c r="K265">
+      <c r="K265" s="21">
         <f>COUNTIF(Strecken!D:D,H265)</f>
         <v>0</v>
       </c>
@@ -27162,23 +27258,23 @@
       <c r="A266" t="s">
         <v>489</v>
       </c>
-      <c r="B266" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C266" s="48">
+      <c r="B266" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C266" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D266" s="48">
+      <c r="D266" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E266" s="48">
+      <c r="E266" s="45">
         <f t="shared" si="25"/>
         <v>54</v>
       </c>
-      <c r="F266" s="48">
+      <c r="F266" s="45">
         <f t="shared" si="21"/>
         <v>57</v>
       </c>
@@ -27194,32 +27290,35 @@
         <f t="shared" si="24"/>
         <v>6</v>
       </c>
-      <c r="K266">
+      <c r="K266" s="21">
         <f>COUNTIF(Strecken!D:D,H266)</f>
         <v>0</v>
+      </c>
+      <c r="L266" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="267" spans="1:12">
       <c r="A267" t="s">
         <v>490</v>
       </c>
-      <c r="B267" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C267" s="48">
+      <c r="B267" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C267" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D267" s="48">
+      <c r="D267" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E267" s="48">
+      <c r="E267" s="45">
         <f t="shared" si="25"/>
         <v>54</v>
       </c>
-      <c r="F267" s="48">
+      <c r="F267" s="45">
         <f t="shared" si="21"/>
         <v>57</v>
       </c>
@@ -27235,7 +27334,7 @@
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
-      <c r="K267">
+      <c r="K267" s="21">
         <f>COUNTIF(Strecken!D:D,H267)</f>
         <v>0</v>
       </c>
@@ -27244,23 +27343,23 @@
       <c r="A268" t="s">
         <v>491</v>
       </c>
-      <c r="B268" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C268" s="48">
+      <c r="B268" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C268" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D268" s="48">
+      <c r="D268" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E268" s="48">
+      <c r="E268" s="45">
         <f t="shared" si="25"/>
         <v>41</v>
       </c>
-      <c r="F268" s="48">
+      <c r="F268" s="45">
         <f t="shared" si="21"/>
         <v>44</v>
       </c>
@@ -27276,7 +27375,7 @@
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
-      <c r="K268">
+      <c r="K268" s="21">
         <f>COUNTIF(Strecken!D:D,H268)</f>
         <v>0</v>
       </c>
@@ -27285,23 +27384,23 @@
       <c r="A269" t="s">
         <v>492</v>
       </c>
-      <c r="B269" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C269" s="48">
+      <c r="B269" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C269" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D269" s="48">
+      <c r="D269" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E269" s="48">
+      <c r="E269" s="45">
         <f t="shared" si="25"/>
         <v>41</v>
       </c>
-      <c r="F269" s="48">
+      <c r="F269" s="45">
         <f t="shared" si="21"/>
         <v>44</v>
       </c>
@@ -27317,32 +27416,35 @@
         <f t="shared" si="24"/>
         <v>6</v>
       </c>
-      <c r="K269">
+      <c r="K269" s="21">
         <f>COUNTIF(Strecken!D:D,H269)</f>
         <v>0</v>
+      </c>
+      <c r="L269" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="270" spans="1:12">
       <c r="A270" t="s">
         <v>493</v>
       </c>
-      <c r="B270" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C270" s="48">
+      <c r="B270" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C270" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D270" s="48">
+      <c r="D270" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E270" s="48">
+      <c r="E270" s="45">
         <f t="shared" si="25"/>
         <v>43</v>
       </c>
-      <c r="F270" s="48">
+      <c r="F270" s="45">
         <f t="shared" si="21"/>
         <v>46</v>
       </c>
@@ -27358,7 +27460,7 @@
         <f t="shared" si="24"/>
         <v>8</v>
       </c>
-      <c r="K270">
+      <c r="K270" s="21">
         <f>COUNTIF(Strecken!D:D,H270)</f>
         <v>0</v>
       </c>
@@ -27370,23 +27472,23 @@
       <c r="A271" t="s">
         <v>494</v>
       </c>
-      <c r="B271" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C271" s="48">
+      <c r="B271" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C271" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D271" s="48">
+      <c r="D271" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E271" s="48">
+      <c r="E271" s="45">
         <f t="shared" si="25"/>
         <v>46</v>
       </c>
-      <c r="F271" s="48">
+      <c r="F271" s="45">
         <f t="shared" si="21"/>
         <v>50</v>
       </c>
@@ -27402,35 +27504,31 @@
         <f t="shared" si="24"/>
         <v>15</v>
       </c>
-      <c r="K271">
-        <f>COUNTIF(Strecken!D:D,H271)</f>
-        <v>0</v>
-      </c>
-      <c r="L271" t="s">
-        <v>45</v>
+      <c r="K271" s="21" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="272" spans="1:12">
       <c r="A272" t="s">
         <v>495</v>
       </c>
-      <c r="B272" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C272" s="48">
+      <c r="B272" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C272" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D272" s="48">
+      <c r="D272" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E272" s="48">
+      <c r="E272" s="45">
         <f t="shared" si="25"/>
         <v>53</v>
       </c>
-      <c r="F272" s="48">
+      <c r="F272" s="45">
         <f t="shared" si="21"/>
         <v>57</v>
       </c>
@@ -27446,7 +27544,7 @@
         <f t="shared" si="24"/>
         <v>14</v>
       </c>
-      <c r="K272">
+      <c r="K272" s="21">
         <f>COUNTIF(Strecken!D:D,H272)</f>
         <v>0</v>
       </c>
@@ -27454,27 +27552,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:12">
       <c r="A273" t="s">
         <v>496</v>
       </c>
-      <c r="B273" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C273" s="48">
+      <c r="B273" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C273" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D273" s="48">
+      <c r="D273" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E273" s="48">
+      <c r="E273" s="45">
         <f t="shared" si="25"/>
         <v>50</v>
       </c>
-      <c r="F273" s="48">
+      <c r="F273" s="45">
         <f t="shared" si="21"/>
         <v>53</v>
       </c>
@@ -27490,32 +27588,35 @@
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
-      <c r="K273">
+      <c r="K273" s="21">
         <f>COUNTIF(Strecken!D:D,H273)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:11">
+      <c r="L273" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12">
       <c r="A274" t="s">
         <v>497</v>
       </c>
-      <c r="B274" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C274" s="48">
+      <c r="B274" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C274" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D274" s="48">
+      <c r="D274" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E274" s="48">
+      <c r="E274" s="45">
         <f t="shared" si="25"/>
         <v>38</v>
       </c>
-      <c r="F274" s="48">
+      <c r="F274" s="45">
         <f t="shared" si="21"/>
         <v>41</v>
       </c>
@@ -27531,32 +27632,32 @@
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
-      <c r="K274">
+      <c r="K274" s="21">
         <f>COUNTIF(Strecken!D:D,H274)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:12">
       <c r="A275" t="s">
         <v>498</v>
       </c>
-      <c r="B275" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C275" s="48">
+      <c r="B275" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C275" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D275" s="48">
+      <c r="D275" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E275" s="48">
+      <c r="E275" s="45">
         <f t="shared" si="25"/>
         <v>37</v>
       </c>
-      <c r="F275" s="48">
+      <c r="F275" s="45">
         <f t="shared" si="21"/>
         <v>40</v>
       </c>
@@ -27572,32 +27673,32 @@
         <f t="shared" si="24"/>
         <v>6</v>
       </c>
-      <c r="K275">
+      <c r="K275" s="21">
         <f>COUNTIF(Strecken!D:D,H275)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:12">
       <c r="A276" t="s">
         <v>499</v>
       </c>
-      <c r="B276" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C276" s="48">
+      <c r="B276" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C276" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D276" s="48">
+      <c r="D276" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E276" s="48">
+      <c r="E276" s="45">
         <f t="shared" si="25"/>
         <v>40</v>
       </c>
-      <c r="F276" s="48">
+      <c r="F276" s="45">
         <f t="shared" si="21"/>
         <v>43</v>
       </c>
@@ -27613,32 +27714,32 @@
         <f t="shared" si="24"/>
         <v>6</v>
       </c>
-      <c r="K276">
+      <c r="K276" s="21">
         <f>COUNTIF(Strecken!D:D,H276)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:12">
       <c r="A277" t="s">
         <v>500</v>
       </c>
-      <c r="B277" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C277" s="48">
+      <c r="B277" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C277" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D277" s="48">
+      <c r="D277" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E277" s="48">
+      <c r="E277" s="45">
         <f t="shared" si="25"/>
         <v>57</v>
       </c>
-      <c r="F277" s="48">
+      <c r="F277" s="45">
         <f t="shared" si="21"/>
         <v>60</v>
       </c>
@@ -27654,32 +27755,35 @@
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
-      <c r="K277">
+      <c r="K277" s="21">
         <f>COUNTIF(Strecken!D:D,H277)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:11">
+      <c r="L277" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12">
       <c r="A278" t="s">
         <v>501</v>
       </c>
-      <c r="B278" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C278" s="48">
+      <c r="B278" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C278" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D278" s="48">
+      <c r="D278" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E278" s="48">
+      <c r="E278" s="45">
         <f t="shared" si="25"/>
         <v>55</v>
       </c>
-      <c r="F278" s="48">
+      <c r="F278" s="45">
         <f t="shared" si="21"/>
         <v>58</v>
       </c>
@@ -27695,32 +27799,35 @@
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
-      <c r="K278">
+      <c r="K278" s="21">
         <f>COUNTIF(Strecken!D:D,H278)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:11">
+      <c r="L278" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12">
       <c r="A279" t="s">
         <v>502</v>
       </c>
-      <c r="B279" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C279" s="48">
+      <c r="B279" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C279" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D279" s="48">
+      <c r="D279" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E279" s="48">
+      <c r="E279" s="45">
         <f t="shared" si="25"/>
         <v>53</v>
       </c>
-      <c r="F279" s="48">
+      <c r="F279" s="45">
         <f t="shared" si="21"/>
         <v>56</v>
       </c>
@@ -27736,32 +27843,35 @@
         <f t="shared" si="24"/>
         <v>3</v>
       </c>
-      <c r="K279">
+      <c r="K279" s="21">
         <f>COUNTIF(Strecken!D:D,H279)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:11">
+      <c r="L279" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12">
       <c r="A280" t="s">
         <v>503</v>
       </c>
-      <c r="B280" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C280" s="48">
+      <c r="B280" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C280" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D280" s="48">
+      <c r="D280" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E280" s="48">
+      <c r="E280" s="45">
         <f t="shared" si="25"/>
         <v>40</v>
       </c>
-      <c r="F280" s="48">
+      <c r="F280" s="45">
         <f t="shared" si="21"/>
         <v>43</v>
       </c>
@@ -27777,32 +27887,35 @@
         <f t="shared" si="24"/>
         <v>3</v>
       </c>
-      <c r="K280">
+      <c r="K280" s="21">
         <f>COUNTIF(Strecken!D:D,H280)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:11">
+      <c r="L280" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12">
       <c r="A281" t="s">
         <v>504</v>
       </c>
-      <c r="B281" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C281" s="48">
+      <c r="B281" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C281" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D281" s="48">
+      <c r="D281" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E281" s="48">
+      <c r="E281" s="45">
         <f t="shared" si="25"/>
         <v>42</v>
       </c>
-      <c r="F281" s="48">
+      <c r="F281" s="45">
         <f t="shared" si="21"/>
         <v>45</v>
       </c>
@@ -27818,32 +27931,35 @@
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
-      <c r="K281">
+      <c r="K281" s="21">
         <f>COUNTIF(Strecken!D:D,H281)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:11">
+      <c r="L281" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12">
       <c r="A282" t="s">
         <v>505</v>
       </c>
-      <c r="B282" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C282" s="48">
+      <c r="B282" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C282" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D282" s="48">
+      <c r="D282" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E282" s="48">
+      <c r="E282" s="45">
         <f t="shared" si="25"/>
         <v>47</v>
       </c>
-      <c r="F282" s="48">
+      <c r="F282" s="45">
         <f t="shared" si="21"/>
         <v>51</v>
       </c>
@@ -27859,32 +27975,35 @@
         <f t="shared" si="24"/>
         <v>10</v>
       </c>
-      <c r="K282">
+      <c r="K282" s="21">
         <f>COUNTIF(Strecken!D:D,H282)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:11">
+      <c r="L282" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12">
       <c r="A283" t="s">
         <v>506</v>
       </c>
-      <c r="B283" s="48">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="C283" s="48">
+      <c r="B283" s="45">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="C283" s="45">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="D283" s="48">
+      <c r="D283" s="45">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="E283" s="48">
+      <c r="E283" s="45">
         <f t="shared" si="25"/>
         <v>108</v>
       </c>
-      <c r="F283" s="48">
+      <c r="F283" s="45">
         <f t="shared" si="21"/>
         <v>112</v>
       </c>
@@ -27900,9 +28019,30 @@
         <f t="shared" si="24"/>
         <v>10</v>
       </c>
-      <c r="K283">
+      <c r="K283" s="21">
         <f>COUNTIF(Strecken!D:D,H283)</f>
         <v>0</v>
+      </c>
+      <c r="L283" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12">
+      <c r="A284" t="s">
+        <v>84</v>
+      </c>
+      <c r="B284"/>
+      <c r="C284"/>
+      <c r="D284"/>
+      <c r="E284"/>
+      <c r="F284"/>
+      <c r="K284">
+        <f>SUBTOTAL(109,Tabelle4[Verwendet?])</f>
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <f>SUBTOTAL(103,Tabelle4[Kandidat mit ZZZ])</f>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/CraZZZy Crash Challenge/CCC-Daten.xlsx
+++ b/CraZZZy Crash Challenge/CCC-Daten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Private\JVerkin\projects\KaroToolsCollection\CraZZZy Crash Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CF5070-5FF2-44F4-A5AB-91B1E9FA6C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B80363-C021-49CC-AFD5-9018C193C0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-10170" windowWidth="21840" windowHeight="38040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="576">
   <si>
     <t>Teilnehmer</t>
   </si>
@@ -1667,6 +1667,150 @@
   </si>
   <si>
     <t>4,1,0</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>später</t>
+  </si>
+  <si>
+    <t>später: 7</t>
+  </si>
+  <si>
+    <t>Verkehrsübungsplatz</t>
+  </si>
+  <si>
+    <t>- Kreisverkehr</t>
+  </si>
+  <si>
+    <t>- Anfahren am Berg</t>
+  </si>
+  <si>
+    <t>- Rechts vor Links</t>
+  </si>
+  <si>
+    <t>- Ampel</t>
+  </si>
+  <si>
+    <t>- Parken (längs &amp; quer)</t>
+  </si>
+  <si>
+    <t>- Serpentinen</t>
+  </si>
+  <si>
+    <t>- Rückwärtsfahren</t>
+  </si>
+  <si>
+    <t>- Engstellen</t>
+  </si>
+  <si>
+    <t>- Zebrastreifen</t>
+  </si>
+  <si>
+    <t>später: 1</t>
+  </si>
+  <si>
+    <t>&lt;OPTION VALUE=10059&gt;Karte 10059: Verkehrsübungsplatz (?? Spieler)</t>
+  </si>
+  <si>
+    <t>Karostreckenbaustelle (MOD)</t>
+  </si>
+  <si>
+    <t>später: 4</t>
+  </si>
+  <si>
+    <t>10053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karocamp 2022 </t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KaKiWo - Minikarocamp </t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>10039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempelhof </t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karolettenpapier </t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lets rock </t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>&lt;OPTION VALUE=10058&gt;Karte 10058: Karostreckenbaustelle (MOD) (9 Spieler)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragster-Race </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nadelöhr II </t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karocamp2019 </t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:ZZZsleep: </t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karofisch </t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holperstrecke </t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -1893,7 +2037,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2014,15 +2158,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2044,6 +2179,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2051,30 +2199,6 @@
     <cellStyle name="Überschrift 2" xfId="2" builtinId="17"/>
   </cellStyles>
   <dxfs count="37">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -2178,6 +2302,30 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2273,55 +2421,27 @@
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CCC"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spieltag" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Spieler" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{46DD40C5-F863-41A3-82F9-4E621D4A2334}" name="Map ID" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Map Name" dataDxfId="1" dataCellStyle="Link"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="22">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Spieler" dataDxfId="27"/>
+    <tableColumn id="13" xr3:uid="{46DD40C5-F863-41A3-82F9-4E621D4A2334}" name="Map ID" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Map Name" dataDxfId="25" dataCellStyle="Link"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="19">
       <calculatedColumnFormula>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{897B7B9F-55FE-4CEE-88A6-F9425764BC23}" name="Tabelle4" displayName="Tabelle4" ref="A1:L287" totalsRowCount="1" headerRowDxfId="19">
-  <autoFilter ref="A1:L286" xr:uid="{897B7B9F-55FE-4CEE-88A6-F9425764BC23}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="10"/>
-        <filter val="11"/>
-        <filter val="12"/>
-        <filter val="13"/>
-        <filter val="14"/>
-        <filter val="15"/>
-        <filter val="16"/>
-        <filter val="175"/>
-        <filter val="20"/>
-        <filter val="21"/>
-        <filter val="26"/>
-        <filter val="27"/>
-        <filter val="4"/>
-        <filter val="48"/>
-        <filter val="5"/>
-        <filter val="6"/>
-        <filter val="7"/>
-        <filter val="8"/>
-        <filter val="9"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{897B7B9F-55FE-4CEE-88A6-F9425764BC23}" name="Tabelle4" displayName="Tabelle4" ref="A1:L289" totalsRowCount="1" headerRowDxfId="16">
+  <autoFilter ref="A1:L288" xr:uid="{897B7B9F-55FE-4CEE-88A6-F9425764BC23}">
     <filterColumn colId="11">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2339,7 +2459,7 @@
     <tableColumn id="4" xr3:uid="{17356422-2A9E-4839-B8A8-369FC1117B6C}" name=": ">
       <calculatedColumnFormula>FIND(D$1,$A2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D73AD2F3-FF78-4433-BB0D-1FB07C679587}" name="(" dataDxfId="18">
+    <tableColumn id="5" xr3:uid="{D73AD2F3-FF78-4433-BB0D-1FB07C679587}" name="(" dataDxfId="15">
       <calculatedColumnFormula>FIND("@",SUBSTITUTE($A2,E$1,"@",LEN($A2)-LEN(SUBSTITUTE($A2,E$1,""))),1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{228CD70F-056D-4F45-A7A5-8BABF11AA649}" name=" Spieler)">
@@ -2352,7 +2472,7 @@
     <tableColumn id="9" xr3:uid="{F93CAB44-C824-4CD9-B3AC-AA74DC75DE63}" name="Name">
       <calculatedColumnFormula>LEFT(RIGHT($A2,LEN($A2) - D2 - 1),E2-D2-2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3F139DA0-52EA-4848-9C94-104C11AFDF7C}" name="Spieler" dataDxfId="17">
+    <tableColumn id="10" xr3:uid="{3F139DA0-52EA-4848-9C94-104C11AFDF7C}" name="Spieler" dataDxfId="14">
       <calculatedColumnFormula>LEFT(RIGHT($A2,LEN($A2) - E2 ),F2-E2-1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{3DFC605D-42C4-4277-8FCE-E63EFB61D7AC}" name="Verwendet?" totalsRowFunction="sum">
@@ -2365,26 +2485,26 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD48A89C-AF8A-4D74-BEE3-973381D8E39E}" name="Tabelle2" displayName="Tabelle2" ref="A2:L14" totalsRowShown="0" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD48A89C-AF8A-4D74-BEE3-973381D8E39E}" name="Tabelle2" displayName="Tabelle2" ref="A2:L14" totalsRowShown="0" dataDxfId="13">
   <autoFilter ref="A2:L14" xr:uid="{FD48A89C-AF8A-4D74-BEE3-973381D8E39E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L14">
     <sortCondition descending="1" ref="L2:L14"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{06B18662-5B32-42F6-85CF-17D8C9DC7BDF}" name="Spieler" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{183E08E8-D5AA-4DF3-942F-C23480690953}" name=" " dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{37A147A2-6A27-443D-8799-F71527EF7750}" name="Züge" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{31696DC1-5E37-430E-8871-0BCFCD170B2E}" name="Klassisch (Z)" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{BC263A88-D39F-446D-BF5C-F85521658DA8}" name="Geclustert (Z)" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{093A8095-9008-4D88-88F6-250A19675DD8}" name="  " dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{879335B0-290D-43FA-A6FE-E6B6F53D9440}" name="Crashs" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{78D21676-2217-4EF4-A197-F19C7A84C471}" name="Klassisch (CR)" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{BB0FE7C7-52D6-4A76-8688-1B73AD062B37}" name="Geclustert (CR)" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{2E578574-BF4A-4EFE-BF15-F379C953D82E}" name="   " dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{D08C11A1-CC23-4F54-8A65-A4D420BAED58}" name="Gesamt Klassisch" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{06B18662-5B32-42F6-85CF-17D8C9DC7BDF}" name="Spieler" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{183E08E8-D5AA-4DF3-942F-C23480690953}" name=" " dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{37A147A2-6A27-443D-8799-F71527EF7750}" name="Züge" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{31696DC1-5E37-430E-8871-0BCFCD170B2E}" name="Klassisch (Z)" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{BC263A88-D39F-446D-BF5C-F85521658DA8}" name="Geclustert (Z)" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{093A8095-9008-4D88-88F6-250A19675DD8}" name="  " dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{879335B0-290D-43FA-A6FE-E6B6F53D9440}" name="Crashs" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{78D21676-2217-4EF4-A197-F19C7A84C471}" name="Klassisch (CR)" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{BB0FE7C7-52D6-4A76-8688-1B73AD062B37}" name="Geclustert (CR)" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{2E578574-BF4A-4EFE-BF15-F379C953D82E}" name="   " dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{D08C11A1-CC23-4F54-8A65-A4D420BAED58}" name="Gesamt Klassisch" dataDxfId="2">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Klassisch (Z)]]*Tabelle2[[#This Row],[Klassisch (CR)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C8F6816D-C153-497A-A2CC-4183AA81D2EF}" name="Gesamt Geclustert" dataDxfId="4">
+    <tableColumn id="12" xr3:uid="{C8F6816D-C153-497A-A2CC-4183AA81D2EF}" name="Gesamt Geclustert" dataDxfId="1">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Geclustert (Z)]]*Tabelle2[[#This Row],[Geclustert (CR)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4108,8 +4228,8 @@
   </sheetPr>
   <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -4180,7 +4300,7 @@
       <c r="C2" s="14">
         <v>42</v>
       </c>
-      <c r="D2" s="51"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="15" t="str">
         <f ca="1">COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"3") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"4") &amp; " / "
@@ -4807,7 +4927,7 @@
       <c r="C18" s="14">
         <v>30</v>
       </c>
-      <c r="D18" s="51"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="15" t="str">
         <f ca="1">COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"3") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"4") &amp; " / "
@@ -4849,7 +4969,7 @@
       <c r="C19" s="5">
         <v>3</v>
       </c>
-      <c r="D19" s="52">
+      <c r="D19" s="49">
         <v>114</v>
       </c>
       <c r="E19" s="39" t="s">
@@ -4888,7 +5008,7 @@
       <c r="C20" s="5">
         <v>3</v>
       </c>
-      <c r="D20" s="52">
+      <c r="D20" s="49">
         <v>135</v>
       </c>
       <c r="E20" s="39" t="s">
@@ -4927,7 +5047,7 @@
       <c r="C21" s="5">
         <v>3</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="49">
         <v>187</v>
       </c>
       <c r="E21" t="s">
@@ -4966,7 +5086,7 @@
       <c r="C22" s="5">
         <v>3</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="49">
         <v>108</v>
       </c>
       <c r="E22" t="s">
@@ -5005,7 +5125,7 @@
       <c r="C23" s="5">
         <v>4</v>
       </c>
-      <c r="D23" s="52">
+      <c r="D23" s="49">
         <v>116</v>
       </c>
       <c r="E23" t="s">
@@ -5044,7 +5164,7 @@
       <c r="C24" s="5">
         <v>4</v>
       </c>
-      <c r="D24" s="52">
+      <c r="D24" s="49">
         <v>188</v>
       </c>
       <c r="E24" t="s">
@@ -5083,7 +5203,7 @@
       <c r="C25" s="5">
         <v>4</v>
       </c>
-      <c r="D25" s="52">
+      <c r="D25" s="49">
         <v>164</v>
       </c>
       <c r="E25" t="s">
@@ -5122,7 +5242,7 @@
       <c r="C26" s="5">
         <v>4</v>
       </c>
-      <c r="D26" s="52">
+      <c r="D26" s="49">
         <v>33</v>
       </c>
       <c r="E26" t="s">
@@ -5161,7 +5281,7 @@
       <c r="C27" s="5">
         <v>4</v>
       </c>
-      <c r="D27" s="52">
+      <c r="D27" s="49">
         <v>174</v>
       </c>
       <c r="E27" t="s">
@@ -5200,7 +5320,7 @@
       <c r="C28" s="5">
         <v>4</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="49">
         <v>111</v>
       </c>
       <c r="E28" t="s">
@@ -5239,7 +5359,7 @@
       <c r="C29" s="5">
         <v>5</v>
       </c>
-      <c r="D29" s="52">
+      <c r="D29" s="49">
         <v>190</v>
       </c>
       <c r="E29" t="s">
@@ -5278,7 +5398,7 @@
       <c r="C30" s="5">
         <v>5</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D30" s="49">
         <v>83</v>
       </c>
       <c r="E30" t="s">
@@ -5317,7 +5437,7 @@
       <c r="C31" s="5">
         <v>5</v>
       </c>
-      <c r="D31" s="52">
+      <c r="D31" s="49">
         <v>181</v>
       </c>
       <c r="E31" t="s">
@@ -5356,7 +5476,7 @@
       <c r="C32" s="5">
         <v>5</v>
       </c>
-      <c r="D32" s="52">
+      <c r="D32" s="49">
         <v>191</v>
       </c>
       <c r="E32" t="s">
@@ -5395,7 +5515,7 @@
       <c r="C33" s="5">
         <v>5</v>
       </c>
-      <c r="D33" s="52">
+      <c r="D33" s="49">
         <v>127</v>
       </c>
       <c r="E33" t="s">
@@ -5434,7 +5554,7 @@
       <c r="C34" s="5">
         <v>5</v>
       </c>
-      <c r="D34" s="52">
+      <c r="D34" s="49">
         <v>154</v>
       </c>
       <c r="E34" t="s">
@@ -5473,7 +5593,7 @@
       <c r="C35" s="5">
         <v>5</v>
       </c>
-      <c r="D35" s="52">
+      <c r="D35" s="49">
         <v>123</v>
       </c>
       <c r="E35" t="s">
@@ -5512,7 +5632,7 @@
       <c r="C36" s="5">
         <v>5</v>
       </c>
-      <c r="D36" s="52">
+      <c r="D36" s="49">
         <v>138</v>
       </c>
       <c r="E36" t="s">
@@ -5551,7 +5671,7 @@
       <c r="C37" s="5">
         <v>5</v>
       </c>
-      <c r="D37" s="52">
+      <c r="D37" s="49">
         <v>94</v>
       </c>
       <c r="E37" t="s">
@@ -5627,7 +5747,7 @@
       <c r="C39" s="14">
         <v>28</v>
       </c>
-      <c r="D39" s="51"/>
+      <c r="D39" s="48"/>
       <c r="E39" s="15" t="str">
         <f ca="1">COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"3") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"4") &amp; " / "
@@ -6489,7 +6609,7 @@
       <c r="C60" s="13">
         <v>28</v>
       </c>
-      <c r="D60" s="53"/>
+      <c r="D60" s="50"/>
       <c r="E60" s="13" t="str">
         <f ca="1">COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"3") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"4") &amp; " / "
@@ -7311,7 +7431,7 @@
       <c r="C81" s="13">
         <v>30</v>
       </c>
-      <c r="D81" s="53"/>
+      <c r="D81" s="50"/>
       <c r="E81" s="13" t="str">
         <f ca="1">COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"3") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"4") &amp; " / "
@@ -7353,7 +7473,7 @@
       <c r="C82" s="24">
         <v>5</v>
       </c>
-      <c r="D82" s="54">
+      <c r="D82" s="51">
         <v>96</v>
       </c>
       <c r="E82" t="s">
@@ -7394,7 +7514,7 @@
       <c r="C83" s="24">
         <v>5</v>
       </c>
-      <c r="D83" s="54">
+      <c r="D83" s="51">
         <v>237</v>
       </c>
       <c r="E83" t="s">
@@ -7435,7 +7555,7 @@
       <c r="C84" s="24">
         <v>5</v>
       </c>
-      <c r="D84" s="54">
+      <c r="D84" s="51">
         <v>241</v>
       </c>
       <c r="E84" t="s">
@@ -7476,7 +7596,7 @@
       <c r="C85" s="26">
         <v>6</v>
       </c>
-      <c r="D85" s="55">
+      <c r="D85" s="52">
         <v>238</v>
       </c>
       <c r="E85" t="s">
@@ -7517,7 +7637,7 @@
       <c r="C86" s="24">
         <v>6</v>
       </c>
-      <c r="D86" s="54">
+      <c r="D86" s="51">
         <v>125</v>
       </c>
       <c r="E86" t="s">
@@ -7558,7 +7678,7 @@
       <c r="C87" s="24">
         <v>5</v>
       </c>
-      <c r="D87" s="54">
+      <c r="D87" s="51">
         <v>242</v>
       </c>
       <c r="E87" t="s">
@@ -7599,7 +7719,7 @@
       <c r="C88" s="24">
         <v>5</v>
       </c>
-      <c r="D88" s="54">
+      <c r="D88" s="51">
         <v>10008</v>
       </c>
       <c r="E88" t="s">
@@ -7640,7 +7760,7 @@
       <c r="C89" s="24">
         <v>4</v>
       </c>
-      <c r="D89" s="54">
+      <c r="D89" s="51">
         <v>230</v>
       </c>
       <c r="E89" t="s">
@@ -7681,7 +7801,7 @@
       <c r="C90" s="26">
         <v>6</v>
       </c>
-      <c r="D90" s="55">
+      <c r="D90" s="52">
         <v>175</v>
       </c>
       <c r="E90" t="s">
@@ -7722,7 +7842,7 @@
       <c r="C91" s="24">
         <v>4</v>
       </c>
-      <c r="D91" s="54">
+      <c r="D91" s="51">
         <v>234</v>
       </c>
       <c r="E91" t="s">
@@ -7763,7 +7883,7 @@
       <c r="C92" s="24">
         <v>5</v>
       </c>
-      <c r="D92" s="54">
+      <c r="D92" s="51">
         <v>10006</v>
       </c>
       <c r="E92" t="s">
@@ -7804,7 +7924,7 @@
       <c r="C93" s="24">
         <v>4</v>
       </c>
-      <c r="D93" s="54">
+      <c r="D93" s="51">
         <v>122</v>
       </c>
       <c r="E93" t="s">
@@ -7847,7 +7967,7 @@
       <c r="C94" s="24">
         <v>5</v>
       </c>
-      <c r="D94" s="54">
+      <c r="D94" s="51">
         <v>188</v>
       </c>
       <c r="E94" t="s">
@@ -7888,7 +8008,7 @@
       <c r="C95" s="24">
         <v>6</v>
       </c>
-      <c r="D95" s="54">
+      <c r="D95" s="51">
         <v>173</v>
       </c>
       <c r="E95" t="s">
@@ -7929,7 +8049,7 @@
       <c r="C96" s="24">
         <v>4</v>
       </c>
-      <c r="D96" s="54">
+      <c r="D96" s="51">
         <v>236</v>
       </c>
       <c r="E96" t="s">
@@ -7970,7 +8090,7 @@
       <c r="C97" s="24">
         <v>6</v>
       </c>
-      <c r="D97" s="54">
+      <c r="D97" s="51">
         <v>10015</v>
       </c>
       <c r="E97" t="s">
@@ -8011,7 +8131,7 @@
       <c r="C98" s="24">
         <v>5</v>
       </c>
-      <c r="D98" s="54">
+      <c r="D98" s="51">
         <v>231</v>
       </c>
       <c r="E98" t="s">
@@ -8052,7 +8172,7 @@
       <c r="C99" s="24">
         <v>6</v>
       </c>
-      <c r="D99" s="54">
+      <c r="D99" s="51">
         <v>166</v>
       </c>
       <c r="E99" t="s">
@@ -8093,7 +8213,7 @@
       <c r="C100" s="24">
         <v>5</v>
       </c>
-      <c r="D100" s="54">
+      <c r="D100" s="51">
         <v>10001</v>
       </c>
       <c r="E100" t="s">
@@ -8134,7 +8254,7 @@
       <c r="C101" s="24">
         <v>3</v>
       </c>
-      <c r="D101" s="54">
+      <c r="D101" s="51">
         <v>10009</v>
       </c>
       <c r="E101" t="s">
@@ -8175,7 +8295,7 @@
       <c r="C102" s="24">
         <v>4</v>
       </c>
-      <c r="D102" s="54">
+      <c r="D102" s="51">
         <v>240</v>
       </c>
       <c r="E102" t="s">
@@ -8216,7 +8336,7 @@
       <c r="C103" s="24">
         <v>3</v>
       </c>
-      <c r="D103" s="54">
+      <c r="D103" s="51">
         <v>10016</v>
       </c>
       <c r="E103" t="s">
@@ -8257,7 +8377,7 @@
       <c r="C104" s="24">
         <v>4</v>
       </c>
-      <c r="D104" s="54">
+      <c r="D104" s="51">
         <v>181</v>
       </c>
       <c r="E104" t="s">
@@ -8298,7 +8418,7 @@
       <c r="C105" s="24">
         <v>3</v>
       </c>
-      <c r="D105" s="54">
+      <c r="D105" s="51">
         <v>229</v>
       </c>
       <c r="E105" t="s">
@@ -8339,7 +8459,7 @@
       <c r="C106" s="24">
         <v>4</v>
       </c>
-      <c r="D106" s="54">
+      <c r="D106" s="51">
         <v>10014</v>
       </c>
       <c r="E106" t="s">
@@ -8380,7 +8500,7 @@
       <c r="C107" s="14">
         <v>30</v>
       </c>
-      <c r="D107" s="51"/>
+      <c r="D107" s="48"/>
       <c r="E107" s="13" t="str">
         <f ca="1">COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"3") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"4") &amp; " / "
@@ -8420,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="27"/>
-      <c r="D108" s="56" t="s">
+      <c r="D108" s="53" t="s">
         <v>521</v>
       </c>
       <c r="E108" s="32" t="s">
@@ -8459,7 +8579,7 @@
         <v>2</v>
       </c>
       <c r="C109" s="27"/>
-      <c r="D109" s="56" t="s">
+      <c r="D109" s="53" t="s">
         <v>522</v>
       </c>
       <c r="E109" s="32" t="s">
@@ -8498,7 +8618,7 @@
         <v>3</v>
       </c>
       <c r="C110" s="27"/>
-      <c r="D110" s="56" t="s">
+      <c r="D110" s="53" t="s">
         <v>523</v>
       </c>
       <c r="E110" s="32" t="s">
@@ -8537,8 +8657,12 @@
         <v>4</v>
       </c>
       <c r="C111" s="41"/>
-      <c r="D111" s="56"/>
-      <c r="E111" s="32"/>
+      <c r="D111" s="53">
+        <v>10058</v>
+      </c>
+      <c r="E111" s="32" t="s">
+        <v>543</v>
+      </c>
       <c r="F111" s="30"/>
       <c r="G111" s="28" t="s">
         <v>60</v>
@@ -8570,8 +8694,12 @@
         <v>5</v>
       </c>
       <c r="C112" s="41"/>
-      <c r="D112" s="56"/>
-      <c r="E112" s="32"/>
+      <c r="D112" s="53">
+        <v>10059</v>
+      </c>
+      <c r="E112" s="32" t="s">
+        <v>531</v>
+      </c>
       <c r="F112" s="29"/>
       <c r="G112" s="27" t="s">
         <v>60</v>
@@ -8603,9 +8731,15 @@
         <v>6</v>
       </c>
       <c r="C113" s="41"/>
-      <c r="D113" s="56"/>
-      <c r="E113" s="32"/>
-      <c r="F113" s="29"/>
+      <c r="D113" s="53" t="s">
+        <v>545</v>
+      </c>
+      <c r="E113" s="32" t="s">
+        <v>546</v>
+      </c>
+      <c r="F113" s="59" t="s">
+        <v>547</v>
+      </c>
       <c r="G113" s="27" t="s">
         <v>60</v>
       </c>
@@ -8636,9 +8770,15 @@
         <v>7</v>
       </c>
       <c r="C114" s="42"/>
-      <c r="D114" s="56"/>
-      <c r="E114" s="32"/>
-      <c r="F114" s="29"/>
+      <c r="D114" s="53" t="s">
+        <v>548</v>
+      </c>
+      <c r="E114" s="32" t="s">
+        <v>549</v>
+      </c>
+      <c r="F114" s="59" t="s">
+        <v>550</v>
+      </c>
       <c r="G114" s="27" t="s">
         <v>60</v>
       </c>
@@ -8669,9 +8809,15 @@
         <v>8</v>
       </c>
       <c r="C115" s="41"/>
-      <c r="D115" s="56"/>
-      <c r="E115" s="32"/>
-      <c r="F115" s="29"/>
+      <c r="D115" s="53" t="s">
+        <v>551</v>
+      </c>
+      <c r="E115" s="32" t="s">
+        <v>552</v>
+      </c>
+      <c r="F115" s="59" t="s">
+        <v>553</v>
+      </c>
       <c r="G115" s="27" t="s">
         <v>60</v>
       </c>
@@ -8702,9 +8848,15 @@
         <v>9</v>
       </c>
       <c r="C116" s="41"/>
-      <c r="D116" s="56"/>
-      <c r="E116" s="32"/>
-      <c r="F116" s="30"/>
+      <c r="D116" s="53" t="s">
+        <v>554</v>
+      </c>
+      <c r="E116" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="F116" s="30" t="s">
+        <v>556</v>
+      </c>
       <c r="G116" s="28" t="s">
         <v>60</v>
       </c>
@@ -8735,9 +8887,15 @@
         <v>10</v>
       </c>
       <c r="C117" s="41"/>
-      <c r="D117" s="56"/>
-      <c r="E117" s="32"/>
-      <c r="F117" s="29"/>
+      <c r="D117" s="53" t="s">
+        <v>557</v>
+      </c>
+      <c r="E117" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="F117" s="59" t="s">
+        <v>559</v>
+      </c>
       <c r="G117" s="27" t="s">
         <v>60</v>
       </c>
@@ -8768,9 +8926,15 @@
         <v>11</v>
       </c>
       <c r="C118" s="41"/>
-      <c r="D118" s="56"/>
-      <c r="E118" s="32"/>
-      <c r="F118" s="29"/>
+      <c r="D118" s="53" t="s">
+        <v>553</v>
+      </c>
+      <c r="E118" s="32" t="s">
+        <v>561</v>
+      </c>
+      <c r="F118" s="59" t="s">
+        <v>562</v>
+      </c>
       <c r="G118" s="27" t="s">
         <v>60</v>
       </c>
@@ -8801,9 +8965,15 @@
         <v>12</v>
       </c>
       <c r="C119" s="42"/>
-      <c r="D119" s="56"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="29"/>
+      <c r="D119" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="E119" s="32" t="s">
+        <v>564</v>
+      </c>
+      <c r="F119" s="59" t="s">
+        <v>562</v>
+      </c>
       <c r="G119" s="27" t="s">
         <v>60</v>
       </c>
@@ -8834,9 +9004,15 @@
         <v>13</v>
       </c>
       <c r="C120" s="41"/>
-      <c r="D120" s="56"/>
-      <c r="E120" s="32"/>
-      <c r="F120" s="29"/>
+      <c r="D120" s="53" t="s">
+        <v>565</v>
+      </c>
+      <c r="E120" s="32" t="s">
+        <v>566</v>
+      </c>
+      <c r="F120" s="59" t="s">
+        <v>567</v>
+      </c>
       <c r="G120" s="27" t="s">
         <v>60</v>
       </c>
@@ -8867,9 +9043,15 @@
         <v>14</v>
       </c>
       <c r="C121" s="41"/>
-      <c r="D121" s="56"/>
-      <c r="E121" s="32"/>
-      <c r="F121" s="29"/>
+      <c r="D121" s="53" t="s">
+        <v>568</v>
+      </c>
+      <c r="E121" s="32" t="s">
+        <v>569</v>
+      </c>
+      <c r="F121" s="59" t="s">
+        <v>570</v>
+      </c>
       <c r="G121" s="27" t="s">
         <v>60</v>
       </c>
@@ -8900,9 +9082,15 @@
         <v>15</v>
       </c>
       <c r="C122" s="41"/>
-      <c r="D122" s="56"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="29"/>
+      <c r="D122" s="53" t="s">
+        <v>571</v>
+      </c>
+      <c r="E122" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="F122" s="59" t="s">
+        <v>567</v>
+      </c>
       <c r="G122" s="27" t="s">
         <v>60</v>
       </c>
@@ -8933,9 +9121,15 @@
         <v>16</v>
       </c>
       <c r="C123" s="27"/>
-      <c r="D123" s="56"/>
-      <c r="E123" s="32"/>
-      <c r="F123" s="29"/>
+      <c r="D123" s="53" t="s">
+        <v>573</v>
+      </c>
+      <c r="E123" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="F123" s="59" t="s">
+        <v>575</v>
+      </c>
       <c r="G123" s="27" t="s">
         <v>60</v>
       </c>
@@ -8966,7 +9160,7 @@
         <v>17</v>
       </c>
       <c r="C124" s="27"/>
-      <c r="D124" s="56"/>
+      <c r="D124" s="53"/>
       <c r="E124" s="32"/>
       <c r="F124" s="29"/>
       <c r="G124" s="27" t="s">
@@ -8999,7 +9193,7 @@
         <v>18</v>
       </c>
       <c r="C125" s="27"/>
-      <c r="D125" s="56"/>
+      <c r="D125" s="53"/>
       <c r="E125" s="32"/>
       <c r="F125" s="29"/>
       <c r="G125" s="27" t="s">
@@ -9032,7 +9226,7 @@
         <v>19</v>
       </c>
       <c r="C126" s="41"/>
-      <c r="D126" s="57"/>
+      <c r="D126" s="54"/>
       <c r="E126" s="32"/>
       <c r="F126" s="29"/>
       <c r="G126" s="27" t="s">
@@ -9065,7 +9259,7 @@
         <v>20</v>
       </c>
       <c r="C127" s="40"/>
-      <c r="D127" s="57"/>
+      <c r="D127" s="54"/>
       <c r="E127" s="32"/>
       <c r="F127" s="29"/>
       <c r="G127" s="27" t="s">
@@ -9098,7 +9292,7 @@
         <v>21</v>
       </c>
       <c r="C128" s="40"/>
-      <c r="D128" s="57"/>
+      <c r="D128" s="54"/>
       <c r="E128" s="32"/>
       <c r="F128" s="29"/>
       <c r="G128" s="27" t="s">
@@ -9131,7 +9325,7 @@
         <v>22</v>
       </c>
       <c r="C129" s="40"/>
-      <c r="D129" s="57"/>
+      <c r="D129" s="54"/>
       <c r="E129" s="32"/>
       <c r="F129" s="29"/>
       <c r="G129" s="27" t="s">
@@ -9164,7 +9358,7 @@
         <v>23</v>
       </c>
       <c r="C130" s="27"/>
-      <c r="D130" s="56"/>
+      <c r="D130" s="53"/>
       <c r="E130" s="32"/>
       <c r="F130" s="29"/>
       <c r="G130" s="27" t="s">
@@ -9197,7 +9391,7 @@
         <v>24</v>
       </c>
       <c r="C131" s="27"/>
-      <c r="D131" s="56"/>
+      <c r="D131" s="53"/>
       <c r="E131" s="32"/>
       <c r="F131" s="29"/>
       <c r="G131" s="27" t="s">
@@ -9230,7 +9424,7 @@
         <v>25</v>
       </c>
       <c r="C132" s="27"/>
-      <c r="D132" s="56"/>
+      <c r="D132" s="53"/>
       <c r="E132" s="32"/>
       <c r="F132" s="29"/>
       <c r="G132" s="27" t="s">
@@ -9266,10 +9460,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L287"/>
+  <dimension ref="A1:L307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K257" sqref="K257"/>
+      <selection activeCell="K298" sqref="K298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9532,8 +9726,8 @@
         <f>COUNTIF(Strecken!D:D,H6)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="21" t="s">
-        <v>45</v>
+      <c r="L6" s="21">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:12" hidden="1">
@@ -9700,7 +9894,7 @@
       </c>
       <c r="K10" s="21">
         <f>COUNTIF(Strecken!D:D,H10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="21">
         <v>1</v>
@@ -9831,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>45</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -9875,7 +10069,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>45</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:12" hidden="1">
@@ -10255,8 +10449,8 @@
         <f>COUNTIF(Strecken!D:D,H23)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="21">
-        <v>1</v>
+      <c r="L23" s="21" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:12" hidden="1">
@@ -10383,8 +10577,8 @@
         <f>COUNTIF(Strecken!D:D,H26)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="21">
-        <v>1</v>
+      <c r="L26" s="21" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -10425,7 +10619,7 @@
       </c>
       <c r="K27" s="21">
         <f>COUNTIF(Strecken!D:D,H27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="21">
         <v>0</v>
@@ -10471,8 +10665,8 @@
         <f>COUNTIF(Strecken!D:D,H28)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="21" t="s">
-        <v>45</v>
+      <c r="L28" s="21">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -10642,10 +10836,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" hidden="1">
       <c r="A33" t="s">
         <v>254</v>
       </c>
@@ -10724,10 +10918,10 @@
       </c>
       <c r="K34" s="21">
         <f>COUNTIF(Strecken!D:D,H34)</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="21" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="L34" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:12" hidden="1">
@@ -10851,10 +11045,10 @@
       </c>
       <c r="K37" s="21">
         <f>COUNTIF(Strecken!D:D,H37)</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="21" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="L37" s="21">
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:12" hidden="1">
@@ -10981,8 +11175,8 @@
         <f>COUNTIF(Strecken!D:D,H40)</f>
         <v>0</v>
       </c>
-      <c r="L40" s="21">
-        <v>1</v>
+      <c r="L40" s="21" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="41" spans="1:12" hidden="1">
@@ -11151,10 +11345,10 @@
         <v>0</v>
       </c>
       <c r="L44" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" hidden="1">
       <c r="A45" t="s">
         <v>266</v>
       </c>
@@ -12477,7 +12671,7 @@
       </c>
       <c r="L76" s="21"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" hidden="1">
       <c r="A77" t="s">
         <v>298</v>
       </c>
@@ -12559,7 +12753,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="21" t="s">
-        <v>45</v>
+        <v>529</v>
       </c>
     </row>
     <row r="79" spans="1:12" hidden="1">
@@ -12769,8 +12963,8 @@
         <f>COUNTIF(Strecken!D:D,H83)</f>
         <v>0</v>
       </c>
-      <c r="L83" s="21" t="s">
-        <v>45</v>
+      <c r="L83" s="21">
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:12" hidden="1">
@@ -13021,8 +13215,8 @@
         <f>COUNTIF(Strecken!D:D,H89)</f>
         <v>0</v>
       </c>
-      <c r="L89" s="21" t="s">
-        <v>45</v>
+      <c r="L89" s="21">
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:12" hidden="1">
@@ -13603,10 +13797,10 @@
       </c>
       <c r="K103" s="21">
         <f>COUNTIF(Strecken!D:D,H103)</f>
-        <v>0</v>
-      </c>
-      <c r="L103" s="21" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="L103" s="21">
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -13650,7 +13844,7 @@
         <v>0</v>
       </c>
       <c r="L104" s="21" t="s">
-        <v>45</v>
+        <v>529</v>
       </c>
     </row>
     <row r="105" spans="1:12" hidden="1">
@@ -13695,7 +13889,7 @@
       </c>
       <c r="L105" s="21"/>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" hidden="1">
       <c r="A106" t="s">
         <v>327</v>
       </c>
@@ -13776,8 +13970,8 @@
         <f>COUNTIF(Strecken!D:D,H107)</f>
         <v>0</v>
       </c>
-      <c r="L107" s="21" t="s">
-        <v>45</v>
+      <c r="L107" s="21">
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:12" hidden="1">
@@ -13984,8 +14178,8 @@
         <f>COUNTIF(Strecken!D:D,H112)</f>
         <v>0</v>
       </c>
-      <c r="L112" s="21" t="s">
-        <v>45</v>
+      <c r="L112" s="21">
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:12" hidden="1">
@@ -14318,10 +14512,10 @@
       </c>
       <c r="K120" s="21">
         <f>COUNTIF(Strecken!D:D,H120)</f>
-        <v>0</v>
-      </c>
-      <c r="L120" s="21" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="L120" s="21">
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:12" hidden="1">
@@ -14781,8 +14975,8 @@
         <f>COUNTIF(Strecken!D:D,H131)</f>
         <v>0</v>
       </c>
-      <c r="L131" s="21" t="s">
-        <v>45</v>
+      <c r="L131" s="21">
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:12" hidden="1">
@@ -15160,7 +15354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" hidden="1">
       <c r="A141" t="s">
         <v>362</v>
       </c>
@@ -15200,9 +15394,7 @@
         <f>COUNTIF(Strecken!D:D,H141)</f>
         <v>0</v>
       </c>
-      <c r="L141" s="21" t="s">
-        <v>45</v>
-      </c>
+      <c r="L141" s="21"/>
     </row>
     <row r="142" spans="1:12" hidden="1">
       <c r="A142" t="s">
@@ -15285,8 +15477,8 @@
         <f>COUNTIF(Strecken!D:D,H143)</f>
         <v>0</v>
       </c>
-      <c r="L143" s="21" t="s">
-        <v>45</v>
+      <c r="L143" s="21">
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:12" hidden="1">
@@ -16036,8 +16228,8 @@
         <f>COUNTIF(Strecken!D:D,H161)</f>
         <v>0</v>
       </c>
-      <c r="L161" s="21">
-        <v>1</v>
+      <c r="L161" s="21" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="162" spans="1:12" hidden="1">
@@ -16165,7 +16357,7 @@
         <v>0</v>
       </c>
       <c r="L164" s="21" t="s">
-        <v>45</v>
+        <v>529</v>
       </c>
     </row>
     <row r="165" spans="1:12" hidden="1">
@@ -18729,10 +18921,10 @@
       </c>
       <c r="K226" s="21">
         <f>COUNTIF(Strecken!D:D,H226)</f>
-        <v>0</v>
-      </c>
-      <c r="L226" s="21" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="L226" s="21">
+        <v>6</v>
       </c>
     </row>
     <row r="227" spans="1:12" hidden="1">
@@ -19103,8 +19295,8 @@
         <f>COUNTIF(Strecken!D:D,H235)</f>
         <v>0</v>
       </c>
-      <c r="L235" s="21" t="s">
-        <v>45</v>
+      <c r="L235" s="21">
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:12" hidden="1">
@@ -19314,7 +19506,7 @@
         <v>0</v>
       </c>
       <c r="L240" s="21" t="s">
-        <v>45</v>
+        <v>529</v>
       </c>
     </row>
     <row r="241" spans="1:12" hidden="1">
@@ -19522,8 +19714,8 @@
         <f>COUNTIF(Strecken!D:D,H245)</f>
         <v>0</v>
       </c>
-      <c r="L245" s="21" t="s">
-        <v>45</v>
+      <c r="L245" s="21">
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:12" hidden="1">
@@ -19815,7 +20007,7 @@
         <v>0</v>
       </c>
       <c r="L252" s="21" t="s">
-        <v>45</v>
+        <v>529</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -19858,8 +20050,8 @@
         <f>COUNTIF(Strecken!D:D,H253)</f>
         <v>0</v>
       </c>
-      <c r="L253" s="21" t="s">
-        <v>45</v>
+      <c r="L253" s="21">
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -19903,7 +20095,7 @@
         <v>0</v>
       </c>
       <c r="L254" s="21" t="s">
-        <v>45</v>
+        <v>529</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -19947,7 +20139,7 @@
         <v>0</v>
       </c>
       <c r="L255" s="21" t="s">
-        <v>45</v>
+        <v>529</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -19991,7 +20183,7 @@
         <v>0</v>
       </c>
       <c r="L256" s="21" t="s">
-        <v>45</v>
+        <v>529</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -20035,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="L257" s="21" t="s">
-        <v>45</v>
+        <v>529</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -20078,8 +20270,8 @@
         <f>COUNTIF(Strecken!D:D,H258)</f>
         <v>0</v>
       </c>
-      <c r="L258" s="21" t="s">
-        <v>45</v>
+      <c r="L258" s="21">
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -20123,7 +20315,7 @@
         <v>0</v>
       </c>
       <c r="L259" s="21" t="s">
-        <v>45</v>
+        <v>529</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -20167,7 +20359,7 @@
         <v>0</v>
       </c>
       <c r="L260" s="21" t="s">
-        <v>45</v>
+        <v>529</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -20211,7 +20403,7 @@
         <v>0</v>
       </c>
       <c r="L261" s="21" t="s">
-        <v>45</v>
+        <v>529</v>
       </c>
     </row>
     <row r="262" spans="1:12" hidden="1">
@@ -20297,7 +20489,7 @@
         <v>0</v>
       </c>
       <c r="L263" s="21" t="s">
-        <v>45</v>
+        <v>530</v>
       </c>
     </row>
     <row r="264" spans="1:12" hidden="1">
@@ -20425,7 +20617,7 @@
         <v>0</v>
       </c>
       <c r="L266" s="21" t="s">
-        <v>45</v>
+        <v>529</v>
       </c>
     </row>
     <row r="267" spans="1:12" hidden="1">
@@ -20553,7 +20745,7 @@
         <v>0</v>
       </c>
       <c r="L269" s="21" t="s">
-        <v>45</v>
+        <v>530</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -20594,10 +20786,10 @@
       </c>
       <c r="K270" s="21">
         <f>COUNTIF(Strecken!D:D,H270)</f>
-        <v>0</v>
-      </c>
-      <c r="L270" s="21" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="L270" s="21">
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:12" hidden="1">
@@ -20682,7 +20874,7 @@
         <v>0</v>
       </c>
       <c r="L272" s="21" t="s">
-        <v>45</v>
+        <v>529</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -20723,10 +20915,10 @@
       </c>
       <c r="K273" s="21">
         <f>COUNTIF(Strecken!D:D,H273)</f>
-        <v>0</v>
-      </c>
-      <c r="L273" s="21" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="L273" s="21">
+        <v>11</v>
       </c>
     </row>
     <row r="274" spans="1:12" hidden="1">
@@ -20896,7 +21088,7 @@
         <v>0</v>
       </c>
       <c r="L277" s="21" t="s">
-        <v>45</v>
+        <v>529</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -20937,10 +21129,10 @@
       </c>
       <c r="K278" s="21">
         <f>COUNTIF(Strecken!D:D,H278)</f>
-        <v>0</v>
-      </c>
-      <c r="L278" s="21" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="L278" s="21">
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:12" hidden="1">
@@ -21068,7 +21260,7 @@
         <v>0</v>
       </c>
       <c r="L281" s="21" t="s">
-        <v>45</v>
+        <v>544</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -21109,13 +21301,13 @@
       </c>
       <c r="K282" s="21">
         <f>COUNTIF(Strecken!D:D,H282)</f>
-        <v>0</v>
-      </c>
-      <c r="L282" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="L282" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" hidden="1">
       <c r="A283" t="s">
         <v>504</v>
       </c>
@@ -21155,9 +21347,7 @@
         <f>COUNTIF(Strecken!D:D,H283)</f>
         <v>0</v>
       </c>
-      <c r="L283" s="21" t="s">
-        <v>45</v>
-      </c>
+      <c r="L283" s="21"/>
     </row>
     <row r="284" spans="1:12">
       <c r="A284" t="s">
@@ -21199,7 +21389,9 @@
         <f>COUNTIF(Strecken!D:D,H284)</f>
         <v>1</v>
       </c>
-      <c r="L284" s="21"/>
+      <c r="L284" s="21" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="285" spans="1:12">
       <c r="A285" t="s">
@@ -21241,7 +21433,9 @@
         <f>COUNTIF(Strecken!D:D,H285)</f>
         <v>1</v>
       </c>
-      <c r="L285" s="21"/>
+      <c r="L285" s="21" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="286" spans="1:12">
       <c r="A286" t="s">
@@ -21283,24 +21477,170 @@
         <f>COUNTIF(Strecken!D:D,H286)</f>
         <v>1</v>
       </c>
-      <c r="L286" s="21"/>
+      <c r="L286" s="21" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="287" spans="1:12">
       <c r="A287" t="s">
+        <v>560</v>
+      </c>
+      <c r="B287" s="44">
+        <f>FIND(B$1,$A287)</f>
+        <v>14</v>
+      </c>
+      <c r="C287" s="44">
+        <f>FIND(C$1,$A287)</f>
+        <v>20</v>
+      </c>
+      <c r="D287" s="44">
+        <f>FIND(D$1,$A287)</f>
+        <v>32</v>
+      </c>
+      <c r="E287" s="46">
+        <f>FIND("@",SUBSTITUTE($A287,E$1,"@",LEN($A287)-LEN(SUBSTITUTE($A287,E$1,""))),1)</f>
+        <v>62</v>
+      </c>
+      <c r="F287" s="44">
+        <f>FIND(F$1,$A287)</f>
+        <v>64</v>
+      </c>
+      <c r="H287" t="str">
+        <f>LEFT(RIGHT($A287,LEN($A287) - B287),C287-B287-1)</f>
+        <v>10058</v>
+      </c>
+      <c r="I287" t="str">
+        <f t="shared" ref="I287" si="27">LEFT(RIGHT($A287,LEN($A287) - D287 - 1),E287-D287-2)</f>
+        <v xml:space="preserve">Karostreckenbaustelle (MOD) </v>
+      </c>
+      <c r="J287" s="47" t="str">
+        <f>LEFT(RIGHT($A287,LEN($A287) - E287 ),F287-E287-1)</f>
+        <v>9</v>
+      </c>
+      <c r="K287" s="21">
+        <f>COUNTIF(Strecken!D:D,H287)</f>
+        <v>1</v>
+      </c>
+      <c r="L287" s="21" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12">
+      <c r="A288" t="s">
+        <v>542</v>
+      </c>
+      <c r="B288" s="44">
+        <f>FIND(B$1,$A288)</f>
+        <v>14</v>
+      </c>
+      <c r="C288" s="44">
+        <f>FIND(C$1,$A288)</f>
+        <v>20</v>
+      </c>
+      <c r="D288" s="44">
+        <f>FIND(D$1,$A288)</f>
+        <v>32</v>
+      </c>
+      <c r="E288" s="46">
+        <f>FIND("@",SUBSTITUTE($A288,E$1,"@",LEN($A288)-LEN(SUBSTITUTE($A288,E$1,""))),1)</f>
+        <v>54</v>
+      </c>
+      <c r="F288" s="44">
+        <f>FIND(F$1,$A288)</f>
+        <v>57</v>
+      </c>
+      <c r="H288" t="str">
+        <f>LEFT(RIGHT($A288,LEN($A288) - B288),C288-B288-1)</f>
+        <v>10059</v>
+      </c>
+      <c r="I288" t="str">
+        <f>LEFT(RIGHT($A288,LEN($A288) - D288 - 1),E288-D288-2)</f>
+        <v xml:space="preserve">Verkehrsübungsplatz </v>
+      </c>
+      <c r="J288" s="47" t="str">
+        <f>LEFT(RIGHT($A288,LEN($A288) - E288 ),F288-E288-1)</f>
+        <v>??</v>
+      </c>
+      <c r="K288" s="21">
+        <f>COUNTIF(Strecken!D:D,H288)</f>
+        <v>1</v>
+      </c>
+      <c r="L288" s="21" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12">
+      <c r="A289" t="s">
         <v>84</v>
       </c>
-      <c r="B287"/>
-      <c r="C287"/>
-      <c r="D287"/>
-      <c r="E287"/>
-      <c r="F287"/>
-      <c r="K287">
+      <c r="B289"/>
+      <c r="C289"/>
+      <c r="D289"/>
+      <c r="E289"/>
+      <c r="F289"/>
+      <c r="K289">
         <f>SUBTOTAL(109,Tabelle4[Verwendet?])</f>
-        <v>3</v>
-      </c>
-      <c r="L287">
+        <v>16</v>
+      </c>
+      <c r="L289">
         <f>SUBTOTAL(103,Tabelle4[Kandidat mit ZZZ])</f>
-        <v>53</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12">
+      <c r="L290">
+        <f>COUNT(Tabelle4[Kandidat mit ZZZ]) + COUNTIF(Tabelle4[Kandidat mit ZZZ], "OK")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12">
+      <c r="I298" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12">
+      <c r="I299" s="58" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12">
+      <c r="I300" s="58" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12">
+      <c r="I301" s="58" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12">
+      <c r="I302" s="58" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12">
+      <c r="I303" s="58" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12">
+      <c r="I304" s="58" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="305" spans="9:9">
+      <c r="I305" s="58" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="306" spans="9:9">
+      <c r="I306" s="58" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="307" spans="9:9">
+      <c r="I307" s="58" t="s">
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -21308,7 +21648,7 @@
     <sortCondition descending="1" ref="J2:J21"/>
   </sortState>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27874,22 +28214,22 @@
     <row r="1" spans="1:13" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="38"/>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
       <c r="J1" s="38"/>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="50"/>
+      <c r="L1" s="57"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1">
       <c r="A2" s="33" t="s">

--- a/CraZZZy Crash Challenge/CCC-Daten.xlsx
+++ b/CraZZZy Crash Challenge/CCC-Daten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Private\JVerkin\projects\KaroToolsCollection\CraZZZy Crash Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56877C3-5E28-4F69-A166-CF46F81F4765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891A23E4-94B5-4CD2-AC79-705C98C12C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-10170" windowWidth="21840" windowHeight="38040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="550">
   <si>
     <t>Teilnehmer</t>
   </si>
@@ -1658,33 +1658,6 @@
   </si>
   <si>
     <t>Verkehrsübungsplatz</t>
-  </si>
-  <si>
-    <t>- Kreisverkehr</t>
-  </si>
-  <si>
-    <t>- Anfahren am Berg</t>
-  </si>
-  <si>
-    <t>- Rechts vor Links</t>
-  </si>
-  <si>
-    <t>- Ampel</t>
-  </si>
-  <si>
-    <t>- Parken (längs &amp; quer)</t>
-  </si>
-  <si>
-    <t>- Serpentinen</t>
-  </si>
-  <si>
-    <t>- Rückwärtsfahren</t>
-  </si>
-  <si>
-    <t>- Engstellen</t>
-  </si>
-  <si>
-    <t>- Zebrastreifen</t>
   </si>
   <si>
     <t>&lt;OPTION VALUE=10059&gt;Karte 10059: Verkehrsübungsplatz (?? Spieler)</t>
@@ -8611,7 +8584,7 @@
         <v>10058</v>
       </c>
       <c r="E111" s="30" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F111" s="56">
         <v>13</v>
@@ -8683,7 +8656,7 @@
         <v>10053</v>
       </c>
       <c r="E113" s="30" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="F113" s="55">
         <v>2</v>
@@ -8720,7 +8693,7 @@
         <v>10048</v>
       </c>
       <c r="E114" s="30" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="F114" s="55">
         <v>3</v>
@@ -8757,7 +8730,7 @@
         <v>10039</v>
       </c>
       <c r="E115" s="30" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="F115" s="55">
         <v>9</v>
@@ -8794,7 +8767,7 @@
         <v>10043</v>
       </c>
       <c r="E116" s="30" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F116" s="56">
         <v>11</v>
@@ -8831,7 +8804,7 @@
         <v>117</v>
       </c>
       <c r="E117" s="30" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="F117" s="55">
         <v>12</v>
@@ -8868,7 +8841,7 @@
         <v>9</v>
       </c>
       <c r="E118" s="30" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="F118" s="55">
         <v>1</v>
@@ -8905,7 +8878,7 @@
         <v>37</v>
       </c>
       <c r="E119" s="30" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F119" s="55">
         <v>1</v>
@@ -8942,7 +8915,7 @@
         <v>243</v>
       </c>
       <c r="E120" s="30" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="F120" s="55">
         <v>6</v>
@@ -8979,7 +8952,7 @@
         <v>134</v>
       </c>
       <c r="E121" s="30" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="F121" s="55">
         <v>10</v>
@@ -9016,7 +8989,7 @@
         <v>41</v>
       </c>
       <c r="E122" s="30" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="F122" s="55">
         <v>6</v>
@@ -9053,7 +9026,7 @@
         <v>27</v>
       </c>
       <c r="E123" s="30" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F123" s="55">
         <v>0</v>
@@ -9090,7 +9063,7 @@
         <v>99</v>
       </c>
       <c r="E124" s="30" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="F124" s="55">
         <v>32</v>
@@ -9127,7 +9100,7 @@
         <v>5</v>
       </c>
       <c r="E125" s="30" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F125" s="55">
         <v>8</v>
@@ -9164,7 +9137,7 @@
         <v>18</v>
       </c>
       <c r="E126" s="30" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="F126" s="55">
         <v>5</v>
@@ -9201,7 +9174,7 @@
         <v>93</v>
       </c>
       <c r="E127" s="30" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="F127" s="55">
         <v>8</v>
@@ -9238,7 +9211,7 @@
         <v>29</v>
       </c>
       <c r="E128" s="30" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="F128" s="55">
         <v>7</v>
@@ -9275,7 +9248,7 @@
         <v>146</v>
       </c>
       <c r="E129" s="30" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F129" s="55">
         <v>5</v>
@@ -9312,7 +9285,7 @@
         <v>158</v>
       </c>
       <c r="E130" s="30" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="F130" s="55">
         <v>17</v>
@@ -9349,7 +9322,7 @@
         <v>10000</v>
       </c>
       <c r="E131" s="30" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="F131" s="55">
         <v>3</v>
@@ -9386,7 +9359,7 @@
         <v>10023</v>
       </c>
       <c r="E132" s="30" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="F132" s="55">
         <v>5</v>
@@ -9425,7 +9398,7 @@
   <dimension ref="A1:M307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K316" sqref="K316"/>
+      <selection activeCell="I293" sqref="I293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9478,7 +9451,7 @@
         <v>513</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="M1" s="53" t="s">
         <v>58</v>
@@ -10000,7 +9973,7 @@
         <v>523</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:13" hidden="1">
@@ -10047,7 +10020,7 @@
         <v>523</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:13" hidden="1">
@@ -10434,7 +10407,7 @@
         <v>523</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:13" hidden="1">
@@ -10565,7 +10538,7 @@
         <v>523</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -10835,7 +10808,7 @@
         <v>523</v>
       </c>
       <c r="M32" s="21" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="33" spans="1:13" hidden="1">
@@ -11356,7 +11329,7 @@
         <v>523</v>
       </c>
       <c r="M44" s="21" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="45" spans="1:13" hidden="1">
@@ -12767,7 +12740,7 @@
         <v>523</v>
       </c>
       <c r="M78" s="21" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="79" spans="1:13" hidden="1">
@@ -13870,7 +13843,7 @@
         <v>523</v>
       </c>
       <c r="M104" s="21" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="105" spans="1:13" hidden="1">
@@ -16399,7 +16372,7 @@
         <v>523</v>
       </c>
       <c r="M164" s="21" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="165" spans="1:13" hidden="1">
@@ -19557,7 +19530,7 @@
         <v>523</v>
       </c>
       <c r="M240" s="21" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="241" spans="1:13" hidden="1">
@@ -20064,7 +20037,7 @@
         <v>523</v>
       </c>
       <c r="M252" s="21" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="253" spans="1:13" hidden="1">
@@ -20158,7 +20131,7 @@
         <v>523</v>
       </c>
       <c r="M254" s="21" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="255" spans="1:13" hidden="1">
@@ -20205,7 +20178,7 @@
         <v>523</v>
       </c>
       <c r="M255" s="21" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="256" spans="1:13" hidden="1">
@@ -20252,7 +20225,7 @@
         <v>523</v>
       </c>
       <c r="M256" s="21" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="257" spans="1:13" hidden="1">
@@ -20299,7 +20272,7 @@
         <v>523</v>
       </c>
       <c r="M257" s="21" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -20393,7 +20366,7 @@
         <v>523</v>
       </c>
       <c r="M259" s="21" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="260" spans="1:13" hidden="1">
@@ -20440,7 +20413,7 @@
         <v>523</v>
       </c>
       <c r="M260" s="21" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="261" spans="1:13" hidden="1">
@@ -20487,7 +20460,7 @@
         <v>523</v>
       </c>
       <c r="M261" s="21" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="262" spans="1:13" hidden="1">
@@ -20707,7 +20680,7 @@
         <v>523</v>
       </c>
       <c r="M266" s="21" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="267" spans="1:13" hidden="1">
@@ -20973,7 +20946,7 @@
         <v>523</v>
       </c>
       <c r="M272" s="21" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -21193,7 +21166,7 @@
         <v>523</v>
       </c>
       <c r="M277" s="21" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -21597,7 +21570,7 @@
     </row>
     <row r="287" spans="1:13">
       <c r="A287" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B287" s="42">
         <f t="shared" si="27"/>
@@ -21641,7 +21614,7 @@
     </row>
     <row r="288" spans="1:13">
       <c r="A288" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B288" s="42">
         <f t="shared" si="27"/>
@@ -21707,55 +21680,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:12">
-      <c r="I298" t="s">
-        <v>524</v>
-      </c>
-    </row>
     <row r="299" spans="1:12">
-      <c r="I299" s="52" t="s">
-        <v>529</v>
-      </c>
+      <c r="I299" s="52"/>
     </row>
     <row r="300" spans="1:12">
-      <c r="I300" s="52" t="s">
-        <v>525</v>
-      </c>
+      <c r="I300" s="52"/>
     </row>
     <row r="301" spans="1:12">
-      <c r="I301" s="52" t="s">
-        <v>526</v>
-      </c>
+      <c r="I301" s="52"/>
     </row>
     <row r="302" spans="1:12">
-      <c r="I302" s="52" t="s">
-        <v>527</v>
-      </c>
+      <c r="I302" s="52"/>
     </row>
     <row r="303" spans="1:12">
-      <c r="I303" s="52" t="s">
-        <v>528</v>
-      </c>
+      <c r="I303" s="52"/>
     </row>
     <row r="304" spans="1:12">
-      <c r="I304" s="52" t="s">
-        <v>530</v>
-      </c>
+      <c r="I304" s="52"/>
     </row>
     <row r="305" spans="9:9">
-      <c r="I305" s="52" t="s">
-        <v>531</v>
-      </c>
+      <c r="I305" s="52"/>
     </row>
     <row r="306" spans="9:9">
-      <c r="I306" s="52" t="s">
-        <v>532</v>
-      </c>
+      <c r="I306" s="52"/>
     </row>
     <row r="307" spans="9:9">
-      <c r="I307" s="52" t="s">
-        <v>533</v>
-      </c>
+      <c r="I307" s="52"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">

--- a/CraZZZy Crash Challenge/CCC-Daten.xlsx
+++ b/CraZZZy Crash Challenge/CCC-Daten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Private\JVerkin\projects\KaroToolsCollection\CraZZZy Crash Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\info\KaroToolsCollection\CraZZZy Crash Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891A23E4-94B5-4CD2-AC79-705C98C12C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE082C6-4CAA-416D-ACEF-A3D05762F74D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-10170" windowWidth="21840" windowHeight="38040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teilnehmer" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Rennanzahl" sheetId="4" r:id="rId4"/>
     <sheet name="Clustering" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,10 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -61,14 +58,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -83,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="551">
   <si>
     <t>Teilnehmer</t>
   </si>
@@ -1733,6 +1730,9 @@
   </si>
   <si>
     <t xml:space="preserve">Kart Naples </t>
+  </si>
+  <si>
+    <t>Max Spieler</t>
   </si>
 </sst>
 </file>
@@ -2120,7 +2120,39 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Überschrift 2" xfId="2" builtinId="17"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2193,23 +2225,9 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2317,22 +2335,22 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Teilnehmer" totalsRowLabel="Ergebnis"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Teilnahmen" totalsRowLabel="x" dataDxfId="38" totalsRowDxfId="37">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Teilnahmen" totalsRowLabel="x" dataDxfId="39" totalsRowDxfId="38">
       <calculatedColumnFormula>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC5]],"x")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CCC1" totalsRowFunction="custom" dataDxfId="36">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CCC1" totalsRowFunction="custom" dataDxfId="37">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC1],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CCC2" totalsRowFunction="custom" dataDxfId="35">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CCC2" totalsRowFunction="custom" dataDxfId="36">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC2],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CCC3" totalsRowFunction="custom" dataDxfId="34">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CCC3" totalsRowFunction="custom" dataDxfId="35">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC3],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CCC4" totalsRowFunction="custom" dataDxfId="33">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CCC4" totalsRowFunction="custom" dataDxfId="34">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC4],$B71)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CCC5" totalsRowFunction="custom" dataDxfId="32">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CCC5" totalsRowFunction="custom" dataDxfId="33">
       <totalsRowFormula>COUNTIF(Tabelle1[CCC5],$B71)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2341,34 +2359,35 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:M132" totalsRowShown="0" dataDxfId="31">
-  <autoFilter ref="A1:M132" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:N132" totalsRowShown="0" dataDxfId="32">
+  <autoFilter ref="A1:N132" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L70">
     <sortCondition ref="A37"/>
   </sortState>
-  <tableColumns count="13">
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CCC"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spieltag" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Spieler" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{46DD40C5-F863-41A3-82F9-4E621D4A2334}" name="Map ID" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Map Name" dataDxfId="27" dataCellStyle="Link"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="21">
-      <calculatedColumnFormula>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spieltag" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Spieler" dataDxfId="30"/>
+    <tableColumn id="14" xr3:uid="{75A7E177-63ED-4EFA-93B1-DE89C665DE76}" name="Max Spieler" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{46DD40C5-F863-41A3-82F9-4E621D4A2334}" name="Map ID" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Map Name" dataDxfId="28" dataCellStyle="Link"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="2">
+      <calculatedColumnFormula>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{897B7B9F-55FE-4CEE-88A6-F9425764BC23}" name="Tabelle4" displayName="Tabelle4" ref="A1:M289" totalsRowCount="1" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{897B7B9F-55FE-4CEE-88A6-F9425764BC23}" name="Tabelle4" displayName="Tabelle4" ref="A1:M289" totalsRowCount="1" headerRowDxfId="20">
   <autoFilter ref="A1:M288" xr:uid="{897B7B9F-55FE-4CEE-88A6-F9425764BC23}">
     <filterColumn colId="11">
       <filters>
@@ -2387,7 +2406,7 @@
     <tableColumn id="4" xr3:uid="{17356422-2A9E-4839-B8A8-369FC1117B6C}" name=": ">
       <calculatedColumnFormula>FIND(D$1,$A2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D73AD2F3-FF78-4433-BB0D-1FB07C679587}" name="(" dataDxfId="16">
+    <tableColumn id="5" xr3:uid="{D73AD2F3-FF78-4433-BB0D-1FB07C679587}" name="(" dataDxfId="19">
       <calculatedColumnFormula>FIND("@",SUBSTITUTE($A2,E$1,"@",LEN($A2)-LEN(SUBSTITUTE($A2,E$1,""))),1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{228CD70F-056D-4F45-A7A5-8BABF11AA649}" name=" Spieler)">
@@ -2400,40 +2419,40 @@
     <tableColumn id="9" xr3:uid="{F93CAB44-C824-4CD9-B3AC-AA74DC75DE63}" name="Name">
       <calculatedColumnFormula>LEFT(RIGHT($A2,LEN($A2) - D2 - 1),E2-D2-2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3F139DA0-52EA-4848-9C94-104C11AFDF7C}" name="Spieler" dataDxfId="15">
+    <tableColumn id="10" xr3:uid="{3F139DA0-52EA-4848-9C94-104C11AFDF7C}" name="Spieler" dataDxfId="18">
       <calculatedColumnFormula>LEFT(RIGHT($A2,LEN($A2) - E2 ),F2-E2-1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{3DFC605D-42C4-4277-8FCE-E63EFB61D7AC}" name="Verwendet?" totalsRowFunction="sum">
-      <calculatedColumnFormula>COUNTIF(Strecken!D:D,H2)</calculatedColumnFormula>
+      <calculatedColumnFormula>COUNTIF(Strecken!E:E,H2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{6E8D214A-CC9B-4A13-ABB1-6A6DD9B94F36}" name="Kandidat" totalsRowFunction="count"/>
-    <tableColumn id="13" xr3:uid="{B3227200-9836-4BD3-8F00-8050E13E6864}" name="ZZZ" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{B3227200-9836-4BD3-8F00-8050E13E6864}" name="ZZZ" dataDxfId="17" totalsRowDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD48A89C-AF8A-4D74-BEE3-973381D8E39E}" name="Tabelle2" displayName="Tabelle2" ref="A2:L14" totalsRowShown="0" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD48A89C-AF8A-4D74-BEE3-973381D8E39E}" name="Tabelle2" displayName="Tabelle2" ref="A2:L14" totalsRowShown="0" dataDxfId="15">
   <autoFilter ref="A2:L14" xr:uid="{FD48A89C-AF8A-4D74-BEE3-973381D8E39E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L14">
     <sortCondition descending="1" ref="L2:L14"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{06B18662-5B32-42F6-85CF-17D8C9DC7BDF}" name="Spieler" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{183E08E8-D5AA-4DF3-942F-C23480690953}" name=" " dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{37A147A2-6A27-443D-8799-F71527EF7750}" name="Züge" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{31696DC1-5E37-430E-8871-0BCFCD170B2E}" name="Klassisch (Z)" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{BC263A88-D39F-446D-BF5C-F85521658DA8}" name="Geclustert (Z)" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{093A8095-9008-4D88-88F6-250A19675DD8}" name="  " dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{879335B0-290D-43FA-A6FE-E6B6F53D9440}" name="Crashs" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{78D21676-2217-4EF4-A197-F19C7A84C471}" name="Klassisch (CR)" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{BB0FE7C7-52D6-4A76-8688-1B73AD062B37}" name="Geclustert (CR)" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{2E578574-BF4A-4EFE-BF15-F379C953D82E}" name="   " dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{D08C11A1-CC23-4F54-8A65-A4D420BAED58}" name="Gesamt Klassisch" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{06B18662-5B32-42F6-85CF-17D8C9DC7BDF}" name="Spieler" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{183E08E8-D5AA-4DF3-942F-C23480690953}" name=" " dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{37A147A2-6A27-443D-8799-F71527EF7750}" name="Züge" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{31696DC1-5E37-430E-8871-0BCFCD170B2E}" name="Klassisch (Z)" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{BC263A88-D39F-446D-BF5C-F85521658DA8}" name="Geclustert (Z)" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{093A8095-9008-4D88-88F6-250A19675DD8}" name="  " dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{879335B0-290D-43FA-A6FE-E6B6F53D9440}" name="Crashs" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{78D21676-2217-4EF4-A197-F19C7A84C471}" name="Klassisch (CR)" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{BB0FE7C7-52D6-4A76-8688-1B73AD062B37}" name="Geclustert (CR)" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{2E578574-BF4A-4EFE-BF15-F379C953D82E}" name="   " dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{D08C11A1-CC23-4F54-8A65-A4D420BAED58}" name="Gesamt Klassisch" dataDxfId="4">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Klassisch (Z)]]*Tabelle2[[#This Row],[Klassisch (CR)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C8F6816D-C153-497A-A2CC-4183AA81D2EF}" name="Gesamt Geclustert" dataDxfId="0">
+    <tableColumn id="12" xr3:uid="{C8F6816D-C153-497A-A2CC-4183AA81D2EF}" name="Gesamt Geclustert" dataDxfId="3">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Geclustert (Z)]]*Tabelle2[[#This Row],[Geclustert (CR)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4155,10 +4174,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -4166,19 +4185,20 @@
     <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -4189,37 +4209,40 @@
         <v>71</v>
       </c>
       <c r="D1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>70</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>72</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>67</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>73</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>66</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18" thickBot="1">
+    <row r="2" spans="1:14" ht="18" thickBot="1">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -4229,8 +4252,9 @@
       <c r="C2" s="14">
         <v>42</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="15" t="str">
+      <c r="D2" s="14"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="15" t="str">
         <f ca="1">COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"3") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"4") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"5") &amp; " / "
@@ -4241,27 +4265,27 @@
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"10")</f>
         <v>0 / 0 / 5 / 0 / 5 / 0 / 0 / 5</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14">
+      <c r="G2" s="16"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14">
         <v>5</v>
       </c>
-      <c r="I2" s="14">
-        <f>SUM(I3:I17)</f>
+      <c r="J2" s="14">
+        <f>SUM(J3:J17)</f>
         <v>465</v>
       </c>
-      <c r="J2" s="17" cm="1">
-        <f t="array" ref="J2">SUM(J3:J17*$H$2)</f>
+      <c r="K2" s="17" cm="1">
+        <f t="array" ref="K2">SUM(K3:K17*$I$2)</f>
         <v>7250</v>
       </c>
-      <c r="K2" s="17">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>304500</v>
-      </c>
-      <c r="L2" s="14"/>
+      <c r="L2" s="17">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>365400</v>
+      </c>
       <c r="M2" s="14"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" outlineLevel="1" thickTop="1">
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" outlineLevel="1" thickTop="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4271,36 +4295,37 @@
       <c r="C3" s="3">
         <v>5</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="3"/>
+      <c r="E3" s="22">
         <v>92</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="F3" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="10">
+      <c r="G3" s="10">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="3">
-        <f>$C$2*$H$2/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J3" s="3">
+        <f>$C$2*$I$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
-      <c r="J3" s="7">
+      <c r="K3" s="7">
         <v>110</v>
       </c>
-      <c r="K3" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>550</v>
-      </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>660</v>
+      </c>
       <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" outlineLevel="1">
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" outlineLevel="1">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4310,36 +4335,37 @@
       <c r="C4" s="3">
         <v>5</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="3"/>
+      <c r="E4" s="22">
         <v>109</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="F4" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="10">
+      <c r="G4" s="10">
         <v>15</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="3">
-        <f>$C$2*$H$2/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J4" s="3">
+        <f>$C$2*$I$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
-      <c r="J4" s="7">
+      <c r="K4" s="7">
         <v>55</v>
       </c>
-      <c r="K4" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>275</v>
-      </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>330</v>
+      </c>
       <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" outlineLevel="1">
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" outlineLevel="1">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4349,36 +4375,37 @@
       <c r="C5" s="3">
         <v>5</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="3"/>
+      <c r="E5" s="22">
         <v>128</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="F5" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="3">
-        <f>$C$2*$H$2/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J5" s="3">
+        <f>$C$2*$I$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
-      <c r="J5" s="7">
+      <c r="K5" s="7">
         <v>130</v>
       </c>
-      <c r="K5" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>650</v>
-      </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>780</v>
+      </c>
       <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" outlineLevel="1">
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" outlineLevel="1">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4388,36 +4415,37 @@
       <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="3"/>
+      <c r="E6" s="22">
         <v>157</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="F6" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="10">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="10">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="3">
-        <f>$C$2*$H$2/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J6" s="3">
+        <f>$C$2*$I$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
-      <c r="J6" s="7">
+      <c r="K6" s="7">
         <v>120</v>
       </c>
-      <c r="K6" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>600</v>
-      </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>720</v>
+      </c>
       <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" outlineLevel="1">
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" outlineLevel="1">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4427,36 +4455,37 @@
       <c r="C7" s="3">
         <v>5</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="3"/>
+      <c r="E7" s="22">
         <v>171</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="F7" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="3">
-        <f>$C$2*$H$2/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J7" s="3">
+        <f>$C$2*$I$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K7" s="7">
         <v>160</v>
       </c>
-      <c r="K7" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>800</v>
-      </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>960</v>
+      </c>
       <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" outlineLevel="1">
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" outlineLevel="1">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4466,36 +4495,37 @@
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="3"/>
+      <c r="E8" s="22">
         <v>38</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="F8" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="3">
-        <f>$C$2*$H$2/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J8" s="3">
+        <f>$C$2*$I$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
-      <c r="J8" s="7">
+      <c r="K8" s="7">
         <v>120</v>
       </c>
-      <c r="K8" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>840</v>
-      </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>1008</v>
+      </c>
       <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" outlineLevel="1">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" outlineLevel="1">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4505,36 +4535,37 @@
       <c r="C9" s="3">
         <v>7</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="3"/>
+      <c r="E9" s="22">
         <v>102</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="F9" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="F9" s="10">
-        <v>14</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="10">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="3">
-        <f>$C$2*$H$2/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J9" s="3">
+        <f>$C$2*$I$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
-      <c r="J9" s="7">
+      <c r="K9" s="7">
         <v>70</v>
       </c>
-      <c r="K9" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>490</v>
-      </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>588</v>
+      </c>
       <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" outlineLevel="1">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" outlineLevel="1">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4544,36 +4575,37 @@
       <c r="C10" s="3">
         <v>7</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="3"/>
+      <c r="E10" s="22">
         <v>143</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="F10" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="F10" s="10">
+      <c r="G10" s="10">
         <v>6</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="3">
-        <f>$C$2*$H$2/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J10" s="3">
+        <f>$C$2*$I$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
-      <c r="J10" s="7">
+      <c r="K10" s="7">
         <v>130</v>
       </c>
-      <c r="K10" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>910</v>
-      </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>1092</v>
+      </c>
       <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" outlineLevel="1">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" outlineLevel="1">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4583,36 +4615,37 @@
       <c r="C11" s="3">
         <v>7</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="3"/>
+      <c r="E11" s="22">
         <v>155</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="F11" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="10">
+      <c r="G11" s="10">
         <v>4</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="3">
-        <f>$C$2*$H$2/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J11" s="3">
+        <f>$C$2*$I$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
-      <c r="J11" s="7">
+      <c r="K11" s="7">
         <v>80</v>
       </c>
-      <c r="K11" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>560</v>
-      </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>672</v>
+      </c>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" outlineLevel="1">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" outlineLevel="1">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4622,36 +4655,37 @@
       <c r="C12" s="3">
         <v>7</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="3"/>
+      <c r="E12" s="22">
         <v>169</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="F12" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="F12" s="10">
+      <c r="G12" s="10">
         <v>8</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="3">
-        <f>$C$2*$H$2/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J12" s="3">
+        <f>$C$2*$I$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
-      <c r="J12" s="7">
+      <c r="K12" s="7">
         <v>70</v>
       </c>
-      <c r="K12" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>490</v>
-      </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>588</v>
+      </c>
       <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" outlineLevel="1">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" outlineLevel="1">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4661,36 +4695,37 @@
       <c r="C13" s="3">
         <v>10</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="3"/>
+      <c r="E13" s="22">
         <v>17</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="F13" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="F13" s="10">
+      <c r="G13" s="10">
         <v>57</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="3">
-        <f>$C$2*$H$2/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J13" s="3">
+        <f>$C$2*$I$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>21</v>
       </c>
-      <c r="J13" s="7">
+      <c r="K13" s="7">
         <v>75</v>
       </c>
-      <c r="K13" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>750</v>
-      </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>900</v>
+      </c>
       <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" outlineLevel="1">
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" outlineLevel="1">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4700,36 +4735,37 @@
       <c r="C14" s="3">
         <v>10</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="3"/>
+      <c r="E14" s="22">
         <v>34</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="F14" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="10">
+      <c r="G14" s="10">
         <v>123</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="3">
-        <f>$C$2*$H$2/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J14" s="3">
+        <f>$C$2*$I$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>21</v>
       </c>
-      <c r="J14" s="7">
+      <c r="K14" s="7">
         <v>80</v>
       </c>
-      <c r="K14" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>800</v>
-      </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>960</v>
+      </c>
       <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" outlineLevel="1">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" outlineLevel="1">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4739,36 +4775,37 @@
       <c r="C15" s="3">
         <v>10</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="3"/>
+      <c r="E15" s="22">
         <v>45</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="F15" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="F15" s="10">
+      <c r="G15" s="10">
         <v>5</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="3">
-        <f>$C$2*$H$2/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J15" s="3">
+        <f>$C$2*$I$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>21</v>
       </c>
-      <c r="J15" s="7">
+      <c r="K15" s="7">
         <v>145</v>
       </c>
-      <c r="K15" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>1450</v>
-      </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>1740</v>
+      </c>
       <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" outlineLevel="1">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" outlineLevel="1">
       <c r="A16">
         <v>1</v>
       </c>
@@ -4778,36 +4815,37 @@
       <c r="C16" s="3">
         <v>10</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="3"/>
+      <c r="E16" s="22">
         <v>52</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="F16" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="10">
+      <c r="G16" s="10">
         <v>3</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="3">
-        <f>$C$2*$H$2/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J16" s="3">
+        <f>$C$2*$I$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>21</v>
       </c>
-      <c r="J16" s="7">
+      <c r="K16" s="7">
         <v>50</v>
       </c>
-      <c r="K16" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>500</v>
-      </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>600</v>
+      </c>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" outlineLevel="1">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" outlineLevel="1">
       <c r="A17">
         <v>1</v>
       </c>
@@ -4817,36 +4855,37 @@
       <c r="C17" s="3">
         <v>10</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="3"/>
+      <c r="E17" s="22">
         <v>124</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="F17" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="F17" s="10">
+      <c r="G17" s="10">
         <v>7</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="3">
-        <f>$C$2*$H$2/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J17" s="3">
+        <f>$C$2*$I$2/Tabelle3[[#This Row],[Spieler]]</f>
         <v>21</v>
       </c>
-      <c r="J17" s="7">
+      <c r="K17" s="7">
         <v>55</v>
       </c>
-      <c r="K17" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>550</v>
-      </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>660</v>
+      </c>
       <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" ht="18" thickBot="1">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" ht="18" thickBot="1">
       <c r="A18" s="13" t="s">
         <v>2</v>
       </c>
@@ -4856,8 +4895,9 @@
       <c r="C18" s="14">
         <v>30</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="15" t="str">
+      <c r="D18" s="14"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="15" t="str">
         <f ca="1">COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"3") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"4") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"5") &amp; " / "
@@ -4868,27 +4908,27 @@
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"10")</f>
         <v>4 / 6 / 10 / 0 / 0 / 0 / 0 / 0</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14">
+      <c r="G18" s="16"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14">
         <v>6</v>
       </c>
-      <c r="I18" s="14">
-        <f>SUM(I19:I38)</f>
+      <c r="J18" s="14">
+        <f>SUM(J19:J38)</f>
         <v>870</v>
       </c>
-      <c r="J18" s="17" cm="1">
-        <f t="array" ref="J18">SUM(J19:J38*$H$18)</f>
+      <c r="K18" s="17" cm="1">
+        <f t="array" ref="K18">SUM(K19:K38*$I$18)</f>
         <v>7242</v>
       </c>
-      <c r="K18" s="17">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>217260</v>
-      </c>
-      <c r="L18" s="14"/>
+      <c r="L18" s="17">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>260712</v>
+      </c>
       <c r="M18" s="14"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" outlineLevel="1" thickTop="1">
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" outlineLevel="1" thickTop="1">
       <c r="A19">
         <v>2</v>
       </c>
@@ -4898,36 +4938,37 @@
       <c r="C19" s="5">
         <v>3</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="5"/>
+      <c r="E19" s="47">
         <v>114</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="F19" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="F19" s="10">
+      <c r="G19" s="10">
         <v>5</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="3">
-        <f>$C$18*$H$18/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J19" s="3">
+        <f>$C$18*$I$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>60</v>
       </c>
-      <c r="J19" s="7">
+      <c r="K19" s="7">
         <v>67</v>
       </c>
-      <c r="K19" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>201</v>
-      </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>241.2</v>
+      </c>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" outlineLevel="1">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" outlineLevel="1">
       <c r="A20">
         <v>2</v>
       </c>
@@ -4937,36 +4978,37 @@
       <c r="C20" s="5">
         <v>3</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="5"/>
+      <c r="E20" s="47">
         <v>135</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="F20" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="10">
+      <c r="G20" s="10">
         <v>8</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="3">
-        <f>$C$18*$H$18/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J20" s="3">
+        <f>$C$18*$I$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>60</v>
       </c>
-      <c r="J20" s="7">
+      <c r="K20" s="7">
         <v>75</v>
       </c>
-      <c r="K20" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>225</v>
-      </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>270</v>
+      </c>
       <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" outlineLevel="1">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" outlineLevel="1">
       <c r="A21">
         <v>2</v>
       </c>
@@ -4976,36 +5018,37 @@
       <c r="C21" s="5">
         <v>3</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="5"/>
+      <c r="E21" s="47">
         <v>187</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="10">
+      <c r="G21" s="10">
         <v>5</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="3">
-        <f>$C$18*$H$18/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J21" s="3">
+        <f>$C$18*$I$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>60</v>
       </c>
-      <c r="J21" s="7">
+      <c r="K21" s="7">
         <v>103</v>
       </c>
-      <c r="K21" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>309</v>
-      </c>
-      <c r="L21" s="3"/>
+      <c r="L21" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>370.8</v>
+      </c>
       <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" outlineLevel="1">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" outlineLevel="1">
       <c r="A22">
         <v>2</v>
       </c>
@@ -5015,36 +5058,37 @@
       <c r="C22" s="5">
         <v>3</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="5"/>
+      <c r="E22" s="47">
         <v>108</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="10">
+      <c r="G22" s="10">
         <v>9</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="3">
-        <f>$C$18*$H$18/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J22" s="3">
+        <f>$C$18*$I$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>60</v>
       </c>
-      <c r="J22" s="7">
+      <c r="K22" s="7">
         <v>120</v>
       </c>
-      <c r="K22" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>360</v>
-      </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>432</v>
+      </c>
       <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" outlineLevel="1">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" outlineLevel="1">
       <c r="A23">
         <v>2</v>
       </c>
@@ -5054,36 +5098,37 @@
       <c r="C23" s="5">
         <v>4</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="5"/>
+      <c r="E23" s="47">
         <v>116</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>146</v>
       </c>
-      <c r="F23" s="10">
+      <c r="G23" s="10">
         <v>8</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="3">
-        <f>$C$18*$H$18/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J23" s="3">
+        <f>$C$18*$I$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>45</v>
       </c>
-      <c r="J23" s="7">
+      <c r="K23" s="7">
         <v>55</v>
       </c>
-      <c r="K23" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>220</v>
-      </c>
-      <c r="L23" s="3"/>
+      <c r="L23" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>264</v>
+      </c>
       <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" outlineLevel="1">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" outlineLevel="1">
       <c r="A24">
         <v>2</v>
       </c>
@@ -5093,36 +5138,37 @@
       <c r="C24" s="5">
         <v>4</v>
       </c>
-      <c r="D24" s="47">
+      <c r="D24" s="5"/>
+      <c r="E24" s="47">
         <v>188</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>147</v>
       </c>
-      <c r="F24" s="10">
+      <c r="G24" s="10">
         <v>11</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="3">
-        <f>$C$18*$H$18/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J24" s="3">
+        <f>$C$18*$I$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>45</v>
       </c>
-      <c r="J24" s="7">
+      <c r="K24" s="7">
         <v>77</v>
       </c>
-      <c r="K24" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>308</v>
-      </c>
-      <c r="L24" s="3"/>
+      <c r="L24" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>369.59999999999997</v>
+      </c>
       <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" outlineLevel="1">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" outlineLevel="1">
       <c r="A25">
         <v>2</v>
       </c>
@@ -5132,36 +5178,37 @@
       <c r="C25" s="5">
         <v>4</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="5"/>
+      <c r="E25" s="47">
         <v>164</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>148</v>
       </c>
-      <c r="F25" s="10">
+      <c r="G25" s="10">
         <v>4</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="3">
-        <f>$C$18*$H$18/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J25" s="3">
+        <f>$C$18*$I$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>45</v>
       </c>
-      <c r="J25" s="7">
+      <c r="K25" s="7">
         <v>61</v>
       </c>
-      <c r="K25" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>244</v>
-      </c>
-      <c r="L25" s="3"/>
+      <c r="L25" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>292.8</v>
+      </c>
       <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" outlineLevel="1">
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" outlineLevel="1">
       <c r="A26">
         <v>2</v>
       </c>
@@ -5171,36 +5218,37 @@
       <c r="C26" s="5">
         <v>4</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="5"/>
+      <c r="E26" s="47">
         <v>33</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="10">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="3">
-        <f>$C$18*$H$18/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J26" s="3">
+        <f>$C$18*$I$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>45</v>
       </c>
-      <c r="J26" s="7">
+      <c r="K26" s="7">
         <v>63</v>
       </c>
-      <c r="K26" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>252</v>
-      </c>
-      <c r="L26" s="3"/>
+      <c r="L26" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>302.39999999999998</v>
+      </c>
       <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" outlineLevel="1">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" outlineLevel="1">
       <c r="A27">
         <v>2</v>
       </c>
@@ -5210,36 +5258,37 @@
       <c r="C27" s="5">
         <v>4</v>
       </c>
-      <c r="D27" s="47">
+      <c r="D27" s="5"/>
+      <c r="E27" s="47">
         <v>174</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>150</v>
       </c>
-      <c r="F27" s="10">
+      <c r="G27" s="10">
         <v>7</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="3">
-        <f>$C$18*$H$18/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J27" s="3">
+        <f>$C$18*$I$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>45</v>
       </c>
-      <c r="J27" s="7">
+      <c r="K27" s="7">
         <v>65</v>
       </c>
-      <c r="K27" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>260</v>
-      </c>
-      <c r="L27" s="3"/>
+      <c r="L27" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>312</v>
+      </c>
       <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" outlineLevel="1">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" outlineLevel="1">
       <c r="A28">
         <v>2</v>
       </c>
@@ -5249,36 +5298,37 @@
       <c r="C28" s="5">
         <v>4</v>
       </c>
-      <c r="D28" s="47">
+      <c r="D28" s="5"/>
+      <c r="E28" s="47">
         <v>111</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>151</v>
       </c>
-      <c r="F28" s="10">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="10">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I28" s="3">
-        <f>$C$18*$H$18/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J28" s="3">
+        <f>$C$18*$I$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>45</v>
       </c>
-      <c r="J28" s="7">
+      <c r="K28" s="7">
         <v>80</v>
       </c>
-      <c r="K28" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>320</v>
-      </c>
-      <c r="L28" s="3"/>
+      <c r="L28" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>384</v>
+      </c>
       <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" outlineLevel="1">
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" outlineLevel="1">
       <c r="A29">
         <v>2</v>
       </c>
@@ -5288,36 +5338,37 @@
       <c r="C29" s="5">
         <v>5</v>
       </c>
-      <c r="D29" s="47">
+      <c r="D29" s="5"/>
+      <c r="E29" s="47">
         <v>190</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>152</v>
       </c>
-      <c r="F29" s="10">
-        <v>2</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="10">
+        <v>2</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="3">
-        <f>$C$18*$H$18/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J29" s="3">
+        <f>$C$18*$I$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
-      <c r="J29" s="7">
+      <c r="K29" s="7">
         <v>30</v>
       </c>
-      <c r="K29" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>150</v>
-      </c>
-      <c r="L29" s="3"/>
+      <c r="L29" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>180</v>
+      </c>
       <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" outlineLevel="1">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" outlineLevel="1">
       <c r="A30">
         <v>2</v>
       </c>
@@ -5327,36 +5378,37 @@
       <c r="C30" s="5">
         <v>5</v>
       </c>
-      <c r="D30" s="47">
+      <c r="D30" s="5"/>
+      <c r="E30" s="47">
         <v>83</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>153</v>
       </c>
-      <c r="F30" s="10">
+      <c r="G30" s="10">
         <v>3</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I30" s="3">
-        <f>$C$18*$H$18/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J30" s="3">
+        <f>$C$18*$I$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
-      <c r="J30" s="7">
+      <c r="K30" s="7">
         <v>37</v>
       </c>
-      <c r="K30" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>185</v>
-      </c>
-      <c r="L30" s="3"/>
+      <c r="L30" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>222</v>
+      </c>
       <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" outlineLevel="1">
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" outlineLevel="1">
       <c r="A31">
         <v>2</v>
       </c>
@@ -5366,36 +5418,37 @@
       <c r="C31" s="5">
         <v>5</v>
       </c>
-      <c r="D31" s="47">
+      <c r="D31" s="5"/>
+      <c r="E31" s="47">
         <v>181</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>154</v>
       </c>
-      <c r="F31" s="10">
+      <c r="G31" s="10">
         <v>6</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I31" s="3">
-        <f>$C$18*$H$18/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J31" s="3">
+        <f>$C$18*$I$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
-      <c r="J31" s="7">
+      <c r="K31" s="7">
         <v>39</v>
       </c>
-      <c r="K31" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>195</v>
-      </c>
-      <c r="L31" s="3"/>
+      <c r="L31" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>234</v>
+      </c>
       <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" outlineLevel="1">
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" outlineLevel="1">
       <c r="A32">
         <v>2</v>
       </c>
@@ -5405,36 +5458,37 @@
       <c r="C32" s="5">
         <v>5</v>
       </c>
-      <c r="D32" s="47">
+      <c r="D32" s="5"/>
+      <c r="E32" s="47">
         <v>191</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>155</v>
       </c>
-      <c r="F32" s="10">
+      <c r="G32" s="10">
         <v>11</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I32" s="3">
-        <f>$C$18*$H$18/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J32" s="3">
+        <f>$C$18*$I$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
-      <c r="J32" s="7">
+      <c r="K32" s="7">
         <v>40</v>
       </c>
-      <c r="K32" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>200</v>
-      </c>
-      <c r="L32" s="3"/>
+      <c r="L32" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>240</v>
+      </c>
       <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:13" outlineLevel="1">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" outlineLevel="1">
       <c r="A33">
         <v>2</v>
       </c>
@@ -5444,36 +5498,37 @@
       <c r="C33" s="5">
         <v>5</v>
       </c>
-      <c r="D33" s="47">
+      <c r="D33" s="5"/>
+      <c r="E33" s="47">
         <v>127</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>156</v>
       </c>
-      <c r="F33" s="10">
+      <c r="G33" s="10">
         <v>4</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I33" s="3">
-        <f>$C$18*$H$18/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J33" s="3">
+        <f>$C$18*$I$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
-      <c r="J33" s="7">
+      <c r="K33" s="7">
         <v>42</v>
       </c>
-      <c r="K33" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>210</v>
-      </c>
-      <c r="L33" s="3"/>
+      <c r="L33" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>252</v>
+      </c>
       <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="1:13" outlineLevel="1">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" outlineLevel="1">
       <c r="A34">
         <v>2</v>
       </c>
@@ -5483,36 +5538,37 @@
       <c r="C34" s="5">
         <v>5</v>
       </c>
-      <c r="D34" s="47">
+      <c r="D34" s="5"/>
+      <c r="E34" s="47">
         <v>154</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>157</v>
       </c>
-      <c r="F34" s="10">
+      <c r="G34" s="10">
         <v>15</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I34" s="3">
-        <f>$C$18*$H$18/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J34" s="3">
+        <f>$C$18*$I$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
-      <c r="J34" s="7">
+      <c r="K34" s="7">
         <v>43</v>
       </c>
-      <c r="K34" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>215</v>
-      </c>
-      <c r="L34" s="3"/>
+      <c r="L34" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>258</v>
+      </c>
       <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" outlineLevel="1">
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" outlineLevel="1">
       <c r="A35">
         <v>2</v>
       </c>
@@ -5522,36 +5578,37 @@
       <c r="C35" s="5">
         <v>5</v>
       </c>
-      <c r="D35" s="47">
+      <c r="D35" s="5"/>
+      <c r="E35" s="47">
         <v>123</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>158</v>
       </c>
-      <c r="F35" s="10">
+      <c r="G35" s="10">
         <v>3</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I35" s="3">
-        <f>$C$18*$H$18/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J35" s="3">
+        <f>$C$18*$I$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
-      <c r="J35" s="7">
+      <c r="K35" s="7">
         <v>45</v>
       </c>
-      <c r="K35" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>225</v>
-      </c>
-      <c r="L35" s="3"/>
+      <c r="L35" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>270</v>
+      </c>
       <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" outlineLevel="1">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" outlineLevel="1">
       <c r="A36">
         <v>2</v>
       </c>
@@ -5561,36 +5618,37 @@
       <c r="C36" s="5">
         <v>5</v>
       </c>
-      <c r="D36" s="47">
+      <c r="D36" s="5"/>
+      <c r="E36" s="47">
         <v>138</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>159</v>
       </c>
-      <c r="F36" s="10">
+      <c r="G36" s="10">
         <v>10</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I36" s="3">
-        <f>$C$18*$H$18/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J36" s="3">
+        <f>$C$18*$I$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
-      <c r="J36" s="7">
+      <c r="K36" s="7">
         <v>45</v>
       </c>
-      <c r="K36" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>225</v>
-      </c>
-      <c r="L36" s="3"/>
+      <c r="L36" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>270</v>
+      </c>
       <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="1:13" outlineLevel="1">
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" outlineLevel="1">
       <c r="A37">
         <v>2</v>
       </c>
@@ -5600,36 +5658,37 @@
       <c r="C37" s="5">
         <v>5</v>
       </c>
-      <c r="D37" s="47">
+      <c r="D37" s="5"/>
+      <c r="E37" s="47">
         <v>94</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>160</v>
       </c>
-      <c r="F37" s="10">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="10">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I37" s="3">
-        <f>$C$18*$H$18/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J37" s="3">
+        <f>$C$18*$I$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
-      <c r="J37" s="7">
+      <c r="K37" s="7">
         <v>55</v>
       </c>
-      <c r="K37" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>275</v>
-      </c>
-      <c r="L37" s="3"/>
+      <c r="L37" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>330</v>
+      </c>
       <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:13" outlineLevel="1">
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" outlineLevel="1">
       <c r="A38">
         <v>2</v>
       </c>
@@ -5639,34 +5698,34 @@
       <c r="C38">
         <v>5</v>
       </c>
-      <c r="D38" s="21">
+      <c r="E38" s="21">
         <v>182</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>161</v>
       </c>
-      <c r="F38" s="11">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
         <v>60</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>61</v>
       </c>
-      <c r="I38" s="3">
-        <f>$C$18*$H$18/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J38" s="3">
+        <f>$C$18*$I$18/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
-      <c r="J38" s="7">
+      <c r="K38" s="7">
         <v>65</v>
       </c>
-      <c r="K38" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="18" thickBot="1">
+      <c r="L38" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="18" thickBot="1">
       <c r="A39" s="13" t="s">
         <v>3</v>
       </c>
@@ -5676,8 +5735,9 @@
       <c r="C39" s="14">
         <v>28</v>
       </c>
-      <c r="D39" s="46"/>
-      <c r="E39" s="15" t="str">
+      <c r="D39" s="14"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="15" t="str">
         <f ca="1">COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"3") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"4") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"5") &amp; " / "
@@ -5688,27 +5748,27 @@
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"10")</f>
         <v>5 / 5 / 0 / 5 / 5 / 0 / 0 / 0</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14">
+      <c r="G39" s="16"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14">
         <v>6</v>
       </c>
-      <c r="I39" s="14">
-        <f>SUM(I40:I59)</f>
+      <c r="J39" s="14">
+        <f>SUM(J40:J59)</f>
         <v>750</v>
       </c>
-      <c r="J39" s="17" cm="1">
-        <f t="array" ref="J39">SUM(J40:J59*$H$39)</f>
+      <c r="K39" s="17" cm="1">
+        <f t="array" ref="K39">SUM(K40:K59*$I$39)</f>
         <v>6582</v>
       </c>
-      <c r="K39" s="17">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>184296</v>
-      </c>
-      <c r="L39" s="14"/>
+      <c r="L39" s="17">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>221155.19999999998</v>
+      </c>
       <c r="M39" s="14"/>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" outlineLevel="1" thickTop="1">
+      <c r="N39" s="14"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" outlineLevel="1" thickTop="1">
       <c r="A40">
         <v>3</v>
       </c>
@@ -5718,38 +5778,39 @@
       <c r="C40" s="3">
         <v>6</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="3"/>
+      <c r="E40" s="22">
         <v>197</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>162</v>
       </c>
-      <c r="F40" s="11">
-        <v>1</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="G40" s="11">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
         <v>60</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>61</v>
       </c>
-      <c r="I40">
-        <f>$C$39*$H$39/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J40">
+        <f>$C$39*$I$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>28</v>
       </c>
-      <c r="J40" s="7">
+      <c r="K40" s="7">
         <v>90</v>
       </c>
-      <c r="K40" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>540</v>
-      </c>
-      <c r="L40">
+      <c r="L40" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>648</v>
+      </c>
+      <c r="M40">
         <v>3</v>
       </c>
-      <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="1:13" outlineLevel="1">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" outlineLevel="1">
       <c r="A41">
         <v>3</v>
       </c>
@@ -5759,38 +5820,38 @@
       <c r="C41">
         <v>6</v>
       </c>
-      <c r="D41" s="21">
+      <c r="E41" s="21">
         <v>228</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>163</v>
       </c>
-      <c r="F41" s="11">
+      <c r="G41" s="11">
         <v>6</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>60</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>61</v>
       </c>
-      <c r="I41">
-        <f>$C$39*$H$39/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J41">
+        <f>$C$39*$I$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>28</v>
       </c>
-      <c r="J41" s="7">
+      <c r="K41" s="7">
         <v>75</v>
       </c>
-      <c r="K41" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>450</v>
-      </c>
-      <c r="L41">
+      <c r="L41" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>540</v>
+      </c>
+      <c r="M41">
         <v>5</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="1:13" outlineLevel="1">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" outlineLevel="1">
       <c r="A42">
         <v>3</v>
       </c>
@@ -5800,38 +5861,38 @@
       <c r="C42">
         <v>6</v>
       </c>
-      <c r="D42" s="21">
+      <c r="E42" s="21">
         <v>221</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>164</v>
       </c>
-      <c r="F42" s="11">
+      <c r="G42" s="11">
         <v>8</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>60</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>61</v>
       </c>
-      <c r="I42">
-        <f>$C$39*$H$39/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J42">
+        <f>$C$39*$I$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>28</v>
       </c>
-      <c r="J42" s="7">
+      <c r="K42" s="7">
         <v>70</v>
       </c>
-      <c r="K42" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>420</v>
-      </c>
-      <c r="L42">
+      <c r="L42" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>504</v>
+      </c>
+      <c r="M42">
         <v>4</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="1:13" outlineLevel="1">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" outlineLevel="1">
       <c r="A43">
         <v>3</v>
       </c>
@@ -5841,38 +5902,38 @@
       <c r="C43">
         <v>6</v>
       </c>
-      <c r="D43" s="21">
+      <c r="E43" s="21">
         <v>223</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>165</v>
       </c>
-      <c r="F43" s="11">
+      <c r="G43" s="11">
         <v>7</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>60</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>61</v>
       </c>
-      <c r="I43">
-        <f>$C$39*$H$39/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J43">
+        <f>$C$39*$I$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>28</v>
       </c>
-      <c r="J43" s="7">
+      <c r="K43" s="7">
         <v>70</v>
       </c>
-      <c r="K43" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>420</v>
-      </c>
-      <c r="L43">
+      <c r="L43" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>504</v>
+      </c>
+      <c r="M43">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="1:13" outlineLevel="1">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" outlineLevel="1">
       <c r="A44">
         <v>3</v>
       </c>
@@ -5882,38 +5943,38 @@
       <c r="C44">
         <v>3</v>
       </c>
-      <c r="D44" s="21">
+      <c r="E44" s="21">
         <v>199</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>166</v>
       </c>
-      <c r="F44" s="11">
-        <v>1</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="G44" s="11">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
         <v>63</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>61</v>
       </c>
-      <c r="I44">
-        <f>$C$39*$H$39/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J44">
+        <f>$C$39*$I$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>56</v>
       </c>
-      <c r="J44" s="7">
+      <c r="K44" s="7">
         <v>120</v>
       </c>
-      <c r="K44" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>360</v>
-      </c>
-      <c r="L44">
+      <c r="L44" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>432</v>
+      </c>
+      <c r="M44">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="1:13" outlineLevel="1">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:14" outlineLevel="1">
       <c r="A45">
         <v>3</v>
       </c>
@@ -5923,38 +5984,38 @@
       <c r="C45">
         <v>3</v>
       </c>
-      <c r="D45" s="21">
+      <c r="E45" s="21">
         <v>205</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>167</v>
       </c>
-      <c r="F45" s="11">
+      <c r="G45" s="11">
         <v>6</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>60</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>61</v>
       </c>
-      <c r="I45">
-        <f>$C$39*$H$39/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J45">
+        <f>$C$39*$I$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>56</v>
       </c>
-      <c r="J45" s="7">
+      <c r="K45" s="7">
         <v>120</v>
       </c>
-      <c r="K45" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>360</v>
-      </c>
-      <c r="L45">
+      <c r="L45" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>432</v>
+      </c>
+      <c r="M45">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="1:13" outlineLevel="1">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" outlineLevel="1">
       <c r="A46">
         <v>3</v>
       </c>
@@ -5964,38 +6025,38 @@
       <c r="C46">
         <v>7</v>
       </c>
-      <c r="D46" s="21">
+      <c r="E46" s="21">
         <v>207</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>168</v>
       </c>
-      <c r="F46" s="11">
+      <c r="G46" s="11">
         <v>3</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>60</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>61</v>
       </c>
-      <c r="I46">
-        <f>$C$39*$H$39/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J46">
+        <f>$C$39*$I$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>24</v>
       </c>
-      <c r="J46" s="7">
+      <c r="K46" s="7">
         <v>45</v>
       </c>
-      <c r="K46" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>315</v>
-      </c>
-      <c r="L46">
+      <c r="L46" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>378</v>
+      </c>
+      <c r="M46">
         <v>4</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="1:13" outlineLevel="1">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:14" outlineLevel="1">
       <c r="A47">
         <v>3</v>
       </c>
@@ -6005,38 +6066,38 @@
       <c r="C47">
         <v>6</v>
       </c>
-      <c r="D47" s="21">
+      <c r="E47" s="21">
         <v>206</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>169</v>
       </c>
-      <c r="F47" s="11">
+      <c r="G47" s="11">
         <v>4</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>60</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>61</v>
       </c>
-      <c r="I47">
-        <f>$C$39*$H$39/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J47">
+        <f>$C$39*$I$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>28</v>
       </c>
-      <c r="J47" s="7">
+      <c r="K47" s="7">
         <v>50</v>
       </c>
-      <c r="K47" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>300</v>
-      </c>
-      <c r="L47">
+      <c r="L47" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>360</v>
+      </c>
+      <c r="M47">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="1:13" outlineLevel="1">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" outlineLevel="1">
       <c r="A48">
         <v>3</v>
       </c>
@@ -6046,38 +6107,38 @@
       <c r="C48">
         <v>7</v>
       </c>
-      <c r="D48" s="21">
+      <c r="E48" s="21">
         <v>227</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>170</v>
       </c>
-      <c r="F48" s="11">
+      <c r="G48" s="11">
         <v>7</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>60</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>61</v>
       </c>
-      <c r="I48">
-        <f>$C$39*$H$39/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J48">
+        <f>$C$39*$I$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>24</v>
       </c>
-      <c r="J48" s="7">
+      <c r="K48" s="7">
         <v>35</v>
       </c>
-      <c r="K48" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>245</v>
-      </c>
-      <c r="L48">
+      <c r="L48" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>294</v>
+      </c>
+      <c r="M48">
         <v>5</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="1:13" outlineLevel="1">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="1:14" outlineLevel="1">
       <c r="A49">
         <v>3</v>
       </c>
@@ -6087,38 +6148,38 @@
       <c r="C49">
         <v>7</v>
       </c>
-      <c r="D49" s="21">
+      <c r="E49" s="21">
         <v>208</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>171</v>
       </c>
-      <c r="F49" s="11">
+      <c r="G49" s="11">
         <v>9</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>60</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>61</v>
       </c>
-      <c r="I49">
-        <f>$C$39*$H$39/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J49">
+        <f>$C$39*$I$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>24</v>
       </c>
-      <c r="J49" s="7">
+      <c r="K49" s="7">
         <v>35</v>
       </c>
-      <c r="K49" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>245</v>
-      </c>
-      <c r="L49">
+      <c r="L49" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>294</v>
+      </c>
+      <c r="M49">
         <v>4</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="1:13" outlineLevel="1">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="1:14" outlineLevel="1">
       <c r="A50">
         <v>3</v>
       </c>
@@ -6128,38 +6189,38 @@
       <c r="C50">
         <v>7</v>
       </c>
-      <c r="D50" s="21">
+      <c r="E50" s="21">
         <v>225</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>172</v>
       </c>
-      <c r="F50" s="11">
+      <c r="G50" s="11">
         <v>7</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>60</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>61</v>
       </c>
-      <c r="I50">
-        <f>$C$39*$H$39/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J50">
+        <f>$C$39*$I$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>24</v>
       </c>
-      <c r="J50" s="7">
+      <c r="K50" s="7">
         <v>35</v>
       </c>
-      <c r="K50" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>245</v>
-      </c>
-      <c r="L50">
+      <c r="L50" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>294</v>
+      </c>
+      <c r="M50">
         <v>3</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="1:13" outlineLevel="1">
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="1:14" outlineLevel="1">
       <c r="A51">
         <v>3</v>
       </c>
@@ -6169,38 +6230,38 @@
       <c r="C51">
         <v>4</v>
       </c>
-      <c r="D51" s="21">
+      <c r="E51" s="21">
         <v>148</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>173</v>
       </c>
-      <c r="F51" s="11">
+      <c r="G51" s="11">
         <v>12</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>60</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>61</v>
       </c>
-      <c r="I51">
-        <f>$C$39*$H$39/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J51">
+        <f>$C$39*$I$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
-      <c r="J51" s="7">
+      <c r="K51" s="7">
         <v>60</v>
       </c>
-      <c r="K51" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>240</v>
-      </c>
-      <c r="L51">
+      <c r="L51" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>288</v>
+      </c>
+      <c r="M51">
         <v>3</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="1:13" outlineLevel="1">
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="1:14" outlineLevel="1">
       <c r="A52">
         <v>3</v>
       </c>
@@ -6210,38 +6271,38 @@
       <c r="C52">
         <v>4</v>
       </c>
-      <c r="D52" s="21">
+      <c r="E52" s="21">
         <v>204</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>174</v>
       </c>
-      <c r="F52" s="11">
+      <c r="G52" s="11">
         <v>4</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>60</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>61</v>
       </c>
-      <c r="I52">
-        <f>$C$39*$H$39/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J52">
+        <f>$C$39*$I$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
-      <c r="J52" s="7">
+      <c r="K52" s="7">
         <v>45</v>
       </c>
-      <c r="K52" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>180</v>
-      </c>
-      <c r="L52">
+      <c r="L52" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>216</v>
+      </c>
+      <c r="M52">
         <v>5</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="1:13" outlineLevel="1">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="1:14" outlineLevel="1">
       <c r="A53">
         <v>3</v>
       </c>
@@ -6251,38 +6312,38 @@
       <c r="C53">
         <v>7</v>
       </c>
-      <c r="D53" s="21">
+      <c r="E53" s="21">
         <v>209</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>175</v>
       </c>
-      <c r="F53" s="11">
+      <c r="G53" s="11">
         <v>8</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>60</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>61</v>
       </c>
-      <c r="I53">
-        <f>$C$39*$H$39/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J53">
+        <f>$C$39*$I$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>24</v>
       </c>
-      <c r="J53" s="7">
+      <c r="K53" s="7">
         <v>25</v>
       </c>
-      <c r="K53" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>175</v>
-      </c>
-      <c r="L53">
+      <c r="L53" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>210</v>
+      </c>
+      <c r="M53">
         <v>4</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="1:13" outlineLevel="1">
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="1:14" outlineLevel="1">
       <c r="A54">
         <v>3</v>
       </c>
@@ -6292,38 +6353,38 @@
       <c r="C54">
         <v>4</v>
       </c>
-      <c r="D54" s="21">
+      <c r="E54" s="21">
         <v>198</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>176</v>
       </c>
-      <c r="F54" s="11">
+      <c r="G54" s="11">
         <v>6</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>60</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>61</v>
       </c>
-      <c r="I54">
-        <f>$C$39*$H$39/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J54">
+        <f>$C$39*$I$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
-      <c r="J54" s="7">
+      <c r="K54" s="7">
         <v>40</v>
       </c>
-      <c r="K54" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>160</v>
-      </c>
-      <c r="L54">
+      <c r="L54" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>192</v>
+      </c>
+      <c r="M54">
         <v>4</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="1:13" outlineLevel="1">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="1:14" outlineLevel="1">
       <c r="A55">
         <v>3</v>
       </c>
@@ -6333,38 +6394,38 @@
       <c r="C55">
         <v>3</v>
       </c>
-      <c r="D55" s="21">
+      <c r="E55" s="21">
         <v>215</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>177</v>
       </c>
-      <c r="F55" s="11">
+      <c r="G55" s="11">
         <v>4</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>60</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>61</v>
       </c>
-      <c r="I55">
-        <f>$C$39*$H$39/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J55">
+        <f>$C$39*$I$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>56</v>
       </c>
-      <c r="J55" s="7">
+      <c r="K55" s="7">
         <v>52</v>
       </c>
-      <c r="K55" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>156</v>
-      </c>
-      <c r="L55">
+      <c r="L55" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>187.2</v>
+      </c>
+      <c r="M55">
         <v>5</v>
       </c>
-      <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="1:13" outlineLevel="1">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="1:14" outlineLevel="1">
       <c r="A56">
         <v>3</v>
       </c>
@@ -6374,38 +6435,38 @@
       <c r="C56">
         <v>3</v>
       </c>
-      <c r="D56" s="21">
+      <c r="E56" s="21">
         <v>203</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>178</v>
       </c>
-      <c r="F56" s="11">
+      <c r="G56" s="11">
         <v>5</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>60</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>61</v>
       </c>
-      <c r="I56">
-        <f>$C$39*$H$39/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J56">
+        <f>$C$39*$I$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>56</v>
       </c>
-      <c r="J56" s="7">
+      <c r="K56" s="7">
         <v>45</v>
       </c>
-      <c r="K56" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>135</v>
-      </c>
-      <c r="L56">
+      <c r="L56" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>162</v>
+      </c>
+      <c r="M56">
         <v>3</v>
       </c>
-      <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="1:13" outlineLevel="1">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="1:14" outlineLevel="1">
       <c r="A57">
         <v>3</v>
       </c>
@@ -6415,38 +6476,38 @@
       <c r="C57">
         <v>4</v>
       </c>
-      <c r="D57" s="21">
+      <c r="E57" s="21">
         <v>195</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>179</v>
       </c>
-      <c r="F57" s="11">
+      <c r="G57" s="11">
         <v>3</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>60</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>61</v>
       </c>
-      <c r="I57">
-        <f>$C$39*$H$39/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J57">
+        <f>$C$39*$I$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
-      <c r="J57" s="7">
+      <c r="K57" s="7">
         <v>30</v>
       </c>
-      <c r="K57" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>120</v>
-      </c>
-      <c r="L57">
+      <c r="L57" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>144</v>
+      </c>
+      <c r="M57">
         <v>5</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="1:13" outlineLevel="1">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="1:14" outlineLevel="1">
       <c r="A58">
         <v>3</v>
       </c>
@@ -6456,38 +6517,38 @@
       <c r="C58">
         <v>4</v>
       </c>
-      <c r="D58" s="21">
+      <c r="E58" s="21">
         <v>193</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>180</v>
       </c>
-      <c r="F58" s="11">
+      <c r="G58" s="11">
         <v>5</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>60</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>61</v>
       </c>
-      <c r="I58">
-        <f>$C$39*$H$39/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J58">
+        <f>$C$39*$I$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
-      <c r="J58" s="7">
+      <c r="K58" s="7">
         <v>25</v>
       </c>
-      <c r="K58" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>100</v>
-      </c>
-      <c r="L58">
+      <c r="L58" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>120</v>
+      </c>
+      <c r="M58">
         <v>5</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="1:13" outlineLevel="1">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="1:14" outlineLevel="1">
       <c r="A59">
         <v>3</v>
       </c>
@@ -6497,38 +6558,38 @@
       <c r="C59">
         <v>3</v>
       </c>
-      <c r="D59" s="21">
+      <c r="E59" s="21">
         <v>217</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>181</v>
       </c>
-      <c r="F59" s="11">
+      <c r="G59" s="11">
         <v>6</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>60</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>61</v>
       </c>
-      <c r="I59">
-        <f>$C$39*$H$39/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J59">
+        <f>$C$39*$I$39/Tabelle3[[#This Row],[Spieler]]</f>
         <v>56</v>
       </c>
-      <c r="J59" s="7">
+      <c r="K59" s="7">
         <v>30</v>
       </c>
-      <c r="K59" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>90</v>
-      </c>
-      <c r="L59">
+      <c r="L59" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>108</v>
+      </c>
+      <c r="M59">
         <v>5</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="1:13" ht="18" thickBot="1">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="1:14" ht="18" thickBot="1">
       <c r="A60" s="13" t="s">
         <v>69</v>
       </c>
@@ -6538,8 +6599,9 @@
       <c r="C60" s="13">
         <v>28</v>
       </c>
-      <c r="D60" s="48"/>
-      <c r="E60" s="13" t="str">
+      <c r="D60" s="13"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="13" t="str">
         <f ca="1">COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"3") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"4") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"5") &amp; " / "
@@ -6550,27 +6612,27 @@
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"10")</f>
         <v>3 / 6 / 0 / 6 / 5 / 0 / 0 / 0</v>
       </c>
-      <c r="F60" s="13"/>
       <c r="G60" s="13"/>
-      <c r="H60" s="13">
+      <c r="H60" s="13"/>
+      <c r="I60" s="13">
         <v>6</v>
       </c>
-      <c r="I60" s="13">
-        <f>SUM(I61:I80)</f>
+      <c r="J60" s="13">
+        <f>SUM(J61:J80)</f>
         <v>708</v>
       </c>
-      <c r="J60" s="17" cm="1">
-        <f t="array" ref="J60">SUM(J61:J80*$H$60)</f>
+      <c r="K60" s="17" cm="1">
+        <f t="array" ref="K60">SUM(K61:K80*$I$60)</f>
         <v>6390</v>
       </c>
-      <c r="K60" s="17">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>178920</v>
-      </c>
-      <c r="L60" s="13"/>
+      <c r="L60" s="17">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>214704</v>
+      </c>
       <c r="M60" s="13"/>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" outlineLevel="1" thickTop="1">
+      <c r="N60" s="13"/>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" outlineLevel="1" thickTop="1">
       <c r="A61">
         <v>4</v>
       </c>
@@ -6580,36 +6642,37 @@
       <c r="C61" s="3">
         <v>7</v>
       </c>
-      <c r="D61" s="22">
+      <c r="D61" s="3"/>
+      <c r="E61" s="22">
         <v>61</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>182</v>
       </c>
-      <c r="F61" s="21">
+      <c r="G61" s="21">
         <v>9</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>60</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>61</v>
       </c>
-      <c r="I61" s="3">
-        <f>$C$60*$H$60/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J61" s="3">
+        <f>$C$60*$I$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>24</v>
       </c>
-      <c r="J61" s="7">
+      <c r="K61" s="7">
         <v>40</v>
       </c>
-      <c r="K61" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>280</v>
-      </c>
-      <c r="L61" s="3"/>
+      <c r="L61" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>336</v>
+      </c>
       <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="1:13" outlineLevel="1">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="1:14" outlineLevel="1">
       <c r="A62">
         <v>4</v>
       </c>
@@ -6619,36 +6682,37 @@
       <c r="C62" s="3">
         <v>7</v>
       </c>
-      <c r="D62" s="22">
+      <c r="D62" s="3"/>
+      <c r="E62" s="22">
         <v>62</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>183</v>
       </c>
-      <c r="F62" s="22">
+      <c r="G62" s="22">
         <v>20</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>60</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>61</v>
       </c>
-      <c r="I62" s="3">
-        <f>$C$60*$H$60/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J62" s="3">
+        <f>$C$60*$I$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>24</v>
       </c>
-      <c r="J62" s="7">
+      <c r="K62" s="7">
         <v>35</v>
       </c>
-      <c r="K62" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>245</v>
-      </c>
-      <c r="L62" s="3"/>
+      <c r="L62" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>294</v>
+      </c>
       <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="1:13" outlineLevel="1">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="1:14" outlineLevel="1">
       <c r="A63">
         <v>4</v>
       </c>
@@ -6658,36 +6722,37 @@
       <c r="C63" s="3">
         <v>7</v>
       </c>
-      <c r="D63" s="22">
+      <c r="D63" s="3"/>
+      <c r="E63" s="22">
         <v>63</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>184</v>
       </c>
-      <c r="F63" s="22">
+      <c r="G63" s="22">
         <v>100</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>60</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>61</v>
       </c>
-      <c r="I63" s="3">
-        <f>$C$60*$H$60/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J63" s="3">
+        <f>$C$60*$I$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>24</v>
       </c>
-      <c r="J63" s="7">
+      <c r="K63" s="7">
         <v>35</v>
       </c>
-      <c r="K63" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>245</v>
-      </c>
-      <c r="L63" s="3"/>
+      <c r="L63" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>294</v>
+      </c>
       <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="1:13" outlineLevel="1">
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="1:14" outlineLevel="1">
       <c r="A64">
         <v>4</v>
       </c>
@@ -6697,36 +6762,37 @@
       <c r="C64" s="3">
         <v>6</v>
       </c>
-      <c r="D64" s="22">
+      <c r="D64" s="3"/>
+      <c r="E64" s="22">
         <v>64</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>185</v>
       </c>
-      <c r="F64" s="22">
-        <v>0</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="G64" s="22">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
         <v>60</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>61</v>
       </c>
-      <c r="I64" s="3">
-        <f>$C$60*$H$60/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J64" s="3">
+        <f>$C$60*$I$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>28</v>
       </c>
-      <c r="J64" s="7">
+      <c r="K64" s="7">
         <v>60</v>
       </c>
-      <c r="K64" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>360</v>
-      </c>
-      <c r="L64" s="3"/>
+      <c r="L64" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>432</v>
+      </c>
       <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="1:13" outlineLevel="1">
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="1:14" outlineLevel="1">
       <c r="A65">
         <v>4</v>
       </c>
@@ -6736,36 +6802,37 @@
       <c r="C65" s="3">
         <v>6</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="3"/>
+      <c r="E65" s="22">
         <v>65</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>186</v>
       </c>
-      <c r="F65" s="22">
+      <c r="G65" s="22">
         <v>3</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>60</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>61</v>
       </c>
-      <c r="I65" s="3">
-        <f>$C$60*$H$60/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J65" s="3">
+        <f>$C$60*$I$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>28</v>
       </c>
-      <c r="J65" s="7">
+      <c r="K65" s="7">
         <v>60</v>
       </c>
-      <c r="K65" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>360</v>
-      </c>
-      <c r="L65" s="3"/>
+      <c r="L65" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>432</v>
+      </c>
       <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="1:13" outlineLevel="1">
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="1:14" outlineLevel="1">
       <c r="A66">
         <v>4</v>
       </c>
@@ -6775,36 +6842,37 @@
       <c r="C66" s="3">
         <v>6</v>
       </c>
-      <c r="D66" s="22">
+      <c r="D66" s="3"/>
+      <c r="E66" s="22">
         <v>66</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>187</v>
       </c>
-      <c r="F66" s="23">
-        <v>0</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="G66" s="23">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
         <v>60</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>61</v>
       </c>
-      <c r="I66" s="3">
-        <f>$C$60*$H$60/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J66" s="3">
+        <f>$C$60*$I$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>28</v>
       </c>
-      <c r="J66" s="7">
+      <c r="K66" s="7">
         <v>50</v>
       </c>
-      <c r="K66" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>300</v>
-      </c>
-      <c r="L66" s="3"/>
+      <c r="L66" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>360</v>
+      </c>
       <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="1:13" outlineLevel="1">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="1:14" outlineLevel="1">
       <c r="A67">
         <v>4</v>
       </c>
@@ -6814,36 +6882,37 @@
       <c r="C67" s="3">
         <v>6</v>
       </c>
-      <c r="D67" s="22">
+      <c r="D67" s="3"/>
+      <c r="E67" s="22">
         <v>67</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>188</v>
       </c>
-      <c r="F67" s="23">
-        <v>1</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="G67" s="23">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
         <v>60</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>61</v>
       </c>
-      <c r="I67" s="3">
-        <f>$C$60*$H$60/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J67" s="3">
+        <f>$C$60*$I$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>28</v>
       </c>
-      <c r="J67" s="7">
+      <c r="K67" s="7">
         <v>40</v>
       </c>
-      <c r="K67" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>240</v>
-      </c>
-      <c r="L67" s="3"/>
+      <c r="L67" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>288</v>
+      </c>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="1:13" outlineLevel="1">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="1:14" outlineLevel="1">
       <c r="A68">
         <v>4</v>
       </c>
@@ -6853,36 +6922,37 @@
       <c r="C68" s="3">
         <v>4</v>
       </c>
-      <c r="D68" s="22">
+      <c r="D68" s="3"/>
+      <c r="E68" s="22">
         <v>68</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>189</v>
       </c>
-      <c r="F68" s="22">
+      <c r="G68" s="22">
         <v>16</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>60</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>61</v>
       </c>
-      <c r="I68" s="3">
-        <f>$C$60*$H$60/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J68" s="3">
+        <f>$C$60*$I$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
-      <c r="J68" s="7">
+      <c r="K68" s="7">
         <v>70</v>
       </c>
-      <c r="K68" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>280</v>
-      </c>
-      <c r="L68" s="3"/>
+      <c r="L68" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>336</v>
+      </c>
       <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="1:13" outlineLevel="1">
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="1:14" outlineLevel="1">
       <c r="A69">
         <v>4</v>
       </c>
@@ -6892,36 +6962,37 @@
       <c r="C69" s="3">
         <v>4</v>
       </c>
-      <c r="D69" s="22">
+      <c r="D69" s="3"/>
+      <c r="E69" s="22">
         <v>69</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>190</v>
       </c>
-      <c r="F69" s="22">
-        <v>0</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="G69" s="22">
+        <v>0</v>
+      </c>
+      <c r="H69" t="s">
         <v>60</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>61</v>
       </c>
-      <c r="I69" s="3">
-        <f>$C$60*$H$60/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J69" s="3">
+        <f>$C$60*$I$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
-      <c r="J69" s="7">
+      <c r="K69" s="7">
         <v>70</v>
       </c>
-      <c r="K69" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>280</v>
-      </c>
-      <c r="L69" s="3"/>
+      <c r="L69" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>336</v>
+      </c>
       <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="1:13" outlineLevel="1">
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="1:14" outlineLevel="1">
       <c r="A70">
         <v>4</v>
       </c>
@@ -6931,36 +7002,37 @@
       <c r="C70" s="3">
         <v>4</v>
       </c>
-      <c r="D70" s="22">
+      <c r="D70" s="3"/>
+      <c r="E70" s="22">
         <v>70</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>191</v>
       </c>
-      <c r="F70" s="23">
-        <v>2</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="G70" s="23">
+        <v>2</v>
+      </c>
+      <c r="H70" t="s">
         <v>60</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>61</v>
       </c>
-      <c r="I70" s="3">
-        <f>$C$60*$H$60/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J70" s="3">
+        <f>$C$60*$I$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
-      <c r="J70" s="7">
+      <c r="K70" s="7">
         <v>70</v>
       </c>
-      <c r="K70" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>280</v>
-      </c>
-      <c r="L70" s="3"/>
+      <c r="L70" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>336</v>
+      </c>
       <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="1:13" outlineLevel="1">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="1:14" outlineLevel="1">
       <c r="A71">
         <v>4</v>
       </c>
@@ -6970,36 +7042,37 @@
       <c r="C71" s="3">
         <v>7</v>
       </c>
-      <c r="D71" s="22">
+      <c r="D71" s="3"/>
+      <c r="E71" s="22">
         <v>71</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>192</v>
       </c>
-      <c r="F71" s="23">
-        <v>1</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="G71" s="23">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
         <v>60</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>61</v>
       </c>
-      <c r="I71" s="3">
-        <f>$C$60*$H$60/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J71" s="3">
+        <f>$C$60*$I$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>24</v>
       </c>
-      <c r="J71" s="7">
+      <c r="K71" s="7">
         <v>35</v>
       </c>
-      <c r="K71" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>245</v>
-      </c>
-      <c r="L71" s="3"/>
+      <c r="L71" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>294</v>
+      </c>
       <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="1:13" outlineLevel="1">
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="1:14" outlineLevel="1">
       <c r="A72">
         <v>4</v>
       </c>
@@ -7009,36 +7082,37 @@
       <c r="C72" s="3">
         <v>6</v>
       </c>
-      <c r="D72" s="22">
+      <c r="D72" s="3"/>
+      <c r="E72" s="22">
         <v>72</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>193</v>
       </c>
-      <c r="F72" s="23">
-        <v>1</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="G72" s="23">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
         <v>60</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>61</v>
       </c>
-      <c r="I72" s="3">
-        <f>$C$60*$H$60/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J72" s="3">
+        <f>$C$60*$I$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>28</v>
       </c>
-      <c r="J72" s="7">
+      <c r="K72" s="7">
         <v>40</v>
       </c>
-      <c r="K72" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>240</v>
-      </c>
-      <c r="L72" s="3"/>
+      <c r="L72" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>288</v>
+      </c>
       <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="1:13" outlineLevel="1">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="1:14" outlineLevel="1">
       <c r="A73">
         <v>4</v>
       </c>
@@ -7048,36 +7122,37 @@
       <c r="C73" s="3">
         <v>4</v>
       </c>
-      <c r="D73" s="22">
+      <c r="D73" s="3"/>
+      <c r="E73" s="22">
         <v>73</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>194</v>
       </c>
-      <c r="F73" s="22">
-        <v>2</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="G73" s="22">
+        <v>2</v>
+      </c>
+      <c r="H73" t="s">
         <v>60</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>61</v>
       </c>
-      <c r="I73" s="3">
-        <f>$C$60*$H$60/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J73" s="3">
+        <f>$C$60*$I$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
-      <c r="J73" s="7">
+      <c r="K73" s="7">
         <v>65</v>
       </c>
-      <c r="K73" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>260</v>
-      </c>
-      <c r="L73" s="3"/>
+      <c r="L73" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>312</v>
+      </c>
       <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="1:13" outlineLevel="1">
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="1:14" outlineLevel="1">
       <c r="A74">
         <v>4</v>
       </c>
@@ -7087,36 +7162,37 @@
       <c r="C74" s="3">
         <v>7</v>
       </c>
-      <c r="D74" s="22">
+      <c r="D74" s="3"/>
+      <c r="E74" s="22">
         <v>74</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>195</v>
       </c>
-      <c r="F74" s="22">
+      <c r="G74" s="22">
         <v>6</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>60</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>61</v>
       </c>
-      <c r="I74" s="3">
-        <f>$C$60*$H$60/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J74" s="3">
+        <f>$C$60*$I$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>24</v>
       </c>
-      <c r="J74" s="7">
+      <c r="K74" s="7">
         <v>45</v>
       </c>
-      <c r="K74" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>315</v>
-      </c>
-      <c r="L74" s="3"/>
+      <c r="L74" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>378</v>
+      </c>
       <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="1:13" outlineLevel="1">
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="1:14" outlineLevel="1">
       <c r="A75">
         <v>4</v>
       </c>
@@ -7126,36 +7202,37 @@
       <c r="C75" s="3">
         <v>3</v>
       </c>
-      <c r="D75" s="22">
+      <c r="D75" s="3"/>
+      <c r="E75" s="22">
         <v>75</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>196</v>
       </c>
-      <c r="F75" s="22">
+      <c r="G75" s="22">
         <v>4</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>60</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>61</v>
       </c>
-      <c r="I75" s="3">
-        <f>$C$60*$H$60/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J75" s="3">
+        <f>$C$60*$I$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>56</v>
       </c>
-      <c r="J75" s="7">
+      <c r="K75" s="7">
         <v>60</v>
       </c>
-      <c r="K75" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>180</v>
-      </c>
-      <c r="L75" s="3"/>
+      <c r="L75" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>216</v>
+      </c>
       <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="1:13" outlineLevel="1">
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="1:14" outlineLevel="1">
       <c r="A76">
         <v>4</v>
       </c>
@@ -7165,36 +7242,37 @@
       <c r="C76" s="3">
         <v>3</v>
       </c>
-      <c r="D76" s="22">
+      <c r="D76" s="3"/>
+      <c r="E76" s="22">
         <v>76</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>197</v>
       </c>
-      <c r="F76" s="23">
-        <v>0</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="G76" s="23">
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
         <v>60</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>61</v>
       </c>
-      <c r="I76" s="3">
-        <f>$C$60*$H$60/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J76" s="3">
+        <f>$C$60*$I$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>56</v>
       </c>
-      <c r="J76" s="7">
+      <c r="K76" s="7">
         <v>70</v>
       </c>
-      <c r="K76" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>210</v>
-      </c>
-      <c r="L76" s="3"/>
+      <c r="L76" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>252</v>
+      </c>
       <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="1:13" outlineLevel="1">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="1:14" outlineLevel="1">
       <c r="A77">
         <v>4</v>
       </c>
@@ -7204,36 +7282,37 @@
       <c r="C77" s="3">
         <v>6</v>
       </c>
-      <c r="D77" s="22">
+      <c r="D77" s="3"/>
+      <c r="E77" s="22">
         <v>77</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>198</v>
       </c>
-      <c r="F77" s="22">
+      <c r="G77" s="22">
         <v>9</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>60</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>61</v>
       </c>
-      <c r="I77" s="3">
-        <f>$C$60*$H$60/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J77" s="3">
+        <f>$C$60*$I$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>28</v>
       </c>
-      <c r="J77" s="7">
+      <c r="K77" s="7">
         <v>35</v>
       </c>
-      <c r="K77" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>210</v>
-      </c>
-      <c r="L77" s="3"/>
+      <c r="L77" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>252</v>
+      </c>
       <c r="M77" s="3"/>
-    </row>
-    <row r="78" spans="1:13" outlineLevel="1">
+      <c r="N77" s="3"/>
+    </row>
+    <row r="78" spans="1:14" outlineLevel="1">
       <c r="A78">
         <v>4</v>
       </c>
@@ -7243,36 +7322,37 @@
       <c r="C78" s="3">
         <v>4</v>
       </c>
-      <c r="D78" s="22">
+      <c r="D78" s="3"/>
+      <c r="E78" s="22">
         <v>78</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>199</v>
       </c>
-      <c r="F78" s="23">
-        <v>0</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="G78" s="23">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
         <v>60</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>61</v>
       </c>
-      <c r="I78" s="3">
-        <f>$C$60*$H$60/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J78" s="3">
+        <f>$C$60*$I$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
-      <c r="J78" s="7">
+      <c r="K78" s="7">
         <v>55</v>
       </c>
-      <c r="K78" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>220</v>
-      </c>
-      <c r="L78" s="3"/>
+      <c r="L78" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>264</v>
+      </c>
       <c r="M78" s="3"/>
-    </row>
-    <row r="79" spans="1:13" outlineLevel="1">
+      <c r="N78" s="3"/>
+    </row>
+    <row r="79" spans="1:14" outlineLevel="1">
       <c r="A79">
         <v>4</v>
       </c>
@@ -7282,36 +7362,37 @@
       <c r="C79" s="3">
         <v>4</v>
       </c>
-      <c r="D79" s="22">
+      <c r="D79" s="3"/>
+      <c r="E79" s="22">
         <v>79</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>200</v>
       </c>
-      <c r="F79" s="22">
+      <c r="G79" s="22">
         <v>7</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>60</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>61</v>
       </c>
-      <c r="I79" s="3">
-        <f>$C$60*$H$60/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J79" s="3">
+        <f>$C$60*$I$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>42</v>
       </c>
-      <c r="J79" s="7">
+      <c r="K79" s="7">
         <v>45</v>
       </c>
-      <c r="K79" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>180</v>
-      </c>
-      <c r="L79" s="3"/>
+      <c r="L79" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>216</v>
+      </c>
       <c r="M79" s="3"/>
-    </row>
-    <row r="80" spans="1:13" outlineLevel="1">
+      <c r="N79" s="3"/>
+    </row>
+    <row r="80" spans="1:14" outlineLevel="1">
       <c r="A80">
         <v>4</v>
       </c>
@@ -7321,36 +7402,37 @@
       <c r="C80" s="3">
         <v>3</v>
       </c>
-      <c r="D80" s="22">
+      <c r="D80" s="3"/>
+      <c r="E80" s="22">
         <v>80</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>201</v>
       </c>
-      <c r="F80" s="23">
-        <v>1</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="G80" s="23">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
         <v>60</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>61</v>
       </c>
-      <c r="I80" s="3">
-        <f>$C$60*$H$60/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J80" s="3">
+        <f>$C$60*$I$60/Tabelle3[[#This Row],[Spieler]]</f>
         <v>56</v>
       </c>
-      <c r="J80" s="7">
+      <c r="K80" s="7">
         <v>85</v>
       </c>
-      <c r="K80" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>255</v>
-      </c>
-      <c r="L80" s="3"/>
+      <c r="L80" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>306</v>
+      </c>
       <c r="M80" s="3"/>
-    </row>
-    <row r="81" spans="1:13" ht="18" thickBot="1">
+      <c r="N80" s="3"/>
+    </row>
+    <row r="81" spans="1:14" ht="18" thickBot="1">
       <c r="A81" s="13" t="s">
         <v>74</v>
       </c>
@@ -7360,8 +7442,9 @@
       <c r="C81" s="13">
         <v>30</v>
       </c>
-      <c r="D81" s="48"/>
-      <c r="E81" s="13" t="str">
+      <c r="D81" s="13"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="13" t="str">
         <f ca="1">COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"3") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"4") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"5") &amp; " / "
@@ -7372,27 +7455,27 @@
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"10")</f>
         <v>3 / 7 / 9 / 6 / 0 / 0 / 0 / 0</v>
       </c>
-      <c r="F81" s="13"/>
       <c r="G81" s="13"/>
-      <c r="H81" s="13">
+      <c r="H81" s="13"/>
+      <c r="I81" s="13">
         <v>6</v>
       </c>
-      <c r="I81" s="13">
-        <f>SUM(I82:I106)</f>
+      <c r="J81" s="13">
+        <f>SUM(J82:J106)</f>
         <v>999</v>
       </c>
-      <c r="J81" s="17" cm="1">
-        <f t="array" ref="J81">SUM(J82:J106*$H$81)</f>
+      <c r="K81" s="17" cm="1">
+        <f t="array" ref="K81">SUM(K82:K106*$I$81)</f>
         <v>12210</v>
       </c>
-      <c r="K81" s="17">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>366300</v>
-      </c>
-      <c r="L81" s="13"/>
+      <c r="L81" s="17">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>439560</v>
+      </c>
       <c r="M81" s="13"/>
-    </row>
-    <row r="82" spans="1:13" ht="15.75" outlineLevel="1" thickTop="1">
+      <c r="N81" s="13"/>
+    </row>
+    <row r="82" spans="1:14" ht="15.75" outlineLevel="1" thickTop="1">
       <c r="A82">
         <v>5</v>
       </c>
@@ -7402,38 +7485,39 @@
       <c r="C82" s="24">
         <v>5</v>
       </c>
-      <c r="D82" s="49">
+      <c r="D82" s="24"/>
+      <c r="E82" s="49">
         <v>96</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>202</v>
       </c>
-      <c r="F82" s="24">
+      <c r="G82" s="24">
         <v>13</v>
       </c>
-      <c r="G82" s="24" t="s">
+      <c r="H82" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H82" s="24" t="s">
+      <c r="I82" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I82" s="3">
-        <f>$C$81*$H$81/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J82" s="3">
+        <f>$C$81*$I$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
-      <c r="J82" s="7">
+      <c r="K82" s="7">
         <v>120</v>
       </c>
-      <c r="K82" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>600</v>
-      </c>
-      <c r="L82" s="24">
+      <c r="L82" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>720</v>
+      </c>
+      <c r="M82" s="24">
         <v>3</v>
       </c>
-      <c r="M82" s="24"/>
-    </row>
-    <row r="83" spans="1:13" outlineLevel="1">
+      <c r="N82" s="24"/>
+    </row>
+    <row r="83" spans="1:14" outlineLevel="1">
       <c r="A83">
         <v>5</v>
       </c>
@@ -7443,38 +7527,39 @@
       <c r="C83" s="24">
         <v>5</v>
       </c>
-      <c r="D83" s="49">
+      <c r="D83" s="24"/>
+      <c r="E83" s="49">
         <v>237</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>203</v>
       </c>
-      <c r="F83" s="24">
-        <v>1</v>
-      </c>
-      <c r="G83" s="24" t="s">
+      <c r="G83" s="24">
+        <v>1</v>
+      </c>
+      <c r="H83" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H83" s="24" t="s">
+      <c r="I83" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I83" s="3">
-        <f>$C$81*$H$81/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J83" s="3">
+        <f>$C$81*$I$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
-      <c r="J83" s="7">
+      <c r="K83" s="7">
         <v>140</v>
       </c>
-      <c r="K83" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>700</v>
-      </c>
-      <c r="L83" s="24">
+      <c r="L83" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>840</v>
+      </c>
+      <c r="M83" s="24">
         <v>4</v>
       </c>
-      <c r="M83" s="24"/>
-    </row>
-    <row r="84" spans="1:13" outlineLevel="1">
+      <c r="N83" s="24"/>
+    </row>
+    <row r="84" spans="1:14" outlineLevel="1">
       <c r="A84">
         <v>5</v>
       </c>
@@ -7484,38 +7569,39 @@
       <c r="C84" s="24">
         <v>5</v>
       </c>
-      <c r="D84" s="49">
+      <c r="D84" s="24"/>
+      <c r="E84" s="49">
         <v>241</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>204</v>
       </c>
-      <c r="F84" s="24">
+      <c r="G84" s="24">
         <v>11</v>
       </c>
-      <c r="G84" s="24" t="s">
+      <c r="H84" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H84" s="24" t="s">
+      <c r="I84" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I84" s="3">
-        <f>$C$81*$H$81/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J84" s="3">
+        <f>$C$81*$I$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
-      <c r="J84" s="7">
+      <c r="K84" s="7">
         <v>110</v>
       </c>
-      <c r="K84" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>550</v>
-      </c>
-      <c r="L84" s="24">
+      <c r="L84" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>660</v>
+      </c>
+      <c r="M84" s="24">
         <v>3</v>
       </c>
-      <c r="M84" s="24"/>
-    </row>
-    <row r="85" spans="1:13" outlineLevel="1">
+      <c r="N84" s="24"/>
+    </row>
+    <row r="85" spans="1:14" outlineLevel="1">
       <c r="A85">
         <v>5</v>
       </c>
@@ -7525,38 +7611,39 @@
       <c r="C85" s="26">
         <v>6</v>
       </c>
-      <c r="D85" s="50">
+      <c r="D85" s="26"/>
+      <c r="E85" s="50">
         <v>238</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>205</v>
       </c>
-      <c r="F85" s="26">
-        <v>0</v>
-      </c>
-      <c r="G85" s="26" t="s">
+      <c r="G85" s="26">
+        <v>0</v>
+      </c>
+      <c r="H85" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="H85" s="26" t="s">
+      <c r="I85" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="I85" s="3">
-        <f>$C$81*$H$81/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J85" s="3">
+        <f>$C$81*$I$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
-      <c r="J85" s="25">
+      <c r="K85" s="25">
         <v>100</v>
       </c>
-      <c r="K85" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>600</v>
-      </c>
-      <c r="L85" s="24">
-        <v>2</v>
-      </c>
-      <c r="M85" s="24"/>
-    </row>
-    <row r="86" spans="1:13" outlineLevel="1">
+      <c r="L85" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>720</v>
+      </c>
+      <c r="M85" s="24">
+        <v>2</v>
+      </c>
+      <c r="N85" s="24"/>
+    </row>
+    <row r="86" spans="1:14" outlineLevel="1">
       <c r="A86">
         <v>5</v>
       </c>
@@ -7566,38 +7653,39 @@
       <c r="C86" s="24">
         <v>6</v>
       </c>
-      <c r="D86" s="49">
+      <c r="D86" s="24"/>
+      <c r="E86" s="49">
         <v>125</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>206</v>
       </c>
-      <c r="F86" s="24">
+      <c r="G86" s="24">
         <v>15</v>
       </c>
-      <c r="G86" s="24" t="s">
+      <c r="H86" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H86" s="24" t="s">
+      <c r="I86" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I86" s="3">
-        <f>$C$81*$H$81/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J86" s="3">
+        <f>$C$81*$I$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
-      <c r="J86" s="7">
+      <c r="K86" s="7">
         <v>100</v>
       </c>
-      <c r="K86" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>600</v>
-      </c>
-      <c r="L86" s="24">
-        <v>2</v>
-      </c>
-      <c r="M86" s="24"/>
-    </row>
-    <row r="87" spans="1:13" outlineLevel="1">
+      <c r="L86" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>720</v>
+      </c>
+      <c r="M86" s="24">
+        <v>2</v>
+      </c>
+      <c r="N86" s="24"/>
+    </row>
+    <row r="87" spans="1:14" outlineLevel="1">
       <c r="A87">
         <v>5</v>
       </c>
@@ -7607,38 +7695,39 @@
       <c r="C87" s="24">
         <v>5</v>
       </c>
-      <c r="D87" s="49">
+      <c r="D87" s="24"/>
+      <c r="E87" s="49">
         <v>242</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>207</v>
       </c>
-      <c r="F87" s="24">
+      <c r="G87" s="24">
         <v>27</v>
       </c>
-      <c r="G87" s="24" t="s">
+      <c r="H87" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H87" s="24" t="s">
+      <c r="I87" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I87" s="3">
-        <f>$C$81*$H$81/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J87" s="3">
+        <f>$C$81*$I$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
-      <c r="J87" s="7">
+      <c r="K87" s="7">
         <v>120</v>
       </c>
-      <c r="K87" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>600</v>
-      </c>
-      <c r="L87" s="24">
+      <c r="L87" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>720</v>
+      </c>
+      <c r="M87" s="24">
         <v>3</v>
       </c>
-      <c r="M87" s="24"/>
-    </row>
-    <row r="88" spans="1:13" outlineLevel="1">
+      <c r="N87" s="24"/>
+    </row>
+    <row r="88" spans="1:14" outlineLevel="1">
       <c r="A88">
         <v>5</v>
       </c>
@@ -7648,38 +7737,39 @@
       <c r="C88" s="24">
         <v>5</v>
       </c>
-      <c r="D88" s="49">
+      <c r="D88" s="24"/>
+      <c r="E88" s="49">
         <v>10008</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>208</v>
       </c>
-      <c r="F88" s="24">
-        <v>1</v>
-      </c>
-      <c r="G88" s="24" t="s">
+      <c r="G88" s="24">
+        <v>1</v>
+      </c>
+      <c r="H88" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H88" s="24" t="s">
+      <c r="I88" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I88" s="3">
-        <f>$C$81*$H$81/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J88" s="3">
+        <f>$C$81*$I$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
-      <c r="J88" s="7">
+      <c r="K88" s="7">
         <v>100</v>
       </c>
-      <c r="K88" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>500</v>
-      </c>
-      <c r="L88" s="24">
+      <c r="L88" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>600</v>
+      </c>
+      <c r="M88" s="24">
         <v>5</v>
       </c>
-      <c r="M88" s="24"/>
-    </row>
-    <row r="89" spans="1:13" outlineLevel="1">
+      <c r="N88" s="24"/>
+    </row>
+    <row r="89" spans="1:14" outlineLevel="1">
       <c r="A89">
         <v>5</v>
       </c>
@@ -7689,38 +7779,39 @@
       <c r="C89" s="24">
         <v>4</v>
       </c>
-      <c r="D89" s="49">
+      <c r="D89" s="24"/>
+      <c r="E89" s="49">
         <v>230</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>209</v>
       </c>
-      <c r="F89" s="24">
+      <c r="G89" s="24">
         <v>42</v>
       </c>
-      <c r="G89" s="24" t="s">
+      <c r="H89" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H89" s="24" t="s">
+      <c r="I89" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I89" s="3">
-        <f>$C$81*$H$81/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J89" s="3">
+        <f>$C$81*$I$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>45</v>
       </c>
-      <c r="J89" s="7">
+      <c r="K89" s="7">
         <v>140</v>
       </c>
-      <c r="K89" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>560</v>
-      </c>
-      <c r="L89" s="24">
+      <c r="L89" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>672</v>
+      </c>
+      <c r="M89" s="24">
         <v>3</v>
       </c>
-      <c r="M89" s="24"/>
-    </row>
-    <row r="90" spans="1:13" outlineLevel="1">
+      <c r="N89" s="24"/>
+    </row>
+    <row r="90" spans="1:14" outlineLevel="1">
       <c r="A90">
         <v>5</v>
       </c>
@@ -7730,38 +7821,39 @@
       <c r="C90" s="26">
         <v>6</v>
       </c>
-      <c r="D90" s="50">
+      <c r="D90" s="26"/>
+      <c r="E90" s="50">
         <v>175</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>210</v>
       </c>
-      <c r="F90" s="26">
+      <c r="G90" s="26">
         <v>17</v>
       </c>
-      <c r="G90" s="26" t="s">
+      <c r="H90" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="H90" s="26" t="s">
+      <c r="I90" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="I90" s="3">
-        <f>$C$81*$H$81/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J90" s="3">
+        <f>$C$81*$I$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
-      <c r="J90" s="25">
+      <c r="K90" s="25">
         <v>90</v>
       </c>
-      <c r="K90" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>540</v>
-      </c>
-      <c r="L90" s="24">
+      <c r="L90" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>648</v>
+      </c>
+      <c r="M90" s="24">
         <v>4</v>
       </c>
-      <c r="M90" s="24"/>
-    </row>
-    <row r="91" spans="1:13" outlineLevel="1">
+      <c r="N90" s="24"/>
+    </row>
+    <row r="91" spans="1:14" outlineLevel="1">
       <c r="A91">
         <v>5</v>
       </c>
@@ -7771,38 +7863,39 @@
       <c r="C91" s="24">
         <v>4</v>
       </c>
-      <c r="D91" s="49">
+      <c r="D91" s="24"/>
+      <c r="E91" s="49">
         <v>234</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>211</v>
       </c>
-      <c r="F91" s="24">
+      <c r="G91" s="24">
         <v>4</v>
       </c>
-      <c r="G91" s="24" t="s">
+      <c r="H91" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H91" s="24" t="s">
+      <c r="I91" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I91" s="3">
-        <f>$C$81*$H$81/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J91" s="3">
+        <f>$C$81*$I$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>45</v>
       </c>
-      <c r="J91" s="7">
+      <c r="K91" s="7">
         <v>135</v>
       </c>
-      <c r="K91" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>540</v>
-      </c>
-      <c r="L91" s="24">
+      <c r="L91" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>648</v>
+      </c>
+      <c r="M91" s="24">
         <v>5</v>
       </c>
-      <c r="M91" s="24"/>
-    </row>
-    <row r="92" spans="1:13" outlineLevel="1">
+      <c r="N91" s="24"/>
+    </row>
+    <row r="92" spans="1:14" outlineLevel="1">
       <c r="A92">
         <v>5</v>
       </c>
@@ -7812,38 +7905,39 @@
       <c r="C92" s="24">
         <v>5</v>
       </c>
-      <c r="D92" s="49">
+      <c r="D92" s="24"/>
+      <c r="E92" s="49">
         <v>10006</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>212</v>
       </c>
-      <c r="F92" s="24">
+      <c r="G92" s="24">
         <v>11</v>
       </c>
-      <c r="G92" s="24" t="s">
+      <c r="H92" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H92" s="24" t="s">
+      <c r="I92" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I92" s="3">
-        <f>$C$81*$H$81/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J92" s="3">
+        <f>$C$81*$I$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
-      <c r="J92" s="7">
+      <c r="K92" s="7">
         <v>90</v>
       </c>
-      <c r="K92" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>450</v>
-      </c>
-      <c r="L92" s="24">
+      <c r="L92" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>540</v>
+      </c>
+      <c r="M92" s="24">
         <v>3</v>
       </c>
-      <c r="M92" s="24"/>
-    </row>
-    <row r="93" spans="1:13" outlineLevel="1">
+      <c r="N92" s="24"/>
+    </row>
+    <row r="93" spans="1:14" outlineLevel="1">
       <c r="A93">
         <v>5</v>
       </c>
@@ -7853,40 +7947,41 @@
       <c r="C93" s="24">
         <v>4</v>
       </c>
-      <c r="D93" s="49">
+      <c r="D93" s="24"/>
+      <c r="E93" s="49">
         <v>122</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>213</v>
       </c>
-      <c r="F93" s="24">
-        <v>1</v>
-      </c>
-      <c r="G93" s="24" t="s">
+      <c r="G93" s="24">
+        <v>1</v>
+      </c>
+      <c r="H93" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H93" s="24" t="s">
+      <c r="I93" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I93" s="3">
-        <f>$C$81*$H$81/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J93" s="3">
+        <f>$C$81*$I$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>45</v>
       </c>
-      <c r="J93" s="7">
+      <c r="K93" s="7">
         <v>115</v>
       </c>
-      <c r="K93" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>460</v>
-      </c>
-      <c r="L93" s="24">
+      <c r="L93" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>552</v>
+      </c>
+      <c r="M93" s="24">
         <v>3</v>
       </c>
-      <c r="M93" s="24" t="s">
+      <c r="N93" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="94" spans="1:13" outlineLevel="1">
+    <row r="94" spans="1:14" outlineLevel="1">
       <c r="A94">
         <v>5</v>
       </c>
@@ -7896,38 +7991,39 @@
       <c r="C94" s="24">
         <v>5</v>
       </c>
-      <c r="D94" s="49">
+      <c r="D94" s="24"/>
+      <c r="E94" s="49">
         <v>188</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>147</v>
       </c>
-      <c r="F94" s="24">
+      <c r="G94" s="24">
         <v>10</v>
       </c>
-      <c r="G94" s="24" t="s">
+      <c r="H94" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H94" s="24" t="s">
+      <c r="I94" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I94" s="3">
-        <f>$C$81*$H$81/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J94" s="3">
+        <f>$C$81*$I$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
-      <c r="J94" s="7">
+      <c r="K94" s="7">
         <v>70</v>
       </c>
-      <c r="K94" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>350</v>
-      </c>
-      <c r="L94" s="24">
-        <v>2</v>
-      </c>
-      <c r="M94" s="24"/>
-    </row>
-    <row r="95" spans="1:13" outlineLevel="1">
+      <c r="L94" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>420</v>
+      </c>
+      <c r="M94" s="24">
+        <v>2</v>
+      </c>
+      <c r="N94" s="24"/>
+    </row>
+    <row r="95" spans="1:14" outlineLevel="1">
       <c r="A95">
         <v>5</v>
       </c>
@@ -7937,38 +8033,39 @@
       <c r="C95" s="24">
         <v>6</v>
       </c>
-      <c r="D95" s="49">
+      <c r="D95" s="24"/>
+      <c r="E95" s="49">
         <v>173</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>214</v>
       </c>
-      <c r="F95" s="24">
+      <c r="G95" s="24">
         <v>5</v>
       </c>
-      <c r="G95" s="24" t="s">
+      <c r="H95" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H95" s="24" t="s">
+      <c r="I95" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I95" s="3">
-        <f>$C$81*$H$81/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J95" s="3">
+        <f>$C$81*$I$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
-      <c r="J95" s="7">
+      <c r="K95" s="7">
         <v>60</v>
       </c>
-      <c r="K95" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>360</v>
-      </c>
-      <c r="L95" s="24">
-        <v>1</v>
-      </c>
-      <c r="M95" s="24"/>
-    </row>
-    <row r="96" spans="1:13" outlineLevel="1">
+      <c r="L95" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>432</v>
+      </c>
+      <c r="M95" s="24">
+        <v>1</v>
+      </c>
+      <c r="N95" s="24"/>
+    </row>
+    <row r="96" spans="1:14" outlineLevel="1">
       <c r="A96">
         <v>5</v>
       </c>
@@ -7978,38 +8075,39 @@
       <c r="C96" s="24">
         <v>4</v>
       </c>
-      <c r="D96" s="49">
+      <c r="D96" s="24"/>
+      <c r="E96" s="49">
         <v>236</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>215</v>
       </c>
-      <c r="F96" s="24">
+      <c r="G96" s="24">
         <v>13</v>
       </c>
-      <c r="G96" s="24" t="s">
+      <c r="H96" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H96" s="24" t="s">
+      <c r="I96" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I96" s="3">
-        <f>$C$81*$H$81/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J96" s="3">
+        <f>$C$81*$I$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>45</v>
       </c>
-      <c r="J96" s="7">
+      <c r="K96" s="7">
         <v>90</v>
       </c>
-      <c r="K96" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>360</v>
-      </c>
-      <c r="L96" s="24">
+      <c r="L96" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>432</v>
+      </c>
+      <c r="M96" s="24">
         <v>4</v>
       </c>
-      <c r="M96" s="24"/>
-    </row>
-    <row r="97" spans="1:13" outlineLevel="1">
+      <c r="N96" s="24"/>
+    </row>
+    <row r="97" spans="1:14" outlineLevel="1">
       <c r="A97">
         <v>5</v>
       </c>
@@ -8019,38 +8117,39 @@
       <c r="C97" s="24">
         <v>6</v>
       </c>
-      <c r="D97" s="49">
+      <c r="D97" s="24"/>
+      <c r="E97" s="49">
         <v>10015</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>216</v>
       </c>
-      <c r="F97" s="24">
+      <c r="G97" s="24">
         <v>7</v>
       </c>
-      <c r="G97" s="24" t="s">
+      <c r="H97" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H97" s="24" t="s">
+      <c r="I97" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I97" s="3">
-        <f>$C$81*$H$81/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J97" s="3">
+        <f>$C$81*$I$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
-      <c r="J97" s="7">
+      <c r="K97" s="7">
         <v>50</v>
       </c>
-      <c r="K97" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>300</v>
-      </c>
-      <c r="L97" s="24">
+      <c r="L97" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>360</v>
+      </c>
+      <c r="M97" s="24">
         <v>4</v>
       </c>
-      <c r="M97" s="24"/>
-    </row>
-    <row r="98" spans="1:13" outlineLevel="1">
+      <c r="N97" s="24"/>
+    </row>
+    <row r="98" spans="1:14" outlineLevel="1">
       <c r="A98">
         <v>5</v>
       </c>
@@ -8060,38 +8159,39 @@
       <c r="C98" s="24">
         <v>5</v>
       </c>
-      <c r="D98" s="49">
+      <c r="D98" s="24"/>
+      <c r="E98" s="49">
         <v>231</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>217</v>
       </c>
-      <c r="F98" s="24">
+      <c r="G98" s="24">
         <v>9</v>
       </c>
-      <c r="G98" s="24" t="s">
+      <c r="H98" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H98" s="24" t="s">
+      <c r="I98" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I98" s="3">
-        <f>$C$81*$H$81/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J98" s="3">
+        <f>$C$81*$I$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
-      <c r="J98" s="7">
+      <c r="K98" s="7">
         <v>55</v>
       </c>
-      <c r="K98" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>275</v>
-      </c>
-      <c r="L98" s="24">
+      <c r="L98" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>330</v>
+      </c>
+      <c r="M98" s="24">
         <v>5</v>
       </c>
-      <c r="M98" s="24"/>
-    </row>
-    <row r="99" spans="1:13" outlineLevel="1">
+      <c r="N98" s="24"/>
+    </row>
+    <row r="99" spans="1:14" outlineLevel="1">
       <c r="A99">
         <v>5</v>
       </c>
@@ -8101,38 +8201,39 @@
       <c r="C99" s="24">
         <v>6</v>
       </c>
-      <c r="D99" s="49">
+      <c r="D99" s="24"/>
+      <c r="E99" s="49">
         <v>166</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>218</v>
       </c>
-      <c r="F99" s="24">
+      <c r="G99" s="24">
         <v>6</v>
       </c>
-      <c r="G99" s="24" t="s">
+      <c r="H99" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H99" s="24" t="s">
+      <c r="I99" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I99" s="3">
-        <f>$C$81*$H$81/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J99" s="3">
+        <f>$C$81*$I$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>30</v>
       </c>
-      <c r="J99" s="7">
+      <c r="K99" s="7">
         <v>45</v>
       </c>
-      <c r="K99" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>270</v>
-      </c>
-      <c r="L99" s="24">
-        <v>2</v>
-      </c>
-      <c r="M99" s="24"/>
-    </row>
-    <row r="100" spans="1:13" outlineLevel="1">
+      <c r="L99" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>324</v>
+      </c>
+      <c r="M99" s="24">
+        <v>2</v>
+      </c>
+      <c r="N99" s="24"/>
+    </row>
+    <row r="100" spans="1:14" outlineLevel="1">
       <c r="A100">
         <v>5</v>
       </c>
@@ -8142,38 +8243,39 @@
       <c r="C100" s="24">
         <v>5</v>
       </c>
-      <c r="D100" s="49">
+      <c r="D100" s="24"/>
+      <c r="E100" s="49">
         <v>10001</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>55</v>
       </c>
-      <c r="F100" s="24">
-        <v>1</v>
-      </c>
-      <c r="G100" s="24" t="s">
+      <c r="G100" s="24">
+        <v>1</v>
+      </c>
+      <c r="H100" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H100" s="24" t="s">
+      <c r="I100" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I100" s="3">
-        <f>$C$81*$H$81/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J100" s="3">
+        <f>$C$81*$I$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>36</v>
       </c>
-      <c r="J100" s="7">
+      <c r="K100" s="7">
         <v>50</v>
       </c>
-      <c r="K100" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>250</v>
-      </c>
-      <c r="L100" s="24">
+      <c r="L100" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>300</v>
+      </c>
+      <c r="M100" s="24">
         <v>3</v>
       </c>
-      <c r="M100" s="24"/>
-    </row>
-    <row r="101" spans="1:13" outlineLevel="1">
+      <c r="N100" s="24"/>
+    </row>
+    <row r="101" spans="1:14" outlineLevel="1">
       <c r="A101">
         <v>5</v>
       </c>
@@ -8183,38 +8285,39 @@
       <c r="C101" s="24">
         <v>3</v>
       </c>
-      <c r="D101" s="49">
+      <c r="D101" s="24"/>
+      <c r="E101" s="49">
         <v>10009</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>219</v>
       </c>
-      <c r="F101" s="24">
+      <c r="G101" s="24">
         <v>5</v>
       </c>
-      <c r="G101" s="24" t="s">
+      <c r="H101" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H101" s="24" t="s">
+      <c r="I101" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I101" s="3">
-        <f>$C$81*$H$81/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J101" s="3">
+        <f>$C$81*$I$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>60</v>
       </c>
-      <c r="J101" s="7">
+      <c r="K101" s="7">
         <v>75</v>
       </c>
-      <c r="K101" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>225</v>
-      </c>
-      <c r="L101" s="24">
+      <c r="L101" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>270</v>
+      </c>
+      <c r="M101" s="24">
         <v>4</v>
       </c>
-      <c r="M101" s="24"/>
-    </row>
-    <row r="102" spans="1:13" outlineLevel="1">
+      <c r="N101" s="24"/>
+    </row>
+    <row r="102" spans="1:14" outlineLevel="1">
       <c r="A102">
         <v>5</v>
       </c>
@@ -8224,38 +8327,39 @@
       <c r="C102" s="24">
         <v>4</v>
       </c>
-      <c r="D102" s="49">
+      <c r="D102" s="24"/>
+      <c r="E102" s="49">
         <v>240</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>220</v>
       </c>
-      <c r="F102" s="24">
-        <v>2</v>
-      </c>
-      <c r="G102" s="24" t="s">
+      <c r="G102" s="24">
+        <v>2</v>
+      </c>
+      <c r="H102" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H102" s="24" t="s">
+      <c r="I102" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I102" s="3">
-        <f>$C$81*$H$81/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J102" s="3">
+        <f>$C$81*$I$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>45</v>
       </c>
-      <c r="J102" s="7">
+      <c r="K102" s="7">
         <v>35</v>
       </c>
-      <c r="K102" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>140</v>
-      </c>
-      <c r="L102" s="24">
+      <c r="L102" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>168</v>
+      </c>
+      <c r="M102" s="24">
         <v>4</v>
       </c>
-      <c r="M102" s="24"/>
-    </row>
-    <row r="103" spans="1:13" outlineLevel="1">
+      <c r="N102" s="24"/>
+    </row>
+    <row r="103" spans="1:14" outlineLevel="1">
       <c r="A103">
         <v>5</v>
       </c>
@@ -8265,38 +8369,39 @@
       <c r="C103" s="24">
         <v>3</v>
       </c>
-      <c r="D103" s="49">
+      <c r="D103" s="24"/>
+      <c r="E103" s="49">
         <v>10016</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>221</v>
       </c>
-      <c r="F103" s="24">
+      <c r="G103" s="24">
         <v>6</v>
       </c>
-      <c r="G103" s="24" t="s">
+      <c r="H103" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H103" s="24" t="s">
+      <c r="I103" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I103" s="3">
-        <f>$C$81*$H$81/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J103" s="3">
+        <f>$C$81*$I$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>60</v>
       </c>
-      <c r="J103" s="7">
+      <c r="K103" s="7">
         <v>50</v>
       </c>
-      <c r="K103" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>150</v>
-      </c>
-      <c r="L103" s="24">
+      <c r="L103" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>180</v>
+      </c>
+      <c r="M103" s="24">
         <v>5</v>
       </c>
-      <c r="M103" s="24"/>
-    </row>
-    <row r="104" spans="1:13" outlineLevel="1">
+      <c r="N103" s="24"/>
+    </row>
+    <row r="104" spans="1:14" outlineLevel="1">
       <c r="A104">
         <v>5</v>
       </c>
@@ -8306,38 +8411,39 @@
       <c r="C104" s="24">
         <v>4</v>
       </c>
-      <c r="D104" s="49">
+      <c r="D104" s="24"/>
+      <c r="E104" s="49">
         <v>181</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>154</v>
       </c>
-      <c r="F104" s="24">
+      <c r="G104" s="24">
         <v>6</v>
       </c>
-      <c r="G104" s="24" t="s">
+      <c r="H104" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H104" s="24" t="s">
+      <c r="I104" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I104" s="3">
-        <f>$C$81*$H$81/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J104" s="3">
+        <f>$C$81*$I$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>45</v>
       </c>
-      <c r="J104" s="7">
+      <c r="K104" s="7">
         <v>30</v>
       </c>
-      <c r="K104" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>120</v>
-      </c>
-      <c r="L104" s="24">
+      <c r="L104" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>144</v>
+      </c>
+      <c r="M104" s="24">
         <v>3</v>
       </c>
-      <c r="M104" s="24"/>
-    </row>
-    <row r="105" spans="1:13" outlineLevel="1">
+      <c r="N104" s="24"/>
+    </row>
+    <row r="105" spans="1:14" outlineLevel="1">
       <c r="A105">
         <v>5</v>
       </c>
@@ -8347,38 +8453,39 @@
       <c r="C105" s="24">
         <v>3</v>
       </c>
-      <c r="D105" s="49">
+      <c r="D105" s="24"/>
+      <c r="E105" s="49">
         <v>229</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>222</v>
       </c>
-      <c r="F105" s="24">
+      <c r="G105" s="24">
         <v>7</v>
       </c>
-      <c r="G105" s="24" t="s">
+      <c r="H105" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H105" s="24" t="s">
+      <c r="I105" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I105" s="3">
-        <f>$C$81*$H$81/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J105" s="3">
+        <f>$C$81*$I$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>60</v>
       </c>
-      <c r="J105" s="7">
+      <c r="K105" s="7">
         <v>35</v>
       </c>
-      <c r="K105" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>105</v>
-      </c>
-      <c r="L105" s="24">
-        <v>2</v>
-      </c>
-      <c r="M105" s="24"/>
-    </row>
-    <row r="106" spans="1:13" outlineLevel="1">
+      <c r="L105" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>126</v>
+      </c>
+      <c r="M105" s="24">
+        <v>2</v>
+      </c>
+      <c r="N105" s="24"/>
+    </row>
+    <row r="106" spans="1:14" outlineLevel="1">
       <c r="A106">
         <v>5</v>
       </c>
@@ -8388,38 +8495,39 @@
       <c r="C106" s="24">
         <v>4</v>
       </c>
-      <c r="D106" s="49">
+      <c r="D106" s="24"/>
+      <c r="E106" s="49">
         <v>10014</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>223</v>
       </c>
-      <c r="F106" s="24" t="s">
+      <c r="G106" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="G106" s="24" t="s">
+      <c r="H106" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H106" s="24" t="s">
+      <c r="I106" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I106" s="3">
-        <f>$C$81*$H$81/Tabelle3[[#This Row],[Spieler]]</f>
+      <c r="J106" s="3">
+        <f>$C$81*$I$81/Tabelle3[[#This Row],[Spieler]]</f>
         <v>45</v>
       </c>
-      <c r="J106" s="7">
+      <c r="K106" s="7">
         <v>30</v>
       </c>
-      <c r="K106" s="7">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>120</v>
-      </c>
-      <c r="L106" s="24">
+      <c r="L106" s="7">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>144</v>
+      </c>
+      <c r="M106" s="24">
         <v>4</v>
       </c>
-      <c r="M106" s="24"/>
-    </row>
-    <row r="107" spans="1:13" ht="18" thickBot="1">
+      <c r="N106" s="24"/>
+    </row>
+    <row r="107" spans="1:14" ht="18" thickBot="1">
       <c r="A107" s="13" t="s">
         <v>515</v>
       </c>
@@ -8429,8 +8537,9 @@
       <c r="C107" s="14">
         <v>30</v>
       </c>
-      <c r="D107" s="46"/>
-      <c r="E107" s="13" t="str">
+      <c r="D107" s="14"/>
+      <c r="E107" s="46"/>
+      <c r="F107" s="13" t="str">
         <f ca="1">COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"3") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"4") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"5") &amp; " / "
@@ -8441,27 +8550,27 @@
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"10")</f>
         <v>0 / 0 / 0 / 0 / 0 / 0 / 0 / 0</v>
       </c>
-      <c r="F107" s="16"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14">
+      <c r="G107" s="16"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14">
         <v>6</v>
       </c>
-      <c r="I107" s="14" t="e">
-        <f>SUM(I108:I132)</f>
+      <c r="J107" s="14" t="e">
+        <f>SUM(J108:J132)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J107" s="17" cm="1">
-        <f t="array" ref="J107">SUM(J108:J132*6)</f>
-        <v>12210</v>
-      </c>
-      <c r="K107" s="17">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>366300</v>
-      </c>
-      <c r="L107" s="14"/>
+      <c r="K107" s="17" cm="1">
+        <f t="array" ref="K107">SUM(K108:K132*6)</f>
+        <v>6168</v>
+      </c>
+      <c r="L107" s="17">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>222048</v>
+      </c>
       <c r="M107" s="14"/>
-    </row>
-    <row r="108" spans="1:13" ht="15.75" outlineLevel="1" thickTop="1">
+      <c r="N107" s="14"/>
+    </row>
+    <row r="108" spans="1:14" ht="15.75" outlineLevel="1" thickTop="1">
       <c r="A108" s="21">
         <v>6</v>
       </c>
@@ -8469,36 +8578,39 @@
         <v>1</v>
       </c>
       <c r="C108" s="27"/>
-      <c r="D108" s="54">
+      <c r="D108" s="27">
+        <v>6</v>
+      </c>
+      <c r="E108" s="54">
         <v>10055</v>
       </c>
-      <c r="E108" s="30" t="s">
+      <c r="F108" s="30" t="s">
         <v>520</v>
       </c>
-      <c r="F108" s="21">
+      <c r="G108" s="21">
         <v>4</v>
       </c>
-      <c r="G108" s="27" t="s">
+      <c r="H108" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H108" s="27" t="s">
+      <c r="I108" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I108" s="3" t="e">
+      <c r="J108" s="3" t="e">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J108" s="7">
-        <v>120</v>
-      </c>
-      <c r="K108" s="29">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="L108" s="27"/>
+      <c r="K108" s="7">
+        <v>44</v>
+      </c>
+      <c r="L108" s="29">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M108" s="27"/>
-    </row>
-    <row r="109" spans="1:13" outlineLevel="1">
+      <c r="N108" s="27"/>
+    </row>
+    <row r="109" spans="1:14" outlineLevel="1">
       <c r="A109" s="21">
         <v>6</v>
       </c>
@@ -8506,36 +8618,39 @@
         <v>2</v>
       </c>
       <c r="C109" s="27"/>
-      <c r="D109" s="54">
+      <c r="D109" s="27">
+        <v>8</v>
+      </c>
+      <c r="E109" s="54">
         <v>10056</v>
       </c>
-      <c r="E109" s="30" t="s">
+      <c r="F109" s="30" t="s">
         <v>521</v>
       </c>
-      <c r="F109" s="21">
+      <c r="G109" s="21">
         <v>10</v>
       </c>
-      <c r="G109" s="27" t="s">
+      <c r="H109" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H109" s="27" t="s">
+      <c r="I109" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I109" s="3" t="e">
+      <c r="J109" s="3" t="e">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J109" s="7">
-        <v>140</v>
-      </c>
-      <c r="K109" s="29">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="L109" s="27"/>
+      <c r="K109" s="7">
+        <v>81</v>
+      </c>
+      <c r="L109" s="29">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M109" s="27"/>
-    </row>
-    <row r="110" spans="1:13" outlineLevel="1">
+      <c r="N109" s="27"/>
+    </row>
+    <row r="110" spans="1:14" outlineLevel="1">
       <c r="A110" s="21">
         <v>6</v>
       </c>
@@ -8543,36 +8658,39 @@
         <v>3</v>
       </c>
       <c r="C110" s="27"/>
-      <c r="D110" s="54">
+      <c r="D110" s="27">
+        <v>15</v>
+      </c>
+      <c r="E110" s="54">
         <v>10057</v>
       </c>
-      <c r="E110" s="30" t="s">
+      <c r="F110" s="30" t="s">
         <v>522</v>
       </c>
-      <c r="F110" s="21">
-        <v>1</v>
-      </c>
-      <c r="G110" s="27" t="s">
+      <c r="G110" s="21">
+        <v>1</v>
+      </c>
+      <c r="H110" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H110" s="27" t="s">
+      <c r="I110" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I110" s="3" t="e">
+      <c r="J110" s="3" t="e">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J110" s="7">
-        <v>110</v>
-      </c>
-      <c r="K110" s="29">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="L110" s="27"/>
+      <c r="K110" s="7">
+        <v>140</v>
+      </c>
+      <c r="L110" s="29">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M110" s="27"/>
-    </row>
-    <row r="111" spans="1:13" outlineLevel="1">
+      <c r="N110" s="27"/>
+    </row>
+    <row r="111" spans="1:14" outlineLevel="1">
       <c r="A111" s="21">
         <v>6</v>
       </c>
@@ -8580,36 +8698,39 @@
         <v>4</v>
       </c>
       <c r="C111" s="39"/>
-      <c r="D111" s="51">
+      <c r="D111" s="27">
+        <v>9</v>
+      </c>
+      <c r="E111" s="51">
         <v>10058</v>
       </c>
-      <c r="E111" s="30" t="s">
+      <c r="F111" s="30" t="s">
         <v>526</v>
       </c>
-      <c r="F111" s="56">
+      <c r="G111" s="56">
         <v>13</v>
       </c>
-      <c r="G111" s="28" t="s">
+      <c r="H111" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H111" s="28" t="s">
+      <c r="I111" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I111" s="3" t="e">
+      <c r="J111" s="3" t="e">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J111" s="25">
-        <v>100</v>
-      </c>
-      <c r="K111" s="29">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="L111" s="27"/>
+      <c r="K111" s="25">
+        <v>127</v>
+      </c>
+      <c r="L111" s="29">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M111" s="27"/>
-    </row>
-    <row r="112" spans="1:13" outlineLevel="1">
+      <c r="N111" s="27"/>
+    </row>
+    <row r="112" spans="1:14" outlineLevel="1">
       <c r="A112" s="21">
         <v>6</v>
       </c>
@@ -8617,34 +8738,33 @@
         <v>5</v>
       </c>
       <c r="C112" s="39"/>
-      <c r="D112" s="51">
+      <c r="D112" s="27"/>
+      <c r="E112" s="51">
         <v>10059</v>
       </c>
-      <c r="E112" s="30" t="s">
+      <c r="F112" s="30" t="s">
         <v>524</v>
       </c>
-      <c r="F112" s="55"/>
-      <c r="G112" s="27" t="s">
+      <c r="G112" s="55"/>
+      <c r="H112" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H112" s="27" t="s">
+      <c r="I112" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I112" s="3" t="e">
+      <c r="J112" s="3" t="e">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J112" s="7">
-        <v>100</v>
-      </c>
-      <c r="K112" s="29">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="L112" s="27"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="29">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M112" s="27"/>
-    </row>
-    <row r="113" spans="1:13" outlineLevel="1">
+      <c r="N112" s="27"/>
+    </row>
+    <row r="113" spans="1:14" outlineLevel="1">
       <c r="A113" s="21">
         <v>6</v>
       </c>
@@ -8652,36 +8772,39 @@
         <v>6</v>
       </c>
       <c r="C113" s="39"/>
-      <c r="D113" s="54">
+      <c r="D113" s="27">
+        <v>10</v>
+      </c>
+      <c r="E113" s="54">
         <v>10053</v>
       </c>
-      <c r="E113" s="30" t="s">
+      <c r="F113" s="30" t="s">
         <v>527</v>
       </c>
-      <c r="F113" s="55">
-        <v>2</v>
-      </c>
-      <c r="G113" s="27" t="s">
+      <c r="G113" s="55">
+        <v>2</v>
+      </c>
+      <c r="H113" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H113" s="27" t="s">
+      <c r="I113" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I113" s="3" t="e">
+      <c r="J113" s="3" t="e">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J113" s="7">
-        <v>120</v>
-      </c>
-      <c r="K113" s="29">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="L113" s="27"/>
+      <c r="K113" s="7">
+        <v>81</v>
+      </c>
+      <c r="L113" s="29">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M113" s="27"/>
-    </row>
-    <row r="114" spans="1:13" outlineLevel="1">
+      <c r="N113" s="27"/>
+    </row>
+    <row r="114" spans="1:14" outlineLevel="1">
       <c r="A114" s="21">
         <v>6</v>
       </c>
@@ -8689,36 +8812,39 @@
         <v>7</v>
       </c>
       <c r="C114" s="40"/>
-      <c r="D114" s="54">
+      <c r="D114" s="27">
+        <v>5</v>
+      </c>
+      <c r="E114" s="54">
         <v>10048</v>
       </c>
-      <c r="E114" s="30" t="s">
+      <c r="F114" s="30" t="s">
         <v>528</v>
       </c>
-      <c r="F114" s="55">
+      <c r="G114" s="55">
         <v>3</v>
       </c>
-      <c r="G114" s="27" t="s">
+      <c r="H114" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H114" s="27" t="s">
+      <c r="I114" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I114" s="3" t="e">
+      <c r="J114" s="3" t="e">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J114" s="7">
-        <v>100</v>
-      </c>
-      <c r="K114" s="29">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="L114" s="27"/>
+      <c r="K114" s="7">
+        <v>39</v>
+      </c>
+      <c r="L114" s="29">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M114" s="27"/>
-    </row>
-    <row r="115" spans="1:13" outlineLevel="1">
+      <c r="N114" s="27"/>
+    </row>
+    <row r="115" spans="1:14" outlineLevel="1">
       <c r="A115" s="21">
         <v>6</v>
       </c>
@@ -8726,36 +8852,39 @@
         <v>8</v>
       </c>
       <c r="C115" s="39"/>
-      <c r="D115" s="54">
+      <c r="D115" s="27">
+        <v>8</v>
+      </c>
+      <c r="E115" s="54">
         <v>10039</v>
       </c>
-      <c r="E115" s="30" t="s">
+      <c r="F115" s="30" t="s">
         <v>529</v>
       </c>
-      <c r="F115" s="55">
+      <c r="G115" s="55">
         <v>9</v>
       </c>
-      <c r="G115" s="27" t="s">
+      <c r="H115" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H115" s="27" t="s">
+      <c r="I115" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I115" s="3" t="e">
+      <c r="J115" s="3" t="e">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J115" s="7">
-        <v>140</v>
-      </c>
-      <c r="K115" s="29">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="L115" s="27"/>
+      <c r="K115" s="7">
+        <v>88</v>
+      </c>
+      <c r="L115" s="29">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M115" s="27"/>
-    </row>
-    <row r="116" spans="1:13" outlineLevel="1">
+      <c r="N115" s="27"/>
+    </row>
+    <row r="116" spans="1:14" outlineLevel="1">
       <c r="A116" s="21">
         <v>6</v>
       </c>
@@ -8763,36 +8892,39 @@
         <v>9</v>
       </c>
       <c r="C116" s="39"/>
-      <c r="D116" s="54">
+      <c r="D116" s="27">
+        <v>5</v>
+      </c>
+      <c r="E116" s="54">
         <v>10043</v>
       </c>
-      <c r="E116" s="30" t="s">
+      <c r="F116" s="30" t="s">
         <v>530</v>
       </c>
-      <c r="F116" s="56">
+      <c r="G116" s="56">
         <v>11</v>
       </c>
-      <c r="G116" s="28" t="s">
+      <c r="H116" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H116" s="28" t="s">
+      <c r="I116" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I116" s="3" t="e">
+      <c r="J116" s="3" t="e">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J116" s="25">
-        <v>90</v>
-      </c>
-      <c r="K116" s="29">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="L116" s="27"/>
+      <c r="K116" s="25">
+        <v>57</v>
+      </c>
+      <c r="L116" s="29">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M116" s="27"/>
-    </row>
-    <row r="117" spans="1:13" outlineLevel="1">
+      <c r="N116" s="27"/>
+    </row>
+    <row r="117" spans="1:14" outlineLevel="1">
       <c r="A117" s="21">
         <v>6</v>
       </c>
@@ -8800,36 +8932,39 @@
         <v>10</v>
       </c>
       <c r="C117" s="39"/>
-      <c r="D117" s="54">
+      <c r="D117" s="27">
+        <v>10</v>
+      </c>
+      <c r="E117" s="54">
         <v>117</v>
       </c>
-      <c r="E117" s="30" t="s">
+      <c r="F117" s="30" t="s">
         <v>531</v>
       </c>
-      <c r="F117" s="55">
+      <c r="G117" s="55">
         <v>12</v>
       </c>
-      <c r="G117" s="27" t="s">
+      <c r="H117" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H117" s="27" t="s">
+      <c r="I117" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I117" s="3" t="e">
+      <c r="J117" s="3" t="e">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J117" s="7">
-        <v>135</v>
-      </c>
-      <c r="K117" s="29">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="L117" s="27"/>
+      <c r="K117" s="7">
+        <v>56</v>
+      </c>
+      <c r="L117" s="29">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M117" s="27"/>
-    </row>
-    <row r="118" spans="1:13" outlineLevel="1">
+      <c r="N117" s="27"/>
+    </row>
+    <row r="118" spans="1:14" outlineLevel="1">
       <c r="A118" s="21">
         <v>6</v>
       </c>
@@ -8837,36 +8972,39 @@
         <v>11</v>
       </c>
       <c r="C118" s="39"/>
-      <c r="D118" s="54">
+      <c r="D118" s="27">
+        <v>5</v>
+      </c>
+      <c r="E118" s="54">
         <v>9</v>
       </c>
-      <c r="E118" s="30" t="s">
+      <c r="F118" s="30" t="s">
         <v>533</v>
       </c>
-      <c r="F118" s="55">
-        <v>1</v>
-      </c>
-      <c r="G118" s="27" t="s">
+      <c r="G118" s="55">
+        <v>1</v>
+      </c>
+      <c r="H118" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H118" s="27" t="s">
+      <c r="I118" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I118" s="3" t="e">
+      <c r="J118" s="3" t="e">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J118" s="7">
-        <v>90</v>
-      </c>
-      <c r="K118" s="29">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="L118" s="27"/>
+      <c r="K118" s="7">
+        <v>19</v>
+      </c>
+      <c r="L118" s="29">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M118" s="27"/>
-    </row>
-    <row r="119" spans="1:13" outlineLevel="1">
+      <c r="N118" s="27"/>
+    </row>
+    <row r="119" spans="1:14" outlineLevel="1">
       <c r="A119" s="21">
         <v>6</v>
       </c>
@@ -8874,36 +9012,39 @@
         <v>12</v>
       </c>
       <c r="C119" s="40"/>
-      <c r="D119" s="54">
+      <c r="D119" s="27">
+        <v>10</v>
+      </c>
+      <c r="E119" s="54">
         <v>37</v>
       </c>
-      <c r="E119" s="30" t="s">
+      <c r="F119" s="30" t="s">
         <v>534</v>
       </c>
-      <c r="F119" s="55">
-        <v>1</v>
-      </c>
-      <c r="G119" s="27" t="s">
+      <c r="G119" s="55">
+        <v>1</v>
+      </c>
+      <c r="H119" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H119" s="27" t="s">
+      <c r="I119" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I119" s="3" t="e">
+      <c r="J119" s="3" t="e">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J119" s="7">
-        <v>115</v>
-      </c>
-      <c r="K119" s="29">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="L119" s="27"/>
+      <c r="K119" s="7">
+        <v>113</v>
+      </c>
+      <c r="L119" s="29">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M119" s="27"/>
-    </row>
-    <row r="120" spans="1:13" outlineLevel="1">
+      <c r="N119" s="27"/>
+    </row>
+    <row r="120" spans="1:14" outlineLevel="1">
       <c r="A120" s="21">
         <v>6</v>
       </c>
@@ -8911,36 +9052,35 @@
         <v>13</v>
       </c>
       <c r="C120" s="39"/>
-      <c r="D120" s="54">
+      <c r="D120" s="27"/>
+      <c r="E120" s="54">
         <v>243</v>
       </c>
-      <c r="E120" s="30" t="s">
+      <c r="F120" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="F120" s="55">
+      <c r="G120" s="55">
         <v>6</v>
       </c>
-      <c r="G120" s="27" t="s">
+      <c r="H120" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H120" s="27" t="s">
+      <c r="I120" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I120" s="3" t="e">
+      <c r="J120" s="3" t="e">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J120" s="7">
-        <v>70</v>
-      </c>
-      <c r="K120" s="29">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="L120" s="27"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="29">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M120" s="27"/>
-    </row>
-    <row r="121" spans="1:13" outlineLevel="1">
+      <c r="N120" s="27"/>
+    </row>
+    <row r="121" spans="1:14" outlineLevel="1">
       <c r="A121" s="21">
         <v>6</v>
       </c>
@@ -8948,36 +9088,35 @@
         <v>14</v>
       </c>
       <c r="C121" s="39"/>
-      <c r="D121" s="54">
+      <c r="D121" s="27"/>
+      <c r="E121" s="54">
         <v>134</v>
       </c>
-      <c r="E121" s="30" t="s">
+      <c r="F121" s="30" t="s">
         <v>536</v>
       </c>
-      <c r="F121" s="55">
+      <c r="G121" s="55">
         <v>10</v>
       </c>
-      <c r="G121" s="27" t="s">
+      <c r="H121" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H121" s="27" t="s">
+      <c r="I121" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I121" s="3" t="e">
+      <c r="J121" s="3" t="e">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J121" s="7">
-        <v>60</v>
-      </c>
-      <c r="K121" s="29">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="L121" s="27"/>
+      <c r="K121" s="7"/>
+      <c r="L121" s="29">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M121" s="27"/>
-    </row>
-    <row r="122" spans="1:13" outlineLevel="1">
+      <c r="N121" s="27"/>
+    </row>
+    <row r="122" spans="1:14" outlineLevel="1">
       <c r="A122" s="21">
         <v>6</v>
       </c>
@@ -8985,36 +9124,35 @@
         <v>15</v>
       </c>
       <c r="C122" s="39"/>
-      <c r="D122" s="54">
+      <c r="D122" s="27"/>
+      <c r="E122" s="54">
         <v>41</v>
       </c>
-      <c r="E122" s="30" t="s">
+      <c r="F122" s="30" t="s">
         <v>537</v>
       </c>
-      <c r="F122" s="55">
+      <c r="G122" s="55">
         <v>6</v>
       </c>
-      <c r="G122" s="27" t="s">
+      <c r="H122" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H122" s="27" t="s">
+      <c r="I122" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I122" s="3" t="e">
+      <c r="J122" s="3" t="e">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J122" s="7">
-        <v>90</v>
-      </c>
-      <c r="K122" s="29">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="L122" s="27"/>
+      <c r="K122" s="7"/>
+      <c r="L122" s="29">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M122" s="27"/>
-    </row>
-    <row r="123" spans="1:13" outlineLevel="1">
+      <c r="N122" s="27"/>
+    </row>
+    <row r="123" spans="1:14" outlineLevel="1">
       <c r="A123" s="21">
         <v>6</v>
       </c>
@@ -9022,36 +9160,39 @@
         <v>16</v>
       </c>
       <c r="C123" s="27"/>
-      <c r="D123" s="54">
+      <c r="D123" s="27">
+        <v>7</v>
+      </c>
+      <c r="E123" s="54">
         <v>27</v>
       </c>
-      <c r="E123" s="30" t="s">
+      <c r="F123" s="30" t="s">
         <v>538</v>
       </c>
-      <c r="F123" s="55">
-        <v>0</v>
-      </c>
-      <c r="G123" s="27" t="s">
+      <c r="G123" s="55">
+        <v>0</v>
+      </c>
+      <c r="H123" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H123" s="27" t="s">
+      <c r="I123" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I123" s="3" t="e">
+      <c r="J123" s="3" t="e">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J123" s="7">
-        <v>50</v>
-      </c>
-      <c r="K123" s="29">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="L123" s="27"/>
+      <c r="K123" s="7">
+        <v>33</v>
+      </c>
+      <c r="L123" s="29">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M123" s="27"/>
-    </row>
-    <row r="124" spans="1:13" outlineLevel="1">
+      <c r="N123" s="27"/>
+    </row>
+    <row r="124" spans="1:14" outlineLevel="1">
       <c r="A124" s="21">
         <v>6</v>
       </c>
@@ -9059,36 +9200,35 @@
         <v>17</v>
       </c>
       <c r="C124" s="27"/>
-      <c r="D124" s="54">
+      <c r="D124" s="27"/>
+      <c r="E124" s="54">
         <v>99</v>
       </c>
-      <c r="E124" s="30" t="s">
+      <c r="F124" s="30" t="s">
         <v>539</v>
       </c>
-      <c r="F124" s="55">
+      <c r="G124" s="55">
         <v>32</v>
       </c>
-      <c r="G124" s="27" t="s">
+      <c r="H124" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H124" s="27" t="s">
+      <c r="I124" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I124" s="3" t="e">
+      <c r="J124" s="3" t="e">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J124" s="7">
-        <v>55</v>
-      </c>
-      <c r="K124" s="29">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="L124" s="27"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="29">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M124" s="27"/>
-    </row>
-    <row r="125" spans="1:13" outlineLevel="1">
+      <c r="N124" s="27"/>
+    </row>
+    <row r="125" spans="1:14" outlineLevel="1">
       <c r="A125" s="21">
         <v>6</v>
       </c>
@@ -9096,36 +9236,35 @@
         <v>18</v>
       </c>
       <c r="C125" s="27"/>
-      <c r="D125" s="54">
+      <c r="D125" s="27"/>
+      <c r="E125" s="54">
         <v>5</v>
       </c>
-      <c r="E125" s="30" t="s">
+      <c r="F125" s="30" t="s">
         <v>542</v>
       </c>
-      <c r="F125" s="55">
+      <c r="G125" s="55">
         <v>8</v>
       </c>
-      <c r="G125" s="27" t="s">
+      <c r="H125" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H125" s="27" t="s">
+      <c r="I125" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I125" s="3" t="e">
+      <c r="J125" s="3" t="e">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J125" s="7">
-        <v>45</v>
-      </c>
-      <c r="K125" s="29">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="L125" s="27"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="29">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M125" s="27"/>
-    </row>
-    <row r="126" spans="1:13" outlineLevel="1">
+      <c r="N125" s="27"/>
+    </row>
+    <row r="126" spans="1:14" outlineLevel="1">
       <c r="A126" s="21">
         <v>6</v>
       </c>
@@ -9133,36 +9272,35 @@
         <v>19</v>
       </c>
       <c r="C126" s="39"/>
-      <c r="D126" s="55">
+      <c r="D126" s="27"/>
+      <c r="E126" s="55">
         <v>18</v>
       </c>
-      <c r="E126" s="30" t="s">
+      <c r="F126" s="30" t="s">
         <v>543</v>
       </c>
-      <c r="F126" s="55">
+      <c r="G126" s="55">
         <v>5</v>
       </c>
-      <c r="G126" s="27" t="s">
+      <c r="H126" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H126" s="27" t="s">
+      <c r="I126" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I126" s="3" t="e">
+      <c r="J126" s="3" t="e">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J126" s="7">
-        <v>50</v>
-      </c>
-      <c r="K126" s="29">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="L126" s="27"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="29">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M126" s="27"/>
-    </row>
-    <row r="127" spans="1:13" outlineLevel="1">
+      <c r="N126" s="27"/>
+    </row>
+    <row r="127" spans="1:14" outlineLevel="1">
       <c r="A127" s="21">
         <v>6</v>
       </c>
@@ -9170,36 +9308,35 @@
         <v>20</v>
       </c>
       <c r="C127" s="38"/>
-      <c r="D127" s="55">
+      <c r="D127" s="27"/>
+      <c r="E127" s="55">
         <v>93</v>
       </c>
-      <c r="E127" s="30" t="s">
+      <c r="F127" s="30" t="s">
         <v>544</v>
       </c>
-      <c r="F127" s="55">
+      <c r="G127" s="55">
         <v>8</v>
       </c>
-      <c r="G127" s="27" t="s">
+      <c r="H127" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H127" s="27" t="s">
+      <c r="I127" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I127" s="3" t="e">
+      <c r="J127" s="3" t="e">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J127" s="7">
-        <v>75</v>
-      </c>
-      <c r="K127" s="29">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="L127" s="27"/>
+      <c r="K127" s="7"/>
+      <c r="L127" s="29">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M127" s="27"/>
-    </row>
-    <row r="128" spans="1:13" outlineLevel="1">
+      <c r="N127" s="27"/>
+    </row>
+    <row r="128" spans="1:14" outlineLevel="1">
       <c r="A128" s="21">
         <v>6</v>
       </c>
@@ -9207,36 +9344,35 @@
         <v>21</v>
       </c>
       <c r="C128" s="38"/>
-      <c r="D128" s="55">
+      <c r="D128" s="27"/>
+      <c r="E128" s="55">
         <v>29</v>
       </c>
-      <c r="E128" s="30" t="s">
+      <c r="F128" s="30" t="s">
         <v>545</v>
       </c>
-      <c r="F128" s="55">
+      <c r="G128" s="55">
         <v>7</v>
       </c>
-      <c r="G128" s="27" t="s">
+      <c r="H128" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H128" s="27" t="s">
+      <c r="I128" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I128" s="3" t="e">
+      <c r="J128" s="3" t="e">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J128" s="7">
-        <v>35</v>
-      </c>
-      <c r="K128" s="29">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="L128" s="27"/>
+      <c r="K128" s="7"/>
+      <c r="L128" s="29">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M128" s="27"/>
-    </row>
-    <row r="129" spans="1:13" outlineLevel="1">
+      <c r="N128" s="27"/>
+    </row>
+    <row r="129" spans="1:14" outlineLevel="1">
       <c r="A129" s="21">
         <v>6</v>
       </c>
@@ -9244,36 +9380,35 @@
         <v>22</v>
       </c>
       <c r="C129" s="38"/>
-      <c r="D129" s="55">
+      <c r="D129" s="27"/>
+      <c r="E129" s="55">
         <v>146</v>
       </c>
-      <c r="E129" s="30" t="s">
+      <c r="F129" s="30" t="s">
         <v>546</v>
       </c>
-      <c r="F129" s="55">
+      <c r="G129" s="55">
         <v>5</v>
       </c>
-      <c r="G129" s="27" t="s">
+      <c r="H129" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H129" s="27" t="s">
+      <c r="I129" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I129" s="3" t="e">
+      <c r="J129" s="3" t="e">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J129" s="7">
-        <v>50</v>
-      </c>
-      <c r="K129" s="29">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="L129" s="27"/>
+      <c r="K129" s="7"/>
+      <c r="L129" s="29">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M129" s="27"/>
-    </row>
-    <row r="130" spans="1:13" outlineLevel="1">
+      <c r="N129" s="27"/>
+    </row>
+    <row r="130" spans="1:14" outlineLevel="1">
       <c r="A130" s="21">
         <v>6</v>
       </c>
@@ -9281,36 +9416,35 @@
         <v>23</v>
       </c>
       <c r="C130" s="27"/>
-      <c r="D130" s="54">
+      <c r="D130" s="27"/>
+      <c r="E130" s="54">
         <v>158</v>
       </c>
-      <c r="E130" s="30" t="s">
+      <c r="F130" s="30" t="s">
         <v>547</v>
       </c>
-      <c r="F130" s="55">
+      <c r="G130" s="55">
         <v>17</v>
       </c>
-      <c r="G130" s="27" t="s">
+      <c r="H130" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H130" s="27" t="s">
+      <c r="I130" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I130" s="3" t="e">
+      <c r="J130" s="3" t="e">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J130" s="7">
-        <v>30</v>
-      </c>
-      <c r="K130" s="29">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="L130" s="27"/>
+      <c r="K130" s="7"/>
+      <c r="L130" s="29">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M130" s="27"/>
-    </row>
-    <row r="131" spans="1:13" outlineLevel="1">
+      <c r="N130" s="27"/>
+    </row>
+    <row r="131" spans="1:14" outlineLevel="1">
       <c r="A131" s="21">
         <v>6</v>
       </c>
@@ -9318,36 +9452,39 @@
         <v>24</v>
       </c>
       <c r="C131" s="27"/>
-      <c r="D131" s="54">
+      <c r="D131" s="27">
+        <v>4</v>
+      </c>
+      <c r="E131" s="54">
         <v>10000</v>
       </c>
-      <c r="E131" s="30" t="s">
+      <c r="F131" s="30" t="s">
         <v>548</v>
       </c>
-      <c r="F131" s="55">
+      <c r="G131" s="55">
         <v>3</v>
       </c>
-      <c r="G131" s="27" t="s">
+      <c r="H131" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H131" s="27" t="s">
+      <c r="I131" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I131" s="3" t="e">
+      <c r="J131" s="3" t="e">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J131" s="7">
-        <v>35</v>
-      </c>
-      <c r="K131" s="29">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="L131" s="27"/>
+      <c r="K131" s="7">
+        <v>20</v>
+      </c>
+      <c r="L131" s="29">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M131" s="27"/>
-    </row>
-    <row r="132" spans="1:13" outlineLevel="1">
+      <c r="N131" s="27"/>
+    </row>
+    <row r="132" spans="1:14" outlineLevel="1">
       <c r="A132" s="21">
         <v>6</v>
       </c>
@@ -9355,34 +9492,37 @@
         <v>25</v>
       </c>
       <c r="C132" s="27"/>
-      <c r="D132" s="54">
+      <c r="D132" s="27">
+        <v>6</v>
+      </c>
+      <c r="E132" s="54">
         <v>10023</v>
       </c>
-      <c r="E132" s="30" t="s">
+      <c r="F132" s="30" t="s">
         <v>549</v>
       </c>
-      <c r="F132" s="55">
+      <c r="G132" s="55">
         <v>5</v>
       </c>
-      <c r="G132" s="27" t="s">
+      <c r="H132" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H132" s="27" t="s">
+      <c r="I132" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I132" s="3" t="e">
+      <c r="J132" s="3" t="e">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J132" s="7">
-        <v>30</v>
-      </c>
-      <c r="K132" s="29">
-        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]</f>
-        <v>0</v>
-      </c>
-      <c r="L132" s="27"/>
+      <c r="K132" s="7">
+        <v>130</v>
+      </c>
+      <c r="L132" s="29">
+        <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M132" s="27"/>
+      <c r="N132" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -9397,8 +9537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M307"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I293" sqref="I293"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F300" sqref="F300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9494,7 +9634,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="21">
-        <f>COUNTIF(Strecken!D:D,H2)</f>
+        <f>COUNTIF(Strecken!E:E,H2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="21"/>
@@ -9536,7 +9676,7 @@
         <v>5</v>
       </c>
       <c r="K3" s="21">
-        <f>COUNTIF(Strecken!D:D,H3)</f>
+        <f>COUNTIF(Strecken!E:E,H3)</f>
         <v>0</v>
       </c>
       <c r="L3" s="21"/>
@@ -9578,7 +9718,7 @@
         <v>5</v>
       </c>
       <c r="K4" s="21">
-        <f>COUNTIF(Strecken!D:D,H4)</f>
+        <f>COUNTIF(Strecken!E:E,H4)</f>
         <v>0</v>
       </c>
       <c r="L4" s="21"/>
@@ -9620,7 +9760,7 @@
         <v>5</v>
       </c>
       <c r="K5" s="21">
-        <f>COUNTIF(Strecken!D:D,H5)</f>
+        <f>COUNTIF(Strecken!E:E,H5)</f>
         <v>0</v>
       </c>
       <c r="L5" s="21"/>
@@ -9662,7 +9802,7 @@
         <v>5</v>
       </c>
       <c r="K6" s="21">
-        <f>COUNTIF(Strecken!D:D,H6)</f>
+        <f>COUNTIF(Strecken!E:E,H6)</f>
         <v>1</v>
       </c>
       <c r="L6" s="21" t="s">
@@ -9709,7 +9849,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="21">
-        <f>COUNTIF(Strecken!D:D,H7)</f>
+        <f>COUNTIF(Strecken!E:E,H7)</f>
         <v>0</v>
       </c>
       <c r="L7" s="21"/>
@@ -9751,7 +9891,7 @@
         <v>5</v>
       </c>
       <c r="K8" s="21">
-        <f>COUNTIF(Strecken!D:D,H8)</f>
+        <f>COUNTIF(Strecken!E:E,H8)</f>
         <v>0</v>
       </c>
       <c r="L8" s="21"/>
@@ -9793,7 +9933,7 @@
         <v>5</v>
       </c>
       <c r="K9" s="21">
-        <f>COUNTIF(Strecken!D:D,H9)</f>
+        <f>COUNTIF(Strecken!E:E,H9)</f>
         <v>0</v>
       </c>
       <c r="L9" s="21"/>
@@ -9835,7 +9975,7 @@
         <v>5</v>
       </c>
       <c r="K10" s="21">
-        <f>COUNTIF(Strecken!D:D,H10)</f>
+        <f>COUNTIF(Strecken!E:E,H10)</f>
         <v>1</v>
       </c>
       <c r="L10" s="21" t="s">
@@ -9882,7 +10022,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="21">
-        <f>COUNTIF(Strecken!D:D,H11)</f>
+        <f>COUNTIF(Strecken!E:E,H11)</f>
         <v>0</v>
       </c>
       <c r="L11" s="21"/>
@@ -9924,7 +10064,7 @@
         <v>4</v>
       </c>
       <c r="K12" s="21">
-        <f>COUNTIF(Strecken!D:D,H12)</f>
+        <f>COUNTIF(Strecken!E:E,H12)</f>
         <v>0</v>
       </c>
       <c r="L12" s="21"/>
@@ -9966,7 +10106,7 @@
         <v>8</v>
       </c>
       <c r="K13" s="21">
-        <f>COUNTIF(Strecken!D:D,H13)</f>
+        <f>COUNTIF(Strecken!E:E,H13)</f>
         <v>0</v>
       </c>
       <c r="L13" s="21" t="s">
@@ -10013,7 +10153,7 @@
         <v>7</v>
       </c>
       <c r="K14" s="21">
-        <f>COUNTIF(Strecken!D:D,H14)</f>
+        <f>COUNTIF(Strecken!E:E,H14)</f>
         <v>0</v>
       </c>
       <c r="L14" s="21" t="s">
@@ -10060,7 +10200,7 @@
         <v>5</v>
       </c>
       <c r="K15" s="21">
-        <f>COUNTIF(Strecken!D:D,H15)</f>
+        <f>COUNTIF(Strecken!E:E,H15)</f>
         <v>0</v>
       </c>
       <c r="L15" s="21"/>
@@ -10102,7 +10242,7 @@
         <v>5</v>
       </c>
       <c r="K16" s="21">
-        <f>COUNTIF(Strecken!D:D,H16)</f>
+        <f>COUNTIF(Strecken!E:E,H16)</f>
         <v>0</v>
       </c>
       <c r="L16" s="21"/>
@@ -10144,7 +10284,7 @@
         <v>8</v>
       </c>
       <c r="K17" s="21">
-        <f>COUNTIF(Strecken!D:D,H17)</f>
+        <f>COUNTIF(Strecken!E:E,H17)</f>
         <v>0</v>
       </c>
       <c r="L17" s="21"/>
@@ -10186,7 +10326,7 @@
         <v>12</v>
       </c>
       <c r="K18">
-        <f>COUNTIF(Strecken!D:D,H18)</f>
+        <f>COUNTIF(Strecken!E:E,H18)</f>
         <v>1</v>
       </c>
     </row>
@@ -10227,7 +10367,7 @@
         <v>4</v>
       </c>
       <c r="K19" s="21">
-        <f>COUNTIF(Strecken!D:D,H19)</f>
+        <f>COUNTIF(Strecken!E:E,H19)</f>
         <v>1</v>
       </c>
       <c r="L19" s="21" t="s">
@@ -10274,7 +10414,7 @@
         <v>4</v>
       </c>
       <c r="K20" s="21">
-        <f>COUNTIF(Strecken!D:D,H20)</f>
+        <f>COUNTIF(Strecken!E:E,H20)</f>
         <v>0</v>
       </c>
       <c r="L20" s="21"/>
@@ -10316,7 +10456,7 @@
         <v>8</v>
       </c>
       <c r="K21" s="21">
-        <f>COUNTIF(Strecken!D:D,H21)</f>
+        <f>COUNTIF(Strecken!E:E,H21)</f>
         <v>0</v>
       </c>
       <c r="L21" s="21"/>
@@ -10358,7 +10498,7 @@
         <v>5</v>
       </c>
       <c r="K22" s="21">
-        <f>COUNTIF(Strecken!D:D,H22)</f>
+        <f>COUNTIF(Strecken!E:E,H22)</f>
         <v>0</v>
       </c>
       <c r="L22" s="21"/>
@@ -10400,7 +10540,7 @@
         <v>6</v>
       </c>
       <c r="K23" s="21">
-        <f>COUNTIF(Strecken!D:D,H23)</f>
+        <f>COUNTIF(Strecken!E:E,H23)</f>
         <v>0</v>
       </c>
       <c r="L23" s="21" t="s">
@@ -10447,7 +10587,7 @@
         <v>48</v>
       </c>
       <c r="K24" s="21">
-        <f>COUNTIF(Strecken!D:D,H24)</f>
+        <f>COUNTIF(Strecken!E:E,H24)</f>
         <v>0</v>
       </c>
       <c r="L24" s="21"/>
@@ -10489,7 +10629,7 @@
         <v>9</v>
       </c>
       <c r="K25" s="21">
-        <f>COUNTIF(Strecken!D:D,H25)</f>
+        <f>COUNTIF(Strecken!E:E,H25)</f>
         <v>0</v>
       </c>
       <c r="L25" s="21"/>
@@ -10531,7 +10671,7 @@
         <v>6</v>
       </c>
       <c r="K26" s="21">
-        <f>COUNTIF(Strecken!D:D,H26)</f>
+        <f>COUNTIF(Strecken!E:E,H26)</f>
         <v>0</v>
       </c>
       <c r="L26" s="21" t="s">
@@ -10578,7 +10718,7 @@
         <v>7</v>
       </c>
       <c r="K27" s="21">
-        <f>COUNTIF(Strecken!D:D,H27)</f>
+        <f>COUNTIF(Strecken!E:E,H27)</f>
         <v>1</v>
       </c>
       <c r="L27" s="21" t="s">
@@ -10625,7 +10765,7 @@
         <v>9</v>
       </c>
       <c r="K28" s="21">
-        <f>COUNTIF(Strecken!D:D,H28)</f>
+        <f>COUNTIF(Strecken!E:E,H28)</f>
         <v>0</v>
       </c>
       <c r="L28" s="21" t="s">
@@ -10672,7 +10812,7 @@
         <v>4</v>
       </c>
       <c r="K29" s="21">
-        <f>COUNTIF(Strecken!D:D,H29)</f>
+        <f>COUNTIF(Strecken!E:E,H29)</f>
         <v>1</v>
       </c>
       <c r="L29" s="21" t="s">
@@ -10719,7 +10859,7 @@
         <v>5</v>
       </c>
       <c r="K30">
-        <f>COUNTIF(Strecken!D:D,H30)</f>
+        <f>COUNTIF(Strecken!E:E,H30)</f>
         <v>1</v>
       </c>
     </row>
@@ -10760,7 +10900,7 @@
         <v>20</v>
       </c>
       <c r="K31">
-        <f>COUNTIF(Strecken!D:D,H31)</f>
+        <f>COUNTIF(Strecken!E:E,H31)</f>
         <v>1</v>
       </c>
     </row>
@@ -10801,7 +10941,7 @@
         <v>21</v>
       </c>
       <c r="K32" s="21">
-        <f>COUNTIF(Strecken!D:D,H32)</f>
+        <f>COUNTIF(Strecken!E:E,H32)</f>
         <v>0</v>
       </c>
       <c r="L32" s="21" t="s">
@@ -10889,7 +11029,7 @@
         <v>10</v>
       </c>
       <c r="K34" s="21">
-        <f>COUNTIF(Strecken!D:D,H34)</f>
+        <f>COUNTIF(Strecken!E:E,H34)</f>
         <v>1</v>
       </c>
       <c r="L34" s="21" t="s">
@@ -10936,7 +11076,7 @@
         <v>8</v>
       </c>
       <c r="K35">
-        <f>COUNTIF(Strecken!D:D,H35)</f>
+        <f>COUNTIF(Strecken!E:E,H35)</f>
         <v>1</v>
       </c>
     </row>
@@ -10977,7 +11117,7 @@
         <v>15</v>
       </c>
       <c r="K36" s="21">
-        <f>COUNTIF(Strecken!D:D,H36)</f>
+        <f>COUNTIF(Strecken!E:E,H36)</f>
         <v>0</v>
       </c>
       <c r="L36" s="21"/>
@@ -11019,7 +11159,7 @@
         <v>6</v>
       </c>
       <c r="K37" s="21">
-        <f>COUNTIF(Strecken!D:D,H37)</f>
+        <f>COUNTIF(Strecken!E:E,H37)</f>
         <v>1</v>
       </c>
       <c r="L37" s="21" t="s">
@@ -11066,7 +11206,7 @@
         <v>7</v>
       </c>
       <c r="K38" s="21">
-        <f>COUNTIF(Strecken!D:D,H38)</f>
+        <f>COUNTIF(Strecken!E:E,H38)</f>
         <v>0</v>
       </c>
       <c r="L38" s="21"/>
@@ -11108,7 +11248,7 @@
         <v>10</v>
       </c>
       <c r="K39" s="21">
-        <f>COUNTIF(Strecken!D:D,H39)</f>
+        <f>COUNTIF(Strecken!E:E,H39)</f>
         <v>0</v>
       </c>
       <c r="L39" s="21"/>
@@ -11150,7 +11290,7 @@
         <v>10</v>
       </c>
       <c r="K40" s="21">
-        <f>COUNTIF(Strecken!D:D,H40)</f>
+        <f>COUNTIF(Strecken!E:E,H40)</f>
         <v>0</v>
       </c>
       <c r="L40" s="21" t="s">
@@ -11197,7 +11337,7 @@
         <v>12</v>
       </c>
       <c r="K41">
-        <f>COUNTIF(Strecken!D:D,H41)</f>
+        <f>COUNTIF(Strecken!E:E,H41)</f>
         <v>1</v>
       </c>
     </row>
@@ -11238,7 +11378,7 @@
         <v>10</v>
       </c>
       <c r="K42" s="21">
-        <f>COUNTIF(Strecken!D:D,H42)</f>
+        <f>COUNTIF(Strecken!E:E,H42)</f>
         <v>0</v>
       </c>
       <c r="L42" s="21"/>
@@ -11280,7 +11420,7 @@
         <v>4</v>
       </c>
       <c r="K43" s="21">
-        <f>COUNTIF(Strecken!D:D,H43)</f>
+        <f>COUNTIF(Strecken!E:E,H43)</f>
         <v>0</v>
       </c>
       <c r="L43" s="21"/>
@@ -11322,7 +11462,7 @@
         <v>7</v>
       </c>
       <c r="K44" s="21">
-        <f>COUNTIF(Strecken!D:D,H44)</f>
+        <f>COUNTIF(Strecken!E:E,H44)</f>
         <v>0</v>
       </c>
       <c r="L44" s="21" t="s">
@@ -11369,7 +11509,7 @@
         <v>4</v>
       </c>
       <c r="K45" s="21">
-        <f>COUNTIF(Strecken!D:D,H45)</f>
+        <f>COUNTIF(Strecken!E:E,H45)</f>
         <v>0</v>
       </c>
       <c r="L45" s="21"/>
@@ -11411,7 +11551,7 @@
         <v>12</v>
       </c>
       <c r="K46" s="21">
-        <f>COUNTIF(Strecken!D:D,H46)</f>
+        <f>COUNTIF(Strecken!E:E,H46)</f>
         <v>0</v>
       </c>
       <c r="L46" s="21"/>
@@ -11453,7 +11593,7 @@
         <v>8</v>
       </c>
       <c r="K47" s="21">
-        <f>COUNTIF(Strecken!D:D,H47)</f>
+        <f>COUNTIF(Strecken!E:E,H47)</f>
         <v>0</v>
       </c>
       <c r="L47" s="21"/>
@@ -11495,7 +11635,7 @@
         <v>27</v>
       </c>
       <c r="K48" s="21">
-        <f>COUNTIF(Strecken!D:D,H48)</f>
+        <f>COUNTIF(Strecken!E:E,H48)</f>
         <v>0</v>
       </c>
       <c r="L48" s="21"/>
@@ -11537,7 +11677,7 @@
         <v>6</v>
       </c>
       <c r="K49" s="21">
-        <f>COUNTIF(Strecken!D:D,H49)</f>
+        <f>COUNTIF(Strecken!E:E,H49)</f>
         <v>0</v>
       </c>
       <c r="L49" s="21"/>
@@ -11579,7 +11719,7 @@
         <v>11</v>
       </c>
       <c r="K50" s="21">
-        <f>COUNTIF(Strecken!D:D,H50)</f>
+        <f>COUNTIF(Strecken!E:E,H50)</f>
         <v>0</v>
       </c>
       <c r="L50" s="21"/>
@@ -11621,7 +11761,7 @@
         <v>6</v>
       </c>
       <c r="K51" s="21">
-        <f>COUNTIF(Strecken!D:D,H51)</f>
+        <f>COUNTIF(Strecken!E:E,H51)</f>
         <v>0</v>
       </c>
       <c r="L51" s="21"/>
@@ -11663,7 +11803,7 @@
         <v>8</v>
       </c>
       <c r="K52">
-        <f>COUNTIF(Strecken!D:D,H52)</f>
+        <f>COUNTIF(Strecken!E:E,H52)</f>
         <v>1</v>
       </c>
     </row>
@@ -11704,7 +11844,7 @@
         <v>8</v>
       </c>
       <c r="K53">
-        <f>COUNTIF(Strecken!D:D,H53)</f>
+        <f>COUNTIF(Strecken!E:E,H53)</f>
         <v>1</v>
       </c>
     </row>
@@ -11745,7 +11885,7 @@
         <v>8</v>
       </c>
       <c r="K54">
-        <f>COUNTIF(Strecken!D:D,H54)</f>
+        <f>COUNTIF(Strecken!E:E,H54)</f>
         <v>1</v>
       </c>
     </row>
@@ -11786,7 +11926,7 @@
         <v>8</v>
       </c>
       <c r="K55">
-        <f>COUNTIF(Strecken!D:D,H55)</f>
+        <f>COUNTIF(Strecken!E:E,H55)</f>
         <v>1</v>
       </c>
     </row>
@@ -11827,7 +11967,7 @@
         <v>8</v>
       </c>
       <c r="K56">
-        <f>COUNTIF(Strecken!D:D,H56)</f>
+        <f>COUNTIF(Strecken!E:E,H56)</f>
         <v>1</v>
       </c>
     </row>
@@ -11868,7 +12008,7 @@
         <v>8</v>
       </c>
       <c r="K57">
-        <f>COUNTIF(Strecken!D:D,H57)</f>
+        <f>COUNTIF(Strecken!E:E,H57)</f>
         <v>1</v>
       </c>
     </row>
@@ -11909,7 +12049,7 @@
         <v>8</v>
       </c>
       <c r="K58">
-        <f>COUNTIF(Strecken!D:D,H58)</f>
+        <f>COUNTIF(Strecken!E:E,H58)</f>
         <v>1</v>
       </c>
     </row>
@@ -11950,7 +12090,7 @@
         <v>8</v>
       </c>
       <c r="K59">
-        <f>COUNTIF(Strecken!D:D,H59)</f>
+        <f>COUNTIF(Strecken!E:E,H59)</f>
         <v>1</v>
       </c>
     </row>
@@ -11991,7 +12131,7 @@
         <v>8</v>
       </c>
       <c r="K60">
-        <f>COUNTIF(Strecken!D:D,H60)</f>
+        <f>COUNTIF(Strecken!E:E,H60)</f>
         <v>1</v>
       </c>
     </row>
@@ -12032,7 +12172,7 @@
         <v>8</v>
       </c>
       <c r="K61">
-        <f>COUNTIF(Strecken!D:D,H61)</f>
+        <f>COUNTIF(Strecken!E:E,H61)</f>
         <v>1</v>
       </c>
     </row>
@@ -12073,7 +12213,7 @@
         <v>8</v>
       </c>
       <c r="K62">
-        <f>COUNTIF(Strecken!D:D,H62)</f>
+        <f>COUNTIF(Strecken!E:E,H62)</f>
         <v>1</v>
       </c>
     </row>
@@ -12114,7 +12254,7 @@
         <v>8</v>
       </c>
       <c r="K63">
-        <f>COUNTIF(Strecken!D:D,H63)</f>
+        <f>COUNTIF(Strecken!E:E,H63)</f>
         <v>1</v>
       </c>
     </row>
@@ -12155,7 +12295,7 @@
         <v>8</v>
       </c>
       <c r="K64">
-        <f>COUNTIF(Strecken!D:D,H64)</f>
+        <f>COUNTIF(Strecken!E:E,H64)</f>
         <v>1</v>
       </c>
     </row>
@@ -12196,7 +12336,7 @@
         <v>8</v>
       </c>
       <c r="K65">
-        <f>COUNTIF(Strecken!D:D,H65)</f>
+        <f>COUNTIF(Strecken!E:E,H65)</f>
         <v>1</v>
       </c>
     </row>
@@ -12237,7 +12377,7 @@
         <v>8</v>
       </c>
       <c r="K66">
-        <f>COUNTIF(Strecken!D:D,H66)</f>
+        <f>COUNTIF(Strecken!E:E,H66)</f>
         <v>1</v>
       </c>
     </row>
@@ -12278,7 +12418,7 @@
         <v>8</v>
       </c>
       <c r="K67">
-        <f>COUNTIF(Strecken!D:D,H67)</f>
+        <f>COUNTIF(Strecken!E:E,H67)</f>
         <v>1</v>
       </c>
     </row>
@@ -12319,7 +12459,7 @@
         <v>8</v>
       </c>
       <c r="K68">
-        <f>COUNTIF(Strecken!D:D,H68)</f>
+        <f>COUNTIF(Strecken!E:E,H68)</f>
         <v>1</v>
       </c>
     </row>
@@ -12360,7 +12500,7 @@
         <v>8</v>
       </c>
       <c r="K69">
-        <f>COUNTIF(Strecken!D:D,H69)</f>
+        <f>COUNTIF(Strecken!E:E,H69)</f>
         <v>1</v>
       </c>
     </row>
@@ -12401,7 +12541,7 @@
         <v>8</v>
       </c>
       <c r="K70">
-        <f>COUNTIF(Strecken!D:D,H70)</f>
+        <f>COUNTIF(Strecken!E:E,H70)</f>
         <v>1</v>
       </c>
     </row>
@@ -12442,7 +12582,7 @@
         <v>8</v>
       </c>
       <c r="K71">
-        <f>COUNTIF(Strecken!D:D,H71)</f>
+        <f>COUNTIF(Strecken!E:E,H71)</f>
         <v>1</v>
       </c>
     </row>
@@ -12483,7 +12623,7 @@
         <v>8</v>
       </c>
       <c r="K72" s="21">
-        <f>COUNTIF(Strecken!D:D,H72)</f>
+        <f>COUNTIF(Strecken!E:E,H72)</f>
         <v>0</v>
       </c>
       <c r="L72" s="21"/>
@@ -12525,7 +12665,7 @@
         <v>13</v>
       </c>
       <c r="K73">
-        <f>COUNTIF(Strecken!D:D,H73)</f>
+        <f>COUNTIF(Strecken!E:E,H73)</f>
         <v>1</v>
       </c>
     </row>
@@ -12566,7 +12706,7 @@
         <v>4</v>
       </c>
       <c r="K74" s="21">
-        <f>COUNTIF(Strecken!D:D,H74)</f>
+        <f>COUNTIF(Strecken!E:E,H74)</f>
         <v>0</v>
       </c>
       <c r="L74" s="21"/>
@@ -12608,7 +12748,7 @@
         <v>4</v>
       </c>
       <c r="K75" s="21">
-        <f>COUNTIF(Strecken!D:D,H75)</f>
+        <f>COUNTIF(Strecken!E:E,H75)</f>
         <v>0</v>
       </c>
       <c r="L75" s="21"/>
@@ -12650,7 +12790,7 @@
         <v>4</v>
       </c>
       <c r="K76" s="21">
-        <f>COUNTIF(Strecken!D:D,H76)</f>
+        <f>COUNTIF(Strecken!E:E,H76)</f>
         <v>0</v>
       </c>
       <c r="L76" s="21"/>
@@ -12733,7 +12873,7 @@
         <v>9</v>
       </c>
       <c r="K78" s="21">
-        <f>COUNTIF(Strecken!D:D,H78)</f>
+        <f>COUNTIF(Strecken!E:E,H78)</f>
         <v>0</v>
       </c>
       <c r="L78" s="21" t="s">
@@ -12780,7 +12920,7 @@
         <v>9</v>
       </c>
       <c r="K79" s="21">
-        <f>COUNTIF(Strecken!D:D,H79)</f>
+        <f>COUNTIF(Strecken!E:E,H79)</f>
         <v>0</v>
       </c>
       <c r="L79" s="21"/>
@@ -12822,7 +12962,7 @@
         <v>8</v>
       </c>
       <c r="K80" s="21">
-        <f>COUNTIF(Strecken!D:D,H80)</f>
+        <f>COUNTIF(Strecken!E:E,H80)</f>
         <v>0</v>
       </c>
       <c r="L80" s="21"/>
@@ -12864,7 +13004,7 @@
         <v>6</v>
       </c>
       <c r="K81" s="21">
-        <f>COUNTIF(Strecken!D:D,H81)</f>
+        <f>COUNTIF(Strecken!E:E,H81)</f>
         <v>0</v>
       </c>
       <c r="L81" s="21"/>
@@ -12906,7 +13046,7 @@
         <v>14</v>
       </c>
       <c r="K82">
-        <f>COUNTIF(Strecken!D:D,H82)</f>
+        <f>COUNTIF(Strecken!E:E,H82)</f>
         <v>1</v>
       </c>
     </row>
@@ -12947,7 +13087,7 @@
         <v>6</v>
       </c>
       <c r="K83" s="21">
-        <f>COUNTIF(Strecken!D:D,H83)</f>
+        <f>COUNTIF(Strecken!E:E,H83)</f>
         <v>1</v>
       </c>
       <c r="L83" s="21" t="s">
@@ -12994,7 +13134,7 @@
         <v>6</v>
       </c>
       <c r="K84">
-        <f>COUNTIF(Strecken!D:D,H84)</f>
+        <f>COUNTIF(Strecken!E:E,H84)</f>
         <v>1</v>
       </c>
     </row>
@@ -13035,7 +13175,7 @@
         <v>16</v>
       </c>
       <c r="K85" s="21">
-        <f>COUNTIF(Strecken!D:D,H85)</f>
+        <f>COUNTIF(Strecken!E:E,H85)</f>
         <v>0</v>
       </c>
       <c r="L85" s="21"/>
@@ -13077,7 +13217,7 @@
         <v>12</v>
       </c>
       <c r="K86">
-        <f>COUNTIF(Strecken!D:D,H86)</f>
+        <f>COUNTIF(Strecken!E:E,H86)</f>
         <v>1</v>
       </c>
     </row>
@@ -13118,7 +13258,7 @@
         <v>10</v>
       </c>
       <c r="K87" s="21">
-        <f>COUNTIF(Strecken!D:D,H87)</f>
+        <f>COUNTIF(Strecken!E:E,H87)</f>
         <v>0</v>
       </c>
       <c r="L87" s="21"/>
@@ -13160,7 +13300,7 @@
         <v>6</v>
       </c>
       <c r="K88" s="21">
-        <f>COUNTIF(Strecken!D:D,H88)</f>
+        <f>COUNTIF(Strecken!E:E,H88)</f>
         <v>0</v>
       </c>
       <c r="L88" s="21"/>
@@ -13202,7 +13342,7 @@
         <v>9</v>
       </c>
       <c r="K89" s="21">
-        <f>COUNTIF(Strecken!D:D,H89)</f>
+        <f>COUNTIF(Strecken!E:E,H89)</f>
         <v>1</v>
       </c>
       <c r="L89" s="21" t="s">
@@ -13249,7 +13389,7 @@
         <v>8</v>
       </c>
       <c r="K90" s="21">
-        <f>COUNTIF(Strecken!D:D,H90)</f>
+        <f>COUNTIF(Strecken!E:E,H90)</f>
         <v>0</v>
       </c>
       <c r="L90" s="21"/>
@@ -13291,7 +13431,7 @@
         <v>9</v>
       </c>
       <c r="K91">
-        <f>COUNTIF(Strecken!D:D,H91)</f>
+        <f>COUNTIF(Strecken!E:E,H91)</f>
         <v>1</v>
       </c>
     </row>
@@ -13332,7 +13472,7 @@
         <v>7</v>
       </c>
       <c r="K92" s="21">
-        <f>COUNTIF(Strecken!D:D,H92)</f>
+        <f>COUNTIF(Strecken!E:E,H92)</f>
         <v>0</v>
       </c>
       <c r="L92" s="21"/>
@@ -13374,7 +13514,7 @@
         <v>8</v>
       </c>
       <c r="K93" s="21">
-        <f>COUNTIF(Strecken!D:D,H93)</f>
+        <f>COUNTIF(Strecken!E:E,H93)</f>
         <v>0</v>
       </c>
       <c r="L93" s="21"/>
@@ -13416,7 +13556,7 @@
         <v>1</v>
       </c>
       <c r="K94" s="21">
-        <f>COUNTIF(Strecken!D:D,H94)</f>
+        <f>COUNTIF(Strecken!E:E,H94)</f>
         <v>0</v>
       </c>
       <c r="L94" s="21"/>
@@ -13458,7 +13598,7 @@
         <v>10</v>
       </c>
       <c r="K95" s="21">
-        <f>COUNTIF(Strecken!D:D,H95)</f>
+        <f>COUNTIF(Strecken!E:E,H95)</f>
         <v>0</v>
       </c>
       <c r="L95" s="21"/>
@@ -13500,7 +13640,7 @@
         <v>10</v>
       </c>
       <c r="K96">
-        <f>COUNTIF(Strecken!D:D,H96)</f>
+        <f>COUNTIF(Strecken!E:E,H96)</f>
         <v>1</v>
       </c>
     </row>
@@ -13541,7 +13681,7 @@
         <v>6</v>
       </c>
       <c r="K97">
-        <f>COUNTIF(Strecken!D:D,H97)</f>
+        <f>COUNTIF(Strecken!E:E,H97)</f>
         <v>1</v>
       </c>
     </row>
@@ -13582,7 +13722,7 @@
         <v>3</v>
       </c>
       <c r="K98" s="21">
-        <f>COUNTIF(Strecken!D:D,H98)</f>
+        <f>COUNTIF(Strecken!E:E,H98)</f>
         <v>0</v>
       </c>
       <c r="L98" s="21"/>
@@ -13624,7 +13764,7 @@
         <v>8</v>
       </c>
       <c r="K99">
-        <f>COUNTIF(Strecken!D:D,H99)</f>
+        <f>COUNTIF(Strecken!E:E,H99)</f>
         <v>1</v>
       </c>
     </row>
@@ -13665,7 +13805,7 @@
         <v>10</v>
       </c>
       <c r="K100" s="21">
-        <f>COUNTIF(Strecken!D:D,H100)</f>
+        <f>COUNTIF(Strecken!E:E,H100)</f>
         <v>0</v>
       </c>
       <c r="L100" s="21"/>
@@ -13707,7 +13847,7 @@
         <v>6</v>
       </c>
       <c r="K101">
-        <f>COUNTIF(Strecken!D:D,H101)</f>
+        <f>COUNTIF(Strecken!E:E,H101)</f>
         <v>1</v>
       </c>
     </row>
@@ -13748,7 +13888,7 @@
         <v>8</v>
       </c>
       <c r="K102">
-        <f>COUNTIF(Strecken!D:D,H102)</f>
+        <f>COUNTIF(Strecken!E:E,H102)</f>
         <v>1</v>
       </c>
     </row>
@@ -13789,7 +13929,7 @@
         <v>10</v>
       </c>
       <c r="K103" s="21">
-        <f>COUNTIF(Strecken!D:D,H103)</f>
+        <f>COUNTIF(Strecken!E:E,H103)</f>
         <v>1</v>
       </c>
       <c r="L103" s="21" t="s">
@@ -13836,7 +13976,7 @@
         <v>8</v>
       </c>
       <c r="K104" s="21">
-        <f>COUNTIF(Strecken!D:D,H104)</f>
+        <f>COUNTIF(Strecken!E:E,H104)</f>
         <v>0</v>
       </c>
       <c r="L104" s="21" t="s">
@@ -13883,7 +14023,7 @@
         <v>5</v>
       </c>
       <c r="K105" s="21">
-        <f>COUNTIF(Strecken!D:D,H105)</f>
+        <f>COUNTIF(Strecken!E:E,H105)</f>
         <v>0</v>
       </c>
       <c r="L105" s="21"/>
@@ -13966,7 +14106,7 @@
         <v>4</v>
       </c>
       <c r="K107" s="21">
-        <f>COUNTIF(Strecken!D:D,H107)</f>
+        <f>COUNTIF(Strecken!E:E,H107)</f>
         <v>0</v>
       </c>
       <c r="L107" s="21"/>
@@ -14008,7 +14148,7 @@
         <v>5</v>
       </c>
       <c r="K108">
-        <f>COUNTIF(Strecken!D:D,H108)</f>
+        <f>COUNTIF(Strecken!E:E,H108)</f>
         <v>1</v>
       </c>
     </row>
@@ -14049,7 +14189,7 @@
         <v>6</v>
       </c>
       <c r="K109">
-        <f>COUNTIF(Strecken!D:D,H109)</f>
+        <f>COUNTIF(Strecken!E:E,H109)</f>
         <v>1</v>
       </c>
     </row>
@@ -14090,7 +14230,7 @@
         <v>12</v>
       </c>
       <c r="K110">
-        <f>COUNTIF(Strecken!D:D,H110)</f>
+        <f>COUNTIF(Strecken!E:E,H110)</f>
         <v>1</v>
       </c>
     </row>
@@ -14131,7 +14271,7 @@
         <v>12</v>
       </c>
       <c r="K111">
-        <f>COUNTIF(Strecken!D:D,H111)</f>
+        <f>COUNTIF(Strecken!E:E,H111)</f>
         <v>1</v>
       </c>
     </row>
@@ -14172,7 +14312,7 @@
         <v>10</v>
       </c>
       <c r="K112" s="21">
-        <f>COUNTIF(Strecken!D:D,H112)</f>
+        <f>COUNTIF(Strecken!E:E,H112)</f>
         <v>0</v>
       </c>
       <c r="L112" s="21" t="s">
@@ -14219,7 +14359,7 @@
         <v>28</v>
       </c>
       <c r="K113">
-        <f>COUNTIF(Strecken!D:D,H113)</f>
+        <f>COUNTIF(Strecken!E:E,H113)</f>
         <v>1</v>
       </c>
     </row>
@@ -14260,7 +14400,7 @@
         <v>8</v>
       </c>
       <c r="K114">
-        <f>COUNTIF(Strecken!D:D,H114)</f>
+        <f>COUNTIF(Strecken!E:E,H114)</f>
         <v>1</v>
       </c>
     </row>
@@ -14301,7 +14441,7 @@
         <v>6</v>
       </c>
       <c r="K115" s="21">
-        <f>COUNTIF(Strecken!D:D,H115)</f>
+        <f>COUNTIF(Strecken!E:E,H115)</f>
         <v>0</v>
       </c>
       <c r="L115" s="21"/>
@@ -14343,7 +14483,7 @@
         <v>9</v>
       </c>
       <c r="K116" s="21">
-        <f>COUNTIF(Strecken!D:D,H116)</f>
+        <f>COUNTIF(Strecken!E:E,H116)</f>
         <v>0</v>
       </c>
       <c r="L116" s="21"/>
@@ -14385,7 +14525,7 @@
         <v>6</v>
       </c>
       <c r="K117" s="21">
-        <f>COUNTIF(Strecken!D:D,H117)</f>
+        <f>COUNTIF(Strecken!E:E,H117)</f>
         <v>0</v>
       </c>
       <c r="L117" s="21"/>
@@ -14427,7 +14567,7 @@
         <v>16</v>
       </c>
       <c r="K118" s="21">
-        <f>COUNTIF(Strecken!D:D,H118)</f>
+        <f>COUNTIF(Strecken!E:E,H118)</f>
         <v>0</v>
       </c>
       <c r="L118" s="21"/>
@@ -14469,7 +14609,7 @@
         <v>13</v>
       </c>
       <c r="K119" s="21">
-        <f>COUNTIF(Strecken!D:D,H119)</f>
+        <f>COUNTIF(Strecken!E:E,H119)</f>
         <v>0</v>
       </c>
       <c r="L119" s="21"/>
@@ -14511,7 +14651,7 @@
         <v>6</v>
       </c>
       <c r="K120" s="21">
-        <f>COUNTIF(Strecken!D:D,H120)</f>
+        <f>COUNTIF(Strecken!E:E,H120)</f>
         <v>1</v>
       </c>
       <c r="L120" s="21" t="s">
@@ -14558,7 +14698,7 @@
         <v>8</v>
       </c>
       <c r="K121">
-        <f>COUNTIF(Strecken!D:D,H121)</f>
+        <f>COUNTIF(Strecken!E:E,H121)</f>
         <v>1</v>
       </c>
     </row>
@@ -14599,7 +14739,7 @@
         <v>5</v>
       </c>
       <c r="K122" s="21">
-        <f>COUNTIF(Strecken!D:D,H122)</f>
+        <f>COUNTIF(Strecken!E:E,H122)</f>
         <v>0</v>
       </c>
       <c r="L122" s="21"/>
@@ -14641,7 +14781,7 @@
         <v>5</v>
       </c>
       <c r="K123" s="21">
-        <f>COUNTIF(Strecken!D:D,H123)</f>
+        <f>COUNTIF(Strecken!E:E,H123)</f>
         <v>0</v>
       </c>
       <c r="L123" s="21"/>
@@ -14683,7 +14823,7 @@
         <v>8</v>
       </c>
       <c r="K124">
-        <f>COUNTIF(Strecken!D:D,H124)</f>
+        <f>COUNTIF(Strecken!E:E,H124)</f>
         <v>1</v>
       </c>
     </row>
@@ -14724,7 +14864,7 @@
         <v>15</v>
       </c>
       <c r="K125" s="21">
-        <f>COUNTIF(Strecken!D:D,H125)</f>
+        <f>COUNTIF(Strecken!E:E,H125)</f>
         <v>0</v>
       </c>
       <c r="L125" s="21"/>
@@ -14766,7 +14906,7 @@
         <v>4</v>
       </c>
       <c r="K126" s="21">
-        <f>COUNTIF(Strecken!D:D,H126)</f>
+        <f>COUNTIF(Strecken!E:E,H126)</f>
         <v>0</v>
       </c>
       <c r="L126" s="21"/>
@@ -14808,7 +14948,7 @@
         <v>6</v>
       </c>
       <c r="K127" s="21">
-        <f>COUNTIF(Strecken!D:D,H127)</f>
+        <f>COUNTIF(Strecken!E:E,H127)</f>
         <v>0</v>
       </c>
       <c r="L127" s="21"/>
@@ -14850,7 +14990,7 @@
         <v>26</v>
       </c>
       <c r="K128" s="21">
-        <f>COUNTIF(Strecken!D:D,H128)</f>
+        <f>COUNTIF(Strecken!E:E,H128)</f>
         <v>0</v>
       </c>
       <c r="L128" s="21"/>
@@ -14892,7 +15032,7 @@
         <v>10</v>
       </c>
       <c r="K129">
-        <f>COUNTIF(Strecken!D:D,H129)</f>
+        <f>COUNTIF(Strecken!E:E,H129)</f>
         <v>1</v>
       </c>
     </row>
@@ -14933,7 +15073,7 @@
         <v>175</v>
       </c>
       <c r="K130" s="21">
-        <f>COUNTIF(Strecken!D:D,H130)</f>
+        <f>COUNTIF(Strecken!E:E,H130)</f>
         <v>0</v>
       </c>
       <c r="L130" s="21"/>
@@ -14975,7 +15115,7 @@
         <v>10</v>
       </c>
       <c r="K131" s="21">
-        <f>COUNTIF(Strecken!D:D,H131)</f>
+        <f>COUNTIF(Strecken!E:E,H131)</f>
         <v>1</v>
       </c>
       <c r="L131" s="21" t="s">
@@ -15022,7 +15162,7 @@
         <v>5</v>
       </c>
       <c r="K132" s="21">
-        <f>COUNTIF(Strecken!D:D,H132)</f>
+        <f>COUNTIF(Strecken!E:E,H132)</f>
         <v>0</v>
       </c>
       <c r="L132" s="21"/>
@@ -15064,7 +15204,7 @@
         <v>6</v>
       </c>
       <c r="K133">
-        <f>COUNTIF(Strecken!D:D,H133)</f>
+        <f>COUNTIF(Strecken!E:E,H133)</f>
         <v>1</v>
       </c>
     </row>
@@ -15105,7 +15245,7 @@
         <v>14</v>
       </c>
       <c r="K134" s="21">
-        <f>COUNTIF(Strecken!D:D,H134)</f>
+        <f>COUNTIF(Strecken!E:E,H134)</f>
         <v>0</v>
       </c>
       <c r="L134" s="21"/>
@@ -15147,7 +15287,7 @@
         <v>2</v>
       </c>
       <c r="K135" s="21">
-        <f>COUNTIF(Strecken!D:D,H135)</f>
+        <f>COUNTIF(Strecken!E:E,H135)</f>
         <v>0</v>
       </c>
       <c r="L135" s="21"/>
@@ -15189,7 +15329,7 @@
         <v>20</v>
       </c>
       <c r="K136" s="21">
-        <f>COUNTIF(Strecken!D:D,H136)</f>
+        <f>COUNTIF(Strecken!E:E,H136)</f>
         <v>0</v>
       </c>
       <c r="L136" s="21"/>
@@ -15231,7 +15371,7 @@
         <v>10</v>
       </c>
       <c r="K137" s="21">
-        <f>COUNTIF(Strecken!D:D,H137)</f>
+        <f>COUNTIF(Strecken!E:E,H137)</f>
         <v>0</v>
       </c>
       <c r="L137" s="21"/>
@@ -15273,7 +15413,7 @@
         <v>10</v>
       </c>
       <c r="K138" s="21">
-        <f>COUNTIF(Strecken!D:D,H138)</f>
+        <f>COUNTIF(Strecken!E:E,H138)</f>
         <v>0</v>
       </c>
       <c r="L138" s="21"/>
@@ -15315,7 +15455,7 @@
         <v>8</v>
       </c>
       <c r="K139">
-        <f>COUNTIF(Strecken!D:D,H139)</f>
+        <f>COUNTIF(Strecken!E:E,H139)</f>
         <v>1</v>
       </c>
     </row>
@@ -15356,7 +15496,7 @@
         <v>9</v>
       </c>
       <c r="K140">
-        <f>COUNTIF(Strecken!D:D,H140)</f>
+        <f>COUNTIF(Strecken!E:E,H140)</f>
         <v>1</v>
       </c>
     </row>
@@ -15397,7 +15537,7 @@
         <v>9</v>
       </c>
       <c r="K141" s="21">
-        <f>COUNTIF(Strecken!D:D,H141)</f>
+        <f>COUNTIF(Strecken!E:E,H141)</f>
         <v>0</v>
       </c>
       <c r="L141" s="21"/>
@@ -15439,7 +15579,7 @@
         <v>7</v>
       </c>
       <c r="K142">
-        <f>COUNTIF(Strecken!D:D,H142)</f>
+        <f>COUNTIF(Strecken!E:E,H142)</f>
         <v>1</v>
       </c>
     </row>
@@ -15480,7 +15620,7 @@
         <v>11</v>
       </c>
       <c r="K143" s="21">
-        <f>COUNTIF(Strecken!D:D,H143)</f>
+        <f>COUNTIF(Strecken!E:E,H143)</f>
         <v>1</v>
       </c>
       <c r="L143" s="21" t="s">
@@ -15527,7 +15667,7 @@
         <v>4</v>
       </c>
       <c r="K144" s="21">
-        <f>COUNTIF(Strecken!D:D,H144)</f>
+        <f>COUNTIF(Strecken!E:E,H144)</f>
         <v>0</v>
       </c>
       <c r="L144" s="21"/>
@@ -15569,7 +15709,7 @@
         <v>10</v>
       </c>
       <c r="K145" s="21">
-        <f>COUNTIF(Strecken!D:D,H145)</f>
+        <f>COUNTIF(Strecken!E:E,H145)</f>
         <v>0</v>
       </c>
       <c r="L145" s="21"/>
@@ -15611,7 +15751,7 @@
         <v>4</v>
       </c>
       <c r="K146" s="21">
-        <f>COUNTIF(Strecken!D:D,H146)</f>
+        <f>COUNTIF(Strecken!E:E,H146)</f>
         <v>0</v>
       </c>
       <c r="L146" s="21"/>
@@ -15653,7 +15793,7 @@
         <v>4</v>
       </c>
       <c r="K147" s="21">
-        <f>COUNTIF(Strecken!D:D,H147)</f>
+        <f>COUNTIF(Strecken!E:E,H147)</f>
         <v>0</v>
       </c>
       <c r="L147" s="21"/>
@@ -15695,7 +15835,7 @@
         <v>16</v>
       </c>
       <c r="K148" s="21">
-        <f>COUNTIF(Strecken!D:D,H148)</f>
+        <f>COUNTIF(Strecken!E:E,H148)</f>
         <v>0</v>
       </c>
       <c r="L148" s="21"/>
@@ -15737,7 +15877,7 @@
         <v>10</v>
       </c>
       <c r="K149">
-        <f>COUNTIF(Strecken!D:D,H149)</f>
+        <f>COUNTIF(Strecken!E:E,H149)</f>
         <v>1</v>
       </c>
     </row>
@@ -15778,7 +15918,7 @@
         <v>2</v>
       </c>
       <c r="K150" s="21">
-        <f>COUNTIF(Strecken!D:D,H150)</f>
+        <f>COUNTIF(Strecken!E:E,H150)</f>
         <v>0</v>
       </c>
       <c r="L150" s="21"/>
@@ -15820,7 +15960,7 @@
         <v>12</v>
       </c>
       <c r="K151">
-        <f>COUNTIF(Strecken!D:D,H151)</f>
+        <f>COUNTIF(Strecken!E:E,H151)</f>
         <v>1</v>
       </c>
     </row>
@@ -15861,7 +16001,7 @@
         <v>8</v>
       </c>
       <c r="K152" s="21">
-        <f>COUNTIF(Strecken!D:D,H152)</f>
+        <f>COUNTIF(Strecken!E:E,H152)</f>
         <v>0</v>
       </c>
       <c r="L152" s="21"/>
@@ -15903,7 +16043,7 @@
         <v>3</v>
       </c>
       <c r="K153" s="21">
-        <f>COUNTIF(Strecken!D:D,H153)</f>
+        <f>COUNTIF(Strecken!E:E,H153)</f>
         <v>0</v>
       </c>
       <c r="L153" s="21"/>
@@ -15945,7 +16085,7 @@
         <v>8</v>
       </c>
       <c r="K154">
-        <f>COUNTIF(Strecken!D:D,H154)</f>
+        <f>COUNTIF(Strecken!E:E,H154)</f>
         <v>1</v>
       </c>
     </row>
@@ -15986,7 +16126,7 @@
         <v>6</v>
       </c>
       <c r="K155" s="21">
-        <f>COUNTIF(Strecken!D:D,H155)</f>
+        <f>COUNTIF(Strecken!E:E,H155)</f>
         <v>0</v>
       </c>
       <c r="L155" s="21"/>
@@ -16028,7 +16168,7 @@
         <v>6</v>
       </c>
       <c r="K156">
-        <f>COUNTIF(Strecken!D:D,H156)</f>
+        <f>COUNTIF(Strecken!E:E,H156)</f>
         <v>1</v>
       </c>
     </row>
@@ -16069,7 +16209,7 @@
         <v>9</v>
       </c>
       <c r="K157" s="21">
-        <f>COUNTIF(Strecken!D:D,H157)</f>
+        <f>COUNTIF(Strecken!E:E,H157)</f>
         <v>0</v>
       </c>
       <c r="L157" s="21"/>
@@ -16111,7 +16251,7 @@
         <v>10</v>
       </c>
       <c r="K158">
-        <f>COUNTIF(Strecken!D:D,H158)</f>
+        <f>COUNTIF(Strecken!E:E,H158)</f>
         <v>1</v>
       </c>
     </row>
@@ -16152,7 +16292,7 @@
         <v>8</v>
       </c>
       <c r="K159">
-        <f>COUNTIF(Strecken!D:D,H159)</f>
+        <f>COUNTIF(Strecken!E:E,H159)</f>
         <v>1</v>
       </c>
     </row>
@@ -16193,7 +16333,7 @@
         <v>13</v>
       </c>
       <c r="K160">
-        <f>COUNTIF(Strecken!D:D,H160)</f>
+        <f>COUNTIF(Strecken!E:E,H160)</f>
         <v>1</v>
       </c>
     </row>
@@ -16234,7 +16374,7 @@
         <v>4</v>
       </c>
       <c r="K161" s="21">
-        <f>COUNTIF(Strecken!D:D,H161)</f>
+        <f>COUNTIF(Strecken!E:E,H161)</f>
         <v>0</v>
       </c>
       <c r="L161" s="21" t="s">
@@ -16281,7 +16421,7 @@
         <v>6</v>
       </c>
       <c r="K162" s="21">
-        <f>COUNTIF(Strecken!D:D,H162)</f>
+        <f>COUNTIF(Strecken!E:E,H162)</f>
         <v>0</v>
       </c>
       <c r="L162" s="21"/>
@@ -16323,7 +16463,7 @@
         <v>8</v>
       </c>
       <c r="K163" s="21">
-        <f>COUNTIF(Strecken!D:D,H163)</f>
+        <f>COUNTIF(Strecken!E:E,H163)</f>
         <v>0</v>
       </c>
       <c r="L163" s="21"/>
@@ -16365,7 +16505,7 @@
         <v>8</v>
       </c>
       <c r="K164" s="21">
-        <f>COUNTIF(Strecken!D:D,H164)</f>
+        <f>COUNTIF(Strecken!E:E,H164)</f>
         <v>0</v>
       </c>
       <c r="L164" s="21" t="s">
@@ -16412,7 +16552,7 @@
         <v>8</v>
       </c>
       <c r="K165">
-        <f>COUNTIF(Strecken!D:D,H165)</f>
+        <f>COUNTIF(Strecken!E:E,H165)</f>
         <v>2</v>
       </c>
     </row>
@@ -16453,7 +16593,7 @@
         <v>12</v>
       </c>
       <c r="K166">
-        <f>COUNTIF(Strecken!D:D,H166)</f>
+        <f>COUNTIF(Strecken!E:E,H166)</f>
         <v>1</v>
       </c>
     </row>
@@ -16494,7 +16634,7 @@
         <v>8</v>
       </c>
       <c r="K167" s="21">
-        <f>COUNTIF(Strecken!D:D,H167)</f>
+        <f>COUNTIF(Strecken!E:E,H167)</f>
         <v>0</v>
       </c>
       <c r="L167" s="21"/>
@@ -16536,7 +16676,7 @@
         <v>10</v>
       </c>
       <c r="K168" s="21">
-        <f>COUNTIF(Strecken!D:D,H168)</f>
+        <f>COUNTIF(Strecken!E:E,H168)</f>
         <v>0</v>
       </c>
       <c r="L168" s="21"/>
@@ -16578,7 +16718,7 @@
         <v>12</v>
       </c>
       <c r="K169" s="21">
-        <f>COUNTIF(Strecken!D:D,H169)</f>
+        <f>COUNTIF(Strecken!E:E,H169)</f>
         <v>0</v>
       </c>
       <c r="L169" s="21"/>
@@ -16620,7 +16760,7 @@
         <v>7</v>
       </c>
       <c r="K170">
-        <f>COUNTIF(Strecken!D:D,H170)</f>
+        <f>COUNTIF(Strecken!E:E,H170)</f>
         <v>1</v>
       </c>
     </row>
@@ -16661,7 +16801,7 @@
         <v>10</v>
       </c>
       <c r="K171">
-        <f>COUNTIF(Strecken!D:D,H171)</f>
+        <f>COUNTIF(Strecken!E:E,H171)</f>
         <v>2</v>
       </c>
     </row>
@@ -16702,7 +16842,7 @@
         <v>5</v>
       </c>
       <c r="K172" s="21">
-        <f>COUNTIF(Strecken!D:D,H172)</f>
+        <f>COUNTIF(Strecken!E:E,H172)</f>
         <v>0</v>
       </c>
       <c r="L172" s="21"/>
@@ -16744,7 +16884,7 @@
         <v>24</v>
       </c>
       <c r="K173">
-        <f>COUNTIF(Strecken!D:D,H173)</f>
+        <f>COUNTIF(Strecken!E:E,H173)</f>
         <v>1</v>
       </c>
     </row>
@@ -16785,7 +16925,7 @@
         <v>6</v>
       </c>
       <c r="K174">
-        <f>COUNTIF(Strecken!D:D,H174)</f>
+        <f>COUNTIF(Strecken!E:E,H174)</f>
         <v>1</v>
       </c>
     </row>
@@ -16826,7 +16966,7 @@
         <v>4</v>
       </c>
       <c r="K175" s="21">
-        <f>COUNTIF(Strecken!D:D,H175)</f>
+        <f>COUNTIF(Strecken!E:E,H175)</f>
         <v>0</v>
       </c>
       <c r="L175" s="21"/>
@@ -16868,7 +17008,7 @@
         <v>6</v>
       </c>
       <c r="K176">
-        <f>COUNTIF(Strecken!D:D,H176)</f>
+        <f>COUNTIF(Strecken!E:E,H176)</f>
         <v>1</v>
       </c>
     </row>
@@ -16909,7 +17049,7 @@
         <v>5</v>
       </c>
       <c r="K177" s="21">
-        <f>COUNTIF(Strecken!D:D,H177)</f>
+        <f>COUNTIF(Strecken!E:E,H177)</f>
         <v>0</v>
       </c>
       <c r="L177" s="21"/>
@@ -16951,7 +17091,7 @@
         <v>6</v>
       </c>
       <c r="K178">
-        <f>COUNTIF(Strecken!D:D,H178)</f>
+        <f>COUNTIF(Strecken!E:E,H178)</f>
         <v>1</v>
       </c>
     </row>
@@ -16992,7 +17132,7 @@
         <v>5</v>
       </c>
       <c r="K179" s="21">
-        <f>COUNTIF(Strecken!D:D,H179)</f>
+        <f>COUNTIF(Strecken!E:E,H179)</f>
         <v>0</v>
       </c>
       <c r="L179" s="21"/>
@@ -17034,7 +17174,7 @@
         <v>8</v>
       </c>
       <c r="K180">
-        <f>COUNTIF(Strecken!D:D,H180)</f>
+        <f>COUNTIF(Strecken!E:E,H180)</f>
         <v>1</v>
       </c>
     </row>
@@ -17075,7 +17215,7 @@
         <v>6</v>
       </c>
       <c r="K181">
-        <f>COUNTIF(Strecken!D:D,H181)</f>
+        <f>COUNTIF(Strecken!E:E,H181)</f>
         <v>1</v>
       </c>
     </row>
@@ -17116,7 +17256,7 @@
         <v>8</v>
       </c>
       <c r="K182">
-        <f>COUNTIF(Strecken!D:D,H182)</f>
+        <f>COUNTIF(Strecken!E:E,H182)</f>
         <v>1</v>
       </c>
     </row>
@@ -17157,7 +17297,7 @@
         <v>3</v>
       </c>
       <c r="K183" s="21">
-        <f>COUNTIF(Strecken!D:D,H183)</f>
+        <f>COUNTIF(Strecken!E:E,H183)</f>
         <v>0</v>
       </c>
       <c r="L183" s="21"/>
@@ -17199,7 +17339,7 @@
         <v>8</v>
       </c>
       <c r="K184" s="21">
-        <f>COUNTIF(Strecken!D:D,H184)</f>
+        <f>COUNTIF(Strecken!E:E,H184)</f>
         <v>0</v>
       </c>
       <c r="L184" s="21"/>
@@ -17282,7 +17422,7 @@
         <v>12</v>
       </c>
       <c r="K186">
-        <f>COUNTIF(Strecken!D:D,H186)</f>
+        <f>COUNTIF(Strecken!E:E,H186)</f>
         <v>1</v>
       </c>
     </row>
@@ -17323,7 +17463,7 @@
         <v>6</v>
       </c>
       <c r="K187">
-        <f>COUNTIF(Strecken!D:D,H187)</f>
+        <f>COUNTIF(Strecken!E:E,H187)</f>
         <v>1</v>
       </c>
     </row>
@@ -17364,7 +17504,7 @@
         <v>9</v>
       </c>
       <c r="K188">
-        <f>COUNTIF(Strecken!D:D,H188)</f>
+        <f>COUNTIF(Strecken!E:E,H188)</f>
         <v>1</v>
       </c>
     </row>
@@ -17405,7 +17545,7 @@
         <v>8</v>
       </c>
       <c r="K189">
-        <f>COUNTIF(Strecken!D:D,H189)</f>
+        <f>COUNTIF(Strecken!E:E,H189)</f>
         <v>1</v>
       </c>
     </row>
@@ -17446,7 +17586,7 @@
         <v>8</v>
       </c>
       <c r="K190">
-        <f>COUNTIF(Strecken!D:D,H190)</f>
+        <f>COUNTIF(Strecken!E:E,H190)</f>
         <v>1</v>
       </c>
     </row>
@@ -17487,7 +17627,7 @@
         <v>8</v>
       </c>
       <c r="K191">
-        <f>COUNTIF(Strecken!D:D,H191)</f>
+        <f>COUNTIF(Strecken!E:E,H191)</f>
         <v>1</v>
       </c>
     </row>
@@ -17528,7 +17668,7 @@
         <v>10</v>
       </c>
       <c r="K192">
-        <f>COUNTIF(Strecken!D:D,H192)</f>
+        <f>COUNTIF(Strecken!E:E,H192)</f>
         <v>1</v>
       </c>
     </row>
@@ -17569,7 +17709,7 @@
         <v>8</v>
       </c>
       <c r="K193" s="21">
-        <f>COUNTIF(Strecken!D:D,H193)</f>
+        <f>COUNTIF(Strecken!E:E,H193)</f>
         <v>0</v>
       </c>
       <c r="L193" s="21"/>
@@ -17611,7 +17751,7 @@
         <v>8</v>
       </c>
       <c r="K194" s="21">
-        <f>COUNTIF(Strecken!D:D,H194)</f>
+        <f>COUNTIF(Strecken!E:E,H194)</f>
         <v>0</v>
       </c>
       <c r="L194" s="21"/>
@@ -17653,7 +17793,7 @@
         <v>5</v>
       </c>
       <c r="K195" s="21">
-        <f>COUNTIF(Strecken!D:D,H195)</f>
+        <f>COUNTIF(Strecken!E:E,H195)</f>
         <v>0</v>
       </c>
       <c r="L195" s="21"/>
@@ -17695,7 +17835,7 @@
         <v>8</v>
       </c>
       <c r="K196" s="21">
-        <f>COUNTIF(Strecken!D:D,H196)</f>
+        <f>COUNTIF(Strecken!E:E,H196)</f>
         <v>0</v>
       </c>
       <c r="L196" s="21"/>
@@ -17737,7 +17877,7 @@
         <v>3</v>
       </c>
       <c r="K197" s="21">
-        <f>COUNTIF(Strecken!D:D,H197)</f>
+        <f>COUNTIF(Strecken!E:E,H197)</f>
         <v>0</v>
       </c>
       <c r="L197" s="21"/>
@@ -17779,7 +17919,7 @@
         <v>6</v>
       </c>
       <c r="K198">
-        <f>COUNTIF(Strecken!D:D,H198)</f>
+        <f>COUNTIF(Strecken!E:E,H198)</f>
         <v>1</v>
       </c>
     </row>
@@ -17820,7 +17960,7 @@
         <v>4</v>
       </c>
       <c r="K199" s="21">
-        <f>COUNTIF(Strecken!D:D,H199)</f>
+        <f>COUNTIF(Strecken!E:E,H199)</f>
         <v>0</v>
       </c>
       <c r="L199" s="21"/>
@@ -17862,7 +18002,7 @@
         <v>4</v>
       </c>
       <c r="K200">
-        <f>COUNTIF(Strecken!D:D,H200)</f>
+        <f>COUNTIF(Strecken!E:E,H200)</f>
         <v>1</v>
       </c>
     </row>
@@ -17903,7 +18043,7 @@
         <v>3</v>
       </c>
       <c r="K201" s="21">
-        <f>COUNTIF(Strecken!D:D,H201)</f>
+        <f>COUNTIF(Strecken!E:E,H201)</f>
         <v>0</v>
       </c>
       <c r="L201" s="21"/>
@@ -17986,7 +18126,7 @@
         <v>10</v>
       </c>
       <c r="K203" s="21">
-        <f>COUNTIF(Strecken!D:D,H203)</f>
+        <f>COUNTIF(Strecken!E:E,H203)</f>
         <v>0</v>
       </c>
       <c r="L203" s="21"/>
@@ -18028,7 +18168,7 @@
         <v>10</v>
       </c>
       <c r="K204">
-        <f>COUNTIF(Strecken!D:D,H204)</f>
+        <f>COUNTIF(Strecken!E:E,H204)</f>
         <v>1</v>
       </c>
     </row>
@@ -18069,7 +18209,7 @@
         <v>4</v>
       </c>
       <c r="K205" s="21">
-        <f>COUNTIF(Strecken!D:D,H205)</f>
+        <f>COUNTIF(Strecken!E:E,H205)</f>
         <v>0</v>
       </c>
       <c r="L205" s="21"/>
@@ -18111,7 +18251,7 @@
         <v>14</v>
       </c>
       <c r="K206">
-        <f>COUNTIF(Strecken!D:D,H206)</f>
+        <f>COUNTIF(Strecken!E:E,H206)</f>
         <v>1</v>
       </c>
     </row>
@@ -18152,7 +18292,7 @@
         <v>3</v>
       </c>
       <c r="K207" s="21">
-        <f>COUNTIF(Strecken!D:D,H207)</f>
+        <f>COUNTIF(Strecken!E:E,H207)</f>
         <v>0</v>
       </c>
       <c r="L207" s="21"/>
@@ -18194,7 +18334,7 @@
         <v>8</v>
       </c>
       <c r="K208">
-        <f>COUNTIF(Strecken!D:D,H208)</f>
+        <f>COUNTIF(Strecken!E:E,H208)</f>
         <v>1</v>
       </c>
     </row>
@@ -18276,7 +18416,7 @@
         <v>18</v>
       </c>
       <c r="K210">
-        <f>COUNTIF(Strecken!D:D,H210)</f>
+        <f>COUNTIF(Strecken!E:E,H210)</f>
         <v>1</v>
       </c>
     </row>
@@ -18317,7 +18457,7 @@
         <v>7</v>
       </c>
       <c r="K211">
-        <f>COUNTIF(Strecken!D:D,H211)</f>
+        <f>COUNTIF(Strecken!E:E,H211)</f>
         <v>1</v>
       </c>
     </row>
@@ -18358,7 +18498,7 @@
         <v>4</v>
       </c>
       <c r="K212">
-        <f>COUNTIF(Strecken!D:D,H212)</f>
+        <f>COUNTIF(Strecken!E:E,H212)</f>
         <v>1</v>
       </c>
     </row>
@@ -18399,7 +18539,7 @@
         <v>6</v>
       </c>
       <c r="K213">
-        <f>COUNTIF(Strecken!D:D,H213)</f>
+        <f>COUNTIF(Strecken!E:E,H213)</f>
         <v>1</v>
       </c>
     </row>
@@ -18440,7 +18580,7 @@
         <v>6</v>
       </c>
       <c r="K214">
-        <f>COUNTIF(Strecken!D:D,H214)</f>
+        <f>COUNTIF(Strecken!E:E,H214)</f>
         <v>1</v>
       </c>
     </row>
@@ -18481,7 +18621,7 @@
         <v>5</v>
       </c>
       <c r="K215" s="21">
-        <f>COUNTIF(Strecken!D:D,H215)</f>
+        <f>COUNTIF(Strecken!E:E,H215)</f>
         <v>0</v>
       </c>
       <c r="L215" s="21"/>
@@ -18564,7 +18704,7 @@
         <v>6</v>
       </c>
       <c r="K217">
-        <f>COUNTIF(Strecken!D:D,H217)</f>
+        <f>COUNTIF(Strecken!E:E,H217)</f>
         <v>1</v>
       </c>
     </row>
@@ -18605,7 +18745,7 @@
         <v>10</v>
       </c>
       <c r="K218" s="21">
-        <f>COUNTIF(Strecken!D:D,H218)</f>
+        <f>COUNTIF(Strecken!E:E,H218)</f>
         <v>0</v>
       </c>
       <c r="L218" s="21"/>
@@ -18647,7 +18787,7 @@
         <v>5</v>
       </c>
       <c r="K219">
-        <f>COUNTIF(Strecken!D:D,H219)</f>
+        <f>COUNTIF(Strecken!E:E,H219)</f>
         <v>1</v>
       </c>
     </row>
@@ -18688,7 +18828,7 @@
         <v>8</v>
       </c>
       <c r="K220">
-        <f>COUNTIF(Strecken!D:D,H220)</f>
+        <f>COUNTIF(Strecken!E:E,H220)</f>
         <v>1</v>
       </c>
     </row>
@@ -18729,7 +18869,7 @@
         <v>10</v>
       </c>
       <c r="K221">
-        <f>COUNTIF(Strecken!D:D,H221)</f>
+        <f>COUNTIF(Strecken!E:E,H221)</f>
         <v>1</v>
       </c>
     </row>
@@ -18770,7 +18910,7 @@
         <v>5</v>
       </c>
       <c r="K222" s="21">
-        <f>COUNTIF(Strecken!D:D,H222)</f>
+        <f>COUNTIF(Strecken!E:E,H222)</f>
         <v>0</v>
       </c>
       <c r="L222" s="21"/>
@@ -18812,7 +18952,7 @@
         <v>32</v>
       </c>
       <c r="K223">
-        <f>COUNTIF(Strecken!D:D,H223)</f>
+        <f>COUNTIF(Strecken!E:E,H223)</f>
         <v>1</v>
       </c>
     </row>
@@ -18853,7 +18993,7 @@
         <v>8</v>
       </c>
       <c r="K224">
-        <f>COUNTIF(Strecken!D:D,H224)</f>
+        <f>COUNTIF(Strecken!E:E,H224)</f>
         <v>1</v>
       </c>
     </row>
@@ -18894,7 +19034,7 @@
         <v>6</v>
       </c>
       <c r="K225">
-        <f>COUNTIF(Strecken!D:D,H225)</f>
+        <f>COUNTIF(Strecken!E:E,H225)</f>
         <v>1</v>
       </c>
     </row>
@@ -18935,7 +19075,7 @@
         <v>11</v>
       </c>
       <c r="K226" s="21">
-        <f>COUNTIF(Strecken!D:D,H226)</f>
+        <f>COUNTIF(Strecken!E:E,H226)</f>
         <v>1</v>
       </c>
       <c r="L226" s="21" t="s">
@@ -19310,7 +19450,7 @@
         <v>4</v>
       </c>
       <c r="K235" s="21">
-        <f>COUNTIF(Strecken!D:D,H235)</f>
+        <f>COUNTIF(Strecken!E:E,H235)</f>
         <v>1</v>
       </c>
       <c r="L235" s="21" t="s">
@@ -19357,7 +19497,7 @@
         <v>6</v>
       </c>
       <c r="K236">
-        <f>COUNTIF(Strecken!D:D,H236)</f>
+        <f>COUNTIF(Strecken!E:E,H236)</f>
         <v>1</v>
       </c>
     </row>
@@ -19439,7 +19579,7 @@
         <v>5</v>
       </c>
       <c r="K238" s="21">
-        <f>COUNTIF(Strecken!D:D,H238)</f>
+        <f>COUNTIF(Strecken!E:E,H238)</f>
         <v>0</v>
       </c>
       <c r="L238" s="21"/>
@@ -19481,7 +19621,7 @@
         <v>8</v>
       </c>
       <c r="K239" s="21">
-        <f>COUNTIF(Strecken!D:D,H239)</f>
+        <f>COUNTIF(Strecken!E:E,H239)</f>
         <v>0</v>
       </c>
       <c r="L239" s="21"/>
@@ -19523,7 +19663,7 @@
         <v>4</v>
       </c>
       <c r="K240" s="21">
-        <f>COUNTIF(Strecken!D:D,H240)</f>
+        <f>COUNTIF(Strecken!E:E,H240)</f>
         <v>0</v>
       </c>
       <c r="L240" s="21" t="s">
@@ -19570,7 +19710,7 @@
         <v>8</v>
       </c>
       <c r="K241">
-        <f>COUNTIF(Strecken!D:D,H241)</f>
+        <f>COUNTIF(Strecken!E:E,H241)</f>
         <v>1</v>
       </c>
     </row>
@@ -19611,7 +19751,7 @@
         <v>7</v>
       </c>
       <c r="K242" s="21">
-        <f>COUNTIF(Strecken!D:D,H242)</f>
+        <f>COUNTIF(Strecken!E:E,H242)</f>
         <v>0</v>
       </c>
       <c r="L242" s="21"/>
@@ -19653,7 +19793,7 @@
         <v>9</v>
       </c>
       <c r="K243">
-        <f>COUNTIF(Strecken!D:D,H243)</f>
+        <f>COUNTIF(Strecken!E:E,H243)</f>
         <v>1</v>
       </c>
     </row>
@@ -19694,7 +19834,7 @@
         <v>4</v>
       </c>
       <c r="K244">
-        <f>COUNTIF(Strecken!D:D,H244)</f>
+        <f>COUNTIF(Strecken!E:E,H244)</f>
         <v>1</v>
       </c>
     </row>
@@ -19735,7 +19875,7 @@
         <v>4</v>
       </c>
       <c r="K245" s="21">
-        <f>COUNTIF(Strecken!D:D,H245)</f>
+        <f>COUNTIF(Strecken!E:E,H245)</f>
         <v>0</v>
       </c>
       <c r="L245" s="21" t="s">
@@ -19782,7 +19922,7 @@
         <v>10</v>
       </c>
       <c r="K246" s="21">
-        <f>COUNTIF(Strecken!D:D,H246)</f>
+        <f>COUNTIF(Strecken!E:E,H246)</f>
         <v>0</v>
       </c>
       <c r="L246" s="21"/>
@@ -19824,7 +19964,7 @@
         <v>12</v>
       </c>
       <c r="K247" s="21">
-        <f>COUNTIF(Strecken!D:D,H247)</f>
+        <f>COUNTIF(Strecken!E:E,H247)</f>
         <v>0</v>
       </c>
       <c r="L247" s="21"/>
@@ -19907,7 +20047,7 @@
         <v>12</v>
       </c>
       <c r="K249">
-        <f>COUNTIF(Strecken!D:D,H249)</f>
+        <f>COUNTIF(Strecken!E:E,H249)</f>
         <v>1</v>
       </c>
     </row>
@@ -19948,7 +20088,7 @@
         <v>10</v>
       </c>
       <c r="K250">
-        <f>COUNTIF(Strecken!D:D,H250)</f>
+        <f>COUNTIF(Strecken!E:E,H250)</f>
         <v>1</v>
       </c>
     </row>
@@ -19989,7 +20129,7 @@
         <v>4</v>
       </c>
       <c r="K251">
-        <f>COUNTIF(Strecken!D:D,H251)</f>
+        <f>COUNTIF(Strecken!E:E,H251)</f>
         <v>1</v>
       </c>
     </row>
@@ -20030,7 +20170,7 @@
         <v>6</v>
       </c>
       <c r="K252" s="21">
-        <f>COUNTIF(Strecken!D:D,H252)</f>
+        <f>COUNTIF(Strecken!E:E,H252)</f>
         <v>0</v>
       </c>
       <c r="L252" s="21" t="s">
@@ -20077,7 +20217,7 @@
         <v>6</v>
       </c>
       <c r="K253" s="21">
-        <f>COUNTIF(Strecken!D:D,H253)</f>
+        <f>COUNTIF(Strecken!E:E,H253)</f>
         <v>0</v>
       </c>
       <c r="L253" s="21" t="s">
@@ -20124,7 +20264,7 @@
         <v>8</v>
       </c>
       <c r="K254" s="21">
-        <f>COUNTIF(Strecken!D:D,H254)</f>
+        <f>COUNTIF(Strecken!E:E,H254)</f>
         <v>0</v>
       </c>
       <c r="L254" s="21" t="s">
@@ -20171,7 +20311,7 @@
         <v>6</v>
       </c>
       <c r="K255" s="21">
-        <f>COUNTIF(Strecken!D:D,H255)</f>
+        <f>COUNTIF(Strecken!E:E,H255)</f>
         <v>0</v>
       </c>
       <c r="L255" s="21" t="s">
@@ -20218,7 +20358,7 @@
         <v>8</v>
       </c>
       <c r="K256" s="21">
-        <f>COUNTIF(Strecken!D:D,H256)</f>
+        <f>COUNTIF(Strecken!E:E,H256)</f>
         <v>0</v>
       </c>
       <c r="L256" s="21" t="s">
@@ -20265,7 +20405,7 @@
         <v>7</v>
       </c>
       <c r="K257" s="21">
-        <f>COUNTIF(Strecken!D:D,H257)</f>
+        <f>COUNTIF(Strecken!E:E,H257)</f>
         <v>0</v>
       </c>
       <c r="L257" s="21" t="s">
@@ -20312,7 +20452,7 @@
         <v>6</v>
       </c>
       <c r="K258" s="21">
-        <f>COUNTIF(Strecken!D:D,H258)</f>
+        <f>COUNTIF(Strecken!E:E,H258)</f>
         <v>1</v>
       </c>
       <c r="L258" s="21" t="s">
@@ -20359,7 +20499,7 @@
         <v>5</v>
       </c>
       <c r="K259" s="21">
-        <f>COUNTIF(Strecken!D:D,H259)</f>
+        <f>COUNTIF(Strecken!E:E,H259)</f>
         <v>0</v>
       </c>
       <c r="L259" s="21" t="s">
@@ -20406,7 +20546,7 @@
         <v>5</v>
       </c>
       <c r="K260" s="21">
-        <f>COUNTIF(Strecken!D:D,H260)</f>
+        <f>COUNTIF(Strecken!E:E,H260)</f>
         <v>0</v>
       </c>
       <c r="L260" s="21" t="s">
@@ -20453,7 +20593,7 @@
         <v>6</v>
       </c>
       <c r="K261" s="21">
-        <f>COUNTIF(Strecken!D:D,H261)</f>
+        <f>COUNTIF(Strecken!E:E,H261)</f>
         <v>0</v>
       </c>
       <c r="L261" s="21" t="s">
@@ -20500,7 +20640,7 @@
         <v>4</v>
       </c>
       <c r="K262" s="21">
-        <f>COUNTIF(Strecken!D:D,H262)</f>
+        <f>COUNTIF(Strecken!E:E,H262)</f>
         <v>0</v>
       </c>
       <c r="L262" s="21"/>
@@ -20542,7 +20682,7 @@
         <v>6</v>
       </c>
       <c r="K263" s="21">
-        <f>COUNTIF(Strecken!D:D,H263)</f>
+        <f>COUNTIF(Strecken!E:E,H263)</f>
         <v>0</v>
       </c>
       <c r="L263" s="21" t="s">
@@ -20589,7 +20729,7 @@
         <v>9</v>
       </c>
       <c r="K264" s="21">
-        <f>COUNTIF(Strecken!D:D,H264)</f>
+        <f>COUNTIF(Strecken!E:E,H264)</f>
         <v>0</v>
       </c>
       <c r="L264" s="21"/>
@@ -20631,7 +20771,7 @@
         <v>7</v>
       </c>
       <c r="K265" s="21">
-        <f>COUNTIF(Strecken!D:D,H265)</f>
+        <f>COUNTIF(Strecken!E:E,H265)</f>
         <v>0</v>
       </c>
       <c r="L265" s="21"/>
@@ -20673,7 +20813,7 @@
         <v>6</v>
       </c>
       <c r="K266" s="21">
-        <f>COUNTIF(Strecken!D:D,H266)</f>
+        <f>COUNTIF(Strecken!E:E,H266)</f>
         <v>0</v>
       </c>
       <c r="L266" s="21" t="s">
@@ -20720,7 +20860,7 @@
         <v>5</v>
       </c>
       <c r="K267" s="21">
-        <f>COUNTIF(Strecken!D:D,H267)</f>
+        <f>COUNTIF(Strecken!E:E,H267)</f>
         <v>0</v>
       </c>
       <c r="L267" s="21"/>
@@ -20762,7 +20902,7 @@
         <v>5</v>
       </c>
       <c r="K268" s="21">
-        <f>COUNTIF(Strecken!D:D,H268)</f>
+        <f>COUNTIF(Strecken!E:E,H268)</f>
         <v>0</v>
       </c>
       <c r="L268" s="21"/>
@@ -20804,7 +20944,7 @@
         <v>6</v>
       </c>
       <c r="K269" s="21">
-        <f>COUNTIF(Strecken!D:D,H269)</f>
+        <f>COUNTIF(Strecken!E:E,H269)</f>
         <v>0</v>
       </c>
       <c r="L269" s="21" t="s">
@@ -20851,7 +20991,7 @@
         <v>8</v>
       </c>
       <c r="K270" s="21">
-        <f>COUNTIF(Strecken!D:D,H270)</f>
+        <f>COUNTIF(Strecken!E:E,H270)</f>
         <v>1</v>
       </c>
       <c r="L270" s="21" t="s">
@@ -20939,7 +21079,7 @@
         <v>14</v>
       </c>
       <c r="K272" s="21">
-        <f>COUNTIF(Strecken!D:D,H272)</f>
+        <f>COUNTIF(Strecken!E:E,H272)</f>
         <v>0</v>
       </c>
       <c r="L272" s="21" t="s">
@@ -20986,7 +21126,7 @@
         <v>5</v>
       </c>
       <c r="K273" s="21">
-        <f>COUNTIF(Strecken!D:D,H273)</f>
+        <f>COUNTIF(Strecken!E:E,H273)</f>
         <v>1</v>
       </c>
       <c r="L273" s="21" t="s">
@@ -21033,7 +21173,7 @@
         <v>5</v>
       </c>
       <c r="K274" s="21">
-        <f>COUNTIF(Strecken!D:D,H274)</f>
+        <f>COUNTIF(Strecken!E:E,H274)</f>
         <v>0</v>
       </c>
       <c r="L274" s="21"/>
@@ -21075,7 +21215,7 @@
         <v>6</v>
       </c>
       <c r="K275" s="21">
-        <f>COUNTIF(Strecken!D:D,H275)</f>
+        <f>COUNTIF(Strecken!E:E,H275)</f>
         <v>0</v>
       </c>
       <c r="L275" s="21"/>
@@ -21117,7 +21257,7 @@
         <v>6</v>
       </c>
       <c r="K276" s="21">
-        <f>COUNTIF(Strecken!D:D,H276)</f>
+        <f>COUNTIF(Strecken!E:E,H276)</f>
         <v>0</v>
       </c>
       <c r="L276" s="21"/>
@@ -21159,7 +21299,7 @@
         <v>5</v>
       </c>
       <c r="K277" s="21">
-        <f>COUNTIF(Strecken!D:D,H277)</f>
+        <f>COUNTIF(Strecken!E:E,H277)</f>
         <v>0</v>
       </c>
       <c r="L277" s="21" t="s">
@@ -21206,7 +21346,7 @@
         <v>5</v>
       </c>
       <c r="K278" s="21">
-        <f>COUNTIF(Strecken!D:D,H278)</f>
+        <f>COUNTIF(Strecken!E:E,H278)</f>
         <v>1</v>
       </c>
       <c r="L278" s="21" t="s">
@@ -21253,7 +21393,7 @@
         <v>3</v>
       </c>
       <c r="K279" s="21">
-        <f>COUNTIF(Strecken!D:D,H279)</f>
+        <f>COUNTIF(Strecken!E:E,H279)</f>
         <v>0</v>
       </c>
       <c r="L279" s="21"/>
@@ -21295,7 +21435,7 @@
         <v>3</v>
       </c>
       <c r="K280" s="21">
-        <f>COUNTIF(Strecken!D:D,H280)</f>
+        <f>COUNTIF(Strecken!E:E,H280)</f>
         <v>0</v>
       </c>
       <c r="L280" s="21"/>
@@ -21337,7 +21477,7 @@
         <v>5</v>
       </c>
       <c r="K281" s="21">
-        <f>COUNTIF(Strecken!D:D,H281)</f>
+        <f>COUNTIF(Strecken!E:E,H281)</f>
         <v>0</v>
       </c>
       <c r="L281" s="21" t="s">
@@ -21384,7 +21524,7 @@
         <v>10</v>
       </c>
       <c r="K282" s="21">
-        <f>COUNTIF(Strecken!D:D,H282)</f>
+        <f>COUNTIF(Strecken!E:E,H282)</f>
         <v>1</v>
       </c>
       <c r="L282" s="21" t="s">
@@ -21431,7 +21571,7 @@
         <v>10</v>
       </c>
       <c r="K283" s="21">
-        <f>COUNTIF(Strecken!D:D,H283)</f>
+        <f>COUNTIF(Strecken!E:E,H283)</f>
         <v>0</v>
       </c>
       <c r="L283" s="21"/>
@@ -21473,7 +21613,7 @@
         <v>6</v>
       </c>
       <c r="K284" s="21">
-        <f>COUNTIF(Strecken!D:D,H284)</f>
+        <f>COUNTIF(Strecken!E:E,H284)</f>
         <v>1</v>
       </c>
       <c r="L284" s="21" t="s">
@@ -21517,7 +21657,7 @@
         <v>8</v>
       </c>
       <c r="K285" s="21">
-        <f>COUNTIF(Strecken!D:D,H285)</f>
+        <f>COUNTIF(Strecken!E:E,H285)</f>
         <v>1</v>
       </c>
       <c r="L285" s="21" t="s">
@@ -21561,7 +21701,7 @@
         <v>15</v>
       </c>
       <c r="K286" s="21">
-        <f>COUNTIF(Strecken!D:D,H286)</f>
+        <f>COUNTIF(Strecken!E:E,H286)</f>
         <v>1</v>
       </c>
       <c r="L286" s="21" t="s">
@@ -21605,7 +21745,7 @@
         <v>9</v>
       </c>
       <c r="K287" s="21">
-        <f>COUNTIF(Strecken!D:D,H287)</f>
+        <f>COUNTIF(Strecken!E:E,H287)</f>
         <v>1</v>
       </c>
       <c r="L287" s="21" t="s">
@@ -21649,7 +21789,7 @@
         <v>??</v>
       </c>
       <c r="K288" s="21">
-        <f>COUNTIF(Strecken!D:D,H288)</f>
+        <f>COUNTIF(Strecken!E:E,H288)</f>
         <v>1</v>
       </c>
       <c r="L288" s="21" t="s">
@@ -21712,7 +21852,7 @@
     <sortCondition descending="1" ref="J2:J21"/>
   </sortState>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CraZZZy Crash Challenge/CCC-Daten.xlsx
+++ b/CraZZZy Crash Challenge/CCC-Daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\info\KaroToolsCollection\CraZZZy Crash Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE082C6-4CAA-416D-ACEF-A3D05762F74D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F27D219-B162-470B-87AD-34F4B6E73168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13845" yWindow="0" windowWidth="23895" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teilnehmer" sheetId="1" r:id="rId1"/>
@@ -2122,38 +2122,6 @@
   </cellStyles>
   <dxfs count="40">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2225,9 +2193,23 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2267,6 +2249,24 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2368,26 +2368,26 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CCC"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spieltag" dataDxfId="31"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Spieler" dataDxfId="30"/>
-    <tableColumn id="14" xr3:uid="{75A7E177-63ED-4EFA-93B1-DE89C665DE76}" name="Max Spieler" dataDxfId="0"/>
-    <tableColumn id="13" xr3:uid="{46DD40C5-F863-41A3-82F9-4E621D4A2334}" name="Map ID" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Map Name" dataDxfId="28" dataCellStyle="Link"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="2">
+    <tableColumn id="14" xr3:uid="{75A7E177-63ED-4EFA-93B1-DE89C665DE76}" name="Max Spieler" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{46DD40C5-F863-41A3-82F9-4E621D4A2334}" name="Map ID" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Map Name" dataDxfId="27" dataCellStyle="Link"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="21">
       <calculatedColumnFormula>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{897B7B9F-55FE-4CEE-88A6-F9425764BC23}" name="Tabelle4" displayName="Tabelle4" ref="A1:M289" totalsRowCount="1" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{897B7B9F-55FE-4CEE-88A6-F9425764BC23}" name="Tabelle4" displayName="Tabelle4" ref="A1:M289" totalsRowCount="1" headerRowDxfId="17">
   <autoFilter ref="A1:M288" xr:uid="{897B7B9F-55FE-4CEE-88A6-F9425764BC23}">
     <filterColumn colId="11">
       <filters>
@@ -2406,7 +2406,7 @@
     <tableColumn id="4" xr3:uid="{17356422-2A9E-4839-B8A8-369FC1117B6C}" name=": ">
       <calculatedColumnFormula>FIND(D$1,$A2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D73AD2F3-FF78-4433-BB0D-1FB07C679587}" name="(" dataDxfId="19">
+    <tableColumn id="5" xr3:uid="{D73AD2F3-FF78-4433-BB0D-1FB07C679587}" name="(" dataDxfId="16">
       <calculatedColumnFormula>FIND("@",SUBSTITUTE($A2,E$1,"@",LEN($A2)-LEN(SUBSTITUTE($A2,E$1,""))),1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{228CD70F-056D-4F45-A7A5-8BABF11AA649}" name=" Spieler)">
@@ -2419,40 +2419,40 @@
     <tableColumn id="9" xr3:uid="{F93CAB44-C824-4CD9-B3AC-AA74DC75DE63}" name="Name">
       <calculatedColumnFormula>LEFT(RIGHT($A2,LEN($A2) - D2 - 1),E2-D2-2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3F139DA0-52EA-4848-9C94-104C11AFDF7C}" name="Spieler" dataDxfId="18">
+    <tableColumn id="10" xr3:uid="{3F139DA0-52EA-4848-9C94-104C11AFDF7C}" name="Spieler" dataDxfId="15">
       <calculatedColumnFormula>LEFT(RIGHT($A2,LEN($A2) - E2 ),F2-E2-1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{3DFC605D-42C4-4277-8FCE-E63EFB61D7AC}" name="Verwendet?" totalsRowFunction="sum">
       <calculatedColumnFormula>COUNTIF(Strecken!E:E,H2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{6E8D214A-CC9B-4A13-ABB1-6A6DD9B94F36}" name="Kandidat" totalsRowFunction="count"/>
-    <tableColumn id="13" xr3:uid="{B3227200-9836-4BD3-8F00-8050E13E6864}" name="ZZZ" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{B3227200-9836-4BD3-8F00-8050E13E6864}" name="ZZZ" dataDxfId="14" totalsRowDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD48A89C-AF8A-4D74-BEE3-973381D8E39E}" name="Tabelle2" displayName="Tabelle2" ref="A2:L14" totalsRowShown="0" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD48A89C-AF8A-4D74-BEE3-973381D8E39E}" name="Tabelle2" displayName="Tabelle2" ref="A2:L14" totalsRowShown="0" dataDxfId="12">
   <autoFilter ref="A2:L14" xr:uid="{FD48A89C-AF8A-4D74-BEE3-973381D8E39E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L14">
     <sortCondition descending="1" ref="L2:L14"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{06B18662-5B32-42F6-85CF-17D8C9DC7BDF}" name="Spieler" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{183E08E8-D5AA-4DF3-942F-C23480690953}" name=" " dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{37A147A2-6A27-443D-8799-F71527EF7750}" name="Züge" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{31696DC1-5E37-430E-8871-0BCFCD170B2E}" name="Klassisch (Z)" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{BC263A88-D39F-446D-BF5C-F85521658DA8}" name="Geclustert (Z)" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{093A8095-9008-4D88-88F6-250A19675DD8}" name="  " dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{879335B0-290D-43FA-A6FE-E6B6F53D9440}" name="Crashs" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{78D21676-2217-4EF4-A197-F19C7A84C471}" name="Klassisch (CR)" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{BB0FE7C7-52D6-4A76-8688-1B73AD062B37}" name="Geclustert (CR)" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{2E578574-BF4A-4EFE-BF15-F379C953D82E}" name="   " dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{D08C11A1-CC23-4F54-8A65-A4D420BAED58}" name="Gesamt Klassisch" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{06B18662-5B32-42F6-85CF-17D8C9DC7BDF}" name="Spieler" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{183E08E8-D5AA-4DF3-942F-C23480690953}" name=" " dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{37A147A2-6A27-443D-8799-F71527EF7750}" name="Züge" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{31696DC1-5E37-430E-8871-0BCFCD170B2E}" name="Klassisch (Z)" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{BC263A88-D39F-446D-BF5C-F85521658DA8}" name="Geclustert (Z)" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{093A8095-9008-4D88-88F6-250A19675DD8}" name="  " dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{879335B0-290D-43FA-A6FE-E6B6F53D9440}" name="Crashs" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{78D21676-2217-4EF4-A197-F19C7A84C471}" name="Klassisch (CR)" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{BB0FE7C7-52D6-4A76-8688-1B73AD062B37}" name="Geclustert (CR)" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{2E578574-BF4A-4EFE-BF15-F379C953D82E}" name="   " dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{D08C11A1-CC23-4F54-8A65-A4D420BAED58}" name="Gesamt Klassisch" dataDxfId="1">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Klassisch (Z)]]*Tabelle2[[#This Row],[Klassisch (CR)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C8F6816D-C153-497A-A2CC-4183AA81D2EF}" name="Gesamt Geclustert" dataDxfId="3">
+    <tableColumn id="12" xr3:uid="{C8F6816D-C153-497A-A2CC-4183AA81D2EF}" name="Gesamt Geclustert" dataDxfId="0">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Geclustert (Z)]]*Tabelle2[[#This Row],[Geclustert (CR)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4176,8 +4176,8 @@
   </sheetPr>
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" topLeftCell="B85" workbookViewId="0">
+      <selection activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -8561,11 +8561,11 @@
       </c>
       <c r="K107" s="17" cm="1">
         <f t="array" ref="K107">SUM(K108:K132*6)</f>
-        <v>6168</v>
+        <v>10944</v>
       </c>
       <c r="L107" s="17">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
-        <v>222048</v>
+        <v>393984</v>
       </c>
       <c r="M107" s="14"/>
       <c r="N107" s="14"/>
@@ -8738,14 +8738,18 @@
         <v>5</v>
       </c>
       <c r="C112" s="39"/>
-      <c r="D112" s="27"/>
+      <c r="D112" s="27">
+        <v>16</v>
+      </c>
       <c r="E112" s="51">
         <v>10059</v>
       </c>
       <c r="F112" s="30" t="s">
         <v>524</v>
       </c>
-      <c r="G112" s="55"/>
+      <c r="G112" s="55">
+        <v>25</v>
+      </c>
       <c r="H112" s="27" t="s">
         <v>60</v>
       </c>
@@ -8756,7 +8760,9 @@
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K112" s="7"/>
+      <c r="K112" s="7">
+        <v>230</v>
+      </c>
       <c r="L112" s="29">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
         <v>0</v>
@@ -9052,7 +9058,9 @@
         <v>13</v>
       </c>
       <c r="C120" s="39"/>
-      <c r="D120" s="27"/>
+      <c r="D120" s="27">
+        <v>11</v>
+      </c>
       <c r="E120" s="54">
         <v>243</v>
       </c>
@@ -9072,7 +9080,9 @@
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K120" s="7"/>
+      <c r="K120" s="7">
+        <v>63</v>
+      </c>
       <c r="L120" s="29">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
         <v>0</v>
@@ -9088,7 +9098,9 @@
         <v>14</v>
       </c>
       <c r="C121" s="39"/>
-      <c r="D121" s="27"/>
+      <c r="D121" s="27">
+        <v>6</v>
+      </c>
       <c r="E121" s="54">
         <v>134</v>
       </c>
@@ -9108,7 +9120,9 @@
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K121" s="7"/>
+      <c r="K121" s="7">
+        <v>66</v>
+      </c>
       <c r="L121" s="29">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
         <v>0</v>
@@ -9124,7 +9138,9 @@
         <v>15</v>
       </c>
       <c r="C122" s="39"/>
-      <c r="D122" s="27"/>
+      <c r="D122" s="27">
+        <v>6</v>
+      </c>
       <c r="E122" s="54">
         <v>41</v>
       </c>
@@ -9144,7 +9160,9 @@
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K122" s="7"/>
+      <c r="K122" s="7">
+        <v>48</v>
+      </c>
       <c r="L122" s="29">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
         <v>0</v>
@@ -9200,7 +9218,9 @@
         <v>17</v>
       </c>
       <c r="C124" s="27"/>
-      <c r="D124" s="27"/>
+      <c r="D124" s="27">
+        <v>9</v>
+      </c>
       <c r="E124" s="54">
         <v>99</v>
       </c>
@@ -9220,7 +9240,9 @@
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K124" s="7"/>
+      <c r="K124" s="7">
+        <v>107</v>
+      </c>
       <c r="L124" s="29">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
         <v>0</v>
@@ -9236,7 +9258,9 @@
         <v>18</v>
       </c>
       <c r="C125" s="27"/>
-      <c r="D125" s="27"/>
+      <c r="D125" s="27">
+        <v>5</v>
+      </c>
       <c r="E125" s="54">
         <v>5</v>
       </c>
@@ -9256,7 +9280,9 @@
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K125" s="7"/>
+      <c r="K125" s="7">
+        <v>49</v>
+      </c>
       <c r="L125" s="29">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
         <v>0</v>
@@ -9272,7 +9298,9 @@
         <v>19</v>
       </c>
       <c r="C126" s="39"/>
-      <c r="D126" s="27"/>
+      <c r="D126" s="27">
+        <v>4</v>
+      </c>
       <c r="E126" s="55">
         <v>18</v>
       </c>
@@ -9292,7 +9320,9 @@
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K126" s="7"/>
+      <c r="K126" s="7">
+        <v>32</v>
+      </c>
       <c r="L126" s="29">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
         <v>0</v>
@@ -9308,7 +9338,9 @@
         <v>20</v>
       </c>
       <c r="C127" s="38"/>
-      <c r="D127" s="27"/>
+      <c r="D127" s="27">
+        <v>6</v>
+      </c>
       <c r="E127" s="55">
         <v>93</v>
       </c>
@@ -9328,7 +9360,9 @@
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K127" s="7"/>
+      <c r="K127" s="7">
+        <v>55</v>
+      </c>
       <c r="L127" s="29">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
         <v>0</v>
@@ -9344,7 +9378,9 @@
         <v>21</v>
       </c>
       <c r="C128" s="38"/>
-      <c r="D128" s="27"/>
+      <c r="D128" s="27">
+        <v>4</v>
+      </c>
       <c r="E128" s="55">
         <v>29</v>
       </c>
@@ -9364,7 +9400,9 @@
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K128" s="7"/>
+      <c r="K128" s="7">
+        <v>39</v>
+      </c>
       <c r="L128" s="29">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
         <v>0</v>
@@ -9380,7 +9418,9 @@
         <v>22</v>
       </c>
       <c r="C129" s="38"/>
-      <c r="D129" s="27"/>
+      <c r="D129" s="27">
+        <v>10</v>
+      </c>
       <c r="E129" s="55">
         <v>146</v>
       </c>
@@ -9400,7 +9440,9 @@
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K129" s="7"/>
+      <c r="K129" s="7">
+        <v>44</v>
+      </c>
       <c r="L129" s="29">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
         <v>0</v>
@@ -9416,7 +9458,9 @@
         <v>23</v>
       </c>
       <c r="C130" s="27"/>
-      <c r="D130" s="27"/>
+      <c r="D130" s="27">
+        <v>11</v>
+      </c>
       <c r="E130" s="54">
         <v>158</v>
       </c>
@@ -9436,7 +9480,9 @@
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K130" s="7"/>
+      <c r="K130" s="7">
+        <v>63</v>
+      </c>
       <c r="L130" s="29">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
         <v>0</v>
@@ -21852,7 +21898,7 @@
     <sortCondition descending="1" ref="J2:J21"/>
   </sortState>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CraZZZy Crash Challenge/CCC-Daten.xlsx
+++ b/CraZZZy Crash Challenge/CCC-Daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Private\JVerkin\projects\KaroToolsCollection\CraZZZy Crash Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CFBAE0-0426-47F8-8B71-A22C0DCD1898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E6045E-4E76-444A-B2FF-895CB9D1EBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teilnehmer" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <author xml:space="preserve">Julian Verkin </author>
   </authors>
   <commentList>
-    <comment ref="F57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F63" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="564">
   <si>
     <t>Teilnehmer</t>
   </si>
@@ -1748,6 +1748,33 @@
   </si>
   <si>
     <t>&lt;OPTION VALUE=10059&gt;Karte 10059: Verkehrsübungsplatz (16 Spieler)</t>
+  </si>
+  <si>
+    <t>JokerHF</t>
+  </si>
+  <si>
+    <t>Rothundi</t>
+  </si>
+  <si>
+    <t>STS81</t>
+  </si>
+  <si>
+    <t>Sayri</t>
+  </si>
+  <si>
+    <t>haeckler</t>
+  </si>
+  <si>
+    <t>HX</t>
+  </si>
+  <si>
+    <t>RamboT</t>
+  </si>
+  <si>
+    <t>TheWhite</t>
+  </si>
+  <si>
+    <t>Henrike</t>
   </si>
 </sst>
 </file>
@@ -2115,15 +2142,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2146,6 +2164,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2154,16 +2181,7 @@
   </cellStyles>
   <dxfs count="41">
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2205,6 +2223,18 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -2343,9 +2373,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2363,40 +2390,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:I71" totalsRowCount="1">
-  <autoFilter ref="A1:I70" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:I80" totalsRowCount="1">
+  <autoFilter ref="A1:I79" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="1">
       <filters blank="1">
         <filter val="wenig Spiele"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H70">
-    <sortCondition ref="A1:A70"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I79">
+    <sortCondition ref="A1:A79"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Teilnehmer" totalsRowLabel="Ergebnis"/>
     <tableColumn id="10" xr3:uid="{85A2CDB7-D191-4742-ACA1-0EB7688D0BC2}" name="Status"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Teilnahmen" totalsRowLabel="x" dataDxfId="40" totalsRowDxfId="39">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Teilnahmen" totalsRowLabel="x" dataDxfId="40" totalsRowDxfId="0">
       <calculatedColumnFormula>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CCC1" totalsRowFunction="custom" dataDxfId="38">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC1],$C71)</totalsRowFormula>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CCC1" totalsRowFunction="custom" dataDxfId="39">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC1],$C80)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CCC2" totalsRowFunction="custom" dataDxfId="37">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC2],$C71)</totalsRowFormula>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CCC2" totalsRowFunction="custom" dataDxfId="38">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC2],$C80)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CCC3" totalsRowFunction="custom" dataDxfId="36">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC3],$C71)</totalsRowFormula>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CCC3" totalsRowFunction="custom" dataDxfId="37">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC3],$C80)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CCC4" totalsRowFunction="custom" dataDxfId="35">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC4],$C71)</totalsRowFormula>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CCC4" totalsRowFunction="custom" dataDxfId="36">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC4],$C80)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CCC5" totalsRowFunction="custom" dataDxfId="34">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC5],$C71)</totalsRowFormula>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CCC5" totalsRowFunction="custom" dataDxfId="35">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC5],$C80)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3FABA211-0AC0-4F1B-8717-B000245148A5}" name="CCC6" totalsRowFunction="custom" dataDxfId="33">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC6],$C71)</totalsRowFormula>
+    <tableColumn id="9" xr3:uid="{3FABA211-0AC0-4F1B-8717-B000245148A5}" name="CCC6" totalsRowFunction="custom" dataDxfId="34">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC6],$C80)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2404,35 +2431,35 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:N132" totalsRowShown="0" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:N132" totalsRowShown="0" dataDxfId="33">
   <autoFilter ref="A1:N132" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L70">
     <sortCondition ref="A37"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CCC"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spieltag" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Spieler" dataDxfId="30"/>
-    <tableColumn id="14" xr3:uid="{75A7E177-63ED-4EFA-93B1-DE89C665DE76}" name="Max Spieler" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{46DD40C5-F863-41A3-82F9-4E621D4A2334}" name="Map ID" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Map Name" dataDxfId="27" dataCellStyle="Link"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="21">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spieltag" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Spieler" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{75A7E177-63ED-4EFA-93B1-DE89C665DE76}" name="Max Spieler" dataDxfId="30"/>
+    <tableColumn id="13" xr3:uid="{46DD40C5-F863-41A3-82F9-4E621D4A2334}" name="Map ID" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Map Name" dataDxfId="28" dataCellStyle="Link"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="22">
       <calculatedColumnFormula>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{897B7B9F-55FE-4CEE-88A6-F9425764BC23}" name="Tabelle4" displayName="Tabelle4" ref="A1:M289" totalsRowCount="1" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{897B7B9F-55FE-4CEE-88A6-F9425764BC23}" name="Tabelle4" displayName="Tabelle4" ref="A1:M289" totalsRowCount="1" headerRowDxfId="18">
   <autoFilter ref="A1:M288" xr:uid="{897B7B9F-55FE-4CEE-88A6-F9425764BC23}">
     <filterColumn colId="11">
       <filters>
@@ -2451,7 +2478,7 @@
     <tableColumn id="4" xr3:uid="{17356422-2A9E-4839-B8A8-369FC1117B6C}" name=": ">
       <calculatedColumnFormula>FIND(D$1,$A2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D73AD2F3-FF78-4433-BB0D-1FB07C679587}" name="(" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{D73AD2F3-FF78-4433-BB0D-1FB07C679587}" name="(" dataDxfId="17">
       <calculatedColumnFormula>FIND("@",SUBSTITUTE($A2,E$1,"@",LEN($A2)-LEN(SUBSTITUTE($A2,E$1,""))),1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{228CD70F-056D-4F45-A7A5-8BABF11AA649}" name=" Spieler)">
@@ -2464,40 +2491,40 @@
     <tableColumn id="9" xr3:uid="{F93CAB44-C824-4CD9-B3AC-AA74DC75DE63}" name="Name">
       <calculatedColumnFormula>LEFT(RIGHT($A2,LEN($A2) - D2 - 1),E2-D2-2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3F139DA0-52EA-4848-9C94-104C11AFDF7C}" name="Spieler" dataDxfId="2">
+    <tableColumn id="10" xr3:uid="{3F139DA0-52EA-4848-9C94-104C11AFDF7C}" name="Spieler" dataDxfId="16">
       <calculatedColumnFormula>LEFT(RIGHT($A2,LEN($A2) - E2 ),F2-E2-1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{3DFC605D-42C4-4277-8FCE-E63EFB61D7AC}" name="Verwendet?" totalsRowFunction="sum">
       <calculatedColumnFormula>COUNTIF(Strecken!E:E,H2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{6E8D214A-CC9B-4A13-ABB1-6A6DD9B94F36}" name="Kandidat" totalsRowFunction="count"/>
-    <tableColumn id="13" xr3:uid="{B3227200-9836-4BD3-8F00-8050E13E6864}" name="ZZZ" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{B3227200-9836-4BD3-8F00-8050E13E6864}" name="ZZZ" dataDxfId="15" totalsRowDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD48A89C-AF8A-4D74-BEE3-973381D8E39E}" name="Tabelle2" displayName="Tabelle2" ref="A2:L14" totalsRowShown="0" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD48A89C-AF8A-4D74-BEE3-973381D8E39E}" name="Tabelle2" displayName="Tabelle2" ref="A2:L14" totalsRowShown="0" dataDxfId="13">
   <autoFilter ref="A2:L14" xr:uid="{FD48A89C-AF8A-4D74-BEE3-973381D8E39E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L14">
     <sortCondition descending="1" ref="L2:L14"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{06B18662-5B32-42F6-85CF-17D8C9DC7BDF}" name="Spieler" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{183E08E8-D5AA-4DF3-942F-C23480690953}" name=" " dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{37A147A2-6A27-443D-8799-F71527EF7750}" name="Züge" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{31696DC1-5E37-430E-8871-0BCFCD170B2E}" name="Klassisch (Z)" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{BC263A88-D39F-446D-BF5C-F85521658DA8}" name="Geclustert (Z)" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{093A8095-9008-4D88-88F6-250A19675DD8}" name="  " dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{879335B0-290D-43FA-A6FE-E6B6F53D9440}" name="Crashs" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{78D21676-2217-4EF4-A197-F19C7A84C471}" name="Klassisch (CR)" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{BB0FE7C7-52D6-4A76-8688-1B73AD062B37}" name="Geclustert (CR)" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{2E578574-BF4A-4EFE-BF15-F379C953D82E}" name="   " dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{D08C11A1-CC23-4F54-8A65-A4D420BAED58}" name="Gesamt Klassisch" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{06B18662-5B32-42F6-85CF-17D8C9DC7BDF}" name="Spieler" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{183E08E8-D5AA-4DF3-942F-C23480690953}" name=" " dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{37A147A2-6A27-443D-8799-F71527EF7750}" name="Züge" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{31696DC1-5E37-430E-8871-0BCFCD170B2E}" name="Klassisch (Z)" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{BC263A88-D39F-446D-BF5C-F85521658DA8}" name="Geclustert (Z)" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{093A8095-9008-4D88-88F6-250A19675DD8}" name="  " dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{879335B0-290D-43FA-A6FE-E6B6F53D9440}" name="Crashs" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{78D21676-2217-4EF4-A197-F19C7A84C471}" name="Klassisch (CR)" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{BB0FE7C7-52D6-4A76-8688-1B73AD062B37}" name="Geclustert (CR)" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{2E578574-BF4A-4EFE-BF15-F379C953D82E}" name="   " dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{D08C11A1-CC23-4F54-8A65-A4D420BAED58}" name="Gesamt Klassisch" dataDxfId="2">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Klassisch (Z)]]*Tabelle2[[#This Row],[Klassisch (CR)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C8F6816D-C153-497A-A2CC-4183AA81D2EF}" name="Gesamt Geclustert" dataDxfId="4">
+    <tableColumn id="12" xr3:uid="{C8F6816D-C153-497A-A2CC-4183AA81D2EF}" name="Gesamt Geclustert" dataDxfId="1">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Geclustert (Z)]]*Tabelle2[[#This Row],[Geclustert (CR)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2802,10 +2829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2853,7 +2880,7 @@
       </c>
       <c r="C2" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>45</v>
@@ -2871,7 +2898,7 @@
         <v>45</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>549</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" hidden="1">
@@ -3026,9 +3053,7 @@
       <c r="H9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>549</v>
-      </c>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
@@ -3429,119 +3454,103 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
+        <v>559</v>
+      </c>
+      <c r="C29" s="18">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="51" customFormat="1">
+      <c r="A30" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C30" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>4</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" t="s">
-        <v>552</v>
-      </c>
-      <c r="C30" s="1">
-        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I30" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" t="s">
-        <v>550</v>
-      </c>
-      <c r="C31" s="1">
+    <row r="31" spans="1:9" s="51" customFormat="1">
+      <c r="A31" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="C31" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" hidden="1">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" t="s">
-        <v>550</v>
-      </c>
-      <c r="C32" s="1">
+    <row r="32" spans="1:9" s="51" customFormat="1">
+      <c r="A32" s="51" t="s">
+        <v>560</v>
+      </c>
+      <c r="C32" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>552</v>
       </c>
       <c r="C33" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>93</v>
+        <v>549</v>
       </c>
     </row>
     <row r="34" spans="1:9" hidden="1">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
         <v>550</v>
@@ -3550,90 +3559,78 @@
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>2</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" hidden="1">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>550</v>
       </c>
       <c r="C35" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>5</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" hidden="1">
-      <c r="A36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" t="s">
-        <v>550</v>
-      </c>
-      <c r="C36" s="1">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" s="51" customFormat="1">
+      <c r="A36" s="51" t="s">
+        <v>555</v>
+      </c>
+      <c r="C36" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="C37" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>2</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
-        <v>549</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:9" hidden="1">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
         <v>550</v>
@@ -3642,31 +3639,26 @@
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>2</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>552</v>
+        <v>50</v>
       </c>
       <c r="C39" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>5</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
         <v>45</v>
       </c>
@@ -3680,32 +3672,36 @@
         <v>45</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>549</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:9" hidden="1">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
         <v>550</v>
       </c>
       <c r="C40" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
-      </c>
-      <c r="D40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
@@ -3714,31 +3710,31 @@
       <c r="D41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1" t="s">
-        <v>549</v>
-      </c>
+      <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" hidden="1">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
         <v>550</v>
       </c>
       <c r="C42" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -3746,16 +3742,27 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="18">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>552</v>
+      </c>
+      <c r="C43" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="H43" s="1" t="s">
         <v>45</v>
       </c>
@@ -3763,105 +3770,93 @@
         <v>549</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" hidden="1">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="B44" t="s">
+        <v>550</v>
       </c>
       <c r="C44" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" hidden="1">
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>550</v>
+        <v>12</v>
       </c>
       <c r="C45" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="46" spans="1:9" hidden="1">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
         <v>550</v>
       </c>
       <c r="C46" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" hidden="1">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" t="s">
-        <v>550</v>
-      </c>
-      <c r="C47" s="1">
+        <v>97</v>
+      </c>
+      <c r="C47" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>1</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" hidden="1">
+      <c r="I47" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>550</v>
+        <v>32</v>
       </c>
       <c r="C48" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>45</v>
@@ -3869,28 +3864,34 @@
       <c r="E48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="49" spans="1:9" hidden="1">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
         <v>550</v>
       </c>
       <c r="C49" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -3898,7 +3899,7 @@
     </row>
     <row r="50" spans="1:9" hidden="1">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
         <v>550</v>
@@ -3918,61 +3919,51 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" hidden="1">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>78</v>
+      </c>
+      <c r="B51" t="s">
+        <v>550</v>
       </c>
       <c r="C51" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>6</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" hidden="1">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>550</v>
       </c>
       <c r="C52" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>549</v>
-      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" hidden="1">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
         <v>550</v>
@@ -3994,34 +3985,33 @@
     </row>
     <row r="54" spans="1:9" hidden="1">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B54" t="s">
         <v>550</v>
       </c>
       <c r="C54" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" hidden="1">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" t="s">
-        <v>550</v>
+        <v>17</v>
       </c>
       <c r="C55" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>45</v>
@@ -4029,60 +4019,71 @@
       <c r="E55" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="1:9" hidden="1">
-      <c r="A56" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56" t="s">
-        <v>550</v>
-      </c>
-      <c r="C56" s="1">
+      <c r="F55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="51" customFormat="1">
+      <c r="A56" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="C56" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:9" hidden="1">
+      <c r="I56" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" t="s">
-        <v>550</v>
+        <v>6</v>
       </c>
       <c r="C57" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>0</v>
-      </c>
-      <c r="D57" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
+        <v>550</v>
       </c>
       <c r="C58" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>45</v>
@@ -4090,76 +4091,62 @@
       <c r="E58" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" hidden="1">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>19</v>
+      </c>
+      <c r="B59" t="s">
+        <v>550</v>
       </c>
       <c r="C59" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>4</v>
-      </c>
-      <c r="D59" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" hidden="1">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>15</v>
+      </c>
+      <c r="B60" t="s">
+        <v>550</v>
       </c>
       <c r="C60" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>3</v>
-      </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="1">
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" s="51" customFormat="1">
+      <c r="A61" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="C61" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -4168,9 +4155,12 @@
         <v>549</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" hidden="1">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="B62" t="s">
+        <v>550</v>
       </c>
       <c r="C62" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
@@ -4185,46 +4175,39 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="1" t="s">
-        <v>549</v>
-      </c>
+      <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" hidden="1">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B63" t="s">
         <v>550</v>
       </c>
       <c r="C63" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9">
-      <c r="A64" t="s">
-        <v>52</v>
-      </c>
-      <c r="B64" t="s">
-        <v>552</v>
-      </c>
-      <c r="C64" s="1">
+    <row r="64" spans="1:9" s="51" customFormat="1">
+      <c r="A64" s="51" t="s">
+        <v>558</v>
+      </c>
+      <c r="C64" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1" t="s">
@@ -4233,7 +4216,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C65" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
@@ -4260,18 +4243,14 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="C66" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>6</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
         <v>45</v>
       </c>
@@ -4287,7 +4266,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C67" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
@@ -4295,7 +4274,9 @@
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="G67" s="1" t="s">
         <v>45</v>
       </c>
@@ -4303,188 +4284,377 @@
         <v>45</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C68" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
-      <c r="A69" t="s">
+    <row r="69" spans="1:9" s="51" customFormat="1">
+      <c r="A69" s="51" t="s">
+        <v>557</v>
+      </c>
+      <c r="C69" s="18">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
+        <v>2</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" hidden="1">
+      <c r="A71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" t="s">
+        <v>550</v>
+      </c>
+      <c r="C71" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
+        <v>1</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" t="s">
+        <v>552</v>
+      </c>
+      <c r="C72" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
+        <v>1</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="51" customFormat="1">
+      <c r="A73" s="51" t="s">
+        <v>562</v>
+      </c>
+      <c r="C73" s="18">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
+        <v>0</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
+        <v>6</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
+        <v>6</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
+        <v>3</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
+        <v>3</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C78" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>5</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1" t="s">
+      <c r="F78" s="1"/>
+      <c r="G78" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="I78" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
-      <c r="A70" t="s">
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
         <v>96</v>
       </c>
-      <c r="C70" s="18">
+      <c r="C79" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>2</v>
       </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1" t="s">
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H79" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="I79" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
-      <c r="A71" t="s">
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
         <v>84</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D71">
-        <f>COUNTIF(Tabelle1[CCC1],$C71)</f>
+      <c r="D80">
+        <f>COUNTIF(Tabelle1[CCC1],$C80)</f>
         <v>42</v>
       </c>
-      <c r="E71">
-        <f>COUNTIF(Tabelle1[CCC2],$C71)</f>
+      <c r="E80">
+        <f>COUNTIF(Tabelle1[CCC2],$C80)</f>
         <v>30</v>
       </c>
-      <c r="F71">
-        <f>COUNTIF(Tabelle1[CCC3],$C71)</f>
+      <c r="F80">
+        <f>COUNTIF(Tabelle1[CCC3],$C80)</f>
         <v>28</v>
       </c>
-      <c r="G71">
-        <f>COUNTIF(Tabelle1[CCC4],$C71)</f>
+      <c r="G80">
+        <f>COUNTIF(Tabelle1[CCC4],$C80)</f>
         <v>28</v>
       </c>
-      <c r="H71">
-        <f>COUNTIF(Tabelle1[CCC5],$C71)</f>
+      <c r="H80">
+        <f>COUNTIF(Tabelle1[CCC5],$C80)</f>
         <v>30</v>
       </c>
-      <c r="I71">
-        <f>COUNTIF(Tabelle1[CCC6],$C71)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="C72" s="19" t="s">
+      <c r="I80">
+        <f>COUNTIF(Tabelle1[CCC6],$C80)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9">
+      <c r="C81" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="G72">
-        <f>COUNTIF(Tabelle1[CCC4],$C72)</f>
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <f>COUNTIF(Tabelle1[CCC5],$C72)</f>
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <f>COUNTIF(Tabelle1[CCC6],$C72)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="C73" s="19" t="s">
+      <c r="G81">
+        <f>COUNTIF(Tabelle1[CCC4],$C81)</f>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f>COUNTIF(Tabelle1[CCC5],$C81)</f>
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f>COUNTIF(Tabelle1[CCC6],$C81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9">
+      <c r="C82" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="G73">
-        <f>COUNTIF(Tabelle1[CCC4],$C73)</f>
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <f>COUNTIF(Tabelle1[CCC5],$C73)</f>
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <f>COUNTIF(Tabelle1[CCC6],$C73)</f>
+      <c r="G82">
+        <f>COUNTIF(Tabelle1[CCC4],$C82)</f>
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f>COUNTIF(Tabelle1[CCC5],$C82)</f>
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <f>COUNTIF(Tabelle1[CCC6],$C82)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
-      <c r="C74" s="19" t="s">
+    <row r="83" spans="3:9">
+      <c r="C83" s="19" t="s">
         <v>549</v>
       </c>
-      <c r="G74">
-        <f>COUNTIF(Tabelle1[CCC4],$C74)</f>
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <f>COUNTIF(Tabelle1[CCC5],$C74)</f>
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <f>COUNTIF(Tabelle1[CCC6],$C74)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="C75" s="19" t="s">
+      <c r="G83">
+        <f>COUNTIF(Tabelle1[CCC4],$C83)</f>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f>COUNTIF(Tabelle1[CCC5],$C83)</f>
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <f>COUNTIF(Tabelle1[CCC6],$C83)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9">
+      <c r="C84" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D75">
+      <c r="D84">
         <f>SUBTOTAL(103,Tabelle1[CCC1])</f>
         <v>20</v>
       </c>
-      <c r="E75">
+      <c r="E84">
         <f>SUBTOTAL(103,Tabelle1[CCC2])</f>
         <v>16</v>
       </c>
-      <c r="F75">
+      <c r="F84">
         <f>SUBTOTAL(103,Tabelle1[CCC3])</f>
         <v>23</v>
       </c>
-      <c r="G75">
+      <c r="G84">
         <f>SUBTOTAL(103,Tabelle1[CCC4])</f>
         <v>26</v>
       </c>
-      <c r="H75">
+      <c r="H84">
         <f>SUBTOTAL(103,Tabelle1[CCC5])</f>
         <v>28</v>
       </c>
-      <c r="I75">
+      <c r="I84">
         <f>SUBTOTAL(103,Tabelle1[CCC6])</f>
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4583,7 +4753,7 @@
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="40"/>
-      <c r="F2" s="59" t="str">
+      <c r="F2" s="56" t="str">
         <f ca="1">COUNTIF(INDIRECT("C"&amp;ROW()+1&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"3") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()+1&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"4") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()+1&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"5") &amp; " / "
@@ -5226,7 +5396,7 @@
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="40"/>
-      <c r="F18" s="59" t="str">
+      <c r="F18" s="56" t="str">
         <f ca="1">COUNTIF(INDIRECT("C"&amp;ROW()+1&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"3") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()+1&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"4") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()+1&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"5") &amp; " / "
@@ -6066,7 +6236,7 @@
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="40"/>
-      <c r="F39" s="59" t="str">
+      <c r="F39" s="56" t="str">
         <f ca="1">COUNTIF(INDIRECT("C"&amp;ROW()+1&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"3") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()+1&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"4") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()+1&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"5") &amp; " / "
@@ -6930,7 +7100,7 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="42"/>
-      <c r="F60" s="59" t="str">
+      <c r="F60" s="56" t="str">
         <f ca="1">COUNTIF(INDIRECT("C"&amp;ROW()+1&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"3") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()+1&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"4") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()+1&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"5") &amp; " / "
@@ -7773,7 +7943,7 @@
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="42"/>
-      <c r="F81" s="59" t="str">
+      <c r="F81" s="56" t="str">
         <f ca="1">COUNTIF(INDIRECT("C"&amp;ROW()+1&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"3") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()+1&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"4") &amp; " / "
 &amp; COUNTIF(INDIRECT("C"&amp;ROW()+1&amp;":C"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"5") &amp; " / "
@@ -9242,32 +9412,32 @@
       <c r="B116" s="9">
         <v>9</v>
       </c>
-      <c r="C116" s="54">
+      <c r="C116" s="51">
         <v>6</v>
       </c>
-      <c r="D116" s="54">
+      <c r="D116" s="51">
         <v>6</v>
       </c>
-      <c r="E116" s="54">
+      <c r="E116" s="51">
         <v>134</v>
       </c>
-      <c r="F116" s="58" t="s">
+      <c r="F116" s="55" t="s">
         <v>553</v>
       </c>
-      <c r="G116" s="54">
+      <c r="G116" s="51">
         <v>10</v>
       </c>
-      <c r="H116" s="57" t="s">
+      <c r="H116" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="I116" s="57" t="s">
+      <c r="I116" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="J116" s="55">
+      <c r="J116" s="52">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
         <v>10</v>
       </c>
-      <c r="K116" s="56">
+      <c r="K116" s="53">
         <v>66</v>
       </c>
       <c r="L116" s="7">
@@ -9287,16 +9457,16 @@
       <c r="C117">
         <v>6</v>
       </c>
-      <c r="D117" s="60">
+      <c r="D117" s="57">
         <v>10</v>
       </c>
-      <c r="E117" s="62">
+      <c r="E117" s="59">
         <v>117</v>
       </c>
-      <c r="F117" s="61" t="s">
+      <c r="F117" s="58" t="s">
         <v>530</v>
       </c>
-      <c r="G117" s="63">
+      <c r="G117" s="60">
         <v>12</v>
       </c>
       <c r="H117" s="26" t="s">
@@ -9962,7 +10132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M307"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I258" sqref="I258"/>
     </sheetView>
   </sheetViews>
@@ -22292,7 +22462,7 @@
     <sortCondition descending="1" ref="J2:J21"/>
   </sortState>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28894,22 +29064,22 @@
     <row r="1" spans="1:13" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63"/>
       <c r="F1" s="33"/>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="63"/>
       <c r="J1" s="33"/>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="53"/>
+      <c r="L1" s="63"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1">
       <c r="A2" s="28" t="s">

--- a/CraZZZy Crash Challenge/CCC-Daten.xlsx
+++ b/CraZZZy Crash Challenge/CCC-Daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Private\JVerkin\projects\KaroToolsCollection\CraZZZy Crash Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E6045E-4E76-444A-B2FF-895CB9D1EBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2968844F-7697-44E6-82F0-BF7869FD0EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38700" yWindow="0" windowWidth="12900" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teilnehmer" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <author xml:space="preserve">Julian Verkin </author>
   </authors>
   <commentList>
-    <comment ref="F63" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="567">
   <si>
     <t>Teilnehmer</t>
   </si>
@@ -1775,6 +1775,15 @@
   </si>
   <si>
     <t>Henrike</t>
+  </si>
+  <si>
+    <t>Häufige Abstürze bei ZZZ&gt;4</t>
+  </si>
+  <si>
+    <t>Keine Mehrfach-Crashs</t>
+  </si>
+  <si>
+    <t>Botrix</t>
   </si>
 </sst>
 </file>
@@ -2184,6 +2193,38 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2253,16 +2294,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2354,28 +2385,6 @@
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2390,40 +2399,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:I80" totalsRowCount="1">
-  <autoFilter ref="A1:I79" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:I81" totalsRowCount="1">
+  <autoFilter ref="A1:I80" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="1">
       <filters blank="1">
+        <filter val="Häufige Abstürze bei ZZZ&gt;4"/>
+        <filter val="Keine Mehrfach-Crashs"/>
         <filter val="wenig Spiele"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I79">
-    <sortCondition ref="A1:A79"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I80">
+    <sortCondition ref="A1:A80"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Teilnehmer" totalsRowLabel="Ergebnis"/>
     <tableColumn id="10" xr3:uid="{85A2CDB7-D191-4742-ACA1-0EB7688D0BC2}" name="Status"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Teilnahmen" totalsRowLabel="x" dataDxfId="40" totalsRowDxfId="0">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Teilnahmen" totalsRowLabel="x" dataDxfId="8" totalsRowDxfId="0">
       <calculatedColumnFormula>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CCC1" totalsRowFunction="custom" dataDxfId="39">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC1],$C80)</totalsRowFormula>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CCC1" totalsRowFunction="custom" dataDxfId="7">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC1],$C81)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CCC2" totalsRowFunction="custom" dataDxfId="38">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC2],$C80)</totalsRowFormula>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CCC2" totalsRowFunction="custom" dataDxfId="6">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC2],$C81)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CCC3" totalsRowFunction="custom" dataDxfId="37">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC3],$C80)</totalsRowFormula>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CCC3" totalsRowFunction="custom" dataDxfId="5">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC3],$C81)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CCC4" totalsRowFunction="custom" dataDxfId="36">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC4],$C80)</totalsRowFormula>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CCC4" totalsRowFunction="custom" dataDxfId="4">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC4],$C81)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CCC5" totalsRowFunction="custom" dataDxfId="35">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC5],$C80)</totalsRowFormula>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CCC5" totalsRowFunction="custom" dataDxfId="3">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC5],$C81)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3FABA211-0AC0-4F1B-8717-B000245148A5}" name="CCC6" totalsRowFunction="custom" dataDxfId="34">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC6],$C80)</totalsRowFormula>
+    <tableColumn id="9" xr3:uid="{3FABA211-0AC0-4F1B-8717-B000245148A5}" name="CCC6" totalsRowFunction="custom" dataDxfId="2">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC6],$C81)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2431,35 +2442,35 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:N132" totalsRowShown="0" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:N132" totalsRowShown="0" dataDxfId="40">
   <autoFilter ref="A1:N132" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L70">
     <sortCondition ref="A37"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CCC"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spieltag" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Spieler" dataDxfId="31"/>
-    <tableColumn id="14" xr3:uid="{75A7E177-63ED-4EFA-93B1-DE89C665DE76}" name="Max Spieler" dataDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{46DD40C5-F863-41A3-82F9-4E621D4A2334}" name="Map ID" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Map Name" dataDxfId="28" dataCellStyle="Link"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="22">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spieltag" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Spieler" dataDxfId="38"/>
+    <tableColumn id="14" xr3:uid="{75A7E177-63ED-4EFA-93B1-DE89C665DE76}" name="Max Spieler" dataDxfId="37"/>
+    <tableColumn id="13" xr3:uid="{46DD40C5-F863-41A3-82F9-4E621D4A2334}" name="Map ID" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Map Name" dataDxfId="35" dataCellStyle="Link"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="29">
       <calculatedColumnFormula>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{897B7B9F-55FE-4CEE-88A6-F9425764BC23}" name="Tabelle4" displayName="Tabelle4" ref="A1:M289" totalsRowCount="1" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{897B7B9F-55FE-4CEE-88A6-F9425764BC23}" name="Tabelle4" displayName="Tabelle4" ref="A1:M289" totalsRowCount="1" headerRowDxfId="26">
   <autoFilter ref="A1:M288" xr:uid="{897B7B9F-55FE-4CEE-88A6-F9425764BC23}">
     <filterColumn colId="11">
       <filters>
@@ -2478,7 +2489,7 @@
     <tableColumn id="4" xr3:uid="{17356422-2A9E-4839-B8A8-369FC1117B6C}" name=": ">
       <calculatedColumnFormula>FIND(D$1,$A2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D73AD2F3-FF78-4433-BB0D-1FB07C679587}" name="(" dataDxfId="17">
+    <tableColumn id="5" xr3:uid="{D73AD2F3-FF78-4433-BB0D-1FB07C679587}" name="(" dataDxfId="25">
       <calculatedColumnFormula>FIND("@",SUBSTITUTE($A2,E$1,"@",LEN($A2)-LEN(SUBSTITUTE($A2,E$1,""))),1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{228CD70F-056D-4F45-A7A5-8BABF11AA649}" name=" Spieler)">
@@ -2491,40 +2502,40 @@
     <tableColumn id="9" xr3:uid="{F93CAB44-C824-4CD9-B3AC-AA74DC75DE63}" name="Name">
       <calculatedColumnFormula>LEFT(RIGHT($A2,LEN($A2) - D2 - 1),E2-D2-2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3F139DA0-52EA-4848-9C94-104C11AFDF7C}" name="Spieler" dataDxfId="16">
+    <tableColumn id="10" xr3:uid="{3F139DA0-52EA-4848-9C94-104C11AFDF7C}" name="Spieler" dataDxfId="24">
       <calculatedColumnFormula>LEFT(RIGHT($A2,LEN($A2) - E2 ),F2-E2-1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{3DFC605D-42C4-4277-8FCE-E63EFB61D7AC}" name="Verwendet?" totalsRowFunction="sum">
       <calculatedColumnFormula>COUNTIF(Strecken!E:E,H2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{6E8D214A-CC9B-4A13-ABB1-6A6DD9B94F36}" name="Kandidat" totalsRowFunction="count"/>
-    <tableColumn id="13" xr3:uid="{B3227200-9836-4BD3-8F00-8050E13E6864}" name="ZZZ" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{B3227200-9836-4BD3-8F00-8050E13E6864}" name="ZZZ" dataDxfId="23" totalsRowDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD48A89C-AF8A-4D74-BEE3-973381D8E39E}" name="Tabelle2" displayName="Tabelle2" ref="A2:L14" totalsRowShown="0" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD48A89C-AF8A-4D74-BEE3-973381D8E39E}" name="Tabelle2" displayName="Tabelle2" ref="A2:L14" totalsRowShown="0" dataDxfId="21">
   <autoFilter ref="A2:L14" xr:uid="{FD48A89C-AF8A-4D74-BEE3-973381D8E39E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L14">
     <sortCondition descending="1" ref="L2:L14"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{06B18662-5B32-42F6-85CF-17D8C9DC7BDF}" name="Spieler" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{183E08E8-D5AA-4DF3-942F-C23480690953}" name=" " dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{37A147A2-6A27-443D-8799-F71527EF7750}" name="Züge" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{31696DC1-5E37-430E-8871-0BCFCD170B2E}" name="Klassisch (Z)" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{BC263A88-D39F-446D-BF5C-F85521658DA8}" name="Geclustert (Z)" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{093A8095-9008-4D88-88F6-250A19675DD8}" name="  " dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{879335B0-290D-43FA-A6FE-E6B6F53D9440}" name="Crashs" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{78D21676-2217-4EF4-A197-F19C7A84C471}" name="Klassisch (CR)" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{BB0FE7C7-52D6-4A76-8688-1B73AD062B37}" name="Geclustert (CR)" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{2E578574-BF4A-4EFE-BF15-F379C953D82E}" name="   " dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{D08C11A1-CC23-4F54-8A65-A4D420BAED58}" name="Gesamt Klassisch" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{06B18662-5B32-42F6-85CF-17D8C9DC7BDF}" name="Spieler" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{183E08E8-D5AA-4DF3-942F-C23480690953}" name=" " dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{37A147A2-6A27-443D-8799-F71527EF7750}" name="Züge" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{31696DC1-5E37-430E-8871-0BCFCD170B2E}" name="Klassisch (Z)" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{BC263A88-D39F-446D-BF5C-F85521658DA8}" name="Geclustert (Z)" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{093A8095-9008-4D88-88F6-250A19675DD8}" name="  " dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{879335B0-290D-43FA-A6FE-E6B6F53D9440}" name="Crashs" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{78D21676-2217-4EF4-A197-F19C7A84C471}" name="Klassisch (CR)" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{BB0FE7C7-52D6-4A76-8688-1B73AD062B37}" name="Geclustert (CR)" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{2E578574-BF4A-4EFE-BF15-F379C953D82E}" name="   " dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{D08C11A1-CC23-4F54-8A65-A4D420BAED58}" name="Gesamt Klassisch" dataDxfId="10">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Klassisch (Z)]]*Tabelle2[[#This Row],[Klassisch (CR)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C8F6816D-C153-497A-A2CC-4183AA81D2EF}" name="Gesamt Geclustert" dataDxfId="1">
+    <tableColumn id="12" xr3:uid="{C8F6816D-C153-497A-A2CC-4183AA81D2EF}" name="Gesamt Geclustert" dataDxfId="9">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Geclustert (Z)]]*Tabelle2[[#This Row],[Geclustert (CR)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2829,15 +2840,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -2940,9 +2952,7 @@
       <c r="H4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>549</v>
-      </c>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
@@ -3010,184 +3020,182 @@
         <v>549</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>550</v>
-      </c>
-      <c r="C8" s="1">
+    <row r="8" spans="1:9" s="51" customFormat="1">
+      <c r="A8" s="51" t="s">
+        <v>566</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>565</v>
+      </c>
+      <c r="C8" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>550</v>
       </c>
       <c r="C9" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>549</v>
-      </c>
+      <c r="G10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>550</v>
+        <v>82</v>
       </c>
       <c r="C12" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>3</v>
-      </c>
-      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>550</v>
       </c>
       <c r="C13" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" hidden="1">
+      <c r="F13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>550</v>
+        <v>85</v>
       </c>
       <c r="C14" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>550</v>
       </c>
       <c r="C15" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>565</v>
       </c>
       <c r="C16" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>45</v>
@@ -3196,225 +3204,223 @@
       <c r="F16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="18">
+        <v>42</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>565</v>
+      </c>
+      <c r="C17" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I17" s="1" t="s">
-        <v>549</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="18">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>4</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>3</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1">
-      <c r="A20" t="s">
+    <row r="21" spans="1:9" hidden="1">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>550</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>2</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="18">
-        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1" t="s">
-        <v>549</v>
-      </c>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="1">
+        <v>90</v>
+      </c>
+      <c r="C22" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I23" s="1" t="s">
-        <v>549</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C25" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" hidden="1">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" t="s">
-        <v>550</v>
+        <v>86</v>
       </c>
       <c r="C26" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="27" spans="1:9" hidden="1">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
         <v>550</v>
@@ -3423,10 +3429,10 @@
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>1</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -3434,7 +3440,7 @@
     </row>
     <row r="28" spans="1:9" hidden="1">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>550</v>
@@ -3452,66 +3458,71 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" hidden="1">
       <c r="A29" t="s">
-        <v>559</v>
-      </c>
-      <c r="C29" s="18">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>550</v>
+      </c>
+      <c r="C29" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="51" customFormat="1">
-      <c r="A30" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="1">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>559</v>
+      </c>
+      <c r="C30" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="51" customFormat="1">
       <c r="A31" s="51" t="s">
-        <v>563</v>
-      </c>
-      <c r="C31" s="18">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="32" spans="1:9" s="51" customFormat="1">
       <c r="A32" s="51" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C32" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
@@ -3522,57 +3533,50 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" t="s">
-        <v>552</v>
-      </c>
-      <c r="C33" s="1">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" s="51" customFormat="1">
+      <c r="A33" s="51" t="s">
+        <v>560</v>
+      </c>
+      <c r="C33" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>1</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" hidden="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C34" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="35" spans="1:9" hidden="1">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
         <v>550</v>
@@ -3592,48 +3596,49 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" s="51" customFormat="1">
-      <c r="A36" s="51" t="s">
-        <v>555</v>
-      </c>
-      <c r="C36" s="18">
+    <row r="36" spans="1:9" hidden="1">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>550</v>
+      </c>
+      <c r="C36" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="1">
+    <row r="37" spans="1:9" s="51" customFormat="1">
+      <c r="A37" s="51" t="s">
+        <v>555</v>
+      </c>
+      <c r="C37" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" hidden="1">
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" t="s">
-        <v>550</v>
+        <v>88</v>
+      </c>
+      <c r="B38" s="51" t="s">
+        <v>564</v>
       </c>
       <c r="C38" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
@@ -3652,42 +3657,36 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>50</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B39" s="51"/>
       <c r="C39" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" hidden="1">
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" t="s">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="C40" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F40" s="1" t="s">
         <v>45</v>
       </c>
@@ -3697,33 +3696,37 @@
       <c r="H40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="I40" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>550</v>
       </c>
       <c r="C41" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" hidden="1">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" t="s">
-        <v>550</v>
+        <v>11</v>
       </c>
       <c r="C42" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
@@ -3732,24 +3735,24 @@
       <c r="D42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" hidden="1">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C43" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>45</v>
@@ -3757,163 +3760,166 @@
       <c r="E43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" hidden="1">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C44" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="E44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" hidden="1">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>550</v>
       </c>
       <c r="C45" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" hidden="1">
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" t="s">
-        <v>550</v>
+        <v>12</v>
       </c>
       <c r="C46" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="I46" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1">
       <c r="A47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="18">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>550</v>
+      </c>
+      <c r="C47" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>1</v>
       </c>
-      <c r="D47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>549</v>
-      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="18">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
+        <v>1</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="1">
+      <c r="B49" t="s">
+        <v>552</v>
+      </c>
+      <c r="C49" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>5</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" hidden="1">
-      <c r="A49" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" t="s">
-        <v>550</v>
-      </c>
-      <c r="C49" s="1">
-        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
-      </c>
       <c r="D49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="50" spans="1:9" hidden="1">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
         <v>550</v>
       </c>
       <c r="C50" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -3921,49 +3927,49 @@
     </row>
     <row r="51" spans="1:9" hidden="1">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B51" t="s">
         <v>550</v>
       </c>
       <c r="C51" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
-      </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="E51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" hidden="1">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s">
         <v>550</v>
       </c>
       <c r="C52" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="D52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" hidden="1">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
         <v>550</v>
@@ -3985,7 +3991,7 @@
     </row>
     <row r="54" spans="1:9" hidden="1">
       <c r="A54" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s">
         <v>550</v>
@@ -4005,13 +4011,16 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" hidden="1">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>550</v>
       </c>
       <c r="C55" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>45</v>
@@ -4019,98 +4028,95 @@
       <c r="E55" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
+        <v>6</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" s="51" customFormat="1">
-      <c r="A56" s="51" t="s">
+      <c r="H56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="51" customFormat="1">
+      <c r="A57" s="51" t="s">
         <v>561</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C57" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>0</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C58" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>4</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" hidden="1">
-      <c r="A58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58" t="s">
-        <v>550</v>
-      </c>
-      <c r="C58" s="1">
-        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
-      </c>
       <c r="D58" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="59" spans="1:9" hidden="1">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B59" t="s">
         <v>550</v>
       </c>
       <c r="C59" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -4118,159 +4124,154 @@
     </row>
     <row r="60" spans="1:9" hidden="1">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B60" t="s">
         <v>550</v>
       </c>
       <c r="C60" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9" s="51" customFormat="1">
-      <c r="A61" s="51" t="s">
-        <v>556</v>
-      </c>
-      <c r="C61" s="18">
+    <row r="61" spans="1:9" hidden="1">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
+        <v>550</v>
+      </c>
+      <c r="C61" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>0</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" hidden="1">
-      <c r="A62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" t="s">
-        <v>550</v>
-      </c>
-      <c r="C62" s="1">
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" s="51" customFormat="1">
+      <c r="A62" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="C62" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
+      <c r="I62" s="1" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="63" spans="1:9" hidden="1">
       <c r="A63" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B63" t="s">
         <v>550</v>
       </c>
       <c r="C63" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>0</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" s="51" customFormat="1">
-      <c r="A64" s="51" t="s">
-        <v>558</v>
-      </c>
-      <c r="C64" s="18">
+    <row r="64" spans="1:9" hidden="1">
+      <c r="A64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" t="s">
+        <v>550</v>
+      </c>
+      <c r="C64" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>0</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" t="s">
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" s="51" customFormat="1">
+      <c r="A65" s="51" t="s">
+        <v>558</v>
+      </c>
+      <c r="C65" s="18">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C66" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>6</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I66" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
-      <c r="A66" t="s">
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
         <v>55</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C67" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>4</v>
-      </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" t="s">
-        <v>56</v>
-      </c>
-      <c r="C67" s="1">
-        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>3</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -4284,155 +4285,145 @@
         <v>45</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C68" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
-      </c>
-      <c r="D68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I68" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" s="51" customFormat="1">
-      <c r="A69" s="51" t="s">
-        <v>557</v>
-      </c>
-      <c r="C69" s="18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>0</v>
-      </c>
-      <c r="D69" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="51" customFormat="1">
+      <c r="A70" s="51" t="s">
+        <v>557</v>
+      </c>
+      <c r="C70" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" hidden="1">
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>38</v>
-      </c>
-      <c r="B71" t="s">
-        <v>550</v>
+        <v>35</v>
       </c>
       <c r="C71" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="I71" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" hidden="1">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B72" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C72" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>1</v>
       </c>
-      <c r="D72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="51" customFormat="1">
-      <c r="A73" s="51" t="s">
-        <v>562</v>
-      </c>
-      <c r="C73" s="18">
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" t="s">
+        <v>550</v>
+      </c>
+      <c r="C73" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" t="s">
-        <v>40</v>
-      </c>
-      <c r="C74" s="1">
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" s="51" customFormat="1">
+      <c r="A74" s="51" t="s">
+        <v>562</v>
+      </c>
+      <c r="C74" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>6</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C75" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
@@ -4459,15 +4450,21 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="C76" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>3</v>
-      </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="G76" s="1" t="s">
         <v>45</v>
       </c>
@@ -4480,32 +4477,32 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C77" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>3</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="I77" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C78" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>45</v>
@@ -4513,27 +4510,27 @@
       <c r="E78" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>96</v>
-      </c>
-      <c r="C79" s="18">
+        <v>27</v>
+      </c>
+      <c r="C79" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
         <v>45</v>
@@ -4542,61 +4539,65 @@
         <v>45</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>549</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" s="18">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
+        <v>2</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
         <v>84</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D80">
-        <f>COUNTIF(Tabelle1[CCC1],$C80)</f>
+      <c r="D81">
+        <f>COUNTIF(Tabelle1[CCC1],$C81)</f>
         <v>42</v>
       </c>
-      <c r="E80">
-        <f>COUNTIF(Tabelle1[CCC2],$C80)</f>
+      <c r="E81">
+        <f>COUNTIF(Tabelle1[CCC2],$C81)</f>
         <v>30</v>
       </c>
-      <c r="F80">
-        <f>COUNTIF(Tabelle1[CCC3],$C80)</f>
+      <c r="F81">
+        <f>COUNTIF(Tabelle1[CCC3],$C81)</f>
         <v>28</v>
-      </c>
-      <c r="G80">
-        <f>COUNTIF(Tabelle1[CCC4],$C80)</f>
-        <v>28</v>
-      </c>
-      <c r="H80">
-        <f>COUNTIF(Tabelle1[CCC5],$C80)</f>
-        <v>30</v>
-      </c>
-      <c r="I80">
-        <f>COUNTIF(Tabelle1[CCC6],$C80)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="3:9">
-      <c r="C81" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="G81">
         <f>COUNTIF(Tabelle1[CCC4],$C81)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H81">
         <f>COUNTIF(Tabelle1[CCC5],$C81)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I81">
         <f>COUNTIF(Tabelle1[CCC6],$C81)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="C82" s="19" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G82">
         <f>COUNTIF(Tabelle1[CCC4],$C82)</f>
@@ -4608,12 +4609,12 @@
       </c>
       <c r="I82">
         <f>COUNTIF(Tabelle1[CCC6],$C82)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="3:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="C83" s="19" t="s">
-        <v>549</v>
+        <v>93</v>
       </c>
       <c r="G83">
         <f>COUNTIF(Tabelle1[CCC4],$C83)</f>
@@ -4625,36 +4626,53 @@
       </c>
       <c r="I83">
         <f>COUNTIF(Tabelle1[CCC6],$C83)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="84" spans="3:9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="C84" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="G84">
+        <f>COUNTIF(Tabelle1[CCC4],$C84)</f>
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <f>COUNTIF(Tabelle1[CCC5],$C84)</f>
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <f>COUNTIF(Tabelle1[CCC6],$C84)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="C85" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D84">
+      <c r="D85">
         <f>SUBTOTAL(103,Tabelle1[CCC1])</f>
         <v>20</v>
       </c>
-      <c r="E84">
+      <c r="E85">
         <f>SUBTOTAL(103,Tabelle1[CCC2])</f>
         <v>16</v>
       </c>
-      <c r="F84">
+      <c r="F85">
         <f>SUBTOTAL(103,Tabelle1[CCC3])</f>
         <v>23</v>
       </c>
-      <c r="G84">
+      <c r="G85">
         <f>SUBTOTAL(103,Tabelle1[CCC4])</f>
-        <v>26</v>
-      </c>
-      <c r="H84">
+        <v>27</v>
+      </c>
+      <c r="H85">
         <f>SUBTOTAL(103,Tabelle1[CCC5])</f>
-        <v>28</v>
-      </c>
-      <c r="I84">
+        <v>29</v>
+      </c>
+      <c r="I85">
         <f>SUBTOTAL(103,Tabelle1[CCC6])</f>
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -4675,8 +4693,8 @@
   </sheetPr>
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView topLeftCell="B85" workbookViewId="0">
-      <selection activeCell="J120" sqref="J120"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="L132" sqref="L132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -9034,7 +9052,7 @@
         <v>25</v>
       </c>
       <c r="C107" s="14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="40"/>
@@ -9056,7 +9074,7 @@
       </c>
       <c r="J107" s="14">
         <f>SUM(J108:J132)</f>
-        <v>302</v>
+        <v>604</v>
       </c>
       <c r="K107" s="16" cm="1">
         <f t="array" ref="K107">SUM(K108:K132*6)</f>
@@ -9064,7 +9082,7 @@
       </c>
       <c r="L107" s="16">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
-        <v>131328</v>
+        <v>262656</v>
       </c>
       <c r="M107" s="14"/>
       <c r="N107" s="14"/>
@@ -9099,7 +9117,7 @@
       </c>
       <c r="J108" s="3">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K108" s="7">
         <v>230</v>
@@ -9141,7 +9159,7 @@
       </c>
       <c r="J109" s="3">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K109" s="7">
         <v>130</v>
@@ -9183,7 +9201,7 @@
       </c>
       <c r="J110" s="3">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K110" s="7">
         <v>113</v>
@@ -9225,7 +9243,7 @@
       </c>
       <c r="J111" s="3">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K111" s="7">
         <v>88</v>
@@ -9267,7 +9285,7 @@
       </c>
       <c r="J112" s="3">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K112" s="7">
         <v>107</v>
@@ -9309,7 +9327,7 @@
       </c>
       <c r="J113" s="50">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K113" s="24">
         <v>140</v>
@@ -9351,7 +9369,7 @@
       </c>
       <c r="J114" s="3">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K114" s="24">
         <v>81</v>
@@ -9393,7 +9411,7 @@
       </c>
       <c r="J115" s="3">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K115" s="7">
         <v>57</v>
@@ -9435,7 +9453,7 @@
       </c>
       <c r="J116" s="52">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K116" s="53">
         <v>66</v>
@@ -9477,7 +9495,7 @@
       </c>
       <c r="J117" s="3">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K117" s="7">
         <v>56</v>
@@ -9519,7 +9537,7 @@
       </c>
       <c r="J118" s="50">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K118" s="24">
         <v>127</v>
@@ -9561,7 +9579,7 @@
       </c>
       <c r="J119" s="3">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K119" s="7">
         <v>55</v>
@@ -9603,7 +9621,7 @@
       </c>
       <c r="J120" s="3">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K120" s="7">
         <v>63</v>
@@ -9645,7 +9663,7 @@
       </c>
       <c r="J121" s="3">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K121" s="7">
         <v>63</v>
@@ -9687,7 +9705,7 @@
       </c>
       <c r="J122" s="3">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K122" s="7">
         <v>49</v>
@@ -9729,7 +9747,7 @@
       </c>
       <c r="J123" s="50">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K123" s="24">
         <v>81</v>
@@ -9771,7 +9789,7 @@
       </c>
       <c r="J124" s="3">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K124" s="7">
         <v>48</v>
@@ -9813,7 +9831,7 @@
       </c>
       <c r="J125" s="3">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K125" s="7">
         <v>44</v>
@@ -9855,7 +9873,7 @@
       </c>
       <c r="J126" s="3">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K126" s="7">
         <v>33</v>
@@ -9897,7 +9915,7 @@
       </c>
       <c r="J127" s="3">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K127" s="7">
         <v>39</v>
@@ -9939,7 +9957,7 @@
       </c>
       <c r="J128" s="50">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K128" s="24">
         <v>44</v>
@@ -9981,7 +9999,7 @@
       </c>
       <c r="J129" s="3">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K129" s="7">
         <v>39</v>
@@ -10023,7 +10041,7 @@
       </c>
       <c r="J130" s="3">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K130" s="7">
         <v>32</v>
@@ -10065,7 +10083,7 @@
       </c>
       <c r="J131" s="3">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K131" s="7">
         <v>19</v>
@@ -10107,7 +10125,7 @@
       </c>
       <c r="J132" s="3">
         <f>$C$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K132" s="7">
         <v>20</v>
@@ -22462,7 +22480,7 @@
     <sortCondition descending="1" ref="J2:J21"/>
   </sortState>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22478,7 +22496,7 @@
   <dimension ref="A1:AK52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T48" sqref="T48"/>
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/CraZZZy Crash Challenge/CCC-Daten.xlsx
+++ b/CraZZZy Crash Challenge/CCC-Daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Private\JVerkin\projects\KaroToolsCollection\CraZZZy Crash Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2968844F-7697-44E6-82F0-BF7869FD0EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F9A658-0CB4-419B-81C8-2ABBA7B39F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38700" yWindow="0" windowWidth="12900" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12900" yWindow="30" windowWidth="25770" windowHeight="18810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teilnehmer" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <author xml:space="preserve">Julian Verkin </author>
   </authors>
   <commentList>
-    <comment ref="F64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="569">
   <si>
     <t>Teilnehmer</t>
   </si>
@@ -1784,6 +1784,12 @@
   </si>
   <si>
     <t>Botrix</t>
+  </si>
+  <si>
+    <t>flinkman</t>
+  </si>
+  <si>
+    <t>DerFlieger</t>
   </si>
 </sst>
 </file>
@@ -2203,28 +2209,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2385,6 +2369,28 @@
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2399,8 +2405,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:I81" totalsRowCount="1">
-  <autoFilter ref="A1:I80" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:I83" totalsRowCount="1">
+  <autoFilter ref="A1:I82" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="1">
       <filters blank="1">
         <filter val="Häufige Abstürze bei ZZZ&gt;4"/>
@@ -2409,32 +2415,32 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I80">
-    <sortCondition ref="A1:A80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I82">
+    <sortCondition ref="A1:A82"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Teilnehmer" totalsRowLabel="Ergebnis"/>
     <tableColumn id="10" xr3:uid="{85A2CDB7-D191-4742-ACA1-0EB7688D0BC2}" name="Status"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Teilnahmen" totalsRowLabel="x" dataDxfId="8" totalsRowDxfId="0">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Teilnahmen" totalsRowLabel="x" dataDxfId="40" totalsRowDxfId="0">
       <calculatedColumnFormula>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CCC1" totalsRowFunction="custom" dataDxfId="7">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC1],$C81)</totalsRowFormula>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CCC1" totalsRowFunction="custom" dataDxfId="39">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC1],$C83)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CCC2" totalsRowFunction="custom" dataDxfId="6">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC2],$C81)</totalsRowFormula>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CCC2" totalsRowFunction="custom" dataDxfId="38">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC2],$C83)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CCC3" totalsRowFunction="custom" dataDxfId="5">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC3],$C81)</totalsRowFormula>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CCC3" totalsRowFunction="custom" dataDxfId="37">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC3],$C83)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CCC4" totalsRowFunction="custom" dataDxfId="4">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC4],$C81)</totalsRowFormula>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CCC4" totalsRowFunction="custom" dataDxfId="36">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC4],$C83)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CCC5" totalsRowFunction="custom" dataDxfId="3">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC5],$C81)</totalsRowFormula>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CCC5" totalsRowFunction="custom" dataDxfId="35">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC5],$C83)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3FABA211-0AC0-4F1B-8717-B000245148A5}" name="CCC6" totalsRowFunction="custom" dataDxfId="2">
-      <totalsRowFormula>COUNTIF(Tabelle1[CCC6],$C81)</totalsRowFormula>
+    <tableColumn id="9" xr3:uid="{3FABA211-0AC0-4F1B-8717-B000245148A5}" name="CCC6" totalsRowFunction="custom" dataDxfId="34">
+      <totalsRowFormula>COUNTIF(Tabelle1[CCC6],$C83)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2442,35 +2448,35 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:N132" totalsRowShown="0" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:N132" totalsRowShown="0" dataDxfId="33">
   <autoFilter ref="A1:N132" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L70">
     <sortCondition ref="A37"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CCC"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spieltag" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Spieler" dataDxfId="38"/>
-    <tableColumn id="14" xr3:uid="{75A7E177-63ED-4EFA-93B1-DE89C665DE76}" name="Max Spieler" dataDxfId="37"/>
-    <tableColumn id="13" xr3:uid="{46DD40C5-F863-41A3-82F9-4E621D4A2334}" name="Map ID" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Map Name" dataDxfId="35" dataCellStyle="Link"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="30"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="29">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spieltag" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Spieler" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{75A7E177-63ED-4EFA-93B1-DE89C665DE76}" name="Max Spieler" dataDxfId="30"/>
+    <tableColumn id="13" xr3:uid="{46DD40C5-F863-41A3-82F9-4E621D4A2334}" name="Map ID" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Map Name" dataDxfId="28" dataCellStyle="Link"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ZZZ" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CPs" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Richtung" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Rennen" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Züge p.S." dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Züge Ges." dataDxfId="22">
       <calculatedColumnFormula>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rating" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kommentar" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{897B7B9F-55FE-4CEE-88A6-F9425764BC23}" name="Tabelle4" displayName="Tabelle4" ref="A1:M289" totalsRowCount="1" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{897B7B9F-55FE-4CEE-88A6-F9425764BC23}" name="Tabelle4" displayName="Tabelle4" ref="A1:M289" totalsRowCount="1" headerRowDxfId="19">
   <autoFilter ref="A1:M288" xr:uid="{897B7B9F-55FE-4CEE-88A6-F9425764BC23}">
     <filterColumn colId="11">
       <filters>
@@ -2489,7 +2495,7 @@
     <tableColumn id="4" xr3:uid="{17356422-2A9E-4839-B8A8-369FC1117B6C}" name=": ">
       <calculatedColumnFormula>FIND(D$1,$A2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D73AD2F3-FF78-4433-BB0D-1FB07C679587}" name="(" dataDxfId="25">
+    <tableColumn id="5" xr3:uid="{D73AD2F3-FF78-4433-BB0D-1FB07C679587}" name="(" dataDxfId="18">
       <calculatedColumnFormula>FIND("@",SUBSTITUTE($A2,E$1,"@",LEN($A2)-LEN(SUBSTITUTE($A2,E$1,""))),1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{228CD70F-056D-4F45-A7A5-8BABF11AA649}" name=" Spieler)">
@@ -2502,40 +2508,40 @@
     <tableColumn id="9" xr3:uid="{F93CAB44-C824-4CD9-B3AC-AA74DC75DE63}" name="Name">
       <calculatedColumnFormula>LEFT(RIGHT($A2,LEN($A2) - D2 - 1),E2-D2-2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3F139DA0-52EA-4848-9C94-104C11AFDF7C}" name="Spieler" dataDxfId="24">
+    <tableColumn id="10" xr3:uid="{3F139DA0-52EA-4848-9C94-104C11AFDF7C}" name="Spieler" dataDxfId="17">
       <calculatedColumnFormula>LEFT(RIGHT($A2,LEN($A2) - E2 ),F2-E2-1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{3DFC605D-42C4-4277-8FCE-E63EFB61D7AC}" name="Verwendet?" totalsRowFunction="sum">
       <calculatedColumnFormula>COUNTIF(Strecken!E:E,H2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{6E8D214A-CC9B-4A13-ABB1-6A6DD9B94F36}" name="Kandidat" totalsRowFunction="count"/>
-    <tableColumn id="13" xr3:uid="{B3227200-9836-4BD3-8F00-8050E13E6864}" name="ZZZ" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{B3227200-9836-4BD3-8F00-8050E13E6864}" name="ZZZ" dataDxfId="16" totalsRowDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD48A89C-AF8A-4D74-BEE3-973381D8E39E}" name="Tabelle2" displayName="Tabelle2" ref="A2:L14" totalsRowShown="0" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD48A89C-AF8A-4D74-BEE3-973381D8E39E}" name="Tabelle2" displayName="Tabelle2" ref="A2:L14" totalsRowShown="0" dataDxfId="14">
   <autoFilter ref="A2:L14" xr:uid="{FD48A89C-AF8A-4D74-BEE3-973381D8E39E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L14">
     <sortCondition descending="1" ref="L2:L14"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{06B18662-5B32-42F6-85CF-17D8C9DC7BDF}" name="Spieler" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{183E08E8-D5AA-4DF3-942F-C23480690953}" name=" " dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{37A147A2-6A27-443D-8799-F71527EF7750}" name="Züge" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{31696DC1-5E37-430E-8871-0BCFCD170B2E}" name="Klassisch (Z)" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{BC263A88-D39F-446D-BF5C-F85521658DA8}" name="Geclustert (Z)" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{093A8095-9008-4D88-88F6-250A19675DD8}" name="  " dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{879335B0-290D-43FA-A6FE-E6B6F53D9440}" name="Crashs" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{78D21676-2217-4EF4-A197-F19C7A84C471}" name="Klassisch (CR)" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{BB0FE7C7-52D6-4A76-8688-1B73AD062B37}" name="Geclustert (CR)" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{2E578574-BF4A-4EFE-BF15-F379C953D82E}" name="   " dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{D08C11A1-CC23-4F54-8A65-A4D420BAED58}" name="Gesamt Klassisch" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{06B18662-5B32-42F6-85CF-17D8C9DC7BDF}" name="Spieler" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{183E08E8-D5AA-4DF3-942F-C23480690953}" name=" " dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{37A147A2-6A27-443D-8799-F71527EF7750}" name="Züge" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{31696DC1-5E37-430E-8871-0BCFCD170B2E}" name="Klassisch (Z)" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{BC263A88-D39F-446D-BF5C-F85521658DA8}" name="Geclustert (Z)" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{093A8095-9008-4D88-88F6-250A19675DD8}" name="  " dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{879335B0-290D-43FA-A6FE-E6B6F53D9440}" name="Crashs" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{78D21676-2217-4EF4-A197-F19C7A84C471}" name="Klassisch (CR)" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{BB0FE7C7-52D6-4A76-8688-1B73AD062B37}" name="Geclustert (CR)" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{2E578574-BF4A-4EFE-BF15-F379C953D82E}" name="   " dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{D08C11A1-CC23-4F54-8A65-A4D420BAED58}" name="Gesamt Klassisch" dataDxfId="3">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Klassisch (Z)]]*Tabelle2[[#This Row],[Klassisch (CR)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C8F6816D-C153-497A-A2CC-4183AA81D2EF}" name="Gesamt Geclustert" dataDxfId="9">
+    <tableColumn id="12" xr3:uid="{C8F6816D-C153-497A-A2CC-4183AA81D2EF}" name="Gesamt Geclustert" dataDxfId="2">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Geclustert (Z)]]*Tabelle2[[#This Row],[Geclustert (CR)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2840,10 +2846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3119,9 +3125,7 @@
       <c r="H12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>549</v>
-      </c>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" hidden="1">
       <c r="A13" t="s">
@@ -3238,9 +3242,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>91</v>
+    <row r="18" spans="1:9" s="51" customFormat="1">
+      <c r="A18" s="51" t="s">
+        <v>568</v>
       </c>
       <c r="C18" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
@@ -3249,218 +3253,214 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="18">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>4</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>3</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1">
-      <c r="A21" t="s">
+    <row r="22" spans="1:9" hidden="1">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>550</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>2</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="18">
-        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="18">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="51" customFormat="1">
+      <c r="A24" s="51" t="s">
+        <v>567</v>
+      </c>
+      <c r="C24" s="18">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C25" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>4</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1">
-        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="1">
-        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
-      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="H25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>2</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" hidden="1">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" t="s">
-        <v>550</v>
+        <v>83</v>
       </c>
       <c r="C27" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" hidden="1">
+      <c r="H27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>550</v>
+        <v>86</v>
       </c>
       <c r="C28" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="29" spans="1:9" hidden="1">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
         <v>550</v>
@@ -3469,227 +3469,224 @@
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>1</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" hidden="1">
       <c r="A30" t="s">
-        <v>559</v>
-      </c>
-      <c r="C30" s="18">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>550</v>
+      </c>
+      <c r="C30" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="51" customFormat="1">
-      <c r="A31" s="51" t="s">
-        <v>47</v>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" hidden="1">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>550</v>
       </c>
       <c r="C31" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>5</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="51" customFormat="1">
-      <c r="A32" s="51" t="s">
-        <v>563</v>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>559</v>
       </c>
       <c r="C32" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="33" spans="1:9" s="51" customFormat="1">
       <c r="A33" s="51" t="s">
-        <v>560</v>
-      </c>
-      <c r="C33" s="18">
+        <v>47</v>
+      </c>
+      <c r="C33" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I33" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" t="s">
-        <v>552</v>
-      </c>
-      <c r="C34" s="1">
+    <row r="34" spans="1:9" s="51" customFormat="1">
+      <c r="A34" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="C34" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" hidden="1">
-      <c r="A35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" t="s">
-        <v>550</v>
-      </c>
-      <c r="C35" s="1">
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" s="51" customFormat="1">
+      <c r="A35" s="51" t="s">
+        <v>560</v>
+      </c>
+      <c r="C35" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" hidden="1">
+      <c r="I35" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C36" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" s="51" customFormat="1">
-      <c r="A37" s="51" t="s">
-        <v>555</v>
-      </c>
-      <c r="C37" s="18">
+      <c r="I36" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>550</v>
+      </c>
+      <c r="C37" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" hidden="1">
       <c r="A38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="51" t="s">
-        <v>564</v>
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>550</v>
       </c>
       <c r="C38" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>2</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="1">
+    <row r="39" spans="1:9" s="51" customFormat="1">
+      <c r="A39" s="51" t="s">
+        <v>555</v>
+      </c>
+      <c r="C39" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>88</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>564</v>
       </c>
       <c r="C40" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
         <v>45</v>
       </c>
@@ -3697,25 +3694,21 @@
         <v>45</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" hidden="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" t="s">
-        <v>550</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B41" s="51"/>
       <c r="C41" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
         <v>45</v>
       </c>
@@ -3726,90 +3719,89 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C42" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="D42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="43" spans="1:9" hidden="1">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
         <v>550</v>
       </c>
       <c r="C43" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="D43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>552</v>
+        <v>11</v>
       </c>
       <c r="C44" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>549</v>
-      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" hidden="1">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
         <v>550</v>
       </c>
       <c r="C45" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -3817,11 +3809,14 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>552</v>
       </c>
       <c r="C46" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>45</v>
@@ -3829,16 +3824,22 @@
       <c r="E46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I46" s="1" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="47" spans="1:9" hidden="1">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
         <v>550</v>
@@ -3858,83 +3859,74 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="18">
+        <v>12</v>
+      </c>
+      <c r="C48" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="H48" s="1"/>
       <c r="I48" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" hidden="1">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C49" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" hidden="1">
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" t="s">
-        <v>550</v>
-      </c>
-      <c r="C50" s="1">
+        <v>97</v>
+      </c>
+      <c r="C50" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>1</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9" hidden="1">
+      <c r="H50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C51" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>45</v>
@@ -3942,14 +3934,22 @@
       <c r="E51" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="52" spans="1:9" hidden="1">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
         <v>550</v>
@@ -3958,18 +3958,18 @@
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>1</v>
       </c>
-      <c r="D52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" hidden="1">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B53" t="s">
         <v>550</v>
@@ -3991,29 +3991,27 @@
     </row>
     <row r="54" spans="1:9" hidden="1">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
         <v>550</v>
       </c>
       <c r="C54" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="D54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" hidden="1">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
         <v>550</v>
@@ -4033,13 +4031,16 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" hidden="1">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>550</v>
       </c>
       <c r="C56" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>45</v>
@@ -4047,29 +4048,28 @@
       <c r="E56" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" hidden="1">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>550</v>
+      </c>
+      <c r="C57" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
+        <v>2</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="51" customFormat="1">
-      <c r="A57" s="51" t="s">
-        <v>561</v>
-      </c>
-      <c r="C57" s="18">
-        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>0</v>
-      </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -4077,16 +4077,18 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C58" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F58" s="1" t="s">
         <v>45</v>
       </c>
@@ -4097,54 +4099,52 @@
         <v>45</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" hidden="1">
-      <c r="A59" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59" t="s">
-        <v>550</v>
-      </c>
-      <c r="C59" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="51" customFormat="1">
+      <c r="A59" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="C59" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" hidden="1">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" t="s">
-        <v>550</v>
+        <v>6</v>
       </c>
       <c r="C60" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="61" spans="1:9" hidden="1">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
         <v>550</v>
@@ -4164,26 +4164,29 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9" s="51" customFormat="1">
-      <c r="A62" s="51" t="s">
-        <v>556</v>
-      </c>
-      <c r="C62" s="18">
+    <row r="62" spans="1:9" hidden="1">
+      <c r="A62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" t="s">
+        <v>550</v>
+      </c>
+      <c r="C62" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>0</v>
-      </c>
-      <c r="D62" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="1" t="s">
-        <v>549</v>
-      </c>
+      <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" hidden="1">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B63" t="s">
         <v>550</v>
@@ -4203,151 +4206,156 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" hidden="1">
-      <c r="A64" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" t="s">
-        <v>550</v>
-      </c>
-      <c r="C64" s="1">
+    <row r="64" spans="1:9" s="51" customFormat="1">
+      <c r="A64" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="C64" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>0</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="1:9" s="51" customFormat="1">
-      <c r="A65" s="51" t="s">
-        <v>558</v>
-      </c>
-      <c r="C65" s="18">
+      <c r="I64" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1">
+      <c r="A65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" t="s">
+        <v>550</v>
+      </c>
+      <c r="C65" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>0</v>
-      </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" hidden="1">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>51</v>
+      </c>
+      <c r="B66" t="s">
+        <v>550</v>
       </c>
       <c r="C66" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" s="51" customFormat="1">
+      <c r="A67" s="51" t="s">
+        <v>558</v>
+      </c>
+      <c r="C67" s="18">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
+        <v>0</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>6</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I68" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
-      <c r="A67" t="s">
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
         <v>55</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C69" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>4</v>
       </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1" t="s">
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="I69" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
-      <c r="A68" t="s">
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
         <v>56</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C70" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>4</v>
       </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="1">
-        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="51" customFormat="1">
-      <c r="A70" s="51" t="s">
-        <v>557</v>
-      </c>
-      <c r="C70" s="18">
-        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>0</v>
-      </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C71" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
@@ -4356,30 +4364,23 @@
       <c r="D71" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" hidden="1">
-      <c r="A72" t="s">
-        <v>38</v>
-      </c>
-      <c r="B72" t="s">
-        <v>550</v>
-      </c>
-      <c r="C72" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="51" customFormat="1">
+      <c r="A72" s="51" t="s">
+        <v>557</v>
+      </c>
+      <c r="C72" s="18">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -4388,149 +4389,144 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>52</v>
-      </c>
-      <c r="B73" t="s">
-        <v>550</v>
+        <v>35</v>
       </c>
       <c r="C73" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>1</v>
-      </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="E73" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="1:9" s="51" customFormat="1">
-      <c r="A74" s="51" t="s">
-        <v>562</v>
-      </c>
-      <c r="C74" s="18">
+      <c r="I73" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" hidden="1">
+      <c r="A74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" t="s">
+        <v>550</v>
+      </c>
+      <c r="C74" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>0</v>
-      </c>
-      <c r="D74" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" hidden="1">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>52</v>
+      </c>
+      <c r="B75" t="s">
+        <v>550</v>
       </c>
       <c r="C75" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>6</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="1">
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" s="51" customFormat="1">
+      <c r="A76" s="51" t="s">
+        <v>562</v>
+      </c>
+      <c r="C76" s="18">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>6</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I77" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
-      <c r="A77" t="s">
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
+        <v>6</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C79" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
         <v>3</v>
       </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" t="s">
-        <v>41</v>
-      </c>
-      <c r="C78" s="1">
-        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>3</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" t="s">
-        <v>27</v>
-      </c>
-      <c r="C79" s="1">
-        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>5</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
         <v>45</v>
@@ -4544,94 +4540,106 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>96</v>
-      </c>
-      <c r="C80" s="18">
+        <v>41</v>
+      </c>
+      <c r="C80" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>2</v>
-      </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>549</v>
-      </c>
+      <c r="F80" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="1">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
+        <v>5</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" s="18">
+        <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
+        <v>2</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
         <v>84</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D81">
-        <f>COUNTIF(Tabelle1[CCC1],$C81)</f>
+      <c r="D83">
+        <f>COUNTIF(Tabelle1[CCC1],$C83)</f>
         <v>42</v>
       </c>
-      <c r="E81">
-        <f>COUNTIF(Tabelle1[CCC2],$C81)</f>
+      <c r="E83">
+        <f>COUNTIF(Tabelle1[CCC2],$C83)</f>
         <v>30</v>
       </c>
-      <c r="F81">
-        <f>COUNTIF(Tabelle1[CCC3],$C81)</f>
+      <c r="F83">
+        <f>COUNTIF(Tabelle1[CCC3],$C83)</f>
         <v>28</v>
-      </c>
-      <c r="G81">
-        <f>COUNTIF(Tabelle1[CCC4],$C81)</f>
-        <v>28</v>
-      </c>
-      <c r="H81">
-        <f>COUNTIF(Tabelle1[CCC5],$C81)</f>
-        <v>30</v>
-      </c>
-      <c r="I81">
-        <f>COUNTIF(Tabelle1[CCC6],$C81)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="C82" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="G82">
-        <f>COUNTIF(Tabelle1[CCC4],$C82)</f>
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <f>COUNTIF(Tabelle1[CCC5],$C82)</f>
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <f>COUNTIF(Tabelle1[CCC6],$C82)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="C83" s="19" t="s">
-        <v>93</v>
       </c>
       <c r="G83">
         <f>COUNTIF(Tabelle1[CCC4],$C83)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H83">
         <f>COUNTIF(Tabelle1[CCC5],$C83)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I83">
         <f>COUNTIF(Tabelle1[CCC6],$C83)</f>
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="C84" s="19" t="s">
-        <v>549</v>
+        <v>87</v>
       </c>
       <c r="G84">
         <f>COUNTIF(Tabelle1[CCC4],$C84)</f>
@@ -4643,36 +4651,70 @@
       </c>
       <c r="I84">
         <f>COUNTIF(Tabelle1[CCC6],$C84)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="C85" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G85">
+        <f>COUNTIF(Tabelle1[CCC4],$C85)</f>
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f>COUNTIF(Tabelle1[CCC5],$C85)</f>
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <f>COUNTIF(Tabelle1[CCC6],$C85)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="C86" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="G86">
+        <f>COUNTIF(Tabelle1[CCC4],$C86)</f>
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <f>COUNTIF(Tabelle1[CCC5],$C86)</f>
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <f>COUNTIF(Tabelle1[CCC6],$C86)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="C87" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D85">
+      <c r="D87">
         <f>SUBTOTAL(103,Tabelle1[CCC1])</f>
         <v>20</v>
       </c>
-      <c r="E85">
+      <c r="E87">
         <f>SUBTOTAL(103,Tabelle1[CCC2])</f>
         <v>16</v>
       </c>
-      <c r="F85">
+      <c r="F87">
         <f>SUBTOTAL(103,Tabelle1[CCC3])</f>
-        <v>23</v>
-      </c>
-      <c r="G85">
+        <v>22</v>
+      </c>
+      <c r="G87">
         <f>SUBTOTAL(103,Tabelle1[CCC4])</f>
         <v>27</v>
       </c>
-      <c r="H85">
+      <c r="H87">
         <f>SUBTOTAL(103,Tabelle1[CCC5])</f>
         <v>29</v>
       </c>
-      <c r="I85">
+      <c r="I87">
         <f>SUBTOTAL(103,Tabelle1[CCC6])</f>
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4693,8 +4735,8 @@
   </sheetPr>
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="L132" sqref="L132"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -22495,8 +22537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AK52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AG24" sqref="AG24:AK28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/CraZZZy Crash Challenge/CCC-Daten.xlsx
+++ b/CraZZZy Crash Challenge/CCC-Daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Private\JVerkin\projects\KaroToolsCollection\CraZZZy Crash Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3A9084-F872-4437-BD4F-D249969FBD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2C7B08-FA34-4EA3-A5B4-27B5937FBFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12900" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teilnehmer" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="575">
   <si>
     <t>Teilnehmer</t>
   </si>
@@ -2890,8 +2890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="C40" s="1">
         <f>COUNTIF(Tabelle1[[#This Row],[CCC1]:[CCC6]],"x")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -3724,9 +3724,7 @@
       <c r="H40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" hidden="1">
       <c r="A41" t="s">
@@ -4657,7 +4655,7 @@
       </c>
       <c r="I83">
         <f>COUNTIF(Tabelle1[CCC6],$C83)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4737,7 +4735,7 @@
       </c>
       <c r="I87">
         <f>SUBTOTAL(103,Tabelle1[CCC6])</f>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4758,8 +4756,8 @@
   </sheetPr>
   <dimension ref="A1:S132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="K112" sqref="K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -10203,16 +10201,16 @@
         <v>10866</v>
       </c>
       <c r="I107" s="14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J107" s="14"/>
       <c r="K107" s="14">
         <f>SUM(K108:K132)</f>
-        <v>871</v>
+        <v>837.5</v>
       </c>
       <c r="L107" s="16">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
-        <v>339019.2</v>
+        <v>325980</v>
       </c>
       <c r="M107" s="16"/>
       <c r="N107" s="55">
@@ -10257,7 +10255,7 @@
       </c>
       <c r="K108" s="3">
         <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>39</v>
+        <v>37.5</v>
       </c>
       <c r="L108" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -10309,7 +10307,7 @@
       </c>
       <c r="K109" s="3">
         <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L109" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -10361,7 +10359,7 @@
       </c>
       <c r="K110" s="3">
         <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>39</v>
+        <v>37.5</v>
       </c>
       <c r="L110" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -10413,7 +10411,7 @@
       </c>
       <c r="K111" s="3">
         <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>39</v>
+        <v>37.5</v>
       </c>
       <c r="L111" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -10465,7 +10463,7 @@
       </c>
       <c r="K112" s="3">
         <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L112" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -10517,7 +10515,7 @@
       </c>
       <c r="K113" s="49">
         <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L113" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -10569,7 +10567,7 @@
       </c>
       <c r="K114" s="3">
         <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L114" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -10621,7 +10619,7 @@
       </c>
       <c r="K115" s="3">
         <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L115" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -10673,7 +10671,7 @@
       </c>
       <c r="K116" s="51">
         <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L116" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -10725,7 +10723,7 @@
       </c>
       <c r="K117" s="3">
         <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>39</v>
+        <v>37.5</v>
       </c>
       <c r="L117" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -10777,7 +10775,7 @@
       </c>
       <c r="K118" s="49">
         <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L118" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -10829,7 +10827,7 @@
       </c>
       <c r="K119" s="3">
         <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L119" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -10881,7 +10879,7 @@
       </c>
       <c r="K120" s="3">
         <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L120" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -10933,7 +10931,7 @@
       </c>
       <c r="K121" s="3">
         <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L121" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -10985,7 +10983,7 @@
       </c>
       <c r="K122" s="3">
         <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L122" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -11037,7 +11035,7 @@
       </c>
       <c r="K123" s="49">
         <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L123" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -11089,7 +11087,7 @@
       </c>
       <c r="K124" s="3">
         <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>39</v>
+        <v>37.5</v>
       </c>
       <c r="L124" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -11141,7 +11139,7 @@
       </c>
       <c r="K125" s="3">
         <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L125" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -11193,7 +11191,7 @@
       </c>
       <c r="K126" s="3">
         <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>39</v>
+        <v>37.5</v>
       </c>
       <c r="L126" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -11245,7 +11243,7 @@
       </c>
       <c r="K127" s="3">
         <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>39</v>
+        <v>37.5</v>
       </c>
       <c r="L127" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -11297,7 +11295,7 @@
       </c>
       <c r="K128" s="49">
         <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L128" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -11349,7 +11347,7 @@
       </c>
       <c r="K129" s="3">
         <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>39</v>
+        <v>37.5</v>
       </c>
       <c r="L129" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -11401,7 +11399,7 @@
       </c>
       <c r="K130" s="3">
         <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>39</v>
+        <v>37.5</v>
       </c>
       <c r="L130" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -11453,7 +11451,7 @@
       </c>
       <c r="K131" s="3">
         <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>39</v>
+        <v>37.5</v>
       </c>
       <c r="L131" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -11505,7 +11503,7 @@
       </c>
       <c r="K132" s="3">
         <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>39</v>
+        <v>37.5</v>
       </c>
       <c r="L132" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -23978,7 +23976,7 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="S26" sqref="L26:S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/CraZZZy Crash Challenge/CCC-Daten.xlsx
+++ b/CraZZZy Crash Challenge/CCC-Daten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\info\KaroToolsCollection\CraZZZy Crash Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Private\JVerkin\projects\KaroToolsCollection\CraZZZy Crash Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3D4F6A-4BF0-4FAF-9997-EA48BECE9BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B349B72-64C4-474A-B7A4-FC22153A41A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27810" yWindow="0" windowWidth="23790" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teilnehmer" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Rennanzahl" sheetId="4" r:id="rId4"/>
     <sheet name="Clustering" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -58,14 +61,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -4831,8 +4834,8 @@
   </sheetPr>
   <dimension ref="A1:S132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="I111" sqref="I111"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="J137" sqref="J137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -10289,7 +10292,7 @@
       </c>
       <c r="M107" s="16"/>
       <c r="N107" s="54">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="O107" s="14"/>
       <c r="P107" s="14"/>
@@ -10341,7 +10344,7 @@
       </c>
       <c r="N108" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>331.2</v>
+        <v>207</v>
       </c>
       <c r="O108" s="26"/>
       <c r="P108" s="26"/>
@@ -10393,7 +10396,7 @@
       </c>
       <c r="N109" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>278.2</v>
+        <v>176.5</v>
       </c>
       <c r="O109" s="26"/>
       <c r="P109" s="26"/>
@@ -10445,7 +10448,7 @@
       </c>
       <c r="N110" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>284.8</v>
+        <v>188.5</v>
       </c>
       <c r="O110" s="26"/>
       <c r="P110" s="26"/>
@@ -10497,7 +10500,7 @@
       </c>
       <c r="N111" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>275.27999999999997</v>
+        <v>187.79999999999998</v>
       </c>
       <c r="O111" s="26"/>
       <c r="P111" s="26"/>
@@ -10549,7 +10552,7 @@
       </c>
       <c r="N112" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>246.07999999999998</v>
+        <v>174.8</v>
       </c>
       <c r="O112" s="26"/>
       <c r="P112" s="26"/>
@@ -10601,7 +10604,7 @@
       </c>
       <c r="N113" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>303.27999999999997</v>
+        <v>215.79999999999998</v>
       </c>
       <c r="O113" s="26"/>
       <c r="P113" s="26"/>
@@ -10653,7 +10656,7 @@
       </c>
       <c r="N114" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>271.2</v>
+        <v>201</v>
       </c>
       <c r="O114" s="26"/>
       <c r="P114" s="26"/>
@@ -10705,7 +10708,7 @@
       </c>
       <c r="N115" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>279.44</v>
+        <v>211.39999999999998</v>
       </c>
       <c r="O115" s="26"/>
       <c r="P115" s="26"/>
@@ -10757,7 +10760,7 @@
       </c>
       <c r="N116" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>293.44</v>
+        <v>225.39999999999998</v>
       </c>
       <c r="O116" s="26"/>
       <c r="P116" s="26"/>
@@ -10809,7 +10812,7 @@
       </c>
       <c r="N117" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>284.39999999999998</v>
+        <v>225</v>
       </c>
       <c r="O117" s="26"/>
       <c r="P117" s="26"/>
@@ -10861,7 +10864,7 @@
       </c>
       <c r="N118" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>341.6</v>
+        <v>266</v>
       </c>
       <c r="O118" s="26"/>
       <c r="P118" s="26"/>
@@ -10913,7 +10916,7 @@
       </c>
       <c r="N119" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>292.24</v>
+        <v>240.39999999999998</v>
       </c>
       <c r="O119" s="26"/>
       <c r="P119" s="26"/>
@@ -10965,7 +10968,7 @@
       </c>
       <c r="N120" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>294.72000000000003</v>
+        <v>247.2</v>
       </c>
       <c r="O120" s="26"/>
       <c r="P120" s="26"/>
@@ -11017,7 +11020,7 @@
       </c>
       <c r="N121" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>308.72000000000003</v>
+        <v>261.2</v>
       </c>
       <c r="O121" s="26"/>
       <c r="P121" s="26"/>
@@ -11069,7 +11072,7 @@
       </c>
       <c r="N122" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>319.83999999999997</v>
+        <v>273.39999999999998</v>
       </c>
       <c r="O122" s="26"/>
       <c r="P122" s="26"/>
@@ -11121,7 +11124,7 @@
       </c>
       <c r="N123" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>392.88</v>
+        <v>324.3</v>
       </c>
       <c r="O123" s="26"/>
       <c r="P123" s="26"/>
@@ -11173,7 +11176,7 @@
       </c>
       <c r="N124" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>360.8</v>
+        <v>309.5</v>
       </c>
       <c r="O124" s="26"/>
       <c r="P124" s="26"/>
@@ -11225,7 +11228,7 @@
       </c>
       <c r="N125" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>355.6</v>
+        <v>311.5</v>
       </c>
       <c r="O125" s="26"/>
       <c r="P125" s="26"/>
@@ -11277,7 +11280,7 @@
       </c>
       <c r="N126" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>355.2</v>
+        <v>316.5</v>
       </c>
       <c r="O126" s="26"/>
       <c r="P126" s="26"/>
@@ -11329,7 +11332,7 @@
       </c>
       <c r="N127" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>361.03999999999996</v>
+        <v>325.39999999999998</v>
       </c>
       <c r="O127" s="26"/>
       <c r="P127" s="26"/>
@@ -11381,7 +11384,7 @@
       </c>
       <c r="N128" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>385.6</v>
+        <v>346</v>
       </c>
       <c r="O128" s="26"/>
       <c r="P128" s="26"/>
@@ -11433,7 +11436,7 @@
       </c>
       <c r="N129" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>387.6</v>
+        <v>352.5</v>
       </c>
       <c r="O129" s="26"/>
       <c r="P129" s="26"/>
@@ -11485,7 +11488,7 @@
       </c>
       <c r="N130" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>364.16</v>
+        <v>343.1</v>
       </c>
       <c r="O130" s="26"/>
       <c r="P130" s="26"/>
@@ -11537,7 +11540,7 @@
       </c>
       <c r="N131" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>368.08</v>
+        <v>350.8</v>
       </c>
       <c r="O131" s="26"/>
       <c r="P131" s="26"/>
@@ -11589,7 +11592,7 @@
       </c>
       <c r="N132" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>381.6</v>
+        <v>364.5</v>
       </c>
       <c r="O132" s="26"/>
       <c r="P132" s="26"/>

--- a/CraZZZy Crash Challenge/CCC-Daten.xlsx
+++ b/CraZZZy Crash Challenge/CCC-Daten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Private\JVerkin\projects\KaroToolsCollection\CraZZZy Crash Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\info\KaroToolsCollection\CraZZZy Crash Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B349B72-64C4-474A-B7A4-FC22153A41A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C771A19-9D9C-4C45-8486-A60584853D8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teilnehmer" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Rennanzahl" sheetId="4" r:id="rId4"/>
     <sheet name="Clustering" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="181029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,10 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -61,14 +58,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -2061,7 +2058,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2201,6 +2198,10 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -4835,7 +4836,7 @@
   <dimension ref="A1:S132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="J137" sqref="J137"/>
+      <selection activeCell="K120" sqref="K120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -10267,7 +10268,7 @@
 &amp; COUNTIF(INDIRECT("I"&amp;ROW()+1&amp;":I"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"8") &amp; " / "
 &amp; COUNTIF(INDIRECT("I"&amp;ROW()+1&amp;":I"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"9") &amp; " / "
 &amp; COUNTIF(INDIRECT("I"&amp;ROW()+1&amp;":I"&amp;(ROW()+Tabelle3[[#This Row],[Spieltag]]),TRUE),"10")</f>
-        <v>7 / 0 / 8 / 10 / 0 / 0 / 0 / 0</v>
+        <v>7 / 6 / 2 / 10 / 0 / 0 / 0 / 0</v>
       </c>
       <c r="E107" s="15"/>
       <c r="F107" s="14"/>
@@ -10284,7 +10285,7 @@
       <c r="J107" s="14"/>
       <c r="K107" s="14">
         <f>SUM(K108:K132)</f>
-        <v>840</v>
+        <v>868</v>
       </c>
       <c r="L107" s="16">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -11052,16 +11053,16 @@
       <c r="H122" s="49">
         <v>43</v>
       </c>
-      <c r="I122" s="49">
+      <c r="I122" s="33">
         <v>6</v>
       </c>
       <c r="J122" s="49">
         <f>_xlfn.NUMBERVALUE(VLOOKUP( Tabelle3[[#This Row],[Map ID]],'Alle Karten'!H:J,3))</f>
         <v>7</v>
       </c>
-      <c r="K122" s="3">
-        <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>25</v>
+      <c r="K122" s="59">
+        <f>($I$107-1)*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>24</v>
       </c>
       <c r="L122" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -11104,16 +11105,16 @@
       <c r="H123" s="49">
         <v>127</v>
       </c>
-      <c r="I123" s="49">
+      <c r="I123" s="33">
         <v>3</v>
       </c>
       <c r="J123" s="49">
         <f>_xlfn.NUMBERVALUE(VLOOKUP( Tabelle3[[#This Row],[Map ID]],'Alle Karten'!H:J,3))</f>
         <v>9</v>
       </c>
-      <c r="K123" s="48">
-        <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>50</v>
+      <c r="K123" s="59">
+        <f>($I$107-1)*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>48</v>
       </c>
       <c r="L123" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -11156,27 +11157,27 @@
       <c r="H124" s="49">
         <v>57</v>
       </c>
-      <c r="I124" s="49">
-        <v>5</v>
+      <c r="I124" s="53">
+        <v>4</v>
       </c>
       <c r="J124" s="49">
         <f>_xlfn.NUMBERVALUE(VLOOKUP( Tabelle3[[#This Row],[Map ID]],'Alle Karten'!H:J,3))</f>
         <v>5</v>
       </c>
-      <c r="K124" s="3">
-        <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>30</v>
+      <c r="K124" s="59">
+        <f>($I$107-1)*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>36</v>
       </c>
       <c r="L124" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
-        <v>342</v>
+        <v>273.59999999999997</v>
       </c>
       <c r="M124" s="50">
         <v>224</v>
       </c>
       <c r="N124" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>309.5</v>
+        <v>292.39999999999998</v>
       </c>
       <c r="O124" s="26"/>
       <c r="P124" s="26"/>
@@ -11208,27 +11209,27 @@
       <c r="H125" s="49">
         <v>49</v>
       </c>
-      <c r="I125" s="49">
-        <v>5</v>
+      <c r="I125" s="53">
+        <v>4</v>
       </c>
       <c r="J125" s="49">
         <f>_xlfn.NUMBERVALUE(VLOOKUP( Tabelle3[[#This Row],[Map ID]],'Alle Karten'!H:J,3))</f>
         <v>5</v>
       </c>
-      <c r="K125" s="3">
-        <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>30</v>
+      <c r="K125" s="59">
+        <f>($I$107-1)*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>36</v>
       </c>
       <c r="L125" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
-        <v>294</v>
+        <v>235.2</v>
       </c>
       <c r="M125" s="50">
         <v>238</v>
       </c>
       <c r="N125" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>311.5</v>
+        <v>296.8</v>
       </c>
       <c r="O125" s="26"/>
       <c r="P125" s="26"/>
@@ -11260,27 +11261,27 @@
       <c r="H126" s="55">
         <v>43</v>
       </c>
-      <c r="I126" s="55">
-        <v>5</v>
+      <c r="I126" s="60">
+        <v>4</v>
       </c>
       <c r="J126" s="49">
         <f>_xlfn.NUMBERVALUE(VLOOKUP( Tabelle3[[#This Row],[Map ID]],'Alle Karten'!H:J,3))</f>
         <v>6</v>
       </c>
-      <c r="K126" s="3">
-        <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>30</v>
+      <c r="K126" s="59">
+        <f>($I$107-1)*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>36</v>
       </c>
       <c r="L126" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
-        <v>258</v>
+        <v>206.4</v>
       </c>
       <c r="M126" s="50">
         <v>252</v>
       </c>
       <c r="N126" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>316.5</v>
+        <v>303.60000000000002</v>
       </c>
       <c r="O126" s="26"/>
       <c r="P126" s="26"/>
@@ -11312,16 +11313,16 @@
       <c r="H127" s="49">
         <v>33</v>
       </c>
-      <c r="I127" s="49">
+      <c r="I127" s="33">
         <v>6</v>
       </c>
       <c r="J127" s="49">
         <f>_xlfn.NUMBERVALUE(VLOOKUP( Tabelle3[[#This Row],[Map ID]],'Alle Karten'!H:J,3))</f>
         <v>7</v>
       </c>
-      <c r="K127" s="3">
-        <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>25</v>
+      <c r="K127" s="59">
+        <f>($I$107-1)*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>24</v>
       </c>
       <c r="L127" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -11364,27 +11365,27 @@
       <c r="H128" s="49">
         <v>44</v>
       </c>
-      <c r="I128" s="49">
-        <v>5</v>
+      <c r="I128" s="53">
+        <v>4</v>
       </c>
       <c r="J128" s="49">
         <f>_xlfn.NUMBERVALUE(VLOOKUP( Tabelle3[[#This Row],[Map ID]],'Alle Karten'!H:J,3))</f>
         <v>6</v>
       </c>
-      <c r="K128" s="48">
-        <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>30</v>
+      <c r="K128" s="59">
+        <f>($I$107-1)*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>36</v>
       </c>
       <c r="L128" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
-        <v>264</v>
+        <v>211.2</v>
       </c>
       <c r="M128" s="50">
         <v>280</v>
       </c>
       <c r="N128" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>346</v>
+        <v>332.8</v>
       </c>
       <c r="O128" s="26"/>
       <c r="P128" s="26"/>
@@ -11416,27 +11417,27 @@
       <c r="H129" s="49">
         <v>39</v>
       </c>
-      <c r="I129" s="49">
-        <v>5</v>
+      <c r="I129" s="53">
+        <v>4</v>
       </c>
       <c r="J129" s="49">
         <f>_xlfn.NUMBERVALUE(VLOOKUP( Tabelle3[[#This Row],[Map ID]],'Alle Karten'!H:J,3))</f>
         <v>5</v>
       </c>
-      <c r="K129" s="3">
-        <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>30</v>
+      <c r="K129" s="59">
+        <f>($I$107-1)*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>36</v>
       </c>
       <c r="L129" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
-        <v>234</v>
+        <v>187.2</v>
       </c>
       <c r="M129" s="50">
         <v>294</v>
       </c>
       <c r="N129" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>352.5</v>
+        <v>340.8</v>
       </c>
       <c r="O129" s="26"/>
       <c r="P129" s="26"/>
@@ -11468,16 +11469,16 @@
       <c r="H130" s="49">
         <v>39</v>
       </c>
-      <c r="I130" s="49">
+      <c r="I130" s="33">
         <v>3</v>
       </c>
       <c r="J130" s="49">
         <f>_xlfn.NUMBERVALUE(VLOOKUP( Tabelle3[[#This Row],[Map ID]],'Alle Karten'!H:J,3))</f>
         <v>4</v>
       </c>
-      <c r="K130" s="3">
-        <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>50</v>
+      <c r="K130" s="59">
+        <f>($I$107-1)*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>48</v>
       </c>
       <c r="L130" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -11520,16 +11521,16 @@
       <c r="H131" s="49">
         <v>32</v>
       </c>
-      <c r="I131" s="49">
+      <c r="I131" s="33">
         <v>3</v>
       </c>
       <c r="J131" s="49">
         <f>_xlfn.NUMBERVALUE(VLOOKUP( Tabelle3[[#This Row],[Map ID]],'Alle Karten'!H:J,3))</f>
         <v>4</v>
       </c>
-      <c r="K131" s="3">
-        <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>50</v>
+      <c r="K131" s="59">
+        <f>($I$107-1)*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>48</v>
       </c>
       <c r="L131" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
@@ -11572,27 +11573,27 @@
       <c r="H132" s="49">
         <v>19</v>
       </c>
-      <c r="I132" s="49">
-        <v>5</v>
+      <c r="I132" s="53">
+        <v>4</v>
       </c>
       <c r="J132" s="49">
         <f>_xlfn.NUMBERVALUE(VLOOKUP( Tabelle3[[#This Row],[Map ID]],'Alle Karten'!H:J,3))</f>
         <v>5</v>
       </c>
-      <c r="K132" s="3">
-        <f>$I$107*6/Tabelle3[[#This Row],[Spieler]]</f>
-        <v>30</v>
+      <c r="K132" s="59">
+        <f>($I$107-1)*6/Tabelle3[[#This Row],[Spieler]]</f>
+        <v>36</v>
       </c>
       <c r="L132" s="7">
         <f>Tabelle3[[#This Row],[Spieler]]*Tabelle3[[#This Row],[Züge p.S.]]*1.2</f>
-        <v>114</v>
+        <v>91.2</v>
       </c>
       <c r="M132" s="50">
         <v>336</v>
       </c>
       <c r="N132" s="51">
         <f>Tabelle3[[#This Row],[Züge Ges.]]/N$107+Tabelle3[[#This Row],[Startverzögerung]]</f>
-        <v>364.5</v>
+        <v>358.8</v>
       </c>
       <c r="O132" s="26"/>
       <c r="P132" s="26"/>
@@ -24127,7 +24128,7 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
